--- a/AdofaiTweaks.Generator/translations.xlsx
+++ b/AdofaiTweaks.Generator/translations.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="217">
   <si>
     <t>KEY</t>
   </si>
@@ -258,6 +258,12 @@
   </si>
   <si>
     <t>Menos estable</t>
+  </si>
+  <si>
+    <t>HIDE_PERFECTS</t>
+  </si>
+  <si>
+    <t>Hide "Perfect!" judgments</t>
   </si>
   <si>
     <t>Key Limiter</t>
@@ -1205,7 +1211,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1340,6 +1346,14 @@
       </c>
       <c r="D10" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1374,13 +1388,13 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1388,69 +1402,69 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1485,13 +1499,13 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1499,139 +1513,139 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D6" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C9" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D9" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B10" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C10" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D10" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B11" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C11" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D11" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B12" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C12" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D12" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1666,13 +1680,13 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1680,153 +1694,153 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B6" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C6" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D6" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C8" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D8" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B9" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C9" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D9" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B10" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C10" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D10" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B11" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C11" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D11" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B12" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C12" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D12" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B13" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C13" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D13" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -1861,13 +1875,13 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1875,41 +1889,41 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B5" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C5" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D5" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -1944,13 +1958,13 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1958,41 +1972,41 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C4" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B5" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C5" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D5" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/AdofaiTweaks.Generator/translations.xlsx
+++ b/AdofaiTweaks.Generator/translations.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="222">
   <si>
     <t>KEY</t>
   </si>
@@ -218,6 +218,9 @@
     <t>입력 실수 표시 시간:</t>
   </si>
   <si>
+    <t>Duración de las marcas en pantalla:</t>
+  </si>
+  <si>
     <t>ERROR_METER_TICK_SECONDS</t>
   </si>
   <si>
@@ -227,6 +230,9 @@
     <t>{0} 초</t>
   </si>
   <si>
+    <t>{0} segundo(s)</t>
+  </si>
+  <si>
     <t>ERROR_METER_SENSITIVITY</t>
   </si>
   <si>
@@ -236,6 +242,9 @@
     <t>평균 화살표 감도:</t>
   </si>
   <si>
+    <t>Sensibilidad de la flecha:</t>
+  </si>
+  <si>
     <t>ERROR_METER_MORE_STABLE</t>
   </si>
   <si>
@@ -264,6 +273,12 @@
   </si>
   <si>
     <t>Hide "Perfect!" judgments</t>
+  </si>
+  <si>
+    <t>"정확" 판정 숨기기</t>
+  </si>
+  <si>
+    <t>Esconder juicios de "!Perfecto!"</t>
   </si>
   <si>
     <t>Key Limiter</t>
@@ -1297,63 +1312,78 @@
       <c r="C6" t="s">
         <v>64</v>
       </c>
+      <c r="D6" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>68</v>
+      </c>
+      <c r="D7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>72</v>
+      </c>
+      <c r="D8" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D9" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D10" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>83</v>
+      </c>
+      <c r="C11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1388,13 +1418,13 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1402,69 +1432,69 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D6" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C7" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1499,13 +1529,13 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1513,139 +1543,139 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D3" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C4" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D4" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B5" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D5" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C6" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D6" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B7" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C7" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B8" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C8" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D8" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B9" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C9" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D9" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B10" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C10" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D10" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B11" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C11" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D11" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B12" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C12" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D12" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1680,13 +1710,13 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1694,153 +1724,153 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C3" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D3" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B4" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C4" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D4" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B5" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C5" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D5" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B6" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C6" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D6" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B8" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C8" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D8" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B9" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C9" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D9" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B10" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C10" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D10" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B11" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C11" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="D11" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B12" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C12" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D12" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B13" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C13" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D13" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -1875,13 +1905,13 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C2" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1889,41 +1919,41 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D3" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B4" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C4" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="D4" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B5" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C5" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D5" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -1958,13 +1988,13 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C2" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D2" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1972,41 +2002,41 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C3" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D3" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B4" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C4" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D4" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B5" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C5" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D5" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/AdofaiTweaks.Generator/translations.xlsx
+++ b/AdofaiTweaks.Generator/translations.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="242">
   <si>
     <t>KEY</t>
   </si>
@@ -170,7 +170,7 @@
     <t>Judgment Visuals</t>
   </si>
   <si>
-    <t>판정 꾸미기</t>
+    <t>판정 비주얼</t>
   </si>
   <si>
     <t>Visualización de los juicios</t>
@@ -179,7 +179,7 @@
     <t>Improves the visuals of judgments.</t>
   </si>
   <si>
-    <t>보이는 판정을 더 낫게 바꿉니다.</t>
+    <t>판정을 더 정확하고 간단하게 보이도록 변경합니다.</t>
   </si>
   <si>
     <t>Mejora los visuales de los juicios.</t>
@@ -345,6 +345,66 @@
   </si>
   <si>
     <t>Cambiar teclas</t>
+  </si>
+  <si>
+    <t>SHOW_KEY_VIEWER</t>
+  </si>
+  <si>
+    <t>Show key viewer for registered keys</t>
+  </si>
+  <si>
+    <t>KEY_VIEWER_SIZE</t>
+  </si>
+  <si>
+    <t>Size:</t>
+  </si>
+  <si>
+    <t>KEY_VIEWER_X_POS</t>
+  </si>
+  <si>
+    <t>X Position:</t>
+  </si>
+  <si>
+    <t>KEY_VIEWER_Y_POS</t>
+  </si>
+  <si>
+    <t>Y Position:</t>
+  </si>
+  <si>
+    <t>PRESSED_OUTLINE_COLOR</t>
+  </si>
+  <si>
+    <t>Pressed outline color:</t>
+  </si>
+  <si>
+    <t>RELEASED_OUTLINE_COLOR</t>
+  </si>
+  <si>
+    <t>Released outline color:</t>
+  </si>
+  <si>
+    <t>PRESSED_BACKGROUND_COLOR</t>
+  </si>
+  <si>
+    <t>Pressed background color:</t>
+  </si>
+  <si>
+    <t>RELEASED_BACKGROUND_COLOR</t>
+  </si>
+  <si>
+    <t>Released background color:</t>
+  </si>
+  <si>
+    <t>PRESSED_TEXT_COLOR</t>
+  </si>
+  <si>
+    <t>Pressed text color:</t>
+  </si>
+  <si>
+    <t>RELEASED_TEXT_COLOR</t>
+  </si>
+  <si>
+    <t>Released text color:</t>
   </si>
   <si>
     <t>Miscellaneous</t>
@@ -1393,7 +1453,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1495,6 +1555,86 @@
       </c>
       <c r="D7" t="s">
         <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>126</v>
+      </c>
+      <c r="B17" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1529,13 +1669,13 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="C2" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="D2" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1543,139 +1683,139 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="B4" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="C4" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="D4" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="C5" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D5" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="B6" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="C6" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="D6" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="B7" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="C7" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="D7" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="B8" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="C8" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="D8" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="B9" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="C9" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="D9" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="B10" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="C10" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="D10" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="B11" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="C11" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="D11" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="B12" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="C12" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="D12" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -1710,13 +1850,13 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="C2" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="D2" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1724,153 +1864,153 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="C3" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="D3" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="B4" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="C4" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="D4" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="B5" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="C5" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="D5" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="B6" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="C6" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="D6" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="B7" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="C7" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="D7" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="B8" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="C8" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="D8" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="B9" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="C9" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="D9" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="B10" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="C10" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="D10" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="B11" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="C11" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="D11" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="B12" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="C12" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="D12" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="B13" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="C13" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="D13" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -1905,13 +2045,13 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="C2" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="D2" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1919,41 +2059,41 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="C3" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="D3" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="B4" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="C4" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="D4" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="B5" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="C5" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="D5" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -1988,13 +2128,13 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="C2" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="D2" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2002,41 +2142,41 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="C3" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="D3" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="B4" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="C4" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="D4" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="B5" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="C5" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="D5" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>

--- a/AdofaiTweaks.Generator/translations.xlsx
+++ b/AdofaiTweaks.Generator/translations.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="227">
   <si>
     <t>KEY</t>
   </si>
@@ -353,6 +353,9 @@
     <t>Show key viewer for registered keys</t>
   </si>
   <si>
+    <t>등록된 키들의 키뷰어 보이기</t>
+  </si>
+  <si>
     <t>KEY_VIEWER_SIZE</t>
   </si>
   <si>
@@ -365,48 +368,72 @@
     <t>X Position:</t>
   </si>
   <si>
+    <t>가로 위치:</t>
+  </si>
+  <si>
     <t>KEY_VIEWER_Y_POS</t>
   </si>
   <si>
     <t>Y Position:</t>
   </si>
   <si>
+    <t>세로 위치:</t>
+  </si>
+  <si>
     <t>PRESSED_OUTLINE_COLOR</t>
   </si>
   <si>
     <t>Pressed outline color:</t>
   </si>
   <si>
+    <t>누른 키의 테두리 색상:</t>
+  </si>
+  <si>
     <t>RELEASED_OUTLINE_COLOR</t>
   </si>
   <si>
     <t>Released outline color:</t>
   </si>
   <si>
+    <t>누르지 않은 키의 테두리 색상:</t>
+  </si>
+  <si>
     <t>PRESSED_BACKGROUND_COLOR</t>
   </si>
   <si>
     <t>Pressed background color:</t>
   </si>
   <si>
+    <t>누른 키의 배경 색상:</t>
+  </si>
+  <si>
     <t>RELEASED_BACKGROUND_COLOR</t>
   </si>
   <si>
     <t>Released background color:</t>
   </si>
   <si>
+    <t>누르지 않은 키의 배경 색상:</t>
+  </si>
+  <si>
     <t>PRESSED_TEXT_COLOR</t>
   </si>
   <si>
     <t>Pressed text color:</t>
   </si>
   <si>
+    <t>누른 키의 텍스트 색상:</t>
+  </si>
+  <si>
     <t>RELEASED_TEXT_COLOR</t>
   </si>
   <si>
     <t>Released text color:</t>
   </si>
   <si>
+    <t>누르지 않은 키의 텍스트 색상:</t>
+  </si>
+  <si>
     <t>Miscellaneous</t>
   </si>
   <si>
@@ -575,100 +602,28 @@
     <t>Planeta 2:</t>
   </si>
   <si>
-    <t>BODY_R</t>
-  </si>
-  <si>
-    <t>Body R:</t>
-  </si>
-  <si>
-    <t>행성 R:</t>
-  </si>
-  <si>
-    <t>Cuerpo R:</t>
-  </si>
-  <si>
-    <t>BODY_G</t>
-  </si>
-  <si>
-    <t>Body G:</t>
-  </si>
-  <si>
-    <t>행성 G:</t>
-  </si>
-  <si>
-    <t>Cuerpo G:</t>
-  </si>
-  <si>
-    <t>BODY_B</t>
-  </si>
-  <si>
-    <t>Body B:</t>
-  </si>
-  <si>
-    <t>행성 B:</t>
-  </si>
-  <si>
-    <t>Cuerpo B:</t>
-  </si>
-  <si>
-    <t>TAIL_R</t>
-  </si>
-  <si>
-    <t>Tail R:</t>
-  </si>
-  <si>
-    <t>꼬리 파티클 R:</t>
-  </si>
-  <si>
-    <t>Cola R:</t>
-  </si>
-  <si>
-    <t>TAIL_G</t>
-  </si>
-  <si>
-    <t>Tail G:</t>
-  </si>
-  <si>
-    <t>꼬리 파티클 G:</t>
-  </si>
-  <si>
-    <t>Cola G:</t>
-  </si>
-  <si>
-    <t>TAIL_B</t>
-  </si>
-  <si>
-    <t>Tail B:</t>
-  </si>
-  <si>
-    <t>꼬리 파티클 B:</t>
-  </si>
-  <si>
-    <t>Cola B:</t>
-  </si>
-  <si>
-    <t>BODY_HEX</t>
-  </si>
-  <si>
-    <t>Body Hex:</t>
-  </si>
-  <si>
-    <t>행성 Hex:</t>
-  </si>
-  <si>
-    <t>Cuerpo Hex:</t>
-  </si>
-  <si>
-    <t>TAIL_HEX</t>
-  </si>
-  <si>
-    <t>Tail Hex:</t>
-  </si>
-  <si>
-    <t>꼬리 파티클 Hex:</t>
-  </si>
-  <si>
-    <t>Cola Hex:</t>
+    <t>BODY</t>
+  </si>
+  <si>
+    <t>Body:</t>
+  </si>
+  <si>
+    <t>행성:</t>
+  </si>
+  <si>
+    <t>Cuerpo:</t>
+  </si>
+  <si>
+    <t>TAIL</t>
+  </si>
+  <si>
+    <t>Tail:</t>
+  </si>
+  <si>
+    <t>꼬리 파티클:</t>
+  </si>
+  <si>
+    <t>Cola:</t>
   </si>
   <si>
     <t>Planet Opacity</t>
@@ -1564,77 +1519,107 @@
       <c r="B8" t="s">
         <v>109</v>
       </c>
+      <c r="C8" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B9" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="C9" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B10" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="C10" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B11" t="s">
-        <v>115</v>
+        <v>117</v>
+      </c>
+      <c r="C11" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s">
-        <v>117</v>
+        <v>120</v>
+      </c>
+      <c r="C12" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B13" t="s">
-        <v>119</v>
+        <v>123</v>
+      </c>
+      <c r="C13" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B14" t="s">
-        <v>121</v>
+        <v>126</v>
+      </c>
+      <c r="C14" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B15" t="s">
-        <v>123</v>
+        <v>129</v>
+      </c>
+      <c r="C15" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B16" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>132</v>
+      </c>
+      <c r="C16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B17" t="s">
-        <v>127</v>
+        <v>135</v>
+      </c>
+      <c r="C17" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1669,13 +1654,13 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="D2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1683,139 +1668,139 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C3" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="D3" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="C4" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="D4" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="C5" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="D5" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="C6" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="D6" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="B7" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="C7" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="D7" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="B8" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C8" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="D8" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="B9" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="C9" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="D9" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="B10" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="C10" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="D10" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="B11" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="C11" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="D11" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="B12" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="C12" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D12" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -1825,7 +1810,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1850,13 +1835,13 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="C2" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="D2" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1864,153 +1849,69 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="C3" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="D3" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="B4" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="C4" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="D4" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="B5" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="C5" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="D5" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="B6" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="C6" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="D6" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="B7" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="C7" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D7" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>192</v>
-      </c>
-      <c r="B8" t="s">
-        <v>193</v>
-      </c>
-      <c r="C8" t="s">
-        <v>194</v>
-      </c>
-      <c r="D8" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>196</v>
-      </c>
-      <c r="B9" t="s">
-        <v>197</v>
-      </c>
-      <c r="C9" t="s">
-        <v>198</v>
-      </c>
-      <c r="D9" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
         <v>200</v>
-      </c>
-      <c r="B10" t="s">
-        <v>201</v>
-      </c>
-      <c r="C10" t="s">
-        <v>202</v>
-      </c>
-      <c r="D10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>204</v>
-      </c>
-      <c r="B11" t="s">
-        <v>205</v>
-      </c>
-      <c r="C11" t="s">
-        <v>206</v>
-      </c>
-      <c r="D11" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>208</v>
-      </c>
-      <c r="B12" t="s">
-        <v>209</v>
-      </c>
-      <c r="C12" t="s">
-        <v>210</v>
-      </c>
-      <c r="D12" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>212</v>
-      </c>
-      <c r="B13" t="s">
-        <v>213</v>
-      </c>
-      <c r="C13" t="s">
-        <v>214</v>
-      </c>
-      <c r="D13" t="s">
-        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -2045,13 +1946,13 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="C2" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="D2" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2059,41 +1960,41 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="C3" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="D3" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="B4" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="C4" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="D4" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="B5" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="C5" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="D5" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -2128,13 +2029,13 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="C2" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="D2" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2142,41 +2043,41 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="C3" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="D3" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="B4" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="C4" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="D4" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="B5" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="C5" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="D5" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>

--- a/AdofaiTweaks.Generator/translations.xlsx
+++ b/AdofaiTweaks.Generator/translations.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="230">
   <si>
     <t>KEY</t>
   </si>
@@ -356,6 +356,15 @@
     <t>등록된 키들의 키뷰어 보이기</t>
   </si>
   <si>
+    <t>ANIMATE_KEYS</t>
+  </si>
+  <si>
+    <t>Animate key presses</t>
+  </si>
+  <si>
+    <t>키를 눌렀을 때 효과 보이기</t>
+  </si>
+  <si>
     <t>KEY_VIEWER_SIZE</t>
   </si>
   <si>
@@ -395,7 +404,7 @@
     <t>Released outline color:</t>
   </si>
   <si>
-    <t>누르지 않은 키의 테두리 색상:</t>
+    <t>뗀 키의 테두리 색상:</t>
   </si>
   <si>
     <t>PRESSED_BACKGROUND_COLOR</t>
@@ -413,7 +422,7 @@
     <t>Released background color:</t>
   </si>
   <si>
-    <t>누르지 않은 키의 배경 색상:</t>
+    <t>뗀 키의 배경 색상:</t>
   </si>
   <si>
     <t>PRESSED_TEXT_COLOR</t>
@@ -431,7 +440,7 @@
     <t>Released text color:</t>
   </si>
   <si>
-    <t>누르지 않은 키의 텍스트 색상:</t>
+    <t>뗀 키의 텍스트 색상:</t>
   </si>
   <si>
     <t>Miscellaneous</t>
@@ -1408,7 +1417,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1531,18 +1540,18 @@
         <v>112</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C10" t="s">
-        <v>115</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1620,6 +1629,17 @@
       </c>
       <c r="C17" t="s">
         <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>137</v>
+      </c>
+      <c r="B18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1654,13 +1674,13 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1668,139 +1688,139 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C4" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B5" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C5" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D5" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B6" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C6" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D6" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B8" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C8" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B9" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C9" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D9" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B10" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C10" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D10" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B11" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C11" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D11" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B12" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C12" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D12" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -1835,13 +1855,13 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1849,69 +1869,69 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C3" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D3" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B4" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C4" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D4" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B5" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C5" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D5" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B6" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C6" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D6" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -1946,13 +1966,13 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1960,41 +1980,41 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C3" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D3" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B4" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C4" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D4" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C5" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D5" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -2029,13 +2049,13 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2043,41 +2063,41 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C3" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D3" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B4" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C4" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D4" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B5" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C5" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D5" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/AdofaiTweaks.Generator/translations.xlsx
+++ b/AdofaiTweaks.Generator/translations.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="245">
   <si>
     <t>KEY</t>
   </si>
@@ -356,6 +356,21 @@
     <t>등록된 키들의 키뷰어 보이기</t>
   </si>
   <si>
+    <t>Mostrar teclas en pantalla</t>
+  </si>
+  <si>
+    <t>VIEWER_ONLY_GAMEPLAY</t>
+  </si>
+  <si>
+    <t>Only show during gameplay</t>
+  </si>
+  <si>
+    <t>레벨 플레이중에만 보이기</t>
+  </si>
+  <si>
+    <t>Sólo mostrar mientras juegas</t>
+  </si>
+  <si>
     <t>ANIMATE_KEYS</t>
   </si>
   <si>
@@ -365,12 +380,18 @@
     <t>키를 눌렀을 때 효과 보이기</t>
   </si>
   <si>
+    <t>Animar pulsaciones de teclas</t>
+  </si>
+  <si>
     <t>KEY_VIEWER_SIZE</t>
   </si>
   <si>
     <t>Size:</t>
   </si>
   <si>
+    <t>Tamaño:</t>
+  </si>
+  <si>
     <t>KEY_VIEWER_X_POS</t>
   </si>
   <si>
@@ -380,6 +401,9 @@
     <t>가로 위치:</t>
   </si>
   <si>
+    <t>Posición X:</t>
+  </si>
+  <si>
     <t>KEY_VIEWER_Y_POS</t>
   </si>
   <si>
@@ -389,6 +413,9 @@
     <t>세로 위치:</t>
   </si>
   <si>
+    <t>Posición Y:</t>
+  </si>
+  <si>
     <t>PRESSED_OUTLINE_COLOR</t>
   </si>
   <si>
@@ -398,6 +425,9 @@
     <t>누른 키의 테두리 색상:</t>
   </si>
   <si>
+    <t>Color del contorno de las teclas pulsadas:</t>
+  </si>
+  <si>
     <t>RELEASED_OUTLINE_COLOR</t>
   </si>
   <si>
@@ -407,6 +437,9 @@
     <t>뗀 키의 테두리 색상:</t>
   </si>
   <si>
+    <t>Color del contorno de las teclas sin pulsar:</t>
+  </si>
+  <si>
     <t>PRESSED_BACKGROUND_COLOR</t>
   </si>
   <si>
@@ -416,6 +449,9 @@
     <t>누른 키의 배경 색상:</t>
   </si>
   <si>
+    <t>Color del fondo de las teclas pulsadas:</t>
+  </si>
+  <si>
     <t>RELEASED_BACKGROUND_COLOR</t>
   </si>
   <si>
@@ -425,6 +461,9 @@
     <t>뗀 키의 배경 색상:</t>
   </si>
   <si>
+    <t>Color del fondo de las teclas sin pulsar:</t>
+  </si>
+  <si>
     <t>PRESSED_TEXT_COLOR</t>
   </si>
   <si>
@@ -434,6 +473,9 @@
     <t>누른 키의 텍스트 색상:</t>
   </si>
   <si>
+    <t>Color del texto de las teclas pulsadas:</t>
+  </si>
+  <si>
     <t>RELEASED_TEXT_COLOR</t>
   </si>
   <si>
@@ -441,6 +483,9 @@
   </si>
   <si>
     <t>뗀 키의 텍스트 색상:</t>
+  </si>
+  <si>
+    <t>Color del texto de las teclas sin pulsar:</t>
   </si>
   <si>
     <t>Miscellaneous</t>
@@ -1417,7 +1462,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1531,115 +1576,162 @@
       <c r="C8" t="s">
         <v>110</v>
       </c>
+      <c r="D8" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C9" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="D9" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B10" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>118</v>
+      </c>
+      <c r="D10" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B11" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C11" t="s">
-        <v>118</v>
+        <v>60</v>
+      </c>
+      <c r="D11" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C12" t="s">
-        <v>121</v>
+        <v>125</v>
+      </c>
+      <c r="D12" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B13" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C13" t="s">
-        <v>124</v>
+        <v>129</v>
+      </c>
+      <c r="D13" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B14" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C14" t="s">
-        <v>127</v>
+        <v>133</v>
+      </c>
+      <c r="D14" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B15" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C15" t="s">
-        <v>130</v>
+        <v>137</v>
+      </c>
+      <c r="D15" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B16" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C16" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>141</v>
+      </c>
+      <c r="D16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="B17" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="C17" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>145</v>
+      </c>
+      <c r="D17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="B18" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="C18" t="s">
-        <v>139</v>
+        <v>149</v>
+      </c>
+      <c r="D18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>151</v>
+      </c>
+      <c r="B19" t="s">
+        <v>152</v>
+      </c>
+      <c r="C19" t="s">
+        <v>153</v>
+      </c>
+      <c r="D19" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -1674,13 +1766,13 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="D2" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1688,139 +1780,139 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="C3" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="D3" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="B4" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="C4" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D4" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="B5" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="C5" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="D5" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="B6" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="C6" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="D6" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="B7" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="C7" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="D7" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="B8" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="C8" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="D8" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="B9" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="C9" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="D9" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="B10" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="C10" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="D10" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="B11" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="C11" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="D11" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="B12" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="C12" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="D12" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -1855,13 +1947,13 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="C2" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="D2" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1869,69 +1961,69 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="C3" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="D3" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="B4" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="C4" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="D4" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="B5" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="C5" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="D5" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="B6" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="C6" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="D6" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="B7" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="C7" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="D7" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -1966,13 +2058,13 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="C2" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="D2" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1980,41 +2072,41 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="C3" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="D3" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="B4" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="C4" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="D4" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="B5" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="C5" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="D5" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -2049,13 +2141,13 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="C2" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="D2" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2063,41 +2155,41 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="C3" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="D3" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="B4" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="C4" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="D4" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="B5" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="C5" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="D5" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>

--- a/AdofaiTweaks.Generator/translations.xlsx
+++ b/AdofaiTweaks.Generator/translations.xlsx
@@ -11,17 +11,18 @@
     <sheet name="HideUiElements" sheetId="2" r:id="rId2"/>
     <sheet name="JudgmentVisuals" sheetId="3" r:id="rId3"/>
     <sheet name="KeyLimiter" sheetId="4" r:id="rId4"/>
-    <sheet name="Miscellaneous" sheetId="5" r:id="rId5"/>
-    <sheet name="PlanetColor" sheetId="6" r:id="rId6"/>
-    <sheet name="PlanetOpacity" sheetId="7" r:id="rId7"/>
-    <sheet name="RestrictJudgments" sheetId="8" r:id="rId8"/>
+    <sheet name="KeyViewer" sheetId="5" r:id="rId5"/>
+    <sheet name="Miscellaneous" sheetId="6" r:id="rId6"/>
+    <sheet name="PlanetColor" sheetId="7" r:id="rId7"/>
+    <sheet name="PlanetOpacity" sheetId="8" r:id="rId8"/>
+    <sheet name="RestrictJudgments" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="247">
   <si>
     <t>KEY</t>
   </si>
@@ -347,16 +348,22 @@
     <t>Cambiar teclas</t>
   </si>
   <si>
-    <t>SHOW_KEY_VIEWER</t>
-  </si>
-  <si>
-    <t>Show key viewer for registered keys</t>
+    <t>Key Viewer</t>
+  </si>
+  <si>
+    <t>키뷰어</t>
+  </si>
+  <si>
+    <t>Teclas en pantella</t>
+  </si>
+  <si>
+    <t>Shows a key viewer for registered keys</t>
   </si>
   <si>
     <t>등록된 키들의 키뷰어 보이기</t>
   </si>
   <si>
-    <t>Mostrar teclas en pantalla</t>
+    <t>Muestra teclas en pantalla</t>
   </si>
   <si>
     <t>VIEWER_ONLY_GAMEPLAY</t>
@@ -1462,7 +1469,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1566,180 +1573,277 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C8" t="s">
-        <v>110</v>
-      </c>
-      <c r="D8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>112</v>
-      </c>
-      <c r="B9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B10" t="s">
-        <v>117</v>
-      </c>
-      <c r="C10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>120</v>
-      </c>
-      <c r="B11" t="s">
-        <v>121</v>
-      </c>
-      <c r="C11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>123</v>
-      </c>
-      <c r="B12" t="s">
-        <v>124</v>
-      </c>
-      <c r="C12" t="s">
-        <v>125</v>
-      </c>
-      <c r="D12" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>127</v>
-      </c>
-      <c r="B13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C13" t="s">
-        <v>129</v>
-      </c>
-      <c r="D13" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>131</v>
-      </c>
-      <c r="B14" t="s">
-        <v>132</v>
-      </c>
-      <c r="C14" t="s">
-        <v>133</v>
-      </c>
-      <c r="D14" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>135</v>
-      </c>
-      <c r="B15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C15" t="s">
-        <v>137</v>
-      </c>
-      <c r="D15" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>139</v>
-      </c>
-      <c r="B16" t="s">
-        <v>140</v>
-      </c>
-      <c r="C16" t="s">
-        <v>141</v>
-      </c>
-      <c r="D16" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>143</v>
-      </c>
-      <c r="B17" t="s">
-        <v>144</v>
-      </c>
-      <c r="C17" t="s">
-        <v>145</v>
-      </c>
-      <c r="D17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>147</v>
-      </c>
-      <c r="B18" t="s">
-        <v>148</v>
-      </c>
-      <c r="C18" t="s">
-        <v>149</v>
-      </c>
-      <c r="D18" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>151</v>
-      </c>
-      <c r="B19" t="s">
-        <v>152</v>
-      </c>
-      <c r="C19" t="s">
-        <v>153</v>
-      </c>
-      <c r="D19" t="s">
-        <v>154</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>137</v>
+      </c>
+      <c r="B14" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>141</v>
+      </c>
+      <c r="B15" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>145</v>
+      </c>
+      <c r="B16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16" t="s">
+        <v>147</v>
+      </c>
+      <c r="D16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>149</v>
+      </c>
+      <c r="B17" t="s">
+        <v>150</v>
+      </c>
+      <c r="C17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>153</v>
+      </c>
+      <c r="B18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C18" t="s">
+        <v>155</v>
+      </c>
+      <c r="D18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -1766,13 +1870,13 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1780,139 +1884,139 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B6" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C6" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D6" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C8" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D8" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B9" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C9" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D9" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B10" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C10" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D10" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B11" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C11" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D11" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B12" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C12" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D12" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -1920,7 +2024,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -1947,13 +2051,13 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1961,152 +2065,69 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B5" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C5" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D5" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B6" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C6" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D6" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C2" t="s">
         <v>220</v>
-      </c>
-      <c r="D2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B4" t="s">
-        <v>225</v>
-      </c>
-      <c r="C4" t="s">
-        <v>226</v>
-      </c>
-      <c r="D4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>207</v>
-      </c>
-      <c r="B5" t="s">
-        <v>228</v>
-      </c>
-      <c r="C5" t="s">
-        <v>229</v>
-      </c>
-      <c r="D5" t="s">
-        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -2141,13 +2162,13 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="C2" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="D2" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2155,41 +2176,124 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C3" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="D3" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="B4" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="C4" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="D4" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C4" t="s">
         <v>241</v>
       </c>
+      <c r="D4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>243</v>
+      </c>
       <c r="B5" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C5" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D5" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>

--- a/AdofaiTweaks.Generator/translations.xlsx
+++ b/AdofaiTweaks.Generator/translations.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="267">
   <si>
     <t>KEY</t>
   </si>
@@ -297,7 +297,7 @@
     <t>켜져 있을 때, 사용자가 등록한 키들로만 입력처리 되도록 제한합니다.</t>
   </si>
   <si>
-    <t>Cuando está activo, restringe qué teclas cuentan como válidas</t>
+    <t>Cuando está activo, restringe qué teclas cuentan como válidas.</t>
   </si>
   <si>
     <t>REGISTERED_KEYS</t>
@@ -357,13 +357,13 @@
     <t>Teclas en pantella</t>
   </si>
   <si>
-    <t>Shows a key viewer for registered keys</t>
-  </si>
-  <si>
-    <t>등록된 키들의 키뷰어 보이기</t>
-  </si>
-  <si>
-    <t>Muestra teclas en pantalla</t>
+    <t>Shows a key viewer for registered keys.</t>
+  </si>
+  <si>
+    <t>등록된 키들의 키뷰어 보이기.</t>
+  </si>
+  <si>
+    <t>Muestra teclas en pantalla.</t>
   </si>
   <si>
     <t>VIEWER_ONLY_GAMEPLAY</t>
@@ -493,6 +493,66 @@
   </si>
   <si>
     <t>Color del texto de las teclas sin pulsar:</t>
+  </si>
+  <si>
+    <t>PROFILES</t>
+  </si>
+  <si>
+    <t>Profiles:</t>
+  </si>
+  <si>
+    <t>프로파일들:</t>
+  </si>
+  <si>
+    <t>Perfiles:</t>
+  </si>
+  <si>
+    <t>PROFILE_NAME</t>
+  </si>
+  <si>
+    <t>Profile name:</t>
+  </si>
+  <si>
+    <t>프로파일 이름:</t>
+  </si>
+  <si>
+    <t>Nombre del perfil:</t>
+  </si>
+  <si>
+    <t>NEW</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>생성</t>
+  </si>
+  <si>
+    <t>Nuevo</t>
+  </si>
+  <si>
+    <t>DUPLICATE</t>
+  </si>
+  <si>
+    <t>Duplicate</t>
+  </si>
+  <si>
+    <t>복제</t>
+  </si>
+  <si>
+    <t>Duplicar</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>삭제</t>
+  </si>
+  <si>
+    <t>Eliminar</t>
   </si>
   <si>
     <t>Miscellaneous</t>
@@ -1580,7 +1640,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1836,6 +1896,76 @@
       </c>
       <c r="D18" t="s">
         <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B19" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" t="s">
+        <v>159</v>
+      </c>
+      <c r="D19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>161</v>
+      </c>
+      <c r="B20" t="s">
+        <v>162</v>
+      </c>
+      <c r="C20" t="s">
+        <v>163</v>
+      </c>
+      <c r="D20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>165</v>
+      </c>
+      <c r="B21" t="s">
+        <v>166</v>
+      </c>
+      <c r="C21" t="s">
+        <v>167</v>
+      </c>
+      <c r="D21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>169</v>
+      </c>
+      <c r="B22" t="s">
+        <v>170</v>
+      </c>
+      <c r="C22" t="s">
+        <v>171</v>
+      </c>
+      <c r="D22" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>173</v>
+      </c>
+      <c r="B23" t="s">
+        <v>174</v>
+      </c>
+      <c r="C23" t="s">
+        <v>175</v>
+      </c>
+      <c r="D23" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -1870,13 +2000,13 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="C2" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="D2" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1884,139 +2014,139 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="C3" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="D3" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="B4" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="C4" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="D4" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="B5" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="C5" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="D5" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="B6" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="C6" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="D6" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="B7" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="C7" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="D7" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="B8" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="C8" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="D8" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="B9" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="C9" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="D9" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="B10" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="C10" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="D10" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="B11" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="C11" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="D11" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="B12" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="C12" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="D12" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -2051,13 +2181,13 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="C2" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="D2" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2065,69 +2195,69 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="C3" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="D3" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="B4" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="C4" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="D4" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="B5" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="C5" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="D5" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="B6" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="C6" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="D6" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="B7" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="C7" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="D7" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -2162,13 +2292,13 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="C2" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="D2" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2176,41 +2306,41 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="C3" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="D3" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="B4" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="C4" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="D4" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="B5" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="C5" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="D5" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -2245,13 +2375,13 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="C2" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="D2" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2259,41 +2389,41 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="C3" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="D3" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="B4" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="C4" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="D4" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="B5" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="C5" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="D5" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>

--- a/AdofaiTweaks.Generator/translations.xlsx
+++ b/AdofaiTweaks.Generator/translations.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="271">
   <si>
     <t>KEY</t>
   </si>
@@ -553,6 +553,18 @@
   </si>
   <si>
     <t>Eliminar</t>
+  </si>
+  <si>
+    <t>SHOW_KEY_PRESS_TOTAL</t>
+  </si>
+  <si>
+    <t>Show key press total</t>
+  </si>
+  <si>
+    <t>총 키를 누른 횟수 표시하기</t>
+  </si>
+  <si>
+    <t>Mostrar número total de pulsaciones</t>
   </si>
   <si>
     <t>Miscellaneous</t>
@@ -1640,7 +1652,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1966,6 +1978,20 @@
       </c>
       <c r="D23" t="s">
         <v>176</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>177</v>
+      </c>
+      <c r="B24" t="s">
+        <v>178</v>
+      </c>
+      <c r="C24" t="s">
+        <v>179</v>
+      </c>
+      <c r="D24" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -2000,13 +2026,13 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2014,139 +2040,139 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C3" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D3" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B4" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C4" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D4" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B5" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C5" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D5" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B6" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C6" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D6" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B8" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C8" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D8" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B9" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C9" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D9" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B10" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C10" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D10" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B11" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C11" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D11" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B12" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C12" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D12" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -2181,13 +2207,13 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2195,69 +2221,69 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C3" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D3" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B4" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C4" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D4" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B5" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C5" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D5" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B6" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C6" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D6" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -2292,13 +2318,13 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C2" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D2" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2306,41 +2332,41 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C3" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D3" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B4" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C4" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D4" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B5" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C5" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D5" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -2375,13 +2401,13 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C2" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D2" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2389,41 +2415,41 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C3" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D3" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B4" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C4" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D4" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B5" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C5" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>

--- a/AdofaiTweaks.Generator/translations.xlsx
+++ b/AdofaiTweaks.Generator/translations.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="275">
   <si>
     <t>KEY</t>
   </si>
@@ -348,6 +348,18 @@
     <t>Cambiar teclas</t>
   </si>
   <si>
+    <t>LIMIT_CLS</t>
+  </si>
+  <si>
+    <t>Limit keys in CLS (Custom Level Select)</t>
+  </si>
+  <si>
+    <t>LIMIT_MAIN_MENU</t>
+  </si>
+  <si>
+    <t>Limit keys in main menu</t>
+  </si>
+  <si>
     <t>Key Viewer</t>
   </si>
   <si>
@@ -360,7 +372,7 @@
     <t>Shows a key viewer for registered keys.</t>
   </si>
   <si>
-    <t>등록된 키들의 키뷰어 보이기.</t>
+    <t>등록된 키들의 키뷰어를 보여줍니다.</t>
   </si>
   <si>
     <t>Muestra teclas en pantalla.</t>
@@ -1541,7 +1553,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1643,6 +1655,22 @@
       </c>
       <c r="D7" t="s">
         <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1677,13 +1705,13 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1691,13 +1719,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1758,240 +1786,240 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B8" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C8" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D8" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B9" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C9" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D9" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C10" t="s">
         <v>60</v>
       </c>
       <c r="D10" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B11" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C11" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D11" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C12" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D12" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B13" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C13" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D13" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B14" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C14" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D14" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B15" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C15" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D15" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B16" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C16" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D16" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B17" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C17" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D17" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B18" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C18" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D18" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B19" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C19" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D19" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B20" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C20" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D20" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B21" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C21" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D21" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B22" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C22" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D22" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B23" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C23" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D23" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B24" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C24" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D24" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -2026,13 +2054,13 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2040,139 +2068,139 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C3" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D3" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B4" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C4" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D4" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B5" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C5" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D5" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B6" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C6" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D6" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B8" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C8" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D8" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B9" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C9" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D9" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B10" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C10" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D10" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B11" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C11" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D11" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B12" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C12" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D12" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -2207,13 +2235,13 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2221,69 +2249,69 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C3" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D3" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B4" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C4" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D4" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B5" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C5" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D5" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B6" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C6" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D6" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -2318,13 +2346,13 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2332,41 +2360,41 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C3" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D3" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B4" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C4" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D4" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B5" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C5" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D5" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -2401,13 +2429,13 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C2" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D2" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2415,41 +2443,41 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C3" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D3" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B4" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C4" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D4" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B5" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C5" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D5" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>

--- a/AdofaiTweaks.Generator/translations.xlsx
+++ b/AdofaiTweaks.Generator/translations.xlsx
@@ -8,21 +8,22 @@
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
-    <sheet name="HideUiElements" sheetId="2" r:id="rId2"/>
-    <sheet name="JudgmentVisuals" sheetId="3" r:id="rId3"/>
-    <sheet name="KeyLimiter" sheetId="4" r:id="rId4"/>
-    <sheet name="KeyViewer" sheetId="5" r:id="rId5"/>
-    <sheet name="Miscellaneous" sheetId="6" r:id="rId6"/>
-    <sheet name="PlanetColor" sheetId="7" r:id="rId7"/>
-    <sheet name="PlanetOpacity" sheetId="8" r:id="rId8"/>
-    <sheet name="RestrictJudgments" sheetId="9" r:id="rId9"/>
+    <sheet name="DisableEffects" sheetId="2" r:id="rId2"/>
+    <sheet name="HideUiElements" sheetId="3" r:id="rId3"/>
+    <sheet name="JudgmentVisuals" sheetId="4" r:id="rId4"/>
+    <sheet name="KeyLimiter" sheetId="5" r:id="rId5"/>
+    <sheet name="KeyViewer" sheetId="6" r:id="rId6"/>
+    <sheet name="Miscellaneous" sheetId="7" r:id="rId7"/>
+    <sheet name="PlanetColor" sheetId="8" r:id="rId8"/>
+    <sheet name="PlanetOpacity" sheetId="9" r:id="rId9"/>
+    <sheet name="RestrictJudgments" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="289">
   <si>
     <t>KEY</t>
   </si>
@@ -75,6 +76,45 @@
     <t>NAME</t>
   </si>
   <si>
+    <t>Disable Effects</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Disables certain effects to improve performance.</t>
+  </si>
+  <si>
+    <t>FILTER</t>
+  </si>
+  <si>
+    <t>Disable VFX filters (Grayscale, Arcade, etc.)</t>
+  </si>
+  <si>
+    <t>BLOOM</t>
+  </si>
+  <si>
+    <t>Disable bloom</t>
+  </si>
+  <si>
+    <t>FLASH</t>
+  </si>
+  <si>
+    <t>Disable screen flashes</t>
+  </si>
+  <si>
+    <t>HALL_OF_MIRRORS</t>
+  </si>
+  <si>
+    <t>Disable "Hall of Mirrors" effect</t>
+  </si>
+  <si>
+    <t>SCREEN_SHAKE</t>
+  </si>
+  <si>
+    <t>Disable screen shake</t>
+  </si>
+  <si>
     <t>Hide UI Elements</t>
   </si>
   <si>
@@ -84,9 +124,6 @@
     <t>Ocultar elementos de la IU</t>
   </si>
   <si>
-    <t>DESCRIPTION</t>
-  </si>
-  <si>
     <t>Hides certain UI elements from gameplay.</t>
   </si>
   <si>
@@ -354,10 +391,16 @@
     <t>Limit keys in CLS (Custom Level Select)</t>
   </si>
   <si>
+    <t>CLS (커스텀 레벨 선택) 에서 키 제한하기</t>
+  </si>
+  <si>
     <t>LIMIT_MAIN_MENU</t>
   </si>
   <si>
     <t>Limit keys in main menu</t>
+  </si>
+  <si>
+    <t>메인 메뉴에서 키 제한하기</t>
   </si>
   <si>
     <t>Key Viewer</t>
@@ -1245,7 +1288,173 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>281</v>
+      </c>
+      <c r="B4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C5" t="s">
+        <v>287</v>
+      </c>
+      <c r="D5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -1272,111 +1481,111 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1384,7 +1593,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D11"/>
   <sheetViews>
@@ -1411,139 +1620,139 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="D9" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D11" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1551,7 +1760,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -1578,99 +1787,105 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="D5" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="D6" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="D7" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s">
-        <v>109</v>
+        <v>121</v>
+      </c>
+      <c r="C8" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="B9" t="s">
-        <v>111</v>
+        <v>124</v>
+      </c>
+      <c r="C9" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1678,7 +1893,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D24"/>
   <sheetViews>
@@ -1705,321 +1920,321 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="C3" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="D3" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="D5" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="D6" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="D7" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="B8" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="C8" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="D8" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="B9" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="C9" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="D9" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D10" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="C11" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="D11" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="B12" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C12" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="D12" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="B13" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="C13" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="D13" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="B14" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="C14" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="D14" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="B15" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="C15" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="D15" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="B16" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="C16" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="D16" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="B17" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="C17" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="D17" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="B18" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="C18" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="D18" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="B19" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="C19" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="D19" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="B20" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="C20" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="D20" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="B21" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="C21" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="D21" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="B22" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="C22" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="D22" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="B23" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="C23" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="D23" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="B24" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="C24" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="D24" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -2027,7 +2242,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -2054,153 +2269,153 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="C2" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="D2" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="C3" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="D3" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="B4" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="C4" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="D4" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="B5" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="C5" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="D5" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="B6" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="C6" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="D6" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="B7" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="C7" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="D7" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="B8" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="C8" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="D8" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="B9" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="C9" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="D9" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="B10" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="C10" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="D10" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="B11" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="C11" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="D11" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="B12" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="C12" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="D12" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -2208,7 +2423,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -2235,166 +2450,83 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="C2" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="D2" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="C3" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="D3" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="B4" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="C4" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="D4" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="B5" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="C5" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="D5" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="B6" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="C6" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="D6" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="B7" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="C7" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="D7" t="s">
-        <v>248</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C2" t="s">
-        <v>250</v>
-      </c>
-      <c r="D2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>252</v>
-      </c>
-      <c r="C3" t="s">
-        <v>253</v>
-      </c>
-      <c r="D3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>233</v>
-      </c>
-      <c r="B4" t="s">
-        <v>255</v>
-      </c>
-      <c r="C4" t="s">
-        <v>256</v>
-      </c>
-      <c r="D4" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>237</v>
-      </c>
-      <c r="B5" t="s">
-        <v>258</v>
-      </c>
-      <c r="C5" t="s">
-        <v>259</v>
-      </c>
-      <c r="D5" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -2429,46 +2561,46 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C3" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D3" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="B4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="B5" t="s">
         <v>272</v>

--- a/AdofaiTweaks.Generator/translations.xlsx
+++ b/AdofaiTweaks.Generator/translations.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="293">
   <si>
     <t>KEY</t>
   </si>
@@ -113,6 +113,18 @@
   </si>
   <si>
     <t>Disable screen shake</t>
+  </si>
+  <si>
+    <t>TILE_MOVEMENT_MAX</t>
+  </si>
+  <si>
+    <t>Max number of moving tiles at once:</t>
+  </si>
+  <si>
+    <t>TILE_MOVEMENT_UNLIMITED</t>
+  </si>
+  <si>
+    <t>Unlimited</t>
   </si>
   <si>
     <t>Hide UI Elements</t>
@@ -1315,13 +1327,13 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1329,41 +1341,41 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C3" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D3" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B4" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C4" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D4" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B5" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C5" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D5" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -1373,7 +1385,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1447,6 +1459,22 @@
       </c>
       <c r="B8" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1481,13 +1509,13 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1495,97 +1523,97 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1620,13 +1648,13 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1634,125 +1662,125 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D8" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D9" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C10" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D10" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C11" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D11" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1787,13 +1815,13 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1801,91 +1829,91 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D4" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B5" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C5" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D5" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D6" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C9" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1920,13 +1948,13 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1934,307 +1962,307 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D3" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D4" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B5" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C5" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D5" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D6" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B8" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C8" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D8" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B9" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C9" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D9" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B10" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D10" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C11" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D11" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C12" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D12" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C13" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D13" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B14" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C14" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D14" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B15" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C15" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D15" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B16" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C16" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D16" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B17" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C17" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D17" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B18" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C18" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D18" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B19" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C19" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D19" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B20" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C20" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D20" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B21" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C21" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D21" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B22" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C22" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D22" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B23" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C23" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D23" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B24" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C24" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D24" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -2269,13 +2297,13 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2283,139 +2311,139 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C3" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D3" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B4" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C4" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D4" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B5" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C5" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D5" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B6" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C6" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D6" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B8" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C8" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D8" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B9" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C9" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D9" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B10" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C10" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D10" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B11" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C11" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D11" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B12" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C12" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D12" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -2450,13 +2478,13 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C2" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D2" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2464,69 +2492,69 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C3" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D3" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B4" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C4" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D4" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B5" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C5" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D5" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B6" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C6" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D6" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -2561,13 +2589,13 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C2" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D2" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2575,41 +2603,41 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C3" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D3" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B4" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C4" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D4" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B5" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C5" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D5" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>

--- a/AdofaiTweaks.Generator/translations.xlsx
+++ b/AdofaiTweaks.Generator/translations.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="313">
   <si>
     <t>KEY</t>
   </si>
@@ -79,54 +79,108 @@
     <t>Disable Effects</t>
   </si>
   <si>
+    <t>이펙트 비활성화</t>
+  </si>
+  <si>
+    <t>Desactivar efectos</t>
+  </si>
+  <si>
     <t>DESCRIPTION</t>
   </si>
   <si>
     <t>Disables certain effects to improve performance.</t>
   </si>
   <si>
+    <t>특정 이펙트를 비활성화해 게임플레이를 더 부드럽게 합니다.</t>
+  </si>
+  <si>
+    <t>Desactiva efectos específicos para mejorar el rendimiento</t>
+  </si>
+  <si>
     <t>FILTER</t>
   </si>
   <si>
     <t>Disable VFX filters (Grayscale, Arcade, etc.)</t>
   </si>
   <si>
+    <t>VFX 필터 (흑백, 아케이드, 등..) 끄기</t>
+  </si>
+  <si>
+    <t>Desactivar efectos de filtro (Grayscale, Arcade, etc.)</t>
+  </si>
+  <si>
     <t>BLOOM</t>
   </si>
   <si>
     <t>Disable bloom</t>
   </si>
   <si>
+    <t>블룸 끄기</t>
+  </si>
+  <si>
+    <t>Descativar Brillo (Bloom)</t>
+  </si>
+  <si>
     <t>FLASH</t>
   </si>
   <si>
     <t>Disable screen flashes</t>
   </si>
   <si>
+    <t>스크린 플래시 끄기</t>
+  </si>
+  <si>
+    <t>Desactivar Destellos (Flashes)</t>
+  </si>
+  <si>
     <t>HALL_OF_MIRRORS</t>
   </si>
   <si>
     <t>Disable "Hall of Mirrors" effect</t>
   </si>
   <si>
+    <t>"거울의 방" 이펙트 끄기</t>
+  </si>
+  <si>
+    <t>Desactivar Cuarto de Espejos (Hall of Mirrors)</t>
+  </si>
+  <si>
     <t>SCREEN_SHAKE</t>
   </si>
   <si>
     <t>Disable screen shake</t>
   </si>
   <si>
+    <t>화면 흔들림 끄기</t>
+  </si>
+  <si>
+    <t>Desactivar vibraciones de pantalla (Screen Shake)</t>
+  </si>
+  <si>
     <t>TILE_MOVEMENT_MAX</t>
   </si>
   <si>
     <t>Max number of moving tiles at once:</t>
   </si>
   <si>
+    <t>한꺼번에 움직일 수 있는 타일의 개수:</t>
+  </si>
+  <si>
+    <t>Número máximo de casillas moviéndose a la vez</t>
+  </si>
+  <si>
     <t>TILE_MOVEMENT_UNLIMITED</t>
   </si>
   <si>
     <t>Unlimited</t>
   </si>
   <si>
+    <t>제한 없음</t>
+  </si>
+  <si>
+    <t>Ilimitado</t>
+  </si>
+  <si>
     <t>Hide UI Elements</t>
   </si>
   <si>
@@ -406,6 +460,9 @@
     <t>CLS (커스텀 레벨 선택) 에서 키 제한하기</t>
   </si>
   <si>
+    <t>Limitar teclas en el CLS (Selector de niveles personalizados)</t>
+  </si>
+  <si>
     <t>LIMIT_MAIN_MENU</t>
   </si>
   <si>
@@ -413,6 +470,9 @@
   </si>
   <si>
     <t>메인 메뉴에서 키 제한하기</t>
+  </si>
+  <si>
+    <t>Limitar teclas en el menú principal</t>
   </si>
   <si>
     <t>Key Viewer</t>
@@ -1327,55 +1387,55 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="C2" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="D2" t="s">
-        <v>281</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>282</v>
+        <v>302</v>
       </c>
       <c r="C3" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="D3" t="s">
-        <v>284</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="B4" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="C4" t="s">
-        <v>287</v>
+        <v>307</v>
       </c>
       <c r="D4" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="B5" t="s">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="C5" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="D5" t="s">
-        <v>292</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -1412,69 +1472,123 @@
       <c r="B2" t="s">
         <v>17</v>
       </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1509,111 +1623,111 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1648,139 +1762,139 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="D7" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="D8" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="D9" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="D10" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="B11" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="C11" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="D11" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1815,105 +1929,111 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="D2" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="D3" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="D4" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C5" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="D5" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="B6" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="C6" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="D6" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="B7" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="C7" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="D7" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="B8" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="C8" t="s">
-        <v>126</v>
+        <v>144</v>
+      </c>
+      <c r="D8" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="B9" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="C9" t="s">
-        <v>129</v>
+        <v>148</v>
+      </c>
+      <c r="D9" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1948,321 +2068,321 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C2" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="D2" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="C3" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="D3" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="D4" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C5" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="D5" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="B6" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="C6" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="D6" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="B7" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="C7" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="D7" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="B8" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="C8" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="D8" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="B9" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="C9" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="D9" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="B10" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="D10" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="B11" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="C11" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="D11" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="B12" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="C12" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="D12" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="B13" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="C13" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="D13" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="B14" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="C14" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="D14" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="B15" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="C15" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="D15" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="B16" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="C16" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="D16" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="B17" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="C17" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="D17" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="B18" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="C18" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="D18" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="B19" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="C19" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="D19" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="B20" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="C20" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="D20" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="B21" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="C21" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="D21" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="B22" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="C22" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="D22" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="B23" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="C23" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="D23" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="B24" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="C24" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="D24" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -2297,153 +2417,153 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="C2" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="D2" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="C3" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="D3" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="B4" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="C4" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="D4" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="B5" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="C5" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="D5" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="B6" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="C6" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="D6" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="B7" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="C7" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="D7" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="B8" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="C8" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="D8" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="B9" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="C9" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="D9" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="B10" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="C10" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="D10" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="B11" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="C11" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="D11" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="B12" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="C12" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="D12" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -2478,83 +2598,83 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="C2" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="D2" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="C3" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="D3" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="B4" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="C4" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="D4" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="B5" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="C5" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="D5" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="B6" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="C6" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="D6" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="B7" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="C7" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="D7" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -2589,55 +2709,55 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="C2" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="D2" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="C3" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="D3" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="B4" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="C4" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="D4" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="B5" t="s">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="C5" t="s">
-        <v>277</v>
+        <v>297</v>
       </c>
       <c r="D5" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>

--- a/AdofaiTweaks.Generator/translations.xlsx
+++ b/AdofaiTweaks.Generator/translations.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="293">
   <si>
     <t>KEY</t>
   </si>
@@ -79,108 +79,54 @@
     <t>Disable Effects</t>
   </si>
   <si>
-    <t>이펙트 비활성화</t>
-  </si>
-  <si>
-    <t>Desactivar efectos</t>
-  </si>
-  <si>
     <t>DESCRIPTION</t>
   </si>
   <si>
     <t>Disables certain effects to improve performance.</t>
   </si>
   <si>
-    <t>특정 이펙트를 비활성화해 게임플레이를 더 부드럽게 합니다.</t>
-  </si>
-  <si>
-    <t>Desactiva efectos específicos para mejorar el rendimiento</t>
-  </si>
-  <si>
     <t>FILTER</t>
   </si>
   <si>
     <t>Disable VFX filters (Grayscale, Arcade, etc.)</t>
   </si>
   <si>
-    <t>VFX 필터 (흑백, 아케이드, 등..) 끄기</t>
-  </si>
-  <si>
-    <t>Desactivar efectos de filtro (Grayscale, Arcade, etc.)</t>
-  </si>
-  <si>
     <t>BLOOM</t>
   </si>
   <si>
     <t>Disable bloom</t>
   </si>
   <si>
-    <t>블룸 끄기</t>
-  </si>
-  <si>
-    <t>Descativar Brillo (Bloom)</t>
-  </si>
-  <si>
     <t>FLASH</t>
   </si>
   <si>
     <t>Disable screen flashes</t>
   </si>
   <si>
-    <t>스크린 플래시 끄기</t>
-  </si>
-  <si>
-    <t>Desactivar Destellos (Flashes)</t>
-  </si>
-  <si>
     <t>HALL_OF_MIRRORS</t>
   </si>
   <si>
     <t>Disable "Hall of Mirrors" effect</t>
   </si>
   <si>
-    <t>"거울의 방" 이펙트 끄기</t>
-  </si>
-  <si>
-    <t>Desactivar Cuarto de Espejos (Hall of Mirrors)</t>
-  </si>
-  <si>
     <t>SCREEN_SHAKE</t>
   </si>
   <si>
     <t>Disable screen shake</t>
   </si>
   <si>
-    <t>화면 흔들림 끄기</t>
-  </si>
-  <si>
-    <t>Desactivar vibraciones de pantalla (Screen Shake)</t>
-  </si>
-  <si>
     <t>TILE_MOVEMENT_MAX</t>
   </si>
   <si>
     <t>Max number of moving tiles at once:</t>
   </si>
   <si>
-    <t>한꺼번에 움직일 수 있는 타일의 개수:</t>
-  </si>
-  <si>
-    <t>Número máximo de casillas moviéndose a la vez</t>
-  </si>
-  <si>
     <t>TILE_MOVEMENT_UNLIMITED</t>
   </si>
   <si>
     <t>Unlimited</t>
   </si>
   <si>
-    <t>제한 없음</t>
-  </si>
-  <si>
-    <t>Ilimitado</t>
-  </si>
-  <si>
     <t>Hide UI Elements</t>
   </si>
   <si>
@@ -460,9 +406,6 @@
     <t>CLS (커스텀 레벨 선택) 에서 키 제한하기</t>
   </si>
   <si>
-    <t>Limitar teclas en el CLS (Selector de niveles personalizados)</t>
-  </si>
-  <si>
     <t>LIMIT_MAIN_MENU</t>
   </si>
   <si>
@@ -470,9 +413,6 @@
   </si>
   <si>
     <t>메인 메뉴에서 키 제한하기</t>
-  </si>
-  <si>
-    <t>Limitar teclas en el menú principal</t>
   </si>
   <si>
     <t>Key Viewer</t>
@@ -1387,55 +1327,55 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="C2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="D2" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="C3" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="D3" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="B4" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="C4" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="D4" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="B5" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="C5" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="D5" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -1472,123 +1412,69 @@
       <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1623,111 +1509,111 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1762,139 +1648,139 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="D7" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="B8" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="D8" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="D9" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="B10" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="C10" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="D10" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="B11" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="C11" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="D11" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1929,111 +1815,105 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="D3" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="C4" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="D4" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="B5" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="C5" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="D5" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="B6" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="C6" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="D6" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="B7" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="C7" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="D7" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="C8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D8" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="C9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D9" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2068,321 +1948,321 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="C2" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="D2" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="C3" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="D3" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="C4" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="D4" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="B5" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="C5" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="D5" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="B6" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="C6" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="D6" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="B7" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="C7" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="D7" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="B8" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="C8" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="D8" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="B9" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="C9" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="D9" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="B10" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="C10" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="D10" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="C11" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="D11" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="C12" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="D12" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="C13" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="D13" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="B14" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="C14" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="D14" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="B15" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="C15" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="D15" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="B16" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="C16" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="D16" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="B17" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="C17" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="D17" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="B18" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="C18" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="D18" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="B19" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="C19" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="D19" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="B20" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="C20" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="D20" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="B21" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="C21" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="D21" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="B22" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="C22" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="D22" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="B23" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="C23" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="D23" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="B24" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="C24" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="D24" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -2417,153 +2297,153 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="C2" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="D2" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="C3" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="D3" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="B4" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="C4" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="D4" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="B5" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="C5" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="D5" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="B6" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="C6" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="D6" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="B7" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="C7" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="D7" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="B8" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="C8" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="D8" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="B9" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="C9" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="D9" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="B10" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="C10" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="D10" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="B11" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="C11" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="D11" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="B12" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="C12" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="D12" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -2598,83 +2478,83 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="C2" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="D2" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="C3" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="D3" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="B4" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="C4" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="D4" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="B5" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="C5" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="D5" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="B6" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="C6" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="D6" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="B7" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="C7" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="D7" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -2709,55 +2589,55 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="C2" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="D2" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="C3" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="D3" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="B4" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="C4" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="D4" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="B5" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="C5" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="D5" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>

--- a/AdofaiTweaks.Generator/translations.xlsx
+++ b/AdofaiTweaks.Generator/translations.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="319">
   <si>
     <t>KEY</t>
   </si>
@@ -100,13 +100,13 @@
     <t>FILTER</t>
   </si>
   <si>
-    <t>Disable VFX filters (Grayscale, Arcade, etc.)</t>
-  </si>
-  <si>
-    <t>VFX 필터 (흑백, 아케이드, 등..) 끄기</t>
-  </si>
-  <si>
-    <t>Desactivar efectos de filtro (Grayscale, Arcade, etc.)</t>
+    <t>Disable VFX filters ({0}, {1}, etc.)</t>
+  </si>
+  <si>
+    <t>VFX 필터 ({0}, {1}, 등..) 끄기</t>
+  </si>
+  <si>
+    <t>Desactivar efectos de filtro ({0}, {1}, etc.)</t>
   </si>
   <si>
     <t>BLOOM</t>
@@ -136,13 +136,13 @@
     <t>HALL_OF_MIRRORS</t>
   </si>
   <si>
-    <t>Disable "Hall of Mirrors" effect</t>
-  </si>
-  <si>
-    <t>"거울의 방" 이펙트 끄기</t>
-  </si>
-  <si>
-    <t>Desactivar Cuarto de Espejos (Hall of Mirrors)</t>
+    <t>Disable "{0}" effect</t>
+  </si>
+  <si>
+    <t>"{0}" 이펙트 끄기</t>
+  </si>
+  <si>
+    <t>Desactivar "{0}"</t>
   </si>
   <si>
     <t>SCREEN_SHAKE</t>
@@ -214,13 +214,13 @@
     <t>JUDGE_TEXT</t>
   </si>
   <si>
-    <t>Hide judgment text (Perfect, EPerfect, etc.)</t>
-  </si>
-  <si>
-    <t>판정 텍스트 숨기기 (정확, 빠름, 등..)</t>
-  </si>
-  <si>
-    <t>Ocultar texto de juicios (Perfecto, PerfectoP, etc.)</t>
+    <t>Hide judgment text ({0}, {1}, etc.)</t>
+  </si>
+  <si>
+    <t>판정 텍스트 숨기기 ({0}, {1}, 등..)</t>
+  </si>
+  <si>
+    <t>Ocultar texto de juicios ({0}, {1}, etc.)</t>
   </si>
   <si>
     <t>MISSES</t>
@@ -376,13 +376,13 @@
     <t>HIDE_PERFECTS</t>
   </si>
   <si>
-    <t>Hide "Perfect!" judgments</t>
-  </si>
-  <si>
-    <t>"정확" 판정 숨기기</t>
-  </si>
-  <si>
-    <t>Esconder juicios de "!Perfecto!"</t>
+    <t>Hide "{0}" judgments</t>
+  </si>
+  <si>
+    <t>"{0}" 판정 숨기기</t>
+  </si>
+  <si>
+    <t>Esconder juicios de "{0}"</t>
   </si>
   <si>
     <t>Key Limiter</t>
@@ -818,6 +818,24 @@
   </si>
   <si>
     <t>Desactivar el zoom del editor cuando estás jugando</t>
+  </si>
+  <si>
+    <t>SET_HITSOUND_VOLUME</t>
+  </si>
+  <si>
+    <t>Set the overall hitsound volume</t>
+  </si>
+  <si>
+    <t>전체적인 힛사운드 음량 조정하기</t>
+  </si>
+  <si>
+    <t>CURRENT_HITSOUND_VOLUME</t>
+  </si>
+  <si>
+    <t>Volume:</t>
+  </si>
+  <si>
+    <t>음량:</t>
   </si>
   <si>
     <t>Planet Color</t>
@@ -1387,13 +1405,13 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="C2" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="D2" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1401,41 +1419,41 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="C3" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="D3" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="B4" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="C4" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="D4" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="B5" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="C5" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="D5" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -2392,7 +2410,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2564,6 +2582,28 @@
       </c>
       <c r="D12" t="s">
         <v>264</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>265</v>
+      </c>
+      <c r="B13" t="s">
+        <v>266</v>
+      </c>
+      <c r="C13" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>268</v>
+      </c>
+      <c r="B14" t="s">
+        <v>269</v>
+      </c>
+      <c r="C14" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -2598,13 +2638,13 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C2" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="D2" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2612,69 +2652,69 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="C3" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="D3" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="B4" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="C4" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="D4" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="B5" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="C5" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="D5" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="B6" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="C6" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="D6" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="B7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="C7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -2709,13 +2749,13 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="C2" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="D2" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2723,41 +2763,41 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="C3" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="D3" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="B4" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="C4" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D4" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="B5" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="C5" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="D5" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>

--- a/AdofaiTweaks.Generator/translations.xlsx
+++ b/AdofaiTweaks.Generator/translations.xlsx
@@ -8,14 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
-    <sheet name="DisableEffects" sheetId="2" r:id="rId2"/>
-    <sheet name="HideUiElements" sheetId="3" r:id="rId3"/>
-    <sheet name="JudgmentVisuals" sheetId="4" r:id="rId4"/>
-    <sheet name="KeyLimiter" sheetId="5" r:id="rId5"/>
-    <sheet name="KeyViewer" sheetId="6" r:id="rId6"/>
+    <sheet name="KeyViewer" sheetId="2" r:id="rId2"/>
+    <sheet name="KeyLimiter" sheetId="3" r:id="rId3"/>
+    <sheet name="DisableEffects" sheetId="4" r:id="rId4"/>
+    <sheet name="HideUiElements" sheetId="5" r:id="rId5"/>
+    <sheet name="JudgmentVisuals" sheetId="6" r:id="rId6"/>
     <sheet name="Miscellaneous" sheetId="7" r:id="rId7"/>
-    <sheet name="PlanetColor" sheetId="8" r:id="rId8"/>
-    <sheet name="PlanetOpacity" sheetId="9" r:id="rId9"/>
+    <sheet name="PlanetOpacity" sheetId="8" r:id="rId8"/>
+    <sheet name="PlanetColor" sheetId="9" r:id="rId9"/>
     <sheet name="RestrictJudgments" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="425">
   <si>
     <t>KEY</t>
   </si>
@@ -37,6 +37,12 @@
     <t>SPANISH</t>
   </si>
   <si>
+    <t>POLISH</t>
+  </si>
+  <si>
+    <t>FRENCH</t>
+  </si>
+  <si>
     <t>TEST_KEY</t>
   </si>
   <si>
@@ -49,6 +55,12 @@
     <t>Esto es un código de prueba.</t>
   </si>
   <si>
+    <t>To jest linia testowa.</t>
+  </si>
+  <si>
+    <t>C'est un string de test.</t>
+  </si>
+  <si>
     <t>GLOBAL_LANGUAGE</t>
   </si>
   <si>
@@ -61,6 +73,12 @@
     <t>Idioma:</t>
   </si>
   <si>
+    <t>Język:</t>
+  </si>
+  <si>
+    <t>Langue:</t>
+  </si>
+  <si>
     <t>LANGUAGE_NAME</t>
   </si>
   <si>
@@ -73,9 +91,432 @@
     <t>Español</t>
   </si>
   <si>
+    <t>Polski</t>
+  </si>
+  <si>
+    <t>Français</t>
+  </si>
+  <si>
     <t>NAME</t>
   </si>
   <si>
+    <t>Key Viewer</t>
+  </si>
+  <si>
+    <t>키뷰어</t>
+  </si>
+  <si>
+    <t>Teclas en pantella</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Viewer de Touche</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Shows a key viewer for registered keys.</t>
+  </si>
+  <si>
+    <t>등록된 키들의 키뷰어를 보여줍니다.</t>
+  </si>
+  <si>
+    <t>Muestra teclas en pantalla.</t>
+  </si>
+  <si>
+    <t>Affiche les touches appuyer.</t>
+  </si>
+  <si>
+    <t>REGISTERED_KEYS</t>
+  </si>
+  <si>
+    <t>Registered Keys:</t>
+  </si>
+  <si>
+    <t>등록된 키들:</t>
+  </si>
+  <si>
+    <t>Teclas Registradas:</t>
+  </si>
+  <si>
+    <t>Touches registrer</t>
+  </si>
+  <si>
+    <t>DONE</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>완료</t>
+  </si>
+  <si>
+    <t>Hecho</t>
+  </si>
+  <si>
+    <t>Valider</t>
+  </si>
+  <si>
+    <t>PRESS_KEY_REGISTER</t>
+  </si>
+  <si>
+    <t>Press a key to register/unregister it...</t>
+  </si>
+  <si>
+    <t>키를 눌러서 등록/등록 취소하세요…</t>
+  </si>
+  <si>
+    <t>Toca una tecla para registrarla/excluirla...</t>
+  </si>
+  <si>
+    <t>Appuy sur une touche pour l'enregister/la d'esenregistrer</t>
+  </si>
+  <si>
+    <t>CHANGE_KEYS</t>
+  </si>
+  <si>
+    <t>Change Keys</t>
+  </si>
+  <si>
+    <t>키 변경하기</t>
+  </si>
+  <si>
+    <t>Cambiar teclas</t>
+  </si>
+  <si>
+    <t>Changer les touche</t>
+  </si>
+  <si>
+    <t>VIEWER_ONLY_GAMEPLAY</t>
+  </si>
+  <si>
+    <t>Only show during gameplay</t>
+  </si>
+  <si>
+    <t>레벨 플레이중에만 보이기</t>
+  </si>
+  <si>
+    <t>Sólo mostrar mientras juegas</t>
+  </si>
+  <si>
+    <t>Seulement visible durant le gameplay</t>
+  </si>
+  <si>
+    <t>ANIMATE_KEYS</t>
+  </si>
+  <si>
+    <t>Animate key presses</t>
+  </si>
+  <si>
+    <t>키를 눌렀을 때 효과 보이기</t>
+  </si>
+  <si>
+    <t>Animar pulsaciones de teclas</t>
+  </si>
+  <si>
+    <t>Anime l'appuy de touche</t>
+  </si>
+  <si>
+    <t>KEY_VIEWER_SIZE</t>
+  </si>
+  <si>
+    <t>Size:</t>
+  </si>
+  <si>
+    <t>크기:</t>
+  </si>
+  <si>
+    <t>Tamaño:</t>
+  </si>
+  <si>
+    <t>Taille:</t>
+  </si>
+  <si>
+    <t>KEY_VIEWER_X_POS</t>
+  </si>
+  <si>
+    <t>X Position:</t>
+  </si>
+  <si>
+    <t>가로 위치:</t>
+  </si>
+  <si>
+    <t>Posición X:</t>
+  </si>
+  <si>
+    <t>Position X:</t>
+  </si>
+  <si>
+    <t>KEY_VIEWER_Y_POS</t>
+  </si>
+  <si>
+    <t>Y Position:</t>
+  </si>
+  <si>
+    <t>세로 위치:</t>
+  </si>
+  <si>
+    <t>Posición Y:</t>
+  </si>
+  <si>
+    <t>Position Y:</t>
+  </si>
+  <si>
+    <t>PRESSED_OUTLINE_COLOR</t>
+  </si>
+  <si>
+    <t>Pressed outline color:</t>
+  </si>
+  <si>
+    <t>누른 키의 테두리 색상:</t>
+  </si>
+  <si>
+    <t>Color del contorno de las teclas pulsadas:</t>
+  </si>
+  <si>
+    <t>Couleur du contour lorsque la touche est appuyer:</t>
+  </si>
+  <si>
+    <t>RELEASED_OUTLINE_COLOR</t>
+  </si>
+  <si>
+    <t>Released outline color:</t>
+  </si>
+  <si>
+    <t>뗀 키의 테두리 색상:</t>
+  </si>
+  <si>
+    <t>Color del contorno de las teclas sin pulsar:</t>
+  </si>
+  <si>
+    <t>Couleur du contour lorsque la touche est relaché</t>
+  </si>
+  <si>
+    <t>PRESSED_BACKGROUND_COLOR</t>
+  </si>
+  <si>
+    <t>Pressed background color:</t>
+  </si>
+  <si>
+    <t>누른 키의 배경 색상:</t>
+  </si>
+  <si>
+    <t>Color del fondo de las teclas pulsadas:</t>
+  </si>
+  <si>
+    <t>Couleur de l'arrière plan lorsque la touche est présser</t>
+  </si>
+  <si>
+    <t>RELEASED_BACKGROUND_COLOR</t>
+  </si>
+  <si>
+    <t>Released background color:</t>
+  </si>
+  <si>
+    <t>뗀 키의 배경 색상:</t>
+  </si>
+  <si>
+    <t>Color del fondo de las teclas sin pulsar:</t>
+  </si>
+  <si>
+    <t>Couleur de l'arrière plan lorsque la touche est relaché</t>
+  </si>
+  <si>
+    <t>PRESSED_TEXT_COLOR</t>
+  </si>
+  <si>
+    <t>Pressed text color:</t>
+  </si>
+  <si>
+    <t>누른 키의 텍스트 색상:</t>
+  </si>
+  <si>
+    <t>Color del texto de las teclas pulsadas:</t>
+  </si>
+  <si>
+    <t>Couleur du texte lorsque la touche est présser</t>
+  </si>
+  <si>
+    <t>RELEASED_TEXT_COLOR</t>
+  </si>
+  <si>
+    <t>Released text color:</t>
+  </si>
+  <si>
+    <t>뗀 키의 텍스트 색상:</t>
+  </si>
+  <si>
+    <t>Color del texto de las teclas sin pulsar:</t>
+  </si>
+  <si>
+    <t>Couleur du texte lorsque la touche est relacher</t>
+  </si>
+  <si>
+    <t>PROFILES</t>
+  </si>
+  <si>
+    <t>Profiles:</t>
+  </si>
+  <si>
+    <t>프로파일들:</t>
+  </si>
+  <si>
+    <t>Perfiles:</t>
+  </si>
+  <si>
+    <t>Profiles</t>
+  </si>
+  <si>
+    <t>PROFILE_NAME</t>
+  </si>
+  <si>
+    <t>Profile name:</t>
+  </si>
+  <si>
+    <t>프로파일 이름:</t>
+  </si>
+  <si>
+    <t>Nombre del perfil:</t>
+  </si>
+  <si>
+    <t>Nom du profile</t>
+  </si>
+  <si>
+    <t>NEW</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>생성</t>
+  </si>
+  <si>
+    <t>Nuevo</t>
+  </si>
+  <si>
+    <t>Nouveau</t>
+  </si>
+  <si>
+    <t>DUPLICATE</t>
+  </si>
+  <si>
+    <t>Duplicate</t>
+  </si>
+  <si>
+    <t>복제</t>
+  </si>
+  <si>
+    <t>Duplicar</t>
+  </si>
+  <si>
+    <t>Dupliquer</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>삭제</t>
+  </si>
+  <si>
+    <t>Eliminar</t>
+  </si>
+  <si>
+    <t>Suprimmer</t>
+  </si>
+  <si>
+    <t>SHOW_KEY_PRESS_TOTAL</t>
+  </si>
+  <si>
+    <t>Show key press total</t>
+  </si>
+  <si>
+    <t>총 키를 누른 횟수 표시하기</t>
+  </si>
+  <si>
+    <t>Mostrar número total de pulsaciones</t>
+  </si>
+  <si>
+    <t>Affichger le total des touche appuyer</t>
+  </si>
+  <si>
+    <t>Key Limiter</t>
+  </si>
+  <si>
+    <t>키 제한하기</t>
+  </si>
+  <si>
+    <t>Limitador de teclas</t>
+  </si>
+  <si>
+    <t>Limiteur de Trouches</t>
+  </si>
+  <si>
+    <t>When active, restricts which keys count as input.</t>
+  </si>
+  <si>
+    <t>켜져 있을 때, 사용자가 등록한 키들로만 입력처리 되도록 제한합니다.</t>
+  </si>
+  <si>
+    <t>Cuando está activo, restringe qué teclas cuentan como válidas.</t>
+  </si>
+  <si>
+    <t>Quand activée, restreint les touche qui compte comme une input.</t>
+  </si>
+  <si>
+    <t>Zarejestrowane przyciski:</t>
+  </si>
+  <si>
+    <t>Touche enregistrés:</t>
+  </si>
+  <si>
+    <t>Zakończ</t>
+  </si>
+  <si>
+    <t>Naciśnij przycisk aby zarejerestrować/wyrejerestrować go...</t>
+  </si>
+  <si>
+    <t>Appuy sur une touche pour l'enregistrer/la d'ésenregistrer</t>
+  </si>
+  <si>
+    <t>Changer les touches</t>
+  </si>
+  <si>
+    <t>LIMIT_CLS</t>
+  </si>
+  <si>
+    <t>Limit keys in CLS (Custom Level Select)</t>
+  </si>
+  <si>
+    <t>CLS (커스텀 레벨 선택) 에서 키 제한하기</t>
+  </si>
+  <si>
+    <t>Limitar teclas en el CLS (Selector de niveles personalizados)</t>
+  </si>
+  <si>
+    <t>Limit les touche dans le selcteur de custom song</t>
+  </si>
+  <si>
+    <t>LIMIT_MAIN_MENU</t>
+  </si>
+  <si>
+    <t>Limit keys in main menu</t>
+  </si>
+  <si>
+    <t>메인 메뉴에서 키 제한하기</t>
+  </si>
+  <si>
+    <t>Limitar teclas en el menú principal</t>
+  </si>
+  <si>
+    <t>Limite les touche  dans le menu principale</t>
+  </si>
+  <si>
     <t>Disable Effects</t>
   </si>
   <si>
@@ -85,7 +526,10 @@
     <t>Desactivar efectos</t>
   </si>
   <si>
-    <t>DESCRIPTION</t>
+    <t>Wyłącz efekty</t>
+  </si>
+  <si>
+    <t>Désactiver les Effets</t>
   </si>
   <si>
     <t>Disables certain effects to improve performance.</t>
@@ -97,6 +541,12 @@
     <t>Desactiva efectos específicos para mejorar el rendimiento</t>
   </si>
   <si>
+    <t>Wyłącz niektóre efekty aby poprawić wydajność</t>
+  </si>
+  <si>
+    <t>Désactive certains effets pour améliorer la performance.</t>
+  </si>
+  <si>
     <t>FILTER</t>
   </si>
   <si>
@@ -109,6 +559,12 @@
     <t>Desactivar efectos de filtro ({0}, {1}, etc.)</t>
   </si>
   <si>
+    <t>Wyłącz filtry ({0}, {1}, itd.)</t>
+  </si>
+  <si>
+    <t>Désactive le filtre "VFX" ({0}, {1}, etc.)</t>
+  </si>
+  <si>
     <t>BLOOM</t>
   </si>
   <si>
@@ -121,6 +577,12 @@
     <t>Descativar Brillo (Bloom)</t>
   </si>
   <si>
+    <t>Wyłącz bloom</t>
+  </si>
+  <si>
+    <t>Désactive le bloom</t>
+  </si>
+  <si>
     <t>FLASH</t>
   </si>
   <si>
@@ -133,6 +595,12 @@
     <t>Desactivar Destellos (Flashes)</t>
   </si>
   <si>
+    <t>Wyłącz błysk ekranu</t>
+  </si>
+  <si>
+    <t>Désactive les flashs</t>
+  </si>
+  <si>
     <t>HALL_OF_MIRRORS</t>
   </si>
   <si>
@@ -145,6 +613,12 @@
     <t>Desactivar "{0}"</t>
   </si>
   <si>
+    <t>Wyłącz efekt "{0}"</t>
+  </si>
+  <si>
+    <t>Désactive l'effets "{0}"</t>
+  </si>
+  <si>
     <t>SCREEN_SHAKE</t>
   </si>
   <si>
@@ -157,6 +631,12 @@
     <t>Desactivar vibraciones de pantalla (Screen Shake)</t>
   </si>
   <si>
+    <t>Wyłącz trzęsienie ekranu</t>
+  </si>
+  <si>
+    <t>Désactive les tremblements de l'écran</t>
+  </si>
+  <si>
     <t>TILE_MOVEMENT_MAX</t>
   </si>
   <si>
@@ -166,7 +646,13 @@
     <t>한꺼번에 움직일 수 있는 타일의 개수:</t>
   </si>
   <si>
-    <t>Número máximo de casillas moviéndose a la vez</t>
+    <t>Número máximo de casillas moviéndose a la vez:</t>
+  </si>
+  <si>
+    <t>Maxymalna liczba ruszających się ścieżek:</t>
+  </si>
+  <si>
+    <t>Nombre max de tile qui bougent en même temps:</t>
   </si>
   <si>
     <t>TILE_MOVEMENT_UNLIMITED</t>
@@ -181,6 +667,12 @@
     <t>Ilimitado</t>
   </si>
   <si>
+    <t>Nielimitowana</t>
+  </si>
+  <si>
+    <t>Infini</t>
+  </si>
+  <si>
     <t>Hide UI Elements</t>
   </si>
   <si>
@@ -190,6 +682,12 @@
     <t>Ocultar elementos de la IU</t>
   </si>
   <si>
+    <t>Schowaj elementy UI</t>
+  </si>
+  <si>
+    <t>Masque des éléments d'UI</t>
+  </si>
+  <si>
     <t>Hides certain UI elements from gameplay.</t>
   </si>
   <si>
@@ -199,6 +697,12 @@
     <t>Oculta elementos determinados de la interfaz de usuario (IU) del juego.</t>
   </si>
   <si>
+    <t>Chowa niektóre elementy UI z rozgrywki.</t>
+  </si>
+  <si>
+    <t>Masque certains éléments d'UI du gameplay.</t>
+  </si>
+  <si>
     <t>EVERYTHING</t>
   </si>
   <si>
@@ -211,6 +715,12 @@
     <t>Ocultar TODOS los elementos de la IU (Nota: esto también puede incluir textos específicos en los menús)</t>
   </si>
   <si>
+    <t>Zchowaj WSZYSTKIE elementy UI (Uwaga: to może dotyczyć niektórych napisów z menu)</t>
+  </si>
+  <si>
+    <t>Masque tout les éléments (Note: ça inclu peut-être des textes sécifique dans le menu)</t>
+  </si>
+  <si>
     <t>JUDGE_TEXT</t>
   </si>
   <si>
@@ -223,6 +733,12 @@
     <t>Ocultar texto de juicios ({0}, {1}, etc.)</t>
   </si>
   <si>
+    <t>Ukryj tekst oceniający ({0}, {1}, itd.)</t>
+  </si>
+  <si>
+    <t>Masque les textes de jugements ({0}, {1}, etc.)</t>
+  </si>
+  <si>
     <t>MISSES</t>
   </si>
   <si>
@@ -235,6 +751,9 @@
     <t>Ocultar marcadores de fallo (íconos de X circulares)</t>
   </si>
   <si>
+    <t>Masque les indicateur de raté (croix rouge)</t>
+  </si>
+  <si>
     <t>SONG_TITLE</t>
   </si>
   <si>
@@ -247,6 +766,9 @@
     <t>Ocultar artista y título de la música</t>
   </si>
   <si>
+    <t>Masque le nom de l'artiste et de la musique</t>
+  </si>
+  <si>
     <t>AUTO</t>
   </si>
   <si>
@@ -259,6 +781,9 @@
     <t>Ocultar a Otto, texto del modo automático e ícono de ventana de tiempo</t>
   </si>
   <si>
+    <t>Masque otto, le texte d'autoplay et la timing target</t>
+  </si>
+  <si>
     <t>BETA_BUILD</t>
   </si>
   <si>
@@ -271,6 +796,12 @@
     <t>Ocultar texto de "Beta Build"</t>
   </si>
   <si>
+    <t>Ukryj tekst "Beta Build"</t>
+  </si>
+  <si>
+    <t>Masque le texte "Beta Build"</t>
+  </si>
+  <si>
     <t>Judgment Visuals</t>
   </si>
   <si>
@@ -280,6 +811,9 @@
     <t>Visualización de los juicios</t>
   </si>
   <si>
+    <t>Visuels de Jugements</t>
+  </si>
+  <si>
     <t>Improves the visuals of judgments.</t>
   </si>
   <si>
@@ -289,6 +823,9 @@
     <t>Mejora los visuales de los juicios.</t>
   </si>
   <si>
+    <t>Améliore le visuel de jugements.</t>
+  </si>
+  <si>
     <t>SHOW_HIT_ERROR_METER</t>
   </si>
   <si>
@@ -301,15 +838,15 @@
     <t>Mostrar barra de errores</t>
   </si>
   <si>
+    <t>Affiche le visualiseur de hit</t>
+  </si>
+  <si>
     <t>ERROR_METER_SCALE</t>
   </si>
   <si>
     <t>Scale:</t>
   </si>
   <si>
-    <t>크기:</t>
-  </si>
-  <si>
     <t>Escala:</t>
   </si>
   <si>
@@ -325,6 +862,9 @@
     <t>Duración de las marcas en pantalla:</t>
   </si>
   <si>
+    <t>Tick d'affiche des hit</t>
+  </si>
+  <si>
     <t>ERROR_METER_TICK_SECONDS</t>
   </si>
   <si>
@@ -337,6 +877,9 @@
     <t>{0} segundo(s)</t>
   </si>
   <si>
+    <t>{0} seconde(s)</t>
+  </si>
+  <si>
     <t>ERROR_METER_SENSITIVITY</t>
   </si>
   <si>
@@ -349,6 +892,9 @@
     <t>Sensibilidad de la flecha:</t>
   </si>
   <si>
+    <t>Sensibilité de la flèche au desus</t>
+  </si>
+  <si>
     <t>ERROR_METER_MORE_STABLE</t>
   </si>
   <si>
@@ -361,6 +907,9 @@
     <t>Más estable</t>
   </si>
   <si>
+    <t>Plus stable</t>
+  </si>
+  <si>
     <t>ERROR_METER_LESS_STABLE</t>
   </si>
   <si>
@@ -373,6 +922,9 @@
     <t>Menos estable</t>
   </si>
   <si>
+    <t>Moins stable</t>
+  </si>
+  <si>
     <t>HIDE_PERFECTS</t>
   </si>
   <si>
@@ -385,313 +937,7 @@
     <t>Esconder juicios de "{0}"</t>
   </si>
   <si>
-    <t>Key Limiter</t>
-  </si>
-  <si>
-    <t>키 제한하기</t>
-  </si>
-  <si>
-    <t>Limitador de teclas</t>
-  </si>
-  <si>
-    <t>When active, restricts which keys count as input.</t>
-  </si>
-  <si>
-    <t>켜져 있을 때, 사용자가 등록한 키들로만 입력처리 되도록 제한합니다.</t>
-  </si>
-  <si>
-    <t>Cuando está activo, restringe qué teclas cuentan como válidas.</t>
-  </si>
-  <si>
-    <t>REGISTERED_KEYS</t>
-  </si>
-  <si>
-    <t>Registered Keys:</t>
-  </si>
-  <si>
-    <t>등록된 키들:</t>
-  </si>
-  <si>
-    <t>Teclas Registradas:</t>
-  </si>
-  <si>
-    <t>DONE</t>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>완료</t>
-  </si>
-  <si>
-    <t>Hecho</t>
-  </si>
-  <si>
-    <t>PRESS_KEY_REGISTER</t>
-  </si>
-  <si>
-    <t>Press a key to register/unregister it...</t>
-  </si>
-  <si>
-    <t>키를 눌러서 등록/등록 취소하세요…</t>
-  </si>
-  <si>
-    <t>Toca una tecla para registrarla/excluirla...</t>
-  </si>
-  <si>
-    <t>CHANGE_KEYS</t>
-  </si>
-  <si>
-    <t>Change Keys</t>
-  </si>
-  <si>
-    <t>키 변경하기</t>
-  </si>
-  <si>
-    <t>Cambiar teclas</t>
-  </si>
-  <si>
-    <t>LIMIT_CLS</t>
-  </si>
-  <si>
-    <t>Limit keys in CLS (Custom Level Select)</t>
-  </si>
-  <si>
-    <t>CLS (커스텀 레벨 선택) 에서 키 제한하기</t>
-  </si>
-  <si>
-    <t>Limitar teclas en el CLS (Selector de niveles personalizados)</t>
-  </si>
-  <si>
-    <t>LIMIT_MAIN_MENU</t>
-  </si>
-  <si>
-    <t>Limit keys in main menu</t>
-  </si>
-  <si>
-    <t>메인 메뉴에서 키 제한하기</t>
-  </si>
-  <si>
-    <t>Limitar teclas en el menú principal</t>
-  </si>
-  <si>
-    <t>Key Viewer</t>
-  </si>
-  <si>
-    <t>키뷰어</t>
-  </si>
-  <si>
-    <t>Teclas en pantella</t>
-  </si>
-  <si>
-    <t>Shows a key viewer for registered keys.</t>
-  </si>
-  <si>
-    <t>등록된 키들의 키뷰어를 보여줍니다.</t>
-  </si>
-  <si>
-    <t>Muestra teclas en pantalla.</t>
-  </si>
-  <si>
-    <t>VIEWER_ONLY_GAMEPLAY</t>
-  </si>
-  <si>
-    <t>Only show during gameplay</t>
-  </si>
-  <si>
-    <t>레벨 플레이중에만 보이기</t>
-  </si>
-  <si>
-    <t>Sólo mostrar mientras juegas</t>
-  </si>
-  <si>
-    <t>ANIMATE_KEYS</t>
-  </si>
-  <si>
-    <t>Animate key presses</t>
-  </si>
-  <si>
-    <t>키를 눌렀을 때 효과 보이기</t>
-  </si>
-  <si>
-    <t>Animar pulsaciones de teclas</t>
-  </si>
-  <si>
-    <t>KEY_VIEWER_SIZE</t>
-  </si>
-  <si>
-    <t>Size:</t>
-  </si>
-  <si>
-    <t>Tamaño:</t>
-  </si>
-  <si>
-    <t>KEY_VIEWER_X_POS</t>
-  </si>
-  <si>
-    <t>X Position:</t>
-  </si>
-  <si>
-    <t>가로 위치:</t>
-  </si>
-  <si>
-    <t>Posición X:</t>
-  </si>
-  <si>
-    <t>KEY_VIEWER_Y_POS</t>
-  </si>
-  <si>
-    <t>Y Position:</t>
-  </si>
-  <si>
-    <t>세로 위치:</t>
-  </si>
-  <si>
-    <t>Posición Y:</t>
-  </si>
-  <si>
-    <t>PRESSED_OUTLINE_COLOR</t>
-  </si>
-  <si>
-    <t>Pressed outline color:</t>
-  </si>
-  <si>
-    <t>누른 키의 테두리 색상:</t>
-  </si>
-  <si>
-    <t>Color del contorno de las teclas pulsadas:</t>
-  </si>
-  <si>
-    <t>RELEASED_OUTLINE_COLOR</t>
-  </si>
-  <si>
-    <t>Released outline color:</t>
-  </si>
-  <si>
-    <t>뗀 키의 테두리 색상:</t>
-  </si>
-  <si>
-    <t>Color del contorno de las teclas sin pulsar:</t>
-  </si>
-  <si>
-    <t>PRESSED_BACKGROUND_COLOR</t>
-  </si>
-  <si>
-    <t>Pressed background color:</t>
-  </si>
-  <si>
-    <t>누른 키의 배경 색상:</t>
-  </si>
-  <si>
-    <t>Color del fondo de las teclas pulsadas:</t>
-  </si>
-  <si>
-    <t>RELEASED_BACKGROUND_COLOR</t>
-  </si>
-  <si>
-    <t>Released background color:</t>
-  </si>
-  <si>
-    <t>뗀 키의 배경 색상:</t>
-  </si>
-  <si>
-    <t>Color del fondo de las teclas sin pulsar:</t>
-  </si>
-  <si>
-    <t>PRESSED_TEXT_COLOR</t>
-  </si>
-  <si>
-    <t>Pressed text color:</t>
-  </si>
-  <si>
-    <t>누른 키의 텍스트 색상:</t>
-  </si>
-  <si>
-    <t>Color del texto de las teclas pulsadas:</t>
-  </si>
-  <si>
-    <t>RELEASED_TEXT_COLOR</t>
-  </si>
-  <si>
-    <t>Released text color:</t>
-  </si>
-  <si>
-    <t>뗀 키의 텍스트 색상:</t>
-  </si>
-  <si>
-    <t>Color del texto de las teclas sin pulsar:</t>
-  </si>
-  <si>
-    <t>PROFILES</t>
-  </si>
-  <si>
-    <t>Profiles:</t>
-  </si>
-  <si>
-    <t>프로파일들:</t>
-  </si>
-  <si>
-    <t>Perfiles:</t>
-  </si>
-  <si>
-    <t>PROFILE_NAME</t>
-  </si>
-  <si>
-    <t>Profile name:</t>
-  </si>
-  <si>
-    <t>프로파일 이름:</t>
-  </si>
-  <si>
-    <t>Nombre del perfil:</t>
-  </si>
-  <si>
-    <t>NEW</t>
-  </si>
-  <si>
-    <t>New</t>
-  </si>
-  <si>
-    <t>생성</t>
-  </si>
-  <si>
-    <t>Nuevo</t>
-  </si>
-  <si>
-    <t>DUPLICATE</t>
-  </si>
-  <si>
-    <t>Duplicate</t>
-  </si>
-  <si>
-    <t>복제</t>
-  </si>
-  <si>
-    <t>Duplicar</t>
-  </si>
-  <si>
-    <t>DELETE</t>
-  </si>
-  <si>
-    <t>Delete</t>
-  </si>
-  <si>
-    <t>삭제</t>
-  </si>
-  <si>
-    <t>Eliminar</t>
-  </si>
-  <si>
-    <t>SHOW_KEY_PRESS_TOTAL</t>
-  </si>
-  <si>
-    <t>Show key press total</t>
-  </si>
-  <si>
-    <t>총 키를 누른 횟수 표시하기</t>
-  </si>
-  <si>
-    <t>Mostrar número total de pulsaciones</t>
+    <t>Masque les "{0}" jugements</t>
   </si>
   <si>
     <t>Miscellaneous</t>
@@ -703,6 +949,9 @@
     <t>Misceláneo</t>
   </si>
   <si>
+    <t>Divers</t>
+  </si>
+  <si>
     <t>Tweaks that do not belong in any particular section.</t>
   </si>
   <si>
@@ -712,16 +961,22 @@
     <t>Funciones que no pertenecen a ninguna sección en particular.</t>
   </si>
   <si>
+    <t>Des tweaks qui ne se range pas dans les autre catégorie.</t>
+  </si>
+  <si>
     <t>GLITCH_FLIP</t>
   </si>
   <si>
-    <t>Disable screen flip for "Glitch" filter</t>
-  </si>
-  <si>
-    <t>"글리치" 필터에서의 화면 뒤집힘 방지하기</t>
-  </si>
-  <si>
-    <t>Desactivar los giros de pantalla para el filtro "Glitch"</t>
+    <t>Disable screen flip for "{0}" filter</t>
+  </si>
+  <si>
+    <t>"{0}" 필터에서의 화면 뒤집힘 방지하기</t>
+  </si>
+  <si>
+    <t>Desactivar los giros de pantalla para el filtro "{0}"</t>
+  </si>
+  <si>
+    <t>Désactive le retournement d'écran pour le filte "{0}"</t>
   </si>
   <si>
     <t>NO_FAIL</t>
@@ -736,6 +991,9 @@
     <t>Modo sin fallos</t>
   </si>
   <si>
+    <t>Mode invincible</t>
+  </si>
+  <si>
     <t>NO_FAIL_ENABLED</t>
   </si>
   <si>
@@ -748,6 +1006,9 @@
     <t>¡Modo sin fallos activado!</t>
   </si>
   <si>
+    <t>Mode invincible activée</t>
+  </si>
+  <si>
     <t>MISS_COUNT</t>
   </si>
   <si>
@@ -760,6 +1021,9 @@
     <t>Fallos: {0}</t>
   </si>
   <si>
+    <t>Ratés: {0}</t>
+  </si>
+  <si>
     <t>OVERLOAD_COUNT</t>
   </si>
   <si>
@@ -772,6 +1036,9 @@
     <t>Sobrecargas: {0}</t>
   </si>
   <si>
+    <t>Morts: {0}</t>
+  </si>
+  <si>
     <t>PREVENT_OTTO_FAIL</t>
   </si>
   <si>
@@ -784,6 +1051,9 @@
     <t>Prevenir que Otto falle</t>
   </si>
   <si>
+    <t>Empêche otto de mourir</t>
+  </si>
+  <si>
     <t>EDITOR_DIFFICULTY</t>
   </si>
   <si>
@@ -796,6 +1066,9 @@
     <t>Cambiar la ventana de tiempo en el editor</t>
   </si>
   <si>
+    <t>Choisir la difficulté de jugements dans l'éditeur</t>
+  </si>
+  <si>
     <t>EDITOR_DIFFICULTY_CURRENT</t>
   </si>
   <si>
@@ -808,6 +1081,9 @@
     <t>(Ventana actual: {0})</t>
   </si>
   <si>
+    <t>(En cour: {0})</t>
+  </si>
+  <si>
     <t>EDITOR_ZOOM</t>
   </si>
   <si>
@@ -820,6 +1096,9 @@
     <t>Desactivar el zoom del editor cuando estás jugando</t>
   </si>
   <si>
+    <t>Désactive le zoom en avant/en arrière de l'éditeur pendant la partie</t>
+  </si>
+  <si>
     <t>SET_HITSOUND_VOLUME</t>
   </si>
   <si>
@@ -829,6 +1108,9 @@
     <t>전체적인 힛사운드 음량 조정하기</t>
   </si>
   <si>
+    <t>Choisir le volume du hitsound</t>
+  </si>
+  <si>
     <t>CURRENT_HITSOUND_VOLUME</t>
   </si>
   <si>
@@ -838,6 +1120,60 @@
     <t>음량:</t>
   </si>
   <si>
+    <t>Planet Opacity</t>
+  </si>
+  <si>
+    <t>행성 불투명도</t>
+  </si>
+  <si>
+    <t>Opacidad de planetas</t>
+  </si>
+  <si>
+    <t>Opactié des Planètes</t>
+  </si>
+  <si>
+    <t>Sets the opacity of the planets.</t>
+  </si>
+  <si>
+    <t>행성의 불투명도를 설정합니다.</t>
+  </si>
+  <si>
+    <t>Cambia la opacidad de los planetas.</t>
+  </si>
+  <si>
+    <t>Change l'opactié des planètes.</t>
+  </si>
+  <si>
+    <t>PLANET_ONE</t>
+  </si>
+  <si>
+    <t>Planet 1 Opacity:</t>
+  </si>
+  <si>
+    <t>행성 1 불투명도:</t>
+  </si>
+  <si>
+    <t>Opacidad del planeta 1:</t>
+  </si>
+  <si>
+    <t>Planète 1:</t>
+  </si>
+  <si>
+    <t>PLANET_TWO</t>
+  </si>
+  <si>
+    <t>Planet 2 Opacity:</t>
+  </si>
+  <si>
+    <t>행성 2 불투명도:</t>
+  </si>
+  <si>
+    <t>Opacidad del planeta 2:</t>
+  </si>
+  <si>
+    <t>Planète 2:</t>
+  </si>
+  <si>
     <t>Planet Color</t>
   </si>
   <si>
@@ -847,6 +1183,9 @@
     <t>Color de planetas</t>
   </si>
   <si>
+    <t>Couleur de Planètes</t>
+  </si>
+  <si>
     <t>Sets the color of the planets.</t>
   </si>
   <si>
@@ -856,7 +1195,7 @@
     <t>Cambia el color de los planetas.</t>
   </si>
   <si>
-    <t>PLANET_ONE</t>
+    <t>Choisir la couleur des planètes.</t>
   </si>
   <si>
     <t>Planet 1:</t>
@@ -868,9 +1207,6 @@
     <t>Planeta 1:</t>
   </si>
   <si>
-    <t>PLANET_TWO</t>
-  </si>
-  <si>
     <t>Planet 2:</t>
   </si>
   <si>
@@ -892,6 +1228,9 @@
     <t>Cuerpo:</t>
   </si>
   <si>
+    <t>Corp:</t>
+  </si>
+  <si>
     <t>TAIL</t>
   </si>
   <si>
@@ -904,40 +1243,7 @@
     <t>Cola:</t>
   </si>
   <si>
-    <t>Planet Opacity</t>
-  </si>
-  <si>
-    <t>행성 불투명도</t>
-  </si>
-  <si>
-    <t>Opacidad de planetas</t>
-  </si>
-  <si>
-    <t>Sets the opacity of the planets.</t>
-  </si>
-  <si>
-    <t>행성의 불투명도를 설정합니다.</t>
-  </si>
-  <si>
-    <t>Cambia la opacidad de los planetas.</t>
-  </si>
-  <si>
-    <t>Planet 1 Opacity:</t>
-  </si>
-  <si>
-    <t>행성 1 불투명도:</t>
-  </si>
-  <si>
-    <t>Opacidad del planeta 1:</t>
-  </si>
-  <si>
-    <t>Planet 2 Opacity:</t>
-  </si>
-  <si>
-    <t>행성 2 불투명도:</t>
-  </si>
-  <si>
-    <t>Opacidad del planeta 2:</t>
+    <t>Trainé:</t>
   </si>
   <si>
     <t>Restrict Judgments</t>
@@ -949,6 +1255,9 @@
     <t>Restringir juicios</t>
   </si>
   <si>
+    <t>Jugements Restreint</t>
+  </si>
+  <si>
     <t>Kills the player on certain judgments.</t>
   </si>
   <si>
@@ -958,6 +1267,9 @@
     <t>Mata al jugador en si hace un juicio específico.</t>
   </si>
   <si>
+    <t>Tue le joueur dans certain jugements.</t>
+  </si>
+  <si>
     <t>RESTRICT</t>
   </si>
   <si>
@@ -970,6 +1282,9 @@
     <t>Restricción de juicio: "{0}"</t>
   </si>
   <si>
+    <t>Jugements restreint: "{0}"</t>
+  </si>
+  <si>
     <t>CUSTOM_DEATH</t>
   </si>
   <si>
@@ -980,6 +1295,9 @@
   </si>
   <si>
     <t xml:space="preserve">Mensaje de muerte personalizado con restricción de juicio (Nota: "{judgment}" será reemplazado por el nombre de la ventana de tiempo) </t>
+  </si>
+  <si>
+    <t>Message de mort personnalisé sur la restriction de jugements (note : "{judgement}" ouccurence vas être remplacer par le nom du jugements)</t>
   </si>
 </sst>
 </file>
@@ -1311,13 +1629,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1330,47 +1648,71 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1380,13 +1722,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1399,61 +1741,91 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>305</v>
+        <v>407</v>
       </c>
       <c r="C2" t="s">
-        <v>306</v>
+        <v>408</v>
       </c>
       <c r="D2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>409</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>308</v>
+        <v>411</v>
       </c>
       <c r="C3" t="s">
-        <v>309</v>
+        <v>412</v>
       </c>
       <c r="D3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>413</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>311</v>
+        <v>415</v>
       </c>
       <c r="B4" t="s">
-        <v>312</v>
+        <v>416</v>
       </c>
       <c r="C4" t="s">
-        <v>313</v>
+        <v>417</v>
       </c>
       <c r="D4" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>418</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>315</v>
+        <v>420</v>
       </c>
       <c r="B5" t="s">
-        <v>316</v>
+        <v>421</v>
       </c>
       <c r="C5" t="s">
-        <v>317</v>
+        <v>422</v>
       </c>
       <c r="D5" t="s">
-        <v>318</v>
+        <v>423</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>424</v>
       </c>
     </row>
   </sheetData>
@@ -1463,13 +1835,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1482,131 +1854,471 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>43</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>53</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>58</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>63</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>68</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" t="s">
+        <v>113</v>
+      </c>
+      <c r="E19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" t="s">
+        <v>118</v>
+      </c>
+      <c r="E20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" t="s">
+        <v>122</v>
+      </c>
+      <c r="D21" t="s">
+        <v>123</v>
+      </c>
+      <c r="E21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>125</v>
+      </c>
+      <c r="B22" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" t="s">
+        <v>127</v>
+      </c>
+      <c r="D22" t="s">
+        <v>128</v>
+      </c>
+      <c r="E22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>130</v>
+      </c>
+      <c r="B23" t="s">
+        <v>131</v>
+      </c>
+      <c r="C23" t="s">
+        <v>132</v>
+      </c>
+      <c r="D23" t="s">
+        <v>133</v>
+      </c>
+      <c r="E23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>135</v>
+      </c>
+      <c r="B24" t="s">
+        <v>136</v>
+      </c>
+      <c r="C24" t="s">
+        <v>137</v>
+      </c>
+      <c r="D24" t="s">
+        <v>138</v>
+      </c>
+      <c r="E24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1616,13 +2328,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1635,117 +2347,171 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D7" t="s">
         <v>53</v>
       </c>
-      <c r="D2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>155</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>156</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>157</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>78</v>
+        <v>159</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>162</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -1755,13 +2521,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1774,145 +2540,191 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>164</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>165</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>166</v>
+      </c>
+      <c r="E2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>169</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>170</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>171</v>
+      </c>
+      <c r="E3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>174</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>175</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>176</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>177</v>
+      </c>
+      <c r="E4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>180</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>181</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>182</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>183</v>
+      </c>
+      <c r="E5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>186</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>187</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>188</v>
       </c>
       <c r="D6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>189</v>
+      </c>
+      <c r="E6" t="s">
+        <v>190</v>
+      </c>
+      <c r="F6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>192</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>193</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>194</v>
       </c>
       <c r="D7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>195</v>
+      </c>
+      <c r="E7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>104</v>
+        <v>198</v>
       </c>
       <c r="B8" t="s">
-        <v>105</v>
+        <v>199</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>200</v>
       </c>
       <c r="D8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>201</v>
+      </c>
+      <c r="E8" t="s">
+        <v>202</v>
+      </c>
+      <c r="F8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>108</v>
+        <v>204</v>
       </c>
       <c r="B9" t="s">
-        <v>109</v>
+        <v>205</v>
       </c>
       <c r="C9" t="s">
-        <v>110</v>
+        <v>206</v>
       </c>
       <c r="D9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>207</v>
+      </c>
+      <c r="E9" t="s">
+        <v>208</v>
+      </c>
+      <c r="F9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>112</v>
+        <v>210</v>
       </c>
       <c r="B10" t="s">
-        <v>113</v>
+        <v>211</v>
       </c>
       <c r="C10" t="s">
-        <v>114</v>
+        <v>212</v>
       </c>
       <c r="D10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D11" t="s">
-        <v>119</v>
+        <v>213</v>
+      </c>
+      <c r="E10" t="s">
+        <v>214</v>
+      </c>
+      <c r="F10" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -1922,13 +2734,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1941,117 +2753,171 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>216</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>217</v>
       </c>
       <c r="D2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>218</v>
+      </c>
+      <c r="E2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
+        <v>221</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>222</v>
       </c>
       <c r="D3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>223</v>
+      </c>
+      <c r="E3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>226</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>227</v>
       </c>
       <c r="C4" t="s">
-        <v>128</v>
+        <v>228</v>
       </c>
       <c r="D4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>229</v>
+      </c>
+      <c r="E4" t="s">
+        <v>230</v>
+      </c>
+      <c r="F4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>232</v>
       </c>
       <c r="B5" t="s">
-        <v>131</v>
+        <v>233</v>
       </c>
       <c r="C5" t="s">
-        <v>132</v>
+        <v>234</v>
       </c>
       <c r="D5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>235</v>
+      </c>
+      <c r="E5" t="s">
+        <v>236</v>
+      </c>
+      <c r="F5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>134</v>
+        <v>238</v>
       </c>
       <c r="B6" t="s">
-        <v>135</v>
+        <v>239</v>
       </c>
       <c r="C6" t="s">
-        <v>136</v>
+        <v>240</v>
       </c>
       <c r="D6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>241</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>138</v>
+        <v>243</v>
       </c>
       <c r="B7" t="s">
-        <v>139</v>
+        <v>244</v>
       </c>
       <c r="C7" t="s">
-        <v>140</v>
+        <v>245</v>
       </c>
       <c r="D7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>246</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>142</v>
+        <v>248</v>
       </c>
       <c r="B8" t="s">
-        <v>143</v>
+        <v>249</v>
       </c>
       <c r="C8" t="s">
-        <v>144</v>
+        <v>250</v>
       </c>
       <c r="D8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>251</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>253</v>
       </c>
       <c r="B9" t="s">
-        <v>147</v>
+        <v>254</v>
       </c>
       <c r="C9" t="s">
-        <v>148</v>
+        <v>255</v>
       </c>
       <c r="D9" t="s">
-        <v>149</v>
+        <v>256</v>
+      </c>
+      <c r="E9" t="s">
+        <v>257</v>
+      </c>
+      <c r="F9" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -2061,13 +2927,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2080,327 +2946,211 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>150</v>
+        <v>259</v>
       </c>
       <c r="C2" t="s">
-        <v>151</v>
+        <v>260</v>
       </c>
       <c r="D2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>261</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>153</v>
+        <v>263</v>
       </c>
       <c r="C3" t="s">
-        <v>154</v>
+        <v>264</v>
       </c>
       <c r="D3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>265</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>267</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>268</v>
       </c>
       <c r="C4" t="s">
-        <v>128</v>
+        <v>269</v>
       </c>
       <c r="D4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>270</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>272</v>
       </c>
       <c r="B5" t="s">
-        <v>131</v>
+        <v>273</v>
       </c>
       <c r="C5" t="s">
-        <v>132</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>274</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>134</v>
+        <v>275</v>
       </c>
       <c r="B6" t="s">
-        <v>135</v>
+        <v>276</v>
       </c>
       <c r="C6" t="s">
-        <v>136</v>
+        <v>277</v>
       </c>
       <c r="D6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>278</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>138</v>
+        <v>280</v>
       </c>
       <c r="B7" t="s">
-        <v>139</v>
+        <v>281</v>
       </c>
       <c r="C7" t="s">
-        <v>140</v>
+        <v>282</v>
       </c>
       <c r="D7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>283</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>156</v>
+        <v>285</v>
       </c>
       <c r="B8" t="s">
-        <v>157</v>
+        <v>286</v>
       </c>
       <c r="C8" t="s">
-        <v>158</v>
+        <v>287</v>
       </c>
       <c r="D8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>288</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>160</v>
+        <v>290</v>
       </c>
       <c r="B9" t="s">
-        <v>161</v>
+        <v>291</v>
       </c>
       <c r="C9" t="s">
-        <v>162</v>
+        <v>292</v>
       </c>
       <c r="D9" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>293</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>164</v>
+        <v>295</v>
       </c>
       <c r="B10" t="s">
-        <v>165</v>
+        <v>296</v>
       </c>
       <c r="C10" t="s">
-        <v>94</v>
+        <v>297</v>
       </c>
       <c r="D10" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>298</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>167</v>
+        <v>300</v>
       </c>
       <c r="B11" t="s">
-        <v>168</v>
+        <v>301</v>
       </c>
       <c r="C11" t="s">
-        <v>169</v>
+        <v>302</v>
       </c>
       <c r="D11" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>171</v>
-      </c>
-      <c r="B12" t="s">
-        <v>172</v>
-      </c>
-      <c r="C12" t="s">
-        <v>173</v>
-      </c>
-      <c r="D12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>175</v>
-      </c>
-      <c r="B13" t="s">
-        <v>176</v>
-      </c>
-      <c r="C13" t="s">
-        <v>177</v>
-      </c>
-      <c r="D13" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>179</v>
-      </c>
-      <c r="B14" t="s">
-        <v>180</v>
-      </c>
-      <c r="C14" t="s">
-        <v>181</v>
-      </c>
-      <c r="D14" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>183</v>
-      </c>
-      <c r="B15" t="s">
-        <v>184</v>
-      </c>
-      <c r="C15" t="s">
-        <v>185</v>
-      </c>
-      <c r="D15" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>187</v>
-      </c>
-      <c r="B16" t="s">
-        <v>188</v>
-      </c>
-      <c r="C16" t="s">
-        <v>189</v>
-      </c>
-      <c r="D16" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>191</v>
-      </c>
-      <c r="B17" t="s">
-        <v>192</v>
-      </c>
-      <c r="C17" t="s">
-        <v>193</v>
-      </c>
-      <c r="D17" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>195</v>
-      </c>
-      <c r="B18" t="s">
-        <v>196</v>
-      </c>
-      <c r="C18" t="s">
-        <v>197</v>
-      </c>
-      <c r="D18" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>199</v>
-      </c>
-      <c r="B19" t="s">
-        <v>200</v>
-      </c>
-      <c r="C19" t="s">
-        <v>201</v>
-      </c>
-      <c r="D19" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>203</v>
-      </c>
-      <c r="B20" t="s">
-        <v>204</v>
-      </c>
-      <c r="C20" t="s">
-        <v>205</v>
-      </c>
-      <c r="D20" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>207</v>
-      </c>
-      <c r="B21" t="s">
-        <v>208</v>
-      </c>
-      <c r="C21" t="s">
-        <v>209</v>
-      </c>
-      <c r="D21" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>211</v>
-      </c>
-      <c r="B22" t="s">
-        <v>212</v>
-      </c>
-      <c r="C22" t="s">
-        <v>213</v>
-      </c>
-      <c r="D22" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>215</v>
-      </c>
-      <c r="B23" t="s">
-        <v>216</v>
-      </c>
-      <c r="C23" t="s">
-        <v>217</v>
-      </c>
-      <c r="D23" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>219</v>
-      </c>
-      <c r="B24" t="s">
-        <v>220</v>
-      </c>
-      <c r="C24" t="s">
-        <v>221</v>
-      </c>
-      <c r="D24" t="s">
-        <v>222</v>
+        <v>303</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" t="s">
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -2410,13 +3160,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2429,181 +3179,271 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>223</v>
+        <v>305</v>
       </c>
       <c r="C2" t="s">
-        <v>224</v>
+        <v>306</v>
       </c>
       <c r="D2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>307</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>226</v>
+        <v>309</v>
       </c>
       <c r="C3" t="s">
-        <v>227</v>
+        <v>310</v>
       </c>
       <c r="D3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>311</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>229</v>
+        <v>313</v>
       </c>
       <c r="B4" t="s">
-        <v>230</v>
+        <v>314</v>
       </c>
       <c r="C4" t="s">
-        <v>231</v>
+        <v>315</v>
       </c>
       <c r="D4" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>316</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>233</v>
+        <v>318</v>
       </c>
       <c r="B5" t="s">
-        <v>234</v>
+        <v>319</v>
       </c>
       <c r="C5" t="s">
-        <v>235</v>
+        <v>320</v>
       </c>
       <c r="D5" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>321</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>237</v>
+        <v>323</v>
       </c>
       <c r="B6" t="s">
-        <v>238</v>
+        <v>324</v>
       </c>
       <c r="C6" t="s">
-        <v>239</v>
+        <v>325</v>
       </c>
       <c r="D6" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>326</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>241</v>
+        <v>328</v>
       </c>
       <c r="B7" t="s">
-        <v>242</v>
+        <v>329</v>
       </c>
       <c r="C7" t="s">
-        <v>243</v>
+        <v>330</v>
       </c>
       <c r="D7" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>331</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>245</v>
+        <v>333</v>
       </c>
       <c r="B8" t="s">
-        <v>246</v>
+        <v>334</v>
       </c>
       <c r="C8" t="s">
-        <v>247</v>
+        <v>335</v>
       </c>
       <c r="D8" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>336</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>249</v>
+        <v>338</v>
       </c>
       <c r="B9" t="s">
-        <v>250</v>
+        <v>339</v>
       </c>
       <c r="C9" t="s">
-        <v>251</v>
+        <v>340</v>
       </c>
       <c r="D9" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>341</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>253</v>
+        <v>343</v>
       </c>
       <c r="B10" t="s">
-        <v>254</v>
+        <v>344</v>
       </c>
       <c r="C10" t="s">
-        <v>255</v>
+        <v>345</v>
       </c>
       <c r="D10" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>346</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>257</v>
+        <v>348</v>
       </c>
       <c r="B11" t="s">
-        <v>258</v>
+        <v>349</v>
       </c>
       <c r="C11" t="s">
-        <v>259</v>
+        <v>350</v>
       </c>
       <c r="D11" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>351</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>261</v>
+        <v>353</v>
       </c>
       <c r="B12" t="s">
-        <v>262</v>
+        <v>354</v>
       </c>
       <c r="C12" t="s">
-        <v>263</v>
+        <v>355</v>
       </c>
       <c r="D12" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>356</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>265</v>
+        <v>358</v>
       </c>
       <c r="B13" t="s">
-        <v>266</v>
+        <v>359</v>
       </c>
       <c r="C13" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>360</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>268</v>
+        <v>362</v>
       </c>
       <c r="B14" t="s">
-        <v>269</v>
+        <v>363</v>
       </c>
       <c r="C14" t="s">
-        <v>270</v>
+        <v>364</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" t="s">
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -2613,13 +3453,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2632,89 +3472,91 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>271</v>
+        <v>365</v>
       </c>
       <c r="C2" t="s">
-        <v>272</v>
+        <v>366</v>
       </c>
       <c r="D2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>367</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>274</v>
+        <v>369</v>
       </c>
       <c r="C3" t="s">
-        <v>275</v>
+        <v>370</v>
       </c>
       <c r="D3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>371</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>277</v>
+        <v>373</v>
       </c>
       <c r="B4" t="s">
-        <v>278</v>
+        <v>374</v>
       </c>
       <c r="C4" t="s">
-        <v>279</v>
+        <v>375</v>
       </c>
       <c r="D4" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>376</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>281</v>
+        <v>378</v>
       </c>
       <c r="B5" t="s">
-        <v>282</v>
+        <v>379</v>
       </c>
       <c r="C5" t="s">
-        <v>283</v>
+        <v>380</v>
       </c>
       <c r="D5" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>285</v>
-      </c>
-      <c r="B6" t="s">
-        <v>286</v>
-      </c>
-      <c r="C6" t="s">
-        <v>287</v>
-      </c>
-      <c r="D6" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>289</v>
-      </c>
-      <c r="B7" t="s">
-        <v>290</v>
-      </c>
-      <c r="C7" t="s">
-        <v>291</v>
-      </c>
-      <c r="D7" t="s">
-        <v>292</v>
+        <v>381</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -2724,13 +3566,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2743,61 +3585,131 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>293</v>
+        <v>383</v>
       </c>
       <c r="C2" t="s">
-        <v>294</v>
+        <v>384</v>
       </c>
       <c r="D2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>385</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>296</v>
+        <v>387</v>
       </c>
       <c r="C3" t="s">
-        <v>297</v>
+        <v>388</v>
       </c>
       <c r="D3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>389</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>277</v>
+        <v>373</v>
       </c>
       <c r="B4" t="s">
-        <v>299</v>
+        <v>391</v>
       </c>
       <c r="C4" t="s">
-        <v>300</v>
+        <v>392</v>
       </c>
       <c r="D4" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>393</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>281</v>
+        <v>378</v>
       </c>
       <c r="B5" t="s">
-        <v>302</v>
+        <v>394</v>
       </c>
       <c r="C5" t="s">
-        <v>303</v>
+        <v>395</v>
       </c>
       <c r="D5" t="s">
-        <v>304</v>
+        <v>396</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>397</v>
+      </c>
+      <c r="B6" t="s">
+        <v>398</v>
+      </c>
+      <c r="C6" t="s">
+        <v>399</v>
+      </c>
+      <c r="D6" t="s">
+        <v>400</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>402</v>
+      </c>
+      <c r="B7" t="s">
+        <v>403</v>
+      </c>
+      <c r="C7" t="s">
+        <v>404</v>
+      </c>
+      <c r="D7" t="s">
+        <v>405</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>406</v>
       </c>
     </row>
   </sheetData>

--- a/AdofaiTweaks.Generator/translations.xlsx
+++ b/AdofaiTweaks.Generator/translations.xlsx
@@ -8,11 +8,11 @@
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
-    <sheet name="KeyViewer" sheetId="2" r:id="rId2"/>
-    <sheet name="KeyLimiter" sheetId="3" r:id="rId3"/>
-    <sheet name="DisableEffects" sheetId="4" r:id="rId4"/>
-    <sheet name="HideUiElements" sheetId="5" r:id="rId5"/>
-    <sheet name="JudgmentVisuals" sheetId="6" r:id="rId6"/>
+    <sheet name="DisableEffects" sheetId="2" r:id="rId2"/>
+    <sheet name="HideUiElements" sheetId="3" r:id="rId3"/>
+    <sheet name="JudgmentVisuals" sheetId="4" r:id="rId4"/>
+    <sheet name="KeyViewer" sheetId="5" r:id="rId5"/>
+    <sheet name="KeyLimiter" sheetId="6" r:id="rId6"/>
     <sheet name="Miscellaneous" sheetId="7" r:id="rId7"/>
     <sheet name="PlanetOpacity" sheetId="8" r:id="rId8"/>
     <sheet name="PlanetColor" sheetId="9" r:id="rId9"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="437">
   <si>
     <t>KEY</t>
   </si>
@@ -43,6 +43,9 @@
     <t>FRENCH</t>
   </si>
   <si>
+    <t>VIETNAMESE</t>
+  </si>
+  <si>
     <t>TEST_KEY</t>
   </si>
   <si>
@@ -97,9 +100,477 @@
     <t>Français</t>
   </si>
   <si>
+    <t>Tiếng Việt</t>
+  </si>
+  <si>
     <t>NAME</t>
   </si>
   <si>
+    <t>Disable Effects</t>
+  </si>
+  <si>
+    <t>이펙트 비활성화</t>
+  </si>
+  <si>
+    <t>Desactivar efectos</t>
+  </si>
+  <si>
+    <t>Wyłącz efekty</t>
+  </si>
+  <si>
+    <t>Désactiver les Effets</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Disables certain effects to improve performance.</t>
+  </si>
+  <si>
+    <t>특정 이펙트를 비활성화해 게임플레이를 더 부드럽게 합니다.</t>
+  </si>
+  <si>
+    <t>Desactiva efectos específicos para mejorar el rendimiento</t>
+  </si>
+  <si>
+    <t>Wyłącz niektóre efekty aby poprawić wydajność</t>
+  </si>
+  <si>
+    <t>Désactive certains effets pour améliorer la performance.</t>
+  </si>
+  <si>
+    <t>FILTER</t>
+  </si>
+  <si>
+    <t>Disable VFX filters ({0}, {1}, etc.)</t>
+  </si>
+  <si>
+    <t>VFX 필터 ({0}, {1}, 등..) 끄기</t>
+  </si>
+  <si>
+    <t>Desactivar efectos de filtro ({0}, {1}, etc.)</t>
+  </si>
+  <si>
+    <t>Wyłącz filtry ({0}, {1}, itd.)</t>
+  </si>
+  <si>
+    <t>Désactive le filtre "VFX" ({0}, {1}, etc.)</t>
+  </si>
+  <si>
+    <t>BLOOM</t>
+  </si>
+  <si>
+    <t>Disable bloom</t>
+  </si>
+  <si>
+    <t>블룸 끄기</t>
+  </si>
+  <si>
+    <t>Descativar Brillo (Bloom)</t>
+  </si>
+  <si>
+    <t>Wyłącz bloom</t>
+  </si>
+  <si>
+    <t>Désactive le bloom</t>
+  </si>
+  <si>
+    <t>FLASH</t>
+  </si>
+  <si>
+    <t>Disable screen flashes</t>
+  </si>
+  <si>
+    <t>스크린 플래시 끄기</t>
+  </si>
+  <si>
+    <t>Desactivar Destellos (Flashes)</t>
+  </si>
+  <si>
+    <t>Wyłącz błysk ekranu</t>
+  </si>
+  <si>
+    <t>Désactive les flashs</t>
+  </si>
+  <si>
+    <t>HALL_OF_MIRRORS</t>
+  </si>
+  <si>
+    <t>Disable "{0}" effect</t>
+  </si>
+  <si>
+    <t>"{0}" 이펙트 끄기</t>
+  </si>
+  <si>
+    <t>Desactivar "{0}"</t>
+  </si>
+  <si>
+    <t>Wyłącz efekt "{0}"</t>
+  </si>
+  <si>
+    <t>Désactive l'effets "{0}"</t>
+  </si>
+  <si>
+    <t>SCREEN_SHAKE</t>
+  </si>
+  <si>
+    <t>Disable screen shake</t>
+  </si>
+  <si>
+    <t>화면 흔들림 끄기</t>
+  </si>
+  <si>
+    <t>Desactivar vibraciones de pantalla (Screen Shake)</t>
+  </si>
+  <si>
+    <t>Wyłącz trzęsienie ekranu</t>
+  </si>
+  <si>
+    <t>Désactive les tremblements de l'écran</t>
+  </si>
+  <si>
+    <t>TILE_MOVEMENT_MAX</t>
+  </si>
+  <si>
+    <t>Max number of moving tiles at once:</t>
+  </si>
+  <si>
+    <t>한꺼번에 움직일 수 있는 타일의 개수:</t>
+  </si>
+  <si>
+    <t>Número máximo de casillas moviéndose a la vez:</t>
+  </si>
+  <si>
+    <t>Maxymalna liczba ruszających się ścieżek:</t>
+  </si>
+  <si>
+    <t>Nombre max de tile qui bougent en même temps:</t>
+  </si>
+  <si>
+    <t>TILE_MOVEMENT_UNLIMITED</t>
+  </si>
+  <si>
+    <t>Unlimited</t>
+  </si>
+  <si>
+    <t>제한 없음</t>
+  </si>
+  <si>
+    <t>Ilimitado</t>
+  </si>
+  <si>
+    <t>Nielimitowana</t>
+  </si>
+  <si>
+    <t>Infini</t>
+  </si>
+  <si>
+    <t>Hide UI Elements</t>
+  </si>
+  <si>
+    <t>UI 숨기기</t>
+  </si>
+  <si>
+    <t>Ocultar elementos de la IU</t>
+  </si>
+  <si>
+    <t>Schowaj elementy UI</t>
+  </si>
+  <si>
+    <t>Masque des éléments d'UI</t>
+  </si>
+  <si>
+    <t>Hides certain UI elements from gameplay.</t>
+  </si>
+  <si>
+    <t>특정 UI의 항목들을 숨깁니다.</t>
+  </si>
+  <si>
+    <t>Oculta elementos determinados de la interfaz de usuario (IU) del juego.</t>
+  </si>
+  <si>
+    <t>Chowa niektóre elementy UI z rozgrywki.</t>
+  </si>
+  <si>
+    <t>Masque certains éléments d'UI du gameplay.</t>
+  </si>
+  <si>
+    <t>EVERYTHING</t>
+  </si>
+  <si>
+    <t>Hide ALL UI elements (Note: this may include specific text in menus as well)</t>
+  </si>
+  <si>
+    <t>모든 UI 항목 숨기기 (참고 사항: 메뉴에서의 특정 텍스트도 숨겨질 수 있음)</t>
+  </si>
+  <si>
+    <t>Ocultar TODOS los elementos de la IU (Nota: esto también puede incluir textos específicos en los menús)</t>
+  </si>
+  <si>
+    <t>Zchowaj WSZYSTKIE elementy UI (Uwaga: to może dotyczyć niektórych napisów z menu)</t>
+  </si>
+  <si>
+    <t>Masque tout les éléments (Note: ça inclu peut-être des textes sécifique dans le menu)</t>
+  </si>
+  <si>
+    <t>JUDGE_TEXT</t>
+  </si>
+  <si>
+    <t>Hide judgment text ({0}, {1}, etc.)</t>
+  </si>
+  <si>
+    <t>판정 텍스트 숨기기 ({0}, {1}, 등..)</t>
+  </si>
+  <si>
+    <t>Ocultar texto de juicios ({0}, {1}, etc.)</t>
+  </si>
+  <si>
+    <t>Ukryj tekst oceniający ({0}, {1}, itd.)</t>
+  </si>
+  <si>
+    <t>Masque les textes de jugements ({0}, {1}, etc.)</t>
+  </si>
+  <si>
+    <t>MISSES</t>
+  </si>
+  <si>
+    <t>Hide miss indicators (circled X icons)</t>
+  </si>
+  <si>
+    <t>미스 표시 아이콘 숨기기 (동그란 흰색 X 아이콘)</t>
+  </si>
+  <si>
+    <t>Ocultar marcadores de fallo (íconos de X circulares)</t>
+  </si>
+  <si>
+    <t>Ukryj wskaźniki spudłowania (okrążone znaczki X)</t>
+  </si>
+  <si>
+    <t>Masque les indicateur de raté (croix rouge)</t>
+  </si>
+  <si>
+    <t>SONG_TITLE</t>
+  </si>
+  <si>
+    <t>Hide song artist and title</t>
+  </si>
+  <si>
+    <t>노래 이름 및 작곡가 숨기기</t>
+  </si>
+  <si>
+    <t>Ocultar artista y título de la música</t>
+  </si>
+  <si>
+    <t>Ukryj nazwę artysty i muzyki</t>
+  </si>
+  <si>
+    <t>Masque le nom de l'artiste et de la musique</t>
+  </si>
+  <si>
+    <t>AUTO</t>
+  </si>
+  <si>
+    <t>Hide Otto, autoplay text, and timing target icon</t>
+  </si>
+  <si>
+    <t>오토, 자동 플레이 텍스트, 판정 조정 아이콘(보통 판정, 엄격한 판정 등..) 숨기기</t>
+  </si>
+  <si>
+    <t>Ocultar a Otto, texto del modo automático e ícono de ventana de tiempo</t>
+  </si>
+  <si>
+    <t>Ukryj Otto, tekst autoplay i ikonę wyczucia czasu.</t>
+  </si>
+  <si>
+    <t>Masque otto, le texte d'autoplay et la timing target</t>
+  </si>
+  <si>
+    <t>BETA_BUILD</t>
+  </si>
+  <si>
+    <t>Hide "Beta Build" text</t>
+  </si>
+  <si>
+    <t>"Beta Build" 텍스트 숨기기</t>
+  </si>
+  <si>
+    <t>Ocultar texto de "Beta Build"</t>
+  </si>
+  <si>
+    <t>Ukryj tekst "Beta Build"</t>
+  </si>
+  <si>
+    <t>Masque le texte "Beta Build"</t>
+  </si>
+  <si>
+    <t>Judgment Visuals</t>
+  </si>
+  <si>
+    <t>판정 비주얼</t>
+  </si>
+  <si>
+    <t>Visualización de los juicios</t>
+  </si>
+  <si>
+    <t>Wizualizacje ocen</t>
+  </si>
+  <si>
+    <t>Visuels de Jugements</t>
+  </si>
+  <si>
+    <t>Improves the visuals of judgments.</t>
+  </si>
+  <si>
+    <t>판정을 더 정확하고 간단하게 보이도록 변경합니다.</t>
+  </si>
+  <si>
+    <t>Mejora los visuales de los juicios.</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Améliore le visuel de jugements.</t>
+  </si>
+  <si>
+    <t>SHOW_HIT_ERROR_METER</t>
+  </si>
+  <si>
+    <t>Show hit error meter</t>
+  </si>
+  <si>
+    <t>입력 실수 미터 표시하기</t>
+  </si>
+  <si>
+    <t>Mostrar barra de errores</t>
+  </si>
+  <si>
+    <t>Affiche le visualiseur de hit</t>
+  </si>
+  <si>
+    <t>ERROR_METER_SCALE</t>
+  </si>
+  <si>
+    <t>Scale:</t>
+  </si>
+  <si>
+    <t>크기:</t>
+  </si>
+  <si>
+    <t>Escala:</t>
+  </si>
+  <si>
+    <t>Wielkość:</t>
+  </si>
+  <si>
+    <t>Taille:</t>
+  </si>
+  <si>
+    <t>ERROR_METER_TICK_LIFE</t>
+  </si>
+  <si>
+    <t>Hit tick display time:</t>
+  </si>
+  <si>
+    <t>입력 실수 표시 시간:</t>
+  </si>
+  <si>
+    <t>Duración de las marcas en pantalla:</t>
+  </si>
+  <si>
+    <t>Tick d'affiche des hit</t>
+  </si>
+  <si>
+    <t>ERROR_METER_TICK_SECONDS</t>
+  </si>
+  <si>
+    <t>{0} second(s)</t>
+  </si>
+  <si>
+    <t>{0} 초</t>
+  </si>
+  <si>
+    <t>{0} segundo(s)</t>
+  </si>
+  <si>
+    <t>{0} sekund</t>
+  </si>
+  <si>
+    <t>{0} seconde(s)</t>
+  </si>
+  <si>
+    <t>ERROR_METER_SENSITIVITY</t>
+  </si>
+  <si>
+    <t>Bottom arrow sensitivity:</t>
+  </si>
+  <si>
+    <t>평균 화살표 감도:</t>
+  </si>
+  <si>
+    <t>Sensibilidad de la flecha:</t>
+  </si>
+  <si>
+    <t>Czułość strzałki dolnej:</t>
+  </si>
+  <si>
+    <t>Sensibilité de la flèche au desus</t>
+  </si>
+  <si>
+    <t>ERROR_METER_MORE_STABLE</t>
+  </si>
+  <si>
+    <t>More stable</t>
+  </si>
+  <si>
+    <t>둔함</t>
+  </si>
+  <si>
+    <t>Más estable</t>
+  </si>
+  <si>
+    <t>Bardziej stabilna</t>
+  </si>
+  <si>
+    <t>Plus stable</t>
+  </si>
+  <si>
+    <t>ERROR_METER_LESS_STABLE</t>
+  </si>
+  <si>
+    <t>Less stable</t>
+  </si>
+  <si>
+    <t>민감함</t>
+  </si>
+  <si>
+    <t>Menos estable</t>
+  </si>
+  <si>
+    <t>Mniej stabilna</t>
+  </si>
+  <si>
+    <t>Moins stable</t>
+  </si>
+  <si>
+    <t>HIDE_PERFECTS</t>
+  </si>
+  <si>
+    <t>Hide "{0}" judgments</t>
+  </si>
+  <si>
+    <t>"{0}" 판정 숨기기</t>
+  </si>
+  <si>
+    <t>Esconder juicios de "{0}"</t>
+  </si>
+  <si>
+    <t>Ukryj ocenienia "{0}"</t>
+  </si>
+  <si>
+    <t>Masque les "{0}" jugements</t>
+  </si>
+  <si>
     <t>Key Viewer</t>
   </si>
   <si>
@@ -109,15 +580,9 @@
     <t>Teclas en pantella</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Viewer de Touche</t>
   </si>
   <si>
-    <t>DESCRIPTION</t>
-  </si>
-  <si>
     <t>Shows a key viewer for registered keys.</t>
   </si>
   <si>
@@ -226,15 +691,9 @@
     <t>Size:</t>
   </si>
   <si>
-    <t>크기:</t>
-  </si>
-  <si>
     <t>Tamaño:</t>
   </si>
   <si>
-    <t>Taille:</t>
-  </si>
-  <si>
     <t>KEY_VIEWER_X_POS</t>
   </si>
   <si>
@@ -515,429 +974,6 @@
   </si>
   <si>
     <t>Limite les touche  dans le menu principale</t>
-  </si>
-  <si>
-    <t>Disable Effects</t>
-  </si>
-  <si>
-    <t>이펙트 비활성화</t>
-  </si>
-  <si>
-    <t>Desactivar efectos</t>
-  </si>
-  <si>
-    <t>Wyłącz efekty</t>
-  </si>
-  <si>
-    <t>Désactiver les Effets</t>
-  </si>
-  <si>
-    <t>Disables certain effects to improve performance.</t>
-  </si>
-  <si>
-    <t>특정 이펙트를 비활성화해 게임플레이를 더 부드럽게 합니다.</t>
-  </si>
-  <si>
-    <t>Desactiva efectos específicos para mejorar el rendimiento</t>
-  </si>
-  <si>
-    <t>Wyłącz niektóre efekty aby poprawić wydajność</t>
-  </si>
-  <si>
-    <t>Désactive certains effets pour améliorer la performance.</t>
-  </si>
-  <si>
-    <t>FILTER</t>
-  </si>
-  <si>
-    <t>Disable VFX filters ({0}, {1}, etc.)</t>
-  </si>
-  <si>
-    <t>VFX 필터 ({0}, {1}, 등..) 끄기</t>
-  </si>
-  <si>
-    <t>Desactivar efectos de filtro ({0}, {1}, etc.)</t>
-  </si>
-  <si>
-    <t>Wyłącz filtry ({0}, {1}, itd.)</t>
-  </si>
-  <si>
-    <t>Désactive le filtre "VFX" ({0}, {1}, etc.)</t>
-  </si>
-  <si>
-    <t>BLOOM</t>
-  </si>
-  <si>
-    <t>Disable bloom</t>
-  </si>
-  <si>
-    <t>블룸 끄기</t>
-  </si>
-  <si>
-    <t>Descativar Brillo (Bloom)</t>
-  </si>
-  <si>
-    <t>Wyłącz bloom</t>
-  </si>
-  <si>
-    <t>Désactive le bloom</t>
-  </si>
-  <si>
-    <t>FLASH</t>
-  </si>
-  <si>
-    <t>Disable screen flashes</t>
-  </si>
-  <si>
-    <t>스크린 플래시 끄기</t>
-  </si>
-  <si>
-    <t>Desactivar Destellos (Flashes)</t>
-  </si>
-  <si>
-    <t>Wyłącz błysk ekranu</t>
-  </si>
-  <si>
-    <t>Désactive les flashs</t>
-  </si>
-  <si>
-    <t>HALL_OF_MIRRORS</t>
-  </si>
-  <si>
-    <t>Disable "{0}" effect</t>
-  </si>
-  <si>
-    <t>"{0}" 이펙트 끄기</t>
-  </si>
-  <si>
-    <t>Desactivar "{0}"</t>
-  </si>
-  <si>
-    <t>Wyłącz efekt "{0}"</t>
-  </si>
-  <si>
-    <t>Désactive l'effets "{0}"</t>
-  </si>
-  <si>
-    <t>SCREEN_SHAKE</t>
-  </si>
-  <si>
-    <t>Disable screen shake</t>
-  </si>
-  <si>
-    <t>화면 흔들림 끄기</t>
-  </si>
-  <si>
-    <t>Desactivar vibraciones de pantalla (Screen Shake)</t>
-  </si>
-  <si>
-    <t>Wyłącz trzęsienie ekranu</t>
-  </si>
-  <si>
-    <t>Désactive les tremblements de l'écran</t>
-  </si>
-  <si>
-    <t>TILE_MOVEMENT_MAX</t>
-  </si>
-  <si>
-    <t>Max number of moving tiles at once:</t>
-  </si>
-  <si>
-    <t>한꺼번에 움직일 수 있는 타일의 개수:</t>
-  </si>
-  <si>
-    <t>Número máximo de casillas moviéndose a la vez:</t>
-  </si>
-  <si>
-    <t>Maxymalna liczba ruszających się ścieżek:</t>
-  </si>
-  <si>
-    <t>Nombre max de tile qui bougent en même temps:</t>
-  </si>
-  <si>
-    <t>TILE_MOVEMENT_UNLIMITED</t>
-  </si>
-  <si>
-    <t>Unlimited</t>
-  </si>
-  <si>
-    <t>제한 없음</t>
-  </si>
-  <si>
-    <t>Ilimitado</t>
-  </si>
-  <si>
-    <t>Nielimitowana</t>
-  </si>
-  <si>
-    <t>Infini</t>
-  </si>
-  <si>
-    <t>Hide UI Elements</t>
-  </si>
-  <si>
-    <t>UI 숨기기</t>
-  </si>
-  <si>
-    <t>Ocultar elementos de la IU</t>
-  </si>
-  <si>
-    <t>Schowaj elementy UI</t>
-  </si>
-  <si>
-    <t>Masque des éléments d'UI</t>
-  </si>
-  <si>
-    <t>Hides certain UI elements from gameplay.</t>
-  </si>
-  <si>
-    <t>특정 UI의 항목들을 숨깁니다.</t>
-  </si>
-  <si>
-    <t>Oculta elementos determinados de la interfaz de usuario (IU) del juego.</t>
-  </si>
-  <si>
-    <t>Chowa niektóre elementy UI z rozgrywki.</t>
-  </si>
-  <si>
-    <t>Masque certains éléments d'UI du gameplay.</t>
-  </si>
-  <si>
-    <t>EVERYTHING</t>
-  </si>
-  <si>
-    <t>Hide ALL UI elements (Note: this may include specific text in menus as well)</t>
-  </si>
-  <si>
-    <t>모든 UI 항목 숨기기 (참고 사항: 메뉴에서의 특정 텍스트도 숨겨질 수 있음)</t>
-  </si>
-  <si>
-    <t>Ocultar TODOS los elementos de la IU (Nota: esto también puede incluir textos específicos en los menús)</t>
-  </si>
-  <si>
-    <t>Zchowaj WSZYSTKIE elementy UI (Uwaga: to może dotyczyć niektórych napisów z menu)</t>
-  </si>
-  <si>
-    <t>Masque tout les éléments (Note: ça inclu peut-être des textes sécifique dans le menu)</t>
-  </si>
-  <si>
-    <t>JUDGE_TEXT</t>
-  </si>
-  <si>
-    <t>Hide judgment text ({0}, {1}, etc.)</t>
-  </si>
-  <si>
-    <t>판정 텍스트 숨기기 ({0}, {1}, 등..)</t>
-  </si>
-  <si>
-    <t>Ocultar texto de juicios ({0}, {1}, etc.)</t>
-  </si>
-  <si>
-    <t>Ukryj tekst oceniający ({0}, {1}, itd.)</t>
-  </si>
-  <si>
-    <t>Masque les textes de jugements ({0}, {1}, etc.)</t>
-  </si>
-  <si>
-    <t>MISSES</t>
-  </si>
-  <si>
-    <t>Hide miss indicators (circled X icons)</t>
-  </si>
-  <si>
-    <t>미스 표시 아이콘 숨기기 (동그란 흰색 X 아이콘)</t>
-  </si>
-  <si>
-    <t>Ocultar marcadores de fallo (íconos de X circulares)</t>
-  </si>
-  <si>
-    <t>Masque les indicateur de raté (croix rouge)</t>
-  </si>
-  <si>
-    <t>SONG_TITLE</t>
-  </si>
-  <si>
-    <t>Hide song artist and title</t>
-  </si>
-  <si>
-    <t>노래 이름 및 작곡가 숨기기</t>
-  </si>
-  <si>
-    <t>Ocultar artista y título de la música</t>
-  </si>
-  <si>
-    <t>Masque le nom de l'artiste et de la musique</t>
-  </si>
-  <si>
-    <t>AUTO</t>
-  </si>
-  <si>
-    <t>Hide Otto, autoplay text, and timing target icon</t>
-  </si>
-  <si>
-    <t>오토, 자동 플레이 텍스트, 판정 조정 아이콘(보통 판정, 엄격한 판정 등..) 숨기기</t>
-  </si>
-  <si>
-    <t>Ocultar a Otto, texto del modo automático e ícono de ventana de tiempo</t>
-  </si>
-  <si>
-    <t>Masque otto, le texte d'autoplay et la timing target</t>
-  </si>
-  <si>
-    <t>BETA_BUILD</t>
-  </si>
-  <si>
-    <t>Hide "Beta Build" text</t>
-  </si>
-  <si>
-    <t>"Beta Build" 텍스트 숨기기</t>
-  </si>
-  <si>
-    <t>Ocultar texto de "Beta Build"</t>
-  </si>
-  <si>
-    <t>Ukryj tekst "Beta Build"</t>
-  </si>
-  <si>
-    <t>Masque le texte "Beta Build"</t>
-  </si>
-  <si>
-    <t>Judgment Visuals</t>
-  </si>
-  <si>
-    <t>판정 비주얼</t>
-  </si>
-  <si>
-    <t>Visualización de los juicios</t>
-  </si>
-  <si>
-    <t>Visuels de Jugements</t>
-  </si>
-  <si>
-    <t>Improves the visuals of judgments.</t>
-  </si>
-  <si>
-    <t>판정을 더 정확하고 간단하게 보이도록 변경합니다.</t>
-  </si>
-  <si>
-    <t>Mejora los visuales de los juicios.</t>
-  </si>
-  <si>
-    <t>Améliore le visuel de jugements.</t>
-  </si>
-  <si>
-    <t>SHOW_HIT_ERROR_METER</t>
-  </si>
-  <si>
-    <t>Show hit error meter</t>
-  </si>
-  <si>
-    <t>입력 실수 미터 표시하기</t>
-  </si>
-  <si>
-    <t>Mostrar barra de errores</t>
-  </si>
-  <si>
-    <t>Affiche le visualiseur de hit</t>
-  </si>
-  <si>
-    <t>ERROR_METER_SCALE</t>
-  </si>
-  <si>
-    <t>Scale:</t>
-  </si>
-  <si>
-    <t>Escala:</t>
-  </si>
-  <si>
-    <t>ERROR_METER_TICK_LIFE</t>
-  </si>
-  <si>
-    <t>Hit tick display time:</t>
-  </si>
-  <si>
-    <t>입력 실수 표시 시간:</t>
-  </si>
-  <si>
-    <t>Duración de las marcas en pantalla:</t>
-  </si>
-  <si>
-    <t>Tick d'affiche des hit</t>
-  </si>
-  <si>
-    <t>ERROR_METER_TICK_SECONDS</t>
-  </si>
-  <si>
-    <t>{0} second(s)</t>
-  </si>
-  <si>
-    <t>{0} 초</t>
-  </si>
-  <si>
-    <t>{0} segundo(s)</t>
-  </si>
-  <si>
-    <t>{0} seconde(s)</t>
-  </si>
-  <si>
-    <t>ERROR_METER_SENSITIVITY</t>
-  </si>
-  <si>
-    <t>Bottom arrow sensitivity:</t>
-  </si>
-  <si>
-    <t>평균 화살표 감도:</t>
-  </si>
-  <si>
-    <t>Sensibilidad de la flecha:</t>
-  </si>
-  <si>
-    <t>Sensibilité de la flèche au desus</t>
-  </si>
-  <si>
-    <t>ERROR_METER_MORE_STABLE</t>
-  </si>
-  <si>
-    <t>More stable</t>
-  </si>
-  <si>
-    <t>둔함</t>
-  </si>
-  <si>
-    <t>Más estable</t>
-  </si>
-  <si>
-    <t>Plus stable</t>
-  </si>
-  <si>
-    <t>ERROR_METER_LESS_STABLE</t>
-  </si>
-  <si>
-    <t>Less stable</t>
-  </si>
-  <si>
-    <t>민감함</t>
-  </si>
-  <si>
-    <t>Menos estable</t>
-  </si>
-  <si>
-    <t>Moins stable</t>
-  </si>
-  <si>
-    <t>HIDE_PERFECTS</t>
-  </si>
-  <si>
-    <t>Hide "{0}" judgments</t>
-  </si>
-  <si>
-    <t>"{0}" 판정 숨기기</t>
-  </si>
-  <si>
-    <t>Esconder juicios de "{0}"</t>
-  </si>
-  <si>
-    <t>Masque les "{0}" jugements</t>
   </si>
   <si>
     <t>Miscellaneous</t>
@@ -1629,13 +1665,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1654,65 +1690,71 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1722,13 +1764,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1747,85 +1789,88 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="C2" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="D2" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
       <c r="F2" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="C3" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="D3" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
       <c r="F3" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="B4" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="C4" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="D4" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
       <c r="F4" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="B5" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="C5" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="D5" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
       <c r="F5" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
     </row>
   </sheetData>
@@ -1835,13 +1880,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1860,465 +1905,188 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="F10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" t="s">
-        <v>83</v>
-      </c>
-      <c r="E13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" t="s">
-        <v>88</v>
-      </c>
-      <c r="E14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>90</v>
-      </c>
-      <c r="B15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C15" t="s">
-        <v>92</v>
-      </c>
-      <c r="D15" t="s">
-        <v>93</v>
-      </c>
-      <c r="E15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>95</v>
-      </c>
-      <c r="B16" t="s">
-        <v>96</v>
-      </c>
-      <c r="C16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D16" t="s">
-        <v>98</v>
-      </c>
-      <c r="E16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>100</v>
-      </c>
-      <c r="B17" t="s">
-        <v>101</v>
-      </c>
-      <c r="C17" t="s">
-        <v>102</v>
-      </c>
-      <c r="D17" t="s">
-        <v>103</v>
-      </c>
-      <c r="E17" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>105</v>
-      </c>
-      <c r="B18" t="s">
-        <v>106</v>
-      </c>
-      <c r="C18" t="s">
-        <v>107</v>
-      </c>
-      <c r="D18" t="s">
-        <v>108</v>
-      </c>
-      <c r="E18" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>110</v>
-      </c>
-      <c r="B19" t="s">
-        <v>111</v>
-      </c>
-      <c r="C19" t="s">
-        <v>112</v>
-      </c>
-      <c r="D19" t="s">
-        <v>113</v>
-      </c>
-      <c r="E19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>115</v>
-      </c>
-      <c r="B20" t="s">
-        <v>116</v>
-      </c>
-      <c r="C20" t="s">
-        <v>117</v>
-      </c>
-      <c r="D20" t="s">
-        <v>118</v>
-      </c>
-      <c r="E20" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>120</v>
-      </c>
-      <c r="B21" t="s">
-        <v>121</v>
-      </c>
-      <c r="C21" t="s">
-        <v>122</v>
-      </c>
-      <c r="D21" t="s">
-        <v>123</v>
-      </c>
-      <c r="E21" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>125</v>
-      </c>
-      <c r="B22" t="s">
-        <v>126</v>
-      </c>
-      <c r="C22" t="s">
-        <v>127</v>
-      </c>
-      <c r="D22" t="s">
-        <v>128</v>
-      </c>
-      <c r="E22" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
-        <v>130</v>
-      </c>
-      <c r="B23" t="s">
-        <v>131</v>
-      </c>
-      <c r="C23" t="s">
-        <v>132</v>
-      </c>
-      <c r="D23" t="s">
-        <v>133</v>
-      </c>
-      <c r="E23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
-        <v>135</v>
-      </c>
-      <c r="B24" t="s">
-        <v>136</v>
-      </c>
-      <c r="C24" t="s">
-        <v>137</v>
-      </c>
-      <c r="D24" t="s">
-        <v>138</v>
-      </c>
-      <c r="E24" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" t="s">
-        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2328,13 +2096,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2353,165 +2121,168 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="D2" t="s">
-        <v>142</v>
+        <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="F2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
-        <v>145</v>
+        <v>86</v>
       </c>
       <c r="D3" t="s">
-        <v>146</v>
+        <v>87</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="E4" t="s">
-        <v>148</v>
+        <v>94</v>
       </c>
       <c r="F4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="E5" t="s">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="E6" t="s">
-        <v>151</v>
+        <v>106</v>
       </c>
       <c r="F6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="F7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="B8" t="s">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="C8" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="D8" t="s">
-        <v>157</v>
+        <v>117</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>118</v>
       </c>
       <c r="F8" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>159</v>
+        <v>120</v>
       </c>
       <c r="B9" t="s">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="C9" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="D9" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>124</v>
       </c>
       <c r="F9" t="s">
-        <v>163</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2521,13 +2292,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2546,185 +2317,208 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" t="s">
+        <v>155</v>
+      </c>
+      <c r="E7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E8" t="s">
+        <v>162</v>
+      </c>
+      <c r="F8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
         <v>164</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B9" t="s">
         <v>165</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C9" t="s">
         <v>166</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D9" t="s">
         <v>167</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E9" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="F9" t="s">
         <v>169</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
         <v>170</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B10" t="s">
         <v>171</v>
       </c>
-      <c r="E3" t="s">
+      <c r="C10" t="s">
         <v>172</v>
       </c>
-      <c r="F3" t="s">
+      <c r="D10" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
+      <c r="E10" t="s">
         <v>174</v>
       </c>
-      <c r="B4" t="s">
+      <c r="F10" t="s">
         <v>175</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
         <v>176</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B11" t="s">
         <v>177</v>
       </c>
-      <c r="E4" t="s">
+      <c r="C11" t="s">
         <v>178</v>
       </c>
-      <c r="F4" t="s">
+      <c r="D11" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
+      <c r="E11" t="s">
         <v>180</v>
       </c>
-      <c r="B5" t="s">
+      <c r="F11" t="s">
         <v>181</v>
-      </c>
-      <c r="C5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E5" t="s">
-        <v>184</v>
-      </c>
-      <c r="F5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>186</v>
-      </c>
-      <c r="B6" t="s">
-        <v>187</v>
-      </c>
-      <c r="C6" t="s">
-        <v>188</v>
-      </c>
-      <c r="D6" t="s">
-        <v>189</v>
-      </c>
-      <c r="E6" t="s">
-        <v>190</v>
-      </c>
-      <c r="F6" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>192</v>
-      </c>
-      <c r="B7" t="s">
-        <v>193</v>
-      </c>
-      <c r="C7" t="s">
-        <v>194</v>
-      </c>
-      <c r="D7" t="s">
-        <v>195</v>
-      </c>
-      <c r="E7" t="s">
-        <v>196</v>
-      </c>
-      <c r="F7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>198</v>
-      </c>
-      <c r="B8" t="s">
-        <v>199</v>
-      </c>
-      <c r="C8" t="s">
-        <v>200</v>
-      </c>
-      <c r="D8" t="s">
-        <v>201</v>
-      </c>
-      <c r="E8" t="s">
-        <v>202</v>
-      </c>
-      <c r="F8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>204</v>
-      </c>
-      <c r="B9" t="s">
-        <v>205</v>
-      </c>
-      <c r="C9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D9" t="s">
-        <v>207</v>
-      </c>
-      <c r="E9" t="s">
-        <v>208</v>
-      </c>
-      <c r="F9" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>210</v>
-      </c>
-      <c r="B10" t="s">
-        <v>211</v>
-      </c>
-      <c r="C10" t="s">
-        <v>212</v>
-      </c>
-      <c r="D10" t="s">
-        <v>213</v>
-      </c>
-      <c r="E10" t="s">
-        <v>214</v>
-      </c>
-      <c r="F10" t="s">
-        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -2734,13 +2528,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2759,165 +2553,468 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D6" t="s">
+        <v>203</v>
+      </c>
+      <c r="E6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D7" t="s">
+        <v>208</v>
+      </c>
+      <c r="E7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C8" t="s">
+        <v>212</v>
+      </c>
+      <c r="D8" t="s">
+        <v>213</v>
+      </c>
+      <c r="E8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>215</v>
+      </c>
+      <c r="B9" t="s">
         <v>216</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C9" t="s">
         <v>217</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D9" t="s">
         <v>218</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E9" t="s">
+        <v>134</v>
+      </c>
+      <c r="F9" t="s">
         <v>219</v>
       </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B10" t="s">
         <v>221</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D10" t="s">
         <v>222</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E10" t="s">
+        <v>134</v>
+      </c>
+      <c r="F10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
         <v>223</v>
       </c>
-      <c r="E3" t="s">
+      <c r="B11" t="s">
         <v>224</v>
       </c>
-      <c r="F3" t="s">
+      <c r="C11" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
+      <c r="D11" t="s">
         <v>226</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E11" t="s">
+        <v>134</v>
+      </c>
+      <c r="F11" t="s">
         <v>227</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
         <v>228</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B12" t="s">
         <v>229</v>
       </c>
-      <c r="E4" t="s">
+      <c r="C12" t="s">
         <v>230</v>
       </c>
-      <c r="F4" t="s">
+      <c r="D12" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
+      <c r="E12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F12" t="s">
         <v>232</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
         <v>233</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B13" t="s">
         <v>234</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C13" t="s">
         <v>235</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D13" t="s">
         <v>236</v>
       </c>
-      <c r="F5" t="s">
+      <c r="E13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F13" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
         <v>238</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B14" t="s">
         <v>239</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C14" t="s">
         <v>240</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D14" t="s">
         <v>241</v>
       </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="E14" t="s">
+        <v>134</v>
+      </c>
+      <c r="F14" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
         <v>243</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B15" t="s">
         <v>244</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C15" t="s">
         <v>245</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D15" t="s">
         <v>246</v>
       </c>
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="E15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F15" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
         <v>248</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B16" t="s">
         <v>249</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C16" t="s">
         <v>250</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D16" t="s">
         <v>251</v>
       </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="E16" t="s">
+        <v>134</v>
+      </c>
+      <c r="F16" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
         <v>253</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B17" t="s">
         <v>254</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C17" t="s">
         <v>255</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D17" t="s">
         <v>256</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E17" t="s">
+        <v>134</v>
+      </c>
+      <c r="F17" t="s">
         <v>257</v>
       </c>
-      <c r="F9" t="s">
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
         <v>258</v>
+      </c>
+      <c r="B18" t="s">
+        <v>259</v>
+      </c>
+      <c r="C18" t="s">
+        <v>260</v>
+      </c>
+      <c r="D18" t="s">
+        <v>261</v>
+      </c>
+      <c r="E18" t="s">
+        <v>134</v>
+      </c>
+      <c r="F18" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>263</v>
+      </c>
+      <c r="B19" t="s">
+        <v>264</v>
+      </c>
+      <c r="C19" t="s">
+        <v>265</v>
+      </c>
+      <c r="D19" t="s">
+        <v>266</v>
+      </c>
+      <c r="E19" t="s">
+        <v>134</v>
+      </c>
+      <c r="F19" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>268</v>
+      </c>
+      <c r="B20" t="s">
+        <v>269</v>
+      </c>
+      <c r="C20" t="s">
+        <v>270</v>
+      </c>
+      <c r="D20" t="s">
+        <v>271</v>
+      </c>
+      <c r="E20" t="s">
+        <v>134</v>
+      </c>
+      <c r="F20" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>273</v>
+      </c>
+      <c r="B21" t="s">
+        <v>274</v>
+      </c>
+      <c r="C21" t="s">
+        <v>275</v>
+      </c>
+      <c r="D21" t="s">
+        <v>276</v>
+      </c>
+      <c r="E21" t="s">
+        <v>134</v>
+      </c>
+      <c r="F21" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>278</v>
+      </c>
+      <c r="B22" t="s">
+        <v>279</v>
+      </c>
+      <c r="C22" t="s">
+        <v>280</v>
+      </c>
+      <c r="D22" t="s">
+        <v>281</v>
+      </c>
+      <c r="E22" t="s">
+        <v>134</v>
+      </c>
+      <c r="F22" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>283</v>
+      </c>
+      <c r="B23" t="s">
+        <v>284</v>
+      </c>
+      <c r="C23" t="s">
+        <v>285</v>
+      </c>
+      <c r="D23" t="s">
+        <v>286</v>
+      </c>
+      <c r="E23" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>288</v>
+      </c>
+      <c r="B24" t="s">
+        <v>289</v>
+      </c>
+      <c r="C24" t="s">
+        <v>290</v>
+      </c>
+      <c r="D24" t="s">
+        <v>291</v>
+      </c>
+      <c r="E24" t="s">
+        <v>134</v>
+      </c>
+      <c r="F24" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -2927,13 +3024,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2952,205 +3049,168 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>259</v>
+        <v>293</v>
       </c>
       <c r="C2" t="s">
-        <v>260</v>
+        <v>294</v>
       </c>
       <c r="D2" t="s">
-        <v>261</v>
+        <v>295</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
       <c r="F2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>263</v>
+        <v>297</v>
       </c>
       <c r="C3" t="s">
-        <v>264</v>
+        <v>298</v>
       </c>
       <c r="D3" t="s">
-        <v>265</v>
+        <v>299</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
       <c r="F3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>267</v>
+        <v>190</v>
       </c>
       <c r="B4" t="s">
-        <v>268</v>
+        <v>191</v>
       </c>
       <c r="C4" t="s">
-        <v>269</v>
+        <v>192</v>
       </c>
       <c r="D4" t="s">
-        <v>270</v>
+        <v>193</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>301</v>
       </c>
       <c r="F4" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>272</v>
+        <v>195</v>
       </c>
       <c r="B5" t="s">
-        <v>273</v>
+        <v>196</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>197</v>
       </c>
       <c r="D5" t="s">
-        <v>274</v>
+        <v>198</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>303</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>275</v>
+        <v>200</v>
       </c>
       <c r="B6" t="s">
-        <v>276</v>
+        <v>201</v>
       </c>
       <c r="C6" t="s">
-        <v>277</v>
+        <v>202</v>
       </c>
       <c r="D6" t="s">
-        <v>278</v>
+        <v>203</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>304</v>
       </c>
       <c r="F6" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>280</v>
+        <v>205</v>
       </c>
       <c r="B7" t="s">
-        <v>281</v>
+        <v>206</v>
       </c>
       <c r="C7" t="s">
-        <v>282</v>
+        <v>207</v>
       </c>
       <c r="D7" t="s">
-        <v>283</v>
+        <v>208</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
       <c r="F7" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="B8" t="s">
-        <v>286</v>
+        <v>308</v>
       </c>
       <c r="C8" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="D8" t="s">
-        <v>288</v>
+        <v>310</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
       <c r="F8" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="B9" t="s">
-        <v>291</v>
+        <v>313</v>
       </c>
       <c r="C9" t="s">
-        <v>292</v>
+        <v>314</v>
       </c>
       <c r="D9" t="s">
-        <v>293</v>
+        <v>315</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
       <c r="F9" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>295</v>
-      </c>
-      <c r="B10" t="s">
-        <v>296</v>
-      </c>
-      <c r="C10" t="s">
-        <v>297</v>
-      </c>
-      <c r="D10" t="s">
-        <v>298</v>
-      </c>
-      <c r="E10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>300</v>
-      </c>
-      <c r="B11" t="s">
-        <v>301</v>
-      </c>
-      <c r="C11" t="s">
-        <v>302</v>
-      </c>
-      <c r="D11" t="s">
-        <v>303</v>
-      </c>
-      <c r="E11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -3160,13 +3220,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3185,265 +3245,268 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="C2" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="D2" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
       <c r="F2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="C3" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="D3" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
       <c r="F3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="B4" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="C4" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="D4" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
       <c r="F4" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="B5" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="C5" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="D5" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
       <c r="F5" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="B6" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="C6" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="D6" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
       <c r="F6" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="B7" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="C7" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="D7" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
       <c r="F7" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="B8" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="C8" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="D8" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
       <c r="F8" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="B9" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="C9" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="D9" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
       <c r="F9" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="B10" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="C10" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="D10" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
       <c r="F10" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="B11" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="C11" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="D11" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
       <c r="F11" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="B12" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="C12" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="D12" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
       <c r="F12" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="B13" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="C13" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
       <c r="E13" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
       <c r="F13" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="B14" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="C14" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
       <c r="E14" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
       <c r="F14" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -3453,13 +3516,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3478,85 +3541,88 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="C2" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="D2" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
       <c r="F2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="C3" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="D3" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
       <c r="F3" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="B4" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="C4" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="D4" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
       <c r="F4" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="B5" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="C5" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="D5" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
       <c r="F5" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -3566,13 +3632,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3591,125 +3657,128 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="C2" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="D2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>399</v>
+      </c>
+      <c r="C3" t="s">
+        <v>400</v>
+      </c>
+      <c r="D3" t="s">
+        <v>401</v>
+      </c>
+      <c r="E3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
         <v>385</v>
       </c>
-      <c r="E2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s">
-        <v>387</v>
-      </c>
-      <c r="C3" t="s">
-        <v>388</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B4" t="s">
+        <v>403</v>
+      </c>
+      <c r="C4" t="s">
+        <v>404</v>
+      </c>
+      <c r="D4" t="s">
+        <v>405</v>
+      </c>
+      <c r="E4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F4" t="s">
         <v>389</v>
       </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" t="s">
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>373</v>
-      </c>
-      <c r="B4" t="s">
-        <v>391</v>
-      </c>
-      <c r="C4" t="s">
-        <v>392</v>
-      </c>
-      <c r="D4" t="s">
-        <v>393</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>378</v>
-      </c>
       <c r="B5" t="s">
+        <v>406</v>
+      </c>
+      <c r="C5" t="s">
+        <v>407</v>
+      </c>
+      <c r="D5" t="s">
+        <v>408</v>
+      </c>
+      <c r="E5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" t="s">
         <v>394</v>
       </c>
-      <c r="C5" t="s">
-        <v>395</v>
-      </c>
-      <c r="D5" t="s">
-        <v>396</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="B6" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="C6" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="D6" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
       <c r="F6" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="B7" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="C7" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="D7" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
       <c r="F7" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>

--- a/AdofaiTweaks.Generator/translations.xlsx
+++ b/AdofaiTweaks.Generator/translations.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="488">
   <si>
     <t>KEY</t>
   </si>
@@ -64,6 +64,9 @@
     <t>C'est un string de test.</t>
   </si>
   <si>
+    <t>Đây là dòng chữ thử nghiệm</t>
+  </si>
+  <si>
     <t>GLOBAL_LANGUAGE</t>
   </si>
   <si>
@@ -82,6 +85,9 @@
     <t>Langue:</t>
   </si>
   <si>
+    <t>Ngôn ngữ:</t>
+  </si>
+  <si>
     <t>LANGUAGE_NAME</t>
   </si>
   <si>
@@ -121,6 +127,9 @@
     <t>Désactiver les Effets</t>
   </si>
   <si>
+    <t>Tắt hiệu ứng</t>
+  </si>
+  <si>
     <t>DESCRIPTION</t>
   </si>
   <si>
@@ -139,6 +148,9 @@
     <t>Désactive certains effets pour améliorer la performance.</t>
   </si>
   <si>
+    <t>Tắt đi một số hiệu ứng nhất định nhằm cải thiện chất lượng</t>
+  </si>
+  <si>
     <t>FILTER</t>
   </si>
   <si>
@@ -157,6 +169,9 @@
     <t>Désactive le filtre "VFX" ({0}, {1}, etc.)</t>
   </si>
   <si>
+    <t>Tắt hiệu ứng thay đổi tầm nhìn ({0}, {1}, v.v)</t>
+  </si>
+  <si>
     <t>BLOOM</t>
   </si>
   <si>
@@ -175,6 +190,9 @@
     <t>Désactive le bloom</t>
   </si>
   <si>
+    <t>Tắt hiệu ứng "nở"</t>
+  </si>
+  <si>
     <t>FLASH</t>
   </si>
   <si>
@@ -193,6 +211,9 @@
     <t>Désactive les flashs</t>
   </si>
   <si>
+    <t>Tắt hiệu ứng nháy màn hình</t>
+  </si>
+  <si>
     <t>HALL_OF_MIRRORS</t>
   </si>
   <si>
@@ -211,6 +232,9 @@
     <t>Désactive l'effets "{0}"</t>
   </si>
   <si>
+    <t>Tắt hiệu ứng "{0}"</t>
+  </si>
+  <si>
     <t>SCREEN_SHAKE</t>
   </si>
   <si>
@@ -229,6 +253,9 @@
     <t>Désactive les tremblements de l'écran</t>
   </si>
   <si>
+    <t>Tắt màn hình rung lắc</t>
+  </si>
+  <si>
     <t>TILE_MOVEMENT_MAX</t>
   </si>
   <si>
@@ -247,6 +274,9 @@
     <t>Nombre max de tile qui bougent en même temps:</t>
   </si>
   <si>
+    <t>Thay đổi số lượng ô có thể di chuyển một lúc:</t>
+  </si>
+  <si>
     <t>TILE_MOVEMENT_UNLIMITED</t>
   </si>
   <si>
@@ -265,6 +295,27 @@
     <t>Infini</t>
   </si>
   <si>
+    <t>Không giới hạn</t>
+  </si>
+  <si>
+    <t>EXCLUDE_FILTER_LIST</t>
+  </si>
+  <si>
+    <t>Excluded Filters ({0})</t>
+  </si>
+  <si>
+    <t>비활성화 제외 필터들 ({0})</t>
+  </si>
+  <si>
+    <t>EXCLUDE_FILTER_START_LIST</t>
+  </si>
+  <si>
+    <t>Filters to exclude:</t>
+  </si>
+  <si>
+    <t>제외할 필터들:</t>
+  </si>
+  <si>
     <t>Hide UI Elements</t>
   </si>
   <si>
@@ -280,6 +331,9 @@
     <t>Masque des éléments d'UI</t>
   </si>
   <si>
+    <t>Ẩn giao diện (UI)</t>
+  </si>
+  <si>
     <t>Hides certain UI elements from gameplay.</t>
   </si>
   <si>
@@ -295,6 +349,9 @@
     <t>Masque certains éléments d'UI du gameplay.</t>
   </si>
   <si>
+    <t>Làm ẩn một số giao diện (UI) khi chơi</t>
+  </si>
+  <si>
     <t>EVERYTHING</t>
   </si>
   <si>
@@ -313,6 +370,9 @@
     <t>Masque tout les éléments (Note: ça inclu peut-être des textes sécifique dans le menu)</t>
   </si>
   <si>
+    <t>Làm ẩn tất cả các giao diện (UI) (lựa chọn này sẽ làm ẩn một số dòng chữ trong màn hình chính)</t>
+  </si>
+  <si>
     <t>JUDGE_TEXT</t>
   </si>
   <si>
@@ -331,6 +391,9 @@
     <t>Masque les textes de jugements ({0}, {1}, etc.)</t>
   </si>
   <si>
+    <t>Ẩn dòng chữ hiển thị độ chính xác ({0}, {1}, v.v)</t>
+  </si>
+  <si>
     <t>MISSES</t>
   </si>
   <si>
@@ -349,6 +412,9 @@
     <t>Masque les indicateur de raté (croix rouge)</t>
   </si>
   <si>
+    <t>Ẩn chỉ thị nhấn trượt (ô trắng có chữ X)</t>
+  </si>
+  <si>
     <t>SONG_TITLE</t>
   </si>
   <si>
@@ -367,6 +433,9 @@
     <t>Masque le nom de l'artiste et de la musique</t>
   </si>
   <si>
+    <t>Ẩn tên nhạc, tác giả</t>
+  </si>
+  <si>
     <t>AUTO</t>
   </si>
   <si>
@@ -385,6 +454,9 @@
     <t>Masque otto, le texte d'autoplay et la timing target</t>
   </si>
   <si>
+    <t>Ẩn Otto, dòng chữ "tự động chơi" và biểu tượng biểu thị độ chính xác cần thiết</t>
+  </si>
+  <si>
     <t>BETA_BUILD</t>
   </si>
   <si>
@@ -403,6 +475,9 @@
     <t>Masque le texte "Beta Build"</t>
   </si>
   <si>
+    <t>Ẩn dòng chữ "Beta Build"</t>
+  </si>
+  <si>
     <t>Judgment Visuals</t>
   </si>
   <si>
@@ -418,6 +493,9 @@
     <t>Visuels de Jugements</t>
   </si>
   <si>
+    <t>Thay đổi biểu thị độ chính xác</t>
+  </si>
+  <si>
     <t>Improves the visuals of judgments.</t>
   </si>
   <si>
@@ -433,6 +511,9 @@
     <t>Améliore le visuel de jugements.</t>
   </si>
   <si>
+    <t>Cải thiện cách biểu thị độ chính xác.</t>
+  </si>
+  <si>
     <t>SHOW_HIT_ERROR_METER</t>
   </si>
   <si>
@@ -448,6 +529,9 @@
     <t>Affiche le visualiseur de hit</t>
   </si>
   <si>
+    <t>Hiển thị bảng đo cho biết độ chính xác</t>
+  </si>
+  <si>
     <t>ERROR_METER_SCALE</t>
   </si>
   <si>
@@ -466,6 +550,9 @@
     <t>Taille:</t>
   </si>
   <si>
+    <t>Kích cỡ:</t>
+  </si>
+  <si>
     <t>ERROR_METER_TICK_LIFE</t>
   </si>
   <si>
@@ -481,6 +568,9 @@
     <t>Tick d'affiche des hit</t>
   </si>
   <si>
+    <t>Thời gian hiển thị các vạch:</t>
+  </si>
+  <si>
     <t>ERROR_METER_TICK_SECONDS</t>
   </si>
   <si>
@@ -499,6 +589,9 @@
     <t>{0} seconde(s)</t>
   </si>
   <si>
+    <t>{0} giây</t>
+  </si>
+  <si>
     <t>ERROR_METER_SENSITIVITY</t>
   </si>
   <si>
@@ -517,6 +610,9 @@
     <t>Sensibilité de la flèche au desus</t>
   </si>
   <si>
+    <t>Độ nhạy của mũi tên:</t>
+  </si>
+  <si>
     <t>ERROR_METER_MORE_STABLE</t>
   </si>
   <si>
@@ -535,6 +631,9 @@
     <t>Plus stable</t>
   </si>
   <si>
+    <t>Ổn định hơn</t>
+  </si>
+  <si>
     <t>ERROR_METER_LESS_STABLE</t>
   </si>
   <si>
@@ -553,6 +652,9 @@
     <t>Moins stable</t>
   </si>
   <si>
+    <t>Kém ổn định hơn</t>
+  </si>
+  <si>
     <t>HIDE_PERFECTS</t>
   </si>
   <si>
@@ -571,6 +673,45 @@
     <t>Masque les "{0}" jugements</t>
   </si>
   <si>
+    <t>Ẩn dòng chữ "{0}"</t>
+  </si>
+  <si>
+    <t>ERROR_METER_X_POS</t>
+  </si>
+  <si>
+    <t>X Position:</t>
+  </si>
+  <si>
+    <t>가로 위치:</t>
+  </si>
+  <si>
+    <t>Posición X:</t>
+  </si>
+  <si>
+    <t>Position X:</t>
+  </si>
+  <si>
+    <t>Vị trí theo trục ngang (X):</t>
+  </si>
+  <si>
+    <t>ERROR_METER_Y_POS</t>
+  </si>
+  <si>
+    <t>Y Position:</t>
+  </si>
+  <si>
+    <t>세로 위치:</t>
+  </si>
+  <si>
+    <t>Posición Y:</t>
+  </si>
+  <si>
+    <t>Position Y:</t>
+  </si>
+  <si>
+    <t>Vị trí theo trục dọc (Y):</t>
+  </si>
+  <si>
     <t>Key Viewer</t>
   </si>
   <si>
@@ -583,6 +724,9 @@
     <t>Viewer de Touche</t>
   </si>
   <si>
+    <t>Hiển thị phím</t>
+  </si>
+  <si>
     <t>Shows a key viewer for registered keys.</t>
   </si>
   <si>
@@ -595,6 +739,9 @@
     <t>Affiche les touches appuyer.</t>
   </si>
   <si>
+    <t>Hiển thị những phím được nhấn khi đang chơi.</t>
+  </si>
+  <si>
     <t>REGISTERED_KEYS</t>
   </si>
   <si>
@@ -610,6 +757,9 @@
     <t>Touches registrer</t>
   </si>
   <si>
+    <t>Những phím được thêm vào:</t>
+  </si>
+  <si>
     <t>DONE</t>
   </si>
   <si>
@@ -625,6 +775,9 @@
     <t>Valider</t>
   </si>
   <si>
+    <t>Hoàn tất</t>
+  </si>
+  <si>
     <t>PRESS_KEY_REGISTER</t>
   </si>
   <si>
@@ -640,6 +793,9 @@
     <t>Appuy sur une touche pour l'enregister/la d'esenregistrer</t>
   </si>
   <si>
+    <t>Nhấn phím để thêm / loại bỏ chúng</t>
+  </si>
+  <si>
     <t>CHANGE_KEYS</t>
   </si>
   <si>
@@ -655,6 +811,9 @@
     <t>Changer les touche</t>
   </si>
   <si>
+    <t>Đổi phím</t>
+  </si>
+  <si>
     <t>VIEWER_ONLY_GAMEPLAY</t>
   </si>
   <si>
@@ -670,6 +829,9 @@
     <t>Seulement visible durant le gameplay</t>
   </si>
   <si>
+    <t>Chỉ hiện lên khi đang chơi</t>
+  </si>
+  <si>
     <t>ANIMATE_KEYS</t>
   </si>
   <si>
@@ -685,6 +847,9 @@
     <t>Anime l'appuy de touche</t>
   </si>
   <si>
+    <t>Thêm hiệu ứng khi nhấn</t>
+  </si>
+  <si>
     <t>KEY_VIEWER_SIZE</t>
   </si>
   <si>
@@ -694,36 +859,15 @@
     <t>Tamaño:</t>
   </si>
   <si>
+    <t>Kích cỡ</t>
+  </si>
+  <si>
     <t>KEY_VIEWER_X_POS</t>
   </si>
   <si>
-    <t>X Position:</t>
-  </si>
-  <si>
-    <t>가로 위치:</t>
-  </si>
-  <si>
-    <t>Posición X:</t>
-  </si>
-  <si>
-    <t>Position X:</t>
-  </si>
-  <si>
     <t>KEY_VIEWER_Y_POS</t>
   </si>
   <si>
-    <t>Y Position:</t>
-  </si>
-  <si>
-    <t>세로 위치:</t>
-  </si>
-  <si>
-    <t>Posición Y:</t>
-  </si>
-  <si>
-    <t>Position Y:</t>
-  </si>
-  <si>
     <t>PRESSED_OUTLINE_COLOR</t>
   </si>
   <si>
@@ -739,6 +883,9 @@
     <t>Couleur du contour lorsque la touche est appuyer:</t>
   </si>
   <si>
+    <t>Màu cạnh ngoài cùng khi nhấn phím:</t>
+  </si>
+  <si>
     <t>RELEASED_OUTLINE_COLOR</t>
   </si>
   <si>
@@ -754,6 +901,9 @@
     <t>Couleur du contour lorsque la touche est relaché</t>
   </si>
   <si>
+    <t>Màu cạnh ngoài cùng khi thả phím:</t>
+  </si>
+  <si>
     <t>PRESSED_BACKGROUND_COLOR</t>
   </si>
   <si>
@@ -769,6 +919,9 @@
     <t>Couleur de l'arrière plan lorsque la touche est présser</t>
   </si>
   <si>
+    <t>Màu nền khi nhấn phím:</t>
+  </si>
+  <si>
     <t>RELEASED_BACKGROUND_COLOR</t>
   </si>
   <si>
@@ -784,6 +937,9 @@
     <t>Couleur de l'arrière plan lorsque la touche est relaché</t>
   </si>
   <si>
+    <t>Màu nền khi thả phím:</t>
+  </si>
+  <si>
     <t>PRESSED_TEXT_COLOR</t>
   </si>
   <si>
@@ -799,6 +955,9 @@
     <t>Couleur du texte lorsque la touche est présser</t>
   </si>
   <si>
+    <t>Màu chữ khi nhấn phím:</t>
+  </si>
+  <si>
     <t>RELEASED_TEXT_COLOR</t>
   </si>
   <si>
@@ -814,6 +973,9 @@
     <t>Couleur du texte lorsque la touche est relacher</t>
   </si>
   <si>
+    <t>Màu chữ khi thả phím:</t>
+  </si>
+  <si>
     <t>PROFILES</t>
   </si>
   <si>
@@ -829,6 +991,9 @@
     <t>Profiles</t>
   </si>
   <si>
+    <t>Những cài đặt đã lưu:</t>
+  </si>
+  <si>
     <t>PROFILE_NAME</t>
   </si>
   <si>
@@ -844,6 +1009,9 @@
     <t>Nom du profile</t>
   </si>
   <si>
+    <t>Tên cài đặt:</t>
+  </si>
+  <si>
     <t>NEW</t>
   </si>
   <si>
@@ -859,6 +1027,9 @@
     <t>Nouveau</t>
   </si>
   <si>
+    <t>Tạo mới</t>
+  </si>
+  <si>
     <t>DUPLICATE</t>
   </si>
   <si>
@@ -874,6 +1045,9 @@
     <t>Dupliquer</t>
   </si>
   <si>
+    <t>Sao chép</t>
+  </si>
+  <si>
     <t>DELETE</t>
   </si>
   <si>
@@ -889,6 +1063,9 @@
     <t>Suprimmer</t>
   </si>
   <si>
+    <t>Xoá</t>
+  </si>
+  <si>
     <t>SHOW_KEY_PRESS_TOTAL</t>
   </si>
   <si>
@@ -904,6 +1081,9 @@
     <t>Affichger le total des touche appuyer</t>
   </si>
   <si>
+    <t>Biểu thị tổng số lần đã nhấn phím</t>
+  </si>
+  <si>
     <t>Key Limiter</t>
   </si>
   <si>
@@ -916,6 +1096,9 @@
     <t>Limiteur de Trouches</t>
   </si>
   <si>
+    <t>Giới hạn phím nhấn</t>
+  </si>
+  <si>
     <t>When active, restricts which keys count as input.</t>
   </si>
   <si>
@@ -928,6 +1111,9 @@
     <t>Quand activée, restreint les touche qui compte comme une input.</t>
   </si>
   <si>
+    <t>Giới hạn những phím nhất định được nhấn khi được kích hoạt.</t>
+  </si>
+  <si>
     <t>Zarejestrowane przyciski:</t>
   </si>
   <si>
@@ -943,9 +1129,15 @@
     <t>Appuy sur une touche pour l'enregistrer/la d'ésenregistrer</t>
   </si>
   <si>
+    <t>Nhấn phím để thêm / loại bỏ...</t>
+  </si>
+  <si>
     <t>Changer les touches</t>
   </si>
   <si>
+    <t>Thay đổi phím</t>
+  </si>
+  <si>
     <t>LIMIT_CLS</t>
   </si>
   <si>
@@ -961,6 +1153,9 @@
     <t>Limit les touche dans le selcteur de custom song</t>
   </si>
   <si>
+    <t>Giới hạn phím nhấn khi lựa chọn vòng chơi</t>
+  </si>
+  <si>
     <t>LIMIT_MAIN_MENU</t>
   </si>
   <si>
@@ -976,6 +1171,9 @@
     <t>Limite les touche  dans le menu principale</t>
   </si>
   <si>
+    <t>Giới hạn phím nhấn khi ở màn hình chính</t>
+  </si>
+  <si>
     <t>Miscellaneous</t>
   </si>
   <si>
@@ -988,6 +1186,9 @@
     <t>Divers</t>
   </si>
   <si>
+    <t>Cài đặt khác</t>
+  </si>
+  <si>
     <t>Tweaks that do not belong in any particular section.</t>
   </si>
   <si>
@@ -1000,6 +1201,9 @@
     <t>Des tweaks qui ne se range pas dans les autre catégorie.</t>
   </si>
   <si>
+    <t>Các cài đặt không thuộc vào bất kì phần cụ thể nào.</t>
+  </si>
+  <si>
     <t>GLITCH_FLIP</t>
   </si>
   <si>
@@ -1015,109 +1219,7 @@
     <t>Désactive le retournement d'écran pour le filte "{0}"</t>
   </si>
   <si>
-    <t>NO_FAIL</t>
-  </si>
-  <si>
-    <t>No fail mode</t>
-  </si>
-  <si>
-    <t>무적 모드</t>
-  </si>
-  <si>
-    <t>Modo sin fallos</t>
-  </si>
-  <si>
-    <t>Mode invincible</t>
-  </si>
-  <si>
-    <t>NO_FAIL_ENABLED</t>
-  </si>
-  <si>
-    <t>No fail enabled!</t>
-  </si>
-  <si>
-    <t>무적 모드 켜짐!</t>
-  </si>
-  <si>
-    <t>¡Modo sin fallos activado!</t>
-  </si>
-  <si>
-    <t>Mode invincible activée</t>
-  </si>
-  <si>
-    <t>MISS_COUNT</t>
-  </si>
-  <si>
-    <t>Misses: {0}</t>
-  </si>
-  <si>
-    <t>미스 수: {0}</t>
-  </si>
-  <si>
-    <t>Fallos: {0}</t>
-  </si>
-  <si>
-    <t>Ratés: {0}</t>
-  </si>
-  <si>
-    <t>OVERLOAD_COUNT</t>
-  </si>
-  <si>
-    <t>Overloads: {0}</t>
-  </si>
-  <si>
-    <t>과부하 수: {0}</t>
-  </si>
-  <si>
-    <t>Sobrecargas: {0}</t>
-  </si>
-  <si>
-    <t>Morts: {0}</t>
-  </si>
-  <si>
-    <t>PREVENT_OTTO_FAIL</t>
-  </si>
-  <si>
-    <t>Prevent Otto from failing</t>
-  </si>
-  <si>
-    <t>오토가 죽는 것을 방지하기</t>
-  </si>
-  <si>
-    <t>Prevenir que Otto falle</t>
-  </si>
-  <si>
-    <t>Empêche otto de mourir</t>
-  </si>
-  <si>
-    <t>EDITOR_DIFFICULTY</t>
-  </si>
-  <si>
-    <t>Set judgment difficulty in the editor</t>
-  </si>
-  <si>
-    <t>에디터 이내에서 난이도 설정하기</t>
-  </si>
-  <si>
-    <t>Cambiar la ventana de tiempo en el editor</t>
-  </si>
-  <si>
-    <t>Choisir la difficulté de jugements dans l'éditeur</t>
-  </si>
-  <si>
-    <t>EDITOR_DIFFICULTY_CURRENT</t>
-  </si>
-  <si>
-    <t>(Current: {0})</t>
-  </si>
-  <si>
-    <t>(현재 난이도: {0})</t>
-  </si>
-  <si>
-    <t>(Ventana actual: {0})</t>
-  </si>
-  <si>
-    <t>(En cour: {0})</t>
+    <t>Vô hiệu hoá xoay màn hình cho hiệu ứng "{0}"</t>
   </si>
   <si>
     <t>EDITOR_ZOOM</t>
@@ -1135,6 +1237,9 @@
     <t>Désactive le zoom en avant/en arrière de l'éditeur pendant la partie</t>
   </si>
   <si>
+    <t>Vô hiệu hoá phóng to / thu nhỏ khi chơi</t>
+  </si>
+  <si>
     <t>SET_HITSOUND_VOLUME</t>
   </si>
   <si>
@@ -1147,6 +1252,9 @@
     <t>Choisir le volume du hitsound</t>
   </si>
   <si>
+    <t>Chỉnh âm lượng "hitsound"</t>
+  </si>
+  <si>
     <t>CURRENT_HITSOUND_VOLUME</t>
   </si>
   <si>
@@ -1156,6 +1264,9 @@
     <t>음량:</t>
   </si>
   <si>
+    <t>Âm lượng:</t>
+  </si>
+  <si>
     <t>Planet Opacity</t>
   </si>
   <si>
@@ -1168,6 +1279,9 @@
     <t>Opactié des Planètes</t>
   </si>
   <si>
+    <t>Độ trong suốt của hành tinh</t>
+  </si>
+  <si>
     <t>Sets the opacity of the planets.</t>
   </si>
   <si>
@@ -1180,6 +1294,9 @@
     <t>Change l'opactié des planètes.</t>
   </si>
   <si>
+    <t>Chỉnh độ trong suốt của các hành tinh.</t>
+  </si>
+  <si>
     <t>PLANET_ONE</t>
   </si>
   <si>
@@ -1195,6 +1312,9 @@
     <t>Planète 1:</t>
   </si>
   <si>
+    <t>Độ trong suốt của hành tinh thứ nhất:</t>
+  </si>
+  <si>
     <t>PLANET_TWO</t>
   </si>
   <si>
@@ -1210,6 +1330,9 @@
     <t>Planète 2:</t>
   </si>
   <si>
+    <t>Độ trong suốt của hành tinh thứ hai:</t>
+  </si>
+  <si>
     <t>Planet Color</t>
   </si>
   <si>
@@ -1222,6 +1345,9 @@
     <t>Couleur de Planètes</t>
   </si>
   <si>
+    <t>Màu của các hành tinh</t>
+  </si>
+  <si>
     <t>Sets the color of the planets.</t>
   </si>
   <si>
@@ -1234,6 +1360,9 @@
     <t>Choisir la couleur des planètes.</t>
   </si>
   <si>
+    <t>Thay đổi màu dành cho từng hành tinh.</t>
+  </si>
+  <si>
     <t>Planet 1:</t>
   </si>
   <si>
@@ -1243,6 +1372,9 @@
     <t>Planeta 1:</t>
   </si>
   <si>
+    <t>Hành tinh thứ nhất:</t>
+  </si>
+  <si>
     <t>Planet 2:</t>
   </si>
   <si>
@@ -1252,6 +1384,9 @@
     <t>Planeta 2:</t>
   </si>
   <si>
+    <t>Hành tinh thứ hai:</t>
+  </si>
+  <si>
     <t>BODY</t>
   </si>
   <si>
@@ -1267,6 +1402,9 @@
     <t>Corp:</t>
   </si>
   <si>
+    <t>Thân:</t>
+  </si>
+  <si>
     <t>TAIL</t>
   </si>
   <si>
@@ -1282,6 +1420,9 @@
     <t>Trainé:</t>
   </si>
   <si>
+    <t>Đuôi:</t>
+  </si>
+  <si>
     <t>Restrict Judgments</t>
   </si>
   <si>
@@ -1294,6 +1435,9 @@
     <t>Jugements Restreint</t>
   </si>
   <si>
+    <t>Giới hạn lỗi cho phép</t>
+  </si>
+  <si>
     <t>Kills the player on certain judgments.</t>
   </si>
   <si>
@@ -1306,6 +1450,9 @@
     <t>Tue le joueur dans certain jugements.</t>
   </si>
   <si>
+    <t>Làm bạn thua khi phạm lỗi sai nhất định.</t>
+  </si>
+  <si>
     <t>RESTRICT</t>
   </si>
   <si>
@@ -1321,6 +1468,9 @@
     <t>Jugements restreint: "{0}"</t>
   </si>
   <si>
+    <t>Giới hạn lỗi: "{0}"</t>
+  </si>
+  <si>
     <t>CUSTOM_DEATH</t>
   </si>
   <si>
@@ -1333,7 +1483,10 @@
     <t xml:space="preserve">Mensaje de muerte personalizado con restricción de juicio (Nota: "{judgment}" será reemplazado por el nombre de la ventana de tiempo) </t>
   </si>
   <si>
-    <t>Message de mort personnalisé sur la restriction de jugements (note : "{judgement}" ouccurence vas être remplacer par le nom du jugements)</t>
+    <t>Message de mort personnalisé sur la restriction de jugements (note: "{judgement}" ouccurence vas être remplacer par le nom du jugements)</t>
+  </si>
+  <si>
+    <t>Dòng chữ thông báo thua khác khi phạm lỗi sai nhất định</t>
   </si>
 </sst>
 </file>
@@ -1713,48 +1866,54 @@
       <c r="F2" t="s">
         <v>12</v>
       </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1795,82 +1954,94 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>419</v>
+        <v>466</v>
       </c>
       <c r="C2" t="s">
-        <v>420</v>
+        <v>467</v>
       </c>
       <c r="D2" t="s">
-        <v>421</v>
+        <v>468</v>
       </c>
       <c r="E2" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="F2" t="s">
-        <v>422</v>
+        <v>469</v>
+      </c>
+      <c r="G2" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>423</v>
+        <v>471</v>
       </c>
       <c r="C3" t="s">
-        <v>424</v>
+        <v>472</v>
       </c>
       <c r="D3" t="s">
-        <v>425</v>
+        <v>473</v>
       </c>
       <c r="E3" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="F3" t="s">
-        <v>426</v>
+        <v>474</v>
+      </c>
+      <c r="G3" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>427</v>
+        <v>476</v>
       </c>
       <c r="B4" t="s">
-        <v>428</v>
+        <v>477</v>
       </c>
       <c r="C4" t="s">
-        <v>429</v>
+        <v>478</v>
       </c>
       <c r="D4" t="s">
-        <v>430</v>
+        <v>479</v>
       </c>
       <c r="E4" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="F4" t="s">
-        <v>431</v>
+        <v>480</v>
+      </c>
+      <c r="G4" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>432</v>
+        <v>482</v>
       </c>
       <c r="B5" t="s">
-        <v>433</v>
+        <v>483</v>
       </c>
       <c r="C5" t="s">
-        <v>434</v>
+        <v>484</v>
       </c>
       <c r="D5" t="s">
-        <v>435</v>
+        <v>485</v>
       </c>
       <c r="E5" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="F5" t="s">
-        <v>436</v>
+        <v>486</v>
+      </c>
+      <c r="G5" t="s">
+        <v>487</v>
       </c>
     </row>
   </sheetData>
@@ -1880,7 +2051,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1911,182 +2082,231 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="G3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>47</v>
+      </c>
+      <c r="G4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>54</v>
+      </c>
+      <c r="G5" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>61</v>
+      </c>
+      <c r="G6" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="E7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>68</v>
+      </c>
+      <c r="G7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="F8" t="s">
-        <v>67</v>
+        <v>75</v>
+      </c>
+      <c r="G8" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D9" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E9" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F9" t="s">
-        <v>73</v>
+        <v>82</v>
+      </c>
+      <c r="G9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D10" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E10" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F10" t="s">
-        <v>79</v>
+        <v>89</v>
+      </c>
+      <c r="G10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2127,162 +2347,186 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="F2" t="s">
-        <v>84</v>
+        <v>101</v>
+      </c>
+      <c r="G2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="F3" t="s">
-        <v>89</v>
+        <v>107</v>
+      </c>
+      <c r="G3" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="D4" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="E4" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="F4" t="s">
-        <v>95</v>
+        <v>114</v>
+      </c>
+      <c r="G4" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="D5" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="E5" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="F5" t="s">
-        <v>101</v>
+        <v>121</v>
+      </c>
+      <c r="G5" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="D6" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="E6" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="F6" t="s">
-        <v>107</v>
+        <v>128</v>
+      </c>
+      <c r="G6" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="B7" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="C7" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="D7" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="E7" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="F7" t="s">
-        <v>113</v>
+        <v>135</v>
+      </c>
+      <c r="G7" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="B8" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="C8" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="D8" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="E8" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="F8" t="s">
-        <v>119</v>
+        <v>142</v>
+      </c>
+      <c r="G8" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="B9" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="C9" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="D9" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="E9" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="F9" t="s">
-        <v>125</v>
+        <v>149</v>
+      </c>
+      <c r="G9" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2292,7 +2536,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2323,202 +2567,278 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="C2" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="D2" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="E2" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="F2" t="s">
-        <v>130</v>
+        <v>155</v>
+      </c>
+      <c r="G2" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="C3" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="D3" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="E3" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="F3" t="s">
-        <v>135</v>
+        <v>161</v>
+      </c>
+      <c r="G3" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="C4" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="D4" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="E4" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="F4" t="s">
-        <v>140</v>
+        <v>167</v>
+      </c>
+      <c r="G4" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="B5" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="C5" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="D5" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="E5" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="F5" t="s">
-        <v>146</v>
+        <v>174</v>
+      </c>
+      <c r="G5" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>147</v>
+        <v>176</v>
       </c>
       <c r="B6" t="s">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="C6" t="s">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c r="D6" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="E6" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="F6" t="s">
-        <v>151</v>
+        <v>180</v>
+      </c>
+      <c r="G6" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="B7" t="s">
-        <v>153</v>
+        <v>183</v>
       </c>
       <c r="C7" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="D7" t="s">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="E7" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="F7" t="s">
-        <v>157</v>
+        <v>187</v>
+      </c>
+      <c r="G7" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>158</v>
+        <v>189</v>
       </c>
       <c r="B8" t="s">
-        <v>159</v>
+        <v>190</v>
       </c>
       <c r="C8" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c r="D8" t="s">
-        <v>161</v>
+        <v>192</v>
       </c>
       <c r="E8" t="s">
-        <v>162</v>
+        <v>193</v>
       </c>
       <c r="F8" t="s">
-        <v>163</v>
+        <v>194</v>
+      </c>
+      <c r="G8" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>164</v>
+        <v>196</v>
       </c>
       <c r="B9" t="s">
-        <v>165</v>
+        <v>197</v>
       </c>
       <c r="C9" t="s">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="D9" t="s">
-        <v>167</v>
+        <v>199</v>
       </c>
       <c r="E9" t="s">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="F9" t="s">
-        <v>169</v>
+        <v>201</v>
+      </c>
+      <c r="G9" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>170</v>
+        <v>203</v>
       </c>
       <c r="B10" t="s">
-        <v>171</v>
+        <v>204</v>
       </c>
       <c r="C10" t="s">
-        <v>172</v>
+        <v>205</v>
       </c>
       <c r="D10" t="s">
-        <v>173</v>
+        <v>206</v>
       </c>
       <c r="E10" t="s">
-        <v>174</v>
+        <v>207</v>
       </c>
       <c r="F10" t="s">
-        <v>175</v>
+        <v>208</v>
+      </c>
+      <c r="G10" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>176</v>
+        <v>210</v>
       </c>
       <c r="B11" t="s">
-        <v>177</v>
+        <v>211</v>
       </c>
       <c r="C11" t="s">
-        <v>178</v>
+        <v>212</v>
       </c>
       <c r="D11" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="E11" t="s">
-        <v>180</v>
+        <v>214</v>
       </c>
       <c r="F11" t="s">
-        <v>181</v>
+        <v>215</v>
+      </c>
+      <c r="G11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>217</v>
+      </c>
+      <c r="B12" t="s">
+        <v>218</v>
+      </c>
+      <c r="C12" t="s">
+        <v>219</v>
+      </c>
+      <c r="D12" t="s">
+        <v>220</v>
+      </c>
+      <c r="E12" t="s">
+        <v>160</v>
+      </c>
+      <c r="F12" t="s">
+        <v>221</v>
+      </c>
+      <c r="G12" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>223</v>
+      </c>
+      <c r="B13" t="s">
+        <v>224</v>
+      </c>
+      <c r="C13" t="s">
+        <v>225</v>
+      </c>
+      <c r="D13" t="s">
+        <v>226</v>
+      </c>
+      <c r="E13" t="s">
+        <v>160</v>
+      </c>
+      <c r="F13" t="s">
+        <v>227</v>
+      </c>
+      <c r="G13" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -2559,462 +2879,531 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>182</v>
+        <v>229</v>
       </c>
       <c r="C2" t="s">
-        <v>183</v>
+        <v>230</v>
       </c>
       <c r="D2" t="s">
-        <v>184</v>
+        <v>231</v>
       </c>
       <c r="E2" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="F2" t="s">
-        <v>185</v>
+        <v>232</v>
+      </c>
+      <c r="G2" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>186</v>
+        <v>234</v>
       </c>
       <c r="C3" t="s">
-        <v>187</v>
+        <v>235</v>
       </c>
       <c r="D3" t="s">
-        <v>188</v>
+        <v>236</v>
       </c>
       <c r="E3" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="F3" t="s">
-        <v>189</v>
+        <v>237</v>
+      </c>
+      <c r="G3" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>190</v>
+        <v>239</v>
       </c>
       <c r="B4" t="s">
-        <v>191</v>
+        <v>240</v>
       </c>
       <c r="C4" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="D4" t="s">
-        <v>193</v>
+        <v>242</v>
       </c>
       <c r="E4" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="F4" t="s">
-        <v>194</v>
+        <v>243</v>
+      </c>
+      <c r="G4" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>195</v>
+        <v>245</v>
       </c>
       <c r="B5" t="s">
-        <v>196</v>
+        <v>246</v>
       </c>
       <c r="C5" t="s">
-        <v>197</v>
+        <v>247</v>
       </c>
       <c r="D5" t="s">
-        <v>198</v>
+        <v>248</v>
       </c>
       <c r="E5" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="F5" t="s">
-        <v>199</v>
+        <v>249</v>
+      </c>
+      <c r="G5" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>200</v>
+        <v>251</v>
       </c>
       <c r="B6" t="s">
-        <v>201</v>
+        <v>252</v>
       </c>
       <c r="C6" t="s">
-        <v>202</v>
+        <v>253</v>
       </c>
       <c r="D6" t="s">
-        <v>203</v>
+        <v>254</v>
       </c>
       <c r="E6" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="F6" t="s">
-        <v>204</v>
+        <v>255</v>
+      </c>
+      <c r="G6" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>205</v>
+        <v>257</v>
       </c>
       <c r="B7" t="s">
-        <v>206</v>
+        <v>258</v>
       </c>
       <c r="C7" t="s">
-        <v>207</v>
+        <v>259</v>
       </c>
       <c r="D7" t="s">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="E7" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="F7" t="s">
-        <v>209</v>
+        <v>261</v>
+      </c>
+      <c r="G7" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>210</v>
+        <v>263</v>
       </c>
       <c r="B8" t="s">
-        <v>211</v>
+        <v>264</v>
       </c>
       <c r="C8" t="s">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="D8" t="s">
-        <v>213</v>
+        <v>266</v>
       </c>
       <c r="E8" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="F8" t="s">
-        <v>214</v>
+        <v>267</v>
+      </c>
+      <c r="G8" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>215</v>
+        <v>269</v>
       </c>
       <c r="B9" t="s">
-        <v>216</v>
+        <v>270</v>
       </c>
       <c r="C9" t="s">
-        <v>217</v>
+        <v>271</v>
       </c>
       <c r="D9" t="s">
-        <v>218</v>
+        <v>272</v>
       </c>
       <c r="E9" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="F9" t="s">
-        <v>219</v>
+        <v>273</v>
+      </c>
+      <c r="G9" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>220</v>
+        <v>275</v>
       </c>
       <c r="B10" t="s">
-        <v>221</v>
+        <v>276</v>
       </c>
       <c r="C10" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="D10" t="s">
-        <v>222</v>
+        <v>277</v>
       </c>
       <c r="E10" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="F10" t="s">
-        <v>146</v>
+        <v>174</v>
+      </c>
+      <c r="G10" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>223</v>
+        <v>279</v>
       </c>
       <c r="B11" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C11" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D11" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E11" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="F11" t="s">
-        <v>227</v>
+        <v>221</v>
+      </c>
+      <c r="G11" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
+        <v>280</v>
+      </c>
+      <c r="B12" t="s">
+        <v>224</v>
+      </c>
+      <c r="C12" t="s">
+        <v>225</v>
+      </c>
+      <c r="D12" t="s">
+        <v>226</v>
+      </c>
+      <c r="E12" t="s">
+        <v>160</v>
+      </c>
+      <c r="F12" t="s">
+        <v>227</v>
+      </c>
+      <c r="G12" t="s">
         <v>228</v>
-      </c>
-      <c r="B12" t="s">
-        <v>229</v>
-      </c>
-      <c r="C12" t="s">
-        <v>230</v>
-      </c>
-      <c r="D12" t="s">
-        <v>231</v>
-      </c>
-      <c r="E12" t="s">
-        <v>134</v>
-      </c>
-      <c r="F12" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>233</v>
+        <v>281</v>
       </c>
       <c r="B13" t="s">
-        <v>234</v>
+        <v>282</v>
       </c>
       <c r="C13" t="s">
-        <v>235</v>
+        <v>283</v>
       </c>
       <c r="D13" t="s">
-        <v>236</v>
+        <v>284</v>
       </c>
       <c r="E13" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="F13" t="s">
-        <v>237</v>
+        <v>285</v>
+      </c>
+      <c r="G13" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>238</v>
+        <v>287</v>
       </c>
       <c r="B14" t="s">
-        <v>239</v>
+        <v>288</v>
       </c>
       <c r="C14" t="s">
-        <v>240</v>
+        <v>289</v>
       </c>
       <c r="D14" t="s">
-        <v>241</v>
+        <v>290</v>
       </c>
       <c r="E14" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="F14" t="s">
-        <v>242</v>
+        <v>291</v>
+      </c>
+      <c r="G14" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>243</v>
+        <v>293</v>
       </c>
       <c r="B15" t="s">
-        <v>244</v>
+        <v>294</v>
       </c>
       <c r="C15" t="s">
-        <v>245</v>
+        <v>295</v>
       </c>
       <c r="D15" t="s">
-        <v>246</v>
+        <v>296</v>
       </c>
       <c r="E15" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="F15" t="s">
-        <v>247</v>
+        <v>297</v>
+      </c>
+      <c r="G15" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>248</v>
+        <v>299</v>
       </c>
       <c r="B16" t="s">
-        <v>249</v>
+        <v>300</v>
       </c>
       <c r="C16" t="s">
-        <v>250</v>
+        <v>301</v>
       </c>
       <c r="D16" t="s">
-        <v>251</v>
+        <v>302</v>
       </c>
       <c r="E16" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="F16" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>303</v>
+      </c>
+      <c r="G16" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>253</v>
+        <v>305</v>
       </c>
       <c r="B17" t="s">
-        <v>254</v>
+        <v>306</v>
       </c>
       <c r="C17" t="s">
-        <v>255</v>
+        <v>307</v>
       </c>
       <c r="D17" t="s">
-        <v>256</v>
+        <v>308</v>
       </c>
       <c r="E17" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="F17" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>309</v>
+      </c>
+      <c r="G17" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>258</v>
+        <v>311</v>
       </c>
       <c r="B18" t="s">
-        <v>259</v>
+        <v>312</v>
       </c>
       <c r="C18" t="s">
-        <v>260</v>
+        <v>313</v>
       </c>
       <c r="D18" t="s">
-        <v>261</v>
+        <v>314</v>
       </c>
       <c r="E18" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="F18" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>315</v>
+      </c>
+      <c r="G18" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>263</v>
+        <v>317</v>
       </c>
       <c r="B19" t="s">
-        <v>264</v>
+        <v>318</v>
       </c>
       <c r="C19" t="s">
-        <v>265</v>
+        <v>319</v>
       </c>
       <c r="D19" t="s">
-        <v>266</v>
+        <v>320</v>
       </c>
       <c r="E19" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="F19" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>321</v>
+      </c>
+      <c r="G19" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>268</v>
+        <v>323</v>
       </c>
       <c r="B20" t="s">
-        <v>269</v>
+        <v>324</v>
       </c>
       <c r="C20" t="s">
-        <v>270</v>
+        <v>325</v>
       </c>
       <c r="D20" t="s">
-        <v>271</v>
+        <v>326</v>
       </c>
       <c r="E20" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="F20" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>327</v>
+      </c>
+      <c r="G20" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>273</v>
+        <v>329</v>
       </c>
       <c r="B21" t="s">
-        <v>274</v>
+        <v>330</v>
       </c>
       <c r="C21" t="s">
-        <v>275</v>
+        <v>331</v>
       </c>
       <c r="D21" t="s">
-        <v>276</v>
+        <v>332</v>
       </c>
       <c r="E21" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="F21" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>333</v>
+      </c>
+      <c r="G21" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>278</v>
+        <v>335</v>
       </c>
       <c r="B22" t="s">
-        <v>279</v>
+        <v>336</v>
       </c>
       <c r="C22" t="s">
-        <v>280</v>
+        <v>337</v>
       </c>
       <c r="D22" t="s">
-        <v>281</v>
+        <v>338</v>
       </c>
       <c r="E22" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="F22" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>339</v>
+      </c>
+      <c r="G22" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>283</v>
+        <v>341</v>
       </c>
       <c r="B23" t="s">
-        <v>284</v>
+        <v>342</v>
       </c>
       <c r="C23" t="s">
-        <v>285</v>
+        <v>343</v>
       </c>
       <c r="D23" t="s">
-        <v>286</v>
+        <v>344</v>
       </c>
       <c r="E23" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="F23" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>345</v>
+      </c>
+      <c r="G23" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>288</v>
+        <v>347</v>
       </c>
       <c r="B24" t="s">
-        <v>289</v>
+        <v>348</v>
       </c>
       <c r="C24" t="s">
-        <v>290</v>
+        <v>349</v>
       </c>
       <c r="D24" t="s">
-        <v>291</v>
+        <v>350</v>
       </c>
       <c r="E24" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="F24" t="s">
-        <v>292</v>
+        <v>351</v>
+      </c>
+      <c r="G24" t="s">
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -3055,162 +3444,186 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>293</v>
+        <v>353</v>
       </c>
       <c r="C2" t="s">
-        <v>294</v>
+        <v>354</v>
       </c>
       <c r="D2" t="s">
-        <v>295</v>
+        <v>355</v>
       </c>
       <c r="E2" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="F2" t="s">
-        <v>296</v>
+        <v>356</v>
+      </c>
+      <c r="G2" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>297</v>
+        <v>358</v>
       </c>
       <c r="C3" t="s">
-        <v>298</v>
+        <v>359</v>
       </c>
       <c r="D3" t="s">
-        <v>299</v>
+        <v>360</v>
       </c>
       <c r="E3" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="F3" t="s">
-        <v>300</v>
+        <v>361</v>
+      </c>
+      <c r="G3" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>190</v>
+        <v>239</v>
       </c>
       <c r="B4" t="s">
-        <v>191</v>
+        <v>240</v>
       </c>
       <c r="C4" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="D4" t="s">
-        <v>193</v>
+        <v>242</v>
       </c>
       <c r="E4" t="s">
-        <v>301</v>
+        <v>363</v>
       </c>
       <c r="F4" t="s">
-        <v>302</v>
+        <v>364</v>
+      </c>
+      <c r="G4" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>195</v>
+        <v>245</v>
       </c>
       <c r="B5" t="s">
-        <v>196</v>
+        <v>246</v>
       </c>
       <c r="C5" t="s">
-        <v>197</v>
+        <v>247</v>
       </c>
       <c r="D5" t="s">
-        <v>198</v>
+        <v>248</v>
       </c>
       <c r="E5" t="s">
-        <v>303</v>
+        <v>365</v>
       </c>
       <c r="F5" t="s">
-        <v>199</v>
+        <v>249</v>
+      </c>
+      <c r="G5" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>200</v>
+        <v>251</v>
       </c>
       <c r="B6" t="s">
-        <v>201</v>
+        <v>252</v>
       </c>
       <c r="C6" t="s">
-        <v>202</v>
+        <v>253</v>
       </c>
       <c r="D6" t="s">
-        <v>203</v>
+        <v>254</v>
       </c>
       <c r="E6" t="s">
-        <v>304</v>
+        <v>366</v>
       </c>
       <c r="F6" t="s">
-        <v>305</v>
+        <v>367</v>
+      </c>
+      <c r="G6" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>205</v>
+        <v>257</v>
       </c>
       <c r="B7" t="s">
-        <v>206</v>
+        <v>258</v>
       </c>
       <c r="C7" t="s">
-        <v>207</v>
+        <v>259</v>
       </c>
       <c r="D7" t="s">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="E7" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="F7" t="s">
-        <v>306</v>
+        <v>369</v>
+      </c>
+      <c r="G7" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>307</v>
+        <v>371</v>
       </c>
       <c r="B8" t="s">
-        <v>308</v>
+        <v>372</v>
       </c>
       <c r="C8" t="s">
-        <v>309</v>
+        <v>373</v>
       </c>
       <c r="D8" t="s">
-        <v>310</v>
+        <v>374</v>
       </c>
       <c r="E8" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="F8" t="s">
-        <v>311</v>
+        <v>375</v>
+      </c>
+      <c r="G8" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>312</v>
+        <v>377</v>
       </c>
       <c r="B9" t="s">
-        <v>313</v>
+        <v>378</v>
       </c>
       <c r="C9" t="s">
-        <v>314</v>
+        <v>379</v>
       </c>
       <c r="D9" t="s">
-        <v>315</v>
+        <v>380</v>
       </c>
       <c r="E9" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="F9" t="s">
-        <v>316</v>
+        <v>381</v>
+      </c>
+      <c r="G9" t="s">
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -3220,7 +3633,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3251,262 +3664,140 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>317</v>
+        <v>383</v>
       </c>
       <c r="C2" t="s">
-        <v>318</v>
+        <v>384</v>
       </c>
       <c r="D2" t="s">
-        <v>319</v>
+        <v>385</v>
       </c>
       <c r="E2" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="F2" t="s">
-        <v>320</v>
+        <v>386</v>
+      </c>
+      <c r="G2" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>321</v>
+        <v>388</v>
       </c>
       <c r="C3" t="s">
-        <v>322</v>
+        <v>389</v>
       </c>
       <c r="D3" t="s">
-        <v>323</v>
+        <v>390</v>
       </c>
       <c r="E3" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="F3" t="s">
-        <v>324</v>
+        <v>391</v>
+      </c>
+      <c r="G3" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>325</v>
+        <v>393</v>
       </c>
       <c r="B4" t="s">
-        <v>326</v>
+        <v>394</v>
       </c>
       <c r="C4" t="s">
-        <v>327</v>
+        <v>395</v>
       </c>
       <c r="D4" t="s">
-        <v>328</v>
+        <v>396</v>
       </c>
       <c r="E4" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="F4" t="s">
-        <v>329</v>
+        <v>397</v>
+      </c>
+      <c r="G4" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>330</v>
+        <v>399</v>
       </c>
       <c r="B5" t="s">
-        <v>331</v>
+        <v>400</v>
       </c>
       <c r="C5" t="s">
-        <v>332</v>
+        <v>401</v>
       </c>
       <c r="D5" t="s">
-        <v>333</v>
+        <v>402</v>
       </c>
       <c r="E5" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="F5" t="s">
-        <v>334</v>
+        <v>403</v>
+      </c>
+      <c r="G5" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>335</v>
+        <v>405</v>
       </c>
       <c r="B6" t="s">
-        <v>336</v>
+        <v>406</v>
       </c>
       <c r="C6" t="s">
-        <v>337</v>
+        <v>407</v>
       </c>
       <c r="D6" t="s">
-        <v>338</v>
+        <v>160</v>
       </c>
       <c r="E6" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="F6" t="s">
-        <v>339</v>
+        <v>408</v>
+      </c>
+      <c r="G6" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>340</v>
+        <v>410</v>
       </c>
       <c r="B7" t="s">
-        <v>341</v>
+        <v>411</v>
       </c>
       <c r="C7" t="s">
-        <v>342</v>
+        <v>412</v>
       </c>
       <c r="D7" t="s">
-        <v>343</v>
+        <v>160</v>
       </c>
       <c r="E7" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="F7" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>345</v>
-      </c>
-      <c r="B8" t="s">
-        <v>346</v>
-      </c>
-      <c r="C8" t="s">
-        <v>347</v>
-      </c>
-      <c r="D8" t="s">
-        <v>348</v>
-      </c>
-      <c r="E8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F8" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>350</v>
-      </c>
-      <c r="B9" t="s">
-        <v>351</v>
-      </c>
-      <c r="C9" t="s">
-        <v>352</v>
-      </c>
-      <c r="D9" t="s">
-        <v>353</v>
-      </c>
-      <c r="E9" t="s">
-        <v>134</v>
-      </c>
-      <c r="F9" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>355</v>
-      </c>
-      <c r="B10" t="s">
-        <v>356</v>
-      </c>
-      <c r="C10" t="s">
-        <v>357</v>
-      </c>
-      <c r="D10" t="s">
-        <v>358</v>
-      </c>
-      <c r="E10" t="s">
-        <v>134</v>
-      </c>
-      <c r="F10" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>360</v>
-      </c>
-      <c r="B11" t="s">
-        <v>361</v>
-      </c>
-      <c r="C11" t="s">
-        <v>362</v>
-      </c>
-      <c r="D11" t="s">
-        <v>363</v>
-      </c>
-      <c r="E11" t="s">
-        <v>134</v>
-      </c>
-      <c r="F11" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>365</v>
-      </c>
-      <c r="B12" t="s">
-        <v>366</v>
-      </c>
-      <c r="C12" t="s">
-        <v>367</v>
-      </c>
-      <c r="D12" t="s">
-        <v>368</v>
-      </c>
-      <c r="E12" t="s">
-        <v>134</v>
-      </c>
-      <c r="F12" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>370</v>
-      </c>
-      <c r="B13" t="s">
-        <v>371</v>
-      </c>
-      <c r="C13" t="s">
-        <v>372</v>
-      </c>
-      <c r="D13" t="s">
-        <v>134</v>
-      </c>
-      <c r="E13" t="s">
-        <v>134</v>
-      </c>
-      <c r="F13" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>374</v>
-      </c>
-      <c r="B14" t="s">
-        <v>375</v>
-      </c>
-      <c r="C14" t="s">
-        <v>376</v>
-      </c>
-      <c r="D14" t="s">
-        <v>134</v>
-      </c>
-      <c r="E14" t="s">
-        <v>134</v>
-      </c>
-      <c r="F14" t="s">
-        <v>375</v>
+        <v>411</v>
+      </c>
+      <c r="G7" t="s">
+        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -3547,82 +3838,94 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>377</v>
+        <v>414</v>
       </c>
       <c r="C2" t="s">
-        <v>378</v>
+        <v>415</v>
       </c>
       <c r="D2" t="s">
-        <v>379</v>
+        <v>416</v>
       </c>
       <c r="E2" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="F2" t="s">
-        <v>380</v>
+        <v>417</v>
+      </c>
+      <c r="G2" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>381</v>
+        <v>419</v>
       </c>
       <c r="C3" t="s">
-        <v>382</v>
+        <v>420</v>
       </c>
       <c r="D3" t="s">
-        <v>383</v>
+        <v>421</v>
       </c>
       <c r="E3" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="F3" t="s">
-        <v>384</v>
+        <v>422</v>
+      </c>
+      <c r="G3" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>385</v>
+        <v>424</v>
       </c>
       <c r="B4" t="s">
-        <v>386</v>
+        <v>425</v>
       </c>
       <c r="C4" t="s">
-        <v>387</v>
+        <v>426</v>
       </c>
       <c r="D4" t="s">
-        <v>388</v>
+        <v>427</v>
       </c>
       <c r="E4" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="F4" t="s">
-        <v>389</v>
+        <v>428</v>
+      </c>
+      <c r="G4" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>390</v>
+        <v>430</v>
       </c>
       <c r="B5" t="s">
-        <v>391</v>
+        <v>431</v>
       </c>
       <c r="C5" t="s">
-        <v>392</v>
+        <v>432</v>
       </c>
       <c r="D5" t="s">
-        <v>393</v>
+        <v>433</v>
       </c>
       <c r="E5" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="F5" t="s">
-        <v>394</v>
+        <v>434</v>
+      </c>
+      <c r="G5" t="s">
+        <v>435</v>
       </c>
     </row>
   </sheetData>
@@ -3663,122 +3966,140 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>395</v>
+        <v>436</v>
       </c>
       <c r="C2" t="s">
-        <v>396</v>
+        <v>437</v>
       </c>
       <c r="D2" t="s">
-        <v>397</v>
+        <v>438</v>
       </c>
       <c r="E2" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="F2" t="s">
-        <v>398</v>
+        <v>439</v>
+      </c>
+      <c r="G2" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>399</v>
+        <v>441</v>
       </c>
       <c r="C3" t="s">
-        <v>400</v>
+        <v>442</v>
       </c>
       <c r="D3" t="s">
-        <v>401</v>
+        <v>443</v>
       </c>
       <c r="E3" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="F3" t="s">
-        <v>402</v>
+        <v>444</v>
+      </c>
+      <c r="G3" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>385</v>
+        <v>424</v>
       </c>
       <c r="B4" t="s">
-        <v>403</v>
+        <v>446</v>
       </c>
       <c r="C4" t="s">
-        <v>404</v>
+        <v>447</v>
       </c>
       <c r="D4" t="s">
-        <v>405</v>
+        <v>448</v>
       </c>
       <c r="E4" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="F4" t="s">
-        <v>389</v>
+        <v>428</v>
+      </c>
+      <c r="G4" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>390</v>
+        <v>430</v>
       </c>
       <c r="B5" t="s">
-        <v>406</v>
+        <v>450</v>
       </c>
       <c r="C5" t="s">
-        <v>407</v>
+        <v>451</v>
       </c>
       <c r="D5" t="s">
-        <v>408</v>
+        <v>452</v>
       </c>
       <c r="E5" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="F5" t="s">
-        <v>394</v>
+        <v>434</v>
+      </c>
+      <c r="G5" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>409</v>
+        <v>454</v>
       </c>
       <c r="B6" t="s">
-        <v>410</v>
+        <v>455</v>
       </c>
       <c r="C6" t="s">
-        <v>411</v>
+        <v>456</v>
       </c>
       <c r="D6" t="s">
-        <v>412</v>
+        <v>457</v>
       </c>
       <c r="E6" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="F6" t="s">
-        <v>413</v>
+        <v>458</v>
+      </c>
+      <c r="G6" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>414</v>
+        <v>460</v>
       </c>
       <c r="B7" t="s">
-        <v>415</v>
+        <v>461</v>
       </c>
       <c r="C7" t="s">
-        <v>416</v>
+        <v>462</v>
       </c>
       <c r="D7" t="s">
-        <v>417</v>
+        <v>463</v>
       </c>
       <c r="E7" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="F7" t="s">
-        <v>418</v>
+        <v>464</v>
+      </c>
+      <c r="G7" t="s">
+        <v>465</v>
       </c>
     </row>
   </sheetData>

--- a/AdofaiTweaks.Generator/translations.xlsx
+++ b/AdofaiTweaks.Generator/translations.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="502">
   <si>
     <t>KEY</t>
   </si>
@@ -307,6 +307,15 @@
     <t>비활성화 제외 필터들 ({0})</t>
   </si>
   <si>
+    <t>Filtros excluídos: ({0})</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>filtres exclu</t>
+  </si>
+  <si>
     <t>EXCLUDE_FILTER_START_LIST</t>
   </si>
   <si>
@@ -316,6 +325,12 @@
     <t>제외할 필터들:</t>
   </si>
   <si>
+    <t>Filtros a excluir:</t>
+  </si>
+  <si>
+    <t>filtres pour exlure</t>
+  </si>
+  <si>
     <t>Hide UI Elements</t>
   </si>
   <si>
@@ -505,9 +520,6 @@
     <t>Mejora los visuales de los juicios.</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Améliore le visuel de jugements.</t>
   </si>
   <si>
@@ -1249,6 +1261,9 @@
     <t>전체적인 힛사운드 음량 조정하기</t>
   </si>
   <si>
+    <t>Seleccionar el volumen del sonido de los golpes general:</t>
+  </si>
+  <si>
     <t>Choisir le volume du hitsound</t>
   </si>
   <si>
@@ -1264,18 +1279,24 @@
     <t>음량:</t>
   </si>
   <si>
+    <t>Volumen:</t>
+  </si>
+  <si>
     <t>Âm lượng:</t>
   </si>
   <si>
     <t>HITSOUND_FORCE_VOLUME</t>
   </si>
   <si>
-    <t>Use static hitsound volume instead of ratio</t>
+    <t>Use static hitsound volume instead of multiplier</t>
   </si>
   <si>
     <t>힛사운드 음량을 비율 대신 값으로 설정하기</t>
   </si>
   <si>
+    <t>Usar volumen estático para el sonido de los golpes en vez de un multiplicador</t>
+  </si>
+  <si>
     <t>HITSOUND_IGNORE_STARTING_VALUE</t>
   </si>
   <si>
@@ -1283,6 +1304,9 @@
   </si>
   <si>
     <t>시작할 때 힛사운드 음량 무시</t>
+  </si>
+  <si>
+    <t>Ignorar el volumen del sonido de los golpes al inicio</t>
   </si>
   <si>
     <t>Planet Opacity</t>
@@ -1975,22 +1999,22 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="C2" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="D2" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="E2" t="s">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="F2" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="G2" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1998,68 +2022,68 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="C3" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="D3" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="E3" t="s">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="F3" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="G3" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="B4" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="C4" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="D4" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="E4" t="s">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="F4" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="G4" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="B5" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="C5" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="D5" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="E5" t="s">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="F5" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="G5" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
     </row>
   </sheetData>
@@ -2315,16 +2339,34 @@
       <c r="C11" t="s">
         <v>93</v>
       </c>
+      <c r="D11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C12" t="s">
-        <v>96</v>
+        <v>99</v>
+      </c>
+      <c r="D12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2368,22 +2410,22 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="F2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="G2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2391,160 +2433,160 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D3" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E3" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="F3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G3" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C4" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D4" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E4" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F4" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G4" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C5" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D5" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E5" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F5" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="G5" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B6" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C6" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D6" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E6" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="F6" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="G6" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="F7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B8" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C8" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D8" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E8" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="F8" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G8" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B9" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C9" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D9" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E9" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="F9" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="G9" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -2588,22 +2630,22 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="D2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="E2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="F2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="G2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2611,252 +2653,252 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C3" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D3" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E3" t="s">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="F3" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G3" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C4" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D4" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E4" t="s">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="F4" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="G4" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B5" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C5" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D5" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E5" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F5" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G5" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B6" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C6" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D6" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E6" t="s">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="F6" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G6" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B8" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C8" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D8" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E8" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F8" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="G8" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B9" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C9" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D9" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E9" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F9" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G9" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B10" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C10" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D10" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E10" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F10" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="G10" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B11" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C11" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D11" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E11" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F11" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="G11" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B12" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C12" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D12" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="E12" t="s">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="F12" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="G12" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B13" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C13" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D13" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E13" t="s">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="F13" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="G13" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -2900,22 +2942,22 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C2" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="E2" t="s">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="F2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="G2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2923,505 +2965,505 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C3" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D3" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E3" t="s">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="F3" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G3" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B4" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C4" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D4" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E4" t="s">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="F4" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="G4" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B5" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C5" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D5" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="E5" t="s">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="F5" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="G5" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B6" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C6" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D6" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="E6" t="s">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="F6" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="G6" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="E7" t="s">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="F7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B8" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C8" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D8" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="E8" t="s">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="F8" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="G8" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B9" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C9" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D9" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="E9" t="s">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="F9" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="G9" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B10" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C10" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D10" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="E10" t="s">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="F10" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G10" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B11" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C11" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D11" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="E11" t="s">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="F11" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="G11" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B12" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C12" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D12" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E12" t="s">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="F12" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="G12" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B13" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C13" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D13" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="E13" t="s">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="F13" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="G13" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B14" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C14" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D14" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="E14" t="s">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="F14" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="G14" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B15" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C15" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D15" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="E15" t="s">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="F15" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="G15" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B16" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C16" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D16" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="E16" t="s">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="F16" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="G16" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B17" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C17" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="D17" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="E17" t="s">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="F17" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="G17" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B18" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C18" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D18" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="E18" t="s">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="F18" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="G18" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B19" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D19" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="E19" t="s">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="F19" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="G19" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B20" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C20" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="D20" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="E20" t="s">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="F20" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="G20" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B21" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C21" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="D21" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E21" t="s">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="F21" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="G21" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B22" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C22" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="D22" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="E22" t="s">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="F22" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="G22" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B23" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C23" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D23" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="E23" t="s">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="F23" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="G23" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B24" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C24" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="D24" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="E24" t="s">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="F24" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="G24" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -3465,22 +3507,22 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C2" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D2" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="E2" t="s">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="F2" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="G2" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3488,160 +3530,160 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C3" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="D3" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="E3" t="s">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="F3" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="G3" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B4" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C4" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D4" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E4" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="F4" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="G4" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B5" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C5" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D5" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="E5" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="F5" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="G5" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B6" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C6" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D6" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="E6" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="F6" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="G6" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="E7" t="s">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="F7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="G7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="B8" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="C8" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="D8" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="E8" t="s">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="F8" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="G8" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="B9" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C9" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="D9" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="E9" t="s">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="F9" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="G9" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -3685,22 +3727,22 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C2" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="D2" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="E2" t="s">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="F2" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="G2" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3708,136 +3750,142 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C3" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="D3" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="E3" t="s">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="F3" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="G3" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B4" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C4" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="D4" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="E4" t="s">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="F4" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="G4" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B5" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="C5" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="D5" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="E5" t="s">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="F5" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="G5" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B6" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C6" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="D6" t="s">
-        <v>160</v>
+        <v>412</v>
       </c>
       <c r="E6" t="s">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="F6" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="G6" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="B7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="C7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="D7" t="s">
-        <v>160</v>
+        <v>418</v>
       </c>
       <c r="E7" t="s">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="F7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="G7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="B8" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="C8" t="s">
-        <v>416</v>
+        <v>422</v>
+      </c>
+      <c r="D8" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="B9" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="C9" t="s">
-        <v>419</v>
+        <v>426</v>
+      </c>
+      <c r="D9" t="s">
+        <v>427</v>
       </c>
     </row>
   </sheetData>
@@ -3881,22 +3929,22 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="C2" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="D2" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="E2" t="s">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="F2" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="G2" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3904,68 +3952,68 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="C3" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="D3" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="E3" t="s">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="F3" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="G3" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="B4" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="C4" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="D4" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="E4" t="s">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="F4" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="G4" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="B5" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="C5" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="D5" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="E5" t="s">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="F5" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="G5" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -4009,22 +4057,22 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="C2" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="D2" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="E2" t="s">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="F2" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="G2" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4032,114 +4080,114 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="C3" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="D3" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="E3" t="s">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="F3" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="G3" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="B4" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="C4" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="D4" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="E4" t="s">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="F4" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="G4" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="B5" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="C5" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="D5" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="E5" t="s">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="F5" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="G5" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="B6" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="C6" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="D6" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="E6" t="s">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="F6" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="G6" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="B7" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="C7" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="D7" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="E7" t="s">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="F7" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="G7" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
     </row>
   </sheetData>

--- a/AdofaiTweaks.Generator/translations.xlsx
+++ b/AdofaiTweaks.Generator/translations.xlsx
@@ -13,8 +13,8 @@
     <sheet name="JudgmentVisuals" sheetId="4" r:id="rId4"/>
     <sheet name="KeyViewer" sheetId="5" r:id="rId5"/>
     <sheet name="KeyLimiter" sheetId="6" r:id="rId6"/>
-    <sheet name="Miscellaneous" sheetId="7" r:id="rId7"/>
-    <sheet name="PlanetOpacity" sheetId="8" r:id="rId8"/>
+    <sheet name="PlanetOpacity" sheetId="7" r:id="rId7"/>
+    <sheet name="Miscellaneous" sheetId="8" r:id="rId8"/>
     <sheet name="PlanetColor" sheetId="9" r:id="rId9"/>
     <sheet name="RestrictJudgments" sheetId="10" r:id="rId10"/>
   </sheets>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="583">
   <si>
     <t>KEY</t>
   </si>
@@ -46,6 +46,9 @@
     <t>VIETNAMESE</t>
   </si>
   <si>
+    <t>CHINESE_SIMPLIFIED</t>
+  </si>
+  <si>
     <t>TEST_KEY</t>
   </si>
   <si>
@@ -67,6 +70,9 @@
     <t>Đây là dòng chữ thử nghiệm</t>
   </si>
   <si>
+    <t>这是测试字符串。</t>
+  </si>
+  <si>
     <t>GLOBAL_LANGUAGE</t>
   </si>
   <si>
@@ -88,6 +94,9 @@
     <t>Ngôn ngữ:</t>
   </si>
   <si>
+    <t>语言：</t>
+  </si>
+  <si>
     <t>LANGUAGE_NAME</t>
   </si>
   <si>
@@ -109,6 +118,9 @@
     <t>Tiếng Việt</t>
   </si>
   <si>
+    <t>中文（简体）</t>
+  </si>
+  <si>
     <t>NAME</t>
   </si>
   <si>
@@ -130,6 +142,9 @@
     <t>Tắt hiệu ứng</t>
   </si>
   <si>
+    <t>禁用效果</t>
+  </si>
+  <si>
     <t>DESCRIPTION</t>
   </si>
   <si>
@@ -151,6 +166,9 @@
     <t>Tắt đi một số hiệu ứng nhất định nhằm cải thiện chất lượng</t>
   </si>
   <si>
+    <t>禁用某些效果以提高性能。</t>
+  </si>
+  <si>
     <t>FILTER</t>
   </si>
   <si>
@@ -172,6 +190,9 @@
     <t>Tắt hiệu ứng thay đổi tầm nhìn ({0}, {1}, v.v)</t>
   </si>
   <si>
+    <t>禁用VFX筛选器（{0}、{1}等）</t>
+  </si>
+  <si>
     <t>BLOOM</t>
   </si>
   <si>
@@ -193,6 +214,9 @@
     <t>Tắt hiệu ứng "nở"</t>
   </si>
   <si>
+    <t>禁用bloom</t>
+  </si>
+  <si>
     <t>FLASH</t>
   </si>
   <si>
@@ -214,6 +238,9 @@
     <t>Tắt hiệu ứng nháy màn hình</t>
   </si>
   <si>
+    <t>禁用屏幕闪烁</t>
+  </si>
+  <si>
     <t>HALL_OF_MIRRORS</t>
   </si>
   <si>
@@ -235,6 +262,9 @@
     <t>Tắt hiệu ứng "{0}"</t>
   </si>
   <si>
+    <t>禁用{0}效果</t>
+  </si>
+  <si>
     <t>SCREEN_SHAKE</t>
   </si>
   <si>
@@ -256,6 +286,9 @@
     <t>Tắt màn hình rung lắc</t>
   </si>
   <si>
+    <t>禁用屏幕抖动</t>
+  </si>
+  <si>
     <t>TILE_MOVEMENT_MAX</t>
   </si>
   <si>
@@ -277,6 +310,9 @@
     <t>Thay đổi số lượng ô có thể di chuyển một lúc:</t>
   </si>
   <si>
+    <t>一次移动砖块的最大数量：</t>
+  </si>
+  <si>
     <t>TILE_MOVEMENT_UNLIMITED</t>
   </si>
   <si>
@@ -298,6 +334,9 @@
     <t>Không giới hạn</t>
   </si>
   <si>
+    <t>无限制</t>
+  </si>
+  <si>
     <t>EXCLUDE_FILTER_LIST</t>
   </si>
   <si>
@@ -316,6 +355,9 @@
     <t>filtres exclu</t>
   </si>
   <si>
+    <t>排除的筛选器（{0}）</t>
+  </si>
+  <si>
     <t>EXCLUDE_FILTER_START_LIST</t>
   </si>
   <si>
@@ -331,6 +373,9 @@
     <t>filtres pour exlure</t>
   </si>
   <si>
+    <t>要排除的筛选器：</t>
+  </si>
+  <si>
     <t>Hide UI Elements</t>
   </si>
   <si>
@@ -349,6 +394,9 @@
     <t>Ẩn giao diện (UI)</t>
   </si>
   <si>
+    <t>隐藏UI元素</t>
+  </si>
+  <si>
     <t>Hides certain UI elements from gameplay.</t>
   </si>
   <si>
@@ -367,6 +415,9 @@
     <t>Làm ẩn một số giao diện (UI) khi chơi</t>
   </si>
   <si>
+    <t>在游戏中隐藏某些UI元素。</t>
+  </si>
+  <si>
     <t>EVERYTHING</t>
   </si>
   <si>
@@ -388,6 +439,9 @@
     <t>Làm ẩn tất cả các giao diện (UI) (lựa chọn này sẽ làm ẩn một số dòng chữ trong màn hình chính)</t>
   </si>
   <si>
+    <t>隐藏所有UI元素（注意：这可能还包括菜单中的特定文本）</t>
+  </si>
+  <si>
     <t>JUDGE_TEXT</t>
   </si>
   <si>
@@ -409,6 +463,9 @@
     <t>Ẩn dòng chữ hiển thị độ chính xác ({0}, {1}, v.v)</t>
   </si>
   <si>
+    <t>隐藏判定文本（{0}、{1}等）</t>
+  </si>
+  <si>
     <t>MISSES</t>
   </si>
   <si>
@@ -430,6 +487,9 @@
     <t>Ẩn chỉ thị nhấn trượt (ô trắng có chữ X)</t>
   </si>
   <si>
+    <t>隐藏未命中指示器（带圆圈的X图标）</t>
+  </si>
+  <si>
     <t>SONG_TITLE</t>
   </si>
   <si>
@@ -451,6 +511,9 @@
     <t>Ẩn tên nhạc, tác giả</t>
   </si>
   <si>
+    <t>隐藏歌曲作者和歌名</t>
+  </si>
+  <si>
     <t>AUTO</t>
   </si>
   <si>
@@ -472,6 +535,9 @@
     <t>Ẩn Otto, dòng chữ "tự động chơi" và biểu tượng biểu thị độ chính xác cần thiết</t>
   </si>
   <si>
+    <t>隐藏小兔子、自动播放和计时目标图标</t>
+  </si>
+  <si>
     <t>BETA_BUILD</t>
   </si>
   <si>
@@ -493,6 +559,9 @@
     <t>Ẩn dòng chữ "Beta Build"</t>
   </si>
   <si>
+    <t>隐藏“测试版”图标</t>
+  </si>
+  <si>
     <t>Judgment Visuals</t>
   </si>
   <si>
@@ -511,6 +580,9 @@
     <t>Thay đổi biểu thị độ chính xác</t>
   </si>
   <si>
+    <t>判定图像</t>
+  </si>
+  <si>
     <t>Improves the visuals of judgments.</t>
   </si>
   <si>
@@ -526,6 +598,9 @@
     <t>Cải thiện cách biểu thị độ chính xác.</t>
   </si>
   <si>
+    <t>改善判定的视觉效果。</t>
+  </si>
+  <si>
     <t>SHOW_HIT_ERROR_METER</t>
   </si>
   <si>
@@ -544,6 +619,9 @@
     <t>Hiển thị bảng đo cho biết độ chính xác</t>
   </si>
   <si>
+    <t>显示命中误差表（判定器）</t>
+  </si>
+  <si>
     <t>ERROR_METER_SCALE</t>
   </si>
   <si>
@@ -565,6 +643,9 @@
     <t>Kích cỡ:</t>
   </si>
   <si>
+    <t>比例：</t>
+  </si>
+  <si>
     <t>ERROR_METER_TICK_LIFE</t>
   </si>
   <si>
@@ -583,6 +664,9 @@
     <t>Thời gian hiển thị các vạch:</t>
   </si>
   <si>
+    <t>点击后显示的时间：</t>
+  </si>
+  <si>
     <t>ERROR_METER_TICK_SECONDS</t>
   </si>
   <si>
@@ -604,6 +688,9 @@
     <t>{0} giây</t>
   </si>
   <si>
+    <t>{0}秒</t>
+  </si>
+  <si>
     <t>ERROR_METER_SENSITIVITY</t>
   </si>
   <si>
@@ -625,6 +712,9 @@
     <t>Độ nhạy của mũi tên:</t>
   </si>
   <si>
+    <t>下箭头灵敏度：</t>
+  </si>
+  <si>
     <t>ERROR_METER_MORE_STABLE</t>
   </si>
   <si>
@@ -646,6 +736,9 @@
     <t>Ổn định hơn</t>
   </si>
   <si>
+    <t>更稳定</t>
+  </si>
+  <si>
     <t>ERROR_METER_LESS_STABLE</t>
   </si>
   <si>
@@ -667,6 +760,9 @@
     <t>Kém ổn định hơn</t>
   </si>
   <si>
+    <t>不太稳定</t>
+  </si>
+  <si>
     <t>HIDE_PERFECTS</t>
   </si>
   <si>
@@ -688,6 +784,9 @@
     <t>Ẩn dòng chữ "{0}"</t>
   </si>
   <si>
+    <t>隐藏{0}判断</t>
+  </si>
+  <si>
     <t>ERROR_METER_X_POS</t>
   </si>
   <si>
@@ -706,6 +805,9 @@
     <t>Vị trí theo trục ngang (X):</t>
   </si>
   <si>
+    <t>X位置：</t>
+  </si>
+  <si>
     <t>ERROR_METER_Y_POS</t>
   </si>
   <si>
@@ -724,6 +826,9 @@
     <t>Vị trí theo trục dọc (Y):</t>
   </si>
   <si>
+    <t>Y位置：</t>
+  </si>
+  <si>
     <t>Key Viewer</t>
   </si>
   <si>
@@ -739,6 +844,9 @@
     <t>Hiển thị phím</t>
   </si>
   <si>
+    <t>按键查看器</t>
+  </si>
+  <si>
     <t>Shows a key viewer for registered keys.</t>
   </si>
   <si>
@@ -754,6 +862,9 @@
     <t>Hiển thị những phím được nhấn khi đang chơi.</t>
   </si>
   <si>
+    <t>显示添加按键的按键查看器。</t>
+  </si>
+  <si>
     <t>REGISTERED_KEYS</t>
   </si>
   <si>
@@ -772,6 +883,9 @@
     <t>Những phím được thêm vào:</t>
   </si>
   <si>
+    <t>添加按键</t>
+  </si>
+  <si>
     <t>DONE</t>
   </si>
   <si>
@@ -790,6 +904,9 @@
     <t>Hoàn tất</t>
   </si>
   <si>
+    <t>完成</t>
+  </si>
+  <si>
     <t>PRESS_KEY_REGISTER</t>
   </si>
   <si>
@@ -808,6 +925,9 @@
     <t>Nhấn phím để thêm / loại bỏ chúng</t>
   </si>
   <si>
+    <t>添加按键/取消按键</t>
+  </si>
+  <si>
     <t>CHANGE_KEYS</t>
   </si>
   <si>
@@ -826,6 +946,9 @@
     <t>Đổi phím</t>
   </si>
   <si>
+    <t>更改按键</t>
+  </si>
+  <si>
     <t>VIEWER_ONLY_GAMEPLAY</t>
   </si>
   <si>
@@ -844,6 +967,9 @@
     <t>Chỉ hiện lên khi đang chơi</t>
   </si>
   <si>
+    <t>仅在游戏中显示</t>
+  </si>
+  <si>
     <t>ANIMATE_KEYS</t>
   </si>
   <si>
@@ -862,6 +988,9 @@
     <t>Thêm hiệu ứng khi nhấn</t>
   </si>
   <si>
+    <t>设置按键动画</t>
+  </si>
+  <si>
     <t>KEY_VIEWER_SIZE</t>
   </si>
   <si>
@@ -874,6 +1003,9 @@
     <t>Kích cỡ</t>
   </si>
   <si>
+    <t>尺寸大小：</t>
+  </si>
+  <si>
     <t>KEY_VIEWER_X_POS</t>
   </si>
   <si>
@@ -898,6 +1030,9 @@
     <t>Màu cạnh ngoài cùng khi nhấn phím:</t>
   </si>
   <si>
+    <t>按下按键时的轮廓颜色：</t>
+  </si>
+  <si>
     <t>RELEASED_OUTLINE_COLOR</t>
   </si>
   <si>
@@ -916,6 +1051,9 @@
     <t>Màu cạnh ngoài cùng khi thả phím:</t>
   </si>
   <si>
+    <t>原本显示的轮廓颜色：</t>
+  </si>
+  <si>
     <t>PRESSED_BACKGROUND_COLOR</t>
   </si>
   <si>
@@ -934,6 +1072,9 @@
     <t>Màu nền khi nhấn phím:</t>
   </si>
   <si>
+    <t>按下按键时的背景颜色</t>
+  </si>
+  <si>
     <t>RELEASED_BACKGROUND_COLOR</t>
   </si>
   <si>
@@ -952,6 +1093,9 @@
     <t>Màu nền khi thả phím:</t>
   </si>
   <si>
+    <t>原本显示的的背景颜色</t>
+  </si>
+  <si>
     <t>PRESSED_TEXT_COLOR</t>
   </si>
   <si>
@@ -970,6 +1114,9 @@
     <t>Màu chữ khi nhấn phím:</t>
   </si>
   <si>
+    <t>按下时的按键颜色</t>
+  </si>
+  <si>
     <t>RELEASED_TEXT_COLOR</t>
   </si>
   <si>
@@ -988,6 +1135,9 @@
     <t>Màu chữ khi thả phím:</t>
   </si>
   <si>
+    <t>原本按键的颜色</t>
+  </si>
+  <si>
     <t>PROFILES</t>
   </si>
   <si>
@@ -1006,6 +1156,9 @@
     <t>Những cài đặt đã lưu:</t>
   </si>
   <si>
+    <t>配置文件：</t>
+  </si>
+  <si>
     <t>PROFILE_NAME</t>
   </si>
   <si>
@@ -1024,6 +1177,9 @@
     <t>Tên cài đặt:</t>
   </si>
   <si>
+    <t>配置文件名称：</t>
+  </si>
+  <si>
     <t>NEW</t>
   </si>
   <si>
@@ -1042,6 +1198,9 @@
     <t>Tạo mới</t>
   </si>
   <si>
+    <t>新建</t>
+  </si>
+  <si>
     <t>DUPLICATE</t>
   </si>
   <si>
@@ -1060,6 +1219,9 @@
     <t>Sao chép</t>
   </si>
   <si>
+    <t>复制</t>
+  </si>
+  <si>
     <t>DELETE</t>
   </si>
   <si>
@@ -1078,6 +1240,9 @@
     <t>Xoá</t>
   </si>
   <si>
+    <t>删除</t>
+  </si>
+  <si>
     <t>SHOW_KEY_PRESS_TOTAL</t>
   </si>
   <si>
@@ -1096,6 +1261,9 @@
     <t>Biểu thị tổng số lần đã nhấn phím</t>
   </si>
   <si>
+    <t>显示按键总数</t>
+  </si>
+  <si>
     <t>Key Limiter</t>
   </si>
   <si>
@@ -1111,6 +1279,9 @@
     <t>Giới hạn phím nhấn</t>
   </si>
   <si>
+    <t>按键限制器</t>
+  </si>
+  <si>
     <t>When active, restricts which keys count as input.</t>
   </si>
   <si>
@@ -1126,6 +1297,9 @@
     <t>Giới hạn những phím nhất định được nhấn khi được kích hoạt.</t>
   </si>
   <si>
+    <t>激活时，限制哪些键算作输入。</t>
+  </si>
+  <si>
     <t>Zarejestrowane przyciski:</t>
   </si>
   <si>
@@ -1168,6 +1342,9 @@
     <t>Giới hạn phím nhấn khi lựa chọn vòng chơi</t>
   </si>
   <si>
+    <t>自定义关卡中的限制键（自定义关卡里适用）</t>
+  </si>
+  <si>
     <t>LIMIT_MAIN_MENU</t>
   </si>
   <si>
@@ -1186,6 +1363,87 @@
     <t>Giới hạn phím nhấn khi ở màn hình chính</t>
   </si>
   <si>
+    <t>主界面中的限制键</t>
+  </si>
+  <si>
+    <t>Planet Opacity</t>
+  </si>
+  <si>
+    <t>행성 불투명도</t>
+  </si>
+  <si>
+    <t>Opacidad de planetas</t>
+  </si>
+  <si>
+    <t>Opactié des Planètes</t>
+  </si>
+  <si>
+    <t>Độ trong suốt của hành tinh</t>
+  </si>
+  <si>
+    <t>球球的不透明度</t>
+  </si>
+  <si>
+    <t>Sets the opacity of the planets.</t>
+  </si>
+  <si>
+    <t>행성의 불투명도를 설정합니다.</t>
+  </si>
+  <si>
+    <t>Cambia la opacidad de los planetas.</t>
+  </si>
+  <si>
+    <t>Change l'opactié des planètes.</t>
+  </si>
+  <si>
+    <t>Chỉnh độ trong suốt của các hành tinh.</t>
+  </si>
+  <si>
+    <t>设置球球的不透明度</t>
+  </si>
+  <si>
+    <t>PLANET_ONE</t>
+  </si>
+  <si>
+    <t>Planet 1 Opacity:</t>
+  </si>
+  <si>
+    <t>행성 1 불투명도:</t>
+  </si>
+  <si>
+    <t>Opacidad del planeta 1:</t>
+  </si>
+  <si>
+    <t>Planète 1:</t>
+  </si>
+  <si>
+    <t>Độ trong suốt của hành tinh thứ nhất:</t>
+  </si>
+  <si>
+    <t>第一个球的不透明度</t>
+  </si>
+  <si>
+    <t>PLANET_TWO</t>
+  </si>
+  <si>
+    <t>Planet 2 Opacity:</t>
+  </si>
+  <si>
+    <t>행성 2 불투명도:</t>
+  </si>
+  <si>
+    <t>Opacidad del planeta 2:</t>
+  </si>
+  <si>
+    <t>Planète 2:</t>
+  </si>
+  <si>
+    <t>Độ trong suốt của hành tinh thứ hai:</t>
+  </si>
+  <si>
+    <t>第二个球的不透明度</t>
+  </si>
+  <si>
     <t>Miscellaneous</t>
   </si>
   <si>
@@ -1201,6 +1459,9 @@
     <t>Cài đặt khác</t>
   </si>
   <si>
+    <t>其他</t>
+  </si>
+  <si>
     <t>Tweaks that do not belong in any particular section.</t>
   </si>
   <si>
@@ -1216,6 +1477,9 @@
     <t>Các cài đặt không thuộc vào bất kì phần cụ thể nào.</t>
   </si>
   <si>
+    <t>不属于任何特定节的调整。</t>
+  </si>
+  <si>
     <t>GLITCH_FLIP</t>
   </si>
   <si>
@@ -1234,6 +1498,9 @@
     <t>Vô hiệu hoá xoay màn hình cho hiệu ứng "{0}"</t>
   </si>
   <si>
+    <t>禁用“{0}”筛选器的屏幕翻转</t>
+  </si>
+  <si>
     <t>EDITOR_ZOOM</t>
   </si>
   <si>
@@ -1252,6 +1519,9 @@
     <t>Vô hiệu hoá phóng to / thu nhỏ khi chơi</t>
   </si>
   <si>
+    <t>在游戏中禁用编辑器放大/缩小</t>
+  </si>
+  <si>
     <t>SET_HITSOUND_VOLUME</t>
   </si>
   <si>
@@ -1270,6 +1540,9 @@
     <t>Chỉnh âm lượng "hitsound"</t>
   </si>
   <si>
+    <t>设置总音量</t>
+  </si>
+  <si>
     <t>CURRENT_HITSOUND_VOLUME</t>
   </si>
   <si>
@@ -1285,6 +1558,9 @@
     <t>Âm lượng:</t>
   </si>
   <si>
+    <t>音量</t>
+  </si>
+  <si>
     <t>HITSOUND_FORCE_VOLUME</t>
   </si>
   <si>
@@ -1297,6 +1573,9 @@
     <t>Usar volumen estático para el sonido de los golpes en vez de un multiplicador</t>
   </si>
   <si>
+    <t>使用静态音量而不是倍增器</t>
+  </si>
+  <si>
     <t>HITSOUND_IGNORE_STARTING_VALUE</t>
   </si>
   <si>
@@ -1309,70 +1588,7 @@
     <t>Ignorar el volumen del sonido de los golpes al inicio</t>
   </si>
   <si>
-    <t>Planet Opacity</t>
-  </si>
-  <si>
-    <t>행성 불투명도</t>
-  </si>
-  <si>
-    <t>Opacidad de planetas</t>
-  </si>
-  <si>
-    <t>Opactié des Planètes</t>
-  </si>
-  <si>
-    <t>Độ trong suốt của hành tinh</t>
-  </si>
-  <si>
-    <t>Sets the opacity of the planets.</t>
-  </si>
-  <si>
-    <t>행성의 불투명도를 설정합니다.</t>
-  </si>
-  <si>
-    <t>Cambia la opacidad de los planetas.</t>
-  </si>
-  <si>
-    <t>Change l'opactié des planètes.</t>
-  </si>
-  <si>
-    <t>Chỉnh độ trong suốt của các hành tinh.</t>
-  </si>
-  <si>
-    <t>PLANET_ONE</t>
-  </si>
-  <si>
-    <t>Planet 1 Opacity:</t>
-  </si>
-  <si>
-    <t>행성 1 불투명도:</t>
-  </si>
-  <si>
-    <t>Opacidad del planeta 1:</t>
-  </si>
-  <si>
-    <t>Planète 1:</t>
-  </si>
-  <si>
-    <t>Độ trong suốt của hành tinh thứ nhất:</t>
-  </si>
-  <si>
-    <t>PLANET_TWO</t>
-  </si>
-  <si>
-    <t>Planet 2 Opacity:</t>
-  </si>
-  <si>
-    <t>행성 2 불투명도:</t>
-  </si>
-  <si>
-    <t>Opacidad del planeta 2:</t>
-  </si>
-  <si>
-    <t>Planète 2:</t>
-  </si>
-  <si>
-    <t>Độ trong suốt của hành tinh thứ hai:</t>
+    <t>忽略起始音量</t>
   </si>
   <si>
     <t>Planet Color</t>
@@ -1390,6 +1606,9 @@
     <t>Màu của các hành tinh</t>
   </si>
   <si>
+    <t>球球的颜色</t>
+  </si>
+  <si>
     <t>Sets the color of the planets.</t>
   </si>
   <si>
@@ -1405,6 +1624,9 @@
     <t>Thay đổi màu dành cho từng hành tinh.</t>
   </si>
   <si>
+    <t>设置球球的颜色</t>
+  </si>
+  <si>
     <t>Planet 1:</t>
   </si>
   <si>
@@ -1417,6 +1639,9 @@
     <t>Hành tinh thứ nhất:</t>
   </si>
   <si>
+    <t>第一个球</t>
+  </si>
+  <si>
     <t>Planet 2:</t>
   </si>
   <si>
@@ -1429,6 +1654,9 @@
     <t>Hành tinh thứ hai:</t>
   </si>
   <si>
+    <t>第二个球</t>
+  </si>
+  <si>
     <t>BODY</t>
   </si>
   <si>
@@ -1447,6 +1675,9 @@
     <t>Thân:</t>
   </si>
   <si>
+    <t>球求本体</t>
+  </si>
+  <si>
     <t>TAIL</t>
   </si>
   <si>
@@ -1465,6 +1696,9 @@
     <t>Đuôi:</t>
   </si>
   <si>
+    <t>球球尾部</t>
+  </si>
+  <si>
     <t>Restrict Judgments</t>
   </si>
   <si>
@@ -1480,6 +1714,9 @@
     <t>Giới hạn lỗi cho phép</t>
   </si>
   <si>
+    <t>限制判定</t>
+  </si>
+  <si>
     <t>Kills the player on certain judgments.</t>
   </si>
   <si>
@@ -1495,6 +1732,9 @@
     <t>Làm bạn thua khi phạm lỗi sai nhất định.</t>
   </si>
   <si>
+    <t>根据某些判定结束游戏</t>
+  </si>
+  <si>
     <t>RESTRICT</t>
   </si>
   <si>
@@ -1529,6 +1769,9 @@
   </si>
   <si>
     <t>Dòng chữ thông báo thua khác khi phạm lỗi sai nhất định</t>
+  </si>
+  <si>
+    <t>判定限制的自定义死亡消息（注意：“{judgment}”事件将替换为判定名称）</t>
   </si>
 </sst>
 </file>
@@ -1860,13 +2103,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1888,74 +2131,86 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1965,13 +2220,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1993,97 +2248,112 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>480</v>
+        <v>558</v>
       </c>
       <c r="C2" t="s">
-        <v>481</v>
+        <v>559</v>
       </c>
       <c r="D2" t="s">
-        <v>482</v>
+        <v>560</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F2" t="s">
-        <v>483</v>
+        <v>561</v>
       </c>
       <c r="G2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>562</v>
+      </c>
+      <c r="H2" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>485</v>
+        <v>564</v>
       </c>
       <c r="C3" t="s">
-        <v>486</v>
+        <v>565</v>
       </c>
       <c r="D3" t="s">
-        <v>487</v>
+        <v>566</v>
       </c>
       <c r="E3" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F3" t="s">
-        <v>488</v>
+        <v>567</v>
       </c>
       <c r="G3" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>568</v>
+      </c>
+      <c r="H3" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>490</v>
+        <v>570</v>
       </c>
       <c r="B4" t="s">
-        <v>491</v>
+        <v>571</v>
       </c>
       <c r="C4" t="s">
-        <v>492</v>
+        <v>572</v>
       </c>
       <c r="D4" t="s">
-        <v>493</v>
+        <v>573</v>
       </c>
       <c r="E4" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F4" t="s">
-        <v>494</v>
+        <v>574</v>
       </c>
       <c r="G4" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>575</v>
+      </c>
+      <c r="H4" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>496</v>
+        <v>576</v>
       </c>
       <c r="B5" t="s">
-        <v>497</v>
+        <v>577</v>
       </c>
       <c r="C5" t="s">
-        <v>498</v>
+        <v>578</v>
       </c>
       <c r="D5" t="s">
-        <v>499</v>
+        <v>579</v>
       </c>
       <c r="E5" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F5" t="s">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="G5" t="s">
-        <v>501</v>
+        <v>581</v>
+      </c>
+      <c r="H5" t="s">
+        <v>582</v>
       </c>
     </row>
   </sheetData>
@@ -2093,13 +2363,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2121,252 +2391,294 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>38</v>
+      </c>
+      <c r="H2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>54</v>
+      </c>
+      <c r="H4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="G5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>62</v>
+      </c>
+      <c r="H5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="G6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>70</v>
+      </c>
+      <c r="H6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="E7" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="F7" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>78</v>
+      </c>
+      <c r="H7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="D8" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="E8" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="F8" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>86</v>
+      </c>
+      <c r="H8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="E9" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="F9" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="G9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>94</v>
+      </c>
+      <c r="H9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="C10" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="D10" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="E10" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="F10" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="G10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>102</v>
+      </c>
+      <c r="H10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="B11" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="D11" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="E11" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>109</v>
+      </c>
+      <c r="G11" t="s">
+        <v>108</v>
+      </c>
+      <c r="H11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="C12" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="D12" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="E12" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F12" t="s">
-        <v>101</v>
+        <v>115</v>
+      </c>
+      <c r="G12" t="s">
+        <v>108</v>
+      </c>
+      <c r="H12" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2376,13 +2688,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2404,189 +2716,216 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="D2" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="E2" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="F2" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="G2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>122</v>
+      </c>
+      <c r="H2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="D3" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="F3" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="G3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>129</v>
+      </c>
+      <c r="H3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="B4" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="C4" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="D4" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="E4" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="F4" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="G4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>137</v>
+      </c>
+      <c r="H4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="B5" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C5" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="D5" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="E5" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="F5" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="G5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>145</v>
+      </c>
+      <c r="H5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="B6" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="C6" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="D6" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="E6" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="F6" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="G6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>153</v>
+      </c>
+      <c r="H6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="B7" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="C7" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="D7" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="E7" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="F7" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="G7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>161</v>
+      </c>
+      <c r="H7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="B8" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="C8" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="D8" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="E8" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="F8" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="G8" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>169</v>
+      </c>
+      <c r="H8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="B9" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="C9" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="D9" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="E9" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="F9" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="G9" t="s">
-        <v>155</v>
+        <v>177</v>
+      </c>
+      <c r="H9" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -2596,13 +2935,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2624,281 +2963,320 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="C2" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="D2" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="E2" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="F2" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="G2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>184</v>
+      </c>
+      <c r="H2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="C3" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="D3" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="E3" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F3" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="G3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>190</v>
+      </c>
+      <c r="H3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="B4" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="C4" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="D4" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="E4" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F4" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="G4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>197</v>
+      </c>
+      <c r="H4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="B5" t="s">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c r="C5" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="D5" t="s">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="E5" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="F5" t="s">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="G5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>205</v>
+      </c>
+      <c r="H5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="B6" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="C6" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="D6" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="E6" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F6" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="G6" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>212</v>
+      </c>
+      <c r="H6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="B7" t="s">
-        <v>187</v>
+        <v>215</v>
       </c>
       <c r="C7" t="s">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="D7" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="E7" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="F7" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="G7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>220</v>
+      </c>
+      <c r="H7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="B8" t="s">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="C8" t="s">
-        <v>195</v>
+        <v>224</v>
       </c>
       <c r="D8" t="s">
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="E8" t="s">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="F8" t="s">
-        <v>198</v>
+        <v>227</v>
       </c>
       <c r="G8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>228</v>
+      </c>
+      <c r="H8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="B9" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="C9" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="D9" t="s">
-        <v>203</v>
+        <v>233</v>
       </c>
       <c r="E9" t="s">
-        <v>204</v>
+        <v>234</v>
       </c>
       <c r="F9" t="s">
-        <v>205</v>
+        <v>235</v>
       </c>
       <c r="G9" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>236</v>
+      </c>
+      <c r="H9" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="B10" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="C10" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="D10" t="s">
-        <v>210</v>
+        <v>241</v>
       </c>
       <c r="E10" t="s">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="F10" t="s">
-        <v>212</v>
+        <v>243</v>
       </c>
       <c r="G10" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>244</v>
+      </c>
+      <c r="H10" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="B11" t="s">
-        <v>215</v>
+        <v>247</v>
       </c>
       <c r="C11" t="s">
-        <v>216</v>
+        <v>248</v>
       </c>
       <c r="D11" t="s">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="E11" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="F11" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="G11" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>252</v>
+      </c>
+      <c r="H11" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="B12" t="s">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="C12" t="s">
-        <v>223</v>
+        <v>256</v>
       </c>
       <c r="D12" t="s">
-        <v>224</v>
+        <v>257</v>
       </c>
       <c r="E12" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F12" t="s">
-        <v>225</v>
+        <v>258</v>
       </c>
       <c r="G12" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>259</v>
+      </c>
+      <c r="H12" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>227</v>
+        <v>261</v>
       </c>
       <c r="B13" t="s">
-        <v>228</v>
+        <v>262</v>
       </c>
       <c r="C13" t="s">
-        <v>229</v>
+        <v>263</v>
       </c>
       <c r="D13" t="s">
-        <v>230</v>
+        <v>264</v>
       </c>
       <c r="E13" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F13" t="s">
-        <v>231</v>
+        <v>265</v>
       </c>
       <c r="G13" t="s">
-        <v>232</v>
+        <v>266</v>
+      </c>
+      <c r="H13" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -2908,13 +3286,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2936,534 +3314,606 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>233</v>
+        <v>268</v>
       </c>
       <c r="C2" t="s">
-        <v>234</v>
+        <v>269</v>
       </c>
       <c r="D2" t="s">
-        <v>235</v>
+        <v>270</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F2" t="s">
-        <v>236</v>
+        <v>271</v>
       </c>
       <c r="G2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>272</v>
+      </c>
+      <c r="H2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="C3" t="s">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="D3" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="E3" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F3" t="s">
-        <v>241</v>
+        <v>277</v>
       </c>
       <c r="G3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>278</v>
+      </c>
+      <c r="H3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>243</v>
+        <v>280</v>
       </c>
       <c r="B4" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="C4" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="D4" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="E4" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F4" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="G4" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>285</v>
+      </c>
+      <c r="H4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>249</v>
+        <v>287</v>
       </c>
       <c r="B5" t="s">
-        <v>250</v>
+        <v>288</v>
       </c>
       <c r="C5" t="s">
-        <v>251</v>
+        <v>289</v>
       </c>
       <c r="D5" t="s">
-        <v>252</v>
+        <v>290</v>
       </c>
       <c r="E5" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F5" t="s">
-        <v>253</v>
+        <v>291</v>
       </c>
       <c r="G5" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>292</v>
+      </c>
+      <c r="H5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
+        <v>294</v>
+      </c>
+      <c r="B6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C6" t="s">
+        <v>296</v>
+      </c>
+      <c r="D6" t="s">
+        <v>297</v>
+      </c>
+      <c r="E6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" t="s">
+        <v>298</v>
+      </c>
+      <c r="G6" t="s">
+        <v>299</v>
+      </c>
+      <c r="H6" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>301</v>
+      </c>
+      <c r="B7" t="s">
+        <v>302</v>
+      </c>
+      <c r="C7" t="s">
+        <v>303</v>
+      </c>
+      <c r="D7" t="s">
+        <v>304</v>
+      </c>
+      <c r="E7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" t="s">
+        <v>305</v>
+      </c>
+      <c r="G7" t="s">
+        <v>306</v>
+      </c>
+      <c r="H7" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>308</v>
+      </c>
+      <c r="B8" t="s">
+        <v>309</v>
+      </c>
+      <c r="C8" t="s">
+        <v>310</v>
+      </c>
+      <c r="D8" t="s">
+        <v>311</v>
+      </c>
+      <c r="E8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" t="s">
+        <v>312</v>
+      </c>
+      <c r="G8" t="s">
+        <v>313</v>
+      </c>
+      <c r="H8" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>315</v>
+      </c>
+      <c r="B9" t="s">
+        <v>316</v>
+      </c>
+      <c r="C9" t="s">
+        <v>317</v>
+      </c>
+      <c r="D9" t="s">
+        <v>318</v>
+      </c>
+      <c r="E9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" t="s">
+        <v>319</v>
+      </c>
+      <c r="G9" t="s">
+        <v>320</v>
+      </c>
+      <c r="H9" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>322</v>
+      </c>
+      <c r="B10" t="s">
+        <v>323</v>
+      </c>
+      <c r="C10" t="s">
+        <v>201</v>
+      </c>
+      <c r="D10" t="s">
+        <v>324</v>
+      </c>
+      <c r="E10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" t="s">
+        <v>204</v>
+      </c>
+      <c r="G10" t="s">
+        <v>325</v>
+      </c>
+      <c r="H10" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>327</v>
+      </c>
+      <c r="B11" t="s">
         <v>255</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C11" t="s">
         <v>256</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D11" t="s">
         <v>257</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11" t="s">
         <v>258</v>
       </c>
-      <c r="E6" t="s">
-        <v>95</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="G11" t="s">
         <v>259</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H11" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>261</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>328</v>
+      </c>
+      <c r="B12" t="s">
         <v>262</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C12" t="s">
         <v>263</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D12" t="s">
         <v>264</v>
       </c>
-      <c r="E7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="E12" t="s">
+        <v>108</v>
+      </c>
+      <c r="F12" t="s">
         <v>265</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G12" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
+      <c r="H12" t="s">
         <v>267</v>
       </c>
-      <c r="B8" t="s">
-        <v>268</v>
-      </c>
-      <c r="C8" t="s">
-        <v>269</v>
-      </c>
-      <c r="D8" t="s">
-        <v>270</v>
-      </c>
-      <c r="E8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F8" t="s">
-        <v>271</v>
-      </c>
-      <c r="G8" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>273</v>
-      </c>
-      <c r="B9" t="s">
-        <v>274</v>
-      </c>
-      <c r="C9" t="s">
-        <v>275</v>
-      </c>
-      <c r="D9" t="s">
-        <v>276</v>
-      </c>
-      <c r="E9" t="s">
-        <v>95</v>
-      </c>
-      <c r="F9" t="s">
-        <v>277</v>
-      </c>
-      <c r="G9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>279</v>
-      </c>
-      <c r="B10" t="s">
-        <v>280</v>
-      </c>
-      <c r="C10" t="s">
-        <v>175</v>
-      </c>
-      <c r="D10" t="s">
-        <v>281</v>
-      </c>
-      <c r="E10" t="s">
-        <v>95</v>
-      </c>
-      <c r="F10" t="s">
-        <v>178</v>
-      </c>
-      <c r="G10" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>283</v>
-      </c>
-      <c r="B11" t="s">
-        <v>222</v>
-      </c>
-      <c r="C11" t="s">
-        <v>223</v>
-      </c>
-      <c r="D11" t="s">
-        <v>224</v>
-      </c>
-      <c r="E11" t="s">
-        <v>95</v>
-      </c>
-      <c r="F11" t="s">
-        <v>225</v>
-      </c>
-      <c r="G11" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>284</v>
-      </c>
-      <c r="B12" t="s">
-        <v>228</v>
-      </c>
-      <c r="C12" t="s">
-        <v>229</v>
-      </c>
-      <c r="D12" t="s">
-        <v>230</v>
-      </c>
-      <c r="E12" t="s">
-        <v>95</v>
-      </c>
-      <c r="F12" t="s">
-        <v>231</v>
-      </c>
-      <c r="G12" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>285</v>
+        <v>329</v>
       </c>
       <c r="B13" t="s">
-        <v>286</v>
+        <v>330</v>
       </c>
       <c r="C13" t="s">
-        <v>287</v>
+        <v>331</v>
       </c>
       <c r="D13" t="s">
-        <v>288</v>
+        <v>332</v>
       </c>
       <c r="E13" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F13" t="s">
-        <v>289</v>
+        <v>333</v>
       </c>
       <c r="G13" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>334</v>
+      </c>
+      <c r="H13" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>291</v>
+        <v>336</v>
       </c>
       <c r="B14" t="s">
-        <v>292</v>
+        <v>337</v>
       </c>
       <c r="C14" t="s">
-        <v>293</v>
+        <v>338</v>
       </c>
       <c r="D14" t="s">
-        <v>294</v>
+        <v>339</v>
       </c>
       <c r="E14" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F14" t="s">
-        <v>295</v>
+        <v>340</v>
       </c>
       <c r="G14" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>341</v>
+      </c>
+      <c r="H14" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>297</v>
+        <v>343</v>
       </c>
       <c r="B15" t="s">
-        <v>298</v>
+        <v>344</v>
       </c>
       <c r="C15" t="s">
-        <v>299</v>
+        <v>345</v>
       </c>
       <c r="D15" t="s">
-        <v>300</v>
+        <v>346</v>
       </c>
       <c r="E15" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F15" t="s">
-        <v>301</v>
+        <v>347</v>
       </c>
       <c r="G15" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>348</v>
+      </c>
+      <c r="H15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>303</v>
+        <v>350</v>
       </c>
       <c r="B16" t="s">
-        <v>304</v>
+        <v>351</v>
       </c>
       <c r="C16" t="s">
-        <v>305</v>
+        <v>352</v>
       </c>
       <c r="D16" t="s">
-        <v>306</v>
+        <v>353</v>
       </c>
       <c r="E16" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F16" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="G16" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>355</v>
+      </c>
+      <c r="H16" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>309</v>
+        <v>357</v>
       </c>
       <c r="B17" t="s">
-        <v>310</v>
+        <v>358</v>
       </c>
       <c r="C17" t="s">
-        <v>311</v>
+        <v>359</v>
       </c>
       <c r="D17" t="s">
-        <v>312</v>
+        <v>360</v>
       </c>
       <c r="E17" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F17" t="s">
-        <v>313</v>
+        <v>361</v>
       </c>
       <c r="G17" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>362</v>
+      </c>
+      <c r="H17" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>315</v>
+        <v>364</v>
       </c>
       <c r="B18" t="s">
-        <v>316</v>
+        <v>365</v>
       </c>
       <c r="C18" t="s">
-        <v>317</v>
+        <v>366</v>
       </c>
       <c r="D18" t="s">
-        <v>318</v>
+        <v>367</v>
       </c>
       <c r="E18" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F18" t="s">
-        <v>319</v>
+        <v>368</v>
       </c>
       <c r="G18" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>369</v>
+      </c>
+      <c r="H18" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>321</v>
+        <v>371</v>
       </c>
       <c r="B19" t="s">
-        <v>322</v>
+        <v>372</v>
       </c>
       <c r="C19" t="s">
-        <v>323</v>
+        <v>373</v>
       </c>
       <c r="D19" t="s">
-        <v>324</v>
+        <v>374</v>
       </c>
       <c r="E19" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F19" t="s">
-        <v>325</v>
+        <v>375</v>
       </c>
       <c r="G19" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>376</v>
+      </c>
+      <c r="H19" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>327</v>
+        <v>378</v>
       </c>
       <c r="B20" t="s">
-        <v>328</v>
+        <v>379</v>
       </c>
       <c r="C20" t="s">
-        <v>329</v>
+        <v>380</v>
       </c>
       <c r="D20" t="s">
-        <v>330</v>
+        <v>381</v>
       </c>
       <c r="E20" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F20" t="s">
-        <v>331</v>
+        <v>382</v>
       </c>
       <c r="G20" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>383</v>
+      </c>
+      <c r="H20" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>333</v>
+        <v>385</v>
       </c>
       <c r="B21" t="s">
-        <v>334</v>
+        <v>386</v>
       </c>
       <c r="C21" t="s">
-        <v>335</v>
+        <v>387</v>
       </c>
       <c r="D21" t="s">
-        <v>336</v>
+        <v>388</v>
       </c>
       <c r="E21" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F21" t="s">
-        <v>337</v>
+        <v>389</v>
       </c>
       <c r="G21" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>390</v>
+      </c>
+      <c r="H21" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>339</v>
+        <v>392</v>
       </c>
       <c r="B22" t="s">
-        <v>340</v>
+        <v>393</v>
       </c>
       <c r="C22" t="s">
-        <v>341</v>
+        <v>394</v>
       </c>
       <c r="D22" t="s">
-        <v>342</v>
+        <v>395</v>
       </c>
       <c r="E22" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F22" t="s">
-        <v>343</v>
+        <v>396</v>
       </c>
       <c r="G22" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>397</v>
+      </c>
+      <c r="H22" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>345</v>
+        <v>399</v>
       </c>
       <c r="B23" t="s">
-        <v>346</v>
+        <v>400</v>
       </c>
       <c r="C23" t="s">
-        <v>347</v>
+        <v>401</v>
       </c>
       <c r="D23" t="s">
-        <v>348</v>
+        <v>402</v>
       </c>
       <c r="E23" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F23" t="s">
-        <v>349</v>
+        <v>403</v>
       </c>
       <c r="G23" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>404</v>
+      </c>
+      <c r="H23" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>351</v>
+        <v>406</v>
       </c>
       <c r="B24" t="s">
-        <v>352</v>
+        <v>407</v>
       </c>
       <c r="C24" t="s">
-        <v>353</v>
+        <v>408</v>
       </c>
       <c r="D24" t="s">
-        <v>354</v>
+        <v>409</v>
       </c>
       <c r="E24" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F24" t="s">
-        <v>355</v>
+        <v>410</v>
       </c>
       <c r="G24" t="s">
-        <v>356</v>
+        <v>411</v>
+      </c>
+      <c r="H24" t="s">
+        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -3473,13 +3923,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3501,189 +3951,216 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>357</v>
+        <v>413</v>
       </c>
       <c r="C2" t="s">
-        <v>358</v>
+        <v>414</v>
       </c>
       <c r="D2" t="s">
-        <v>359</v>
+        <v>415</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F2" t="s">
-        <v>360</v>
+        <v>416</v>
       </c>
       <c r="G2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>417</v>
+      </c>
+      <c r="H2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>362</v>
+        <v>419</v>
       </c>
       <c r="C3" t="s">
-        <v>363</v>
+        <v>420</v>
       </c>
       <c r="D3" t="s">
-        <v>364</v>
+        <v>421</v>
       </c>
       <c r="E3" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F3" t="s">
-        <v>365</v>
+        <v>422</v>
       </c>
       <c r="G3" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>423</v>
+      </c>
+      <c r="H3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>243</v>
+        <v>280</v>
       </c>
       <c r="B4" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="C4" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="D4" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="E4" t="s">
-        <v>367</v>
+        <v>425</v>
       </c>
       <c r="F4" t="s">
-        <v>368</v>
+        <v>426</v>
       </c>
       <c r="G4" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>285</v>
+      </c>
+      <c r="H4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>249</v>
+        <v>287</v>
       </c>
       <c r="B5" t="s">
-        <v>250</v>
+        <v>288</v>
       </c>
       <c r="C5" t="s">
-        <v>251</v>
+        <v>289</v>
       </c>
       <c r="D5" t="s">
-        <v>252</v>
+        <v>290</v>
       </c>
       <c r="E5" t="s">
-        <v>369</v>
+        <v>427</v>
       </c>
       <c r="F5" t="s">
-        <v>253</v>
+        <v>291</v>
       </c>
       <c r="G5" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>292</v>
+      </c>
+      <c r="H5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>255</v>
+        <v>294</v>
       </c>
       <c r="B6" t="s">
-        <v>256</v>
+        <v>295</v>
       </c>
       <c r="C6" t="s">
-        <v>257</v>
+        <v>296</v>
       </c>
       <c r="D6" t="s">
-        <v>258</v>
+        <v>297</v>
       </c>
       <c r="E6" t="s">
-        <v>370</v>
+        <v>428</v>
       </c>
       <c r="F6" t="s">
-        <v>371</v>
+        <v>429</v>
       </c>
       <c r="G6" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>430</v>
+      </c>
+      <c r="H6" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>261</v>
+        <v>301</v>
       </c>
       <c r="B7" t="s">
-        <v>262</v>
+        <v>302</v>
       </c>
       <c r="C7" t="s">
-        <v>263</v>
+        <v>303</v>
       </c>
       <c r="D7" t="s">
-        <v>264</v>
+        <v>304</v>
       </c>
       <c r="E7" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F7" t="s">
-        <v>373</v>
+        <v>431</v>
       </c>
       <c r="G7" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>432</v>
+      </c>
+      <c r="H7" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>375</v>
+        <v>433</v>
       </c>
       <c r="B8" t="s">
-        <v>376</v>
+        <v>434</v>
       </c>
       <c r="C8" t="s">
-        <v>377</v>
+        <v>435</v>
       </c>
       <c r="D8" t="s">
-        <v>378</v>
+        <v>436</v>
       </c>
       <c r="E8" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F8" t="s">
-        <v>379</v>
+        <v>437</v>
       </c>
       <c r="G8" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>438</v>
+      </c>
+      <c r="H8" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>381</v>
+        <v>440</v>
       </c>
       <c r="B9" t="s">
-        <v>382</v>
+        <v>441</v>
       </c>
       <c r="C9" t="s">
-        <v>383</v>
+        <v>442</v>
       </c>
       <c r="D9" t="s">
-        <v>384</v>
+        <v>443</v>
       </c>
       <c r="E9" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F9" t="s">
-        <v>385</v>
+        <v>444</v>
       </c>
       <c r="G9" t="s">
-        <v>386</v>
+        <v>445</v>
+      </c>
+      <c r="H9" t="s">
+        <v>446</v>
       </c>
     </row>
   </sheetData>
@@ -3693,13 +4170,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3721,171 +4198,112 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>387</v>
+        <v>447</v>
       </c>
       <c r="C2" t="s">
-        <v>388</v>
+        <v>448</v>
       </c>
       <c r="D2" t="s">
-        <v>389</v>
+        <v>449</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F2" t="s">
-        <v>390</v>
+        <v>450</v>
       </c>
       <c r="G2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>451</v>
+      </c>
+      <c r="H2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>392</v>
+        <v>453</v>
       </c>
       <c r="C3" t="s">
-        <v>393</v>
+        <v>454</v>
       </c>
       <c r="D3" t="s">
-        <v>394</v>
+        <v>455</v>
       </c>
       <c r="E3" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F3" t="s">
-        <v>395</v>
+        <v>456</v>
       </c>
       <c r="G3" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>457</v>
+      </c>
+      <c r="H3" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>397</v>
+        <v>459</v>
       </c>
       <c r="B4" t="s">
-        <v>398</v>
+        <v>460</v>
       </c>
       <c r="C4" t="s">
-        <v>399</v>
+        <v>461</v>
       </c>
       <c r="D4" t="s">
-        <v>400</v>
+        <v>462</v>
       </c>
       <c r="E4" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F4" t="s">
-        <v>401</v>
+        <v>463</v>
       </c>
       <c r="G4" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>464</v>
+      </c>
+      <c r="H4" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>403</v>
+        <v>466</v>
       </c>
       <c r="B5" t="s">
-        <v>404</v>
+        <v>467</v>
       </c>
       <c r="C5" t="s">
-        <v>405</v>
+        <v>468</v>
       </c>
       <c r="D5" t="s">
-        <v>406</v>
+        <v>469</v>
       </c>
       <c r="E5" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F5" t="s">
-        <v>407</v>
+        <v>470</v>
       </c>
       <c r="G5" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>409</v>
-      </c>
-      <c r="B6" t="s">
-        <v>410</v>
-      </c>
-      <c r="C6" t="s">
-        <v>411</v>
-      </c>
-      <c r="D6" t="s">
-        <v>412</v>
-      </c>
-      <c r="E6" t="s">
-        <v>95</v>
-      </c>
-      <c r="F6" t="s">
-        <v>413</v>
-      </c>
-      <c r="G6" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>415</v>
-      </c>
-      <c r="B7" t="s">
-        <v>416</v>
-      </c>
-      <c r="C7" t="s">
-        <v>417</v>
-      </c>
-      <c r="D7" t="s">
-        <v>418</v>
-      </c>
-      <c r="E7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F7" t="s">
-        <v>416</v>
-      </c>
-      <c r="G7" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>420</v>
-      </c>
-      <c r="B8" t="s">
-        <v>421</v>
-      </c>
-      <c r="C8" t="s">
-        <v>422</v>
-      </c>
-      <c r="D8" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>424</v>
-      </c>
-      <c r="B9" t="s">
-        <v>425</v>
-      </c>
-      <c r="C9" t="s">
-        <v>426</v>
-      </c>
-      <c r="D9" t="s">
-        <v>427</v>
+        <v>471</v>
+      </c>
+      <c r="H5" t="s">
+        <v>472</v>
       </c>
     </row>
   </sheetData>
@@ -3895,13 +4313,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3923,97 +4341,216 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>428</v>
+        <v>473</v>
       </c>
       <c r="C2" t="s">
-        <v>429</v>
+        <v>474</v>
       </c>
       <c r="D2" t="s">
-        <v>430</v>
+        <v>475</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F2" t="s">
-        <v>431</v>
+        <v>476</v>
       </c>
       <c r="G2" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>477</v>
+      </c>
+      <c r="H2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>433</v>
+        <v>479</v>
       </c>
       <c r="C3" t="s">
-        <v>434</v>
+        <v>480</v>
       </c>
       <c r="D3" t="s">
-        <v>435</v>
+        <v>481</v>
       </c>
       <c r="E3" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F3" t="s">
-        <v>436</v>
+        <v>482</v>
       </c>
       <c r="G3" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>483</v>
+      </c>
+      <c r="H3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>438</v>
+        <v>485</v>
       </c>
       <c r="B4" t="s">
-        <v>439</v>
+        <v>486</v>
       </c>
       <c r="C4" t="s">
-        <v>440</v>
+        <v>487</v>
       </c>
       <c r="D4" t="s">
-        <v>441</v>
+        <v>488</v>
       </c>
       <c r="E4" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F4" t="s">
-        <v>442</v>
+        <v>489</v>
       </c>
       <c r="G4" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>490</v>
+      </c>
+      <c r="H4" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>444</v>
+        <v>492</v>
       </c>
       <c r="B5" t="s">
-        <v>445</v>
+        <v>493</v>
       </c>
       <c r="C5" t="s">
-        <v>446</v>
+        <v>494</v>
       </c>
       <c r="D5" t="s">
-        <v>447</v>
+        <v>495</v>
       </c>
       <c r="E5" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F5" t="s">
-        <v>448</v>
+        <v>496</v>
       </c>
       <c r="G5" t="s">
-        <v>449</v>
+        <v>497</v>
+      </c>
+      <c r="H5" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>499</v>
+      </c>
+      <c r="B6" t="s">
+        <v>500</v>
+      </c>
+      <c r="C6" t="s">
+        <v>501</v>
+      </c>
+      <c r="D6" t="s">
+        <v>502</v>
+      </c>
+      <c r="E6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" t="s">
+        <v>503</v>
+      </c>
+      <c r="G6" t="s">
+        <v>504</v>
+      </c>
+      <c r="H6" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>506</v>
+      </c>
+      <c r="B7" t="s">
+        <v>507</v>
+      </c>
+      <c r="C7" t="s">
+        <v>508</v>
+      </c>
+      <c r="D7" t="s">
+        <v>509</v>
+      </c>
+      <c r="E7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" t="s">
+        <v>507</v>
+      </c>
+      <c r="G7" t="s">
+        <v>510</v>
+      </c>
+      <c r="H7" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>512</v>
+      </c>
+      <c r="B8" t="s">
+        <v>513</v>
+      </c>
+      <c r="C8" t="s">
+        <v>514</v>
+      </c>
+      <c r="D8" t="s">
+        <v>515</v>
+      </c>
+      <c r="E8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G8" t="s">
+        <v>108</v>
+      </c>
+      <c r="H8" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>517</v>
+      </c>
+      <c r="B9" t="s">
+        <v>518</v>
+      </c>
+      <c r="C9" t="s">
+        <v>519</v>
+      </c>
+      <c r="D9" t="s">
+        <v>520</v>
+      </c>
+      <c r="E9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" t="s">
+        <v>108</v>
+      </c>
+      <c r="H9" t="s">
+        <v>521</v>
       </c>
     </row>
   </sheetData>
@@ -4023,13 +4560,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4051,143 +4588,164 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>450</v>
+        <v>522</v>
       </c>
       <c r="C2" t="s">
-        <v>451</v>
+        <v>523</v>
       </c>
       <c r="D2" t="s">
-        <v>452</v>
+        <v>524</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F2" t="s">
-        <v>453</v>
+        <v>525</v>
       </c>
       <c r="G2" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>526</v>
+      </c>
+      <c r="H2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>455</v>
+        <v>528</v>
       </c>
       <c r="C3" t="s">
-        <v>456</v>
+        <v>529</v>
       </c>
       <c r="D3" t="s">
-        <v>457</v>
+        <v>530</v>
       </c>
       <c r="E3" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F3" t="s">
-        <v>458</v>
+        <v>531</v>
       </c>
       <c r="G3" t="s">
+        <v>532</v>
+      </c>
+      <c r="H3" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>438</v>
-      </c>
       <c r="B4" t="s">
-        <v>460</v>
+        <v>534</v>
       </c>
       <c r="C4" t="s">
-        <v>461</v>
+        <v>535</v>
       </c>
       <c r="D4" t="s">
-        <v>462</v>
+        <v>536</v>
       </c>
       <c r="E4" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F4" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="G4" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>537</v>
+      </c>
+      <c r="H4" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>444</v>
+        <v>466</v>
       </c>
       <c r="B5" t="s">
-        <v>464</v>
+        <v>539</v>
       </c>
       <c r="C5" t="s">
-        <v>465</v>
+        <v>540</v>
       </c>
       <c r="D5" t="s">
-        <v>466</v>
+        <v>541</v>
       </c>
       <c r="E5" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F5" t="s">
-        <v>448</v>
+        <v>470</v>
       </c>
       <c r="G5" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>542</v>
+      </c>
+      <c r="H5" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>468</v>
+        <v>544</v>
       </c>
       <c r="B6" t="s">
-        <v>469</v>
+        <v>545</v>
       </c>
       <c r="C6" t="s">
-        <v>470</v>
+        <v>546</v>
       </c>
       <c r="D6" t="s">
-        <v>471</v>
+        <v>547</v>
       </c>
       <c r="E6" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F6" t="s">
-        <v>472</v>
+        <v>548</v>
       </c>
       <c r="G6" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>549</v>
+      </c>
+      <c r="H6" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>474</v>
+        <v>551</v>
       </c>
       <c r="B7" t="s">
-        <v>475</v>
+        <v>552</v>
       </c>
       <c r="C7" t="s">
-        <v>476</v>
+        <v>553</v>
       </c>
       <c r="D7" t="s">
-        <v>477</v>
+        <v>554</v>
       </c>
       <c r="E7" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F7" t="s">
-        <v>478</v>
+        <v>555</v>
       </c>
       <c r="G7" t="s">
-        <v>479</v>
+        <v>556</v>
+      </c>
+      <c r="H7" t="s">
+        <v>557</v>
       </c>
     </row>
   </sheetData>

--- a/AdofaiTweaks.Generator/translations.xlsx
+++ b/AdofaiTweaks.Generator/translations.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="588">
   <si>
     <t>KEY</t>
   </si>
@@ -1717,22 +1717,19 @@
     <t>限制判定</t>
   </si>
   <si>
-    <t>Kills the player on certain judgments.</t>
-  </si>
-  <si>
-    <t>특정 판정에서 플레이어를 죽입니다.</t>
-  </si>
-  <si>
-    <t>Mata al jugador en si hace un juicio específico.</t>
-  </si>
-  <si>
-    <t>Tue le joueur dans certain jugements.</t>
-  </si>
-  <si>
-    <t>Làm bạn thua khi phạm lỗi sai nhất định.</t>
-  </si>
-  <si>
-    <t>根据某些判定结束游戏</t>
+    <t>Punishes player upon specified judgments.</t>
+  </si>
+  <si>
+    <t>특정 판정에서 플레이어를 제한합니다.</t>
+  </si>
+  <si>
+    <t>RESTRICT_HEADER</t>
+  </si>
+  <si>
+    <t>Restrict following judgments:</t>
+  </si>
+  <si>
+    <t>제한할 판정 목록:</t>
   </si>
   <si>
     <t>RESTRICT</t>
@@ -1751,6 +1748,24 @@
   </si>
   <si>
     <t>Giới hạn lỗi: "{0}"</t>
+  </si>
+  <si>
+    <t>CUSTOM_HEADER</t>
+  </si>
+  <si>
+    <t>Restrict Action:</t>
+  </si>
+  <si>
+    <t>플레이어 제한 행동:</t>
+  </si>
+  <si>
+    <t>RESTRICT_ACTION</t>
+  </si>
+  <si>
+    <t>Restriction Method:</t>
+  </si>
+  <si>
+    <t>제한 방식:</t>
   </si>
   <si>
     <t>CUSTOM_DEATH</t>
@@ -2220,7 +2235,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2288,72 +2303,90 @@
       <c r="C3" t="s">
         <v>565</v>
       </c>
-      <c r="D3" t="s">
-        <v>566</v>
-      </c>
-      <c r="E3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F3" t="s">
-        <v>567</v>
-      </c>
-      <c r="G3" t="s">
-        <v>568</v>
-      </c>
-      <c r="H3" t="s">
-        <v>569</v>
-      </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B4" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="C4" t="s">
-        <v>572</v>
-      </c>
-      <c r="D4" t="s">
-        <v>573</v>
-      </c>
-      <c r="E4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F4" t="s">
-        <v>574</v>
-      </c>
-      <c r="G4" t="s">
-        <v>575</v>
-      </c>
-      <c r="H4" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
+        <v>569</v>
+      </c>
+      <c r="B5" t="s">
+        <v>570</v>
+      </c>
+      <c r="C5" t="s">
+        <v>571</v>
+      </c>
+      <c r="D5" t="s">
+        <v>572</v>
+      </c>
+      <c r="E5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F5" t="s">
+        <v>573</v>
+      </c>
+      <c r="G5" t="s">
+        <v>574</v>
+      </c>
+      <c r="H5" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>575</v>
+      </c>
+      <c r="B6" t="s">
         <v>576</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C6" t="s">
         <v>577</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
         <v>578</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B7" t="s">
         <v>579</v>
       </c>
-      <c r="E5" t="s">
-        <v>108</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="C7" t="s">
         <v>580</v>
       </c>
-      <c r="G5" t="s">
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
         <v>581</v>
       </c>
-      <c r="H5" t="s">
+      <c r="B8" t="s">
         <v>582</v>
+      </c>
+      <c r="C8" t="s">
+        <v>583</v>
+      </c>
+      <c r="D8" t="s">
+        <v>584</v>
+      </c>
+      <c r="E8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" t="s">
+        <v>585</v>
+      </c>
+      <c r="G8" t="s">
+        <v>586</v>
+      </c>
+      <c r="H8" t="s">
+        <v>587</v>
       </c>
     </row>
   </sheetData>

--- a/AdofaiTweaks.Generator/translations.xlsx
+++ b/AdofaiTweaks.Generator/translations.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="727">
   <si>
     <t>Translation Status</t>
   </si>
@@ -104,9 +104,6 @@
     <t>75% (2 left)</t>
   </si>
   <si>
-    <t>87.5% (1 left)</t>
-  </si>
-  <si>
     <t>PlanetColor</t>
   </si>
   <si>
@@ -1853,7 +1850,7 @@
     <t>使用静态音量而不是倍增器</t>
   </si>
   <si>
-    <t>Nutze statische Hitsoundlautstörke statt einen Multiplikator</t>
+    <t>Nutze stetische Hitsoundlautstärke statt einen Multiplikator</t>
   </si>
   <si>
     <t>HITSOUND_IGNORE_STARTING_VALUE</t>
@@ -1874,6 +1871,9 @@
     <t>忽略起始音量</t>
   </si>
   <si>
+    <t>Ignoriert den ersten Hitsound</t>
+  </si>
+  <si>
     <t>Planet Color</t>
   </si>
   <si>
@@ -2144,7 +2144,7 @@
     <t>I_RESTRICT_ACTION.NoRegister</t>
   </si>
   <si>
-    <t>Treat the judgment just like miss judgment</t>
+    <t>Treat the judgment like a too early/late judgment</t>
   </si>
   <si>
     <t>놓침 판정처럼 처리하기</t>
@@ -2776,12 +2776,12 @@
         <v>11</v>
       </c>
       <c r="I9" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -2793,7 +2793,7 @@
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
@@ -2810,7 +2810,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -2822,19 +2822,19 @@
         <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H11" t="s">
         <v>11</v>
       </c>
       <c r="I11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2852,36 +2852,36 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>37</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>38</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>39</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>40</v>
-      </c>
-      <c r="I1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
         <v>616</v>
@@ -2893,7 +2893,7 @@
         <v>618</v>
       </c>
       <c r="E2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F2" t="s">
         <v>619</v>
@@ -2910,7 +2910,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
         <v>623</v>
@@ -2922,7 +2922,7 @@
         <v>625</v>
       </c>
       <c r="E3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F3" t="s">
         <v>626</v>
@@ -2939,7 +2939,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B4" t="s">
         <v>630</v>
@@ -2951,10 +2951,10 @@
         <v>632</v>
       </c>
       <c r="E4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G4" t="s">
         <v>633</v>
@@ -2968,7 +2968,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B5" t="s">
         <v>635</v>
@@ -2980,10 +2980,10 @@
         <v>637</v>
       </c>
       <c r="E5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G5" t="s">
         <v>638</v>
@@ -3009,7 +3009,7 @@
         <v>643</v>
       </c>
       <c r="E6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F6" t="s">
         <v>644</v>
@@ -3038,7 +3038,7 @@
         <v>651</v>
       </c>
       <c r="E7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F7" t="s">
         <v>652</v>
@@ -3068,36 +3068,36 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>37</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>38</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>39</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>40</v>
-      </c>
-      <c r="I1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
         <v>656</v>
@@ -3109,7 +3109,7 @@
         <v>658</v>
       </c>
       <c r="E2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F2" t="s">
         <v>659</v>
@@ -3126,7 +3126,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
         <v>663</v>
@@ -3138,13 +3138,13 @@
         <v>665</v>
       </c>
       <c r="E3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F3" t="s">
         <v>666</v>
       </c>
       <c r="G3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H3" t="s">
         <v>667</v>
@@ -3167,13 +3167,13 @@
         <v>672</v>
       </c>
       <c r="E4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F4" t="s">
         <v>673</v>
       </c>
       <c r="G4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H4" t="s">
         <v>674</v>
@@ -3196,7 +3196,7 @@
         <v>679</v>
       </c>
       <c r="E5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F5" t="s">
         <v>680</v>
@@ -3225,13 +3225,13 @@
         <v>687</v>
       </c>
       <c r="E6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F6" t="s">
         <v>688</v>
       </c>
       <c r="G6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H6" t="s">
         <v>689</v>
@@ -3254,13 +3254,13 @@
         <v>694</v>
       </c>
       <c r="E7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F7" t="s">
         <v>695</v>
       </c>
       <c r="G7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H7" t="s">
         <v>696</v>
@@ -3283,13 +3283,13 @@
         <v>701</v>
       </c>
       <c r="E8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F8" t="s">
         <v>702</v>
       </c>
       <c r="G8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H8" t="s">
         <v>703</v>
@@ -3312,13 +3312,13 @@
         <v>708</v>
       </c>
       <c r="E9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F9" t="s">
         <v>709</v>
       </c>
       <c r="G9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H9" t="s">
         <v>710</v>
@@ -3347,7 +3347,7 @@
         <v>717</v>
       </c>
       <c r="G10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H10" t="s">
         <v>718</v>
@@ -3370,7 +3370,7 @@
         <v>723</v>
       </c>
       <c r="E11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F11" t="s">
         <v>724</v>
@@ -3397,147 +3397,147 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>37</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>38</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>39</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>40</v>
-      </c>
-      <c r="I1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
         <v>42</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>43</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>44</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>45</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>46</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>47</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>48</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>49</v>
-      </c>
-      <c r="I2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
         <v>43</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>44</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>45</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>46</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>47</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>48</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>49</v>
-      </c>
-      <c r="I3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
         <v>52</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>53</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>54</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>55</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>56</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>57</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>58</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>59</v>
-      </c>
-      <c r="I4" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
       <c r="C5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" t="s">
         <v>62</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>63</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>64</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>65</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>66</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>67</v>
-      </c>
-      <c r="I5" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -3555,350 +3555,350 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>37</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>38</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>39</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>40</v>
-      </c>
-      <c r="I1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
         <v>69</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>70</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>71</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>72</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>73</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>74</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>75</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>76</v>
-      </c>
-      <c r="I2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" t="s">
         <v>78</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>79</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>80</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>81</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>82</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>83</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>84</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>85</v>
-      </c>
-      <c r="I3" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" t="s">
         <v>87</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>88</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>89</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>90</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>91</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>92</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>93</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>94</v>
-      </c>
-      <c r="I4" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" t="s">
         <v>96</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>97</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>98</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>99</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>100</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>101</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>102</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>103</v>
-      </c>
-      <c r="I5" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" t="s">
         <v>105</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>106</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>107</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>108</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>109</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>110</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>111</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>112</v>
-      </c>
-      <c r="I6" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" t="s">
         <v>114</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>115</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>116</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>117</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>118</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>119</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>120</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>121</v>
-      </c>
-      <c r="I7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" t="s">
         <v>123</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>124</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>125</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>126</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>127</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>128</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>129</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>130</v>
-      </c>
-      <c r="I8" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" t="s">
         <v>132</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>133</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>134</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>135</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>136</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>137</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>138</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>139</v>
-      </c>
-      <c r="I9" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" t="s">
         <v>141</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>142</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>143</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>144</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>145</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>146</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>147</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>148</v>
-      </c>
-      <c r="I10" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" t="s">
         <v>150</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>151</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>152</v>
       </c>
-      <c r="D11" t="s">
-        <v>153</v>
-      </c>
       <c r="E11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F11" t="s">
         <v>154</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
+        <v>153</v>
+      </c>
+      <c r="H11" t="s">
         <v>155</v>
       </c>
-      <c r="G11" t="s">
-        <v>154</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>156</v>
-      </c>
-      <c r="I11" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B12" t="s">
         <v>158</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>159</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>160</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
+        <v>153</v>
+      </c>
+      <c r="F12" t="s">
         <v>161</v>
       </c>
-      <c r="E12" t="s">
-        <v>154</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
+        <v>153</v>
+      </c>
+      <c r="H12" t="s">
         <v>162</v>
       </c>
-      <c r="G12" t="s">
-        <v>154</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>163</v>
-      </c>
-      <c r="I12" t="s">
-        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -3916,263 +3916,263 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>37</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>38</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>39</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>40</v>
-      </c>
-      <c r="I1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" t="s">
         <v>165</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>166</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>167</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>168</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>169</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>170</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>171</v>
-      </c>
-      <c r="I2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" t="s">
         <v>173</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>174</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>175</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>176</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>177</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>178</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>179</v>
-      </c>
-      <c r="I3" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B4" t="s">
         <v>181</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>182</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>183</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>184</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>185</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>186</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>187</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>188</v>
-      </c>
-      <c r="I4" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B5" t="s">
         <v>190</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>191</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>192</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>193</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>194</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>195</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>196</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>197</v>
-      </c>
-      <c r="I5" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B6" t="s">
         <v>199</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>200</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>201</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>202</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>203</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>204</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>205</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>206</v>
-      </c>
-      <c r="I6" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
+        <v>207</v>
+      </c>
+      <c r="B7" t="s">
         <v>208</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>209</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>210</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>211</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>212</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>213</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>214</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>215</v>
-      </c>
-      <c r="I7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
+        <v>216</v>
+      </c>
+      <c r="B8" t="s">
         <v>217</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>218</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>219</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>220</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>221</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>222</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>223</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>224</v>
-      </c>
-      <c r="I8" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
+        <v>225</v>
+      </c>
+      <c r="B9" t="s">
         <v>226</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>227</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>228</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>229</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>230</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>231</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>232</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>233</v>
-      </c>
-      <c r="I9" t="s">
-        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -4190,370 +4190,370 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>37</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>38</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>39</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>40</v>
-      </c>
-      <c r="I1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C2" t="s">
         <v>235</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>236</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>237</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>238</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>239</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>240</v>
-      </c>
-      <c r="H2" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C3" t="s">
         <v>242</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>243</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" t="s">
         <v>244</v>
       </c>
-      <c r="E3" t="s">
-        <v>154</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>245</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>246</v>
-      </c>
-      <c r="H3" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B4" t="s">
         <v>248</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>249</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>250</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F4" t="s">
         <v>251</v>
       </c>
-      <c r="E4" t="s">
-        <v>154</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>252</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>253</v>
-      </c>
-      <c r="H4" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B5" t="s">
         <v>255</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>256</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>257</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>258</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>259</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>260</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>261</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>262</v>
-      </c>
-      <c r="I5" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
+        <v>263</v>
+      </c>
+      <c r="B6" t="s">
         <v>264</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>265</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>266</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>153</v>
+      </c>
+      <c r="F6" t="s">
         <v>267</v>
       </c>
-      <c r="E6" t="s">
-        <v>154</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>268</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>269</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>270</v>
-      </c>
-      <c r="I6" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
+        <v>271</v>
+      </c>
+      <c r="B7" t="s">
         <v>272</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>273</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>274</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>275</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>276</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>277</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>278</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>279</v>
-      </c>
-      <c r="I7" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
+        <v>280</v>
+      </c>
+      <c r="B8" t="s">
         <v>281</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>282</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>283</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>284</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>285</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>286</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>287</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>288</v>
-      </c>
-      <c r="I8" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
+        <v>289</v>
+      </c>
+      <c r="B9" t="s">
         <v>290</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>291</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>292</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>293</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>294</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>295</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>296</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>297</v>
-      </c>
-      <c r="I9" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
+        <v>298</v>
+      </c>
+      <c r="B10" t="s">
         <v>299</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>300</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>301</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>302</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>303</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>304</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>305</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>306</v>
-      </c>
-      <c r="I10" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
+        <v>307</v>
+      </c>
+      <c r="B11" t="s">
         <v>308</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>309</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>310</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>311</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>312</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>313</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>314</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>315</v>
-      </c>
-      <c r="I11" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
+        <v>316</v>
+      </c>
+      <c r="B12" t="s">
         <v>317</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>318</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>319</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
+        <v>153</v>
+      </c>
+      <c r="F12" t="s">
         <v>320</v>
       </c>
-      <c r="E12" t="s">
-        <v>154</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>321</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>322</v>
       </c>
-      <c r="H12" t="s">
-        <v>323</v>
-      </c>
       <c r="I12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
+        <v>323</v>
+      </c>
+      <c r="B13" t="s">
         <v>324</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>325</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>326</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
+        <v>153</v>
+      </c>
+      <c r="F13" t="s">
         <v>327</v>
       </c>
-      <c r="E13" t="s">
-        <v>154</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>328</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>329</v>
       </c>
-      <c r="H13" t="s">
-        <v>330</v>
-      </c>
       <c r="I13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -4571,680 +4571,680 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>37</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>38</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>39</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>40</v>
-      </c>
-      <c r="I1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C2" t="s">
         <v>331</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>332</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2" t="s">
         <v>333</v>
       </c>
-      <c r="E2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>334</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>335</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>336</v>
-      </c>
-      <c r="I2" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C3" t="s">
         <v>338</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>339</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" t="s">
         <v>340</v>
       </c>
-      <c r="E3" t="s">
-        <v>154</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>341</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>342</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>343</v>
-      </c>
-      <c r="I3" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B4" t="s">
         <v>345</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>346</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>347</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F4" t="s">
         <v>348</v>
       </c>
-      <c r="E4" t="s">
-        <v>154</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>349</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>350</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>351</v>
-      </c>
-      <c r="I4" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
+        <v>352</v>
+      </c>
+      <c r="B5" t="s">
         <v>353</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>354</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>355</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F5" t="s">
         <v>356</v>
       </c>
-      <c r="E5" t="s">
-        <v>154</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>357</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>358</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>359</v>
-      </c>
-      <c r="I5" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
+        <v>360</v>
+      </c>
+      <c r="B6" t="s">
         <v>361</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>362</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>363</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>153</v>
+      </c>
+      <c r="F6" t="s">
         <v>364</v>
       </c>
-      <c r="E6" t="s">
-        <v>154</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>365</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>366</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>367</v>
-      </c>
-      <c r="I6" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
+        <v>368</v>
+      </c>
+      <c r="B7" t="s">
         <v>369</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>370</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>371</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F7" t="s">
         <v>372</v>
       </c>
-      <c r="E7" t="s">
-        <v>154</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>373</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>374</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>375</v>
-      </c>
-      <c r="I7" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
+        <v>376</v>
+      </c>
+      <c r="B8" t="s">
         <v>377</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>378</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>379</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
+        <v>153</v>
+      </c>
+      <c r="F8" t="s">
         <v>380</v>
       </c>
-      <c r="E8" t="s">
-        <v>154</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>381</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>382</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>383</v>
-      </c>
-      <c r="I8" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
+        <v>384</v>
+      </c>
+      <c r="B9" t="s">
         <v>385</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>386</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>387</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
+        <v>153</v>
+      </c>
+      <c r="F9" t="s">
         <v>388</v>
       </c>
-      <c r="E9" t="s">
-        <v>154</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>389</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>390</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>391</v>
-      </c>
-      <c r="I9" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
+        <v>392</v>
+      </c>
+      <c r="B10" t="s">
         <v>393</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>256</v>
+      </c>
+      <c r="D10" t="s">
         <v>394</v>
       </c>
-      <c r="C10" t="s">
-        <v>257</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
+        <v>153</v>
+      </c>
+      <c r="F10" t="s">
+        <v>259</v>
+      </c>
+      <c r="G10" t="s">
         <v>395</v>
       </c>
-      <c r="E10" t="s">
-        <v>154</v>
-      </c>
-      <c r="F10" t="s">
-        <v>260</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>396</v>
       </c>
-      <c r="H10" t="s">
-        <v>397</v>
-      </c>
       <c r="I10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B11" t="s">
+        <v>317</v>
+      </c>
+      <c r="C11" t="s">
         <v>318</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>319</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F11" t="s">
         <v>320</v>
       </c>
-      <c r="E11" t="s">
-        <v>154</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>321</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>322</v>
       </c>
-      <c r="H11" t="s">
-        <v>323</v>
-      </c>
       <c r="I11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B12" t="s">
+        <v>324</v>
+      </c>
+      <c r="C12" t="s">
         <v>325</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>326</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
+        <v>153</v>
+      </c>
+      <c r="F12" t="s">
         <v>327</v>
       </c>
-      <c r="E12" t="s">
-        <v>154</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>328</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>329</v>
       </c>
-      <c r="H12" t="s">
-        <v>330</v>
-      </c>
       <c r="I12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
+        <v>399</v>
+      </c>
+      <c r="B13" t="s">
         <v>400</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>401</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>402</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
+        <v>153</v>
+      </c>
+      <c r="F13" t="s">
         <v>403</v>
       </c>
-      <c r="E13" t="s">
-        <v>154</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>404</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>405</v>
-      </c>
-      <c r="H13" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
+        <v>406</v>
+      </c>
+      <c r="B14" t="s">
         <v>407</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>408</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>409</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
+        <v>153</v>
+      </c>
+      <c r="F14" t="s">
         <v>410</v>
       </c>
-      <c r="E14" t="s">
-        <v>154</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>411</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>412</v>
-      </c>
-      <c r="H14" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
+        <v>413</v>
+      </c>
+      <c r="B15" t="s">
         <v>414</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>415</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>416</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
+        <v>153</v>
+      </c>
+      <c r="F15" t="s">
         <v>417</v>
       </c>
-      <c r="E15" t="s">
-        <v>154</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>418</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>419</v>
-      </c>
-      <c r="H15" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
+        <v>420</v>
+      </c>
+      <c r="B16" t="s">
         <v>421</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>422</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>423</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
+        <v>153</v>
+      </c>
+      <c r="F16" t="s">
         <v>424</v>
       </c>
-      <c r="E16" t="s">
-        <v>154</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>425</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>426</v>
-      </c>
-      <c r="H16" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
+        <v>427</v>
+      </c>
+      <c r="B17" t="s">
         <v>428</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>429</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>430</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
+        <v>153</v>
+      </c>
+      <c r="F17" t="s">
         <v>431</v>
       </c>
-      <c r="E17" t="s">
-        <v>154</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>432</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>433</v>
-      </c>
-      <c r="H17" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
+        <v>434</v>
+      </c>
+      <c r="B18" t="s">
         <v>435</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>436</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>437</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
+        <v>153</v>
+      </c>
+      <c r="F18" t="s">
         <v>438</v>
       </c>
-      <c r="E18" t="s">
-        <v>154</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>439</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>440</v>
-      </c>
-      <c r="H18" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
+        <v>441</v>
+      </c>
+      <c r="B19" t="s">
         <v>442</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>443</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>444</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
+        <v>153</v>
+      </c>
+      <c r="F19" t="s">
         <v>445</v>
       </c>
-      <c r="E19" t="s">
-        <v>154</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>446</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>447</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>448</v>
-      </c>
-      <c r="I19" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
+        <v>449</v>
+      </c>
+      <c r="B20" t="s">
         <v>450</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>451</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>452</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
+        <v>153</v>
+      </c>
+      <c r="F20" t="s">
         <v>453</v>
       </c>
-      <c r="E20" t="s">
-        <v>154</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>454</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>455</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>456</v>
-      </c>
-      <c r="I20" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
+        <v>457</v>
+      </c>
+      <c r="B21" t="s">
         <v>458</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>459</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>460</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
+        <v>153</v>
+      </c>
+      <c r="F21" t="s">
         <v>461</v>
       </c>
-      <c r="E21" t="s">
-        <v>154</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>462</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>463</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>464</v>
-      </c>
-      <c r="I21" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
+        <v>465</v>
+      </c>
+      <c r="B22" t="s">
         <v>466</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>467</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>468</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
+        <v>153</v>
+      </c>
+      <c r="F22" t="s">
         <v>469</v>
       </c>
-      <c r="E22" t="s">
-        <v>154</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>470</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>471</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>472</v>
-      </c>
-      <c r="I22" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
+        <v>473</v>
+      </c>
+      <c r="B23" t="s">
         <v>474</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>475</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>476</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
+        <v>153</v>
+      </c>
+      <c r="F23" t="s">
         <v>477</v>
       </c>
-      <c r="E23" t="s">
-        <v>154</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>478</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>479</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>480</v>
-      </c>
-      <c r="I23" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
+        <v>481</v>
+      </c>
+      <c r="B24" t="s">
         <v>482</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>483</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>484</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
+        <v>153</v>
+      </c>
+      <c r="F24" t="s">
         <v>485</v>
       </c>
-      <c r="E24" t="s">
-        <v>154</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>486</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>487</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>488</v>
-      </c>
-      <c r="I24" t="s">
-        <v>489</v>
       </c>
     </row>
   </sheetData>
@@ -5262,260 +5262,260 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>37</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>38</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>39</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>40</v>
-      </c>
-      <c r="I1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C2" t="s">
         <v>490</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>491</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2" t="s">
         <v>492</v>
       </c>
-      <c r="E2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>493</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>494</v>
-      </c>
-      <c r="H2" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
+        <v>495</v>
+      </c>
+      <c r="C3" t="s">
         <v>496</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>497</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" t="s">
         <v>498</v>
       </c>
-      <c r="E3" t="s">
-        <v>154</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>499</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>500</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>501</v>
-      </c>
-      <c r="I3" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B4" t="s">
         <v>345</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>346</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>347</v>
       </c>
-      <c r="D4" t="s">
-        <v>348</v>
-      </c>
       <c r="E4" t="s">
+        <v>502</v>
+      </c>
+      <c r="F4" t="s">
         <v>503</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
+        <v>349</v>
+      </c>
+      <c r="H4" t="s">
+        <v>350</v>
+      </c>
+      <c r="I4" t="s">
         <v>504</v>
-      </c>
-      <c r="G4" t="s">
-        <v>350</v>
-      </c>
-      <c r="H4" t="s">
-        <v>351</v>
-      </c>
-      <c r="I4" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
+        <v>352</v>
+      </c>
+      <c r="B5" t="s">
         <v>353</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>354</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>355</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>505</v>
+      </c>
+      <c r="F5" t="s">
         <v>356</v>
       </c>
-      <c r="E5" t="s">
-        <v>506</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>357</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>358</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>359</v>
-      </c>
-      <c r="I5" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
+        <v>360</v>
+      </c>
+      <c r="B6" t="s">
         <v>361</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>362</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>363</v>
       </c>
-      <c r="D6" t="s">
-        <v>364</v>
-      </c>
       <c r="E6" t="s">
+        <v>506</v>
+      </c>
+      <c r="F6" t="s">
         <v>507</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>508</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
+        <v>366</v>
+      </c>
+      <c r="I6" t="s">
         <v>509</v>
-      </c>
-      <c r="H6" t="s">
-        <v>367</v>
-      </c>
-      <c r="I6" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
+        <v>368</v>
+      </c>
+      <c r="B7" t="s">
         <v>369</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>370</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>371</v>
       </c>
-      <c r="D7" t="s">
-        <v>372</v>
-      </c>
       <c r="E7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F7" t="s">
+        <v>510</v>
+      </c>
+      <c r="G7" t="s">
         <v>511</v>
       </c>
-      <c r="G7" t="s">
-        <v>512</v>
-      </c>
       <c r="H7" t="s">
+        <v>374</v>
+      </c>
+      <c r="I7" t="s">
         <v>375</v>
-      </c>
-      <c r="I7" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
+        <v>512</v>
+      </c>
+      <c r="B8" t="s">
         <v>513</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>514</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>515</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
+        <v>153</v>
+      </c>
+      <c r="F8" t="s">
         <v>516</v>
       </c>
-      <c r="E8" t="s">
-        <v>154</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>517</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>518</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>519</v>
-      </c>
-      <c r="I8" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
+        <v>520</v>
+      </c>
+      <c r="B9" t="s">
         <v>521</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>522</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>523</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
+        <v>153</v>
+      </c>
+      <c r="F9" t="s">
         <v>524</v>
       </c>
-      <c r="E9" t="s">
-        <v>154</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>525</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>526</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>527</v>
-      </c>
-      <c r="I9" t="s">
-        <v>528</v>
       </c>
     </row>
   </sheetData>
@@ -5533,147 +5533,147 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>37</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>38</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>39</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>40</v>
-      </c>
-      <c r="I1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
+        <v>528</v>
+      </c>
+      <c r="C2" t="s">
         <v>529</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>530</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2" t="s">
         <v>531</v>
       </c>
-      <c r="E2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>532</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>533</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>534</v>
-      </c>
-      <c r="I2" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
+        <v>535</v>
+      </c>
+      <c r="C3" t="s">
         <v>536</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>537</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" t="s">
         <v>538</v>
       </c>
-      <c r="E3" t="s">
-        <v>154</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>539</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>540</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>541</v>
-      </c>
-      <c r="I3" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
+        <v>542</v>
+      </c>
+      <c r="B4" t="s">
         <v>543</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>544</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>545</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F4" t="s">
         <v>546</v>
       </c>
-      <c r="E4" t="s">
-        <v>154</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>547</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>548</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>549</v>
-      </c>
-      <c r="I4" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
+        <v>550</v>
+      </c>
+      <c r="B5" t="s">
         <v>551</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>552</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>553</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F5" t="s">
         <v>554</v>
       </c>
-      <c r="E5" t="s">
-        <v>154</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>555</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>556</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>557</v>
-      </c>
-      <c r="I5" t="s">
-        <v>558</v>
       </c>
     </row>
   </sheetData>
@@ -5691,259 +5691,262 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>37</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>38</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>39</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>40</v>
-      </c>
-      <c r="I1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
       </c>
       <c r="C2" t="s">
+        <v>558</v>
+      </c>
+      <c r="D2" t="s">
         <v>559</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2" t="s">
         <v>560</v>
       </c>
-      <c r="E2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>561</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>562</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>563</v>
-      </c>
-      <c r="I2" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
+        <v>564</v>
+      </c>
+      <c r="C3" t="s">
         <v>565</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>566</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" t="s">
         <v>567</v>
       </c>
-      <c r="E3" t="s">
-        <v>154</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>568</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>569</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>570</v>
-      </c>
-      <c r="I3" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
+        <v>571</v>
+      </c>
+      <c r="B4" t="s">
         <v>572</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>573</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>574</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F4" t="s">
         <v>575</v>
       </c>
-      <c r="E4" t="s">
-        <v>154</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>576</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>577</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>578</v>
-      </c>
-      <c r="I4" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
+        <v>579</v>
+      </c>
+      <c r="B5" t="s">
         <v>580</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>581</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>582</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F5" t="s">
         <v>583</v>
       </c>
-      <c r="E5" t="s">
-        <v>154</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>584</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>585</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>586</v>
-      </c>
-      <c r="I5" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
+        <v>587</v>
+      </c>
+      <c r="B6" t="s">
         <v>588</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>589</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>590</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>153</v>
+      </c>
+      <c r="F6" t="s">
         <v>591</v>
       </c>
-      <c r="E6" t="s">
-        <v>154</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>592</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>593</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>594</v>
-      </c>
-      <c r="I6" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
+        <v>595</v>
+      </c>
+      <c r="B7" t="s">
         <v>596</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>597</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>598</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F7" t="s">
+        <v>596</v>
+      </c>
+      <c r="G7" t="s">
         <v>599</v>
       </c>
-      <c r="E7" t="s">
-        <v>154</v>
-      </c>
-      <c r="F7" t="s">
-        <v>597</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>600</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>601</v>
-      </c>
-      <c r="I7" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
+        <v>602</v>
+      </c>
+      <c r="B8" t="s">
         <v>603</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>604</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>605</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
+        <v>153</v>
+      </c>
+      <c r="F8" t="s">
         <v>606</v>
       </c>
-      <c r="E8" t="s">
-        <v>154</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
+        <v>153</v>
+      </c>
+      <c r="H8" t="s">
         <v>607</v>
       </c>
-      <c r="G8" t="s">
-        <v>154</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>608</v>
-      </c>
-      <c r="I8" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
+        <v>609</v>
+      </c>
+      <c r="B9" t="s">
         <v>610</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>611</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>612</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
+        <v>153</v>
+      </c>
+      <c r="F9" t="s">
         <v>613</v>
       </c>
-      <c r="E9" t="s">
-        <v>154</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
+        <v>153</v>
+      </c>
+      <c r="H9" t="s">
         <v>614</v>
       </c>
-      <c r="G9" t="s">
-        <v>154</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>615</v>
       </c>
     </row>

--- a/AdofaiTweaks.Generator/translations.xlsx
+++ b/AdofaiTweaks.Generator/translations.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="728">
   <si>
     <t>Translation Status</t>
   </si>
@@ -1913,31 +1913,37 @@
     <t>Stellt die Farbe der Planeten ein</t>
   </si>
   <si>
-    <t>Planet 1:</t>
-  </si>
-  <si>
-    <t>행성 1:</t>
-  </si>
-  <si>
-    <t>Planeta 1:</t>
-  </si>
-  <si>
-    <t>Hành tinh thứ nhất:</t>
+    <t>Planet 1</t>
+  </si>
+  <si>
+    <t>행성 1</t>
+  </si>
+  <si>
+    <t>Planeta 1</t>
+  </si>
+  <si>
+    <t>Planète 1</t>
+  </si>
+  <si>
+    <t>Hành tinh thứ nhất</t>
   </si>
   <si>
     <t>第一个球</t>
   </si>
   <si>
-    <t>Planet 2:</t>
-  </si>
-  <si>
-    <t>행성 2:</t>
-  </si>
-  <si>
-    <t>Planeta 2:</t>
-  </si>
-  <si>
-    <t>Hành tinh thứ hai:</t>
+    <t>Planet 2</t>
+  </si>
+  <si>
+    <t>행성 2</t>
+  </si>
+  <si>
+    <t>Planeta 2</t>
+  </si>
+  <si>
+    <t>Planète 2</t>
+  </si>
+  <si>
+    <t>Hành tinh thứ hai</t>
   </si>
   <si>
     <t>第二个球</t>
@@ -2951,13 +2957,13 @@
         <v>154</v>
       </c>
       <c r="F4" t="s">
-        <v>545</v>
+        <v>632</v>
       </c>
       <c r="G4" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H4" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="I4" t="s">
         <v>629</v>
@@ -2968,86 +2974,86 @@
         <v>549</v>
       </c>
       <c r="B5" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C5" t="s">
+        <v>636</v>
+      </c>
+      <c r="D5" t="s">
+        <v>637</v>
+      </c>
+      <c r="E5" t="s">
+        <v>154</v>
+      </c>
+      <c r="F5" t="s">
+        <v>638</v>
+      </c>
+      <c r="G5" t="s">
+        <v>639</v>
+      </c>
+      <c r="H5" t="s">
+        <v>640</v>
+      </c>
+      <c r="I5" t="s">
         <v>635</v>
-      </c>
-      <c r="D5" t="s">
-        <v>636</v>
-      </c>
-      <c r="E5" t="s">
-        <v>154</v>
-      </c>
-      <c r="F5" t="s">
-        <v>553</v>
-      </c>
-      <c r="G5" t="s">
-        <v>637</v>
-      </c>
-      <c r="H5" t="s">
-        <v>638</v>
-      </c>
-      <c r="I5" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B6" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="C6" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="D6" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="E6" t="s">
         <v>154</v>
       </c>
       <c r="F6" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="G6" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="H6" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="I6" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="B7" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="C7" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="D7" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="E7" t="s">
         <v>154</v>
       </c>
       <c r="F7" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="G7" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="H7" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="I7" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
   </sheetData>
@@ -3097,28 +3103,28 @@
         <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="C2" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="D2" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="E2" t="s">
         <v>154</v>
       </c>
       <c r="F2" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="G2" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="H2" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="I2" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3126,257 +3132,257 @@
         <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="C3" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="D3" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="E3" t="s">
         <v>154</v>
       </c>
       <c r="F3" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="G3" t="s">
         <v>154</v>
       </c>
       <c r="H3" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="I3" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="B4" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="C4" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="D4" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="E4" t="s">
         <v>154</v>
       </c>
       <c r="F4" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="G4" t="s">
         <v>154</v>
       </c>
       <c r="H4" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="I4" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="B5" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="C5" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="D5" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="E5" t="s">
         <v>154</v>
       </c>
       <c r="F5" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="G5" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="H5" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="I5" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="B6" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="C6" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="D6" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="E6" t="s">
         <v>154</v>
       </c>
       <c r="F6" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="G6" t="s">
         <v>154</v>
       </c>
       <c r="H6" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="I6" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B7" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="C7" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="D7" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="E7" t="s">
         <v>154</v>
       </c>
       <c r="F7" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="G7" t="s">
         <v>154</v>
       </c>
       <c r="H7" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="I7" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="B8" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="C8" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="D8" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="E8" t="s">
         <v>154</v>
       </c>
       <c r="F8" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="G8" t="s">
         <v>154</v>
       </c>
       <c r="H8" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="I8" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="B9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="C9" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="D9" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="E9" t="s">
         <v>154</v>
       </c>
       <c r="F9" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="G9" t="s">
         <v>154</v>
       </c>
       <c r="H9" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="I9" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="B10" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="C10" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="D10" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="E10" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="F10" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="G10" t="s">
         <v>154</v>
       </c>
       <c r="H10" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="I10" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="B11" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="C11" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="D11" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="E11" t="s">
         <v>154</v>
       </c>
       <c r="F11" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="G11" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="H11" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
     </row>
   </sheetData>

--- a/AdofaiTweaks.Generator/translations.xlsx
+++ b/AdofaiTweaks.Generator/translations.xlsx
@@ -14,9 +14,9 @@
     <sheet name="JudgmentVisuals" sheetId="5" r:id="rId5"/>
     <sheet name="KeyViewer" sheetId="6" r:id="rId6"/>
     <sheet name="KeyLimiter" sheetId="7" r:id="rId7"/>
-    <sheet name="PlanetOpacity" sheetId="8" r:id="rId8"/>
-    <sheet name="Miscellaneous" sheetId="9" r:id="rId9"/>
-    <sheet name="PlanetColor" sheetId="10" r:id="rId10"/>
+    <sheet name="Miscellaneous" sheetId="8" r:id="rId8"/>
+    <sheet name="PlanetColor" sheetId="9" r:id="rId9"/>
+    <sheet name="PlanetOpacity" sheetId="10" r:id="rId10"/>
     <sheet name="RestrictJudgments" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="718">
   <si>
     <t>Translation Status</t>
   </si>
@@ -95,7 +95,10 @@
     <t>PlanetOpacity</t>
   </si>
   <si>
-    <t>0% (4 left)</t>
+    <t>85.7% (1 left)</t>
+  </si>
+  <si>
+    <t>0% (7 left)</t>
   </si>
   <si>
     <t>Miscellaneous</t>
@@ -1505,6 +1508,9 @@
     <t>Réinitialiser le compte de touches appuyées</t>
   </si>
   <si>
+    <t>清除按键计数</t>
+  </si>
+  <si>
     <t>Key Limiter</t>
   </si>
   <si>
@@ -1607,6 +1613,312 @@
     <t>Schränkt Tasten im Hauptmenü ein</t>
   </si>
   <si>
+    <t>기타 기능들</t>
+  </si>
+  <si>
+    <t>Misceláneo</t>
+  </si>
+  <si>
+    <t>Divers</t>
+  </si>
+  <si>
+    <t>Cài đặt khác</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>Sonstiges</t>
+  </si>
+  <si>
+    <t>Tweaks that do not belong in any particular section.</t>
+  </si>
+  <si>
+    <t>분류되지 않은 기능들입니다.</t>
+  </si>
+  <si>
+    <t>Funciones que no pertenecen a ninguna sección en particular.</t>
+  </si>
+  <si>
+    <t>Des tweaks qui ne se rangent pas dans les autres catégories.</t>
+  </si>
+  <si>
+    <t>Các cài đặt không thuộc vào bất kì phần cụ thể nào.</t>
+  </si>
+  <si>
+    <t>不属于任何特定节的调整。</t>
+  </si>
+  <si>
+    <t>Einstellungen, die nicht in eine bestimmte Kategorie gehören</t>
+  </si>
+  <si>
+    <t>GLITCH_FLIP</t>
+  </si>
+  <si>
+    <t>Disable screen flip for "{0}" filter</t>
+  </si>
+  <si>
+    <t>"{0}" 필터에서의 화면 뒤집힘 방지하기</t>
+  </si>
+  <si>
+    <t>Desactivar los giros de pantalla para el filtro "{0}"</t>
+  </si>
+  <si>
+    <t>Désactive le retournement d'écran pour le filtre "{0}"</t>
+  </si>
+  <si>
+    <t>Vô hiệu hoá xoay màn hình cho hiệu ứng "{0}"</t>
+  </si>
+  <si>
+    <t>禁用“{0}”筛选器的屏幕翻转</t>
+  </si>
+  <si>
+    <t>Deaktiviere das umdrehen des Bildschirms des "{0} Filters</t>
+  </si>
+  <si>
+    <t>EDITOR_ZOOM</t>
+  </si>
+  <si>
+    <t>Disable editor zoom in/out when in gameplay</t>
+  </si>
+  <si>
+    <t>레벨을 플레이하는 도중 마우스 휠 사용으로 인한 카메라 움직임 방지하기</t>
+  </si>
+  <si>
+    <t>Desactivar el zoom del editor cuando estás jugando</t>
+  </si>
+  <si>
+    <t>Désactive le zoom en avant/en arrière de l'éditeur pendant la partie</t>
+  </si>
+  <si>
+    <t>Vô hiệu hoá phóng to / thu nhỏ khi chơi</t>
+  </si>
+  <si>
+    <t>在游戏中禁用编辑器放大/缩小</t>
+  </si>
+  <si>
+    <t>Deaktiviere rein/raus zoomen wärend dem gameplay</t>
+  </si>
+  <si>
+    <t>SET_HITSOUND_VOLUME</t>
+  </si>
+  <si>
+    <t>Set the overall hitsound volume</t>
+  </si>
+  <si>
+    <t>전체적인 힛사운드 음량 조정하기</t>
+  </si>
+  <si>
+    <t>Seleccionar el volumen del sonido de los golpes general:</t>
+  </si>
+  <si>
+    <t>Choisir le volume du hitsound</t>
+  </si>
+  <si>
+    <t>Chỉnh âm lượng "hitsound"</t>
+  </si>
+  <si>
+    <t>设置总音量</t>
+  </si>
+  <si>
+    <t>Stelle die Gesamtlaustärke ein</t>
+  </si>
+  <si>
+    <t>CURRENT_HITSOUND_VOLUME</t>
+  </si>
+  <si>
+    <t>Volume:</t>
+  </si>
+  <si>
+    <t>음량:</t>
+  </si>
+  <si>
+    <t>Volumen:</t>
+  </si>
+  <si>
+    <t>Âm lượng:</t>
+  </si>
+  <si>
+    <t>音量</t>
+  </si>
+  <si>
+    <t>Lautstärke:</t>
+  </si>
+  <si>
+    <t>HITSOUND_FORCE_VOLUME</t>
+  </si>
+  <si>
+    <t>Use static hitsound volume instead of multiplier</t>
+  </si>
+  <si>
+    <t>힛사운드 음량을 비율 대신 값으로 설정하기</t>
+  </si>
+  <si>
+    <t>Usar volumen estático para el sonido de los golpes en vez de un multiplicador</t>
+  </si>
+  <si>
+    <t>Utiliser un volume de hitsound statique au lieu d'un multiplieur</t>
+  </si>
+  <si>
+    <t>使用静态音量而不是倍增器</t>
+  </si>
+  <si>
+    <t>Nutze stetische Hitsoundlautstärke statt einen Multiplikator</t>
+  </si>
+  <si>
+    <t>HITSOUND_IGNORE_STARTING_VALUE</t>
+  </si>
+  <si>
+    <t>Ignore the starting hitsound volume</t>
+  </si>
+  <si>
+    <t>시작할 때 힛사운드 음량 무시</t>
+  </si>
+  <si>
+    <t>Ignorar el volumen del sonido de los golpes al inicio</t>
+  </si>
+  <si>
+    <t>Ignorer le volume de démarrage de l'hitsound</t>
+  </si>
+  <si>
+    <t>忽略起始音量</t>
+  </si>
+  <si>
+    <t>Ignoriert den ersten Hitsound</t>
+  </si>
+  <si>
+    <t>Planet Color</t>
+  </si>
+  <si>
+    <t>행성 색상</t>
+  </si>
+  <si>
+    <t>Color de planetas</t>
+  </si>
+  <si>
+    <t>Couleur des Planètes</t>
+  </si>
+  <si>
+    <t>Màu của các hành tinh</t>
+  </si>
+  <si>
+    <t>球球的颜色</t>
+  </si>
+  <si>
+    <t>Planetfarbe</t>
+  </si>
+  <si>
+    <t>Sets the color of the planets.</t>
+  </si>
+  <si>
+    <t>행성의 색상을 설정합니다.</t>
+  </si>
+  <si>
+    <t>Cambia el color de los planetas.</t>
+  </si>
+  <si>
+    <t>Choisir la couleur des planètes.</t>
+  </si>
+  <si>
+    <t>Thay đổi màu dành cho từng hành tinh.</t>
+  </si>
+  <si>
+    <t>设置球球的颜色</t>
+  </si>
+  <si>
+    <t>Stellt die Farbe der Planeten ein</t>
+  </si>
+  <si>
+    <t>PLANET_ONE</t>
+  </si>
+  <si>
+    <t>Planet 1</t>
+  </si>
+  <si>
+    <t>행성 1</t>
+  </si>
+  <si>
+    <t>Planeta 1</t>
+  </si>
+  <si>
+    <t>Planète 1</t>
+  </si>
+  <si>
+    <t>Hành tinh thứ nhất</t>
+  </si>
+  <si>
+    <t>第一个球</t>
+  </si>
+  <si>
+    <t>PLANET_TWO</t>
+  </si>
+  <si>
+    <t>Planet 2</t>
+  </si>
+  <si>
+    <t>행성 2</t>
+  </si>
+  <si>
+    <t>Planeta 2</t>
+  </si>
+  <si>
+    <t>Planète 2</t>
+  </si>
+  <si>
+    <t>Hành tinh thứ hai</t>
+  </si>
+  <si>
+    <t>第二个球</t>
+  </si>
+  <si>
+    <t>BODY</t>
+  </si>
+  <si>
+    <t>Body:</t>
+  </si>
+  <si>
+    <t>행성:</t>
+  </si>
+  <si>
+    <t>Cuerpo:</t>
+  </si>
+  <si>
+    <t>Corps:</t>
+  </si>
+  <si>
+    <t>Thân:</t>
+  </si>
+  <si>
+    <t>球求本体</t>
+  </si>
+  <si>
+    <t>Körper</t>
+  </si>
+  <si>
+    <t>TAIL</t>
+  </si>
+  <si>
+    <t>Tail:</t>
+  </si>
+  <si>
+    <t>꼬리 파티클:</t>
+  </si>
+  <si>
+    <t>Cola:</t>
+  </si>
+  <si>
+    <t>Traînée:</t>
+  </si>
+  <si>
+    <t>Đuôi:</t>
+  </si>
+  <si>
+    <t>球球尾部</t>
+  </si>
+  <si>
+    <t>Schweif</t>
+  </si>
+  <si>
     <t>Planet Opacity</t>
   </si>
   <si>
@@ -1649,352 +1961,10 @@
     <t>Bestimmt die Deckraft der Planeten</t>
   </si>
   <si>
-    <t>PLANET_ONE</t>
-  </si>
-  <si>
-    <t>Planet 1 Opacity:</t>
-  </si>
-  <si>
-    <t>행성 1 불투명도:</t>
-  </si>
-  <si>
-    <t>Opacidad del planeta 1:</t>
-  </si>
-  <si>
-    <t>Planète 1:</t>
-  </si>
-  <si>
-    <t>Độ trong suốt của hành tinh thứ nhất:</t>
-  </si>
-  <si>
-    <t>第一个球的不透明度</t>
-  </si>
-  <si>
-    <t>Planet 1 Deckkraft:</t>
-  </si>
-  <si>
-    <t>PLANET_TWO</t>
-  </si>
-  <si>
-    <t>Planet 2 Opacity:</t>
-  </si>
-  <si>
-    <t>행성 2 불투명도:</t>
-  </si>
-  <si>
-    <t>Opacidad del planeta 2:</t>
-  </si>
-  <si>
-    <t>Planète 2:</t>
-  </si>
-  <si>
-    <t>Độ trong suốt của hành tinh thứ hai:</t>
-  </si>
-  <si>
-    <t>第二个球的不透明度</t>
-  </si>
-  <si>
-    <t>Planet 2 Deckkraft:</t>
-  </si>
-  <si>
-    <t>기타 기능들</t>
-  </si>
-  <si>
-    <t>Misceláneo</t>
-  </si>
-  <si>
-    <t>Divers</t>
-  </si>
-  <si>
-    <t>Cài đặt khác</t>
-  </si>
-  <si>
-    <t>其他</t>
-  </si>
-  <si>
-    <t>Sonstiges</t>
-  </si>
-  <si>
-    <t>Tweaks that do not belong in any particular section.</t>
-  </si>
-  <si>
-    <t>분류되지 않은 기능들입니다.</t>
-  </si>
-  <si>
-    <t>Funciones que no pertenecen a ninguna sección en particular.</t>
-  </si>
-  <si>
-    <t>Des tweaks qui ne se rangent pas dans les autres catégories.</t>
-  </si>
-  <si>
-    <t>Các cài đặt không thuộc vào bất kì phần cụ thể nào.</t>
-  </si>
-  <si>
-    <t>不属于任何特定节的调整。</t>
-  </si>
-  <si>
-    <t>Einstellungen, die nicht in eine bestimmte Kategorie gehören</t>
-  </si>
-  <si>
-    <t>GLITCH_FLIP</t>
-  </si>
-  <si>
-    <t>Disable screen flip for "{0}" filter</t>
-  </si>
-  <si>
-    <t>"{0}" 필터에서의 화면 뒤집힘 방지하기</t>
-  </si>
-  <si>
-    <t>Desactivar los giros de pantalla para el filtro "{0}"</t>
-  </si>
-  <si>
-    <t>Désactive le retournement d'écran pour le filtre "{0}"</t>
-  </si>
-  <si>
-    <t>Vô hiệu hoá xoay màn hình cho hiệu ứng "{0}"</t>
-  </si>
-  <si>
-    <t>禁用“{0}”筛选器的屏幕翻转</t>
-  </si>
-  <si>
-    <t>Deaktiviere das umdrehen des Bildschirms des "{0} Filters</t>
-  </si>
-  <si>
-    <t>EDITOR_ZOOM</t>
-  </si>
-  <si>
-    <t>Disable editor zoom in/out when in gameplay</t>
-  </si>
-  <si>
-    <t>레벨을 플레이하는 도중 마우스 휠 사용으로 인한 카메라 움직임 방지하기</t>
-  </si>
-  <si>
-    <t>Desactivar el zoom del editor cuando estás jugando</t>
-  </si>
-  <si>
-    <t>Désactive le zoom en avant/en arrière de l'éditeur pendant la partie</t>
-  </si>
-  <si>
-    <t>Vô hiệu hoá phóng to / thu nhỏ khi chơi</t>
-  </si>
-  <si>
-    <t>在游戏中禁用编辑器放大/缩小</t>
-  </si>
-  <si>
-    <t>Deaktiviere rein/raus zoomen wärend dem gameplay</t>
-  </si>
-  <si>
-    <t>SET_HITSOUND_VOLUME</t>
-  </si>
-  <si>
-    <t>Set the overall hitsound volume</t>
-  </si>
-  <si>
-    <t>전체적인 힛사운드 음량 조정하기</t>
-  </si>
-  <si>
-    <t>Seleccionar el volumen del sonido de los golpes general:</t>
-  </si>
-  <si>
-    <t>Choisir le volume du hitsound</t>
-  </si>
-  <si>
-    <t>Chỉnh âm lượng "hitsound"</t>
-  </si>
-  <si>
-    <t>设置总音量</t>
-  </si>
-  <si>
-    <t>Stelle die Gesamtlaustärke ein</t>
-  </si>
-  <si>
-    <t>CURRENT_HITSOUND_VOLUME</t>
-  </si>
-  <si>
-    <t>Volume:</t>
-  </si>
-  <si>
-    <t>음량:</t>
-  </si>
-  <si>
-    <t>Volumen:</t>
-  </si>
-  <si>
-    <t>Âm lượng:</t>
-  </si>
-  <si>
-    <t>音量</t>
-  </si>
-  <si>
-    <t>Lautstärke:</t>
-  </si>
-  <si>
-    <t>HITSOUND_FORCE_VOLUME</t>
-  </si>
-  <si>
-    <t>Use static hitsound volume instead of multiplier</t>
-  </si>
-  <si>
-    <t>힛사운드 음량을 비율 대신 값으로 설정하기</t>
-  </si>
-  <si>
-    <t>Usar volumen estático para el sonido de los golpes en vez de un multiplicador</t>
-  </si>
-  <si>
-    <t>Utiliser un volume de hitsound statique au lieu d'un multiplieur</t>
-  </si>
-  <si>
-    <t>使用静态音量而不是倍增器</t>
-  </si>
-  <si>
-    <t>Nutze stetische Hitsoundlautstärke statt einen Multiplikator</t>
-  </si>
-  <si>
-    <t>HITSOUND_IGNORE_STARTING_VALUE</t>
-  </si>
-  <si>
-    <t>Ignore the starting hitsound volume</t>
-  </si>
-  <si>
-    <t>시작할 때 힛사운드 음량 무시</t>
-  </si>
-  <si>
-    <t>Ignorar el volumen del sonido de los golpes al inicio</t>
-  </si>
-  <si>
-    <t>Ignorer le volume de démarrage de l'hitsound</t>
-  </si>
-  <si>
-    <t>忽略起始音量</t>
-  </si>
-  <si>
-    <t>Ignoriert den ersten Hitsound</t>
-  </si>
-  <si>
-    <t>Planet Color</t>
-  </si>
-  <si>
-    <t>행성 색상</t>
-  </si>
-  <si>
-    <t>Color de planetas</t>
-  </si>
-  <si>
-    <t>Couleur des Planètes</t>
-  </si>
-  <si>
-    <t>Màu của các hành tinh</t>
-  </si>
-  <si>
-    <t>球球的颜色</t>
-  </si>
-  <si>
-    <t>Planetfarbe</t>
-  </si>
-  <si>
-    <t>Sets the color of the planets.</t>
-  </si>
-  <si>
-    <t>행성의 색상을 설정합니다.</t>
-  </si>
-  <si>
-    <t>Cambia el color de los planetas.</t>
-  </si>
-  <si>
-    <t>Choisir la couleur des planètes.</t>
-  </si>
-  <si>
-    <t>Thay đổi màu dành cho từng hành tinh.</t>
-  </si>
-  <si>
-    <t>设置球球的颜色</t>
-  </si>
-  <si>
-    <t>Stellt die Farbe der Planeten ein</t>
-  </si>
-  <si>
-    <t>Planet 1</t>
-  </si>
-  <si>
-    <t>행성 1</t>
-  </si>
-  <si>
-    <t>Planeta 1</t>
-  </si>
-  <si>
-    <t>Planète 1</t>
-  </si>
-  <si>
-    <t>Hành tinh thứ nhất</t>
-  </si>
-  <si>
-    <t>第一个球</t>
-  </si>
-  <si>
-    <t>Planet 2</t>
-  </si>
-  <si>
-    <t>행성 2</t>
-  </si>
-  <si>
-    <t>Planeta 2</t>
-  </si>
-  <si>
-    <t>Planète 2</t>
-  </si>
-  <si>
-    <t>Hành tinh thứ hai</t>
-  </si>
-  <si>
-    <t>第二个球</t>
-  </si>
-  <si>
-    <t>BODY</t>
-  </si>
-  <si>
-    <t>Body:</t>
-  </si>
-  <si>
-    <t>행성:</t>
-  </si>
-  <si>
-    <t>Cuerpo:</t>
-  </si>
-  <si>
-    <t>Corps:</t>
-  </si>
-  <si>
-    <t>Thân:</t>
-  </si>
-  <si>
-    <t>球求本体</t>
-  </si>
-  <si>
-    <t>Körper</t>
-  </si>
-  <si>
-    <t>TAIL</t>
-  </si>
-  <si>
-    <t>Tail:</t>
-  </si>
-  <si>
-    <t>꼬리 파티클:</t>
-  </si>
-  <si>
-    <t>Cola:</t>
-  </si>
-  <si>
-    <t>Traînée:</t>
-  </si>
-  <si>
-    <t>Đuôi:</t>
-  </si>
-  <si>
-    <t>球球尾部</t>
-  </si>
-  <si>
-    <t>Schweif</t>
+    <t>RING</t>
+  </si>
+  <si>
+    <t>Ring:</t>
   </si>
   <si>
     <t>Restrict Judgments</t>
@@ -2718,7 +2688,7 @@
         <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="I7" t="s">
         <v>21</v>
@@ -2732,30 +2702,30 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
         <v>23</v>
       </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="I8" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -2767,13 +2737,13 @@
         <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H9" t="s">
         <v>11</v>
@@ -2784,7 +2754,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -2796,7 +2766,7 @@
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
@@ -2813,7 +2783,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -2825,19 +2795,19 @@
         <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H11" t="s">
         <v>11</v>
       </c>
       <c r="I11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2847,7 +2817,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2855,205 +2825,213 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>615</v>
+        <v>631</v>
       </c>
       <c r="C2" t="s">
-        <v>616</v>
+        <v>632</v>
       </c>
       <c r="D2" t="s">
-        <v>617</v>
+        <v>633</v>
       </c>
       <c r="E2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F2" t="s">
-        <v>618</v>
+        <v>634</v>
       </c>
       <c r="G2" t="s">
-        <v>619</v>
+        <v>635</v>
       </c>
       <c r="H2" t="s">
-        <v>620</v>
+        <v>636</v>
       </c>
       <c r="I2" t="s">
-        <v>621</v>
+        <v>637</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>622</v>
+        <v>638</v>
       </c>
       <c r="C3" t="s">
-        <v>623</v>
+        <v>639</v>
       </c>
       <c r="D3" t="s">
-        <v>624</v>
+        <v>640</v>
       </c>
       <c r="E3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F3" t="s">
-        <v>625</v>
+        <v>641</v>
       </c>
       <c r="G3" t="s">
-        <v>626</v>
+        <v>642</v>
       </c>
       <c r="H3" t="s">
-        <v>627</v>
+        <v>643</v>
       </c>
       <c r="I3" t="s">
-        <v>628</v>
+        <v>644</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>541</v>
+        <v>601</v>
       </c>
       <c r="B4" t="s">
-        <v>629</v>
+        <v>602</v>
       </c>
       <c r="C4" t="s">
-        <v>630</v>
+        <v>603</v>
       </c>
       <c r="D4" t="s">
-        <v>631</v>
+        <v>604</v>
       </c>
       <c r="E4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F4" t="s">
-        <v>632</v>
+        <v>605</v>
       </c>
       <c r="G4" t="s">
-        <v>633</v>
+        <v>606</v>
       </c>
       <c r="H4" t="s">
-        <v>634</v>
+        <v>607</v>
       </c>
       <c r="I4" t="s">
-        <v>629</v>
+        <v>602</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>549</v>
+        <v>608</v>
       </c>
       <c r="B5" t="s">
-        <v>635</v>
+        <v>609</v>
       </c>
       <c r="C5" t="s">
-        <v>636</v>
+        <v>610</v>
       </c>
       <c r="D5" t="s">
-        <v>637</v>
+        <v>611</v>
       </c>
       <c r="E5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F5" t="s">
-        <v>638</v>
+        <v>612</v>
       </c>
       <c r="G5" t="s">
-        <v>639</v>
+        <v>613</v>
       </c>
       <c r="H5" t="s">
-        <v>640</v>
+        <v>614</v>
       </c>
       <c r="I5" t="s">
-        <v>635</v>
+        <v>609</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>641</v>
+        <v>615</v>
       </c>
       <c r="B6" t="s">
-        <v>642</v>
+        <v>616</v>
       </c>
       <c r="C6" t="s">
-        <v>643</v>
+        <v>617</v>
       </c>
       <c r="D6" t="s">
-        <v>644</v>
+        <v>618</v>
       </c>
       <c r="E6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F6" t="s">
-        <v>645</v>
+        <v>619</v>
       </c>
       <c r="G6" t="s">
-        <v>646</v>
+        <v>620</v>
       </c>
       <c r="H6" t="s">
-        <v>647</v>
+        <v>621</v>
       </c>
       <c r="I6" t="s">
-        <v>648</v>
+        <v>622</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>649</v>
+        <v>623</v>
       </c>
       <c r="B7" t="s">
-        <v>650</v>
+        <v>624</v>
       </c>
       <c r="C7" t="s">
-        <v>651</v>
+        <v>625</v>
       </c>
       <c r="D7" t="s">
-        <v>652</v>
+        <v>626</v>
       </c>
       <c r="E7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F7" t="s">
-        <v>653</v>
+        <v>627</v>
       </c>
       <c r="G7" t="s">
-        <v>654</v>
+        <v>628</v>
       </c>
       <c r="H7" t="s">
-        <v>655</v>
+        <v>629</v>
       </c>
       <c r="I7" t="s">
-        <v>656</v>
+        <v>630</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>645</v>
+      </c>
+      <c r="B8" t="s">
+        <v>646</v>
       </c>
     </row>
   </sheetData>
@@ -3071,318 +3049,318 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="C2" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="D2" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="E2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F2" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="G2" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="H2" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="I2" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="C3" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="D3" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="E3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F3" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="G3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H3" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="I3" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="B4" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="C4" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="D4" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="E4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F4" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="G4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H4" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="I4" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="B5" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="C5" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="D5" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="E5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F5" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="G5" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="H5" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="I5" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="B6" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="C6" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="D6" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="E6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F6" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="G6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H6" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="I6" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="B7" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="C7" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="D7" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="E7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F7" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="G7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H7" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="I7" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B8" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="C8" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="D8" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="E8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F8" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="G8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H8" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="I8" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="B9" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="C9" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="D9" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
       <c r="E9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F9" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="G9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H9" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="I9" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="B10" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="C10" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
       <c r="D10" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="E10" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="F10" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="G10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H10" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
       <c r="I10" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="B11" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="C11" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="D11" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="E11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F11" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="G11" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="H11" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
     </row>
   </sheetData>
@@ -3400,147 +3378,147 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" t="s">
         <v>51</v>
-      </c>
-      <c r="B3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -3558,350 +3536,350 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D12" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E12" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G12" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I12" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -3919,263 +3897,263 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B9" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C9" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D9" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F9" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I9" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -4193,370 +4171,370 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B5" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H6" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B8" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D8" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="I8" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B9" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D9" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F9" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G9" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H9" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I9" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B10" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C10" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E10" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F10" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G10" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H10" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="I10" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B11" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C11" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D11" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E11" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F11" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G11" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H11" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I11" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B12" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C12" t="s">
+        <v>320</v>
+      </c>
+      <c r="D12" t="s">
+        <v>321</v>
+      </c>
+      <c r="E12" t="s">
+        <v>155</v>
+      </c>
+      <c r="F12" t="s">
+        <v>322</v>
+      </c>
+      <c r="G12" t="s">
+        <v>323</v>
+      </c>
+      <c r="H12" t="s">
+        <v>324</v>
+      </c>
+      <c r="I12" t="s">
         <v>319</v>
-      </c>
-      <c r="D12" t="s">
-        <v>320</v>
-      </c>
-      <c r="E12" t="s">
-        <v>154</v>
-      </c>
-      <c r="F12" t="s">
-        <v>321</v>
-      </c>
-      <c r="G12" t="s">
-        <v>322</v>
-      </c>
-      <c r="H12" t="s">
-        <v>323</v>
-      </c>
-      <c r="I12" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B13" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C13" t="s">
+        <v>327</v>
+      </c>
+      <c r="D13" t="s">
+        <v>328</v>
+      </c>
+      <c r="E13" t="s">
+        <v>155</v>
+      </c>
+      <c r="F13" t="s">
+        <v>329</v>
+      </c>
+      <c r="G13" t="s">
+        <v>330</v>
+      </c>
+      <c r="H13" t="s">
+        <v>331</v>
+      </c>
+      <c r="I13" t="s">
         <v>326</v>
-      </c>
-      <c r="D13" t="s">
-        <v>327</v>
-      </c>
-      <c r="E13" t="s">
-        <v>154</v>
-      </c>
-      <c r="F13" t="s">
-        <v>328</v>
-      </c>
-      <c r="G13" t="s">
-        <v>329</v>
-      </c>
-      <c r="H13" t="s">
-        <v>330</v>
-      </c>
-      <c r="I13" t="s">
-        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -4574,700 +4552,706 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="I2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B4" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C4" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D4" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F4" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G4" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H4" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="I4" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B5" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D5" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F5" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G5" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H5" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I5" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B6" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C6" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D6" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F6" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G6" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H6" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B8" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C8" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D8" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F8" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G8" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H8" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="I8" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B9" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C9" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D9" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F9" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G9" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H9" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="I9" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B10" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C10" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D10" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F10" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G10" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H10" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="I10" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B11" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C11" t="s">
+        <v>320</v>
+      </c>
+      <c r="D11" t="s">
+        <v>321</v>
+      </c>
+      <c r="E11" t="s">
+        <v>155</v>
+      </c>
+      <c r="F11" t="s">
+        <v>322</v>
+      </c>
+      <c r="G11" t="s">
+        <v>323</v>
+      </c>
+      <c r="H11" t="s">
+        <v>324</v>
+      </c>
+      <c r="I11" t="s">
         <v>319</v>
-      </c>
-      <c r="D11" t="s">
-        <v>320</v>
-      </c>
-      <c r="E11" t="s">
-        <v>154</v>
-      </c>
-      <c r="F11" t="s">
-        <v>321</v>
-      </c>
-      <c r="G11" t="s">
-        <v>322</v>
-      </c>
-      <c r="H11" t="s">
-        <v>323</v>
-      </c>
-      <c r="I11" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B12" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C12" t="s">
+        <v>327</v>
+      </c>
+      <c r="D12" t="s">
+        <v>328</v>
+      </c>
+      <c r="E12" t="s">
+        <v>155</v>
+      </c>
+      <c r="F12" t="s">
+        <v>329</v>
+      </c>
+      <c r="G12" t="s">
+        <v>330</v>
+      </c>
+      <c r="H12" t="s">
+        <v>331</v>
+      </c>
+      <c r="I12" t="s">
         <v>326</v>
-      </c>
-      <c r="D12" t="s">
-        <v>327</v>
-      </c>
-      <c r="E12" t="s">
-        <v>154</v>
-      </c>
-      <c r="F12" t="s">
-        <v>328</v>
-      </c>
-      <c r="G12" t="s">
-        <v>329</v>
-      </c>
-      <c r="H12" t="s">
-        <v>330</v>
-      </c>
-      <c r="I12" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B13" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C13" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D13" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F13" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G13" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H13" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B14" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C14" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D14" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F14" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G14" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H14" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B15" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C15" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D15" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E15" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F15" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G15" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H15" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B16" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C16" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D16" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E16" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F16" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="G16" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H16" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B17" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C17" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D17" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E17" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F17" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G17" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H17" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B18" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C18" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D18" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F18" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G18" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H18" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B19" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C19" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D19" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E19" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F19" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="G19" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H19" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="I19" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B20" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C20" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D20" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E20" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F20" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G20" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H20" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="I20" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B21" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C21" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D21" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E21" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F21" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="G21" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H21" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="I21" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B22" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C22" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D22" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E22" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F22" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="G22" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H22" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="I22" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B23" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C23" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D23" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E23" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F23" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="G23" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H23" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="I23" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B24" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C24" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D24" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E24" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F24" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="G24" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H24" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="I24" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B25" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C25" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D25" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E25" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F25" t="s">
-        <v>492</v>
+        <v>493</v>
+      </c>
+      <c r="G25" t="s">
+        <v>155</v>
+      </c>
+      <c r="H25" t="s">
+        <v>494</v>
       </c>
     </row>
   </sheetData>
@@ -5285,260 +5269,260 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C2" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D2" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="E2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F2" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="G2" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="H2" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C3" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D3" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="E3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F3" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="G3" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="H3" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="I3" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B4" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C4" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D4" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="E4" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="F4" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="G4" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H4" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="I4" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B5" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D5" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E5" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="F5" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G5" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H5" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I5" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B6" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C6" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D6" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="E6" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="F6" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="G6" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="H6" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I6" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G7" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="H7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B8" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C8" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="D8" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F8" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="G8" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="H8" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="I8" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B9" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C9" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="D9" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="E9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F9" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="G9" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="H9" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="I9" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
   </sheetData>
@@ -5547,164 +5531,6 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" t="s">
-        <v>527</v>
-      </c>
-      <c r="C2" t="s">
-        <v>528</v>
-      </c>
-      <c r="D2" t="s">
-        <v>529</v>
-      </c>
-      <c r="E2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F2" t="s">
-        <v>530</v>
-      </c>
-      <c r="G2" t="s">
-        <v>531</v>
-      </c>
-      <c r="H2" t="s">
-        <v>532</v>
-      </c>
-      <c r="I2" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" t="s">
-        <v>534</v>
-      </c>
-      <c r="C3" t="s">
-        <v>535</v>
-      </c>
-      <c r="D3" t="s">
-        <v>536</v>
-      </c>
-      <c r="E3" t="s">
-        <v>154</v>
-      </c>
-      <c r="F3" t="s">
-        <v>537</v>
-      </c>
-      <c r="G3" t="s">
-        <v>538</v>
-      </c>
-      <c r="H3" t="s">
-        <v>539</v>
-      </c>
-      <c r="I3" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>541</v>
-      </c>
-      <c r="B4" t="s">
-        <v>542</v>
-      </c>
-      <c r="C4" t="s">
-        <v>543</v>
-      </c>
-      <c r="D4" t="s">
-        <v>544</v>
-      </c>
-      <c r="E4" t="s">
-        <v>154</v>
-      </c>
-      <c r="F4" t="s">
-        <v>545</v>
-      </c>
-      <c r="G4" t="s">
-        <v>546</v>
-      </c>
-      <c r="H4" t="s">
-        <v>547</v>
-      </c>
-      <c r="I4" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>549</v>
-      </c>
-      <c r="B5" t="s">
-        <v>550</v>
-      </c>
-      <c r="C5" t="s">
-        <v>551</v>
-      </c>
-      <c r="D5" t="s">
-        <v>552</v>
-      </c>
-      <c r="E5" t="s">
-        <v>154</v>
-      </c>
-      <c r="F5" t="s">
-        <v>553</v>
-      </c>
-      <c r="G5" t="s">
-        <v>554</v>
-      </c>
-      <c r="H5" t="s">
-        <v>555</v>
-      </c>
-      <c r="I5" t="s">
-        <v>556</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I9"/>
   <sheetViews>
@@ -5714,263 +5540,479 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>557</v>
+        <v>529</v>
       </c>
       <c r="D2" t="s">
-        <v>558</v>
+        <v>530</v>
       </c>
       <c r="E2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F2" t="s">
-        <v>559</v>
+        <v>531</v>
       </c>
       <c r="G2" t="s">
-        <v>560</v>
+        <v>532</v>
       </c>
       <c r="H2" t="s">
-        <v>561</v>
+        <v>533</v>
       </c>
       <c r="I2" t="s">
-        <v>562</v>
+        <v>534</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>563</v>
+        <v>535</v>
       </c>
       <c r="C3" t="s">
-        <v>564</v>
+        <v>536</v>
       </c>
       <c r="D3" t="s">
-        <v>565</v>
+        <v>537</v>
       </c>
       <c r="E3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F3" t="s">
-        <v>566</v>
+        <v>538</v>
       </c>
       <c r="G3" t="s">
-        <v>567</v>
+        <v>539</v>
       </c>
       <c r="H3" t="s">
-        <v>568</v>
+        <v>540</v>
       </c>
       <c r="I3" t="s">
-        <v>569</v>
+        <v>541</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>570</v>
+        <v>542</v>
       </c>
       <c r="B4" t="s">
-        <v>571</v>
+        <v>543</v>
       </c>
       <c r="C4" t="s">
-        <v>572</v>
+        <v>544</v>
       </c>
       <c r="D4" t="s">
-        <v>573</v>
+        <v>545</v>
       </c>
       <c r="E4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F4" t="s">
-        <v>574</v>
+        <v>546</v>
       </c>
       <c r="G4" t="s">
-        <v>575</v>
+        <v>547</v>
       </c>
       <c r="H4" t="s">
-        <v>576</v>
+        <v>548</v>
       </c>
       <c r="I4" t="s">
-        <v>577</v>
+        <v>549</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>578</v>
+        <v>550</v>
       </c>
       <c r="B5" t="s">
-        <v>579</v>
+        <v>551</v>
       </c>
       <c r="C5" t="s">
-        <v>580</v>
+        <v>552</v>
       </c>
       <c r="D5" t="s">
-        <v>581</v>
+        <v>553</v>
       </c>
       <c r="E5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F5" t="s">
-        <v>582</v>
+        <v>554</v>
       </c>
       <c r="G5" t="s">
-        <v>583</v>
+        <v>555</v>
       </c>
       <c r="H5" t="s">
-        <v>584</v>
+        <v>556</v>
       </c>
       <c r="I5" t="s">
-        <v>585</v>
+        <v>557</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>586</v>
+        <v>558</v>
       </c>
       <c r="B6" t="s">
-        <v>587</v>
+        <v>559</v>
       </c>
       <c r="C6" t="s">
-        <v>588</v>
+        <v>560</v>
       </c>
       <c r="D6" t="s">
-        <v>589</v>
+        <v>561</v>
       </c>
       <c r="E6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F6" t="s">
-        <v>590</v>
+        <v>562</v>
       </c>
       <c r="G6" t="s">
-        <v>591</v>
+        <v>563</v>
       </c>
       <c r="H6" t="s">
-        <v>592</v>
+        <v>564</v>
       </c>
       <c r="I6" t="s">
-        <v>593</v>
+        <v>565</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>594</v>
+        <v>566</v>
       </c>
       <c r="B7" t="s">
-        <v>595</v>
+        <v>567</v>
       </c>
       <c r="C7" t="s">
-        <v>596</v>
+        <v>568</v>
       </c>
       <c r="D7" t="s">
-        <v>597</v>
+        <v>569</v>
       </c>
       <c r="E7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F7" t="s">
-        <v>595</v>
+        <v>567</v>
       </c>
       <c r="G7" t="s">
-        <v>598</v>
+        <v>570</v>
       </c>
       <c r="H7" t="s">
-        <v>599</v>
+        <v>571</v>
       </c>
       <c r="I7" t="s">
-        <v>600</v>
+        <v>572</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>601</v>
+        <v>573</v>
       </c>
       <c r="B8" t="s">
-        <v>602</v>
+        <v>574</v>
       </c>
       <c r="C8" t="s">
-        <v>603</v>
+        <v>575</v>
       </c>
       <c r="D8" t="s">
-        <v>604</v>
+        <v>576</v>
       </c>
       <c r="E8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F8" t="s">
-        <v>605</v>
+        <v>577</v>
       </c>
       <c r="G8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H8" t="s">
-        <v>606</v>
+        <v>578</v>
       </c>
       <c r="I8" t="s">
-        <v>607</v>
+        <v>579</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
+        <v>580</v>
+      </c>
+      <c r="B9" t="s">
+        <v>581</v>
+      </c>
+      <c r="C9" t="s">
+        <v>582</v>
+      </c>
+      <c r="D9" t="s">
+        <v>583</v>
+      </c>
+      <c r="E9" t="s">
+        <v>155</v>
+      </c>
+      <c r="F9" t="s">
+        <v>584</v>
+      </c>
+      <c r="G9" t="s">
+        <v>155</v>
+      </c>
+      <c r="H9" t="s">
+        <v>585</v>
+      </c>
+      <c r="I9" t="s">
+        <v>586</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" t="s">
+        <v>587</v>
+      </c>
+      <c r="C2" t="s">
+        <v>588</v>
+      </c>
+      <c r="D2" t="s">
+        <v>589</v>
+      </c>
+      <c r="E2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F2" t="s">
+        <v>590</v>
+      </c>
+      <c r="G2" t="s">
+        <v>591</v>
+      </c>
+      <c r="H2" t="s">
+        <v>592</v>
+      </c>
+      <c r="I2" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" t="s">
+        <v>594</v>
+      </c>
+      <c r="C3" t="s">
+        <v>595</v>
+      </c>
+      <c r="D3" t="s">
+        <v>596</v>
+      </c>
+      <c r="E3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F3" t="s">
+        <v>597</v>
+      </c>
+      <c r="G3" t="s">
+        <v>598</v>
+      </c>
+      <c r="H3" t="s">
+        <v>599</v>
+      </c>
+      <c r="I3" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>601</v>
+      </c>
+      <c r="B4" t="s">
+        <v>602</v>
+      </c>
+      <c r="C4" t="s">
+        <v>603</v>
+      </c>
+      <c r="D4" t="s">
+        <v>604</v>
+      </c>
+      <c r="E4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F4" t="s">
+        <v>605</v>
+      </c>
+      <c r="G4" t="s">
+        <v>606</v>
+      </c>
+      <c r="H4" t="s">
+        <v>607</v>
+      </c>
+      <c r="I4" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
         <v>608</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B5" t="s">
         <v>609</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C5" t="s">
         <v>610</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D5" t="s">
         <v>611</v>
       </c>
-      <c r="E9" t="s">
-        <v>154</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="E5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F5" t="s">
         <v>612</v>
       </c>
-      <c r="G9" t="s">
-        <v>154</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="G5" t="s">
         <v>613</v>
       </c>
-      <c r="I9" t="s">
+      <c r="H5" t="s">
         <v>614</v>
+      </c>
+      <c r="I5" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>615</v>
+      </c>
+      <c r="B6" t="s">
+        <v>616</v>
+      </c>
+      <c r="C6" t="s">
+        <v>617</v>
+      </c>
+      <c r="D6" t="s">
+        <v>618</v>
+      </c>
+      <c r="E6" t="s">
+        <v>155</v>
+      </c>
+      <c r="F6" t="s">
+        <v>619</v>
+      </c>
+      <c r="G6" t="s">
+        <v>620</v>
+      </c>
+      <c r="H6" t="s">
+        <v>621</v>
+      </c>
+      <c r="I6" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>623</v>
+      </c>
+      <c r="B7" t="s">
+        <v>624</v>
+      </c>
+      <c r="C7" t="s">
+        <v>625</v>
+      </c>
+      <c r="D7" t="s">
+        <v>626</v>
+      </c>
+      <c r="E7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F7" t="s">
+        <v>627</v>
+      </c>
+      <c r="G7" t="s">
+        <v>628</v>
+      </c>
+      <c r="H7" t="s">
+        <v>629</v>
+      </c>
+      <c r="I7" t="s">
+        <v>630</v>
       </c>
     </row>
   </sheetData>

--- a/AdofaiTweaks.Generator/translations.xlsx
+++ b/AdofaiTweaks.Generator/translations.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="723">
   <si>
     <t>Translation Status</t>
   </si>
@@ -83,24 +83,24 @@
     <t>KeyViewer</t>
   </si>
   <si>
+    <t>0% (24 left)</t>
+  </si>
+  <si>
     <t>95.8% (1 left)</t>
   </si>
   <si>
-    <t>0% (24 left)</t>
-  </si>
-  <si>
     <t>70.8% (7 left)</t>
   </si>
   <si>
     <t>PlanetOpacity</t>
   </si>
   <si>
+    <t>0% (7 left)</t>
+  </si>
+  <si>
     <t>85.7% (1 left)</t>
   </si>
   <si>
-    <t>0% (7 left)</t>
-  </si>
-  <si>
     <t>Miscellaneous</t>
   </si>
   <si>
@@ -1505,6 +1505,12 @@
     <t>Clear key press count</t>
   </si>
   <si>
+    <t>키 누른 횟수 지우기</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Eliminar número total de pulsaciones</t>
+  </si>
+  <si>
     <t>Réinitialiser le compte de touches appuyées</t>
   </si>
   <si>
@@ -1965,6 +1971,15 @@
   </si>
   <si>
     <t>Ring:</t>
+  </si>
+  <si>
+    <t>고리</t>
+  </si>
+  <si>
+    <t>Anillo:</t>
+  </si>
+  <si>
+    <t>Anneau:</t>
   </si>
   <si>
     <t>Restrict Judgments</t>
@@ -2673,19 +2688,19 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
         <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H7" t="s">
         <v>11</v>
@@ -2702,25 +2717,25 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
         <v>23</v>
       </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
         <v>24</v>
       </c>
-      <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2857,28 +2872,28 @@
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C2" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="D2" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E2" t="s">
         <v>155</v>
       </c>
       <c r="F2" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="G2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="H2" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="I2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2886,152 +2901,164 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="C3" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="D3" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="E3" t="s">
         <v>155</v>
       </c>
       <c r="F3" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="G3" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="H3" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="I3" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B4" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="C4" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="D4" t="s">
+        <v>606</v>
+      </c>
+      <c r="E4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G4" t="s">
+        <v>608</v>
+      </c>
+      <c r="H4" t="s">
+        <v>609</v>
+      </c>
+      <c r="I4" t="s">
         <v>604</v>
-      </c>
-      <c r="E4" t="s">
-        <v>155</v>
-      </c>
-      <c r="F4" t="s">
-        <v>605</v>
-      </c>
-      <c r="G4" t="s">
-        <v>606</v>
-      </c>
-      <c r="H4" t="s">
-        <v>607</v>
-      </c>
-      <c r="I4" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="B5" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="C5" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="D5" t="s">
+        <v>613</v>
+      </c>
+      <c r="E5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F5" t="s">
+        <v>614</v>
+      </c>
+      <c r="G5" t="s">
+        <v>615</v>
+      </c>
+      <c r="H5" t="s">
+        <v>616</v>
+      </c>
+      <c r="I5" t="s">
         <v>611</v>
-      </c>
-      <c r="E5" t="s">
-        <v>155</v>
-      </c>
-      <c r="F5" t="s">
-        <v>612</v>
-      </c>
-      <c r="G5" t="s">
-        <v>613</v>
-      </c>
-      <c r="H5" t="s">
-        <v>614</v>
-      </c>
-      <c r="I5" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B6" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="C6" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="D6" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="E6" t="s">
         <v>155</v>
       </c>
       <c r="F6" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="G6" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="H6" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="I6" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B7" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C7" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="D7" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="E7" t="s">
         <v>155</v>
       </c>
       <c r="F7" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="G7" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="H7" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="I7" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B8" t="s">
-        <v>646</v>
+        <v>648</v>
+      </c>
+      <c r="C8" t="s">
+        <v>649</v>
+      </c>
+      <c r="D8" t="s">
+        <v>650</v>
+      </c>
+      <c r="E8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F8" t="s">
+        <v>651</v>
       </c>
     </row>
   </sheetData>
@@ -3081,28 +3108,28 @@
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="C2" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="D2" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="E2" t="s">
         <v>155</v>
       </c>
       <c r="F2" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="G2" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="H2" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="I2" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3110,257 +3137,257 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="C3" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="D3" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="E3" t="s">
         <v>155</v>
       </c>
       <c r="F3" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="G3" t="s">
         <v>155</v>
       </c>
       <c r="H3" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="I3" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="B4" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="C4" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="D4" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="E4" t="s">
         <v>155</v>
       </c>
       <c r="F4" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="G4" t="s">
         <v>155</v>
       </c>
       <c r="H4" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="I4" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="B5" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="C5" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="D5" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="E5" t="s">
         <v>155</v>
       </c>
       <c r="F5" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="G5" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="H5" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="I5" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="B6" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="C6" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="D6" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="E6" t="s">
         <v>155</v>
       </c>
       <c r="F6" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="G6" t="s">
         <v>155</v>
       </c>
       <c r="H6" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="I6" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="B7" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="C7" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="D7" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="E7" t="s">
         <v>155</v>
       </c>
       <c r="F7" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="G7" t="s">
         <v>155</v>
       </c>
       <c r="H7" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="I7" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="B8" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="C8" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="D8" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="E8" t="s">
         <v>155</v>
       </c>
       <c r="F8" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="G8" t="s">
         <v>155</v>
       </c>
       <c r="H8" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="I8" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="B9" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="C9" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="D9" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="E9" t="s">
         <v>155</v>
       </c>
       <c r="F9" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="G9" t="s">
         <v>155</v>
       </c>
       <c r="H9" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="I9" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="B10" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="C10" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="D10" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="E10" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="F10" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="G10" t="s">
         <v>155</v>
       </c>
       <c r="H10" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="I10" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="B11" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="C11" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="D11" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="E11" t="s">
         <v>155</v>
       </c>
       <c r="F11" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="G11" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="H11" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
     </row>
   </sheetData>
@@ -5236,22 +5263,22 @@
         <v>492</v>
       </c>
       <c r="C25" t="s">
-        <v>155</v>
+        <v>493</v>
       </c>
       <c r="D25" t="s">
-        <v>155</v>
+        <v>494</v>
       </c>
       <c r="E25" t="s">
         <v>155</v>
       </c>
       <c r="F25" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="G25" t="s">
         <v>155</v>
       </c>
       <c r="H25" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
   </sheetData>
@@ -5301,25 +5328,25 @@
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C2" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="D2" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="E2" t="s">
         <v>155</v>
       </c>
       <c r="F2" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="G2" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="H2" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -5327,28 +5354,28 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C3" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="D3" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="E3" t="s">
         <v>155</v>
       </c>
       <c r="F3" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="G3" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="H3" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="I3" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -5362,13 +5389,13 @@
         <v>348</v>
       </c>
       <c r="D4" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="E4" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="F4" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="G4" t="s">
         <v>351</v>
@@ -5377,7 +5404,7 @@
         <v>352</v>
       </c>
       <c r="I4" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -5394,7 +5421,7 @@
         <v>358</v>
       </c>
       <c r="E5" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="F5" t="s">
         <v>358</v>
@@ -5420,22 +5447,22 @@
         <v>364</v>
       </c>
       <c r="D6" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="E6" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="F6" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="G6" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="H6" t="s">
         <v>368</v>
       </c>
       <c r="I6" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -5458,7 +5485,7 @@
         <v>374</v>
       </c>
       <c r="G7" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="H7" t="s">
         <v>376</v>
@@ -5469,60 +5496,60 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B8" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C8" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="D8" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="E8" t="s">
         <v>155</v>
       </c>
       <c r="F8" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="G8" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="H8" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="I8" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B9" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C9" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="D9" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="E9" t="s">
         <v>155</v>
       </c>
       <c r="F9" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="G9" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="H9" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="I9" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
   </sheetData>
@@ -5575,25 +5602,25 @@
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="D2" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="E2" t="s">
         <v>155</v>
       </c>
       <c r="F2" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="G2" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="H2" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="I2" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -5601,202 +5628,202 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C3" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="D3" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="E3" t="s">
         <v>155</v>
       </c>
       <c r="F3" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="G3" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="H3" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="I3" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B4" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C4" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="D4" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="E4" t="s">
         <v>155</v>
       </c>
       <c r="F4" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="G4" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="H4" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="I4" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="B5" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="C5" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="D5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="E5" t="s">
         <v>155</v>
       </c>
       <c r="F5" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="G5" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="H5" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="I5" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B6" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="C6" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="D6" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="E6" t="s">
         <v>155</v>
       </c>
       <c r="F6" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="G6" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="H6" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="I6" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B7" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C7" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="D7" t="s">
+        <v>571</v>
+      </c>
+      <c r="E7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F7" t="s">
         <v>569</v>
       </c>
-      <c r="E7" t="s">
-        <v>155</v>
-      </c>
-      <c r="F7" t="s">
-        <v>567</v>
-      </c>
       <c r="G7" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H7" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="I7" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B8" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="C8" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="D8" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="E8" t="s">
         <v>155</v>
       </c>
       <c r="F8" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="G8" t="s">
         <v>155</v>
       </c>
       <c r="H8" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="I8" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B9" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C9" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="D9" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="E9" t="s">
         <v>155</v>
       </c>
       <c r="F9" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="G9" t="s">
         <v>155</v>
       </c>
       <c r="H9" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="I9" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
   </sheetData>
@@ -5846,28 +5873,28 @@
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C2" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="D2" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="E2" t="s">
         <v>155</v>
       </c>
       <c r="F2" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="G2" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="H2" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="I2" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -5875,144 +5902,144 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="C3" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="D3" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E3" t="s">
         <v>155</v>
       </c>
       <c r="F3" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="G3" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="H3" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="I3" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B4" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="C4" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="D4" t="s">
+        <v>606</v>
+      </c>
+      <c r="E4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G4" t="s">
+        <v>608</v>
+      </c>
+      <c r="H4" t="s">
+        <v>609</v>
+      </c>
+      <c r="I4" t="s">
         <v>604</v>
-      </c>
-      <c r="E4" t="s">
-        <v>155</v>
-      </c>
-      <c r="F4" t="s">
-        <v>605</v>
-      </c>
-      <c r="G4" t="s">
-        <v>606</v>
-      </c>
-      <c r="H4" t="s">
-        <v>607</v>
-      </c>
-      <c r="I4" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="B5" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="C5" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="D5" t="s">
+        <v>613</v>
+      </c>
+      <c r="E5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F5" t="s">
+        <v>614</v>
+      </c>
+      <c r="G5" t="s">
+        <v>615</v>
+      </c>
+      <c r="H5" t="s">
+        <v>616</v>
+      </c>
+      <c r="I5" t="s">
         <v>611</v>
-      </c>
-      <c r="E5" t="s">
-        <v>155</v>
-      </c>
-      <c r="F5" t="s">
-        <v>612</v>
-      </c>
-      <c r="G5" t="s">
-        <v>613</v>
-      </c>
-      <c r="H5" t="s">
-        <v>614</v>
-      </c>
-      <c r="I5" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B6" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="C6" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="D6" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="E6" t="s">
         <v>155</v>
       </c>
       <c r="F6" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="G6" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="H6" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="I6" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B7" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C7" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="D7" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="E7" t="s">
         <v>155</v>
       </c>
       <c r="F7" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="G7" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="H7" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="I7" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
   </sheetData>

--- a/AdofaiTweaks.Generator/translations.xlsx
+++ b/AdofaiTweaks.Generator/translations.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="746">
   <si>
     <t>Translation Status</t>
   </si>
@@ -62,6 +62,9 @@
     <t>100% (0 left)</t>
   </si>
   <si>
+    <t>66.7% (2 left)</t>
+  </si>
+  <si>
     <t>DisableEffects</t>
   </si>
   <si>
@@ -71,6 +74,9 @@
     <t>HideUiElements</t>
   </si>
   <si>
+    <t>57.1% (6 left)</t>
+  </si>
+  <si>
     <t>JudgmentVisuals</t>
   </si>
   <si>
@@ -236,6 +242,24 @@
     <t>Deutsch</t>
   </si>
   <si>
+    <t>SHORTCUT_CHANGE_KEY</t>
+  </si>
+  <si>
+    <t>Change Key</t>
+  </si>
+  <si>
+    <t>키 변경하기</t>
+  </si>
+  <si>
+    <t>SHORTCUT_DONE</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>완료</t>
+  </si>
+  <si>
     <t>NAME</t>
   </si>
   <si>
@@ -734,10 +758,64 @@
     <t>Verberge den "Beta Build" Text</t>
   </si>
   <si>
+    <t>RESULT_TEXT</t>
+  </si>
+  <si>
+    <t>Hide "Congratulations!" &amp; detailed results text</t>
+  </si>
+  <si>
+    <t>"축하합니다!" 및 상세한 결과 텍스트 숨기기</t>
+  </si>
+  <si>
+    <t>HIT_ERROR_METER</t>
+  </si>
+  <si>
+    <t>Hide hit error meter</t>
+  </si>
+  <si>
+    <t>입력 계기판 숨기기</t>
+  </si>
+  <si>
+    <t>LAST_FLOOR_FLASH</t>
+  </si>
+  <si>
+    <t>Hide the white flash on landing last tile</t>
+  </si>
+  <si>
+    <t>마지막 타일을 밟을 때 흰색 플래시 숨기기</t>
+  </si>
+  <si>
+    <t>RECORDING_MODE</t>
+  </si>
+  <si>
+    <t>Recording mode</t>
+  </si>
+  <si>
+    <t>녹화 모드</t>
+  </si>
+  <si>
+    <t>USE_RECORDING_MODE_SHORTCUT</t>
+  </si>
+  <si>
+    <t>Use recording mode toggle shortcut</t>
+  </si>
+  <si>
+    <t>녹화 모드 토글 단축키 사용하기</t>
+  </si>
+  <si>
+    <t>RECORDING_MODE_SHORTCUT</t>
+  </si>
+  <si>
+    <t>Recording mode toggle shortcut:</t>
+  </si>
+  <si>
+    <t>녹화 모드 토글 단축키</t>
+  </si>
+  <si>
     <t>Judgment Visuals</t>
   </si>
   <si>
-    <t>판정선</t>
+    <t>판정 표기</t>
   </si>
   <si>
     <t>Visualización de los juicios</t>
@@ -758,7 +836,7 @@
     <t>Improves the visuals of judgments.</t>
   </si>
   <si>
-    <t>게임 UI에 판정선을 추가합니다.</t>
+    <t>판정 표기를 개선합니다.</t>
   </si>
   <si>
     <t>Mejora los visuales de los juicios.</t>
@@ -779,7 +857,7 @@
     <t>Show hit error meter</t>
   </si>
   <si>
-    <t>판정선 표시하기</t>
+    <t>입력 계기판 표시하기</t>
   </si>
   <si>
     <t>Mostrar barra de errores</t>
@@ -1091,12 +1169,6 @@
     <t>DONE</t>
   </si>
   <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>완료</t>
-  </si>
-  <si>
     <t>Hecho</t>
   </si>
   <si>
@@ -1140,9 +1212,6 @@
   </si>
   <si>
     <t>Change Keys</t>
-  </si>
-  <si>
-    <t>키 변경하기</t>
   </si>
   <si>
     <t>Cambiar teclas</t>
@@ -2575,27 +2644,27 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -2607,13 +2676,13 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
         <v>11</v>
@@ -2624,7 +2693,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -2633,27 +2702,27 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -2665,7 +2734,7 @@
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -2677,12 +2746,12 @@
         <v>11</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -2694,24 +2763,24 @@
         <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H7" t="s">
         <v>11</v>
       </c>
       <c r="I7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -2723,24 +2792,24 @@
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -2752,13 +2821,13 @@
         <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H9" t="s">
         <v>11</v>
@@ -2769,7 +2838,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -2781,7 +2850,7 @@
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
@@ -2798,7 +2867,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -2810,19 +2879,19 @@
         <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H11" t="s">
         <v>11</v>
       </c>
       <c r="I11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2840,225 +2909,225 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>633</v>
+        <v>656</v>
       </c>
       <c r="C2" t="s">
-        <v>634</v>
+        <v>657</v>
       </c>
       <c r="D2" t="s">
-        <v>635</v>
+        <v>658</v>
       </c>
       <c r="E2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F2" t="s">
-        <v>636</v>
+        <v>659</v>
       </c>
       <c r="G2" t="s">
-        <v>637</v>
+        <v>660</v>
       </c>
       <c r="H2" t="s">
-        <v>638</v>
+        <v>661</v>
       </c>
       <c r="I2" t="s">
-        <v>639</v>
+        <v>662</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>640</v>
+        <v>663</v>
       </c>
       <c r="C3" t="s">
-        <v>641</v>
+        <v>664</v>
       </c>
       <c r="D3" t="s">
-        <v>642</v>
+        <v>665</v>
       </c>
       <c r="E3" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F3" t="s">
-        <v>643</v>
+        <v>666</v>
       </c>
       <c r="G3" t="s">
-        <v>644</v>
+        <v>667</v>
       </c>
       <c r="H3" t="s">
-        <v>645</v>
+        <v>668</v>
       </c>
       <c r="I3" t="s">
-        <v>646</v>
+        <v>669</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>603</v>
+        <v>626</v>
       </c>
       <c r="B4" t="s">
-        <v>604</v>
+        <v>627</v>
       </c>
       <c r="C4" t="s">
-        <v>605</v>
+        <v>628</v>
       </c>
       <c r="D4" t="s">
-        <v>606</v>
+        <v>629</v>
       </c>
       <c r="E4" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F4" t="s">
-        <v>607</v>
+        <v>630</v>
       </c>
       <c r="G4" t="s">
-        <v>608</v>
+        <v>631</v>
       </c>
       <c r="H4" t="s">
-        <v>609</v>
+        <v>632</v>
       </c>
       <c r="I4" t="s">
-        <v>604</v>
+        <v>627</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>610</v>
+        <v>633</v>
       </c>
       <c r="B5" t="s">
-        <v>611</v>
+        <v>634</v>
       </c>
       <c r="C5" t="s">
-        <v>612</v>
+        <v>635</v>
       </c>
       <c r="D5" t="s">
-        <v>613</v>
+        <v>636</v>
       </c>
       <c r="E5" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F5" t="s">
-        <v>614</v>
+        <v>637</v>
       </c>
       <c r="G5" t="s">
-        <v>615</v>
+        <v>638</v>
       </c>
       <c r="H5" t="s">
-        <v>616</v>
+        <v>639</v>
       </c>
       <c r="I5" t="s">
-        <v>611</v>
+        <v>634</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>617</v>
+        <v>640</v>
       </c>
       <c r="B6" t="s">
-        <v>618</v>
+        <v>641</v>
       </c>
       <c r="C6" t="s">
-        <v>619</v>
+        <v>642</v>
       </c>
       <c r="D6" t="s">
-        <v>620</v>
+        <v>643</v>
       </c>
       <c r="E6" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F6" t="s">
-        <v>621</v>
+        <v>644</v>
       </c>
       <c r="G6" t="s">
-        <v>622</v>
+        <v>645</v>
       </c>
       <c r="H6" t="s">
-        <v>623</v>
+        <v>646</v>
       </c>
       <c r="I6" t="s">
-        <v>624</v>
+        <v>647</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>625</v>
+        <v>648</v>
       </c>
       <c r="B7" t="s">
-        <v>626</v>
+        <v>649</v>
       </c>
       <c r="C7" t="s">
-        <v>627</v>
+        <v>650</v>
       </c>
       <c r="D7" t="s">
-        <v>628</v>
+        <v>651</v>
       </c>
       <c r="E7" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F7" t="s">
-        <v>629</v>
+        <v>652</v>
       </c>
       <c r="G7" t="s">
-        <v>630</v>
+        <v>653</v>
       </c>
       <c r="H7" t="s">
-        <v>631</v>
+        <v>654</v>
       </c>
       <c r="I7" t="s">
-        <v>632</v>
+        <v>655</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>647</v>
+        <v>670</v>
       </c>
       <c r="B8" t="s">
-        <v>648</v>
+        <v>671</v>
       </c>
       <c r="C8" t="s">
-        <v>649</v>
+        <v>672</v>
       </c>
       <c r="D8" t="s">
-        <v>650</v>
+        <v>673</v>
       </c>
       <c r="E8" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F8" t="s">
-        <v>651</v>
+        <v>674</v>
       </c>
     </row>
   </sheetData>
@@ -3076,318 +3145,318 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>652</v>
+        <v>675</v>
       </c>
       <c r="C2" t="s">
-        <v>653</v>
+        <v>676</v>
       </c>
       <c r="D2" t="s">
-        <v>654</v>
+        <v>677</v>
       </c>
       <c r="E2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F2" t="s">
-        <v>655</v>
+        <v>678</v>
       </c>
       <c r="G2" t="s">
-        <v>656</v>
+        <v>679</v>
       </c>
       <c r="H2" t="s">
-        <v>657</v>
+        <v>680</v>
       </c>
       <c r="I2" t="s">
-        <v>658</v>
+        <v>681</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>659</v>
+        <v>682</v>
       </c>
       <c r="C3" t="s">
-        <v>660</v>
+        <v>683</v>
       </c>
       <c r="D3" t="s">
-        <v>661</v>
+        <v>684</v>
       </c>
       <c r="E3" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F3" t="s">
-        <v>662</v>
+        <v>685</v>
       </c>
       <c r="G3" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="H3" t="s">
-        <v>663</v>
+        <v>686</v>
       </c>
       <c r="I3" t="s">
-        <v>664</v>
+        <v>687</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>665</v>
+        <v>688</v>
       </c>
       <c r="B4" t="s">
-        <v>666</v>
+        <v>689</v>
       </c>
       <c r="C4" t="s">
-        <v>667</v>
+        <v>690</v>
       </c>
       <c r="D4" t="s">
-        <v>668</v>
+        <v>691</v>
       </c>
       <c r="E4" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F4" t="s">
-        <v>669</v>
+        <v>692</v>
       </c>
       <c r="G4" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="H4" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="I4" t="s">
-        <v>671</v>
+        <v>694</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>672</v>
+        <v>695</v>
       </c>
       <c r="B5" t="s">
-        <v>673</v>
+        <v>696</v>
       </c>
       <c r="C5" t="s">
-        <v>674</v>
+        <v>697</v>
       </c>
       <c r="D5" t="s">
-        <v>675</v>
+        <v>698</v>
       </c>
       <c r="E5" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F5" t="s">
-        <v>676</v>
+        <v>699</v>
       </c>
       <c r="G5" t="s">
-        <v>677</v>
+        <v>700</v>
       </c>
       <c r="H5" t="s">
-        <v>678</v>
+        <v>701</v>
       </c>
       <c r="I5" t="s">
-        <v>679</v>
+        <v>702</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>680</v>
+        <v>703</v>
       </c>
       <c r="B6" t="s">
-        <v>681</v>
+        <v>704</v>
       </c>
       <c r="C6" t="s">
-        <v>682</v>
+        <v>705</v>
       </c>
       <c r="D6" t="s">
-        <v>683</v>
+        <v>706</v>
       </c>
       <c r="E6" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F6" t="s">
-        <v>684</v>
+        <v>707</v>
       </c>
       <c r="G6" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="H6" t="s">
-        <v>685</v>
+        <v>708</v>
       </c>
       <c r="I6" t="s">
-        <v>686</v>
+        <v>709</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>687</v>
+        <v>710</v>
       </c>
       <c r="B7" t="s">
-        <v>688</v>
+        <v>711</v>
       </c>
       <c r="C7" t="s">
-        <v>689</v>
+        <v>712</v>
       </c>
       <c r="D7" t="s">
-        <v>690</v>
+        <v>713</v>
       </c>
       <c r="E7" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F7" t="s">
-        <v>691</v>
+        <v>714</v>
       </c>
       <c r="G7" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="H7" t="s">
-        <v>692</v>
+        <v>715</v>
       </c>
       <c r="I7" t="s">
-        <v>693</v>
+        <v>716</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>694</v>
+        <v>717</v>
       </c>
       <c r="B8" t="s">
-        <v>695</v>
+        <v>718</v>
       </c>
       <c r="C8" t="s">
-        <v>696</v>
+        <v>719</v>
       </c>
       <c r="D8" t="s">
-        <v>697</v>
+        <v>720</v>
       </c>
       <c r="E8" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F8" t="s">
-        <v>698</v>
+        <v>721</v>
       </c>
       <c r="G8" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="H8" t="s">
-        <v>699</v>
+        <v>722</v>
       </c>
       <c r="I8" t="s">
-        <v>700</v>
+        <v>723</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>701</v>
+        <v>724</v>
       </c>
       <c r="B9" t="s">
-        <v>702</v>
+        <v>725</v>
       </c>
       <c r="C9" t="s">
-        <v>703</v>
+        <v>726</v>
       </c>
       <c r="D9" t="s">
-        <v>704</v>
+        <v>727</v>
       </c>
       <c r="E9" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F9" t="s">
-        <v>705</v>
+        <v>728</v>
       </c>
       <c r="G9" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="H9" t="s">
-        <v>706</v>
+        <v>729</v>
       </c>
       <c r="I9" t="s">
-        <v>707</v>
+        <v>730</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>708</v>
+        <v>731</v>
       </c>
       <c r="B10" t="s">
-        <v>709</v>
+        <v>732</v>
       </c>
       <c r="C10" t="s">
-        <v>710</v>
+        <v>733</v>
       </c>
       <c r="D10" t="s">
-        <v>711</v>
+        <v>734</v>
       </c>
       <c r="E10" t="s">
-        <v>712</v>
+        <v>735</v>
       </c>
       <c r="F10" t="s">
-        <v>713</v>
+        <v>736</v>
       </c>
       <c r="G10" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="H10" t="s">
-        <v>714</v>
+        <v>737</v>
       </c>
       <c r="I10" t="s">
-        <v>715</v>
+        <v>738</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>716</v>
+        <v>739</v>
       </c>
       <c r="B11" t="s">
-        <v>717</v>
+        <v>740</v>
       </c>
       <c r="C11" t="s">
-        <v>718</v>
+        <v>741</v>
       </c>
       <c r="D11" t="s">
-        <v>719</v>
+        <v>742</v>
       </c>
       <c r="E11" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F11" t="s">
-        <v>720</v>
+        <v>743</v>
       </c>
       <c r="G11" t="s">
-        <v>721</v>
+        <v>744</v>
       </c>
       <c r="H11" t="s">
-        <v>722</v>
+        <v>745</v>
       </c>
     </row>
   </sheetData>
@@ -3397,7 +3466,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3405,147 +3474,169 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" t="s">
         <v>52</v>
       </c>
-      <c r="B3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" t="s">
-        <v>50</v>
-      </c>
       <c r="I3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -3563,350 +3654,350 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="F3" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="G3" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="H3" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="I3" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E4" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="F4" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="G4" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="H4" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="I4" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D5" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="E5" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="F5" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="G5" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="H5" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="I5" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="C6" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D6" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E6" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="F6" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="G6" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="H6" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="I6" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B7" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C7" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D7" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="E7" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="F7" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="G7" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="H7" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="I7" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B8" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="C8" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="D8" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="E8" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="F8" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="G8" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="H8" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="I8" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B9" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="C9" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="D9" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="E9" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="F9" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="G9" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="H9" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="I9" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B10" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C10" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D10" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="E10" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="F10" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="G10" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="H10" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="I10" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B11" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C11" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="D11" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="E11" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F11" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="G11" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="H11" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="I11" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B12" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C12" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="D12" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="E12" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F12" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="G12" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="H12" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="I12" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -3916,7 +4007,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3924,263 +4015,329 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="C2" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="D2" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="E2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="F2" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="G2" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="H2" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="I2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="C3" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="D3" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="E3" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="F3" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="G3" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="H3" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="I3" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B4" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="C4" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="D4" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="E4" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="F4" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="G4" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="H4" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="I4" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="B5" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="C5" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="D5" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="E5" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F5" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="G5" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="H5" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="I5" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B6" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="C6" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="D6" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="E6" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="F6" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="G6" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="H6" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="I6" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="B7" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C7" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D7" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="E7" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="F7" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="G7" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="H7" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="I7" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="B8" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="C8" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="D8" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="E8" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="F8" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="G8" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="H8" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="I8" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="B9" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="C9" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="D9" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="E9" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="F9" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="G9" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="H9" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="I9" t="s">
-        <v>235</v>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>244</v>
+      </c>
+      <c r="B10" t="s">
+        <v>245</v>
+      </c>
+      <c r="C10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>247</v>
+      </c>
+      <c r="B11" t="s">
+        <v>248</v>
+      </c>
+      <c r="C11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>250</v>
+      </c>
+      <c r="B12" t="s">
+        <v>251</v>
+      </c>
+      <c r="C12" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>253</v>
+      </c>
+      <c r="B13" t="s">
+        <v>254</v>
+      </c>
+      <c r="C13" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>256</v>
+      </c>
+      <c r="B14" t="s">
+        <v>257</v>
+      </c>
+      <c r="C14" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>259</v>
+      </c>
+      <c r="B15" t="s">
+        <v>260</v>
+      </c>
+      <c r="C15" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -4198,370 +4355,370 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="C2" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="D2" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="E2" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="F2" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="G2" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="H2" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="C3" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="D3" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="E3" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F3" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="G3" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="H3" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="B4" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="C4" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="D4" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="E4" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F4" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="G4" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="H4" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="B5" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="C5" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="D5" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="E5" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="F5" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="G5" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="H5" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="I5" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="B6" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="C6" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="D6" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="E6" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F6" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="G6" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="H6" t="s">
-        <v>271</v>
+        <v>297</v>
       </c>
       <c r="I6" t="s">
-        <v>272</v>
+        <v>298</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="B7" t="s">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="C7" t="s">
-        <v>275</v>
+        <v>301</v>
       </c>
       <c r="D7" t="s">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="E7" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F7" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="G7" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="H7" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="I7" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="B8" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="C8" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="D8" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="E8" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="F8" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="G8" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="H8" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
       <c r="I8" t="s">
-        <v>290</v>
+        <v>316</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B9" t="s">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="C9" t="s">
-        <v>293</v>
+        <v>319</v>
       </c>
       <c r="D9" t="s">
-        <v>294</v>
+        <v>320</v>
       </c>
       <c r="E9" t="s">
-        <v>295</v>
+        <v>321</v>
       </c>
       <c r="F9" t="s">
-        <v>296</v>
+        <v>322</v>
       </c>
       <c r="G9" t="s">
-        <v>297</v>
+        <v>323</v>
       </c>
       <c r="H9" t="s">
-        <v>298</v>
+        <v>324</v>
       </c>
       <c r="I9" t="s">
-        <v>299</v>
+        <v>325</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>300</v>
+        <v>326</v>
       </c>
       <c r="B10" t="s">
-        <v>301</v>
+        <v>327</v>
       </c>
       <c r="C10" t="s">
-        <v>302</v>
+        <v>328</v>
       </c>
       <c r="D10" t="s">
-        <v>303</v>
+        <v>329</v>
       </c>
       <c r="E10" t="s">
-        <v>304</v>
+        <v>330</v>
       </c>
       <c r="F10" t="s">
-        <v>305</v>
+        <v>331</v>
       </c>
       <c r="G10" t="s">
-        <v>306</v>
+        <v>332</v>
       </c>
       <c r="H10" t="s">
-        <v>307</v>
+        <v>333</v>
       </c>
       <c r="I10" t="s">
-        <v>308</v>
+        <v>334</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>309</v>
+        <v>335</v>
       </c>
       <c r="B11" t="s">
-        <v>310</v>
+        <v>336</v>
       </c>
       <c r="C11" t="s">
-        <v>311</v>
+        <v>337</v>
       </c>
       <c r="D11" t="s">
-        <v>312</v>
+        <v>338</v>
       </c>
       <c r="E11" t="s">
-        <v>313</v>
+        <v>339</v>
       </c>
       <c r="F11" t="s">
-        <v>314</v>
+        <v>340</v>
       </c>
       <c r="G11" t="s">
-        <v>315</v>
+        <v>341</v>
       </c>
       <c r="H11" t="s">
-        <v>316</v>
+        <v>342</v>
       </c>
       <c r="I11" t="s">
-        <v>317</v>
+        <v>343</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>318</v>
+        <v>344</v>
       </c>
       <c r="B12" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="C12" t="s">
-        <v>320</v>
+        <v>346</v>
       </c>
       <c r="D12" t="s">
-        <v>321</v>
+        <v>347</v>
       </c>
       <c r="E12" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F12" t="s">
-        <v>322</v>
+        <v>348</v>
       </c>
       <c r="G12" t="s">
-        <v>323</v>
+        <v>349</v>
       </c>
       <c r="H12" t="s">
-        <v>324</v>
+        <v>350</v>
       </c>
       <c r="I12" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>325</v>
+        <v>351</v>
       </c>
       <c r="B13" t="s">
-        <v>326</v>
+        <v>352</v>
       </c>
       <c r="C13" t="s">
-        <v>327</v>
+        <v>353</v>
       </c>
       <c r="D13" t="s">
-        <v>328</v>
+        <v>354</v>
       </c>
       <c r="E13" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F13" t="s">
-        <v>329</v>
+        <v>355</v>
       </c>
       <c r="G13" t="s">
-        <v>330</v>
+        <v>356</v>
       </c>
       <c r="H13" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="I13" t="s">
-        <v>326</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -4579,706 +4736,706 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>332</v>
+        <v>358</v>
       </c>
       <c r="C2" t="s">
-        <v>333</v>
+        <v>359</v>
       </c>
       <c r="D2" t="s">
-        <v>334</v>
+        <v>360</v>
       </c>
       <c r="E2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F2" t="s">
-        <v>335</v>
+        <v>361</v>
       </c>
       <c r="G2" t="s">
-        <v>336</v>
+        <v>362</v>
       </c>
       <c r="H2" t="s">
-        <v>337</v>
+        <v>363</v>
       </c>
       <c r="I2" t="s">
-        <v>338</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>339</v>
+        <v>365</v>
       </c>
       <c r="C3" t="s">
-        <v>340</v>
+        <v>366</v>
       </c>
       <c r="D3" t="s">
-        <v>341</v>
+        <v>367</v>
       </c>
       <c r="E3" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F3" t="s">
-        <v>342</v>
+        <v>368</v>
       </c>
       <c r="G3" t="s">
-        <v>343</v>
+        <v>369</v>
       </c>
       <c r="H3" t="s">
-        <v>344</v>
+        <v>370</v>
       </c>
       <c r="I3" t="s">
-        <v>345</v>
+        <v>371</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>346</v>
+        <v>372</v>
       </c>
       <c r="B4" t="s">
-        <v>347</v>
+        <v>373</v>
       </c>
       <c r="C4" t="s">
-        <v>348</v>
+        <v>374</v>
       </c>
       <c r="D4" t="s">
-        <v>349</v>
+        <v>375</v>
       </c>
       <c r="E4" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F4" t="s">
-        <v>350</v>
+        <v>376</v>
       </c>
       <c r="G4" t="s">
-        <v>351</v>
+        <v>377</v>
       </c>
       <c r="H4" t="s">
-        <v>352</v>
+        <v>378</v>
       </c>
       <c r="I4" t="s">
-        <v>353</v>
+        <v>379</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>354</v>
+        <v>380</v>
       </c>
       <c r="B5" t="s">
-        <v>355</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>356</v>
+        <v>77</v>
       </c>
       <c r="D5" t="s">
-        <v>357</v>
+        <v>381</v>
       </c>
       <c r="E5" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F5" t="s">
-        <v>358</v>
+        <v>382</v>
       </c>
       <c r="G5" t="s">
-        <v>359</v>
+        <v>383</v>
       </c>
       <c r="H5" t="s">
-        <v>360</v>
+        <v>384</v>
       </c>
       <c r="I5" t="s">
-        <v>361</v>
+        <v>385</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="B6" t="s">
-        <v>363</v>
+        <v>387</v>
       </c>
       <c r="C6" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="D6" t="s">
-        <v>365</v>
+        <v>389</v>
       </c>
       <c r="E6" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F6" t="s">
-        <v>366</v>
+        <v>390</v>
       </c>
       <c r="G6" t="s">
-        <v>367</v>
+        <v>391</v>
       </c>
       <c r="H6" t="s">
-        <v>368</v>
+        <v>392</v>
       </c>
       <c r="I6" t="s">
-        <v>369</v>
+        <v>393</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>370</v>
+        <v>394</v>
       </c>
       <c r="B7" t="s">
-        <v>371</v>
+        <v>395</v>
       </c>
       <c r="C7" t="s">
-        <v>372</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>373</v>
+        <v>396</v>
       </c>
       <c r="E7" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F7" t="s">
-        <v>374</v>
+        <v>397</v>
       </c>
       <c r="G7" t="s">
-        <v>375</v>
+        <v>398</v>
       </c>
       <c r="H7" t="s">
-        <v>376</v>
+        <v>399</v>
       </c>
       <c r="I7" t="s">
-        <v>377</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>378</v>
+        <v>401</v>
       </c>
       <c r="B8" t="s">
-        <v>379</v>
+        <v>402</v>
       </c>
       <c r="C8" t="s">
-        <v>380</v>
+        <v>403</v>
       </c>
       <c r="D8" t="s">
-        <v>381</v>
+        <v>404</v>
       </c>
       <c r="E8" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F8" t="s">
-        <v>382</v>
+        <v>405</v>
       </c>
       <c r="G8" t="s">
-        <v>383</v>
+        <v>406</v>
       </c>
       <c r="H8" t="s">
-        <v>384</v>
+        <v>407</v>
       </c>
       <c r="I8" t="s">
-        <v>385</v>
+        <v>408</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>386</v>
+        <v>409</v>
       </c>
       <c r="B9" t="s">
-        <v>387</v>
+        <v>410</v>
       </c>
       <c r="C9" t="s">
-        <v>388</v>
+        <v>411</v>
       </c>
       <c r="D9" t="s">
-        <v>389</v>
+        <v>412</v>
       </c>
       <c r="E9" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F9" t="s">
-        <v>390</v>
+        <v>413</v>
       </c>
       <c r="G9" t="s">
-        <v>391</v>
+        <v>414</v>
       </c>
       <c r="H9" t="s">
-        <v>392</v>
+        <v>415</v>
       </c>
       <c r="I9" t="s">
-        <v>393</v>
+        <v>416</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>394</v>
+        <v>417</v>
       </c>
       <c r="B10" t="s">
-        <v>395</v>
+        <v>418</v>
       </c>
       <c r="C10" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="D10" t="s">
-        <v>396</v>
+        <v>419</v>
       </c>
       <c r="E10" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F10" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="G10" t="s">
-        <v>397</v>
+        <v>420</v>
       </c>
       <c r="H10" t="s">
-        <v>398</v>
+        <v>421</v>
       </c>
       <c r="I10" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>399</v>
+        <v>422</v>
       </c>
       <c r="B11" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="C11" t="s">
-        <v>320</v>
+        <v>346</v>
       </c>
       <c r="D11" t="s">
-        <v>321</v>
+        <v>347</v>
       </c>
       <c r="E11" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F11" t="s">
-        <v>322</v>
+        <v>348</v>
       </c>
       <c r="G11" t="s">
-        <v>323</v>
+        <v>349</v>
       </c>
       <c r="H11" t="s">
-        <v>324</v>
+        <v>350</v>
       </c>
       <c r="I11" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>400</v>
+        <v>423</v>
       </c>
       <c r="B12" t="s">
-        <v>326</v>
+        <v>352</v>
       </c>
       <c r="C12" t="s">
-        <v>327</v>
+        <v>353</v>
       </c>
       <c r="D12" t="s">
-        <v>328</v>
+        <v>354</v>
       </c>
       <c r="E12" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F12" t="s">
-        <v>329</v>
+        <v>355</v>
       </c>
       <c r="G12" t="s">
-        <v>330</v>
+        <v>356</v>
       </c>
       <c r="H12" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="I12" t="s">
-        <v>326</v>
+        <v>352</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>401</v>
+        <v>424</v>
       </c>
       <c r="B13" t="s">
-        <v>402</v>
+        <v>425</v>
       </c>
       <c r="C13" t="s">
-        <v>403</v>
+        <v>426</v>
       </c>
       <c r="D13" t="s">
-        <v>404</v>
+        <v>427</v>
       </c>
       <c r="E13" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F13" t="s">
-        <v>405</v>
+        <v>428</v>
       </c>
       <c r="G13" t="s">
-        <v>406</v>
+        <v>429</v>
       </c>
       <c r="H13" t="s">
-        <v>407</v>
+        <v>430</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>408</v>
+        <v>431</v>
       </c>
       <c r="B14" t="s">
-        <v>409</v>
+        <v>432</v>
       </c>
       <c r="C14" t="s">
-        <v>410</v>
+        <v>433</v>
       </c>
       <c r="D14" t="s">
-        <v>411</v>
+        <v>434</v>
       </c>
       <c r="E14" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F14" t="s">
-        <v>412</v>
+        <v>435</v>
       </c>
       <c r="G14" t="s">
-        <v>413</v>
+        <v>436</v>
       </c>
       <c r="H14" t="s">
-        <v>414</v>
+        <v>437</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>415</v>
+        <v>438</v>
       </c>
       <c r="B15" t="s">
-        <v>416</v>
+        <v>439</v>
       </c>
       <c r="C15" t="s">
-        <v>417</v>
+        <v>440</v>
       </c>
       <c r="D15" t="s">
-        <v>418</v>
+        <v>441</v>
       </c>
       <c r="E15" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F15" t="s">
-        <v>419</v>
+        <v>442</v>
       </c>
       <c r="G15" t="s">
-        <v>420</v>
+        <v>443</v>
       </c>
       <c r="H15" t="s">
-        <v>421</v>
+        <v>444</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>422</v>
+        <v>445</v>
       </c>
       <c r="B16" t="s">
-        <v>423</v>
+        <v>446</v>
       </c>
       <c r="C16" t="s">
-        <v>424</v>
+        <v>447</v>
       </c>
       <c r="D16" t="s">
-        <v>425</v>
+        <v>448</v>
       </c>
       <c r="E16" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F16" t="s">
-        <v>426</v>
+        <v>449</v>
       </c>
       <c r="G16" t="s">
-        <v>427</v>
+        <v>450</v>
       </c>
       <c r="H16" t="s">
-        <v>428</v>
+        <v>451</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>429</v>
+        <v>452</v>
       </c>
       <c r="B17" t="s">
-        <v>430</v>
+        <v>453</v>
       </c>
       <c r="C17" t="s">
-        <v>431</v>
+        <v>454</v>
       </c>
       <c r="D17" t="s">
-        <v>432</v>
+        <v>455</v>
       </c>
       <c r="E17" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F17" t="s">
-        <v>433</v>
+        <v>456</v>
       </c>
       <c r="G17" t="s">
-        <v>434</v>
+        <v>457</v>
       </c>
       <c r="H17" t="s">
-        <v>435</v>
+        <v>458</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>436</v>
+        <v>459</v>
       </c>
       <c r="B18" t="s">
-        <v>437</v>
+        <v>460</v>
       </c>
       <c r="C18" t="s">
-        <v>438</v>
+        <v>461</v>
       </c>
       <c r="D18" t="s">
-        <v>439</v>
+        <v>462</v>
       </c>
       <c r="E18" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F18" t="s">
-        <v>440</v>
+        <v>463</v>
       </c>
       <c r="G18" t="s">
-        <v>441</v>
+        <v>464</v>
       </c>
       <c r="H18" t="s">
-        <v>442</v>
+        <v>465</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>443</v>
+        <v>466</v>
       </c>
       <c r="B19" t="s">
-        <v>444</v>
+        <v>467</v>
       </c>
       <c r="C19" t="s">
-        <v>445</v>
+        <v>468</v>
       </c>
       <c r="D19" t="s">
-        <v>446</v>
+        <v>469</v>
       </c>
       <c r="E19" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F19" t="s">
-        <v>447</v>
+        <v>470</v>
       </c>
       <c r="G19" t="s">
-        <v>448</v>
+        <v>471</v>
       </c>
       <c r="H19" t="s">
-        <v>449</v>
+        <v>472</v>
       </c>
       <c r="I19" t="s">
-        <v>450</v>
+        <v>473</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>451</v>
+        <v>474</v>
       </c>
       <c r="B20" t="s">
-        <v>452</v>
+        <v>475</v>
       </c>
       <c r="C20" t="s">
-        <v>453</v>
+        <v>476</v>
       </c>
       <c r="D20" t="s">
-        <v>454</v>
+        <v>477</v>
       </c>
       <c r="E20" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F20" t="s">
-        <v>455</v>
+        <v>478</v>
       </c>
       <c r="G20" t="s">
-        <v>456</v>
+        <v>479</v>
       </c>
       <c r="H20" t="s">
-        <v>457</v>
+        <v>480</v>
       </c>
       <c r="I20" t="s">
-        <v>458</v>
+        <v>481</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>459</v>
+        <v>482</v>
       </c>
       <c r="B21" t="s">
-        <v>460</v>
+        <v>483</v>
       </c>
       <c r="C21" t="s">
-        <v>461</v>
+        <v>484</v>
       </c>
       <c r="D21" t="s">
-        <v>462</v>
+        <v>485</v>
       </c>
       <c r="E21" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F21" t="s">
-        <v>463</v>
+        <v>486</v>
       </c>
       <c r="G21" t="s">
-        <v>464</v>
+        <v>487</v>
       </c>
       <c r="H21" t="s">
-        <v>465</v>
+        <v>488</v>
       </c>
       <c r="I21" t="s">
-        <v>466</v>
+        <v>489</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>467</v>
+        <v>490</v>
       </c>
       <c r="B22" t="s">
-        <v>468</v>
+        <v>491</v>
       </c>
       <c r="C22" t="s">
-        <v>469</v>
+        <v>492</v>
       </c>
       <c r="D22" t="s">
-        <v>470</v>
+        <v>493</v>
       </c>
       <c r="E22" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F22" t="s">
-        <v>471</v>
+        <v>494</v>
       </c>
       <c r="G22" t="s">
-        <v>472</v>
+        <v>495</v>
       </c>
       <c r="H22" t="s">
-        <v>473</v>
+        <v>496</v>
       </c>
       <c r="I22" t="s">
-        <v>474</v>
+        <v>497</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>475</v>
+        <v>498</v>
       </c>
       <c r="B23" t="s">
-        <v>476</v>
+        <v>499</v>
       </c>
       <c r="C23" t="s">
-        <v>477</v>
+        <v>500</v>
       </c>
       <c r="D23" t="s">
-        <v>478</v>
+        <v>501</v>
       </c>
       <c r="E23" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F23" t="s">
-        <v>479</v>
+        <v>502</v>
       </c>
       <c r="G23" t="s">
-        <v>480</v>
+        <v>503</v>
       </c>
       <c r="H23" t="s">
-        <v>481</v>
+        <v>504</v>
       </c>
       <c r="I23" t="s">
-        <v>482</v>
+        <v>505</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>483</v>
+        <v>506</v>
       </c>
       <c r="B24" t="s">
-        <v>484</v>
+        <v>507</v>
       </c>
       <c r="C24" t="s">
-        <v>485</v>
+        <v>508</v>
       </c>
       <c r="D24" t="s">
-        <v>486</v>
+        <v>509</v>
       </c>
       <c r="E24" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F24" t="s">
-        <v>487</v>
+        <v>510</v>
       </c>
       <c r="G24" t="s">
-        <v>488</v>
+        <v>511</v>
       </c>
       <c r="H24" t="s">
-        <v>489</v>
+        <v>512</v>
       </c>
       <c r="I24" t="s">
-        <v>490</v>
+        <v>513</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>491</v>
+        <v>514</v>
       </c>
       <c r="B25" t="s">
-        <v>492</v>
+        <v>515</v>
       </c>
       <c r="C25" t="s">
-        <v>493</v>
+        <v>516</v>
       </c>
       <c r="D25" t="s">
-        <v>494</v>
+        <v>517</v>
       </c>
       <c r="E25" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F25" t="s">
-        <v>495</v>
+        <v>518</v>
       </c>
       <c r="G25" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="H25" t="s">
-        <v>496</v>
+        <v>519</v>
       </c>
     </row>
   </sheetData>
@@ -5296,260 +5453,260 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>497</v>
+        <v>520</v>
       </c>
       <c r="C2" t="s">
-        <v>498</v>
+        <v>521</v>
       </c>
       <c r="D2" t="s">
-        <v>499</v>
+        <v>522</v>
       </c>
       <c r="E2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F2" t="s">
-        <v>499</v>
+        <v>522</v>
       </c>
       <c r="G2" t="s">
-        <v>500</v>
+        <v>523</v>
       </c>
       <c r="H2" t="s">
-        <v>501</v>
+        <v>524</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>502</v>
+        <v>525</v>
       </c>
       <c r="C3" t="s">
-        <v>503</v>
+        <v>526</v>
       </c>
       <c r="D3" t="s">
-        <v>504</v>
+        <v>527</v>
       </c>
       <c r="E3" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F3" t="s">
-        <v>504</v>
+        <v>527</v>
       </c>
       <c r="G3" t="s">
-        <v>505</v>
+        <v>528</v>
       </c>
       <c r="H3" t="s">
-        <v>506</v>
+        <v>529</v>
       </c>
       <c r="I3" t="s">
-        <v>507</v>
+        <v>530</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>346</v>
+        <v>372</v>
       </c>
       <c r="B4" t="s">
-        <v>347</v>
+        <v>373</v>
       </c>
       <c r="C4" t="s">
-        <v>348</v>
+        <v>374</v>
       </c>
       <c r="D4" t="s">
-        <v>508</v>
+        <v>531</v>
       </c>
       <c r="E4" t="s">
-        <v>509</v>
+        <v>532</v>
       </c>
       <c r="F4" t="s">
-        <v>508</v>
+        <v>531</v>
       </c>
       <c r="G4" t="s">
-        <v>351</v>
+        <v>377</v>
       </c>
       <c r="H4" t="s">
-        <v>352</v>
+        <v>378</v>
       </c>
       <c r="I4" t="s">
-        <v>510</v>
+        <v>533</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>354</v>
+        <v>380</v>
       </c>
       <c r="B5" t="s">
-        <v>355</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>356</v>
+        <v>77</v>
       </c>
       <c r="D5" t="s">
-        <v>358</v>
+        <v>382</v>
       </c>
       <c r="E5" t="s">
-        <v>511</v>
+        <v>534</v>
       </c>
       <c r="F5" t="s">
-        <v>358</v>
+        <v>382</v>
       </c>
       <c r="G5" t="s">
-        <v>359</v>
+        <v>383</v>
       </c>
       <c r="H5" t="s">
-        <v>360</v>
+        <v>384</v>
       </c>
       <c r="I5" t="s">
-        <v>361</v>
+        <v>385</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="B6" t="s">
-        <v>363</v>
+        <v>387</v>
       </c>
       <c r="C6" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="D6" t="s">
-        <v>512</v>
+        <v>535</v>
       </c>
       <c r="E6" t="s">
-        <v>513</v>
+        <v>536</v>
       </c>
       <c r="F6" t="s">
-        <v>512</v>
+        <v>535</v>
       </c>
       <c r="G6" t="s">
-        <v>514</v>
+        <v>537</v>
       </c>
       <c r="H6" t="s">
-        <v>368</v>
+        <v>392</v>
       </c>
       <c r="I6" t="s">
-        <v>515</v>
+        <v>538</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>370</v>
+        <v>394</v>
       </c>
       <c r="B7" t="s">
-        <v>371</v>
+        <v>395</v>
       </c>
       <c r="C7" t="s">
-        <v>372</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>374</v>
+        <v>397</v>
       </c>
       <c r="E7" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F7" t="s">
-        <v>374</v>
+        <v>397</v>
       </c>
       <c r="G7" t="s">
-        <v>516</v>
+        <v>539</v>
       </c>
       <c r="H7" t="s">
-        <v>376</v>
+        <v>399</v>
       </c>
       <c r="I7" t="s">
-        <v>377</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>517</v>
+        <v>540</v>
       </c>
       <c r="B8" t="s">
-        <v>518</v>
+        <v>541</v>
       </c>
       <c r="C8" t="s">
-        <v>519</v>
+        <v>542</v>
       </c>
       <c r="D8" t="s">
-        <v>520</v>
+        <v>543</v>
       </c>
       <c r="E8" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F8" t="s">
-        <v>520</v>
+        <v>543</v>
       </c>
       <c r="G8" t="s">
-        <v>521</v>
+        <v>544</v>
       </c>
       <c r="H8" t="s">
-        <v>522</v>
+        <v>545</v>
       </c>
       <c r="I8" t="s">
-        <v>523</v>
+        <v>546</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>524</v>
+        <v>547</v>
       </c>
       <c r="B9" t="s">
-        <v>525</v>
+        <v>548</v>
       </c>
       <c r="C9" t="s">
-        <v>526</v>
+        <v>549</v>
       </c>
       <c r="D9" t="s">
-        <v>527</v>
+        <v>550</v>
       </c>
       <c r="E9" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F9" t="s">
-        <v>527</v>
+        <v>550</v>
       </c>
       <c r="G9" t="s">
-        <v>528</v>
+        <v>551</v>
       </c>
       <c r="H9" t="s">
-        <v>529</v>
+        <v>552</v>
       </c>
       <c r="I9" t="s">
-        <v>530</v>
+        <v>553</v>
       </c>
     </row>
   </sheetData>
@@ -5567,263 +5724,263 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>531</v>
+        <v>554</v>
       </c>
       <c r="D2" t="s">
-        <v>532</v>
+        <v>555</v>
       </c>
       <c r="E2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F2" t="s">
-        <v>533</v>
+        <v>556</v>
       </c>
       <c r="G2" t="s">
-        <v>534</v>
+        <v>557</v>
       </c>
       <c r="H2" t="s">
-        <v>535</v>
+        <v>558</v>
       </c>
       <c r="I2" t="s">
-        <v>536</v>
+        <v>559</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>537</v>
+        <v>560</v>
       </c>
       <c r="C3" t="s">
-        <v>538</v>
+        <v>561</v>
       </c>
       <c r="D3" t="s">
-        <v>539</v>
+        <v>562</v>
       </c>
       <c r="E3" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F3" t="s">
-        <v>540</v>
+        <v>563</v>
       </c>
       <c r="G3" t="s">
-        <v>541</v>
+        <v>564</v>
       </c>
       <c r="H3" t="s">
-        <v>542</v>
+        <v>565</v>
       </c>
       <c r="I3" t="s">
-        <v>543</v>
+        <v>566</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>544</v>
+        <v>567</v>
       </c>
       <c r="B4" t="s">
-        <v>545</v>
+        <v>568</v>
       </c>
       <c r="C4" t="s">
-        <v>546</v>
+        <v>569</v>
       </c>
       <c r="D4" t="s">
-        <v>547</v>
+        <v>570</v>
       </c>
       <c r="E4" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F4" t="s">
-        <v>548</v>
+        <v>571</v>
       </c>
       <c r="G4" t="s">
-        <v>549</v>
+        <v>572</v>
       </c>
       <c r="H4" t="s">
-        <v>550</v>
+        <v>573</v>
       </c>
       <c r="I4" t="s">
-        <v>551</v>
+        <v>574</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>552</v>
+        <v>575</v>
       </c>
       <c r="B5" t="s">
-        <v>553</v>
+        <v>576</v>
       </c>
       <c r="C5" t="s">
-        <v>554</v>
+        <v>577</v>
       </c>
       <c r="D5" t="s">
-        <v>555</v>
+        <v>578</v>
       </c>
       <c r="E5" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F5" t="s">
-        <v>556</v>
+        <v>579</v>
       </c>
       <c r="G5" t="s">
-        <v>557</v>
+        <v>580</v>
       </c>
       <c r="H5" t="s">
-        <v>558</v>
+        <v>581</v>
       </c>
       <c r="I5" t="s">
-        <v>559</v>
+        <v>582</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>560</v>
+        <v>583</v>
       </c>
       <c r="B6" t="s">
-        <v>561</v>
+        <v>584</v>
       </c>
       <c r="C6" t="s">
-        <v>562</v>
+        <v>585</v>
       </c>
       <c r="D6" t="s">
-        <v>563</v>
+        <v>586</v>
       </c>
       <c r="E6" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F6" t="s">
-        <v>564</v>
+        <v>587</v>
       </c>
       <c r="G6" t="s">
-        <v>565</v>
+        <v>588</v>
       </c>
       <c r="H6" t="s">
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="I6" t="s">
-        <v>567</v>
+        <v>590</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>568</v>
+        <v>591</v>
       </c>
       <c r="B7" t="s">
-        <v>569</v>
+        <v>592</v>
       </c>
       <c r="C7" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D7" t="s">
-        <v>571</v>
+        <v>594</v>
       </c>
       <c r="E7" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F7" t="s">
-        <v>569</v>
+        <v>592</v>
       </c>
       <c r="G7" t="s">
-        <v>572</v>
+        <v>595</v>
       </c>
       <c r="H7" t="s">
-        <v>573</v>
+        <v>596</v>
       </c>
       <c r="I7" t="s">
-        <v>574</v>
+        <v>597</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>575</v>
+        <v>598</v>
       </c>
       <c r="B8" t="s">
-        <v>576</v>
+        <v>599</v>
       </c>
       <c r="C8" t="s">
-        <v>577</v>
+        <v>600</v>
       </c>
       <c r="D8" t="s">
-        <v>578</v>
+        <v>601</v>
       </c>
       <c r="E8" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F8" t="s">
-        <v>579</v>
+        <v>602</v>
       </c>
       <c r="G8" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="H8" t="s">
-        <v>580</v>
+        <v>603</v>
       </c>
       <c r="I8" t="s">
-        <v>581</v>
+        <v>604</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>582</v>
+        <v>605</v>
       </c>
       <c r="B9" t="s">
-        <v>583</v>
+        <v>606</v>
       </c>
       <c r="C9" t="s">
-        <v>584</v>
+        <v>607</v>
       </c>
       <c r="D9" t="s">
-        <v>585</v>
+        <v>608</v>
       </c>
       <c r="E9" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F9" t="s">
-        <v>586</v>
+        <v>609</v>
       </c>
       <c r="G9" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="H9" t="s">
-        <v>587</v>
+        <v>610</v>
       </c>
       <c r="I9" t="s">
-        <v>588</v>
+        <v>611</v>
       </c>
     </row>
   </sheetData>
@@ -5841,205 +5998,205 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>589</v>
+        <v>612</v>
       </c>
       <c r="C2" t="s">
-        <v>590</v>
+        <v>613</v>
       </c>
       <c r="D2" t="s">
-        <v>591</v>
+        <v>614</v>
       </c>
       <c r="E2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F2" t="s">
-        <v>592</v>
+        <v>615</v>
       </c>
       <c r="G2" t="s">
-        <v>593</v>
+        <v>616</v>
       </c>
       <c r="H2" t="s">
-        <v>594</v>
+        <v>617</v>
       </c>
       <c r="I2" t="s">
-        <v>595</v>
+        <v>618</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>596</v>
+        <v>619</v>
       </c>
       <c r="C3" t="s">
-        <v>597</v>
+        <v>620</v>
       </c>
       <c r="D3" t="s">
-        <v>598</v>
+        <v>621</v>
       </c>
       <c r="E3" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F3" t="s">
-        <v>599</v>
+        <v>622</v>
       </c>
       <c r="G3" t="s">
-        <v>600</v>
+        <v>623</v>
       </c>
       <c r="H3" t="s">
-        <v>601</v>
+        <v>624</v>
       </c>
       <c r="I3" t="s">
-        <v>602</v>
+        <v>625</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>603</v>
+        <v>626</v>
       </c>
       <c r="B4" t="s">
-        <v>604</v>
+        <v>627</v>
       </c>
       <c r="C4" t="s">
-        <v>605</v>
+        <v>628</v>
       </c>
       <c r="D4" t="s">
-        <v>606</v>
+        <v>629</v>
       </c>
       <c r="E4" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F4" t="s">
-        <v>607</v>
+        <v>630</v>
       </c>
       <c r="G4" t="s">
-        <v>608</v>
+        <v>631</v>
       </c>
       <c r="H4" t="s">
-        <v>609</v>
+        <v>632</v>
       </c>
       <c r="I4" t="s">
-        <v>604</v>
+        <v>627</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>610</v>
+        <v>633</v>
       </c>
       <c r="B5" t="s">
-        <v>611</v>
+        <v>634</v>
       </c>
       <c r="C5" t="s">
-        <v>612</v>
+        <v>635</v>
       </c>
       <c r="D5" t="s">
-        <v>613</v>
+        <v>636</v>
       </c>
       <c r="E5" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F5" t="s">
-        <v>614</v>
+        <v>637</v>
       </c>
       <c r="G5" t="s">
-        <v>615</v>
+        <v>638</v>
       </c>
       <c r="H5" t="s">
-        <v>616</v>
+        <v>639</v>
       </c>
       <c r="I5" t="s">
-        <v>611</v>
+        <v>634</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>617</v>
+        <v>640</v>
       </c>
       <c r="B6" t="s">
-        <v>618</v>
+        <v>641</v>
       </c>
       <c r="C6" t="s">
-        <v>619</v>
+        <v>642</v>
       </c>
       <c r="D6" t="s">
-        <v>620</v>
+        <v>643</v>
       </c>
       <c r="E6" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F6" t="s">
-        <v>621</v>
+        <v>644</v>
       </c>
       <c r="G6" t="s">
-        <v>622</v>
+        <v>645</v>
       </c>
       <c r="H6" t="s">
-        <v>623</v>
+        <v>646</v>
       </c>
       <c r="I6" t="s">
-        <v>624</v>
+        <v>647</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>625</v>
+        <v>648</v>
       </c>
       <c r="B7" t="s">
-        <v>626</v>
+        <v>649</v>
       </c>
       <c r="C7" t="s">
-        <v>627</v>
+        <v>650</v>
       </c>
       <c r="D7" t="s">
-        <v>628</v>
+        <v>651</v>
       </c>
       <c r="E7" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F7" t="s">
-        <v>629</v>
+        <v>652</v>
       </c>
       <c r="G7" t="s">
-        <v>630</v>
+        <v>653</v>
       </c>
       <c r="H7" t="s">
-        <v>631</v>
+        <v>654</v>
       </c>
       <c r="I7" t="s">
-        <v>632</v>
+        <v>655</v>
       </c>
     </row>
   </sheetData>

--- a/AdofaiTweaks.Generator/translations.xlsx
+++ b/AdofaiTweaks.Generator/translations.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="769">
   <si>
     <t>Translation Status</t>
   </si>
@@ -62,7 +62,7 @@
     <t>100% (0 left)</t>
   </si>
   <si>
-    <t>66.7% (2 left)</t>
+    <t>83.3% (1 left)</t>
   </si>
   <si>
     <t>DisableEffects</t>
@@ -170,7 +170,7 @@
     <t>이것은 테스트 문자열입니다.</t>
   </si>
   <si>
-    <t>Esto es un código de prueba.</t>
+    <t>Esto es una cadena de prueba.</t>
   </si>
   <si>
     <t>To jest linia testowa.</t>
@@ -251,6 +251,18 @@
     <t>키 변경하기</t>
   </si>
   <si>
+    <t>Cambiar tecla</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Changer Raccourci</t>
+  </si>
+  <si>
+    <t>更改按键</t>
+  </si>
+  <si>
     <t>SHORTCUT_DONE</t>
   </si>
   <si>
@@ -260,6 +272,21 @@
     <t>완료</t>
   </si>
   <si>
+    <t>Valider</t>
+  </si>
+  <si>
+    <t>Zakończ</t>
+  </si>
+  <si>
+    <t>Hoàn tất</t>
+  </si>
+  <si>
+    <t>完成</t>
+  </si>
+  <si>
+    <t>Fertig</t>
+  </si>
+  <si>
     <t>NAME</t>
   </si>
   <si>
@@ -515,9 +542,6 @@
     <t>Filtros excluídos: ({0})</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Filtres exclus: ({0})</t>
   </si>
   <si>
@@ -767,6 +791,15 @@
     <t>"축하합니다!" 및 상세한 결과 텍스트 숨기기</t>
   </si>
   <si>
+    <t>Ocultar texto de "¡Felicitaciones!" y la pantalla de resultados detallados</t>
+  </si>
+  <si>
+    <t>Masquer le texte "Félicitations !" et les résultats détaillés</t>
+  </si>
+  <si>
+    <t>隐藏“恭喜”等最后结尾的文本</t>
+  </si>
+  <si>
     <t>HIT_ERROR_METER</t>
   </si>
   <si>
@@ -776,6 +809,15 @@
     <t>입력 계기판 숨기기</t>
   </si>
   <si>
+    <t>Ocultar el medidor de errores</t>
+  </si>
+  <si>
+    <t>Masquer la jauge d'erreurs</t>
+  </si>
+  <si>
+    <t>隐藏命中误差表</t>
+  </si>
+  <si>
     <t>LAST_FLOOR_FLASH</t>
   </si>
   <si>
@@ -785,6 +827,15 @@
     <t>마지막 타일을 밟을 때 흰색 플래시 숨기기</t>
   </si>
   <si>
+    <t>Ocultar el destello blanco que ocurre en la última casilla</t>
+  </si>
+  <si>
+    <t>Masquer le flash blanc en atteignant la dernière case</t>
+  </si>
+  <si>
+    <t>到达最后一个砖块时隐藏白色闪光</t>
+  </si>
+  <si>
     <t>RECORDING_MODE</t>
   </si>
   <si>
@@ -794,6 +845,15 @@
     <t>녹화 모드</t>
   </si>
   <si>
+    <t>Modo de grabación</t>
+  </si>
+  <si>
+    <t>Mode d'enregistrement</t>
+  </si>
+  <si>
+    <t>录制模式</t>
+  </si>
+  <si>
     <t>USE_RECORDING_MODE_SHORTCUT</t>
   </si>
   <si>
@@ -803,6 +863,15 @@
     <t>녹화 모드 토글 단축키 사용하기</t>
   </si>
   <si>
+    <t>Usar atajo para activar/desactivar el modo de grabación</t>
+  </si>
+  <si>
+    <t>Utiliser le raccourci d'activation/désactivation du mode d'enregistrement</t>
+  </si>
+  <si>
+    <t>使用录制模式切换快捷键</t>
+  </si>
+  <si>
     <t>RECORDING_MODE_SHORTCUT</t>
   </si>
   <si>
@@ -812,6 +881,15 @@
     <t>녹화 모드 토글 단축키</t>
   </si>
   <si>
+    <t>Atajo para activar/desactivar el modo de grabación:</t>
+  </si>
+  <si>
+    <t>Raccourci d'activation/désactivation du mode d'enregistrement</t>
+  </si>
+  <si>
+    <t>录制模式切换快捷键：</t>
+  </si>
+  <si>
     <t>Judgment Visuals</t>
   </si>
   <si>
@@ -1172,18 +1250,6 @@
     <t>Hecho</t>
   </si>
   <si>
-    <t>Valider</t>
-  </si>
-  <si>
-    <t>Hoàn tất</t>
-  </si>
-  <si>
-    <t>完成</t>
-  </si>
-  <si>
-    <t>Fertig</t>
-  </si>
-  <si>
     <t>PRESS_KEY_REGISTER</t>
   </si>
   <si>
@@ -1223,9 +1289,6 @@
     <t>Đổi phím</t>
   </si>
   <si>
-    <t>更改按键</t>
-  </si>
-  <si>
     <t>Wechsle Tasten</t>
   </si>
   <si>
@@ -1628,9 +1691,6 @@
     <t>Registrierte Tasten</t>
   </si>
   <si>
-    <t>Zakończ</t>
-  </si>
-  <si>
     <t>Appuie sur une touche pour l'enregistrer/la désenregistrer</t>
   </si>
   <si>
@@ -2036,6 +2096,12 @@
     <t>Bestimmt die Deckraft der Planeten</t>
   </si>
   <si>
+    <t>球本体:</t>
+  </si>
+  <si>
+    <t>球尾部:</t>
+  </si>
+  <si>
     <t>RING</t>
   </si>
   <si>
@@ -2049,6 +2115,9 @@
   </si>
   <si>
     <t>Anneau:</t>
+  </si>
+  <si>
+    <t>球环:</t>
   </si>
   <si>
     <t>Restrict Judgments</t>
@@ -2644,19 +2713,19 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I3" t="s">
         <v>12</v>
@@ -2702,19 +2771,19 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
         <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I5" t="s">
         <v>16</v>
@@ -2801,7 +2870,7 @@
         <v>26</v>
       </c>
       <c r="H8" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="I8" t="s">
         <v>26</v>
@@ -2938,196 +3007,202 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>656</v>
+        <v>676</v>
       </c>
       <c r="C2" t="s">
-        <v>657</v>
+        <v>677</v>
       </c>
       <c r="D2" t="s">
-        <v>658</v>
+        <v>678</v>
       </c>
       <c r="E2" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="F2" t="s">
-        <v>659</v>
+        <v>679</v>
       </c>
       <c r="G2" t="s">
-        <v>660</v>
+        <v>680</v>
       </c>
       <c r="H2" t="s">
-        <v>661</v>
+        <v>681</v>
       </c>
       <c r="I2" t="s">
-        <v>662</v>
+        <v>682</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
-        <v>663</v>
+        <v>683</v>
       </c>
       <c r="C3" t="s">
-        <v>664</v>
+        <v>684</v>
       </c>
       <c r="D3" t="s">
-        <v>665</v>
+        <v>685</v>
       </c>
       <c r="E3" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="F3" t="s">
-        <v>666</v>
+        <v>686</v>
       </c>
       <c r="G3" t="s">
-        <v>667</v>
+        <v>687</v>
       </c>
       <c r="H3" t="s">
-        <v>668</v>
+        <v>688</v>
       </c>
       <c r="I3" t="s">
-        <v>669</v>
+        <v>689</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>626</v>
+        <v>646</v>
       </c>
       <c r="B4" t="s">
-        <v>627</v>
+        <v>647</v>
       </c>
       <c r="C4" t="s">
-        <v>628</v>
+        <v>648</v>
       </c>
       <c r="D4" t="s">
-        <v>629</v>
+        <v>649</v>
       </c>
       <c r="E4" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="F4" t="s">
-        <v>630</v>
+        <v>650</v>
       </c>
       <c r="G4" t="s">
-        <v>631</v>
+        <v>651</v>
       </c>
       <c r="H4" t="s">
-        <v>632</v>
+        <v>652</v>
       </c>
       <c r="I4" t="s">
-        <v>627</v>
+        <v>647</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>633</v>
+        <v>653</v>
       </c>
       <c r="B5" t="s">
-        <v>634</v>
+        <v>654</v>
       </c>
       <c r="C5" t="s">
-        <v>635</v>
+        <v>655</v>
       </c>
       <c r="D5" t="s">
-        <v>636</v>
+        <v>656</v>
       </c>
       <c r="E5" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="F5" t="s">
-        <v>637</v>
+        <v>657</v>
       </c>
       <c r="G5" t="s">
-        <v>638</v>
+        <v>658</v>
       </c>
       <c r="H5" t="s">
-        <v>639</v>
+        <v>659</v>
       </c>
       <c r="I5" t="s">
-        <v>634</v>
+        <v>654</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>640</v>
+        <v>660</v>
       </c>
       <c r="B6" t="s">
-        <v>641</v>
+        <v>661</v>
       </c>
       <c r="C6" t="s">
-        <v>642</v>
+        <v>662</v>
       </c>
       <c r="D6" t="s">
-        <v>643</v>
+        <v>663</v>
       </c>
       <c r="E6" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="F6" t="s">
-        <v>644</v>
+        <v>664</v>
       </c>
       <c r="G6" t="s">
-        <v>645</v>
+        <v>665</v>
       </c>
       <c r="H6" t="s">
-        <v>646</v>
+        <v>690</v>
       </c>
       <c r="I6" t="s">
-        <v>647</v>
+        <v>667</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>648</v>
+        <v>668</v>
       </c>
       <c r="B7" t="s">
-        <v>649</v>
+        <v>669</v>
       </c>
       <c r="C7" t="s">
-        <v>650</v>
+        <v>670</v>
       </c>
       <c r="D7" t="s">
-        <v>651</v>
+        <v>671</v>
       </c>
       <c r="E7" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="F7" t="s">
-        <v>652</v>
+        <v>672</v>
       </c>
       <c r="G7" t="s">
-        <v>653</v>
+        <v>673</v>
       </c>
       <c r="H7" t="s">
-        <v>654</v>
+        <v>691</v>
       </c>
       <c r="I7" t="s">
-        <v>655</v>
+        <v>675</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>670</v>
+        <v>692</v>
       </c>
       <c r="B8" t="s">
-        <v>671</v>
+        <v>693</v>
       </c>
       <c r="C8" t="s">
-        <v>672</v>
+        <v>694</v>
       </c>
       <c r="D8" t="s">
-        <v>673</v>
+        <v>695</v>
       </c>
       <c r="E8" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="F8" t="s">
-        <v>674</v>
+        <v>696</v>
+      </c>
+      <c r="G8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" t="s">
+        <v>697</v>
       </c>
     </row>
   </sheetData>
@@ -3174,289 +3249,289 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>675</v>
+        <v>698</v>
       </c>
       <c r="C2" t="s">
-        <v>676</v>
+        <v>699</v>
       </c>
       <c r="D2" t="s">
-        <v>677</v>
+        <v>700</v>
       </c>
       <c r="E2" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="F2" t="s">
-        <v>678</v>
+        <v>701</v>
       </c>
       <c r="G2" t="s">
-        <v>679</v>
+        <v>702</v>
       </c>
       <c r="H2" t="s">
-        <v>680</v>
+        <v>703</v>
       </c>
       <c r="I2" t="s">
-        <v>681</v>
+        <v>704</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
-        <v>682</v>
+        <v>705</v>
       </c>
       <c r="C3" t="s">
-        <v>683</v>
+        <v>706</v>
       </c>
       <c r="D3" t="s">
-        <v>684</v>
+        <v>707</v>
       </c>
       <c r="E3" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="F3" t="s">
-        <v>685</v>
+        <v>708</v>
       </c>
       <c r="G3" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="H3" t="s">
-        <v>686</v>
+        <v>709</v>
       </c>
       <c r="I3" t="s">
-        <v>687</v>
+        <v>710</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>688</v>
+        <v>711</v>
       </c>
       <c r="B4" t="s">
-        <v>689</v>
+        <v>712</v>
       </c>
       <c r="C4" t="s">
-        <v>690</v>
+        <v>713</v>
       </c>
       <c r="D4" t="s">
-        <v>691</v>
+        <v>714</v>
       </c>
       <c r="E4" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="F4" t="s">
-        <v>692</v>
+        <v>715</v>
       </c>
       <c r="G4" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="H4" t="s">
-        <v>693</v>
+        <v>716</v>
       </c>
       <c r="I4" t="s">
-        <v>694</v>
+        <v>717</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>695</v>
+        <v>718</v>
       </c>
       <c r="B5" t="s">
-        <v>696</v>
+        <v>719</v>
       </c>
       <c r="C5" t="s">
-        <v>697</v>
+        <v>720</v>
       </c>
       <c r="D5" t="s">
-        <v>698</v>
+        <v>721</v>
       </c>
       <c r="E5" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="F5" t="s">
-        <v>699</v>
+        <v>722</v>
       </c>
       <c r="G5" t="s">
-        <v>700</v>
+        <v>723</v>
       </c>
       <c r="H5" t="s">
-        <v>701</v>
+        <v>724</v>
       </c>
       <c r="I5" t="s">
-        <v>702</v>
+        <v>725</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>703</v>
+        <v>726</v>
       </c>
       <c r="B6" t="s">
-        <v>704</v>
+        <v>727</v>
       </c>
       <c r="C6" t="s">
-        <v>705</v>
+        <v>728</v>
       </c>
       <c r="D6" t="s">
-        <v>706</v>
+        <v>729</v>
       </c>
       <c r="E6" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="F6" t="s">
-        <v>707</v>
+        <v>730</v>
       </c>
       <c r="G6" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="H6" t="s">
-        <v>708</v>
+        <v>731</v>
       </c>
       <c r="I6" t="s">
-        <v>709</v>
+        <v>732</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>710</v>
+        <v>733</v>
       </c>
       <c r="B7" t="s">
-        <v>711</v>
+        <v>734</v>
       </c>
       <c r="C7" t="s">
-        <v>712</v>
+        <v>735</v>
       </c>
       <c r="D7" t="s">
-        <v>713</v>
+        <v>736</v>
       </c>
       <c r="E7" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="F7" t="s">
-        <v>714</v>
+        <v>737</v>
       </c>
       <c r="G7" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="H7" t="s">
-        <v>715</v>
+        <v>738</v>
       </c>
       <c r="I7" t="s">
-        <v>716</v>
+        <v>739</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>717</v>
+        <v>740</v>
       </c>
       <c r="B8" t="s">
-        <v>718</v>
+        <v>741</v>
       </c>
       <c r="C8" t="s">
-        <v>719</v>
+        <v>742</v>
       </c>
       <c r="D8" t="s">
-        <v>720</v>
+        <v>743</v>
       </c>
       <c r="E8" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="F8" t="s">
-        <v>721</v>
+        <v>744</v>
       </c>
       <c r="G8" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>722</v>
+        <v>745</v>
       </c>
       <c r="I8" t="s">
-        <v>723</v>
+        <v>746</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>724</v>
+        <v>747</v>
       </c>
       <c r="B9" t="s">
-        <v>725</v>
+        <v>748</v>
       </c>
       <c r="C9" t="s">
-        <v>726</v>
+        <v>749</v>
       </c>
       <c r="D9" t="s">
-        <v>727</v>
+        <v>750</v>
       </c>
       <c r="E9" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="F9" t="s">
-        <v>728</v>
+        <v>751</v>
       </c>
       <c r="G9" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="H9" t="s">
-        <v>729</v>
+        <v>752</v>
       </c>
       <c r="I9" t="s">
-        <v>730</v>
+        <v>753</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>731</v>
+        <v>754</v>
       </c>
       <c r="B10" t="s">
-        <v>732</v>
+        <v>755</v>
       </c>
       <c r="C10" t="s">
-        <v>733</v>
+        <v>756</v>
       </c>
       <c r="D10" t="s">
-        <v>734</v>
+        <v>757</v>
       </c>
       <c r="E10" t="s">
-        <v>735</v>
+        <v>758</v>
       </c>
       <c r="F10" t="s">
-        <v>736</v>
+        <v>759</v>
       </c>
       <c r="G10" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="H10" t="s">
-        <v>737</v>
+        <v>760</v>
       </c>
       <c r="I10" t="s">
-        <v>738</v>
+        <v>761</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>739</v>
+        <v>762</v>
       </c>
       <c r="B11" t="s">
-        <v>740</v>
+        <v>763</v>
       </c>
       <c r="C11" t="s">
-        <v>741</v>
+        <v>764</v>
       </c>
       <c r="D11" t="s">
-        <v>742</v>
+        <v>765</v>
       </c>
       <c r="E11" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="F11" t="s">
-        <v>743</v>
+        <v>766</v>
       </c>
       <c r="G11" t="s">
-        <v>744</v>
+        <v>767</v>
       </c>
       <c r="H11" t="s">
-        <v>745</v>
+        <v>768</v>
       </c>
     </row>
   </sheetData>
@@ -3627,16 +3702,49 @@
       <c r="C6" t="s">
         <v>74</v>
       </c>
+      <c r="D6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>81</v>
+      </c>
+      <c r="D7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I7" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -3683,321 +3791,321 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="G2" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="H2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="I2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="E3" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="F3" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G3" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="H3" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="I3" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D4" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="E4" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="F4" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="G4" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="H4" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="I4" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="D5" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="E5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="F5" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="G5" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="H5" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="I5" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="B6" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C6" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="D6" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="E6" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="F6" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="G6" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="H6" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="I6" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="B7" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="C7" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="D7" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="E7" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="F7" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="G7" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="H7" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="I7" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="B8" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C8" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="D8" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="E8" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="F8" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="G8" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="H8" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="I8" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="B9" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C9" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="D9" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="E9" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="F9" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="G9" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="H9" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="I9" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="B10" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C10" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="D10" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="E10" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="F10" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="G10" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="H10" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="I10" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="B11" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="C11" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="D11" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="E11" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="F11" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="G11" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="H11" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="I11" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B12" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="C12" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="D12" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="E12" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="F12" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="G12" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="H12" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="I12" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -4044,300 +4152,390 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="C2" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="D2" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="E2" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="F2" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="G2" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="H2" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="I2" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="C3" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="D3" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="E3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="F3" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="G3" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="H3" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="I3" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="B4" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="C4" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="D4" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="E4" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="F4" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="G4" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="H4" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="I4" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="B5" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="C5" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="D5" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="E5" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F5" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="G5" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="H5" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="I5" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B6" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C6" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="D6" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="E6" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="F6" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="G6" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="H6" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="I6" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="B7" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="C7" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="D7" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="E7" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="F7" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="G7" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="H7" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="I7" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="B8" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="C8" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="D8" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="E8" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="F8" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="G8" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="H8" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="I8" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="B9" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="C9" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="D9" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="E9" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="F9" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="G9" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="H9" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="I9" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="B10" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="C10" t="s">
-        <v>246</v>
+        <v>254</v>
+      </c>
+      <c r="D10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" t="s">
+        <v>256</v>
+      </c>
+      <c r="G10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="B11" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="C11" t="s">
-        <v>249</v>
+        <v>260</v>
+      </c>
+      <c r="D11" t="s">
+        <v>261</v>
+      </c>
+      <c r="E11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="B12" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="C12" t="s">
-        <v>252</v>
+        <v>266</v>
+      </c>
+      <c r="D12" t="s">
+        <v>267</v>
+      </c>
+      <c r="E12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" t="s">
+        <v>268</v>
+      </c>
+      <c r="G12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="B13" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="C13" t="s">
-        <v>255</v>
+        <v>272</v>
+      </c>
+      <c r="D13" t="s">
+        <v>273</v>
+      </c>
+      <c r="E13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" t="s">
+        <v>274</v>
+      </c>
+      <c r="G13" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="B14" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="C14" t="s">
-        <v>258</v>
+        <v>278</v>
+      </c>
+      <c r="D14" t="s">
+        <v>279</v>
+      </c>
+      <c r="E14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" t="s">
+        <v>280</v>
+      </c>
+      <c r="G14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="B15" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
       <c r="C15" t="s">
-        <v>261</v>
+        <v>284</v>
+      </c>
+      <c r="D15" t="s">
+        <v>285</v>
+      </c>
+      <c r="E15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" t="s">
+        <v>286</v>
+      </c>
+      <c r="G15" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -4384,341 +4582,341 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="C2" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="D2" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="E2" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="F2" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="G2" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="H2" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="C3" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="D3" t="s">
-        <v>271</v>
+        <v>297</v>
       </c>
       <c r="E3" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="F3" t="s">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="G3" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="H3" t="s">
-        <v>274</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>275</v>
+        <v>301</v>
       </c>
       <c r="B4" t="s">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="C4" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="D4" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="E4" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="F4" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="G4" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="H4" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="B5" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="C5" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="D5" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="E5" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="F5" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="G5" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="H5" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
       <c r="I5" t="s">
-        <v>290</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B6" t="s">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="C6" t="s">
-        <v>293</v>
+        <v>319</v>
       </c>
       <c r="D6" t="s">
-        <v>294</v>
+        <v>320</v>
       </c>
       <c r="E6" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="F6" t="s">
-        <v>295</v>
+        <v>321</v>
       </c>
       <c r="G6" t="s">
-        <v>296</v>
+        <v>322</v>
       </c>
       <c r="H6" t="s">
-        <v>297</v>
+        <v>323</v>
       </c>
       <c r="I6" t="s">
-        <v>298</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>299</v>
+        <v>325</v>
       </c>
       <c r="B7" t="s">
-        <v>300</v>
+        <v>326</v>
       </c>
       <c r="C7" t="s">
-        <v>301</v>
+        <v>327</v>
       </c>
       <c r="D7" t="s">
-        <v>302</v>
+        <v>328</v>
       </c>
       <c r="E7" t="s">
-        <v>303</v>
+        <v>329</v>
       </c>
       <c r="F7" t="s">
-        <v>304</v>
+        <v>330</v>
       </c>
       <c r="G7" t="s">
-        <v>305</v>
+        <v>331</v>
       </c>
       <c r="H7" t="s">
-        <v>306</v>
+        <v>332</v>
       </c>
       <c r="I7" t="s">
-        <v>307</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>308</v>
+        <v>334</v>
       </c>
       <c r="B8" t="s">
-        <v>309</v>
+        <v>335</v>
       </c>
       <c r="C8" t="s">
-        <v>310</v>
+        <v>336</v>
       </c>
       <c r="D8" t="s">
-        <v>311</v>
+        <v>337</v>
       </c>
       <c r="E8" t="s">
-        <v>312</v>
+        <v>338</v>
       </c>
       <c r="F8" t="s">
-        <v>313</v>
+        <v>339</v>
       </c>
       <c r="G8" t="s">
-        <v>314</v>
+        <v>340</v>
       </c>
       <c r="H8" t="s">
-        <v>315</v>
+        <v>341</v>
       </c>
       <c r="I8" t="s">
-        <v>316</v>
+        <v>342</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>317</v>
+        <v>343</v>
       </c>
       <c r="B9" t="s">
-        <v>318</v>
+        <v>344</v>
       </c>
       <c r="C9" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="D9" t="s">
-        <v>320</v>
+        <v>346</v>
       </c>
       <c r="E9" t="s">
-        <v>321</v>
+        <v>347</v>
       </c>
       <c r="F9" t="s">
-        <v>322</v>
+        <v>348</v>
       </c>
       <c r="G9" t="s">
-        <v>323</v>
+        <v>349</v>
       </c>
       <c r="H9" t="s">
-        <v>324</v>
+        <v>350</v>
       </c>
       <c r="I9" t="s">
-        <v>325</v>
+        <v>351</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>326</v>
+        <v>352</v>
       </c>
       <c r="B10" t="s">
-        <v>327</v>
+        <v>353</v>
       </c>
       <c r="C10" t="s">
-        <v>328</v>
+        <v>354</v>
       </c>
       <c r="D10" t="s">
-        <v>329</v>
+        <v>355</v>
       </c>
       <c r="E10" t="s">
-        <v>330</v>
+        <v>356</v>
       </c>
       <c r="F10" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="G10" t="s">
-        <v>332</v>
+        <v>358</v>
       </c>
       <c r="H10" t="s">
-        <v>333</v>
+        <v>359</v>
       </c>
       <c r="I10" t="s">
-        <v>334</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>335</v>
+        <v>361</v>
       </c>
       <c r="B11" t="s">
-        <v>336</v>
+        <v>362</v>
       </c>
       <c r="C11" t="s">
-        <v>337</v>
+        <v>363</v>
       </c>
       <c r="D11" t="s">
-        <v>338</v>
+        <v>364</v>
       </c>
       <c r="E11" t="s">
-        <v>339</v>
+        <v>365</v>
       </c>
       <c r="F11" t="s">
-        <v>340</v>
+        <v>366</v>
       </c>
       <c r="G11" t="s">
-        <v>341</v>
+        <v>367</v>
       </c>
       <c r="H11" t="s">
-        <v>342</v>
+        <v>368</v>
       </c>
       <c r="I11" t="s">
-        <v>343</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>344</v>
+        <v>370</v>
       </c>
       <c r="B12" t="s">
-        <v>345</v>
+        <v>371</v>
       </c>
       <c r="C12" t="s">
-        <v>346</v>
+        <v>372</v>
       </c>
       <c r="D12" t="s">
-        <v>347</v>
+        <v>373</v>
       </c>
       <c r="E12" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="F12" t="s">
-        <v>348</v>
+        <v>374</v>
       </c>
       <c r="G12" t="s">
-        <v>349</v>
+        <v>375</v>
       </c>
       <c r="H12" t="s">
-        <v>350</v>
+        <v>376</v>
       </c>
       <c r="I12" t="s">
-        <v>345</v>
+        <v>371</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>351</v>
+        <v>377</v>
       </c>
       <c r="B13" t="s">
-        <v>352</v>
+        <v>378</v>
       </c>
       <c r="C13" t="s">
-        <v>353</v>
+        <v>379</v>
       </c>
       <c r="D13" t="s">
-        <v>354</v>
+        <v>380</v>
       </c>
       <c r="E13" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="F13" t="s">
-        <v>355</v>
+        <v>381</v>
       </c>
       <c r="G13" t="s">
-        <v>356</v>
+        <v>382</v>
       </c>
       <c r="H13" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="I13" t="s">
-        <v>352</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -4765,677 +4963,677 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>358</v>
+        <v>384</v>
       </c>
       <c r="C2" t="s">
-        <v>359</v>
+        <v>385</v>
       </c>
       <c r="D2" t="s">
-        <v>360</v>
+        <v>386</v>
       </c>
       <c r="E2" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="F2" t="s">
-        <v>361</v>
+        <v>387</v>
       </c>
       <c r="G2" t="s">
-        <v>362</v>
+        <v>388</v>
       </c>
       <c r="H2" t="s">
-        <v>363</v>
+        <v>389</v>
       </c>
       <c r="I2" t="s">
-        <v>364</v>
+        <v>390</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
-        <v>365</v>
+        <v>391</v>
       </c>
       <c r="C3" t="s">
-        <v>366</v>
+        <v>392</v>
       </c>
       <c r="D3" t="s">
-        <v>367</v>
+        <v>393</v>
       </c>
       <c r="E3" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="F3" t="s">
-        <v>368</v>
+        <v>394</v>
       </c>
       <c r="G3" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="H3" t="s">
-        <v>370</v>
+        <v>396</v>
       </c>
       <c r="I3" t="s">
-        <v>371</v>
+        <v>397</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>372</v>
+        <v>398</v>
       </c>
       <c r="B4" t="s">
-        <v>373</v>
+        <v>399</v>
       </c>
       <c r="C4" t="s">
-        <v>374</v>
+        <v>400</v>
       </c>
       <c r="D4" t="s">
-        <v>375</v>
+        <v>401</v>
       </c>
       <c r="E4" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="F4" t="s">
-        <v>376</v>
+        <v>402</v>
       </c>
       <c r="G4" t="s">
-        <v>377</v>
+        <v>403</v>
       </c>
       <c r="H4" t="s">
-        <v>378</v>
+        <v>404</v>
       </c>
       <c r="I4" t="s">
-        <v>379</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>380</v>
+        <v>406</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
-        <v>381</v>
+        <v>407</v>
       </c>
       <c r="E5" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="F5" t="s">
-        <v>382</v>
+        <v>82</v>
       </c>
       <c r="G5" t="s">
-        <v>383</v>
+        <v>84</v>
       </c>
       <c r="H5" t="s">
-        <v>384</v>
+        <v>85</v>
       </c>
       <c r="I5" t="s">
-        <v>385</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>386</v>
+        <v>408</v>
       </c>
       <c r="B6" t="s">
-        <v>387</v>
+        <v>409</v>
       </c>
       <c r="C6" t="s">
-        <v>388</v>
+        <v>410</v>
       </c>
       <c r="D6" t="s">
-        <v>389</v>
+        <v>411</v>
       </c>
       <c r="E6" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="F6" t="s">
-        <v>390</v>
+        <v>412</v>
       </c>
       <c r="G6" t="s">
-        <v>391</v>
+        <v>413</v>
       </c>
       <c r="H6" t="s">
-        <v>392</v>
+        <v>414</v>
       </c>
       <c r="I6" t="s">
-        <v>393</v>
+        <v>415</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>394</v>
+        <v>416</v>
       </c>
       <c r="B7" t="s">
-        <v>395</v>
+        <v>417</v>
       </c>
       <c r="C7" t="s">
         <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>396</v>
+        <v>418</v>
       </c>
       <c r="E7" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="F7" t="s">
-        <v>397</v>
+        <v>419</v>
       </c>
       <c r="G7" t="s">
-        <v>398</v>
+        <v>420</v>
       </c>
       <c r="H7" t="s">
-        <v>399</v>
+        <v>78</v>
       </c>
       <c r="I7" t="s">
-        <v>400</v>
+        <v>421</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>401</v>
+        <v>422</v>
       </c>
       <c r="B8" t="s">
-        <v>402</v>
+        <v>423</v>
       </c>
       <c r="C8" t="s">
-        <v>403</v>
+        <v>424</v>
       </c>
       <c r="D8" t="s">
-        <v>404</v>
+        <v>425</v>
       </c>
       <c r="E8" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="F8" t="s">
-        <v>405</v>
+        <v>426</v>
       </c>
       <c r="G8" t="s">
-        <v>406</v>
+        <v>427</v>
       </c>
       <c r="H8" t="s">
-        <v>407</v>
+        <v>428</v>
       </c>
       <c r="I8" t="s">
-        <v>408</v>
+        <v>429</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>409</v>
+        <v>430</v>
       </c>
       <c r="B9" t="s">
-        <v>410</v>
+        <v>431</v>
       </c>
       <c r="C9" t="s">
-        <v>411</v>
+        <v>432</v>
       </c>
       <c r="D9" t="s">
-        <v>412</v>
+        <v>433</v>
       </c>
       <c r="E9" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="F9" t="s">
-        <v>413</v>
+        <v>434</v>
       </c>
       <c r="G9" t="s">
-        <v>414</v>
+        <v>435</v>
       </c>
       <c r="H9" t="s">
-        <v>415</v>
+        <v>436</v>
       </c>
       <c r="I9" t="s">
-        <v>416</v>
+        <v>437</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>417</v>
+        <v>438</v>
       </c>
       <c r="B10" t="s">
-        <v>418</v>
+        <v>439</v>
       </c>
       <c r="C10" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="D10" t="s">
-        <v>419</v>
+        <v>440</v>
       </c>
       <c r="E10" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="F10" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="G10" t="s">
-        <v>420</v>
+        <v>441</v>
       </c>
       <c r="H10" t="s">
-        <v>421</v>
+        <v>442</v>
       </c>
       <c r="I10" t="s">
-        <v>290</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>422</v>
+        <v>443</v>
       </c>
       <c r="B11" t="s">
-        <v>345</v>
+        <v>371</v>
       </c>
       <c r="C11" t="s">
-        <v>346</v>
+        <v>372</v>
       </c>
       <c r="D11" t="s">
-        <v>347</v>
+        <v>373</v>
       </c>
       <c r="E11" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="F11" t="s">
-        <v>348</v>
+        <v>374</v>
       </c>
       <c r="G11" t="s">
-        <v>349</v>
+        <v>375</v>
       </c>
       <c r="H11" t="s">
-        <v>350</v>
+        <v>376</v>
       </c>
       <c r="I11" t="s">
-        <v>345</v>
+        <v>371</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>423</v>
+        <v>444</v>
       </c>
       <c r="B12" t="s">
-        <v>352</v>
+        <v>378</v>
       </c>
       <c r="C12" t="s">
-        <v>353</v>
+        <v>379</v>
       </c>
       <c r="D12" t="s">
-        <v>354</v>
+        <v>380</v>
       </c>
       <c r="E12" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="F12" t="s">
-        <v>355</v>
+        <v>381</v>
       </c>
       <c r="G12" t="s">
-        <v>356</v>
+        <v>382</v>
       </c>
       <c r="H12" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="I12" t="s">
-        <v>352</v>
+        <v>378</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>424</v>
+        <v>445</v>
       </c>
       <c r="B13" t="s">
-        <v>425</v>
+        <v>446</v>
       </c>
       <c r="C13" t="s">
-        <v>426</v>
+        <v>447</v>
       </c>
       <c r="D13" t="s">
-        <v>427</v>
+        <v>448</v>
       </c>
       <c r="E13" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="F13" t="s">
-        <v>428</v>
+        <v>449</v>
       </c>
       <c r="G13" t="s">
-        <v>429</v>
+        <v>450</v>
       </c>
       <c r="H13" t="s">
-        <v>430</v>
+        <v>451</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="B14" t="s">
-        <v>432</v>
+        <v>453</v>
       </c>
       <c r="C14" t="s">
-        <v>433</v>
+        <v>454</v>
       </c>
       <c r="D14" t="s">
-        <v>434</v>
+        <v>455</v>
       </c>
       <c r="E14" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="F14" t="s">
-        <v>435</v>
+        <v>456</v>
       </c>
       <c r="G14" t="s">
-        <v>436</v>
+        <v>457</v>
       </c>
       <c r="H14" t="s">
-        <v>437</v>
+        <v>458</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>438</v>
+        <v>459</v>
       </c>
       <c r="B15" t="s">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="C15" t="s">
-        <v>440</v>
+        <v>461</v>
       </c>
       <c r="D15" t="s">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E15" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="F15" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="G15" t="s">
-        <v>443</v>
+        <v>464</v>
       </c>
       <c r="H15" t="s">
-        <v>444</v>
+        <v>465</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>445</v>
+        <v>466</v>
       </c>
       <c r="B16" t="s">
-        <v>446</v>
+        <v>467</v>
       </c>
       <c r="C16" t="s">
-        <v>447</v>
+        <v>468</v>
       </c>
       <c r="D16" t="s">
-        <v>448</v>
+        <v>469</v>
       </c>
       <c r="E16" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="F16" t="s">
-        <v>449</v>
+        <v>470</v>
       </c>
       <c r="G16" t="s">
-        <v>450</v>
+        <v>471</v>
       </c>
       <c r="H16" t="s">
-        <v>451</v>
+        <v>472</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>452</v>
+        <v>473</v>
       </c>
       <c r="B17" t="s">
-        <v>453</v>
+        <v>474</v>
       </c>
       <c r="C17" t="s">
-        <v>454</v>
+        <v>475</v>
       </c>
       <c r="D17" t="s">
-        <v>455</v>
+        <v>476</v>
       </c>
       <c r="E17" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="F17" t="s">
-        <v>456</v>
+        <v>477</v>
       </c>
       <c r="G17" t="s">
-        <v>457</v>
+        <v>478</v>
       </c>
       <c r="H17" t="s">
-        <v>458</v>
+        <v>479</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>459</v>
+        <v>480</v>
       </c>
       <c r="B18" t="s">
-        <v>460</v>
+        <v>481</v>
       </c>
       <c r="C18" t="s">
-        <v>461</v>
+        <v>482</v>
       </c>
       <c r="D18" t="s">
-        <v>462</v>
+        <v>483</v>
       </c>
       <c r="E18" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="F18" t="s">
-        <v>463</v>
+        <v>484</v>
       </c>
       <c r="G18" t="s">
-        <v>464</v>
+        <v>485</v>
       </c>
       <c r="H18" t="s">
-        <v>465</v>
+        <v>486</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>466</v>
+        <v>487</v>
       </c>
       <c r="B19" t="s">
-        <v>467</v>
+        <v>488</v>
       </c>
       <c r="C19" t="s">
-        <v>468</v>
+        <v>489</v>
       </c>
       <c r="D19" t="s">
-        <v>469</v>
+        <v>490</v>
       </c>
       <c r="E19" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="F19" t="s">
-        <v>470</v>
+        <v>491</v>
       </c>
       <c r="G19" t="s">
-        <v>471</v>
+        <v>492</v>
       </c>
       <c r="H19" t="s">
-        <v>472</v>
+        <v>493</v>
       </c>
       <c r="I19" t="s">
-        <v>473</v>
+        <v>494</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>474</v>
+        <v>495</v>
       </c>
       <c r="B20" t="s">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="C20" t="s">
-        <v>476</v>
+        <v>497</v>
       </c>
       <c r="D20" t="s">
-        <v>477</v>
+        <v>498</v>
       </c>
       <c r="E20" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="F20" t="s">
-        <v>478</v>
+        <v>499</v>
       </c>
       <c r="G20" t="s">
-        <v>479</v>
+        <v>500</v>
       </c>
       <c r="H20" t="s">
-        <v>480</v>
+        <v>501</v>
       </c>
       <c r="I20" t="s">
-        <v>481</v>
+        <v>502</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>482</v>
+        <v>503</v>
       </c>
       <c r="B21" t="s">
-        <v>483</v>
+        <v>504</v>
       </c>
       <c r="C21" t="s">
-        <v>484</v>
+        <v>505</v>
       </c>
       <c r="D21" t="s">
-        <v>485</v>
+        <v>506</v>
       </c>
       <c r="E21" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="F21" t="s">
-        <v>486</v>
+        <v>507</v>
       </c>
       <c r="G21" t="s">
-        <v>487</v>
+        <v>508</v>
       </c>
       <c r="H21" t="s">
-        <v>488</v>
+        <v>509</v>
       </c>
       <c r="I21" t="s">
-        <v>489</v>
+        <v>510</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>490</v>
+        <v>511</v>
       </c>
       <c r="B22" t="s">
-        <v>491</v>
+        <v>512</v>
       </c>
       <c r="C22" t="s">
-        <v>492</v>
+        <v>513</v>
       </c>
       <c r="D22" t="s">
-        <v>493</v>
+        <v>514</v>
       </c>
       <c r="E22" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="F22" t="s">
-        <v>494</v>
+        <v>515</v>
       </c>
       <c r="G22" t="s">
-        <v>495</v>
+        <v>516</v>
       </c>
       <c r="H22" t="s">
-        <v>496</v>
+        <v>517</v>
       </c>
       <c r="I22" t="s">
-        <v>497</v>
+        <v>518</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>498</v>
+        <v>519</v>
       </c>
       <c r="B23" t="s">
-        <v>499</v>
+        <v>520</v>
       </c>
       <c r="C23" t="s">
-        <v>500</v>
+        <v>521</v>
       </c>
       <c r="D23" t="s">
-        <v>501</v>
+        <v>522</v>
       </c>
       <c r="E23" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="F23" t="s">
-        <v>502</v>
+        <v>523</v>
       </c>
       <c r="G23" t="s">
-        <v>503</v>
+        <v>524</v>
       </c>
       <c r="H23" t="s">
-        <v>504</v>
+        <v>525</v>
       </c>
       <c r="I23" t="s">
-        <v>505</v>
+        <v>526</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>506</v>
+        <v>527</v>
       </c>
       <c r="B24" t="s">
-        <v>507</v>
+        <v>528</v>
       </c>
       <c r="C24" t="s">
-        <v>508</v>
+        <v>529</v>
       </c>
       <c r="D24" t="s">
-        <v>509</v>
+        <v>530</v>
       </c>
       <c r="E24" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="F24" t="s">
-        <v>510</v>
+        <v>531</v>
       </c>
       <c r="G24" t="s">
-        <v>511</v>
+        <v>532</v>
       </c>
       <c r="H24" t="s">
-        <v>512</v>
+        <v>533</v>
       </c>
       <c r="I24" t="s">
-        <v>513</v>
+        <v>534</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>514</v>
+        <v>535</v>
       </c>
       <c r="B25" t="s">
-        <v>515</v>
+        <v>536</v>
       </c>
       <c r="C25" t="s">
-        <v>516</v>
+        <v>537</v>
       </c>
       <c r="D25" t="s">
-        <v>517</v>
+        <v>538</v>
       </c>
       <c r="E25" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="F25" t="s">
-        <v>518</v>
+        <v>539</v>
       </c>
       <c r="G25" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="H25" t="s">
-        <v>519</v>
+        <v>540</v>
       </c>
     </row>
   </sheetData>
@@ -5482,231 +5680,231 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>520</v>
+        <v>541</v>
       </c>
       <c r="C2" t="s">
-        <v>521</v>
+        <v>542</v>
       </c>
       <c r="D2" t="s">
-        <v>522</v>
+        <v>543</v>
       </c>
       <c r="E2" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="F2" t="s">
-        <v>522</v>
+        <v>543</v>
       </c>
       <c r="G2" t="s">
-        <v>523</v>
+        <v>544</v>
       </c>
       <c r="H2" t="s">
-        <v>524</v>
+        <v>545</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
-        <v>525</v>
+        <v>546</v>
       </c>
       <c r="C3" t="s">
-        <v>526</v>
+        <v>547</v>
       </c>
       <c r="D3" t="s">
-        <v>527</v>
+        <v>548</v>
       </c>
       <c r="E3" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="F3" t="s">
-        <v>527</v>
+        <v>548</v>
       </c>
       <c r="G3" t="s">
-        <v>528</v>
+        <v>549</v>
       </c>
       <c r="H3" t="s">
-        <v>529</v>
+        <v>550</v>
       </c>
       <c r="I3" t="s">
-        <v>530</v>
+        <v>551</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>372</v>
+        <v>398</v>
       </c>
       <c r="B4" t="s">
-        <v>373</v>
+        <v>399</v>
       </c>
       <c r="C4" t="s">
-        <v>374</v>
+        <v>400</v>
       </c>
       <c r="D4" t="s">
-        <v>531</v>
+        <v>552</v>
       </c>
       <c r="E4" t="s">
-        <v>532</v>
+        <v>553</v>
       </c>
       <c r="F4" t="s">
-        <v>531</v>
+        <v>552</v>
       </c>
       <c r="G4" t="s">
-        <v>377</v>
+        <v>403</v>
       </c>
       <c r="H4" t="s">
-        <v>378</v>
+        <v>404</v>
       </c>
       <c r="I4" t="s">
-        <v>533</v>
+        <v>554</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>380</v>
+        <v>406</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
-        <v>382</v>
+        <v>82</v>
       </c>
       <c r="E5" t="s">
-        <v>534</v>
+        <v>83</v>
       </c>
       <c r="F5" t="s">
-        <v>382</v>
+        <v>82</v>
       </c>
       <c r="G5" t="s">
-        <v>383</v>
+        <v>84</v>
       </c>
       <c r="H5" t="s">
-        <v>384</v>
+        <v>85</v>
       </c>
       <c r="I5" t="s">
-        <v>385</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>386</v>
+        <v>408</v>
       </c>
       <c r="B6" t="s">
-        <v>387</v>
+        <v>409</v>
       </c>
       <c r="C6" t="s">
-        <v>388</v>
+        <v>410</v>
       </c>
       <c r="D6" t="s">
-        <v>535</v>
+        <v>555</v>
       </c>
       <c r="E6" t="s">
-        <v>536</v>
+        <v>556</v>
       </c>
       <c r="F6" t="s">
-        <v>535</v>
+        <v>555</v>
       </c>
       <c r="G6" t="s">
-        <v>537</v>
+        <v>557</v>
       </c>
       <c r="H6" t="s">
-        <v>392</v>
+        <v>414</v>
       </c>
       <c r="I6" t="s">
-        <v>538</v>
+        <v>558</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>394</v>
+        <v>416</v>
       </c>
       <c r="B7" t="s">
-        <v>395</v>
+        <v>417</v>
       </c>
       <c r="C7" t="s">
         <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>397</v>
+        <v>419</v>
       </c>
       <c r="E7" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="F7" t="s">
-        <v>397</v>
+        <v>419</v>
       </c>
       <c r="G7" t="s">
-        <v>539</v>
+        <v>559</v>
       </c>
       <c r="H7" t="s">
-        <v>399</v>
+        <v>78</v>
       </c>
       <c r="I7" t="s">
-        <v>400</v>
+        <v>421</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>540</v>
+        <v>560</v>
       </c>
       <c r="B8" t="s">
-        <v>541</v>
+        <v>561</v>
       </c>
       <c r="C8" t="s">
-        <v>542</v>
+        <v>562</v>
       </c>
       <c r="D8" t="s">
-        <v>543</v>
+        <v>563</v>
       </c>
       <c r="E8" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="F8" t="s">
-        <v>543</v>
+        <v>563</v>
       </c>
       <c r="G8" t="s">
-        <v>544</v>
+        <v>564</v>
       </c>
       <c r="H8" t="s">
-        <v>545</v>
+        <v>565</v>
       </c>
       <c r="I8" t="s">
-        <v>546</v>
+        <v>566</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>547</v>
+        <v>567</v>
       </c>
       <c r="B9" t="s">
-        <v>548</v>
+        <v>568</v>
       </c>
       <c r="C9" t="s">
-        <v>549</v>
+        <v>569</v>
       </c>
       <c r="D9" t="s">
-        <v>550</v>
+        <v>570</v>
       </c>
       <c r="E9" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="F9" t="s">
-        <v>550</v>
+        <v>570</v>
       </c>
       <c r="G9" t="s">
-        <v>551</v>
+        <v>571</v>
       </c>
       <c r="H9" t="s">
-        <v>552</v>
+        <v>572</v>
       </c>
       <c r="I9" t="s">
-        <v>553</v>
+        <v>573</v>
       </c>
     </row>
   </sheetData>
@@ -5753,234 +5951,234 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>554</v>
+        <v>574</v>
       </c>
       <c r="D2" t="s">
-        <v>555</v>
+        <v>575</v>
       </c>
       <c r="E2" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="F2" t="s">
-        <v>556</v>
+        <v>576</v>
       </c>
       <c r="G2" t="s">
-        <v>557</v>
+        <v>577</v>
       </c>
       <c r="H2" t="s">
-        <v>558</v>
+        <v>578</v>
       </c>
       <c r="I2" t="s">
-        <v>559</v>
+        <v>579</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
-        <v>560</v>
+        <v>580</v>
       </c>
       <c r="C3" t="s">
-        <v>561</v>
+        <v>581</v>
       </c>
       <c r="D3" t="s">
-        <v>562</v>
+        <v>582</v>
       </c>
       <c r="E3" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="F3" t="s">
-        <v>563</v>
+        <v>583</v>
       </c>
       <c r="G3" t="s">
-        <v>564</v>
+        <v>584</v>
       </c>
       <c r="H3" t="s">
-        <v>565</v>
+        <v>585</v>
       </c>
       <c r="I3" t="s">
-        <v>566</v>
+        <v>586</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>567</v>
+        <v>587</v>
       </c>
       <c r="B4" t="s">
-        <v>568</v>
+        <v>588</v>
       </c>
       <c r="C4" t="s">
-        <v>569</v>
+        <v>589</v>
       </c>
       <c r="D4" t="s">
-        <v>570</v>
+        <v>590</v>
       </c>
       <c r="E4" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="F4" t="s">
-        <v>571</v>
+        <v>591</v>
       </c>
       <c r="G4" t="s">
-        <v>572</v>
+        <v>592</v>
       </c>
       <c r="H4" t="s">
-        <v>573</v>
+        <v>593</v>
       </c>
       <c r="I4" t="s">
-        <v>574</v>
+        <v>594</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>575</v>
+        <v>595</v>
       </c>
       <c r="B5" t="s">
-        <v>576</v>
+        <v>596</v>
       </c>
       <c r="C5" t="s">
-        <v>577</v>
+        <v>597</v>
       </c>
       <c r="D5" t="s">
-        <v>578</v>
+        <v>598</v>
       </c>
       <c r="E5" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="F5" t="s">
-        <v>579</v>
+        <v>599</v>
       </c>
       <c r="G5" t="s">
-        <v>580</v>
+        <v>600</v>
       </c>
       <c r="H5" t="s">
-        <v>581</v>
+        <v>601</v>
       </c>
       <c r="I5" t="s">
-        <v>582</v>
+        <v>602</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>583</v>
+        <v>603</v>
       </c>
       <c r="B6" t="s">
-        <v>584</v>
+        <v>604</v>
       </c>
       <c r="C6" t="s">
-        <v>585</v>
+        <v>605</v>
       </c>
       <c r="D6" t="s">
-        <v>586</v>
+        <v>606</v>
       </c>
       <c r="E6" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="F6" t="s">
-        <v>587</v>
+        <v>607</v>
       </c>
       <c r="G6" t="s">
-        <v>588</v>
+        <v>608</v>
       </c>
       <c r="H6" t="s">
-        <v>589</v>
+        <v>609</v>
       </c>
       <c r="I6" t="s">
-        <v>590</v>
+        <v>610</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>591</v>
+        <v>611</v>
       </c>
       <c r="B7" t="s">
-        <v>592</v>
+        <v>612</v>
       </c>
       <c r="C7" t="s">
-        <v>593</v>
+        <v>613</v>
       </c>
       <c r="D7" t="s">
-        <v>594</v>
+        <v>614</v>
       </c>
       <c r="E7" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="F7" t="s">
-        <v>592</v>
+        <v>612</v>
       </c>
       <c r="G7" t="s">
-        <v>595</v>
+        <v>615</v>
       </c>
       <c r="H7" t="s">
-        <v>596</v>
+        <v>616</v>
       </c>
       <c r="I7" t="s">
-        <v>597</v>
+        <v>617</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>598</v>
+        <v>618</v>
       </c>
       <c r="B8" t="s">
-        <v>599</v>
+        <v>619</v>
       </c>
       <c r="C8" t="s">
-        <v>600</v>
+        <v>620</v>
       </c>
       <c r="D8" t="s">
-        <v>601</v>
+        <v>621</v>
       </c>
       <c r="E8" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="F8" t="s">
-        <v>602</v>
+        <v>622</v>
       </c>
       <c r="G8" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>603</v>
+        <v>623</v>
       </c>
       <c r="I8" t="s">
-        <v>604</v>
+        <v>624</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>605</v>
+        <v>625</v>
       </c>
       <c r="B9" t="s">
-        <v>606</v>
+        <v>626</v>
       </c>
       <c r="C9" t="s">
-        <v>607</v>
+        <v>627</v>
       </c>
       <c r="D9" t="s">
-        <v>608</v>
+        <v>628</v>
       </c>
       <c r="E9" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="F9" t="s">
-        <v>609</v>
+        <v>629</v>
       </c>
       <c r="G9" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="H9" t="s">
-        <v>610</v>
+        <v>630</v>
       </c>
       <c r="I9" t="s">
-        <v>611</v>
+        <v>631</v>
       </c>
     </row>
   </sheetData>
@@ -6027,176 +6225,176 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>612</v>
+        <v>632</v>
       </c>
       <c r="C2" t="s">
-        <v>613</v>
+        <v>633</v>
       </c>
       <c r="D2" t="s">
-        <v>614</v>
+        <v>634</v>
       </c>
       <c r="E2" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="F2" t="s">
-        <v>615</v>
+        <v>635</v>
       </c>
       <c r="G2" t="s">
-        <v>616</v>
+        <v>636</v>
       </c>
       <c r="H2" t="s">
-        <v>617</v>
+        <v>637</v>
       </c>
       <c r="I2" t="s">
-        <v>618</v>
+        <v>638</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
-        <v>619</v>
+        <v>639</v>
       </c>
       <c r="C3" t="s">
-        <v>620</v>
+        <v>640</v>
       </c>
       <c r="D3" t="s">
-        <v>621</v>
+        <v>641</v>
       </c>
       <c r="E3" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="F3" t="s">
-        <v>622</v>
+        <v>642</v>
       </c>
       <c r="G3" t="s">
-        <v>623</v>
+        <v>643</v>
       </c>
       <c r="H3" t="s">
-        <v>624</v>
+        <v>644</v>
       </c>
       <c r="I3" t="s">
-        <v>625</v>
+        <v>645</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>626</v>
+        <v>646</v>
       </c>
       <c r="B4" t="s">
-        <v>627</v>
+        <v>647</v>
       </c>
       <c r="C4" t="s">
-        <v>628</v>
+        <v>648</v>
       </c>
       <c r="D4" t="s">
-        <v>629</v>
+        <v>649</v>
       </c>
       <c r="E4" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="F4" t="s">
-        <v>630</v>
+        <v>650</v>
       </c>
       <c r="G4" t="s">
-        <v>631</v>
+        <v>651</v>
       </c>
       <c r="H4" t="s">
-        <v>632</v>
+        <v>652</v>
       </c>
       <c r="I4" t="s">
-        <v>627</v>
+        <v>647</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>633</v>
+        <v>653</v>
       </c>
       <c r="B5" t="s">
-        <v>634</v>
+        <v>654</v>
       </c>
       <c r="C5" t="s">
-        <v>635</v>
+        <v>655</v>
       </c>
       <c r="D5" t="s">
-        <v>636</v>
+        <v>656</v>
       </c>
       <c r="E5" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="F5" t="s">
-        <v>637</v>
+        <v>657</v>
       </c>
       <c r="G5" t="s">
-        <v>638</v>
+        <v>658</v>
       </c>
       <c r="H5" t="s">
-        <v>639</v>
+        <v>659</v>
       </c>
       <c r="I5" t="s">
-        <v>634</v>
+        <v>654</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>640</v>
+        <v>660</v>
       </c>
       <c r="B6" t="s">
-        <v>641</v>
+        <v>661</v>
       </c>
       <c r="C6" t="s">
-        <v>642</v>
+        <v>662</v>
       </c>
       <c r="D6" t="s">
-        <v>643</v>
+        <v>663</v>
       </c>
       <c r="E6" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="F6" t="s">
-        <v>644</v>
+        <v>664</v>
       </c>
       <c r="G6" t="s">
-        <v>645</v>
+        <v>665</v>
       </c>
       <c r="H6" t="s">
-        <v>646</v>
+        <v>666</v>
       </c>
       <c r="I6" t="s">
-        <v>647</v>
+        <v>667</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>648</v>
+        <v>668</v>
       </c>
       <c r="B7" t="s">
-        <v>649</v>
+        <v>669</v>
       </c>
       <c r="C7" t="s">
-        <v>650</v>
+        <v>670</v>
       </c>
       <c r="D7" t="s">
-        <v>651</v>
+        <v>671</v>
       </c>
       <c r="E7" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="F7" t="s">
-        <v>652</v>
+        <v>672</v>
       </c>
       <c r="G7" t="s">
-        <v>653</v>
+        <v>673</v>
       </c>
       <c r="H7" t="s">
-        <v>654</v>
+        <v>674</v>
       </c>
       <c r="I7" t="s">
-        <v>655</v>
+        <v>675</v>
       </c>
     </row>
   </sheetData>

--- a/AdofaiTweaks.Generator/translations.xlsx
+++ b/AdofaiTweaks.Generator/translations.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="885">
   <si>
     <t>Translation Status</t>
   </si>
@@ -56,6 +56,9 @@
     <t>German</t>
   </si>
   <si>
+    <t>Russian</t>
+  </si>
+  <si>
     <t>Global</t>
   </si>
   <si>
@@ -71,6 +74,9 @@
     <t>81.8% (2 left)</t>
   </si>
   <si>
+    <t>100% (11 left)</t>
+  </si>
+  <si>
     <t>HideUiElements</t>
   </si>
   <si>
@@ -80,6 +86,9 @@
     <t>81.3% (3 left)</t>
   </si>
   <si>
+    <t>100% (16 left)</t>
+  </si>
+  <si>
     <t>JudgmentVisuals</t>
   </si>
   <si>
@@ -89,6 +98,9 @@
     <t>75% (3 left)</t>
   </si>
   <si>
+    <t>100% (12 left)</t>
+  </si>
+  <si>
     <t>KeyViewer</t>
   </si>
   <si>
@@ -101,6 +113,9 @@
     <t>70.8% (7 left)</t>
   </si>
   <si>
+    <t>100% (24 left)</t>
+  </si>
+  <si>
     <t>PlanetOpacity</t>
   </si>
   <si>
@@ -110,6 +125,9 @@
     <t>85.7% (1 left)</t>
   </si>
   <si>
+    <t>100% (7 left)</t>
+  </si>
+  <si>
     <t>Miscellaneous</t>
   </si>
   <si>
@@ -119,12 +137,18 @@
     <t>75% (2 left)</t>
   </si>
   <si>
+    <t>100% (8 left)</t>
+  </si>
+  <si>
     <t>PlanetColor</t>
   </si>
   <si>
     <t>0% (6 left)</t>
   </si>
   <si>
+    <t>100% (6 left)</t>
+  </si>
+  <si>
     <t>RestrictJudgments</t>
   </si>
   <si>
@@ -137,6 +161,9 @@
     <t>90% (1 left)</t>
   </si>
   <si>
+    <t>100% (10 left)</t>
+  </si>
+  <si>
     <t>KEY</t>
   </si>
   <si>
@@ -164,6 +191,9 @@
     <t>GERMAN</t>
   </si>
   <si>
+    <t>RUSSIAN</t>
+  </si>
+  <si>
     <t>TEST_KEY</t>
   </si>
   <si>
@@ -191,6 +221,9 @@
     <t>Dies ist ein Teststring</t>
   </si>
   <si>
+    <t>Это тестовая строка.</t>
+  </si>
+  <si>
     <t>I_TEST_KEY</t>
   </si>
   <si>
@@ -221,6 +254,9 @@
     <t>Sprache:</t>
   </si>
   <si>
+    <t>Язык:</t>
+  </si>
+  <si>
     <t>LANGUAGE_NAME</t>
   </si>
   <si>
@@ -245,6 +281,9 @@
     <t>Deutsch</t>
   </si>
   <si>
+    <t>Русский</t>
+  </si>
+  <si>
     <t>SHORTCUT_CHANGE_KEY</t>
   </si>
   <si>
@@ -266,6 +305,9 @@
     <t>更改按键</t>
   </si>
   <si>
+    <t>Сменить клавишу</t>
+  </si>
+  <si>
     <t>SHORTCUT_DONE</t>
   </si>
   <si>
@@ -290,6 +332,9 @@
     <t>Fertig</t>
   </si>
   <si>
+    <t>Готово</t>
+  </si>
+  <si>
     <t>NAME</t>
   </si>
   <si>
@@ -317,6 +362,9 @@
     <t>Deaktiviere Effekte</t>
   </si>
   <si>
+    <t>Отключить Эффекты</t>
+  </si>
+  <si>
     <t>DESCRIPTION</t>
   </si>
   <si>
@@ -344,6 +392,9 @@
     <t>Deaktiviert bestimmte Effekte, um Leistung zu verbessern</t>
   </si>
   <si>
+    <t>Отключает определённые эффекты для повышения производельности.</t>
+  </si>
+  <si>
     <t>FILTER</t>
   </si>
   <si>
@@ -371,6 +422,9 @@
     <t>Deaktiviere Spezialeffekte ({0}, {1}, usw.)</t>
   </si>
   <si>
+    <t>Отключает визуальные фильтры ({0}, {1}, и т. д.)</t>
+  </si>
+  <si>
     <t>BLOOM</t>
   </si>
   <si>
@@ -398,6 +452,9 @@
     <t>Deaktiviere Bloom</t>
   </si>
   <si>
+    <t>Отключить свечение</t>
+  </si>
+  <si>
     <t>FLASH</t>
   </si>
   <si>
@@ -425,6 +482,9 @@
     <t>Deaktiviert das flackern des Bildschrims</t>
   </si>
   <si>
+    <t>Отключить вспышки экрана</t>
+  </si>
+  <si>
     <t>HALL_OF_MIRRORS</t>
   </si>
   <si>
@@ -452,6 +512,9 @@
     <t>Deaktiviere "{0}" Effekt</t>
   </si>
   <si>
+    <t>Отключить "{0}"</t>
+  </si>
+  <si>
     <t>SCREEN_SHAKE</t>
   </si>
   <si>
@@ -479,6 +542,9 @@
     <t>Deaktiviert das wackeln des Bildschirms</t>
   </si>
   <si>
+    <t>Отключить тряску экрана</t>
+  </si>
+  <si>
     <t>TILE_MOVEMENT_MAX</t>
   </si>
   <si>
@@ -506,6 +572,9 @@
     <t>Maximale Anzahl an Blöcken auf einmal</t>
   </si>
   <si>
+    <t>Максимальное число движущихся плиток одновременно:</t>
+  </si>
+  <si>
     <t>TILE_MOVEMENT_UNLIMITED</t>
   </si>
   <si>
@@ -533,6 +602,9 @@
     <t>Uneingeschränkt</t>
   </si>
   <si>
+    <t>Неограниченно</t>
+  </si>
+  <si>
     <t>EXCLUDE_FILTER_LIST</t>
   </si>
   <si>
@@ -554,6 +626,9 @@
     <t>Ausgeschlossene Filter ({0})</t>
   </si>
   <si>
+    <t>Исключённые Фильтры</t>
+  </si>
+  <si>
     <t>EXCLUDE_FILTER_START_LIST</t>
   </si>
   <si>
@@ -575,6 +650,9 @@
     <t>Filter, die ausgeschlossen werden sollen:</t>
   </si>
   <si>
+    <t>Фильтры для исключения:</t>
+  </si>
+  <si>
     <t>Hide UI Elements</t>
   </si>
   <si>
@@ -599,6 +677,9 @@
     <t>Verberge UI Elemente</t>
   </si>
   <si>
+    <t>Скрыть части интерфейса</t>
+  </si>
+  <si>
     <t>Hides certain UI elements from gameplay.</t>
   </si>
   <si>
@@ -623,6 +704,9 @@
     <t>Verberge bestimmte UI Elemente während dem gameplay</t>
   </si>
   <si>
+    <t>Скрывает части интерфейса в игре.</t>
+  </si>
+  <si>
     <t>EVERYTHING</t>
   </si>
   <si>
@@ -650,6 +734,9 @@
     <t>Verberge ALLE UI Elemente (Achtung: das kann auch für bestimmte Texte in Menü gelten)</t>
   </si>
   <si>
+    <t>Скрыть ВСЕ части интерфейса (Примечание: это также может быть определенный текст в меню)</t>
+  </si>
+  <si>
     <t>JUDGE_TEXT</t>
   </si>
   <si>
@@ -677,6 +764,9 @@
     <t>Verberge den Bewertungstext ({0}, {1}, usw.)</t>
   </si>
   <si>
+    <t>Скрыть текст оценки ({0}, {1}, и т.д.)</t>
+  </si>
+  <si>
     <t>MISSES</t>
   </si>
   <si>
@@ -704,6 +794,9 @@
     <t>Verberge die Fehltreffer (eingekreiste X icons)</t>
   </si>
   <si>
+    <t>Скрыть индикатор промаха (круглая иконка X)</t>
+  </si>
+  <si>
     <t>SONG_TITLE</t>
   </si>
   <si>
@@ -731,6 +824,9 @@
     <t>Verberge Künstlername und Titel</t>
   </si>
   <si>
+    <t>Скрыть имя исполнителя и название трека</t>
+  </si>
+  <si>
     <t>AUTO</t>
   </si>
   <si>
@@ -746,6 +842,9 @@
     <t>Masquer Otto et le texte d'autoplay</t>
   </si>
   <si>
+    <t>Скрыть Отто и надпись "Автоигра"</t>
+  </si>
+  <si>
     <t>BETA_BUILD</t>
   </si>
   <si>
@@ -773,6 +872,9 @@
     <t>Verberge den "Beta Build" Text</t>
   </si>
   <si>
+    <t>Скрыть надпись "Beta Build"/"Alpha Build"</t>
+  </si>
+  <si>
     <t>RESULT_TEXT</t>
   </si>
   <si>
@@ -791,6 +893,9 @@
     <t>隐藏“恭喜”等最后结尾的文本</t>
   </si>
   <si>
+    <t>Скрыть текст "Поздравляю!" и подробные результаты</t>
+  </si>
+  <si>
     <t>HIT_ERROR_METER</t>
   </si>
   <si>
@@ -809,6 +914,9 @@
     <t>隐藏命中误差表</t>
   </si>
   <si>
+    <t>Скрыть шкалу точности</t>
+  </si>
+  <si>
     <t>LAST_FLOOR_FLASH</t>
   </si>
   <si>
@@ -827,6 +935,9 @@
     <t>到达最后一个砖块时隐藏白色闪光</t>
   </si>
   <si>
+    <t>Скрыть белую вспышку на последней плитке</t>
+  </si>
+  <si>
     <t>RECORDING_MODE</t>
   </si>
   <si>
@@ -845,6 +956,9 @@
     <t>录制模式</t>
   </si>
   <si>
+    <t>Режим записи</t>
+  </si>
+  <si>
     <t>USE_RECORDING_MODE_SHORTCUT</t>
   </si>
   <si>
@@ -863,6 +977,9 @@
     <t>使用录制模式切换快捷键</t>
   </si>
   <si>
+    <t>Использовать сочетание клавиш для включения режима записи</t>
+  </si>
+  <si>
     <t>RECORDING_MODE_SHORTCUT</t>
   </si>
   <si>
@@ -881,6 +998,9 @@
     <t>录制模式切换快捷键：</t>
   </si>
   <si>
+    <t>Сочетание клавиш для включения режима записи:</t>
+  </si>
+  <si>
     <t>TIMING_TARGET</t>
   </si>
   <si>
@@ -896,6 +1016,9 @@
     <t>Masquer la timing target</t>
   </si>
   <si>
+    <t>Скрыть иконку сложности</t>
+  </si>
+  <si>
     <t>NO_FAIL_ICON</t>
   </si>
   <si>
@@ -911,6 +1034,9 @@
     <t>Masquer l'icône no fail</t>
   </si>
   <si>
+    <t>Скрыть иконку режима бессмертия</t>
+  </si>
+  <si>
     <t>Judgment Visuals</t>
   </si>
   <si>
@@ -932,6 +1058,9 @@
     <t>判定图像</t>
   </si>
   <si>
+    <t>Элементы точности</t>
+  </si>
+  <si>
     <t>Improves the visuals of judgments.</t>
   </si>
   <si>
@@ -950,6 +1079,9 @@
     <t>改善判定的视觉效果。</t>
   </si>
   <si>
+    <t>Улучшает визуальный вид элементов точности.</t>
+  </si>
+  <si>
     <t>SHOW_HIT_ERROR_METER</t>
   </si>
   <si>
@@ -971,6 +1103,9 @@
     <t>显示命中误差表（判定器）</t>
   </si>
   <si>
+    <t>Показать шкалу точности</t>
+  </si>
+  <si>
     <t>ERROR_METER_SCALE</t>
   </si>
   <si>
@@ -998,6 +1133,9 @@
     <t>Größe</t>
   </si>
   <si>
+    <t>Масштаб:</t>
+  </si>
+  <si>
     <t>ERROR_METER_TICK_LIFE</t>
   </si>
   <si>
@@ -1022,6 +1160,9 @@
     <t>Treffer Anzeigedauer:</t>
   </si>
   <si>
+    <t>Время пропадания меток:</t>
+  </si>
+  <si>
     <t>ERROR_METER_TICK_SECONDS</t>
   </si>
   <si>
@@ -1049,6 +1190,9 @@
     <t>{0} Sekunde(n)</t>
   </si>
   <si>
+    <t>{0} секунд(ы)</t>
+  </si>
+  <si>
     <t>ERROR_METER_SENSITIVITY</t>
   </si>
   <si>
@@ -1076,6 +1220,9 @@
     <t xml:space="preserve">Pfeil Sensitivität </t>
   </si>
   <si>
+    <t>Чувствительность нижней стрелки:</t>
+  </si>
+  <si>
     <t>ERROR_METER_MORE_STABLE</t>
   </si>
   <si>
@@ -1103,6 +1250,9 @@
     <t>Stabiler</t>
   </si>
   <si>
+    <t>Более стабильная</t>
+  </si>
+  <si>
     <t>ERROR_METER_LESS_STABLE</t>
   </si>
   <si>
@@ -1130,6 +1280,9 @@
     <t>Instabiler</t>
   </si>
   <si>
+    <t>Менее стабильная</t>
+  </si>
+  <si>
     <t>HIDE_PERFECTS</t>
   </si>
   <si>
@@ -1157,6 +1310,9 @@
     <t>Verberge "{0}" Bewertungen</t>
   </si>
   <si>
+    <t>Скрыть оценку "{0}"</t>
+  </si>
+  <si>
     <t>ERROR_METER_X_POS</t>
   </si>
   <si>
@@ -1178,6 +1334,9 @@
     <t>X位置：</t>
   </si>
   <si>
+    <t>Позицие по X:</t>
+  </si>
+  <si>
     <t>ERROR_METER_Y_POS</t>
   </si>
   <si>
@@ -1199,6 +1358,9 @@
     <t>Y位置：</t>
   </si>
   <si>
+    <t>Позицие по Y:</t>
+  </si>
+  <si>
     <t>Key Viewer</t>
   </si>
   <si>
@@ -1220,6 +1382,9 @@
     <t>Tastenanschlaganzeige</t>
   </si>
   <si>
+    <t>Показ клавиш</t>
+  </si>
+  <si>
     <t>Shows a key viewer for registered keys.</t>
   </si>
   <si>
@@ -1241,6 +1406,9 @@
     <t>Zeigt eine Tastenanschlaganzeige für registrierte Tasten</t>
   </si>
   <si>
+    <t>Показывает нажимаемые клавиши.</t>
+  </si>
+  <si>
     <t>REGISTERED_KEYS</t>
   </si>
   <si>
@@ -1265,6 +1433,9 @@
     <t>Registriete Tasten:</t>
   </si>
   <si>
+    <t>Назначить клавиши:</t>
+  </si>
+  <si>
     <t>DONE</t>
   </si>
   <si>
@@ -1295,6 +1466,9 @@
     <t>Drücke eine beliebige Taste um sie hinzuzufügen/entfernen</t>
   </si>
   <si>
+    <t>Нажмите на клавишу что бы назначить/отвязать...</t>
+  </si>
+  <si>
     <t>CHANGE_KEYS</t>
   </si>
   <si>
@@ -1313,6 +1487,9 @@
     <t>Wechsle Tasten</t>
   </si>
   <si>
+    <t>Сменить клавиши</t>
+  </si>
+  <si>
     <t>VIEWER_ONLY_GAMEPLAY</t>
   </si>
   <si>
@@ -1337,6 +1514,9 @@
     <t>Nur während dem gameplay zeigen</t>
   </si>
   <si>
+    <t>Показывать только во время игры</t>
+  </si>
+  <si>
     <t>ANIMATE_KEYS</t>
   </si>
   <si>
@@ -1361,6 +1541,9 @@
     <t>Animierte Tastenanschläge</t>
   </si>
   <si>
+    <t>Анимированные нажания</t>
+  </si>
+  <si>
     <t>KEY_VIEWER_SIZE</t>
   </si>
   <si>
@@ -1376,12 +1559,21 @@
     <t>尺寸大小：</t>
   </si>
   <si>
+    <t>Размер:</t>
+  </si>
+  <si>
     <t>KEY_VIEWER_X_POS</t>
   </si>
   <si>
+    <t>Позиция по X:</t>
+  </si>
+  <si>
     <t>KEY_VIEWER_Y_POS</t>
   </si>
   <si>
+    <t>Позиция по Y:</t>
+  </si>
+  <si>
     <t>PRESSED_OUTLINE_COLOR</t>
   </si>
   <si>
@@ -1403,6 +1595,9 @@
     <t>按下按键时的轮廓颜色：</t>
   </si>
   <si>
+    <t>Цвет контура нажатой клавиши:</t>
+  </si>
+  <si>
     <t>RELEASED_OUTLINE_COLOR</t>
   </si>
   <si>
@@ -1424,6 +1619,9 @@
     <t>原本显示的轮廓颜色：</t>
   </si>
   <si>
+    <t>Цвет контура отпущенной клавиши:</t>
+  </si>
+  <si>
     <t>PRESSED_BACKGROUND_COLOR</t>
   </si>
   <si>
@@ -1445,6 +1643,9 @@
     <t>按下按键时的背景颜色</t>
   </si>
   <si>
+    <t>Цвет фона нажатой клавиши:</t>
+  </si>
+  <si>
     <t>RELEASED_BACKGROUND_COLOR</t>
   </si>
   <si>
@@ -1466,6 +1667,9 @@
     <t>原本显示的的背景颜色</t>
   </si>
   <si>
+    <t>Цвет фота отпущенной клавиши:</t>
+  </si>
+  <si>
     <t>PRESSED_TEXT_COLOR</t>
   </si>
   <si>
@@ -1487,6 +1691,9 @@
     <t>按下时的按键颜色</t>
   </si>
   <si>
+    <t>Цвет текста нажатой клавиши:</t>
+  </si>
+  <si>
     <t>RELEASED_TEXT_COLOR</t>
   </si>
   <si>
@@ -1508,6 +1715,9 @@
     <t>原本按键的颜色</t>
   </si>
   <si>
+    <t>Цвет текста отпущенной клавиши:</t>
+  </si>
+  <si>
     <t>PROFILES</t>
   </si>
   <si>
@@ -1532,6 +1742,9 @@
     <t>Profile:</t>
   </si>
   <si>
+    <t>Профили:</t>
+  </si>
+  <si>
     <t>PROFILE_NAME</t>
   </si>
   <si>
@@ -1556,6 +1769,9 @@
     <t>Profilname:</t>
   </si>
   <si>
+    <t>Имя профиля:</t>
+  </si>
+  <si>
     <t>NEW</t>
   </si>
   <si>
@@ -1580,6 +1796,9 @@
     <t>Neu</t>
   </si>
   <si>
+    <t>Новый</t>
+  </si>
+  <si>
     <t>DUPLICATE</t>
   </si>
   <si>
@@ -1604,6 +1823,9 @@
     <t>Duplizieren</t>
   </si>
   <si>
+    <t>Продублировать</t>
+  </si>
+  <si>
     <t>DELETE</t>
   </si>
   <si>
@@ -1628,6 +1850,9 @@
     <t>Entfernen</t>
   </si>
   <si>
+    <t>Удалить</t>
+  </si>
+  <si>
     <t>SHOW_KEY_PRESS_TOTAL</t>
   </si>
   <si>
@@ -1652,6 +1877,9 @@
     <t>Zeige alle Tastenanschläge</t>
   </si>
   <si>
+    <t>Показать общее число нажатий</t>
+  </si>
+  <si>
     <t>CLEAR_KEY_COUNT</t>
   </si>
   <si>
@@ -1670,6 +1898,9 @@
     <t>清除按键计数</t>
   </si>
   <si>
+    <t>Очистить общее число нажатий</t>
+  </si>
+  <si>
     <t>Key Limiter</t>
   </si>
   <si>
@@ -1685,6 +1916,9 @@
     <t>按键限制器</t>
   </si>
   <si>
+    <t>Ограничитель клавиш</t>
+  </si>
+  <si>
     <t>When active, restricts which keys count as input.</t>
   </si>
   <si>
@@ -1703,6 +1937,9 @@
     <t>Schränkt Tasten ein, die als Tastenanschlag zählen</t>
   </si>
   <si>
+    <t>Когда включено, ограничивает нажимаемые клавишы.</t>
+  </si>
+  <si>
     <t>Touches enregistrées:</t>
   </si>
   <si>
@@ -1712,6 +1949,9 @@
     <t>Registrierte Tasten</t>
   </si>
   <si>
+    <t>Назначенные клавиши:</t>
+  </si>
+  <si>
     <t>Appuie sur une touche pour l'enregistrer/la désenregistrer</t>
   </si>
   <si>
@@ -1748,6 +1988,9 @@
     <t xml:space="preserve">Schränkt Tasten im CLS (Custom Level Select) ein </t>
   </si>
   <si>
+    <t>Ограничить клавиши в редакторе</t>
+  </si>
+  <si>
     <t>LIMIT_MAIN_MENU</t>
   </si>
   <si>
@@ -1769,6 +2012,9 @@
     <t>Schränkt Tasten im Hauptmenü ein</t>
   </si>
   <si>
+    <t>Ограничить клавиши в главном меню</t>
+  </si>
+  <si>
     <t>기타 기능들</t>
   </si>
   <si>
@@ -1787,6 +2033,9 @@
     <t>Sonstiges</t>
   </si>
   <si>
+    <t>Прочее</t>
+  </si>
+  <si>
     <t>Tweaks that do not belong in any particular section.</t>
   </si>
   <si>
@@ -1808,6 +2057,9 @@
     <t>Einstellungen, die nicht in eine bestimmte Kategorie gehören</t>
   </si>
   <si>
+    <t>Настройки, которые не относятся к конкретному разделу.</t>
+  </si>
+  <si>
     <t>GLITCH_FLIP</t>
   </si>
   <si>
@@ -1832,6 +2084,9 @@
     <t>Deaktiviere das umdrehen des Bildschirms des "{0} Filters</t>
   </si>
   <si>
+    <t xml:space="preserve">Отключает перевороты экрана для фильтра "{0}" </t>
+  </si>
+  <si>
     <t>EDITOR_ZOOM</t>
   </si>
   <si>
@@ -1856,6 +2111,9 @@
     <t>Deaktiviere rein/raus zoomen wärend dem gameplay</t>
   </si>
   <si>
+    <t>Отключает приближение в редакторе во время игры</t>
+  </si>
+  <si>
     <t>SET_HITSOUND_VOLUME</t>
   </si>
   <si>
@@ -1880,6 +2138,9 @@
     <t>Stelle die Gesamtlaustärke ein</t>
   </si>
   <si>
+    <t>Установить определённую громкость для всех хитсаунд</t>
+  </si>
+  <si>
     <t>CURRENT_HITSOUND_VOLUME</t>
   </si>
   <si>
@@ -1901,6 +2162,9 @@
     <t>Lautstärke:</t>
   </si>
   <si>
+    <t>Громкость:</t>
+  </si>
+  <si>
     <t>HITSOUND_FORCE_VOLUME</t>
   </si>
   <si>
@@ -1922,6 +2186,9 @@
     <t>Nutze stetische Hitsoundlautstärke statt einen Multiplikator</t>
   </si>
   <si>
+    <t>Использовать статическую громкость хитсаундов вместо множителя</t>
+  </si>
+  <si>
     <t>HITSOUND_IGNORE_STARTING_VALUE</t>
   </si>
   <si>
@@ -1943,6 +2210,9 @@
     <t>Ignoriert den ersten Hitsound</t>
   </si>
   <si>
+    <t>Игнорировать установленную на карте громкость хитсаундов</t>
+  </si>
+  <si>
     <t>Planet Color</t>
   </si>
   <si>
@@ -1964,6 +2234,9 @@
     <t>Planetfarbe</t>
   </si>
   <si>
+    <t>Цвет планет</t>
+  </si>
+  <si>
     <t>Sets the color of the planets.</t>
   </si>
   <si>
@@ -1985,6 +2258,9 @@
     <t>Stellt die Farbe der Planeten ein</t>
   </si>
   <si>
+    <t>Устанавливает цвет планет.</t>
+  </si>
+  <si>
     <t>PLANET_ONE</t>
   </si>
   <si>
@@ -2006,6 +2282,9 @@
     <t>第一个球</t>
   </si>
   <si>
+    <t>Планета 1</t>
+  </si>
+  <si>
     <t>PLANET_TWO</t>
   </si>
   <si>
@@ -2027,6 +2306,9 @@
     <t>第二个球</t>
   </si>
   <si>
+    <t>Планета 2</t>
+  </si>
+  <si>
     <t>BODY</t>
   </si>
   <si>
@@ -2051,6 +2333,9 @@
     <t>Körper</t>
   </si>
   <si>
+    <t>Планета:</t>
+  </si>
+  <si>
     <t>TAIL</t>
   </si>
   <si>
@@ -2075,6 +2360,9 @@
     <t>Schweif</t>
   </si>
   <si>
+    <t>След:</t>
+  </si>
+  <si>
     <t>Planet Opacity</t>
   </si>
   <si>
@@ -2096,6 +2384,9 @@
     <t>Planet Deckkraft</t>
   </si>
   <si>
+    <t>Прозрачность планет</t>
+  </si>
+  <si>
     <t>Sets the opacity of the planets.</t>
   </si>
   <si>
@@ -2117,6 +2408,9 @@
     <t>Bestimmt die Deckraft der Planeten</t>
   </si>
   <si>
+    <t>Устанавливает прозрачность планет.</t>
+  </si>
+  <si>
     <t>球本体:</t>
   </si>
   <si>
@@ -2141,6 +2435,9 @@
     <t>球环:</t>
   </si>
   <si>
+    <t>Кольцо:</t>
+  </si>
+  <si>
     <t>Restrict Judgments</t>
   </si>
   <si>
@@ -2162,6 +2459,9 @@
     <t>Schränke Bewertungen ein</t>
   </si>
   <si>
+    <t>Ограничивает оценки</t>
+  </si>
+  <si>
     <t>Punishes player upon specified judgments.</t>
   </si>
   <si>
@@ -2180,6 +2480,9 @@
     <t>Bestraft den Spieler bei einer bestimmten Bewertung</t>
   </si>
   <si>
+    <t>Наказывает игрока по указанным оценкам.</t>
+  </si>
+  <si>
     <t>RESTRICT_HEADER</t>
   </si>
   <si>
@@ -2201,6 +2504,9 @@
     <t>Schränke folgende Bewertungen ein:</t>
   </si>
   <si>
+    <t>Ограничивает следующие оценки:</t>
+  </si>
+  <si>
     <t>RESTRICT</t>
   </si>
   <si>
@@ -2225,6 +2531,9 @@
     <t>Schränke die Bewertung: "{0}" ein</t>
   </si>
   <si>
+    <t>Ограничить оценку "{0}"</t>
+  </si>
+  <si>
     <t>CUSTOM_HEADER</t>
   </si>
   <si>
@@ -2246,6 +2555,9 @@
     <t>Schränke Aktion ein:</t>
   </si>
   <si>
+    <t>Наказание</t>
+  </si>
+  <si>
     <t>RESTRICT_ACTION</t>
   </si>
   <si>
@@ -2267,6 +2579,9 @@
     <t>Einschränkungsmethode:</t>
   </si>
   <si>
+    <t>Способ наказания</t>
+  </si>
+  <si>
     <t>I_RESTRICT_ACTION.KillPlayer</t>
   </si>
   <si>
@@ -2288,6 +2603,9 @@
     <t>Tötet den Spieler sofort</t>
   </si>
   <si>
+    <t>Мгновенно убить игрока</t>
+  </si>
+  <si>
     <t>I_RESTRICT_ACTION.NoRegister</t>
   </si>
   <si>
@@ -2309,6 +2627,9 @@
     <t>Behandelt die Bewertung wie ein Fehltreffer</t>
   </si>
   <si>
+    <t>Засчитывать оценку как слишком рано/поздно</t>
+  </si>
+  <si>
     <t>I_RESTRICT_ACTION.InstantRestart</t>
   </si>
   <si>
@@ -2333,6 +2654,9 @@
     <t>Starte das Level sofort neu</t>
   </si>
   <si>
+    <t>Мгновенно перезапускать уровень</t>
+  </si>
+  <si>
     <t>CUSTOM_DEATH</t>
   </si>
   <si>
@@ -2352,6 +2676,9 @@
   </si>
   <si>
     <t>判定限制的自定义死亡消息（注意：“{judgment}”事件将替换为判定名称）</t>
+  </si>
+  <si>
+    <t>Пользовательское сообщение после смерти на ограниченной оценке (примечание: "{оценка}" будет заменено на вид оценки)</t>
   </si>
 </sst>
 </file>
@@ -2683,18 +3010,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2722,266 +3049,296 @@
       <c r="I2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
       <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
         <v>12</v>
       </c>
-      <c r="H3" t="s">
-        <v>11</v>
-      </c>
       <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>12</v>
+      </c>
+      <c r="J4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>12</v>
+      </c>
+      <c r="J9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>12</v>
+      </c>
+      <c r="J10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I11" t="s">
-        <v>36</v>
+        <v>44</v>
+      </c>
+      <c r="J11" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2991,239 +3348,266 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>683</v>
+        <v>779</v>
       </c>
       <c r="C2" t="s">
-        <v>684</v>
+        <v>780</v>
       </c>
       <c r="D2" t="s">
-        <v>685</v>
+        <v>781</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F2" t="s">
-        <v>686</v>
+        <v>782</v>
       </c>
       <c r="G2" t="s">
-        <v>687</v>
+        <v>783</v>
       </c>
       <c r="H2" t="s">
-        <v>688</v>
+        <v>784</v>
       </c>
       <c r="I2" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>785</v>
+      </c>
+      <c r="J2" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="B3" t="s">
-        <v>690</v>
+        <v>787</v>
       </c>
       <c r="C3" t="s">
-        <v>691</v>
+        <v>788</v>
       </c>
       <c r="D3" t="s">
-        <v>692</v>
+        <v>789</v>
       </c>
       <c r="E3" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F3" t="s">
-        <v>693</v>
+        <v>790</v>
       </c>
       <c r="G3" t="s">
-        <v>694</v>
+        <v>791</v>
       </c>
       <c r="H3" t="s">
-        <v>695</v>
+        <v>792</v>
       </c>
       <c r="I3" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>793</v>
+      </c>
+      <c r="J3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>653</v>
+        <v>745</v>
       </c>
       <c r="B4" t="s">
-        <v>654</v>
+        <v>746</v>
       </c>
       <c r="C4" t="s">
-        <v>655</v>
+        <v>747</v>
       </c>
       <c r="D4" t="s">
-        <v>656</v>
+        <v>748</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F4" t="s">
-        <v>657</v>
+        <v>749</v>
       </c>
       <c r="G4" t="s">
-        <v>658</v>
+        <v>750</v>
       </c>
       <c r="H4" t="s">
-        <v>659</v>
+        <v>751</v>
       </c>
       <c r="I4" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>746</v>
+      </c>
+      <c r="J4" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>660</v>
+        <v>753</v>
       </c>
       <c r="B5" t="s">
-        <v>661</v>
+        <v>754</v>
       </c>
       <c r="C5" t="s">
-        <v>662</v>
+        <v>755</v>
       </c>
       <c r="D5" t="s">
-        <v>663</v>
+        <v>756</v>
       </c>
       <c r="E5" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F5" t="s">
-        <v>664</v>
+        <v>757</v>
       </c>
       <c r="G5" t="s">
-        <v>665</v>
+        <v>758</v>
       </c>
       <c r="H5" t="s">
-        <v>666</v>
+        <v>759</v>
       </c>
       <c r="I5" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>754</v>
+      </c>
+      <c r="J5" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>667</v>
+        <v>761</v>
       </c>
       <c r="B6" t="s">
-        <v>668</v>
+        <v>762</v>
       </c>
       <c r="C6" t="s">
-        <v>669</v>
+        <v>763</v>
       </c>
       <c r="D6" t="s">
-        <v>670</v>
+        <v>764</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F6" t="s">
-        <v>671</v>
+        <v>765</v>
       </c>
       <c r="G6" t="s">
-        <v>672</v>
+        <v>766</v>
       </c>
       <c r="H6" t="s">
-        <v>697</v>
+        <v>795</v>
       </c>
       <c r="I6" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>768</v>
+      </c>
+      <c r="J6" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>675</v>
+        <v>770</v>
       </c>
       <c r="B7" t="s">
-        <v>676</v>
+        <v>771</v>
       </c>
       <c r="C7" t="s">
-        <v>677</v>
+        <v>772</v>
       </c>
       <c r="D7" t="s">
-        <v>678</v>
+        <v>773</v>
       </c>
       <c r="E7" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F7" t="s">
-        <v>679</v>
+        <v>774</v>
       </c>
       <c r="G7" t="s">
-        <v>680</v>
+        <v>775</v>
       </c>
       <c r="H7" t="s">
-        <v>698</v>
+        <v>796</v>
       </c>
       <c r="I7" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>777</v>
+      </c>
+      <c r="J7" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>699</v>
+        <v>797</v>
       </c>
       <c r="B8" t="s">
-        <v>700</v>
+        <v>798</v>
       </c>
       <c r="C8" t="s">
-        <v>701</v>
+        <v>799</v>
       </c>
       <c r="D8" t="s">
-        <v>702</v>
+        <v>800</v>
       </c>
       <c r="E8" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F8" t="s">
-        <v>703</v>
+        <v>801</v>
       </c>
       <c r="G8" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="H8" t="s">
-        <v>704</v>
+        <v>802</v>
+      </c>
+      <c r="I8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" t="s">
+        <v>803</v>
       </c>
     </row>
   </sheetData>
@@ -3233,326 +3617,362 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>705</v>
+        <v>804</v>
       </c>
       <c r="C2" t="s">
-        <v>706</v>
+        <v>805</v>
       </c>
       <c r="D2" t="s">
-        <v>707</v>
+        <v>806</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F2" t="s">
-        <v>708</v>
+        <v>807</v>
       </c>
       <c r="G2" t="s">
-        <v>709</v>
+        <v>808</v>
       </c>
       <c r="H2" t="s">
-        <v>710</v>
+        <v>809</v>
       </c>
       <c r="I2" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>810</v>
+      </c>
+      <c r="J2" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="B3" t="s">
-        <v>712</v>
+        <v>812</v>
       </c>
       <c r="C3" t="s">
-        <v>713</v>
+        <v>813</v>
       </c>
       <c r="D3" t="s">
-        <v>714</v>
+        <v>814</v>
       </c>
       <c r="E3" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F3" t="s">
-        <v>715</v>
+        <v>815</v>
       </c>
       <c r="G3" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="H3" t="s">
-        <v>716</v>
+        <v>816</v>
       </c>
       <c r="I3" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>817</v>
+      </c>
+      <c r="J3" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>718</v>
+        <v>819</v>
       </c>
       <c r="B4" t="s">
-        <v>719</v>
+        <v>820</v>
       </c>
       <c r="C4" t="s">
-        <v>720</v>
+        <v>821</v>
       </c>
       <c r="D4" t="s">
-        <v>721</v>
+        <v>822</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F4" t="s">
-        <v>722</v>
+        <v>823</v>
       </c>
       <c r="G4" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>723</v>
+        <v>824</v>
       </c>
       <c r="I4" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>825</v>
+      </c>
+      <c r="J4" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>725</v>
+        <v>827</v>
       </c>
       <c r="B5" t="s">
-        <v>726</v>
+        <v>828</v>
       </c>
       <c r="C5" t="s">
-        <v>727</v>
+        <v>829</v>
       </c>
       <c r="D5" t="s">
-        <v>728</v>
+        <v>830</v>
       </c>
       <c r="E5" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F5" t="s">
-        <v>729</v>
+        <v>831</v>
       </c>
       <c r="G5" t="s">
-        <v>730</v>
+        <v>832</v>
       </c>
       <c r="H5" t="s">
-        <v>731</v>
+        <v>833</v>
       </c>
       <c r="I5" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>834</v>
+      </c>
+      <c r="J5" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>733</v>
+        <v>836</v>
       </c>
       <c r="B6" t="s">
-        <v>734</v>
+        <v>837</v>
       </c>
       <c r="C6" t="s">
-        <v>735</v>
+        <v>838</v>
       </c>
       <c r="D6" t="s">
-        <v>736</v>
+        <v>839</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F6" t="s">
-        <v>737</v>
+        <v>840</v>
       </c>
       <c r="G6" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="H6" t="s">
-        <v>738</v>
+        <v>841</v>
       </c>
       <c r="I6" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>842</v>
+      </c>
+      <c r="J6" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>740</v>
+        <v>844</v>
       </c>
       <c r="B7" t="s">
-        <v>741</v>
+        <v>845</v>
       </c>
       <c r="C7" t="s">
-        <v>742</v>
+        <v>846</v>
       </c>
       <c r="D7" t="s">
-        <v>743</v>
+        <v>847</v>
       </c>
       <c r="E7" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F7" t="s">
-        <v>744</v>
+        <v>848</v>
       </c>
       <c r="G7" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="H7" t="s">
-        <v>745</v>
+        <v>849</v>
       </c>
       <c r="I7" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>850</v>
+      </c>
+      <c r="J7" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>747</v>
+        <v>852</v>
       </c>
       <c r="B8" t="s">
-        <v>748</v>
+        <v>853</v>
       </c>
       <c r="C8" t="s">
-        <v>749</v>
+        <v>854</v>
       </c>
       <c r="D8" t="s">
-        <v>750</v>
+        <v>855</v>
       </c>
       <c r="E8" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F8" t="s">
-        <v>751</v>
+        <v>856</v>
       </c>
       <c r="G8" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="H8" t="s">
-        <v>752</v>
+        <v>857</v>
       </c>
       <c r="I8" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>858</v>
+      </c>
+      <c r="J8" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>754</v>
+        <v>860</v>
       </c>
       <c r="B9" t="s">
-        <v>755</v>
+        <v>861</v>
       </c>
       <c r="C9" t="s">
-        <v>756</v>
+        <v>862</v>
       </c>
       <c r="D9" t="s">
-        <v>757</v>
+        <v>863</v>
       </c>
       <c r="E9" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F9" t="s">
-        <v>758</v>
+        <v>864</v>
       </c>
       <c r="G9" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="H9" t="s">
-        <v>759</v>
+        <v>865</v>
       </c>
       <c r="I9" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>866</v>
+      </c>
+      <c r="J9" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>761</v>
+        <v>868</v>
       </c>
       <c r="B10" t="s">
-        <v>762</v>
+        <v>869</v>
       </c>
       <c r="C10" t="s">
-        <v>763</v>
+        <v>870</v>
       </c>
       <c r="D10" t="s">
-        <v>764</v>
+        <v>871</v>
       </c>
       <c r="E10" t="s">
-        <v>765</v>
+        <v>872</v>
       </c>
       <c r="F10" t="s">
-        <v>766</v>
+        <v>873</v>
       </c>
       <c r="G10" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="H10" t="s">
-        <v>767</v>
+        <v>874</v>
       </c>
       <c r="I10" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>875</v>
+      </c>
+      <c r="J10" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>769</v>
+        <v>877</v>
       </c>
       <c r="B11" t="s">
-        <v>770</v>
+        <v>878</v>
       </c>
       <c r="C11" t="s">
-        <v>771</v>
+        <v>879</v>
       </c>
       <c r="D11" t="s">
-        <v>772</v>
+        <v>880</v>
       </c>
       <c r="E11" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F11" t="s">
-        <v>773</v>
+        <v>881</v>
       </c>
       <c r="G11" t="s">
-        <v>774</v>
+        <v>882</v>
       </c>
       <c r="H11" t="s">
-        <v>775</v>
+        <v>883</v>
+      </c>
+      <c r="I11" t="s">
+        <v>90</v>
+      </c>
+      <c r="J11" t="s">
+        <v>884</v>
       </c>
     </row>
   </sheetData>
@@ -3562,210 +3982,234 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="G2" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="H2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="I2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="G3" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="H3" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="E4" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="G4" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="H4" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>75</v>
+      </c>
+      <c r="J4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="H5" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>84</v>
+      </c>
+      <c r="J5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="D6" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G6" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="H6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="I6" t="s">
+        <v>90</v>
+      </c>
+      <c r="J6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="G7" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="H7" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>101</v>
+      </c>
+      <c r="J7" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -3775,358 +4219,394 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="G2" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="H2" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="I2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>111</v>
+      </c>
+      <c r="J2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="D3" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="E3" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="F3" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="G3" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="H3" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="I3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>121</v>
+      </c>
+      <c r="J3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="D4" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="E4" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="F4" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="G4" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="H4" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="I4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>131</v>
+      </c>
+      <c r="J4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="B5" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="C5" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="D5" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="E5" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="F5" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="G5" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="H5" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="I5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>141</v>
+      </c>
+      <c r="J5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="C6" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="D6" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="E6" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="F6" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="G6" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="H6" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="I6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>151</v>
+      </c>
+      <c r="J6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="B7" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="C7" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="D7" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="E7" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="F7" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="G7" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="H7" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="I7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>161</v>
+      </c>
+      <c r="J7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="B8" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="C8" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="D8" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="E8" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="F8" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="G8" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="H8" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="I8" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>171</v>
+      </c>
+      <c r="J8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="B9" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="C9" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="D9" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="E9" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="F9" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="G9" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="H9" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="I9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>181</v>
+      </c>
+      <c r="J9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="B10" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="C10" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="D10" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="E10" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="F10" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="G10" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="H10" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="I10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>191</v>
+      </c>
+      <c r="J10" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="B11" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="C11" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="D11" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="E11" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F11" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="G11" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="H11" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="I11" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>199</v>
+      </c>
+      <c r="J11" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="B12" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="C12" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
       <c r="D12" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="E12" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F12" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="G12" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="H12" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="I12" t="s">
-        <v>182</v>
+        <v>207</v>
+      </c>
+      <c r="J12" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -4136,458 +4616,554 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="C2" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="D2" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="E2" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="F2" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="G2" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="H2" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="I2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>216</v>
+      </c>
+      <c r="J2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="B3" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="C3" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="D3" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="E3" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="F3" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="G3" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="H3" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="I3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>225</v>
+      </c>
+      <c r="J3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="B4" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="C4" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="D4" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="E4" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="F4" t="s">
-        <v>204</v>
+        <v>232</v>
       </c>
       <c r="G4" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="H4" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="I4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>235</v>
+      </c>
+      <c r="J4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>208</v>
+        <v>237</v>
       </c>
       <c r="B5" t="s">
-        <v>209</v>
+        <v>238</v>
       </c>
       <c r="C5" t="s">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="D5" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="E5" t="s">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c r="F5" t="s">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="G5" t="s">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="H5" t="s">
-        <v>215</v>
+        <v>244</v>
       </c>
       <c r="I5" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>245</v>
+      </c>
+      <c r="J5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="B6" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="C6" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="D6" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="E6" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="F6" t="s">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="G6" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="H6" t="s">
-        <v>224</v>
+        <v>254</v>
       </c>
       <c r="I6" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>255</v>
+      </c>
+      <c r="J6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="B7" t="s">
-        <v>227</v>
+        <v>258</v>
       </c>
       <c r="C7" t="s">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="D7" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="E7" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="F7" t="s">
-        <v>231</v>
+        <v>262</v>
       </c>
       <c r="G7" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="H7" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="I7" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>265</v>
+      </c>
+      <c r="J7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="B8" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="C8" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="D8" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="E8" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F8" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>271</v>
+      </c>
+      <c r="G8" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" t="s">
+        <v>90</v>
+      </c>
+      <c r="I8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="B9" t="s">
-        <v>241</v>
+        <v>274</v>
       </c>
       <c r="C9" t="s">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="D9" t="s">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="E9" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="F9" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="G9" t="s">
-        <v>246</v>
+        <v>279</v>
       </c>
       <c r="H9" t="s">
-        <v>247</v>
+        <v>280</v>
       </c>
       <c r="I9" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>281</v>
+      </c>
+      <c r="J9" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="B10" t="s">
-        <v>250</v>
+        <v>284</v>
       </c>
       <c r="C10" t="s">
-        <v>251</v>
+        <v>285</v>
       </c>
       <c r="D10" t="s">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="E10" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F10" t="s">
-        <v>253</v>
+        <v>287</v>
       </c>
       <c r="G10" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="H10" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>288</v>
+      </c>
+      <c r="I10" t="s">
+        <v>90</v>
+      </c>
+      <c r="J10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>255</v>
+        <v>290</v>
       </c>
       <c r="B11" t="s">
-        <v>256</v>
+        <v>291</v>
       </c>
       <c r="C11" t="s">
-        <v>257</v>
+        <v>292</v>
       </c>
       <c r="D11" t="s">
-        <v>258</v>
+        <v>293</v>
       </c>
       <c r="E11" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F11" t="s">
-        <v>259</v>
+        <v>294</v>
       </c>
       <c r="G11" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="H11" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>295</v>
+      </c>
+      <c r="I11" t="s">
+        <v>90</v>
+      </c>
+      <c r="J11" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>261</v>
+        <v>297</v>
       </c>
       <c r="B12" t="s">
-        <v>262</v>
+        <v>298</v>
       </c>
       <c r="C12" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="D12" t="s">
-        <v>264</v>
+        <v>300</v>
       </c>
       <c r="E12" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F12" t="s">
-        <v>265</v>
+        <v>301</v>
       </c>
       <c r="G12" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="H12" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>302</v>
+      </c>
+      <c r="I12" t="s">
+        <v>90</v>
+      </c>
+      <c r="J12" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="B13" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="C13" t="s">
-        <v>269</v>
+        <v>306</v>
       </c>
       <c r="D13" t="s">
-        <v>270</v>
+        <v>307</v>
       </c>
       <c r="E13" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F13" t="s">
-        <v>271</v>
+        <v>308</v>
       </c>
       <c r="G13" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="H13" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>309</v>
+      </c>
+      <c r="I13" t="s">
+        <v>90</v>
+      </c>
+      <c r="J13" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>273</v>
+        <v>311</v>
       </c>
       <c r="B14" t="s">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="C14" t="s">
-        <v>275</v>
+        <v>313</v>
       </c>
       <c r="D14" t="s">
-        <v>276</v>
+        <v>314</v>
       </c>
       <c r="E14" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F14" t="s">
-        <v>277</v>
+        <v>315</v>
       </c>
       <c r="G14" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="H14" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>316</v>
+      </c>
+      <c r="I14" t="s">
+        <v>90</v>
+      </c>
+      <c r="J14" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>279</v>
+        <v>318</v>
       </c>
       <c r="B15" t="s">
-        <v>280</v>
+        <v>319</v>
       </c>
       <c r="C15" t="s">
-        <v>281</v>
+        <v>320</v>
       </c>
       <c r="D15" t="s">
-        <v>282</v>
+        <v>321</v>
       </c>
       <c r="E15" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F15" t="s">
-        <v>283</v>
+        <v>322</v>
       </c>
       <c r="G15" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="H15" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>323</v>
+      </c>
+      <c r="I15" t="s">
+        <v>90</v>
+      </c>
+      <c r="J15" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>285</v>
+        <v>325</v>
       </c>
       <c r="B16" t="s">
-        <v>286</v>
+        <v>326</v>
       </c>
       <c r="C16" t="s">
-        <v>287</v>
+        <v>327</v>
       </c>
       <c r="D16" t="s">
-        <v>288</v>
+        <v>328</v>
       </c>
       <c r="E16" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F16" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>329</v>
+      </c>
+      <c r="G16" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" t="s">
+        <v>90</v>
+      </c>
+      <c r="I16" t="s">
+        <v>90</v>
+      </c>
+      <c r="J16" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>290</v>
+        <v>331</v>
       </c>
       <c r="B17" t="s">
-        <v>291</v>
+        <v>332</v>
       </c>
       <c r="C17" t="s">
-        <v>292</v>
+        <v>333</v>
       </c>
       <c r="D17" t="s">
-        <v>293</v>
+        <v>334</v>
       </c>
       <c r="E17" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F17" t="s">
-        <v>294</v>
+        <v>335</v>
+      </c>
+      <c r="G17" t="s">
+        <v>90</v>
+      </c>
+      <c r="H17" t="s">
+        <v>90</v>
+      </c>
+      <c r="I17" t="s">
+        <v>90</v>
+      </c>
+      <c r="J17" t="s">
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -4597,378 +5173,426 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>295</v>
+        <v>337</v>
       </c>
       <c r="C2" t="s">
-        <v>296</v>
+        <v>338</v>
       </c>
       <c r="D2" t="s">
-        <v>297</v>
+        <v>339</v>
       </c>
       <c r="E2" t="s">
-        <v>298</v>
+        <v>340</v>
       </c>
       <c r="F2" t="s">
-        <v>299</v>
+        <v>341</v>
       </c>
       <c r="G2" t="s">
-        <v>300</v>
+        <v>342</v>
       </c>
       <c r="H2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>343</v>
+      </c>
+      <c r="I2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="B3" t="s">
-        <v>302</v>
+        <v>345</v>
       </c>
       <c r="C3" t="s">
-        <v>303</v>
+        <v>346</v>
       </c>
       <c r="D3" t="s">
-        <v>304</v>
+        <v>347</v>
       </c>
       <c r="E3" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F3" t="s">
-        <v>305</v>
+        <v>348</v>
       </c>
       <c r="G3" t="s">
-        <v>306</v>
+        <v>349</v>
       </c>
       <c r="H3" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>350</v>
+      </c>
+      <c r="I3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>308</v>
+        <v>352</v>
       </c>
       <c r="B4" t="s">
-        <v>309</v>
+        <v>353</v>
       </c>
       <c r="C4" t="s">
-        <v>310</v>
+        <v>354</v>
       </c>
       <c r="D4" t="s">
-        <v>311</v>
+        <v>355</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F4" t="s">
-        <v>312</v>
+        <v>356</v>
       </c>
       <c r="G4" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="H4" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>358</v>
+      </c>
+      <c r="I4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>315</v>
+        <v>360</v>
       </c>
       <c r="B5" t="s">
-        <v>316</v>
+        <v>361</v>
       </c>
       <c r="C5" t="s">
-        <v>317</v>
+        <v>362</v>
       </c>
       <c r="D5" t="s">
-        <v>318</v>
+        <v>363</v>
       </c>
       <c r="E5" t="s">
-        <v>319</v>
+        <v>364</v>
       </c>
       <c r="F5" t="s">
-        <v>320</v>
+        <v>365</v>
       </c>
       <c r="G5" t="s">
-        <v>321</v>
+        <v>366</v>
       </c>
       <c r="H5" t="s">
-        <v>322</v>
+        <v>367</v>
       </c>
       <c r="I5" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>368</v>
+      </c>
+      <c r="J5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>324</v>
+        <v>370</v>
       </c>
       <c r="B6" t="s">
-        <v>325</v>
+        <v>371</v>
       </c>
       <c r="C6" t="s">
-        <v>326</v>
+        <v>372</v>
       </c>
       <c r="D6" t="s">
-        <v>327</v>
+        <v>373</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F6" t="s">
-        <v>328</v>
+        <v>374</v>
       </c>
       <c r="G6" t="s">
-        <v>329</v>
+        <v>375</v>
       </c>
       <c r="H6" t="s">
-        <v>330</v>
+        <v>376</v>
       </c>
       <c r="I6" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>377</v>
+      </c>
+      <c r="J6" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>332</v>
+        <v>379</v>
       </c>
       <c r="B7" t="s">
-        <v>333</v>
+        <v>380</v>
       </c>
       <c r="C7" t="s">
-        <v>334</v>
+        <v>381</v>
       </c>
       <c r="D7" t="s">
-        <v>335</v>
+        <v>382</v>
       </c>
       <c r="E7" t="s">
-        <v>336</v>
+        <v>383</v>
       </c>
       <c r="F7" t="s">
-        <v>337</v>
+        <v>384</v>
       </c>
       <c r="G7" t="s">
-        <v>338</v>
+        <v>385</v>
       </c>
       <c r="H7" t="s">
-        <v>339</v>
+        <v>386</v>
       </c>
       <c r="I7" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>387</v>
+      </c>
+      <c r="J7" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>341</v>
+        <v>389</v>
       </c>
       <c r="B8" t="s">
-        <v>342</v>
+        <v>390</v>
       </c>
       <c r="C8" t="s">
-        <v>343</v>
+        <v>391</v>
       </c>
       <c r="D8" t="s">
-        <v>344</v>
+        <v>392</v>
       </c>
       <c r="E8" t="s">
-        <v>345</v>
+        <v>393</v>
       </c>
       <c r="F8" t="s">
-        <v>346</v>
+        <v>394</v>
       </c>
       <c r="G8" t="s">
-        <v>347</v>
+        <v>395</v>
       </c>
       <c r="H8" t="s">
-        <v>348</v>
+        <v>396</v>
       </c>
       <c r="I8" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>397</v>
+      </c>
+      <c r="J8" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>350</v>
+        <v>399</v>
       </c>
       <c r="B9" t="s">
-        <v>351</v>
+        <v>400</v>
       </c>
       <c r="C9" t="s">
-        <v>352</v>
+        <v>401</v>
       </c>
       <c r="D9" t="s">
-        <v>353</v>
+        <v>402</v>
       </c>
       <c r="E9" t="s">
-        <v>354</v>
+        <v>403</v>
       </c>
       <c r="F9" t="s">
-        <v>355</v>
+        <v>404</v>
       </c>
       <c r="G9" t="s">
-        <v>356</v>
+        <v>405</v>
       </c>
       <c r="H9" t="s">
-        <v>357</v>
+        <v>406</v>
       </c>
       <c r="I9" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>407</v>
+      </c>
+      <c r="J9" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>359</v>
+        <v>409</v>
       </c>
       <c r="B10" t="s">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="C10" t="s">
-        <v>361</v>
+        <v>411</v>
       </c>
       <c r="D10" t="s">
-        <v>362</v>
+        <v>412</v>
       </c>
       <c r="E10" t="s">
-        <v>363</v>
+        <v>413</v>
       </c>
       <c r="F10" t="s">
-        <v>364</v>
+        <v>414</v>
       </c>
       <c r="G10" t="s">
-        <v>365</v>
+        <v>415</v>
       </c>
       <c r="H10" t="s">
-        <v>366</v>
+        <v>416</v>
       </c>
       <c r="I10" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>417</v>
+      </c>
+      <c r="J10" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>368</v>
+        <v>419</v>
       </c>
       <c r="B11" t="s">
-        <v>369</v>
+        <v>420</v>
       </c>
       <c r="C11" t="s">
-        <v>370</v>
+        <v>421</v>
       </c>
       <c r="D11" t="s">
-        <v>371</v>
+        <v>422</v>
       </c>
       <c r="E11" t="s">
-        <v>372</v>
+        <v>423</v>
       </c>
       <c r="F11" t="s">
-        <v>373</v>
+        <v>424</v>
       </c>
       <c r="G11" t="s">
-        <v>374</v>
+        <v>425</v>
       </c>
       <c r="H11" t="s">
-        <v>375</v>
+        <v>426</v>
       </c>
       <c r="I11" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>427</v>
+      </c>
+      <c r="J11" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>377</v>
+        <v>429</v>
       </c>
       <c r="B12" t="s">
-        <v>378</v>
+        <v>430</v>
       </c>
       <c r="C12" t="s">
-        <v>379</v>
+        <v>431</v>
       </c>
       <c r="D12" t="s">
-        <v>380</v>
+        <v>432</v>
       </c>
       <c r="E12" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F12" t="s">
-        <v>381</v>
+        <v>433</v>
       </c>
       <c r="G12" t="s">
-        <v>382</v>
+        <v>434</v>
       </c>
       <c r="H12" t="s">
-        <v>383</v>
+        <v>435</v>
       </c>
       <c r="I12" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>430</v>
+      </c>
+      <c r="J12" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>384</v>
+        <v>437</v>
       </c>
       <c r="B13" t="s">
-        <v>385</v>
+        <v>438</v>
       </c>
       <c r="C13" t="s">
-        <v>386</v>
+        <v>439</v>
       </c>
       <c r="D13" t="s">
-        <v>387</v>
+        <v>440</v>
       </c>
       <c r="E13" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F13" t="s">
-        <v>388</v>
+        <v>441</v>
       </c>
       <c r="G13" t="s">
-        <v>389</v>
+        <v>442</v>
       </c>
       <c r="H13" t="s">
-        <v>390</v>
+        <v>443</v>
       </c>
       <c r="I13" t="s">
-        <v>385</v>
+        <v>438</v>
+      </c>
+      <c r="J13" t="s">
+        <v>444</v>
       </c>
     </row>
   </sheetData>
@@ -4978,714 +5602,810 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D2" t="s">
+        <v>447</v>
+      </c>
+      <c r="E2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" t="s">
+        <v>448</v>
+      </c>
+      <c r="G2" t="s">
+        <v>449</v>
+      </c>
+      <c r="H2" t="s">
+        <v>450</v>
+      </c>
+      <c r="I2" t="s">
+        <v>451</v>
+      </c>
+      <c r="J2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" t="s">
+        <v>453</v>
+      </c>
+      <c r="C3" t="s">
+        <v>454</v>
+      </c>
+      <c r="D3" t="s">
+        <v>455</v>
+      </c>
+      <c r="E3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" t="s">
+        <v>456</v>
+      </c>
+      <c r="G3" t="s">
+        <v>457</v>
+      </c>
+      <c r="H3" t="s">
+        <v>458</v>
+      </c>
+      <c r="I3" t="s">
+        <v>459</v>
+      </c>
+      <c r="J3" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>461</v>
+      </c>
+      <c r="B4" t="s">
+        <v>462</v>
+      </c>
+      <c r="C4" t="s">
+        <v>463</v>
+      </c>
+      <c r="D4" t="s">
+        <v>464</v>
+      </c>
+      <c r="E4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" t="s">
+        <v>465</v>
+      </c>
+      <c r="G4" t="s">
+        <v>466</v>
+      </c>
+      <c r="H4" t="s">
+        <v>467</v>
+      </c>
+      <c r="I4" t="s">
+        <v>468</v>
+      </c>
+      <c r="J4" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>470</v>
+      </c>
+      <c r="B5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" t="s">
+        <v>471</v>
+      </c>
+      <c r="E5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" t="s">
+        <v>99</v>
+      </c>
+      <c r="H5" t="s">
+        <v>100</v>
+      </c>
+      <c r="I5" t="s">
+        <v>101</v>
+      </c>
+      <c r="J5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>472</v>
+      </c>
+      <c r="B6" t="s">
+        <v>473</v>
+      </c>
+      <c r="C6" t="s">
+        <v>474</v>
+      </c>
+      <c r="D6" t="s">
+        <v>475</v>
+      </c>
+      <c r="E6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" t="s">
+        <v>476</v>
+      </c>
+      <c r="G6" t="s">
+        <v>477</v>
+      </c>
+      <c r="H6" t="s">
+        <v>478</v>
+      </c>
+      <c r="I6" t="s">
+        <v>479</v>
+      </c>
+      <c r="J6" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>481</v>
+      </c>
+      <c r="B7" t="s">
+        <v>482</v>
+      </c>
+      <c r="C7" t="s">
         <v>88</v>
       </c>
-      <c r="B2" t="s">
-        <v>391</v>
-      </c>
-      <c r="C2" t="s">
-        <v>392</v>
-      </c>
-      <c r="D2" t="s">
-        <v>393</v>
-      </c>
-      <c r="E2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2" t="s">
-        <v>394</v>
-      </c>
-      <c r="G2" t="s">
-        <v>395</v>
-      </c>
-      <c r="H2" t="s">
-        <v>396</v>
-      </c>
-      <c r="I2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" t="s">
-        <v>398</v>
-      </c>
-      <c r="C3" t="s">
-        <v>399</v>
-      </c>
-      <c r="D3" t="s">
-        <v>400</v>
-      </c>
-      <c r="E3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F3" t="s">
-        <v>401</v>
-      </c>
-      <c r="G3" t="s">
-        <v>402</v>
-      </c>
-      <c r="H3" t="s">
-        <v>403</v>
-      </c>
-      <c r="I3" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>405</v>
-      </c>
-      <c r="B4" t="s">
-        <v>406</v>
-      </c>
-      <c r="C4" t="s">
-        <v>407</v>
-      </c>
-      <c r="D4" t="s">
-        <v>408</v>
-      </c>
-      <c r="E4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" t="s">
-        <v>409</v>
-      </c>
-      <c r="G4" t="s">
-        <v>410</v>
-      </c>
-      <c r="H4" t="s">
-        <v>411</v>
-      </c>
-      <c r="I4" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>413</v>
-      </c>
-      <c r="B5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" t="s">
-        <v>414</v>
-      </c>
-      <c r="E5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G5" t="s">
-        <v>85</v>
-      </c>
-      <c r="H5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>415</v>
-      </c>
-      <c r="B6" t="s">
-        <v>416</v>
-      </c>
-      <c r="C6" t="s">
-        <v>417</v>
-      </c>
-      <c r="D6" t="s">
-        <v>418</v>
-      </c>
-      <c r="E6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6" t="s">
-        <v>419</v>
-      </c>
-      <c r="G6" t="s">
-        <v>420</v>
-      </c>
-      <c r="H6" t="s">
-        <v>421</v>
-      </c>
-      <c r="I6" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>423</v>
-      </c>
-      <c r="B7" t="s">
-        <v>424</v>
-      </c>
-      <c r="C7" t="s">
-        <v>75</v>
-      </c>
       <c r="D7" t="s">
-        <v>425</v>
+        <v>483</v>
       </c>
       <c r="E7" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F7" t="s">
-        <v>426</v>
+        <v>484</v>
       </c>
       <c r="G7" t="s">
-        <v>427</v>
+        <v>485</v>
       </c>
       <c r="H7" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="I7" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>486</v>
+      </c>
+      <c r="J7" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>429</v>
+        <v>488</v>
       </c>
       <c r="B8" t="s">
+        <v>489</v>
+      </c>
+      <c r="C8" t="s">
+        <v>490</v>
+      </c>
+      <c r="D8" t="s">
+        <v>491</v>
+      </c>
+      <c r="E8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" t="s">
+        <v>492</v>
+      </c>
+      <c r="G8" t="s">
+        <v>493</v>
+      </c>
+      <c r="H8" t="s">
+        <v>494</v>
+      </c>
+      <c r="I8" t="s">
+        <v>495</v>
+      </c>
+      <c r="J8" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>497</v>
+      </c>
+      <c r="B9" t="s">
+        <v>498</v>
+      </c>
+      <c r="C9" t="s">
+        <v>499</v>
+      </c>
+      <c r="D9" t="s">
+        <v>500</v>
+      </c>
+      <c r="E9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" t="s">
+        <v>501</v>
+      </c>
+      <c r="G9" t="s">
+        <v>502</v>
+      </c>
+      <c r="H9" t="s">
+        <v>503</v>
+      </c>
+      <c r="I9" t="s">
+        <v>504</v>
+      </c>
+      <c r="J9" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>506</v>
+      </c>
+      <c r="B10" t="s">
+        <v>507</v>
+      </c>
+      <c r="C10" t="s">
+        <v>362</v>
+      </c>
+      <c r="D10" t="s">
+        <v>508</v>
+      </c>
+      <c r="E10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" t="s">
+        <v>365</v>
+      </c>
+      <c r="G10" t="s">
+        <v>509</v>
+      </c>
+      <c r="H10" t="s">
+        <v>510</v>
+      </c>
+      <c r="I10" t="s">
+        <v>368</v>
+      </c>
+      <c r="J10" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>512</v>
+      </c>
+      <c r="B11" t="s">
         <v>430</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C11" t="s">
         <v>431</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D11" t="s">
         <v>432</v>
       </c>
-      <c r="E8" t="s">
-        <v>77</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="E11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" t="s">
         <v>433</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G11" t="s">
         <v>434</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H11" t="s">
         <v>435</v>
       </c>
-      <c r="I8" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>437</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="I11" t="s">
+        <v>430</v>
+      </c>
+      <c r="J11" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>514</v>
+      </c>
+      <c r="B12" t="s">
         <v>438</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C12" t="s">
         <v>439</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D12" t="s">
         <v>440</v>
       </c>
-      <c r="E9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="E12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" t="s">
         <v>441</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G12" t="s">
         <v>442</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H12" t="s">
         <v>443</v>
       </c>
-      <c r="I9" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>445</v>
-      </c>
-      <c r="B10" t="s">
-        <v>446</v>
-      </c>
-      <c r="C10" t="s">
-        <v>317</v>
-      </c>
-      <c r="D10" t="s">
-        <v>447</v>
-      </c>
-      <c r="E10" t="s">
-        <v>77</v>
-      </c>
-      <c r="F10" t="s">
-        <v>320</v>
-      </c>
-      <c r="G10" t="s">
-        <v>448</v>
-      </c>
-      <c r="H10" t="s">
-        <v>449</v>
-      </c>
-      <c r="I10" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>450</v>
-      </c>
-      <c r="B11" t="s">
-        <v>378</v>
-      </c>
-      <c r="C11" t="s">
-        <v>379</v>
-      </c>
-      <c r="D11" t="s">
-        <v>380</v>
-      </c>
-      <c r="E11" t="s">
-        <v>77</v>
-      </c>
-      <c r="F11" t="s">
-        <v>381</v>
-      </c>
-      <c r="G11" t="s">
-        <v>382</v>
-      </c>
-      <c r="H11" t="s">
-        <v>383</v>
-      </c>
-      <c r="I11" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>451</v>
-      </c>
-      <c r="B12" t="s">
-        <v>385</v>
-      </c>
-      <c r="C12" t="s">
-        <v>386</v>
-      </c>
-      <c r="D12" t="s">
-        <v>387</v>
-      </c>
-      <c r="E12" t="s">
-        <v>77</v>
-      </c>
-      <c r="F12" t="s">
-        <v>388</v>
-      </c>
-      <c r="G12" t="s">
-        <v>389</v>
-      </c>
-      <c r="H12" t="s">
-        <v>390</v>
-      </c>
       <c r="I12" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>438</v>
+      </c>
+      <c r="J12" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>452</v>
+        <v>516</v>
       </c>
       <c r="B13" t="s">
-        <v>453</v>
+        <v>517</v>
       </c>
       <c r="C13" t="s">
-        <v>454</v>
+        <v>518</v>
       </c>
       <c r="D13" t="s">
-        <v>455</v>
+        <v>519</v>
       </c>
       <c r="E13" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F13" t="s">
-        <v>456</v>
+        <v>520</v>
       </c>
       <c r="G13" t="s">
-        <v>457</v>
+        <v>521</v>
       </c>
       <c r="H13" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>522</v>
+      </c>
+      <c r="I13" t="s">
+        <v>90</v>
+      </c>
+      <c r="J13" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>459</v>
+        <v>524</v>
       </c>
       <c r="B14" t="s">
-        <v>460</v>
+        <v>525</v>
       </c>
       <c r="C14" t="s">
-        <v>461</v>
+        <v>526</v>
       </c>
       <c r="D14" t="s">
-        <v>462</v>
+        <v>527</v>
       </c>
       <c r="E14" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F14" t="s">
-        <v>463</v>
+        <v>528</v>
       </c>
       <c r="G14" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="H14" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>530</v>
+      </c>
+      <c r="I14" t="s">
+        <v>90</v>
+      </c>
+      <c r="J14" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>466</v>
+        <v>532</v>
       </c>
       <c r="B15" t="s">
-        <v>467</v>
+        <v>533</v>
       </c>
       <c r="C15" t="s">
-        <v>468</v>
+        <v>534</v>
       </c>
       <c r="D15" t="s">
-        <v>469</v>
+        <v>535</v>
       </c>
       <c r="E15" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F15" t="s">
-        <v>470</v>
+        <v>536</v>
       </c>
       <c r="G15" t="s">
-        <v>471</v>
+        <v>537</v>
       </c>
       <c r="H15" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>538</v>
+      </c>
+      <c r="I15" t="s">
+        <v>90</v>
+      </c>
+      <c r="J15" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>473</v>
+        <v>540</v>
       </c>
       <c r="B16" t="s">
-        <v>474</v>
+        <v>541</v>
       </c>
       <c r="C16" t="s">
-        <v>475</v>
+        <v>542</v>
       </c>
       <c r="D16" t="s">
-        <v>476</v>
+        <v>543</v>
       </c>
       <c r="E16" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F16" t="s">
-        <v>477</v>
+        <v>544</v>
       </c>
       <c r="G16" t="s">
-        <v>478</v>
+        <v>545</v>
       </c>
       <c r="H16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>546</v>
+      </c>
+      <c r="I16" t="s">
+        <v>90</v>
+      </c>
+      <c r="J16" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>480</v>
+        <v>548</v>
       </c>
       <c r="B17" t="s">
-        <v>481</v>
+        <v>549</v>
       </c>
       <c r="C17" t="s">
-        <v>482</v>
+        <v>550</v>
       </c>
       <c r="D17" t="s">
-        <v>483</v>
+        <v>551</v>
       </c>
       <c r="E17" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F17" t="s">
-        <v>484</v>
+        <v>552</v>
       </c>
       <c r="G17" t="s">
-        <v>485</v>
+        <v>553</v>
       </c>
       <c r="H17" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>554</v>
+      </c>
+      <c r="I17" t="s">
+        <v>90</v>
+      </c>
+      <c r="J17" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>487</v>
+        <v>556</v>
       </c>
       <c r="B18" t="s">
-        <v>488</v>
+        <v>557</v>
       </c>
       <c r="C18" t="s">
-        <v>489</v>
+        <v>558</v>
       </c>
       <c r="D18" t="s">
-        <v>490</v>
+        <v>559</v>
       </c>
       <c r="E18" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F18" t="s">
-        <v>491</v>
+        <v>560</v>
       </c>
       <c r="G18" t="s">
-        <v>492</v>
+        <v>561</v>
       </c>
       <c r="H18" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>562</v>
+      </c>
+      <c r="I18" t="s">
+        <v>90</v>
+      </c>
+      <c r="J18" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>494</v>
+        <v>564</v>
       </c>
       <c r="B19" t="s">
-        <v>495</v>
+        <v>565</v>
       </c>
       <c r="C19" t="s">
-        <v>496</v>
+        <v>566</v>
       </c>
       <c r="D19" t="s">
-        <v>497</v>
+        <v>567</v>
       </c>
       <c r="E19" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F19" t="s">
-        <v>498</v>
+        <v>568</v>
       </c>
       <c r="G19" t="s">
-        <v>499</v>
+        <v>569</v>
       </c>
       <c r="H19" t="s">
-        <v>500</v>
+        <v>570</v>
       </c>
       <c r="I19" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>571</v>
+      </c>
+      <c r="J19" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>502</v>
+        <v>573</v>
       </c>
       <c r="B20" t="s">
-        <v>503</v>
+        <v>574</v>
       </c>
       <c r="C20" t="s">
-        <v>504</v>
+        <v>575</v>
       </c>
       <c r="D20" t="s">
-        <v>505</v>
+        <v>576</v>
       </c>
       <c r="E20" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F20" t="s">
-        <v>506</v>
+        <v>577</v>
       </c>
       <c r="G20" t="s">
-        <v>507</v>
+        <v>578</v>
       </c>
       <c r="H20" t="s">
-        <v>508</v>
+        <v>579</v>
       </c>
       <c r="I20" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>580</v>
+      </c>
+      <c r="J20" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>510</v>
+        <v>582</v>
       </c>
       <c r="B21" t="s">
-        <v>511</v>
+        <v>583</v>
       </c>
       <c r="C21" t="s">
-        <v>512</v>
+        <v>584</v>
       </c>
       <c r="D21" t="s">
-        <v>513</v>
+        <v>585</v>
       </c>
       <c r="E21" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F21" t="s">
-        <v>514</v>
+        <v>586</v>
       </c>
       <c r="G21" t="s">
-        <v>515</v>
+        <v>587</v>
       </c>
       <c r="H21" t="s">
-        <v>516</v>
+        <v>588</v>
       </c>
       <c r="I21" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>589</v>
+      </c>
+      <c r="J21" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>518</v>
+        <v>591</v>
       </c>
       <c r="B22" t="s">
-        <v>519</v>
+        <v>592</v>
       </c>
       <c r="C22" t="s">
-        <v>520</v>
+        <v>593</v>
       </c>
       <c r="D22" t="s">
-        <v>521</v>
+        <v>594</v>
       </c>
       <c r="E22" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F22" t="s">
-        <v>522</v>
+        <v>595</v>
       </c>
       <c r="G22" t="s">
-        <v>523</v>
+        <v>596</v>
       </c>
       <c r="H22" t="s">
-        <v>524</v>
+        <v>597</v>
       </c>
       <c r="I22" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>598</v>
+      </c>
+      <c r="J22" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>526</v>
+        <v>600</v>
       </c>
       <c r="B23" t="s">
-        <v>527</v>
+        <v>601</v>
       </c>
       <c r="C23" t="s">
-        <v>528</v>
+        <v>602</v>
       </c>
       <c r="D23" t="s">
-        <v>529</v>
+        <v>603</v>
       </c>
       <c r="E23" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F23" t="s">
-        <v>530</v>
+        <v>604</v>
       </c>
       <c r="G23" t="s">
-        <v>531</v>
+        <v>605</v>
       </c>
       <c r="H23" t="s">
-        <v>532</v>
+        <v>606</v>
       </c>
       <c r="I23" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>607</v>
+      </c>
+      <c r="J23" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>534</v>
+        <v>609</v>
       </c>
       <c r="B24" t="s">
-        <v>535</v>
+        <v>610</v>
       </c>
       <c r="C24" t="s">
-        <v>536</v>
+        <v>611</v>
       </c>
       <c r="D24" t="s">
-        <v>537</v>
+        <v>612</v>
       </c>
       <c r="E24" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F24" t="s">
-        <v>538</v>
+        <v>613</v>
       </c>
       <c r="G24" t="s">
-        <v>539</v>
+        <v>614</v>
       </c>
       <c r="H24" t="s">
-        <v>540</v>
+        <v>615</v>
       </c>
       <c r="I24" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>616</v>
+      </c>
+      <c r="J24" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>542</v>
+        <v>618</v>
       </c>
       <c r="B25" t="s">
-        <v>543</v>
+        <v>619</v>
       </c>
       <c r="C25" t="s">
-        <v>544</v>
+        <v>620</v>
       </c>
       <c r="D25" t="s">
-        <v>545</v>
+        <v>621</v>
       </c>
       <c r="E25" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F25" t="s">
-        <v>546</v>
+        <v>622</v>
       </c>
       <c r="G25" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="H25" t="s">
-        <v>547</v>
+        <v>623</v>
+      </c>
+      <c r="I25" t="s">
+        <v>90</v>
+      </c>
+      <c r="J25" t="s">
+        <v>624</v>
       </c>
     </row>
   </sheetData>
@@ -5695,268 +6415,298 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" t="s">
+        <v>625</v>
+      </c>
+      <c r="C2" t="s">
+        <v>626</v>
+      </c>
+      <c r="D2" t="s">
+        <v>627</v>
+      </c>
+      <c r="E2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" t="s">
+        <v>627</v>
+      </c>
+      <c r="G2" t="s">
+        <v>628</v>
+      </c>
+      <c r="H2" t="s">
+        <v>629</v>
+      </c>
+      <c r="I2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J2" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" t="s">
+        <v>631</v>
+      </c>
+      <c r="C3" t="s">
+        <v>632</v>
+      </c>
+      <c r="D3" t="s">
+        <v>633</v>
+      </c>
+      <c r="E3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" t="s">
+        <v>633</v>
+      </c>
+      <c r="G3" t="s">
+        <v>634</v>
+      </c>
+      <c r="H3" t="s">
+        <v>635</v>
+      </c>
+      <c r="I3" t="s">
+        <v>636</v>
+      </c>
+      <c r="J3" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>461</v>
+      </c>
+      <c r="B4" t="s">
+        <v>462</v>
+      </c>
+      <c r="C4" t="s">
+        <v>463</v>
+      </c>
+      <c r="D4" t="s">
+        <v>638</v>
+      </c>
+      <c r="E4" t="s">
+        <v>639</v>
+      </c>
+      <c r="F4" t="s">
+        <v>638</v>
+      </c>
+      <c r="G4" t="s">
+        <v>466</v>
+      </c>
+      <c r="H4" t="s">
+        <v>467</v>
+      </c>
+      <c r="I4" t="s">
+        <v>640</v>
+      </c>
+      <c r="J4" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>470</v>
+      </c>
+      <c r="B5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" t="s">
+        <v>99</v>
+      </c>
+      <c r="H5" t="s">
+        <v>100</v>
+      </c>
+      <c r="I5" t="s">
+        <v>101</v>
+      </c>
+      <c r="J5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>472</v>
+      </c>
+      <c r="B6" t="s">
+        <v>473</v>
+      </c>
+      <c r="C6" t="s">
+        <v>474</v>
+      </c>
+      <c r="D6" t="s">
+        <v>642</v>
+      </c>
+      <c r="E6" t="s">
+        <v>643</v>
+      </c>
+      <c r="F6" t="s">
+        <v>642</v>
+      </c>
+      <c r="G6" t="s">
+        <v>644</v>
+      </c>
+      <c r="H6" t="s">
+        <v>478</v>
+      </c>
+      <c r="I6" t="s">
+        <v>645</v>
+      </c>
+      <c r="J6" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>481</v>
+      </c>
+      <c r="B7" t="s">
+        <v>482</v>
+      </c>
+      <c r="C7" t="s">
         <v>88</v>
       </c>
-      <c r="B2" t="s">
-        <v>548</v>
-      </c>
-      <c r="C2" t="s">
-        <v>549</v>
-      </c>
-      <c r="D2" t="s">
-        <v>550</v>
-      </c>
-      <c r="E2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2" t="s">
-        <v>550</v>
-      </c>
-      <c r="G2" t="s">
-        <v>551</v>
-      </c>
-      <c r="H2" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" t="s">
-        <v>553</v>
-      </c>
-      <c r="C3" t="s">
-        <v>554</v>
-      </c>
-      <c r="D3" t="s">
-        <v>555</v>
-      </c>
-      <c r="E3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F3" t="s">
-        <v>555</v>
-      </c>
-      <c r="G3" t="s">
-        <v>556</v>
-      </c>
-      <c r="H3" t="s">
-        <v>557</v>
-      </c>
-      <c r="I3" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>405</v>
-      </c>
-      <c r="B4" t="s">
-        <v>406</v>
-      </c>
-      <c r="C4" t="s">
-        <v>407</v>
-      </c>
-      <c r="D4" t="s">
-        <v>559</v>
-      </c>
-      <c r="E4" t="s">
-        <v>560</v>
-      </c>
-      <c r="F4" t="s">
-        <v>559</v>
-      </c>
-      <c r="G4" t="s">
-        <v>410</v>
-      </c>
-      <c r="H4" t="s">
-        <v>411</v>
-      </c>
-      <c r="I4" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>413</v>
-      </c>
-      <c r="B5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G5" t="s">
-        <v>85</v>
-      </c>
-      <c r="H5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>415</v>
-      </c>
-      <c r="B6" t="s">
-        <v>416</v>
-      </c>
-      <c r="C6" t="s">
-        <v>417</v>
-      </c>
-      <c r="D6" t="s">
-        <v>562</v>
-      </c>
-      <c r="E6" t="s">
-        <v>563</v>
-      </c>
-      <c r="F6" t="s">
-        <v>562</v>
-      </c>
-      <c r="G6" t="s">
-        <v>564</v>
-      </c>
-      <c r="H6" t="s">
-        <v>421</v>
-      </c>
-      <c r="I6" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>423</v>
-      </c>
-      <c r="B7" t="s">
-        <v>424</v>
-      </c>
-      <c r="C7" t="s">
-        <v>75</v>
-      </c>
       <c r="D7" t="s">
-        <v>426</v>
+        <v>484</v>
       </c>
       <c r="E7" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F7" t="s">
-        <v>426</v>
+        <v>484</v>
       </c>
       <c r="G7" t="s">
-        <v>566</v>
+        <v>646</v>
       </c>
       <c r="H7" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="I7" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>486</v>
+      </c>
+      <c r="J7" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>567</v>
+        <v>647</v>
       </c>
       <c r="B8" t="s">
-        <v>568</v>
+        <v>648</v>
       </c>
       <c r="C8" t="s">
-        <v>569</v>
+        <v>649</v>
       </c>
       <c r="D8" t="s">
-        <v>570</v>
+        <v>650</v>
       </c>
       <c r="E8" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F8" t="s">
-        <v>570</v>
+        <v>650</v>
       </c>
       <c r="G8" t="s">
-        <v>571</v>
+        <v>651</v>
       </c>
       <c r="H8" t="s">
-        <v>572</v>
+        <v>652</v>
       </c>
       <c r="I8" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>653</v>
+      </c>
+      <c r="J8" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>574</v>
+        <v>655</v>
       </c>
       <c r="B9" t="s">
-        <v>575</v>
+        <v>656</v>
       </c>
       <c r="C9" t="s">
-        <v>576</v>
+        <v>657</v>
       </c>
       <c r="D9" t="s">
-        <v>577</v>
+        <v>658</v>
       </c>
       <c r="E9" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F9" t="s">
-        <v>577</v>
+        <v>658</v>
       </c>
       <c r="G9" t="s">
-        <v>578</v>
+        <v>659</v>
       </c>
       <c r="H9" t="s">
-        <v>579</v>
+        <v>660</v>
       </c>
       <c r="I9" t="s">
-        <v>580</v>
+        <v>661</v>
+      </c>
+      <c r="J9" t="s">
+        <v>662</v>
       </c>
     </row>
   </sheetData>
@@ -5966,271 +6716,298 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>581</v>
+        <v>663</v>
       </c>
       <c r="D2" t="s">
-        <v>582</v>
+        <v>664</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F2" t="s">
-        <v>583</v>
+        <v>665</v>
       </c>
       <c r="G2" t="s">
-        <v>584</v>
+        <v>666</v>
       </c>
       <c r="H2" t="s">
-        <v>585</v>
+        <v>667</v>
       </c>
       <c r="I2" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>668</v>
+      </c>
+      <c r="J2" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="B3" t="s">
-        <v>587</v>
+        <v>670</v>
       </c>
       <c r="C3" t="s">
-        <v>588</v>
+        <v>671</v>
       </c>
       <c r="D3" t="s">
-        <v>589</v>
+        <v>672</v>
       </c>
       <c r="E3" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F3" t="s">
-        <v>590</v>
+        <v>673</v>
       </c>
       <c r="G3" t="s">
-        <v>591</v>
+        <v>674</v>
       </c>
       <c r="H3" t="s">
-        <v>592</v>
+        <v>675</v>
       </c>
       <c r="I3" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>676</v>
+      </c>
+      <c r="J3" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>594</v>
+        <v>678</v>
       </c>
       <c r="B4" t="s">
-        <v>595</v>
+        <v>679</v>
       </c>
       <c r="C4" t="s">
-        <v>596</v>
+        <v>680</v>
       </c>
       <c r="D4" t="s">
-        <v>597</v>
+        <v>681</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F4" t="s">
-        <v>598</v>
+        <v>682</v>
       </c>
       <c r="G4" t="s">
-        <v>599</v>
+        <v>683</v>
       </c>
       <c r="H4" t="s">
-        <v>600</v>
+        <v>684</v>
       </c>
       <c r="I4" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>685</v>
+      </c>
+      <c r="J4" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>602</v>
+        <v>687</v>
       </c>
       <c r="B5" t="s">
-        <v>603</v>
+        <v>688</v>
       </c>
       <c r="C5" t="s">
-        <v>604</v>
+        <v>689</v>
       </c>
       <c r="D5" t="s">
-        <v>605</v>
+        <v>690</v>
       </c>
       <c r="E5" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F5" t="s">
-        <v>606</v>
+        <v>691</v>
       </c>
       <c r="G5" t="s">
-        <v>607</v>
+        <v>692</v>
       </c>
       <c r="H5" t="s">
-        <v>608</v>
+        <v>693</v>
       </c>
       <c r="I5" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>694</v>
+      </c>
+      <c r="J5" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>610</v>
+        <v>696</v>
       </c>
       <c r="B6" t="s">
-        <v>611</v>
+        <v>697</v>
       </c>
       <c r="C6" t="s">
-        <v>612</v>
+        <v>698</v>
       </c>
       <c r="D6" t="s">
-        <v>613</v>
+        <v>699</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F6" t="s">
-        <v>614</v>
+        <v>700</v>
       </c>
       <c r="G6" t="s">
-        <v>615</v>
+        <v>701</v>
       </c>
       <c r="H6" t="s">
-        <v>616</v>
+        <v>702</v>
       </c>
       <c r="I6" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>703</v>
+      </c>
+      <c r="J6" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>618</v>
+        <v>705</v>
       </c>
       <c r="B7" t="s">
-        <v>619</v>
+        <v>706</v>
       </c>
       <c r="C7" t="s">
-        <v>620</v>
+        <v>707</v>
       </c>
       <c r="D7" t="s">
-        <v>621</v>
+        <v>708</v>
       </c>
       <c r="E7" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F7" t="s">
-        <v>619</v>
+        <v>706</v>
       </c>
       <c r="G7" t="s">
-        <v>622</v>
+        <v>709</v>
       </c>
       <c r="H7" t="s">
-        <v>623</v>
+        <v>710</v>
       </c>
       <c r="I7" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>711</v>
+      </c>
+      <c r="J7" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>625</v>
+        <v>713</v>
       </c>
       <c r="B8" t="s">
-        <v>626</v>
+        <v>714</v>
       </c>
       <c r="C8" t="s">
-        <v>627</v>
+        <v>715</v>
       </c>
       <c r="D8" t="s">
-        <v>628</v>
+        <v>716</v>
       </c>
       <c r="E8" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F8" t="s">
-        <v>629</v>
+        <v>717</v>
       </c>
       <c r="G8" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="H8" t="s">
-        <v>630</v>
+        <v>718</v>
       </c>
       <c r="I8" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>719</v>
+      </c>
+      <c r="J8" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>632</v>
+        <v>721</v>
       </c>
       <c r="B9" t="s">
-        <v>633</v>
+        <v>722</v>
       </c>
       <c r="C9" t="s">
-        <v>634</v>
+        <v>723</v>
       </c>
       <c r="D9" t="s">
-        <v>635</v>
+        <v>724</v>
       </c>
       <c r="E9" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F9" t="s">
-        <v>636</v>
+        <v>725</v>
       </c>
       <c r="G9" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="H9" t="s">
-        <v>637</v>
+        <v>726</v>
       </c>
       <c r="I9" t="s">
-        <v>638</v>
+        <v>727</v>
+      </c>
+      <c r="J9" t="s">
+        <v>728</v>
       </c>
     </row>
   </sheetData>
@@ -6240,213 +7017,234 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>639</v>
+        <v>729</v>
       </c>
       <c r="C2" t="s">
-        <v>640</v>
+        <v>730</v>
       </c>
       <c r="D2" t="s">
-        <v>641</v>
+        <v>731</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F2" t="s">
-        <v>642</v>
+        <v>732</v>
       </c>
       <c r="G2" t="s">
-        <v>643</v>
+        <v>733</v>
       </c>
       <c r="H2" t="s">
-        <v>644</v>
+        <v>734</v>
       </c>
       <c r="I2" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>735</v>
+      </c>
+      <c r="J2" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="B3" t="s">
-        <v>646</v>
+        <v>737</v>
       </c>
       <c r="C3" t="s">
-        <v>647</v>
+        <v>738</v>
       </c>
       <c r="D3" t="s">
-        <v>648</v>
+        <v>739</v>
       </c>
       <c r="E3" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F3" t="s">
-        <v>649</v>
+        <v>740</v>
       </c>
       <c r="G3" t="s">
-        <v>650</v>
+        <v>741</v>
       </c>
       <c r="H3" t="s">
-        <v>651</v>
+        <v>742</v>
       </c>
       <c r="I3" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>743</v>
+      </c>
+      <c r="J3" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>653</v>
+        <v>745</v>
       </c>
       <c r="B4" t="s">
-        <v>654</v>
+        <v>746</v>
       </c>
       <c r="C4" t="s">
-        <v>655</v>
+        <v>747</v>
       </c>
       <c r="D4" t="s">
-        <v>656</v>
+        <v>748</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F4" t="s">
-        <v>657</v>
+        <v>749</v>
       </c>
       <c r="G4" t="s">
-        <v>658</v>
+        <v>750</v>
       </c>
       <c r="H4" t="s">
-        <v>659</v>
+        <v>751</v>
       </c>
       <c r="I4" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>746</v>
+      </c>
+      <c r="J4" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>660</v>
+        <v>753</v>
       </c>
       <c r="B5" t="s">
-        <v>661</v>
+        <v>754</v>
       </c>
       <c r="C5" t="s">
-        <v>662</v>
+        <v>755</v>
       </c>
       <c r="D5" t="s">
-        <v>663</v>
+        <v>756</v>
       </c>
       <c r="E5" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F5" t="s">
-        <v>664</v>
+        <v>757</v>
       </c>
       <c r="G5" t="s">
-        <v>665</v>
+        <v>758</v>
       </c>
       <c r="H5" t="s">
-        <v>666</v>
+        <v>759</v>
       </c>
       <c r="I5" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>754</v>
+      </c>
+      <c r="J5" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>667</v>
+        <v>761</v>
       </c>
       <c r="B6" t="s">
-        <v>668</v>
+        <v>762</v>
       </c>
       <c r="C6" t="s">
-        <v>669</v>
+        <v>763</v>
       </c>
       <c r="D6" t="s">
-        <v>670</v>
+        <v>764</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F6" t="s">
-        <v>671</v>
+        <v>765</v>
       </c>
       <c r="G6" t="s">
-        <v>672</v>
+        <v>766</v>
       </c>
       <c r="H6" t="s">
-        <v>673</v>
+        <v>767</v>
       </c>
       <c r="I6" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>768</v>
+      </c>
+      <c r="J6" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>675</v>
+        <v>770</v>
       </c>
       <c r="B7" t="s">
-        <v>676</v>
+        <v>771</v>
       </c>
       <c r="C7" t="s">
-        <v>677</v>
+        <v>772</v>
       </c>
       <c r="D7" t="s">
-        <v>678</v>
+        <v>773</v>
       </c>
       <c r="E7" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F7" t="s">
-        <v>679</v>
+        <v>774</v>
       </c>
       <c r="G7" t="s">
-        <v>680</v>
+        <v>775</v>
       </c>
       <c r="H7" t="s">
-        <v>681</v>
+        <v>776</v>
       </c>
       <c r="I7" t="s">
-        <v>682</v>
+        <v>777</v>
+      </c>
+      <c r="J7" t="s">
+        <v>778</v>
       </c>
     </row>
   </sheetData>

--- a/AdofaiTweaks.Generator/translations.xlsx
+++ b/AdofaiTweaks.Generator/translations.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="885">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="900">
   <si>
     <t>Translation Status</t>
   </si>
@@ -83,9 +83,6 @@
     <t>43.8% (9 left)</t>
   </si>
   <si>
-    <t>81.3% (3 left)</t>
-  </si>
-  <si>
     <t>100% (16 left)</t>
   </si>
   <si>
@@ -131,13 +128,16 @@
     <t>Miscellaneous</t>
   </si>
   <si>
-    <t>0% (8 left)</t>
-  </si>
-  <si>
-    <t>75% (2 left)</t>
-  </si>
-  <si>
-    <t>100% (8 left)</t>
+    <t>88.9% (1 left)</t>
+  </si>
+  <si>
+    <t>0% (9 left)</t>
+  </si>
+  <si>
+    <t>66.7% (3 left)</t>
+  </si>
+  <si>
+    <t>88.9% (9 left)</t>
   </si>
   <si>
     <t>PlanetColor</t>
@@ -842,6 +842,9 @@
     <t>Masquer Otto et le texte d'autoplay</t>
   </si>
   <si>
+    <t>隐藏兔子图标和自动播放文字</t>
+  </si>
+  <si>
     <t>Скрыть Отто и надпись "Автоигра"</t>
   </si>
   <si>
@@ -1016,6 +1019,9 @@
     <t>Masquer la timing target</t>
   </si>
   <si>
+    <t>隐藏计时目标图标</t>
+  </si>
+  <si>
     <t>Скрыть иконку сложности</t>
   </si>
   <si>
@@ -1034,6 +1040,9 @@
     <t>Masquer l'icône no fail</t>
   </si>
   <si>
+    <t>隐藏不会失败图标</t>
+  </si>
+  <si>
     <t>Скрыть иконку режима бессмертия</t>
   </si>
   <si>
@@ -1667,7 +1676,7 @@
     <t>原本显示的的背景颜色</t>
   </si>
   <si>
-    <t>Цвет фота отпущенной клавиши:</t>
+    <t>Цвет фона отпущенной клавиши:</t>
   </si>
   <si>
     <t>PRESSED_TEXT_COLOR</t>
@@ -2015,6 +2024,35 @@
     <t>Ограничить клавиши в главном меню</t>
   </si>
   <si>
+    <t>SELECTED_INPUT_SYSTEM</t>
+  </si>
+  <si>
+    <t>Currently selected input system: {0}
+&lt;b&gt;NOTE: &lt;/b&gt;The registered keys for synchronous and asynchronous input are separate settings from each other.</t>
+  </si>
+  <si>
+    <t>사용중인 키 입력 시스템: {0}
+&lt;b&gt;참고: &lt;/b&gt;비동기 입력 시스템과 동기 입력 시스템의 등록된 키들은 각각 설정이 다릅니다.</t>
+  </si>
+  <si>
+    <t>ASYNCHRONOUS_INPUT_SYSTEM</t>
+  </si>
+  <si>
+    <t>Asynchronous Input System</t>
+  </si>
+  <si>
+    <t>비동기 입력 시스템</t>
+  </si>
+  <si>
+    <t>SYNCHRONOUS_INPUT_SYSTEM</t>
+  </si>
+  <si>
+    <t>Synchronous Input System</t>
+  </si>
+  <si>
+    <t>동기 입력 시스템</t>
+  </si>
+  <si>
     <t>기타 기능들</t>
   </si>
   <si>
@@ -2211,6 +2249,15 @@
   </si>
   <si>
     <t>Игнорировать установленную на карте громкость хитсаундов</t>
+  </si>
+  <si>
+    <t>SYNC_INPUT_STATE</t>
+  </si>
+  <si>
+    <t>Fix Asynchronous Input not being enabled automatically</t>
+  </si>
+  <si>
+    <t>비동기 입력이 자동으로 입력되지 않는 버그 해결하기</t>
   </si>
   <si>
     <t>Planet Color</t>
@@ -3140,18 +3187,18 @@
         <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I5" t="s">
         <v>18</v>
       </c>
       <c r="J5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -3163,7 +3210,7 @@
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
@@ -3175,15 +3222,15 @@
         <v>12</v>
       </c>
       <c r="I6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" t="s">
         <v>23</v>
-      </c>
-      <c r="J6" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -3195,27 +3242,27 @@
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H7" t="s">
         <v>12</v>
       </c>
       <c r="I7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" t="s">
         <v>28</v>
-      </c>
-      <c r="J7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -3227,27 +3274,27 @@
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H8" t="s">
         <v>12</v>
       </c>
       <c r="I8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" t="s">
         <v>32</v>
-      </c>
-      <c r="J8" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -3256,22 +3303,22 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
         <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
         <v>36</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I9" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="J9" t="s">
         <v>37</v>
@@ -3391,31 +3438,31 @@
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>779</v>
+        <v>794</v>
       </c>
       <c r="C2" t="s">
-        <v>780</v>
+        <v>795</v>
       </c>
       <c r="D2" t="s">
-        <v>781</v>
+        <v>796</v>
       </c>
       <c r="E2" t="s">
         <v>90</v>
       </c>
       <c r="F2" t="s">
-        <v>782</v>
+        <v>797</v>
       </c>
       <c r="G2" t="s">
-        <v>783</v>
+        <v>798</v>
       </c>
       <c r="H2" t="s">
-        <v>784</v>
+        <v>799</v>
       </c>
       <c r="I2" t="s">
-        <v>785</v>
+        <v>800</v>
       </c>
       <c r="J2" t="s">
-        <v>786</v>
+        <v>801</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3423,191 +3470,191 @@
         <v>113</v>
       </c>
       <c r="B3" t="s">
-        <v>787</v>
+        <v>802</v>
       </c>
       <c r="C3" t="s">
-        <v>788</v>
+        <v>803</v>
       </c>
       <c r="D3" t="s">
-        <v>789</v>
+        <v>804</v>
       </c>
       <c r="E3" t="s">
         <v>90</v>
       </c>
       <c r="F3" t="s">
-        <v>790</v>
+        <v>805</v>
       </c>
       <c r="G3" t="s">
-        <v>791</v>
+        <v>806</v>
       </c>
       <c r="H3" t="s">
-        <v>792</v>
+        <v>807</v>
       </c>
       <c r="I3" t="s">
-        <v>793</v>
+        <v>808</v>
       </c>
       <c r="J3" t="s">
-        <v>794</v>
+        <v>809</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>745</v>
+        <v>760</v>
       </c>
       <c r="B4" t="s">
-        <v>746</v>
+        <v>761</v>
       </c>
       <c r="C4" t="s">
-        <v>747</v>
+        <v>762</v>
       </c>
       <c r="D4" t="s">
-        <v>748</v>
+        <v>763</v>
       </c>
       <c r="E4" t="s">
         <v>90</v>
       </c>
       <c r="F4" t="s">
-        <v>749</v>
+        <v>764</v>
       </c>
       <c r="G4" t="s">
-        <v>750</v>
+        <v>765</v>
       </c>
       <c r="H4" t="s">
-        <v>751</v>
+        <v>766</v>
       </c>
       <c r="I4" t="s">
-        <v>746</v>
+        <v>761</v>
       </c>
       <c r="J4" t="s">
-        <v>752</v>
+        <v>767</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>753</v>
+        <v>768</v>
       </c>
       <c r="B5" t="s">
-        <v>754</v>
+        <v>769</v>
       </c>
       <c r="C5" t="s">
-        <v>755</v>
+        <v>770</v>
       </c>
       <c r="D5" t="s">
-        <v>756</v>
+        <v>771</v>
       </c>
       <c r="E5" t="s">
         <v>90</v>
       </c>
       <c r="F5" t="s">
-        <v>757</v>
+        <v>772</v>
       </c>
       <c r="G5" t="s">
-        <v>758</v>
+        <v>773</v>
       </c>
       <c r="H5" t="s">
-        <v>759</v>
+        <v>774</v>
       </c>
       <c r="I5" t="s">
-        <v>754</v>
+        <v>769</v>
       </c>
       <c r="J5" t="s">
-        <v>760</v>
+        <v>775</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>761</v>
+        <v>776</v>
       </c>
       <c r="B6" t="s">
-        <v>762</v>
+        <v>777</v>
       </c>
       <c r="C6" t="s">
-        <v>763</v>
+        <v>778</v>
       </c>
       <c r="D6" t="s">
-        <v>764</v>
+        <v>779</v>
       </c>
       <c r="E6" t="s">
         <v>90</v>
       </c>
       <c r="F6" t="s">
-        <v>765</v>
+        <v>780</v>
       </c>
       <c r="G6" t="s">
-        <v>766</v>
+        <v>781</v>
       </c>
       <c r="H6" t="s">
-        <v>795</v>
+        <v>810</v>
       </c>
       <c r="I6" t="s">
-        <v>768</v>
+        <v>783</v>
       </c>
       <c r="J6" t="s">
-        <v>769</v>
+        <v>784</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>770</v>
+        <v>785</v>
       </c>
       <c r="B7" t="s">
-        <v>771</v>
+        <v>786</v>
       </c>
       <c r="C7" t="s">
-        <v>772</v>
+        <v>787</v>
       </c>
       <c r="D7" t="s">
-        <v>773</v>
+        <v>788</v>
       </c>
       <c r="E7" t="s">
         <v>90</v>
       </c>
       <c r="F7" t="s">
-        <v>774</v>
+        <v>789</v>
       </c>
       <c r="G7" t="s">
-        <v>775</v>
+        <v>790</v>
       </c>
       <c r="H7" t="s">
-        <v>796</v>
+        <v>811</v>
       </c>
       <c r="I7" t="s">
-        <v>777</v>
+        <v>792</v>
       </c>
       <c r="J7" t="s">
-        <v>778</v>
+        <v>793</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>797</v>
+        <v>812</v>
       </c>
       <c r="B8" t="s">
-        <v>798</v>
+        <v>813</v>
       </c>
       <c r="C8" t="s">
-        <v>799</v>
+        <v>814</v>
       </c>
       <c r="D8" t="s">
-        <v>800</v>
+        <v>815</v>
       </c>
       <c r="E8" t="s">
         <v>90</v>
       </c>
       <c r="F8" t="s">
-        <v>801</v>
+        <v>816</v>
       </c>
       <c r="G8" t="s">
         <v>90</v>
       </c>
       <c r="H8" t="s">
-        <v>802</v>
+        <v>817</v>
       </c>
       <c r="I8" t="s">
         <v>90</v>
       </c>
       <c r="J8" t="s">
-        <v>803</v>
+        <v>818</v>
       </c>
     </row>
   </sheetData>
@@ -3660,31 +3707,31 @@
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>804</v>
+        <v>819</v>
       </c>
       <c r="C2" t="s">
-        <v>805</v>
+        <v>820</v>
       </c>
       <c r="D2" t="s">
-        <v>806</v>
+        <v>821</v>
       </c>
       <c r="E2" t="s">
         <v>90</v>
       </c>
       <c r="F2" t="s">
-        <v>807</v>
+        <v>822</v>
       </c>
       <c r="G2" t="s">
-        <v>808</v>
+        <v>823</v>
       </c>
       <c r="H2" t="s">
-        <v>809</v>
+        <v>824</v>
       </c>
       <c r="I2" t="s">
-        <v>810</v>
+        <v>825</v>
       </c>
       <c r="J2" t="s">
-        <v>811</v>
+        <v>826</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3692,287 +3739,287 @@
         <v>113</v>
       </c>
       <c r="B3" t="s">
-        <v>812</v>
+        <v>827</v>
       </c>
       <c r="C3" t="s">
-        <v>813</v>
+        <v>828</v>
       </c>
       <c r="D3" t="s">
-        <v>814</v>
+        <v>829</v>
       </c>
       <c r="E3" t="s">
         <v>90</v>
       </c>
       <c r="F3" t="s">
-        <v>815</v>
+        <v>830</v>
       </c>
       <c r="G3" t="s">
         <v>90</v>
       </c>
       <c r="H3" t="s">
-        <v>816</v>
+        <v>831</v>
       </c>
       <c r="I3" t="s">
-        <v>817</v>
+        <v>832</v>
       </c>
       <c r="J3" t="s">
-        <v>818</v>
+        <v>833</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>819</v>
+        <v>834</v>
       </c>
       <c r="B4" t="s">
-        <v>820</v>
+        <v>835</v>
       </c>
       <c r="C4" t="s">
-        <v>821</v>
+        <v>836</v>
       </c>
       <c r="D4" t="s">
-        <v>822</v>
+        <v>837</v>
       </c>
       <c r="E4" t="s">
         <v>90</v>
       </c>
       <c r="F4" t="s">
-        <v>823</v>
+        <v>838</v>
       </c>
       <c r="G4" t="s">
         <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>824</v>
+        <v>839</v>
       </c>
       <c r="I4" t="s">
-        <v>825</v>
+        <v>840</v>
       </c>
       <c r="J4" t="s">
-        <v>826</v>
+        <v>841</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>827</v>
+        <v>842</v>
       </c>
       <c r="B5" t="s">
-        <v>828</v>
+        <v>843</v>
       </c>
       <c r="C5" t="s">
-        <v>829</v>
+        <v>844</v>
       </c>
       <c r="D5" t="s">
-        <v>830</v>
+        <v>845</v>
       </c>
       <c r="E5" t="s">
         <v>90</v>
       </c>
       <c r="F5" t="s">
-        <v>831</v>
+        <v>846</v>
       </c>
       <c r="G5" t="s">
-        <v>832</v>
+        <v>847</v>
       </c>
       <c r="H5" t="s">
-        <v>833</v>
+        <v>848</v>
       </c>
       <c r="I5" t="s">
-        <v>834</v>
+        <v>849</v>
       </c>
       <c r="J5" t="s">
-        <v>835</v>
+        <v>850</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>836</v>
+        <v>851</v>
       </c>
       <c r="B6" t="s">
-        <v>837</v>
+        <v>852</v>
       </c>
       <c r="C6" t="s">
-        <v>838</v>
+        <v>853</v>
       </c>
       <c r="D6" t="s">
-        <v>839</v>
+        <v>854</v>
       </c>
       <c r="E6" t="s">
         <v>90</v>
       </c>
       <c r="F6" t="s">
-        <v>840</v>
+        <v>855</v>
       </c>
       <c r="G6" t="s">
         <v>90</v>
       </c>
       <c r="H6" t="s">
-        <v>841</v>
+        <v>856</v>
       </c>
       <c r="I6" t="s">
-        <v>842</v>
+        <v>857</v>
       </c>
       <c r="J6" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>844</v>
+        <v>859</v>
       </c>
       <c r="B7" t="s">
-        <v>845</v>
+        <v>860</v>
       </c>
       <c r="C7" t="s">
-        <v>846</v>
+        <v>861</v>
       </c>
       <c r="D7" t="s">
-        <v>847</v>
+        <v>862</v>
       </c>
       <c r="E7" t="s">
         <v>90</v>
       </c>
       <c r="F7" t="s">
-        <v>848</v>
+        <v>863</v>
       </c>
       <c r="G7" t="s">
         <v>90</v>
       </c>
       <c r="H7" t="s">
-        <v>849</v>
+        <v>864</v>
       </c>
       <c r="I7" t="s">
-        <v>850</v>
+        <v>865</v>
       </c>
       <c r="J7" t="s">
-        <v>851</v>
+        <v>866</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>852</v>
+        <v>867</v>
       </c>
       <c r="B8" t="s">
-        <v>853</v>
+        <v>868</v>
       </c>
       <c r="C8" t="s">
-        <v>854</v>
+        <v>869</v>
       </c>
       <c r="D8" t="s">
-        <v>855</v>
+        <v>870</v>
       </c>
       <c r="E8" t="s">
         <v>90</v>
       </c>
       <c r="F8" t="s">
-        <v>856</v>
+        <v>871</v>
       </c>
       <c r="G8" t="s">
         <v>90</v>
       </c>
       <c r="H8" t="s">
-        <v>857</v>
+        <v>872</v>
       </c>
       <c r="I8" t="s">
-        <v>858</v>
+        <v>873</v>
       </c>
       <c r="J8" t="s">
-        <v>859</v>
+        <v>874</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>860</v>
+        <v>875</v>
       </c>
       <c r="B9" t="s">
-        <v>861</v>
+        <v>876</v>
       </c>
       <c r="C9" t="s">
-        <v>862</v>
+        <v>877</v>
       </c>
       <c r="D9" t="s">
-        <v>863</v>
+        <v>878</v>
       </c>
       <c r="E9" t="s">
         <v>90</v>
       </c>
       <c r="F9" t="s">
-        <v>864</v>
+        <v>879</v>
       </c>
       <c r="G9" t="s">
         <v>90</v>
       </c>
       <c r="H9" t="s">
-        <v>865</v>
+        <v>880</v>
       </c>
       <c r="I9" t="s">
-        <v>866</v>
+        <v>881</v>
       </c>
       <c r="J9" t="s">
-        <v>867</v>
+        <v>882</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>868</v>
+        <v>883</v>
       </c>
       <c r="B10" t="s">
-        <v>869</v>
+        <v>884</v>
       </c>
       <c r="C10" t="s">
-        <v>870</v>
+        <v>885</v>
       </c>
       <c r="D10" t="s">
-        <v>871</v>
+        <v>886</v>
       </c>
       <c r="E10" t="s">
-        <v>872</v>
+        <v>887</v>
       </c>
       <c r="F10" t="s">
-        <v>873</v>
+        <v>888</v>
       </c>
       <c r="G10" t="s">
         <v>90</v>
       </c>
       <c r="H10" t="s">
-        <v>874</v>
+        <v>889</v>
       </c>
       <c r="I10" t="s">
-        <v>875</v>
+        <v>890</v>
       </c>
       <c r="J10" t="s">
-        <v>876</v>
+        <v>891</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>877</v>
+        <v>892</v>
       </c>
       <c r="B11" t="s">
-        <v>878</v>
+        <v>893</v>
       </c>
       <c r="C11" t="s">
-        <v>879</v>
+        <v>894</v>
       </c>
       <c r="D11" t="s">
-        <v>880</v>
+        <v>895</v>
       </c>
       <c r="E11" t="s">
         <v>90</v>
       </c>
       <c r="F11" t="s">
-        <v>881</v>
+        <v>896</v>
       </c>
       <c r="G11" t="s">
-        <v>882</v>
+        <v>897</v>
       </c>
       <c r="H11" t="s">
-        <v>883</v>
+        <v>898</v>
       </c>
       <c r="I11" t="s">
         <v>90</v>
       </c>
       <c r="J11" t="s">
-        <v>884</v>
+        <v>899</v>
       </c>
     </row>
   </sheetData>
@@ -4869,301 +4916,301 @@
         <v>90</v>
       </c>
       <c r="H8" t="s">
-        <v>90</v>
+        <v>272</v>
       </c>
       <c r="I8" t="s">
         <v>90</v>
       </c>
       <c r="J8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B9" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D9" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E9" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H9" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I9" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="J9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B10" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C10" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E10" t="s">
         <v>90</v>
       </c>
       <c r="F10" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G10" t="s">
         <v>90</v>
       </c>
       <c r="H10" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="I10" t="s">
         <v>90</v>
       </c>
       <c r="J10" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B11" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C11" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D11" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E11" t="s">
         <v>90</v>
       </c>
       <c r="F11" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G11" t="s">
         <v>90</v>
       </c>
       <c r="H11" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I11" t="s">
         <v>90</v>
       </c>
       <c r="J11" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B12" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C12" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D12" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E12" t="s">
         <v>90</v>
       </c>
       <c r="F12" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G12" t="s">
         <v>90</v>
       </c>
       <c r="H12" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I12" t="s">
         <v>90</v>
       </c>
       <c r="J12" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B13" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C13" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D13" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E13" t="s">
         <v>90</v>
       </c>
       <c r="F13" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G13" t="s">
         <v>90</v>
       </c>
       <c r="H13" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="I13" t="s">
         <v>90</v>
       </c>
       <c r="J13" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B14" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C14" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D14" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E14" t="s">
         <v>90</v>
       </c>
       <c r="F14" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G14" t="s">
         <v>90</v>
       </c>
       <c r="H14" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I14" t="s">
         <v>90</v>
       </c>
       <c r="J14" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B15" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C15" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D15" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E15" t="s">
         <v>90</v>
       </c>
       <c r="F15" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G15" t="s">
         <v>90</v>
       </c>
       <c r="H15" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I15" t="s">
         <v>90</v>
       </c>
       <c r="J15" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B16" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C16" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D16" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E16" t="s">
         <v>90</v>
       </c>
       <c r="F16" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G16" t="s">
         <v>90</v>
       </c>
       <c r="H16" t="s">
-        <v>90</v>
+        <v>331</v>
       </c>
       <c r="I16" t="s">
         <v>90</v>
       </c>
       <c r="J16" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B17" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C17" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D17" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E17" t="s">
         <v>90</v>
       </c>
       <c r="F17" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="G17" t="s">
         <v>90</v>
       </c>
       <c r="H17" t="s">
-        <v>90</v>
+        <v>338</v>
       </c>
       <c r="I17" t="s">
         <v>90</v>
       </c>
       <c r="J17" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -5216,31 +5263,31 @@
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C2" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D2" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="E2" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="F2" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="G2" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="H2" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="I2" t="s">
         <v>90</v>
       </c>
       <c r="J2" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -5248,351 +5295,351 @@
         <v>113</v>
       </c>
       <c r="B3" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C3" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="D3" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="E3" t="s">
         <v>90</v>
       </c>
       <c r="F3" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G3" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="H3" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="I3" t="s">
         <v>90</v>
       </c>
       <c r="J3" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B4" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C4" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D4" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="E4" t="s">
         <v>90</v>
       </c>
       <c r="F4" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="G4" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="H4" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="I4" t="s">
         <v>90</v>
       </c>
       <c r="J4" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B5" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C5" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="D5" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="E5" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="F5" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="G5" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="H5" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="I5" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="J5" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B6" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C6" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="D6" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="E6" t="s">
         <v>90</v>
       </c>
       <c r="F6" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="G6" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="H6" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="I6" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="J6" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="C7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="D7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="E7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="F7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="G7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="H7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="I7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="J7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B8" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C8" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="D8" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="E8" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="F8" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="G8" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="H8" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="I8" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="J8" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B9" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C9" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D9" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="E9" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="F9" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="G9" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="H9" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="I9" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="J9" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B10" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C10" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="D10" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="E10" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="F10" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="G10" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="H10" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="I10" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="J10" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B11" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C11" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D11" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="E11" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="F11" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="G11" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="H11" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="I11" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="J11" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B12" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C12" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="D12" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="E12" t="s">
         <v>90</v>
       </c>
       <c r="F12" t="s">
+        <v>436</v>
+      </c>
+      <c r="G12" t="s">
+        <v>437</v>
+      </c>
+      <c r="H12" t="s">
+        <v>438</v>
+      </c>
+      <c r="I12" t="s">
         <v>433</v>
       </c>
-      <c r="G12" t="s">
-        <v>434</v>
-      </c>
-      <c r="H12" t="s">
-        <v>435</v>
-      </c>
-      <c r="I12" t="s">
-        <v>430</v>
-      </c>
       <c r="J12" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B13" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C13" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="D13" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="E13" t="s">
         <v>90</v>
       </c>
       <c r="F13" t="s">
+        <v>444</v>
+      </c>
+      <c r="G13" t="s">
+        <v>445</v>
+      </c>
+      <c r="H13" t="s">
+        <v>446</v>
+      </c>
+      <c r="I13" t="s">
         <v>441</v>
       </c>
-      <c r="G13" t="s">
-        <v>442</v>
-      </c>
-      <c r="H13" t="s">
-        <v>443</v>
-      </c>
-      <c r="I13" t="s">
-        <v>438</v>
-      </c>
       <c r="J13" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -5645,31 +5692,31 @@
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="C2" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="D2" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="E2" t="s">
         <v>90</v>
       </c>
       <c r="F2" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="G2" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="H2" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="I2" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="J2" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -5677,68 +5724,68 @@
         <v>113</v>
       </c>
       <c r="B3" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C3" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="D3" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="E3" t="s">
         <v>90</v>
       </c>
       <c r="F3" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="G3" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="H3" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="I3" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="J3" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B4" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C4" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="D4" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="E4" t="s">
         <v>90</v>
       </c>
       <c r="F4" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="G4" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="H4" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="I4" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="J4" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B5" t="s">
         <v>95</v>
@@ -5747,7 +5794,7 @@
         <v>96</v>
       </c>
       <c r="D5" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="E5" t="s">
         <v>90</v>
@@ -5770,642 +5817,642 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B6" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="C6" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="D6" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="E6" t="s">
         <v>90</v>
       </c>
       <c r="F6" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="G6" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="H6" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="I6" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="J6" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B7" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="C7" t="s">
         <v>88</v>
       </c>
       <c r="D7" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="E7" t="s">
         <v>90</v>
       </c>
       <c r="F7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="G7" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="H7" t="s">
         <v>92</v>
       </c>
       <c r="I7" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="J7" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="B8" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C8" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="D8" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="E8" t="s">
         <v>90</v>
       </c>
       <c r="F8" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="G8" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="H8" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="I8" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="J8" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B9" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C9" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="D9" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="E9" t="s">
         <v>90</v>
       </c>
       <c r="F9" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="G9" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="H9" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="I9" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="J9" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="B10" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="C10" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="D10" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="E10" t="s">
         <v>90</v>
       </c>
       <c r="F10" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="G10" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="H10" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="I10" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="J10" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="B11" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C11" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="D11" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="E11" t="s">
         <v>90</v>
       </c>
       <c r="F11" t="s">
+        <v>436</v>
+      </c>
+      <c r="G11" t="s">
+        <v>437</v>
+      </c>
+      <c r="H11" t="s">
+        <v>438</v>
+      </c>
+      <c r="I11" t="s">
         <v>433</v>
       </c>
-      <c r="G11" t="s">
-        <v>434</v>
-      </c>
-      <c r="H11" t="s">
-        <v>435</v>
-      </c>
-      <c r="I11" t="s">
-        <v>430</v>
-      </c>
       <c r="J11" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="B12" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C12" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="D12" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="E12" t="s">
         <v>90</v>
       </c>
       <c r="F12" t="s">
+        <v>444</v>
+      </c>
+      <c r="G12" t="s">
+        <v>445</v>
+      </c>
+      <c r="H12" t="s">
+        <v>446</v>
+      </c>
+      <c r="I12" t="s">
         <v>441</v>
       </c>
-      <c r="G12" t="s">
-        <v>442</v>
-      </c>
-      <c r="H12" t="s">
-        <v>443</v>
-      </c>
-      <c r="I12" t="s">
-        <v>438</v>
-      </c>
       <c r="J12" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="B13" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="C13" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="D13" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="E13" t="s">
         <v>90</v>
       </c>
       <c r="F13" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="G13" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="H13" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="I13" t="s">
         <v>90</v>
       </c>
       <c r="J13" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="B14" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C14" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="D14" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="E14" t="s">
         <v>90</v>
       </c>
       <c r="F14" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="G14" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="H14" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="I14" t="s">
         <v>90</v>
       </c>
       <c r="J14" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="B15" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="C15" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="D15" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="E15" t="s">
         <v>90</v>
       </c>
       <c r="F15" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="G15" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="H15" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="I15" t="s">
         <v>90</v>
       </c>
       <c r="J15" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="B16" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="C16" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="D16" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="E16" t="s">
         <v>90</v>
       </c>
       <c r="F16" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="G16" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="H16" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="I16" t="s">
         <v>90</v>
       </c>
       <c r="J16" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="B17" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="C17" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="D17" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="E17" t="s">
         <v>90</v>
       </c>
       <c r="F17" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="G17" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="H17" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="I17" t="s">
         <v>90</v>
       </c>
       <c r="J17" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="B18" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="C18" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="D18" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="E18" t="s">
         <v>90</v>
       </c>
       <c r="F18" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="G18" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="H18" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="I18" t="s">
         <v>90</v>
       </c>
       <c r="J18" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="B19" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="C19" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="D19" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="E19" t="s">
         <v>90</v>
       </c>
       <c r="F19" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="G19" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="H19" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="I19" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="J19" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="B20" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="C20" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="D20" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="E20" t="s">
         <v>90</v>
       </c>
       <c r="F20" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="G20" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="H20" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="I20" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="J20" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="B21" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="C21" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="D21" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="E21" t="s">
         <v>90</v>
       </c>
       <c r="F21" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="G21" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="H21" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="I21" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="J21" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="B22" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="C22" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="D22" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="E22" t="s">
         <v>90</v>
       </c>
       <c r="F22" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="G22" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="H22" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="I22" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="J22" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="B23" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="C23" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="D23" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="E23" t="s">
         <v>90</v>
       </c>
       <c r="F23" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="G23" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="H23" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="I23" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="J23" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="B24" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="C24" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="D24" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="E24" t="s">
         <v>90</v>
       </c>
       <c r="F24" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="G24" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="H24" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="I24" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="J24" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="B25" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="C25" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="D25" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="E25" t="s">
         <v>90</v>
       </c>
       <c r="F25" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="G25" t="s">
         <v>90</v>
       </c>
       <c r="H25" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="I25" t="s">
         <v>90</v>
       </c>
       <c r="J25" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
   </sheetData>
@@ -6415,7 +6462,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6458,31 +6505,31 @@
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="C2" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="D2" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="E2" t="s">
         <v>90</v>
       </c>
       <c r="F2" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="G2" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="H2" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="I2" t="s">
         <v>90</v>
       </c>
       <c r="J2" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -6490,68 +6537,68 @@
         <v>113</v>
       </c>
       <c r="B3" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="C3" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="D3" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="E3" t="s">
         <v>90</v>
       </c>
       <c r="F3" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="G3" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="H3" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="I3" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="J3" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B4" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C4" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="D4" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="E4" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="F4" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="G4" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="H4" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="I4" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="J4" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B5" t="s">
         <v>95</v>
@@ -6583,130 +6630,163 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B6" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="C6" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="D6" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="E6" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="F6" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="G6" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="H6" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="I6" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="J6" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B7" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="C7" t="s">
         <v>88</v>
       </c>
       <c r="D7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="E7" t="s">
         <v>90</v>
       </c>
       <c r="F7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="G7" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="H7" t="s">
         <v>92</v>
       </c>
       <c r="I7" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="J7" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="B8" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="C8" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="D8" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="E8" t="s">
         <v>90</v>
       </c>
       <c r="F8" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="G8" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="H8" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="I8" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="J8" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="B9" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="C9" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="D9" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="E9" t="s">
         <v>90</v>
       </c>
       <c r="F9" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="G9" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="H9" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="I9" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="J9" t="s">
-        <v>662</v>
+        <v>665</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>666</v>
+      </c>
+      <c r="B10" t="s">
+        <v>667</v>
+      </c>
+      <c r="C10" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>669</v>
+      </c>
+      <c r="B11" t="s">
+        <v>670</v>
+      </c>
+      <c r="C11" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>672</v>
+      </c>
+      <c r="B12" t="s">
+        <v>673</v>
+      </c>
+      <c r="C12" t="s">
+        <v>674</v>
       </c>
     </row>
   </sheetData>
@@ -6716,7 +6796,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6759,31 +6839,31 @@
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>663</v>
+        <v>675</v>
       </c>
       <c r="D2" t="s">
-        <v>664</v>
+        <v>676</v>
       </c>
       <c r="E2" t="s">
         <v>90</v>
       </c>
       <c r="F2" t="s">
-        <v>665</v>
+        <v>677</v>
       </c>
       <c r="G2" t="s">
-        <v>666</v>
+        <v>678</v>
       </c>
       <c r="H2" t="s">
-        <v>667</v>
+        <v>679</v>
       </c>
       <c r="I2" t="s">
-        <v>668</v>
+        <v>680</v>
       </c>
       <c r="J2" t="s">
-        <v>669</v>
+        <v>681</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -6791,223 +6871,234 @@
         <v>113</v>
       </c>
       <c r="B3" t="s">
-        <v>670</v>
+        <v>682</v>
       </c>
       <c r="C3" t="s">
-        <v>671</v>
+        <v>683</v>
       </c>
       <c r="D3" t="s">
-        <v>672</v>
+        <v>684</v>
       </c>
       <c r="E3" t="s">
         <v>90</v>
       </c>
       <c r="F3" t="s">
-        <v>673</v>
+        <v>685</v>
       </c>
       <c r="G3" t="s">
-        <v>674</v>
+        <v>686</v>
       </c>
       <c r="H3" t="s">
-        <v>675</v>
+        <v>687</v>
       </c>
       <c r="I3" t="s">
-        <v>676</v>
+        <v>688</v>
       </c>
       <c r="J3" t="s">
-        <v>677</v>
+        <v>689</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>678</v>
+        <v>690</v>
       </c>
       <c r="B4" t="s">
-        <v>679</v>
+        <v>691</v>
       </c>
       <c r="C4" t="s">
-        <v>680</v>
+        <v>692</v>
       </c>
       <c r="D4" t="s">
-        <v>681</v>
+        <v>693</v>
       </c>
       <c r="E4" t="s">
         <v>90</v>
       </c>
       <c r="F4" t="s">
-        <v>682</v>
+        <v>694</v>
       </c>
       <c r="G4" t="s">
-        <v>683</v>
+        <v>695</v>
       </c>
       <c r="H4" t="s">
-        <v>684</v>
+        <v>696</v>
       </c>
       <c r="I4" t="s">
-        <v>685</v>
+        <v>697</v>
       </c>
       <c r="J4" t="s">
-        <v>686</v>
+        <v>698</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>687</v>
+        <v>699</v>
       </c>
       <c r="B5" t="s">
-        <v>688</v>
+        <v>700</v>
       </c>
       <c r="C5" t="s">
-        <v>689</v>
+        <v>701</v>
       </c>
       <c r="D5" t="s">
-        <v>690</v>
+        <v>702</v>
       </c>
       <c r="E5" t="s">
         <v>90</v>
       </c>
       <c r="F5" t="s">
-        <v>691</v>
+        <v>703</v>
       </c>
       <c r="G5" t="s">
-        <v>692</v>
+        <v>704</v>
       </c>
       <c r="H5" t="s">
-        <v>693</v>
+        <v>705</v>
       </c>
       <c r="I5" t="s">
-        <v>694</v>
+        <v>706</v>
       </c>
       <c r="J5" t="s">
-        <v>695</v>
+        <v>707</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>696</v>
+        <v>708</v>
       </c>
       <c r="B6" t="s">
-        <v>697</v>
+        <v>709</v>
       </c>
       <c r="C6" t="s">
-        <v>698</v>
+        <v>710</v>
       </c>
       <c r="D6" t="s">
-        <v>699</v>
+        <v>711</v>
       </c>
       <c r="E6" t="s">
         <v>90</v>
       </c>
       <c r="F6" t="s">
-        <v>700</v>
+        <v>712</v>
       </c>
       <c r="G6" t="s">
-        <v>701</v>
+        <v>713</v>
       </c>
       <c r="H6" t="s">
-        <v>702</v>
+        <v>714</v>
       </c>
       <c r="I6" t="s">
-        <v>703</v>
+        <v>715</v>
       </c>
       <c r="J6" t="s">
-        <v>704</v>
+        <v>716</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>705</v>
+        <v>717</v>
       </c>
       <c r="B7" t="s">
-        <v>706</v>
+        <v>718</v>
       </c>
       <c r="C7" t="s">
-        <v>707</v>
+        <v>719</v>
       </c>
       <c r="D7" t="s">
-        <v>708</v>
+        <v>720</v>
       </c>
       <c r="E7" t="s">
         <v>90</v>
       </c>
       <c r="F7" t="s">
-        <v>706</v>
+        <v>718</v>
       </c>
       <c r="G7" t="s">
-        <v>709</v>
+        <v>721</v>
       </c>
       <c r="H7" t="s">
-        <v>710</v>
+        <v>722</v>
       </c>
       <c r="I7" t="s">
-        <v>711</v>
+        <v>723</v>
       </c>
       <c r="J7" t="s">
-        <v>712</v>
+        <v>724</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>713</v>
+        <v>725</v>
       </c>
       <c r="B8" t="s">
-        <v>714</v>
+        <v>726</v>
       </c>
       <c r="C8" t="s">
-        <v>715</v>
+        <v>727</v>
       </c>
       <c r="D8" t="s">
-        <v>716</v>
+        <v>728</v>
       </c>
       <c r="E8" t="s">
         <v>90</v>
       </c>
       <c r="F8" t="s">
-        <v>717</v>
+        <v>729</v>
       </c>
       <c r="G8" t="s">
         <v>90</v>
       </c>
       <c r="H8" t="s">
-        <v>718</v>
+        <v>730</v>
       </c>
       <c r="I8" t="s">
-        <v>719</v>
+        <v>731</v>
       </c>
       <c r="J8" t="s">
-        <v>720</v>
+        <v>732</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>721</v>
+        <v>733</v>
       </c>
       <c r="B9" t="s">
-        <v>722</v>
+        <v>734</v>
       </c>
       <c r="C9" t="s">
-        <v>723</v>
+        <v>735</v>
       </c>
       <c r="D9" t="s">
-        <v>724</v>
+        <v>736</v>
       </c>
       <c r="E9" t="s">
         <v>90</v>
       </c>
       <c r="F9" t="s">
-        <v>725</v>
+        <v>737</v>
       </c>
       <c r="G9" t="s">
         <v>90</v>
       </c>
       <c r="H9" t="s">
-        <v>726</v>
+        <v>738</v>
       </c>
       <c r="I9" t="s">
-        <v>727</v>
+        <v>739</v>
       </c>
       <c r="J9" t="s">
-        <v>728</v>
+        <v>740</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>741</v>
+      </c>
+      <c r="B10" t="s">
+        <v>742</v>
+      </c>
+      <c r="C10" t="s">
+        <v>743</v>
       </c>
     </row>
   </sheetData>
@@ -7060,31 +7151,31 @@
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>729</v>
+        <v>744</v>
       </c>
       <c r="C2" t="s">
-        <v>730</v>
+        <v>745</v>
       </c>
       <c r="D2" t="s">
-        <v>731</v>
+        <v>746</v>
       </c>
       <c r="E2" t="s">
         <v>90</v>
       </c>
       <c r="F2" t="s">
-        <v>732</v>
+        <v>747</v>
       </c>
       <c r="G2" t="s">
-        <v>733</v>
+        <v>748</v>
       </c>
       <c r="H2" t="s">
-        <v>734</v>
+        <v>749</v>
       </c>
       <c r="I2" t="s">
-        <v>735</v>
+        <v>750</v>
       </c>
       <c r="J2" t="s">
-        <v>736</v>
+        <v>751</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -7092,159 +7183,159 @@
         <v>113</v>
       </c>
       <c r="B3" t="s">
-        <v>737</v>
+        <v>752</v>
       </c>
       <c r="C3" t="s">
-        <v>738</v>
+        <v>753</v>
       </c>
       <c r="D3" t="s">
-        <v>739</v>
+        <v>754</v>
       </c>
       <c r="E3" t="s">
         <v>90</v>
       </c>
       <c r="F3" t="s">
-        <v>740</v>
+        <v>755</v>
       </c>
       <c r="G3" t="s">
-        <v>741</v>
+        <v>756</v>
       </c>
       <c r="H3" t="s">
-        <v>742</v>
+        <v>757</v>
       </c>
       <c r="I3" t="s">
-        <v>743</v>
+        <v>758</v>
       </c>
       <c r="J3" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>745</v>
+        <v>760</v>
       </c>
       <c r="B4" t="s">
-        <v>746</v>
+        <v>761</v>
       </c>
       <c r="C4" t="s">
-        <v>747</v>
+        <v>762</v>
       </c>
       <c r="D4" t="s">
-        <v>748</v>
+        <v>763</v>
       </c>
       <c r="E4" t="s">
         <v>90</v>
       </c>
       <c r="F4" t="s">
-        <v>749</v>
+        <v>764</v>
       </c>
       <c r="G4" t="s">
-        <v>750</v>
+        <v>765</v>
       </c>
       <c r="H4" t="s">
-        <v>751</v>
+        <v>766</v>
       </c>
       <c r="I4" t="s">
-        <v>746</v>
+        <v>761</v>
       </c>
       <c r="J4" t="s">
-        <v>752</v>
+        <v>767</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>753</v>
+        <v>768</v>
       </c>
       <c r="B5" t="s">
-        <v>754</v>
+        <v>769</v>
       </c>
       <c r="C5" t="s">
-        <v>755</v>
+        <v>770</v>
       </c>
       <c r="D5" t="s">
-        <v>756</v>
+        <v>771</v>
       </c>
       <c r="E5" t="s">
         <v>90</v>
       </c>
       <c r="F5" t="s">
-        <v>757</v>
+        <v>772</v>
       </c>
       <c r="G5" t="s">
-        <v>758</v>
+        <v>773</v>
       </c>
       <c r="H5" t="s">
-        <v>759</v>
+        <v>774</v>
       </c>
       <c r="I5" t="s">
-        <v>754</v>
+        <v>769</v>
       </c>
       <c r="J5" t="s">
-        <v>760</v>
+        <v>775</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>761</v>
+        <v>776</v>
       </c>
       <c r="B6" t="s">
-        <v>762</v>
+        <v>777</v>
       </c>
       <c r="C6" t="s">
-        <v>763</v>
+        <v>778</v>
       </c>
       <c r="D6" t="s">
-        <v>764</v>
+        <v>779</v>
       </c>
       <c r="E6" t="s">
         <v>90</v>
       </c>
       <c r="F6" t="s">
-        <v>765</v>
+        <v>780</v>
       </c>
       <c r="G6" t="s">
-        <v>766</v>
+        <v>781</v>
       </c>
       <c r="H6" t="s">
-        <v>767</v>
+        <v>782</v>
       </c>
       <c r="I6" t="s">
-        <v>768</v>
+        <v>783</v>
       </c>
       <c r="J6" t="s">
-        <v>769</v>
+        <v>784</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>770</v>
+        <v>785</v>
       </c>
       <c r="B7" t="s">
-        <v>771</v>
+        <v>786</v>
       </c>
       <c r="C7" t="s">
-        <v>772</v>
+        <v>787</v>
       </c>
       <c r="D7" t="s">
-        <v>773</v>
+        <v>788</v>
       </c>
       <c r="E7" t="s">
         <v>90</v>
       </c>
       <c r="F7" t="s">
-        <v>774</v>
+        <v>789</v>
       </c>
       <c r="G7" t="s">
-        <v>775</v>
+        <v>790</v>
       </c>
       <c r="H7" t="s">
-        <v>776</v>
+        <v>791</v>
       </c>
       <c r="I7" t="s">
-        <v>777</v>
+        <v>792</v>
       </c>
       <c r="J7" t="s">
-        <v>778</v>
+        <v>793</v>
       </c>
     </row>
   </sheetData>

--- a/AdofaiTweaks.Generator/translations.xlsx
+++ b/AdofaiTweaks.Generator/translations.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="900">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="904">
   <si>
     <t>Translation Status</t>
   </si>
@@ -137,7 +137,7 @@
     <t>66.7% (3 left)</t>
   </si>
   <si>
-    <t>88.9% (9 left)</t>
+    <t>100% (9 left)</t>
   </si>
   <si>
     <t>PlanetColor</t>
@@ -2035,6 +2035,10 @@
 &lt;b&gt;참고: &lt;/b&gt;비동기 입력 시스템과 동기 입력 시스템의 등록된 키들은 각각 설정이 다릅니다.</t>
   </si>
   <si>
+    <t>Выбранная система ввода: {0}
+&lt;b&gt;Примечание: &lt;/b&gt;</t>
+  </si>
+  <si>
     <t>ASYNCHRONOUS_INPUT_SYSTEM</t>
   </si>
   <si>
@@ -2044,6 +2048,9 @@
     <t>비동기 입력 시스템</t>
   </si>
   <si>
+    <t>Асинхронная система ввода</t>
+  </si>
+  <si>
     <t>SYNCHRONOUS_INPUT_SYSTEM</t>
   </si>
   <si>
@@ -2053,6 +2060,9 @@
     <t>동기 입력 시스템</t>
   </si>
   <si>
+    <t>Синхронная система ввода</t>
+  </si>
+  <si>
     <t>기타 기능들</t>
   </si>
   <si>
@@ -2257,7 +2267,10 @@
     <t>Fix Asynchronous Input not being enabled automatically</t>
   </si>
   <si>
-    <t>비동기 입력이 자동으로 입력되지 않는 버그 해결하기</t>
+    <t>비동기 입력이 자동으로 활성화되지 않는 버그 해결하기</t>
+  </si>
+  <si>
+    <t>Исправляет, что асинхронный ввод не включался автоматически</t>
   </si>
   <si>
     <t>Planet Color</t>
@@ -3438,31 +3451,31 @@
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="C2" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="D2" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="E2" t="s">
         <v>90</v>
       </c>
       <c r="F2" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="G2" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="H2" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="I2" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="J2" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3470,191 +3483,191 @@
         <v>113</v>
       </c>
       <c r="B3" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="C3" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="D3" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="E3" t="s">
         <v>90</v>
       </c>
       <c r="F3" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="G3" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="H3" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="I3" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="J3" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="B4" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="C4" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="D4" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="E4" t="s">
         <v>90</v>
       </c>
       <c r="F4" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="G4" t="s">
+        <v>769</v>
+      </c>
+      <c r="H4" t="s">
+        <v>770</v>
+      </c>
+      <c r="I4" t="s">
         <v>765</v>
       </c>
-      <c r="H4" t="s">
-        <v>766</v>
-      </c>
-      <c r="I4" t="s">
-        <v>761</v>
-      </c>
       <c r="J4" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="B5" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="C5" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="D5" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="E5" t="s">
         <v>90</v>
       </c>
       <c r="F5" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="G5" t="s">
+        <v>777</v>
+      </c>
+      <c r="H5" t="s">
+        <v>778</v>
+      </c>
+      <c r="I5" t="s">
         <v>773</v>
       </c>
-      <c r="H5" t="s">
-        <v>774</v>
-      </c>
-      <c r="I5" t="s">
-        <v>769</v>
-      </c>
       <c r="J5" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="B6" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="C6" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="D6" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="E6" t="s">
         <v>90</v>
       </c>
       <c r="F6" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="G6" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="H6" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="I6" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="J6" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="B7" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="C7" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="D7" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="E7" t="s">
         <v>90</v>
       </c>
       <c r="F7" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="G7" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="H7" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="I7" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="J7" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="B8" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="C8" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="D8" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="E8" t="s">
         <v>90</v>
       </c>
       <c r="F8" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="G8" t="s">
         <v>90</v>
       </c>
       <c r="H8" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="I8" t="s">
         <v>90</v>
       </c>
       <c r="J8" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
     </row>
   </sheetData>
@@ -3707,31 +3720,31 @@
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="C2" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="D2" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="E2" t="s">
         <v>90</v>
       </c>
       <c r="F2" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="G2" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="H2" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="I2" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="J2" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3739,287 +3752,287 @@
         <v>113</v>
       </c>
       <c r="B3" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="C3" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="D3" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="E3" t="s">
         <v>90</v>
       </c>
       <c r="F3" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="G3" t="s">
         <v>90</v>
       </c>
       <c r="H3" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="I3" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="J3" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="B4" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="C4" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="D4" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="E4" t="s">
         <v>90</v>
       </c>
       <c r="F4" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="G4" t="s">
         <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="I4" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="J4" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="B5" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="C5" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="D5" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="E5" t="s">
         <v>90</v>
       </c>
       <c r="F5" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="G5" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="H5" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="I5" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="J5" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="B6" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="C6" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="D6" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="E6" t="s">
         <v>90</v>
       </c>
       <c r="F6" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="G6" t="s">
         <v>90</v>
       </c>
       <c r="H6" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="I6" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="J6" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="B7" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="C7" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="D7" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="E7" t="s">
         <v>90</v>
       </c>
       <c r="F7" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
       <c r="G7" t="s">
         <v>90</v>
       </c>
       <c r="H7" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="I7" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="J7" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>867</v>
+        <v>871</v>
       </c>
       <c r="B8" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="C8" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="D8" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="E8" t="s">
         <v>90</v>
       </c>
       <c r="F8" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="G8" t="s">
         <v>90</v>
       </c>
       <c r="H8" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
       <c r="I8" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="J8" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="B9" t="s">
-        <v>876</v>
+        <v>880</v>
       </c>
       <c r="C9" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="D9" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="E9" t="s">
         <v>90</v>
       </c>
       <c r="F9" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="G9" t="s">
         <v>90</v>
       </c>
       <c r="H9" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="I9" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="J9" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>883</v>
+        <v>887</v>
       </c>
       <c r="B10" t="s">
-        <v>884</v>
+        <v>888</v>
       </c>
       <c r="C10" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="D10" t="s">
-        <v>886</v>
+        <v>890</v>
       </c>
       <c r="E10" t="s">
-        <v>887</v>
+        <v>891</v>
       </c>
       <c r="F10" t="s">
-        <v>888</v>
+        <v>892</v>
       </c>
       <c r="G10" t="s">
         <v>90</v>
       </c>
       <c r="H10" t="s">
-        <v>889</v>
+        <v>893</v>
       </c>
       <c r="I10" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
       <c r="J10" t="s">
-        <v>891</v>
+        <v>895</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="B11" t="s">
-        <v>893</v>
+        <v>897</v>
       </c>
       <c r="C11" t="s">
-        <v>894</v>
+        <v>898</v>
       </c>
       <c r="D11" t="s">
-        <v>895</v>
+        <v>899</v>
       </c>
       <c r="E11" t="s">
         <v>90</v>
       </c>
       <c r="F11" t="s">
-        <v>896</v>
+        <v>900</v>
       </c>
       <c r="G11" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
       <c r="H11" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="I11" t="s">
         <v>90</v>
       </c>
       <c r="J11" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
     </row>
   </sheetData>
@@ -6766,27 +6779,90 @@
       <c r="C10" t="s">
         <v>668</v>
       </c>
+      <c r="D10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H10" t="s">
+        <v>90</v>
+      </c>
+      <c r="I10" t="s">
+        <v>90</v>
+      </c>
+      <c r="J10" t="s">
+        <v>669</v>
+      </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B11" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C11" t="s">
-        <v>671</v>
+        <v>672</v>
+      </c>
+      <c r="D11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" t="s">
+        <v>90</v>
+      </c>
+      <c r="J11" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="B12" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="C12" t="s">
-        <v>674</v>
+        <v>676</v>
+      </c>
+      <c r="D12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12" t="s">
+        <v>90</v>
+      </c>
+      <c r="H12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I12" t="s">
+        <v>90</v>
+      </c>
+      <c r="J12" t="s">
+        <v>677</v>
       </c>
     </row>
   </sheetData>
@@ -6842,28 +6918,28 @@
         <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="D2" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="E2" t="s">
         <v>90</v>
       </c>
       <c r="F2" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="G2" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="H2" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="I2" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="J2" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -6871,234 +6947,255 @@
         <v>113</v>
       </c>
       <c r="B3" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="C3" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="D3" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="E3" t="s">
         <v>90</v>
       </c>
       <c r="F3" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="G3" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="H3" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="I3" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="J3" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="B4" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="C4" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="D4" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="E4" t="s">
         <v>90</v>
       </c>
       <c r="F4" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="G4" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="H4" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="I4" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="J4" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="B5" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="C5" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="D5" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="E5" t="s">
         <v>90</v>
       </c>
       <c r="F5" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="G5" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="H5" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="I5" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="J5" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="B6" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="C6" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="D6" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="E6" t="s">
         <v>90</v>
       </c>
       <c r="F6" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="G6" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="H6" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="I6" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="J6" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="B7" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="C7" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="D7" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="E7" t="s">
         <v>90</v>
       </c>
       <c r="F7" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="G7" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="H7" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="I7" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="J7" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="B8" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="C8" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="D8" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="E8" t="s">
         <v>90</v>
       </c>
       <c r="F8" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="G8" t="s">
         <v>90</v>
       </c>
       <c r="H8" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="I8" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="J8" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="B9" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="C9" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="D9" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="E9" t="s">
         <v>90</v>
       </c>
       <c r="F9" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="G9" t="s">
         <v>90</v>
       </c>
       <c r="H9" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="I9" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="J9" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="B10" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="C10" t="s">
-        <v>743</v>
+        <v>746</v>
+      </c>
+      <c r="D10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H10" t="s">
+        <v>90</v>
+      </c>
+      <c r="I10" t="s">
+        <v>90</v>
+      </c>
+      <c r="J10" t="s">
+        <v>747</v>
       </c>
     </row>
   </sheetData>
@@ -7151,31 +7248,31 @@
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="C2" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="D2" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="E2" t="s">
         <v>90</v>
       </c>
       <c r="F2" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="G2" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="H2" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="I2" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="J2" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -7183,159 +7280,159 @@
         <v>113</v>
       </c>
       <c r="B3" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="C3" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="D3" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="E3" t="s">
         <v>90</v>
       </c>
       <c r="F3" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="G3" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="H3" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="I3" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="J3" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="B4" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="C4" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="D4" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="E4" t="s">
         <v>90</v>
       </c>
       <c r="F4" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="G4" t="s">
+        <v>769</v>
+      </c>
+      <c r="H4" t="s">
+        <v>770</v>
+      </c>
+      <c r="I4" t="s">
         <v>765</v>
       </c>
-      <c r="H4" t="s">
-        <v>766</v>
-      </c>
-      <c r="I4" t="s">
-        <v>761</v>
-      </c>
       <c r="J4" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="B5" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="C5" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="D5" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="E5" t="s">
         <v>90</v>
       </c>
       <c r="F5" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="G5" t="s">
+        <v>777</v>
+      </c>
+      <c r="H5" t="s">
+        <v>778</v>
+      </c>
+      <c r="I5" t="s">
         <v>773</v>
       </c>
-      <c r="H5" t="s">
-        <v>774</v>
-      </c>
-      <c r="I5" t="s">
-        <v>769</v>
-      </c>
       <c r="J5" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="B6" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="C6" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="D6" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="E6" t="s">
         <v>90</v>
       </c>
       <c r="F6" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="G6" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="H6" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="I6" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="J6" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="B7" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="C7" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="D7" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="E7" t="s">
         <v>90</v>
       </c>
       <c r="F7" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="G7" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="H7" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="I7" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="J7" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
     </row>
   </sheetData>

--- a/AdofaiTweaks.Generator/translations.xlsx
+++ b/AdofaiTweaks.Generator/translations.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="904">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1453" uniqueCount="1005">
   <si>
     <t>Translation Status</t>
   </si>
@@ -59,6 +59,9 @@
     <t>Russian</t>
   </si>
   <si>
+    <t>Japanese</t>
+  </si>
+  <si>
     <t>Global</t>
   </si>
   <si>
@@ -74,18 +77,12 @@
     <t>81.8% (2 left)</t>
   </si>
   <si>
-    <t>100% (11 left)</t>
-  </si>
-  <si>
     <t>HideUiElements</t>
   </si>
   <si>
     <t>43.8% (9 left)</t>
   </si>
   <si>
-    <t>100% (16 left)</t>
-  </si>
-  <si>
     <t>JudgmentVisuals</t>
   </si>
   <si>
@@ -95,9 +92,6 @@
     <t>75% (3 left)</t>
   </si>
   <si>
-    <t>100% (12 left)</t>
-  </si>
-  <si>
     <t>KeyViewer</t>
   </si>
   <si>
@@ -110,9 +104,6 @@
     <t>70.8% (7 left)</t>
   </si>
   <si>
-    <t>100% (24 left)</t>
-  </si>
-  <si>
     <t>PlanetOpacity</t>
   </si>
   <si>
@@ -122,33 +113,24 @@
     <t>85.7% (1 left)</t>
   </si>
   <si>
-    <t>100% (7 left)</t>
-  </si>
-  <si>
     <t>Miscellaneous</t>
   </si>
   <si>
+    <t>0% (9 left)</t>
+  </si>
+  <si>
+    <t>66.7% (3 left)</t>
+  </si>
+  <si>
     <t>88.9% (1 left)</t>
   </si>
   <si>
-    <t>0% (9 left)</t>
-  </si>
-  <si>
-    <t>66.7% (3 left)</t>
-  </si>
-  <si>
-    <t>100% (9 left)</t>
-  </si>
-  <si>
     <t>PlanetColor</t>
   </si>
   <si>
     <t>0% (6 left)</t>
   </si>
   <si>
-    <t>100% (6 left)</t>
-  </si>
-  <si>
     <t>RestrictJudgments</t>
   </si>
   <si>
@@ -161,9 +143,6 @@
     <t>90% (1 left)</t>
   </si>
   <si>
-    <t>100% (10 left)</t>
-  </si>
-  <si>
     <t>KEY</t>
   </si>
   <si>
@@ -194,6 +173,9 @@
     <t>RUSSIAN</t>
   </si>
   <si>
+    <t>JAPANESE</t>
+  </si>
+  <si>
     <t>TEST_KEY</t>
   </si>
   <si>
@@ -224,6 +206,9 @@
     <t>Это тестовая строка.</t>
   </si>
   <si>
+    <t>これはテスト文字列です。</t>
+  </si>
+  <si>
     <t>I_TEST_KEY</t>
   </si>
   <si>
@@ -257,6 +242,9 @@
     <t>Язык:</t>
   </si>
   <si>
+    <t>言語：</t>
+  </si>
+  <si>
     <t>LANGUAGE_NAME</t>
   </si>
   <si>
@@ -284,6 +272,9 @@
     <t>Русский</t>
   </si>
   <si>
+    <t>日本語</t>
+  </si>
+  <si>
     <t>SHORTCUT_CHANGE_KEY</t>
   </si>
   <si>
@@ -308,6 +299,9 @@
     <t>Сменить клавишу</t>
   </si>
   <si>
+    <t>キーの変更</t>
+  </si>
+  <si>
     <t>SHORTCUT_DONE</t>
   </si>
   <si>
@@ -335,6 +329,9 @@
     <t>Готово</t>
   </si>
   <si>
+    <t>完了</t>
+  </si>
+  <si>
     <t>NAME</t>
   </si>
   <si>
@@ -365,6 +362,9 @@
     <t>Отключить Эффекты</t>
   </si>
   <si>
+    <t>エフェクトを無効化</t>
+  </si>
+  <si>
     <t>DESCRIPTION</t>
   </si>
   <si>
@@ -395,6 +395,9 @@
     <t>Отключает определённые эффекты для повышения производельности.</t>
   </si>
   <si>
+    <t>特定エフェクトを無効化し、ゲームの動きをより滑らかにします。</t>
+  </si>
+  <si>
     <t>FILTER</t>
   </si>
   <si>
@@ -425,6 +428,9 @@
     <t>Отключает визуальные фильтры ({0}, {1}, и т. д.)</t>
   </si>
   <si>
+    <t>VFXフィルター（{0}、{1}など）を無効化</t>
+  </si>
+  <si>
     <t>BLOOM</t>
   </si>
   <si>
@@ -455,6 +461,9 @@
     <t>Отключить свечение</t>
   </si>
   <si>
+    <t>ブルームを無効化</t>
+  </si>
+  <si>
     <t>FLASH</t>
   </si>
   <si>
@@ -485,6 +494,9 @@
     <t>Отключить вспышки экрана</t>
   </si>
   <si>
+    <t>画面のフラッシュを無効化</t>
+  </si>
+  <si>
     <t>HALL_OF_MIRRORS</t>
   </si>
   <si>
@@ -515,6 +527,9 @@
     <t>Отключить "{0}"</t>
   </si>
   <si>
+    <t>「{0}」エフェクトを無効化</t>
+  </si>
+  <si>
     <t>SCREEN_SHAKE</t>
   </si>
   <si>
@@ -545,6 +560,9 @@
     <t>Отключить тряску экрана</t>
   </si>
   <si>
+    <t>画面振動を無効化</t>
+  </si>
+  <si>
     <t>TILE_MOVEMENT_MAX</t>
   </si>
   <si>
@@ -575,6 +593,9 @@
     <t>Максимальное число движущихся плиток одновременно:</t>
   </si>
   <si>
+    <t>一度に動かせるタイルの数：</t>
+  </si>
+  <si>
     <t>TILE_MOVEMENT_UNLIMITED</t>
   </si>
   <si>
@@ -605,6 +626,9 @@
     <t>Неограниченно</t>
   </si>
   <si>
+    <t>無限</t>
+  </si>
+  <si>
     <t>EXCLUDE_FILTER_LIST</t>
   </si>
   <si>
@@ -629,6 +653,9 @@
     <t>Исключённые Фильтры</t>
   </si>
   <si>
+    <t>無効化除外フィルター（{0}）</t>
+  </si>
+  <si>
     <t>EXCLUDE_FILTER_START_LIST</t>
   </si>
   <si>
@@ -653,6 +680,9 @@
     <t>Фильтры для исключения:</t>
   </si>
   <si>
+    <t>除外するフィルター：</t>
+  </si>
+  <si>
     <t>Hide UI Elements</t>
   </si>
   <si>
@@ -680,6 +710,9 @@
     <t>Скрыть части интерфейса</t>
   </si>
   <si>
+    <t>UI項目を隠す</t>
+  </si>
+  <si>
     <t>Hides certain UI elements from gameplay.</t>
   </si>
   <si>
@@ -707,6 +740,9 @@
     <t>Скрывает части интерфейса в игре.</t>
   </si>
   <si>
+    <t>特定UIの項目を隠します。</t>
+  </si>
+  <si>
     <t>EVERYTHING</t>
   </si>
   <si>
@@ -737,6 +773,9 @@
     <t>Скрыть ВСЕ части интерфейса (Примечание: это также может быть определенный текст в меню)</t>
   </si>
   <si>
+    <t>全てのUI項目を隠す（メニューの特定テキストが隠される可能性あり）</t>
+  </si>
+  <si>
     <t>JUDGE_TEXT</t>
   </si>
   <si>
@@ -767,6 +806,9 @@
     <t>Скрыть текст оценки ({0}, {1}, и т.д.)</t>
   </si>
   <si>
+    <t>判定文字を隠す（{0}、{1}など）</t>
+  </si>
+  <si>
     <t>MISSES</t>
   </si>
   <si>
@@ -797,6 +839,9 @@
     <t>Скрыть индикатор промаха (круглая иконка X)</t>
   </si>
   <si>
+    <t>ミス表示アイコンを隠す（白丸のXアイコン）</t>
+  </si>
+  <si>
     <t>SONG_TITLE</t>
   </si>
   <si>
@@ -827,6 +872,9 @@
     <t>Скрыть имя исполнителя и название трека</t>
   </si>
   <si>
+    <t>アーティストと曲名を隠す</t>
+  </si>
+  <si>
     <t>AUTO</t>
   </si>
   <si>
@@ -848,6 +896,9 @@
     <t>Скрыть Отто и надпись "Автоигра"</t>
   </si>
   <si>
+    <t>Ottoと自動再生のテキストを隠す</t>
+  </si>
+  <si>
     <t>BETA_BUILD</t>
   </si>
   <si>
@@ -878,6 +929,9 @@
     <t>Скрыть надпись "Beta Build"/"Alpha Build"</t>
   </si>
   <si>
+    <t>「Beta Build」テキストを隠す</t>
+  </si>
+  <si>
     <t>RESULT_TEXT</t>
   </si>
   <si>
@@ -899,6 +953,9 @@
     <t>Скрыть текст "Поздравляю!" и подробные результаты</t>
   </si>
   <si>
+    <t>「おめでとう！」及び詳細結果を隠す</t>
+  </si>
+  <si>
     <t>HIT_ERROR_METER</t>
   </si>
   <si>
@@ -920,6 +977,9 @@
     <t>Скрыть шкалу точности</t>
   </si>
   <si>
+    <t>タイミングメーターを隠す</t>
+  </si>
+  <si>
     <t>LAST_FLOOR_FLASH</t>
   </si>
   <si>
@@ -941,6 +1001,9 @@
     <t>Скрыть белую вспышку на последней плитке</t>
   </si>
   <si>
+    <t>最後のタイルを踏んだ時のフラッシュを隠す</t>
+  </si>
+  <si>
     <t>RECORDING_MODE</t>
   </si>
   <si>
@@ -962,6 +1025,9 @@
     <t>Режим записи</t>
   </si>
   <si>
+    <t>録画モード</t>
+  </si>
+  <si>
     <t>USE_RECORDING_MODE_SHORTCUT</t>
   </si>
   <si>
@@ -983,6 +1049,9 @@
     <t>Использовать сочетание клавиш для включения режима записи</t>
   </si>
   <si>
+    <t>録画モード切り替え用のショートカットを使う</t>
+  </si>
+  <si>
     <t>RECORDING_MODE_SHORTCUT</t>
   </si>
   <si>
@@ -1004,6 +1073,9 @@
     <t>Сочетание клавиш для включения режима записи:</t>
   </si>
   <si>
+    <t>録画モード切り替え用ショートカット</t>
+  </si>
+  <si>
     <t>TIMING_TARGET</t>
   </si>
   <si>
@@ -1025,6 +1097,9 @@
     <t>Скрыть иконку сложности</t>
   </si>
   <si>
+    <t>判定選択アイコンを隠す</t>
+  </si>
+  <si>
     <t>NO_FAIL_ICON</t>
   </si>
   <si>
@@ -1046,6 +1121,9 @@
     <t>Скрыть иконку режима бессмертия</t>
   </si>
   <si>
+    <t>No Failアイコンを隠す</t>
+  </si>
+  <si>
     <t>Judgment Visuals</t>
   </si>
   <si>
@@ -1070,6 +1148,9 @@
     <t>Элементы точности</t>
   </si>
   <si>
+    <t>判定表示</t>
+  </si>
+  <si>
     <t>Improves the visuals of judgments.</t>
   </si>
   <si>
@@ -1091,6 +1172,9 @@
     <t>Улучшает визуальный вид элементов точности.</t>
   </si>
   <si>
+    <t>判定表示を改善します。</t>
+  </si>
+  <si>
     <t>SHOW_HIT_ERROR_METER</t>
   </si>
   <si>
@@ -1115,6 +1199,9 @@
     <t>Показать шкалу точности</t>
   </si>
   <si>
+    <t>タイミングメーターを表示</t>
+  </si>
+  <si>
     <t>ERROR_METER_SCALE</t>
   </si>
   <si>
@@ -1145,6 +1232,9 @@
     <t>Масштаб:</t>
   </si>
   <si>
+    <t>大きさ：</t>
+  </si>
+  <si>
     <t>ERROR_METER_TICK_LIFE</t>
   </si>
   <si>
@@ -1172,6 +1262,9 @@
     <t>Время пропадания меток:</t>
   </si>
   <si>
+    <t>判定表記時間：</t>
+  </si>
+  <si>
     <t>ERROR_METER_TICK_SECONDS</t>
   </si>
   <si>
@@ -1232,6 +1325,9 @@
     <t>Чувствительность нижней стрелки:</t>
   </si>
   <si>
+    <t>矢印の敏感度：</t>
+  </si>
+  <si>
     <t>ERROR_METER_MORE_STABLE</t>
   </si>
   <si>
@@ -1262,6 +1358,9 @@
     <t>Более стабильная</t>
   </si>
   <si>
+    <t>鈍い</t>
+  </si>
+  <si>
     <t>ERROR_METER_LESS_STABLE</t>
   </si>
   <si>
@@ -1292,6 +1391,9 @@
     <t>Менее стабильная</t>
   </si>
   <si>
+    <t>敏感</t>
+  </si>
+  <si>
     <t>HIDE_PERFECTS</t>
   </si>
   <si>
@@ -1322,6 +1424,9 @@
     <t>Скрыть оценку "{0}"</t>
   </si>
   <si>
+    <t>「{0}」判定を隠す</t>
+  </si>
+  <si>
     <t>ERROR_METER_X_POS</t>
   </si>
   <si>
@@ -1346,6 +1451,9 @@
     <t>Позицие по X:</t>
   </si>
   <si>
+    <t>X座標：</t>
+  </si>
+  <si>
     <t>ERROR_METER_Y_POS</t>
   </si>
   <si>
@@ -1370,6 +1478,9 @@
     <t>Позицие по Y:</t>
   </si>
   <si>
+    <t>Y座標</t>
+  </si>
+  <si>
     <t>Key Viewer</t>
   </si>
   <si>
@@ -1394,6 +1505,9 @@
     <t>Показ клавиш</t>
   </si>
   <si>
+    <t>キービューア</t>
+  </si>
+  <si>
     <t>Shows a key viewer for registered keys.</t>
   </si>
   <si>
@@ -1418,6 +1532,9 @@
     <t>Показывает нажимаемые клавиши.</t>
   </si>
   <si>
+    <t>登録されたキーのキービューアを表示します。</t>
+  </si>
+  <si>
     <t>REGISTERED_KEYS</t>
   </si>
   <si>
@@ -1445,6 +1562,9 @@
     <t>Назначить клавиши:</t>
   </si>
   <si>
+    <t>登録されたキー：</t>
+  </si>
+  <si>
     <t>DONE</t>
   </si>
   <si>
@@ -1478,6 +1598,9 @@
     <t>Нажмите на клавишу что бы назначить/отвязать...</t>
   </si>
   <si>
+    <t>キーを押して登録・登録解除できます。</t>
+  </si>
+  <si>
     <t>CHANGE_KEYS</t>
   </si>
   <si>
@@ -1499,6 +1622,9 @@
     <t>Сменить клавиши</t>
   </si>
   <si>
+    <t>キーを変更</t>
+  </si>
+  <si>
     <t>VIEWER_ONLY_GAMEPLAY</t>
   </si>
   <si>
@@ -1526,6 +1652,9 @@
     <t>Показывать только во время игры</t>
   </si>
   <si>
+    <t>ゲームプレイ中のみ表示</t>
+  </si>
+  <si>
     <t>ANIMATE_KEYS</t>
   </si>
   <si>
@@ -1553,6 +1682,9 @@
     <t>Анимированные нажания</t>
   </si>
   <si>
+    <t>キーを押した時エフェクトを表示</t>
+  </si>
+  <si>
     <t>KEY_VIEWER_SIZE</t>
   </si>
   <si>
@@ -1583,6 +1715,9 @@
     <t>Позиция по Y:</t>
   </si>
   <si>
+    <t>Y座標：</t>
+  </si>
+  <si>
     <t>PRESSED_OUTLINE_COLOR</t>
   </si>
   <si>
@@ -1607,6 +1742,9 @@
     <t>Цвет контура нажатой клавиши:</t>
   </si>
   <si>
+    <t>押したキーの外枠の色：</t>
+  </si>
+  <si>
     <t>RELEASED_OUTLINE_COLOR</t>
   </si>
   <si>
@@ -1631,6 +1769,9 @@
     <t>Цвет контура отпущенной клавиши:</t>
   </si>
   <si>
+    <t>離したキーの外枠の色：</t>
+  </si>
+  <si>
     <t>PRESSED_BACKGROUND_COLOR</t>
   </si>
   <si>
@@ -1655,6 +1796,9 @@
     <t>Цвет фона нажатой клавиши:</t>
   </si>
   <si>
+    <t>押したキーの背景の色：</t>
+  </si>
+  <si>
     <t>RELEASED_BACKGROUND_COLOR</t>
   </si>
   <si>
@@ -1679,6 +1823,9 @@
     <t>Цвет фона отпущенной клавиши:</t>
   </si>
   <si>
+    <t>離したキーの背景の色：</t>
+  </si>
+  <si>
     <t>PRESSED_TEXT_COLOR</t>
   </si>
   <si>
@@ -1703,6 +1850,9 @@
     <t>Цвет текста нажатой клавиши:</t>
   </si>
   <si>
+    <t>押したキーのテキストの色：</t>
+  </si>
+  <si>
     <t>RELEASED_TEXT_COLOR</t>
   </si>
   <si>
@@ -1727,6 +1877,9 @@
     <t>Цвет текста отпущенной клавиши:</t>
   </si>
   <si>
+    <t>離したキーのテキストの色</t>
+  </si>
+  <si>
     <t>PROFILES</t>
   </si>
   <si>
@@ -1754,6 +1907,9 @@
     <t>Профили:</t>
   </si>
   <si>
+    <t>プロファイル：</t>
+  </si>
+  <si>
     <t>PROFILE_NAME</t>
   </si>
   <si>
@@ -1781,6 +1937,9 @@
     <t>Имя профиля:</t>
   </si>
   <si>
+    <t>プロファイル名：</t>
+  </si>
+  <si>
     <t>NEW</t>
   </si>
   <si>
@@ -1808,6 +1967,9 @@
     <t>Новый</t>
   </si>
   <si>
+    <t>新規</t>
+  </si>
+  <si>
     <t>DUPLICATE</t>
   </si>
   <si>
@@ -1835,6 +1997,9 @@
     <t>Продублировать</t>
   </si>
   <si>
+    <t>複製</t>
+  </si>
+  <si>
     <t>DELETE</t>
   </si>
   <si>
@@ -1862,6 +2027,9 @@
     <t>Удалить</t>
   </si>
   <si>
+    <t>削除</t>
+  </si>
+  <si>
     <t>SHOW_KEY_PRESS_TOTAL</t>
   </si>
   <si>
@@ -1889,6 +2057,9 @@
     <t>Показать общее число нажатий</t>
   </si>
   <si>
+    <t>キーを押した数の合計を表示</t>
+  </si>
+  <si>
     <t>CLEAR_KEY_COUNT</t>
   </si>
   <si>
@@ -1910,6 +2081,9 @@
     <t>Очистить общее число нажатий</t>
   </si>
   <si>
+    <t>キーを押した数をリセット</t>
+  </si>
+  <si>
     <t>Key Limiter</t>
   </si>
   <si>
@@ -1928,6 +2102,9 @@
     <t>Ограничитель клавиш</t>
   </si>
   <si>
+    <t>キーリミッター</t>
+  </si>
+  <si>
     <t>When active, restricts which keys count as input.</t>
   </si>
   <si>
@@ -1949,6 +2126,9 @@
     <t>Когда включено, ограничивает нажимаемые клавишы.</t>
   </si>
   <si>
+    <t>入力として扱うキーを制限します。</t>
+  </si>
+  <si>
     <t>Touches enregistrées:</t>
   </si>
   <si>
@@ -2000,6 +2180,9 @@
     <t>Ограничить клавиши в редакторе</t>
   </si>
   <si>
+    <t>CLS（カスタムレベル選択）でキーを制限する</t>
+  </si>
+  <si>
     <t>LIMIT_MAIN_MENU</t>
   </si>
   <si>
@@ -2022,6 +2205,9 @@
   </si>
   <si>
     <t>Ограничить клавиши в главном меню</t>
+  </si>
+  <si>
+    <t>メインメニューでキーを制限する</t>
   </si>
   <si>
     <t>SELECTED_INPUT_SYSTEM</t>
@@ -2035,10 +2221,18 @@
 &lt;b&gt;참고: &lt;/b&gt;비동기 입력 시스템과 동기 입력 시스템의 등록된 키들은 각각 설정이 다릅니다.</t>
   </si>
   <si>
+    <t>system d'input séléctioné acutellement : {0}              
+&lt;b&gt;NOTE: &lt;\b&gt; Les touches enregistrés pour le mode synchronous et le mode asynchronus input sont des paramètre séparer les un des autres</t>
+  </si>
+  <si>
     <t>Выбранная система ввода: {0}
 &lt;b&gt;Примечание: &lt;/b&gt;</t>
   </si>
   <si>
+    <t>現在選択された入力システム：{0}
+&lt;b&gt;備考：&lt;/b&gt;非同期入力システムと同期入力システムの登録されたキーはそれぞれ設定が違います。</t>
+  </si>
+  <si>
     <t>ASYNCHRONOUS_INPUT_SYSTEM</t>
   </si>
   <si>
@@ -2048,9 +2242,15 @@
     <t>비동기 입력 시스템</t>
   </si>
   <si>
+    <t>système Asynchronous Input</t>
+  </si>
+  <si>
     <t>Асинхронная система ввода</t>
   </si>
   <si>
+    <t>非同期入力システム</t>
+  </si>
+  <si>
     <t>SYNCHRONOUS_INPUT_SYSTEM</t>
   </si>
   <si>
@@ -2060,9 +2260,15 @@
     <t>동기 입력 시스템</t>
   </si>
   <si>
+    <t>système Synchronous Input</t>
+  </si>
+  <si>
     <t>Синхронная система ввода</t>
   </si>
   <si>
+    <t>同期入力システム</t>
+  </si>
+  <si>
     <t>기타 기능들</t>
   </si>
   <si>
@@ -2084,6 +2290,9 @@
     <t>Прочее</t>
   </si>
   <si>
+    <t>その他</t>
+  </si>
+  <si>
     <t>Tweaks that do not belong in any particular section.</t>
   </si>
   <si>
@@ -2108,6 +2317,9 @@
     <t>Настройки, которые не относятся к конкретному разделу.</t>
   </si>
   <si>
+    <t>どのセクションにも含まれない機能です。</t>
+  </si>
+  <si>
     <t>GLITCH_FLIP</t>
   </si>
   <si>
@@ -2135,6 +2347,9 @@
     <t xml:space="preserve">Отключает перевороты экрана для фильтра "{0}" </t>
   </si>
   <si>
+    <t>「{0}」での画面反転を無効化</t>
+  </si>
+  <si>
     <t>EDITOR_ZOOM</t>
   </si>
   <si>
@@ -2162,6 +2377,9 @@
     <t>Отключает приближение в редакторе во время игры</t>
   </si>
   <si>
+    <t>レベルプレイ中のマウススクロールによるエディターの拡大・縮小を無効化</t>
+  </si>
+  <si>
     <t>SET_HITSOUND_VOLUME</t>
   </si>
   <si>
@@ -2171,7 +2389,7 @@
     <t>전체적인 힛사운드 음량 조정하기</t>
   </si>
   <si>
-    <t>Seleccionar el volumen del sonido de los golpes general:</t>
+    <t>Seleccionar el volumen general del sonido de los golpes:</t>
   </si>
   <si>
     <t>Choisir le volume du hitsound</t>
@@ -2189,6 +2407,9 @@
     <t>Установить определённую громкость для всех хитсаунд</t>
   </si>
   <si>
+    <t>全体的なヒットサウンド音量を設定</t>
+  </si>
+  <si>
     <t>CURRENT_HITSOUND_VOLUME</t>
   </si>
   <si>
@@ -2213,6 +2434,9 @@
     <t>Громкость:</t>
   </si>
   <si>
+    <t>音量：</t>
+  </si>
+  <si>
     <t>HITSOUND_FORCE_VOLUME</t>
   </si>
   <si>
@@ -2237,6 +2461,9 @@
     <t>Использовать статическую громкость хитсаундов вместо множителя</t>
   </si>
   <si>
+    <t>ヒットサウンド音量を比率の代わりに固定値に設定</t>
+  </si>
+  <si>
     <t>HITSOUND_IGNORE_STARTING_VALUE</t>
   </si>
   <si>
@@ -2261,6 +2488,9 @@
     <t>Игнорировать установленную на карте громкость хитсаундов</t>
   </si>
   <si>
+    <t>始める時のヒットサウンド音量を無視</t>
+  </si>
+  <si>
     <t>SYNC_INPUT_STATE</t>
   </si>
   <si>
@@ -2270,9 +2500,21 @@
     <t>비동기 입력이 자동으로 활성화되지 않는 버그 해결하기</t>
   </si>
   <si>
+    <t>Arreglar bug que hace que el Sistema de Input Asincrónico no se seleccione automáticamente</t>
+  </si>
+  <si>
+    <t>répare l'Asynchronous Input qui n'est pas activer automatiquement</t>
+  </si>
+  <si>
+    <t>修复未自动启用的异步输入</t>
+  </si>
+  <si>
     <t>Исправляет, что асинхронный ввод не включался автоматически</t>
   </si>
   <si>
+    <t>非同期入力が自動的に有効にならないバグを解決</t>
+  </si>
+  <si>
     <t>Planet Color</t>
   </si>
   <si>
@@ -2297,6 +2539,9 @@
     <t>Цвет планет</t>
   </si>
   <si>
+    <t>惑星の色</t>
+  </si>
+  <si>
     <t>Sets the color of the planets.</t>
   </si>
   <si>
@@ -2321,6 +2566,9 @@
     <t>Устанавливает цвет планет.</t>
   </si>
   <si>
+    <t>惑星の色を設定します。</t>
+  </si>
+  <si>
     <t>PLANET_ONE</t>
   </si>
   <si>
@@ -2345,6 +2593,9 @@
     <t>Планета 1</t>
   </si>
   <si>
+    <t>惑星1</t>
+  </si>
+  <si>
     <t>PLANET_TWO</t>
   </si>
   <si>
@@ -2369,6 +2620,9 @@
     <t>Планета 2</t>
   </si>
   <si>
+    <t>惑星2</t>
+  </si>
+  <si>
     <t>BODY</t>
   </si>
   <si>
@@ -2396,6 +2650,9 @@
     <t>Планета:</t>
   </si>
   <si>
+    <t>惑星：</t>
+  </si>
+  <si>
     <t>TAIL</t>
   </si>
   <si>
@@ -2423,6 +2680,9 @@
     <t>След:</t>
   </si>
   <si>
+    <t>尾：</t>
+  </si>
+  <si>
     <t>Planet Opacity</t>
   </si>
   <si>
@@ -2447,6 +2707,9 @@
     <t>Прозрачность планет</t>
   </si>
   <si>
+    <t>惑星の不透明度</t>
+  </si>
+  <si>
     <t>Sets the opacity of the planets.</t>
   </si>
   <si>
@@ -2471,6 +2734,15 @@
     <t>Устанавливает прозрачность планет.</t>
   </si>
   <si>
+    <t>惑星の不透明度を設定します。</t>
+  </si>
+  <si>
+    <t>惑星1：</t>
+  </si>
+  <si>
+    <t>惑星2：</t>
+  </si>
+  <si>
     <t>球本体:</t>
   </si>
   <si>
@@ -2498,6 +2770,9 @@
     <t>Кольцо:</t>
   </si>
   <si>
+    <t>輪：</t>
+  </si>
+  <si>
     <t>Restrict Judgments</t>
   </si>
   <si>
@@ -2522,6 +2797,9 @@
     <t>Ограничивает оценки</t>
   </si>
   <si>
+    <t>判定制限</t>
+  </si>
+  <si>
     <t>Punishes player upon specified judgments.</t>
   </si>
   <si>
@@ -2543,6 +2821,9 @@
     <t>Наказывает игрока по указанным оценкам.</t>
   </si>
   <si>
+    <t>特定判定が出た時、プレイヤーを制限します。</t>
+  </si>
+  <si>
     <t>RESTRICT_HEADER</t>
   </si>
   <si>
@@ -2567,6 +2848,9 @@
     <t>Ограничивает следующие оценки:</t>
   </si>
   <si>
+    <t>制限する判定：</t>
+  </si>
+  <si>
     <t>RESTRICT</t>
   </si>
   <si>
@@ -2594,6 +2878,9 @@
     <t>Ограничить оценку "{0}"</t>
   </si>
   <si>
+    <t>「{0}」判定を制限する</t>
+  </si>
+  <si>
     <t>CUSTOM_HEADER</t>
   </si>
   <si>
@@ -2618,6 +2905,9 @@
     <t>Наказание</t>
   </si>
   <si>
+    <t>プレイヤー制限行動：</t>
+  </si>
+  <si>
     <t>RESTRICT_ACTION</t>
   </si>
   <si>
@@ -2642,6 +2932,9 @@
     <t>Способ наказания</t>
   </si>
   <si>
+    <t>制限方法：</t>
+  </si>
+  <si>
     <t>I_RESTRICT_ACTION.KillPlayer</t>
   </si>
   <si>
@@ -2666,6 +2959,9 @@
     <t>Мгновенно убить игрока</t>
   </si>
   <si>
+    <t>プレイヤーを殺す</t>
+  </si>
+  <si>
     <t>I_RESTRICT_ACTION.NoRegister</t>
   </si>
   <si>
@@ -2690,6 +2986,9 @@
     <t>Засчитывать оценку как слишком рано/поздно</t>
   </si>
   <si>
+    <t>「Miss...」判定のように扱う</t>
+  </si>
+  <si>
     <t>I_RESTRICT_ACTION.InstantRestart</t>
   </si>
   <si>
@@ -2717,6 +3016,9 @@
     <t>Мгновенно перезапускать уровень</t>
   </si>
   <si>
+    <t>レベルをリスタートする</t>
+  </si>
+  <si>
     <t>CUSTOM_DEATH</t>
   </si>
   <si>
@@ -2739,6 +3041,9 @@
   </si>
   <si>
     <t>Пользовательское сообщение после смерти на ограниченной оценке (примечание: "{оценка}" будет заменено на вид оценки)</t>
+  </si>
+  <si>
+    <t>この機能で死んだ時のメッセージ（備考：メッセージの中の{judgement}は全て判定の名前に置き換えられます。）</t>
   </si>
 </sst>
 </file>
@@ -3070,18 +3375,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3112,293 +3417,323 @@
       <c r="J2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
       <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
         <v>13</v>
       </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
       <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
         <v>13</v>
       </c>
-      <c r="J3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
         <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
         <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I5" t="s">
         <v>18</v>
       </c>
       <c r="J5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" t="s">
         <v>21</v>
       </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
         <v>22</v>
       </c>
-      <c r="J6" t="s">
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" t="s">
         <v>25</v>
       </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="J7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
         <v>26</v>
       </c>
-      <c r="H7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
         <v>27</v>
       </c>
-      <c r="J7" t="s">
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="s">
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
         <v>29</v>
       </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
         <v>30</v>
       </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
         <v>31</v>
       </c>
-      <c r="H8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
+      <c r="J9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
         <v>33</v>
       </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
         <v>34</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
         <v>35</v>
       </c>
-      <c r="F9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
         <v>36</v>
       </c>
-      <c r="H9" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" t="s">
         <v>38</v>
       </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" t="s">
-        <v>44</v>
-      </c>
       <c r="J11" t="s">
-        <v>45</v>
+        <v>13</v>
+      </c>
+      <c r="K11" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -3408,266 +3743,290 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" t="s">
+      <c r="I1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" t="s">
+      <c r="J1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" t="s">
+      <c r="K1" t="s">
         <v>49</v>
       </c>
-      <c r="E1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>798</v>
+        <v>884</v>
       </c>
       <c r="C2" t="s">
-        <v>799</v>
+        <v>885</v>
       </c>
       <c r="D2" t="s">
-        <v>800</v>
+        <v>886</v>
       </c>
       <c r="E2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F2" t="s">
-        <v>801</v>
+        <v>887</v>
       </c>
       <c r="G2" t="s">
-        <v>802</v>
+        <v>888</v>
       </c>
       <c r="H2" t="s">
-        <v>803</v>
+        <v>889</v>
       </c>
       <c r="I2" t="s">
-        <v>804</v>
+        <v>890</v>
       </c>
       <c r="J2" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>891</v>
+      </c>
+      <c r="K2" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>113</v>
       </c>
       <c r="B3" t="s">
-        <v>806</v>
+        <v>893</v>
       </c>
       <c r="C3" t="s">
-        <v>807</v>
+        <v>894</v>
       </c>
       <c r="D3" t="s">
-        <v>808</v>
+        <v>895</v>
       </c>
       <c r="E3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F3" t="s">
-        <v>809</v>
+        <v>896</v>
       </c>
       <c r="G3" t="s">
-        <v>810</v>
+        <v>897</v>
       </c>
       <c r="H3" t="s">
-        <v>811</v>
+        <v>898</v>
       </c>
       <c r="I3" t="s">
-        <v>812</v>
+        <v>899</v>
       </c>
       <c r="J3" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>900</v>
+      </c>
+      <c r="K3" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>764</v>
+        <v>846</v>
       </c>
       <c r="B4" t="s">
-        <v>765</v>
+        <v>847</v>
       </c>
       <c r="C4" t="s">
-        <v>766</v>
+        <v>848</v>
       </c>
       <c r="D4" t="s">
-        <v>767</v>
+        <v>849</v>
       </c>
       <c r="E4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F4" t="s">
-        <v>768</v>
+        <v>850</v>
       </c>
       <c r="G4" t="s">
-        <v>769</v>
+        <v>851</v>
       </c>
       <c r="H4" t="s">
-        <v>770</v>
+        <v>852</v>
       </c>
       <c r="I4" t="s">
-        <v>765</v>
+        <v>847</v>
       </c>
       <c r="J4" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>853</v>
+      </c>
+      <c r="K4" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>772</v>
+        <v>855</v>
       </c>
       <c r="B5" t="s">
-        <v>773</v>
+        <v>856</v>
       </c>
       <c r="C5" t="s">
-        <v>774</v>
+        <v>857</v>
       </c>
       <c r="D5" t="s">
-        <v>775</v>
+        <v>858</v>
       </c>
       <c r="E5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F5" t="s">
-        <v>776</v>
+        <v>859</v>
       </c>
       <c r="G5" t="s">
-        <v>777</v>
+        <v>860</v>
       </c>
       <c r="H5" t="s">
-        <v>778</v>
+        <v>861</v>
       </c>
       <c r="I5" t="s">
-        <v>773</v>
+        <v>856</v>
       </c>
       <c r="J5" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>862</v>
+      </c>
+      <c r="K5" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>780</v>
+        <v>864</v>
       </c>
       <c r="B6" t="s">
-        <v>781</v>
+        <v>865</v>
       </c>
       <c r="C6" t="s">
-        <v>782</v>
+        <v>866</v>
       </c>
       <c r="D6" t="s">
-        <v>783</v>
+        <v>867</v>
       </c>
       <c r="E6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F6" t="s">
-        <v>784</v>
+        <v>868</v>
       </c>
       <c r="G6" t="s">
-        <v>785</v>
+        <v>869</v>
       </c>
       <c r="H6" t="s">
-        <v>814</v>
+        <v>904</v>
       </c>
       <c r="I6" t="s">
-        <v>787</v>
+        <v>871</v>
       </c>
       <c r="J6" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>872</v>
+      </c>
+      <c r="K6" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>789</v>
+        <v>874</v>
       </c>
       <c r="B7" t="s">
-        <v>790</v>
+        <v>875</v>
       </c>
       <c r="C7" t="s">
-        <v>791</v>
+        <v>876</v>
       </c>
       <c r="D7" t="s">
-        <v>792</v>
+        <v>877</v>
       </c>
       <c r="E7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F7" t="s">
-        <v>793</v>
+        <v>878</v>
       </c>
       <c r="G7" t="s">
-        <v>794</v>
+        <v>879</v>
       </c>
       <c r="H7" t="s">
-        <v>815</v>
+        <v>905</v>
       </c>
       <c r="I7" t="s">
-        <v>796</v>
+        <v>881</v>
       </c>
       <c r="J7" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>882</v>
+      </c>
+      <c r="K7" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>816</v>
+        <v>906</v>
       </c>
       <c r="B8" t="s">
-        <v>817</v>
+        <v>907</v>
       </c>
       <c r="C8" t="s">
-        <v>818</v>
+        <v>908</v>
       </c>
       <c r="D8" t="s">
-        <v>819</v>
+        <v>909</v>
       </c>
       <c r="E8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F8" t="s">
-        <v>820</v>
+        <v>910</v>
       </c>
       <c r="G8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H8" t="s">
-        <v>821</v>
+        <v>911</v>
       </c>
       <c r="I8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J8" t="s">
-        <v>822</v>
+        <v>912</v>
+      </c>
+      <c r="K8" t="s">
+        <v>913</v>
       </c>
     </row>
   </sheetData>
@@ -3677,362 +4036,395 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" t="s">
+      <c r="I1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" t="s">
+      <c r="J1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" t="s">
+      <c r="K1" t="s">
         <v>49</v>
       </c>
-      <c r="E1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>823</v>
+        <v>914</v>
       </c>
       <c r="C2" t="s">
-        <v>824</v>
+        <v>915</v>
       </c>
       <c r="D2" t="s">
-        <v>825</v>
+        <v>916</v>
       </c>
       <c r="E2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F2" t="s">
-        <v>826</v>
+        <v>917</v>
       </c>
       <c r="G2" t="s">
-        <v>827</v>
+        <v>918</v>
       </c>
       <c r="H2" t="s">
-        <v>828</v>
+        <v>919</v>
       </c>
       <c r="I2" t="s">
-        <v>829</v>
+        <v>920</v>
       </c>
       <c r="J2" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>921</v>
+      </c>
+      <c r="K2" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>113</v>
       </c>
       <c r="B3" t="s">
-        <v>831</v>
+        <v>923</v>
       </c>
       <c r="C3" t="s">
-        <v>832</v>
+        <v>924</v>
       </c>
       <c r="D3" t="s">
-        <v>833</v>
+        <v>925</v>
       </c>
       <c r="E3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F3" t="s">
-        <v>834</v>
+        <v>926</v>
       </c>
       <c r="G3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H3" t="s">
-        <v>835</v>
+        <v>927</v>
       </c>
       <c r="I3" t="s">
-        <v>836</v>
+        <v>928</v>
       </c>
       <c r="J3" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>929</v>
+      </c>
+      <c r="K3" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>838</v>
+        <v>931</v>
       </c>
       <c r="B4" t="s">
-        <v>839</v>
+        <v>932</v>
       </c>
       <c r="C4" t="s">
-        <v>840</v>
+        <v>933</v>
       </c>
       <c r="D4" t="s">
-        <v>841</v>
+        <v>934</v>
       </c>
       <c r="E4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F4" t="s">
-        <v>842</v>
+        <v>935</v>
       </c>
       <c r="G4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H4" t="s">
-        <v>843</v>
+        <v>936</v>
       </c>
       <c r="I4" t="s">
-        <v>844</v>
+        <v>937</v>
       </c>
       <c r="J4" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>938</v>
+      </c>
+      <c r="K4" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>846</v>
+        <v>940</v>
       </c>
       <c r="B5" t="s">
-        <v>847</v>
+        <v>941</v>
       </c>
       <c r="C5" t="s">
-        <v>848</v>
+        <v>942</v>
       </c>
       <c r="D5" t="s">
-        <v>849</v>
+        <v>943</v>
       </c>
       <c r="E5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F5" t="s">
-        <v>850</v>
+        <v>944</v>
       </c>
       <c r="G5" t="s">
-        <v>851</v>
+        <v>945</v>
       </c>
       <c r="H5" t="s">
-        <v>852</v>
+        <v>946</v>
       </c>
       <c r="I5" t="s">
-        <v>853</v>
+        <v>947</v>
       </c>
       <c r="J5" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>948</v>
+      </c>
+      <c r="K5" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>855</v>
+        <v>950</v>
       </c>
       <c r="B6" t="s">
-        <v>856</v>
+        <v>951</v>
       </c>
       <c r="C6" t="s">
-        <v>857</v>
+        <v>952</v>
       </c>
       <c r="D6" t="s">
-        <v>858</v>
+        <v>953</v>
       </c>
       <c r="E6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F6" t="s">
-        <v>859</v>
+        <v>954</v>
       </c>
       <c r="G6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H6" t="s">
-        <v>860</v>
+        <v>955</v>
       </c>
       <c r="I6" t="s">
-        <v>861</v>
+        <v>956</v>
       </c>
       <c r="J6" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>957</v>
+      </c>
+      <c r="K6" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>863</v>
+        <v>959</v>
       </c>
       <c r="B7" t="s">
-        <v>864</v>
+        <v>960</v>
       </c>
       <c r="C7" t="s">
-        <v>865</v>
+        <v>961</v>
       </c>
       <c r="D7" t="s">
-        <v>866</v>
+        <v>962</v>
       </c>
       <c r="E7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F7" t="s">
-        <v>867</v>
+        <v>963</v>
       </c>
       <c r="G7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H7" t="s">
-        <v>868</v>
+        <v>964</v>
       </c>
       <c r="I7" t="s">
-        <v>869</v>
+        <v>965</v>
       </c>
       <c r="J7" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>966</v>
+      </c>
+      <c r="K7" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>871</v>
+        <v>968</v>
       </c>
       <c r="B8" t="s">
-        <v>872</v>
+        <v>969</v>
       </c>
       <c r="C8" t="s">
-        <v>873</v>
+        <v>970</v>
       </c>
       <c r="D8" t="s">
-        <v>874</v>
+        <v>971</v>
       </c>
       <c r="E8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F8" t="s">
-        <v>875</v>
+        <v>972</v>
       </c>
       <c r="G8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H8" t="s">
-        <v>876</v>
+        <v>973</v>
       </c>
       <c r="I8" t="s">
-        <v>877</v>
+        <v>974</v>
       </c>
       <c r="J8" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>975</v>
+      </c>
+      <c r="K8" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>879</v>
+        <v>977</v>
       </c>
       <c r="B9" t="s">
-        <v>880</v>
+        <v>978</v>
       </c>
       <c r="C9" t="s">
-        <v>881</v>
+        <v>979</v>
       </c>
       <c r="D9" t="s">
-        <v>882</v>
+        <v>980</v>
       </c>
       <c r="E9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F9" t="s">
-        <v>883</v>
+        <v>981</v>
       </c>
       <c r="G9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H9" t="s">
-        <v>884</v>
+        <v>982</v>
       </c>
       <c r="I9" t="s">
-        <v>885</v>
+        <v>983</v>
       </c>
       <c r="J9" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>984</v>
+      </c>
+      <c r="K9" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>887</v>
+        <v>986</v>
       </c>
       <c r="B10" t="s">
-        <v>888</v>
+        <v>987</v>
       </c>
       <c r="C10" t="s">
-        <v>889</v>
+        <v>988</v>
       </c>
       <c r="D10" t="s">
-        <v>890</v>
+        <v>989</v>
       </c>
       <c r="E10" t="s">
-        <v>891</v>
+        <v>990</v>
       </c>
       <c r="F10" t="s">
-        <v>892</v>
+        <v>991</v>
       </c>
       <c r="G10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H10" t="s">
-        <v>893</v>
+        <v>992</v>
       </c>
       <c r="I10" t="s">
-        <v>894</v>
+        <v>993</v>
       </c>
       <c r="J10" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>994</v>
+      </c>
+      <c r="K10" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>896</v>
+        <v>996</v>
       </c>
       <c r="B11" t="s">
-        <v>897</v>
+        <v>997</v>
       </c>
       <c r="C11" t="s">
-        <v>898</v>
+        <v>998</v>
       </c>
       <c r="D11" t="s">
-        <v>899</v>
+        <v>999</v>
       </c>
       <c r="E11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F11" t="s">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="G11" t="s">
-        <v>901</v>
+        <v>1001</v>
       </c>
       <c r="H11" t="s">
-        <v>902</v>
+        <v>1002</v>
       </c>
       <c r="I11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J11" t="s">
-        <v>903</v>
+        <v>1003</v>
+      </c>
+      <c r="K11" t="s">
+        <v>1004</v>
       </c>
     </row>
   </sheetData>
@@ -4042,234 +4434,255 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" t="s">
+      <c r="I1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" t="s">
+      <c r="J1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" t="s">
+      <c r="K1" t="s">
         <v>49</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
         <v>50</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B2" t="s">
         <v>51</v>
       </c>
-      <c r="G1" t="s">
+      <c r="C2" t="s">
         <v>52</v>
       </c>
-      <c r="H1" t="s">
+      <c r="D2" t="s">
         <v>53</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E2" t="s">
         <v>54</v>
       </c>
-      <c r="J1" t="s">
+      <c r="F2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
+      <c r="G2" t="s">
         <v>56</v>
       </c>
-      <c r="B2" t="s">
+      <c r="H2" t="s">
         <v>57</v>
       </c>
-      <c r="C2" t="s">
+      <c r="I2" t="s">
         <v>58</v>
       </c>
-      <c r="D2" t="s">
+      <c r="J2" t="s">
         <v>59</v>
       </c>
-      <c r="E2" t="s">
+      <c r="K2" t="s">
         <v>60</v>
       </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
         <v>61</v>
       </c>
-      <c r="G2" t="s">
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
         <v>62</v>
       </c>
-      <c r="H2" t="s">
+      <c r="B4" t="s">
         <v>63</v>
       </c>
-      <c r="I2" t="s">
+      <c r="C4" t="s">
         <v>64</v>
       </c>
-      <c r="J2" t="s">
+      <c r="D4" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
+      <c r="E4" t="s">
         <v>66</v>
       </c>
-      <c r="B3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I3" t="s">
-        <v>64</v>
-      </c>
-      <c r="J3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
+      <c r="F4" t="s">
         <v>67</v>
       </c>
-      <c r="B4" t="s">
+      <c r="G4" t="s">
         <v>68</v>
       </c>
-      <c r="C4" t="s">
+      <c r="H4" t="s">
         <v>69</v>
       </c>
-      <c r="D4" t="s">
+      <c r="I4" t="s">
         <v>70</v>
       </c>
-      <c r="E4" t="s">
+      <c r="J4" t="s">
         <v>71</v>
       </c>
-      <c r="F4" t="s">
+      <c r="K4" t="s">
         <v>72</v>
       </c>
-      <c r="G4" t="s">
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
         <v>73</v>
-      </c>
-      <c r="H4" t="s">
-        <v>74</v>
-      </c>
-      <c r="I4" t="s">
-        <v>75</v>
-      </c>
-      <c r="J4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>77</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
       <c r="C5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" t="s">
         <v>78</v>
       </c>
-      <c r="D5" t="s">
+      <c r="H5" t="s">
         <v>79</v>
       </c>
-      <c r="E5" t="s">
+      <c r="I5" t="s">
         <v>80</v>
       </c>
-      <c r="F5" t="s">
+      <c r="J5" t="s">
         <v>81</v>
       </c>
-      <c r="G5" t="s">
+      <c r="K5" t="s">
         <v>82</v>
       </c>
-      <c r="H5" t="s">
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
         <v>83</v>
       </c>
-      <c r="I5" t="s">
+      <c r="B6" t="s">
         <v>84</v>
       </c>
-      <c r="J5" t="s">
+      <c r="C6" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
+      <c r="D6" t="s">
         <v>86</v>
       </c>
-      <c r="B6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" t="s">
         <v>88</v>
       </c>
-      <c r="D6" t="s">
+      <c r="G6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H6" t="s">
         <v>89</v>
       </c>
-      <c r="E6" t="s">
+      <c r="I6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" t="s">
         <v>90</v>
       </c>
-      <c r="F6" t="s">
+      <c r="K6" t="s">
         <v>91</v>
       </c>
-      <c r="G6" t="s">
-        <v>90</v>
-      </c>
-      <c r="H6" t="s">
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
         <v>92</v>
       </c>
-      <c r="I6" t="s">
-        <v>90</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="B7" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
+      <c r="C7" t="s">
         <v>94</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>95</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>96</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" t="s">
         <v>97</v>
       </c>
-      <c r="E7" t="s">
+      <c r="H7" t="s">
         <v>98</v>
       </c>
-      <c r="F7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="I7" t="s">
         <v>99</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
         <v>100</v>
       </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>101</v>
-      </c>
-      <c r="J7" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -4279,77 +4692,83 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" t="s">
+      <c r="I1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" t="s">
+      <c r="J1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" t="s">
+      <c r="K1" t="s">
         <v>49</v>
       </c>
-      <c r="E1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" t="s">
         <v>103</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>104</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>105</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>106</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>107</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>108</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>109</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>110</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>111</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>113</v>
       </c>
@@ -4380,293 +4799,323 @@
       <c r="J3" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>133</v>
+      </c>
+      <c r="K4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="J5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>144</v>
+      </c>
+      <c r="K5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B6" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C6" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D6" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E6" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F6" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G6" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H6" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="I6" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="J6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>155</v>
+      </c>
+      <c r="K6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="H7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="I7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="J7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>166</v>
+      </c>
+      <c r="K7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B8" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C8" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D8" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="E8" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="F8" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="G8" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="H8" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="I8" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="J8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>177</v>
+      </c>
+      <c r="K8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B9" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="C9" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D9" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="E9" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="F9" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="G9" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="H9" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="I9" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="J9" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>188</v>
+      </c>
+      <c r="K9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="B10" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C10" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="D10" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="E10" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="F10" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="G10" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="H10" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="I10" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="J10" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>199</v>
+      </c>
+      <c r="K10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="B11" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="C11" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="D11" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="E11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F11" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="G11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H11" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="I11" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="J11" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>208</v>
+      </c>
+      <c r="K11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="B12" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="C12" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="D12" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="E12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F12" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="G12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H12" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="I12" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="J12" t="s">
-        <v>208</v>
+        <v>217</v>
+      </c>
+      <c r="K12" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -4676,554 +5125,605 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" t="s">
+      <c r="I1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" t="s">
+      <c r="J1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" t="s">
+      <c r="K1" t="s">
         <v>49</v>
       </c>
-      <c r="E1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="C2" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="D2" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="E2" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="F2" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="G2" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="H2" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="I2" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="J2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>227</v>
+      </c>
+      <c r="K2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>113</v>
       </c>
       <c r="B3" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="C3" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="D3" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="E3" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="F3" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="G3" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="H3" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="I3" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="J3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>237</v>
+      </c>
+      <c r="K3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="B4" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="C4" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="D4" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="E4" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="F4" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="G4" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="H4" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="I4" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="J4" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>248</v>
+      </c>
+      <c r="K4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="B5" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="C5" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="D5" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="E5" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="F5" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="G5" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="H5" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="I5" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="J5" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>259</v>
+      </c>
+      <c r="K5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="B6" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="C6" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="D6" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="E6" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="F6" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="G6" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="H6" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="I6" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="J6" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>270</v>
+      </c>
+      <c r="K6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="B7" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="C7" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="D7" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="E7" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="F7" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="G7" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="H7" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="I7" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="J7" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>281</v>
+      </c>
+      <c r="K7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="B8" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="C8" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="D8" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="E8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F8" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="G8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H8" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="I8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J8" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>289</v>
+      </c>
+      <c r="K8" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="B9" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="C9" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="D9" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="E9" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="F9" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="G9" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="H9" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="I9" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="J9" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>300</v>
+      </c>
+      <c r="K9" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>284</v>
+        <v>302</v>
       </c>
       <c r="B10" t="s">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="C10" t="s">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="D10" t="s">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c r="E10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F10" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="G10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H10" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="I10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J10" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>308</v>
+      </c>
+      <c r="K10" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="B11" t="s">
-        <v>292</v>
+        <v>311</v>
       </c>
       <c r="C11" t="s">
-        <v>293</v>
+        <v>312</v>
       </c>
       <c r="D11" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="E11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F11" t="s">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="G11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H11" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="I11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J11" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>316</v>
+      </c>
+      <c r="K11" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="B12" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="C12" t="s">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="D12" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="E12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F12" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="G12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H12" t="s">
-        <v>303</v>
+        <v>323</v>
       </c>
       <c r="I12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J12" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>324</v>
+      </c>
+      <c r="K12" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>305</v>
+        <v>326</v>
       </c>
       <c r="B13" t="s">
-        <v>306</v>
+        <v>327</v>
       </c>
       <c r="C13" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="D13" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="E13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F13" t="s">
-        <v>309</v>
+        <v>330</v>
       </c>
       <c r="G13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H13" t="s">
-        <v>310</v>
+        <v>331</v>
       </c>
       <c r="I13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J13" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>332</v>
+      </c>
+      <c r="K13" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>312</v>
+        <v>334</v>
       </c>
       <c r="B14" t="s">
-        <v>313</v>
+        <v>335</v>
       </c>
       <c r="C14" t="s">
-        <v>314</v>
+        <v>336</v>
       </c>
       <c r="D14" t="s">
-        <v>315</v>
+        <v>337</v>
       </c>
       <c r="E14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F14" t="s">
-        <v>316</v>
+        <v>338</v>
       </c>
       <c r="G14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H14" t="s">
-        <v>317</v>
+        <v>339</v>
       </c>
       <c r="I14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J14" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>340</v>
+      </c>
+      <c r="K14" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>319</v>
+        <v>342</v>
       </c>
       <c r="B15" t="s">
-        <v>320</v>
+        <v>343</v>
       </c>
       <c r="C15" t="s">
-        <v>321</v>
+        <v>344</v>
       </c>
       <c r="D15" t="s">
-        <v>322</v>
+        <v>345</v>
       </c>
       <c r="E15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F15" t="s">
-        <v>323</v>
+        <v>346</v>
       </c>
       <c r="G15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H15" t="s">
-        <v>324</v>
+        <v>347</v>
       </c>
       <c r="I15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J15" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>348</v>
+      </c>
+      <c r="K15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>326</v>
+        <v>350</v>
       </c>
       <c r="B16" t="s">
-        <v>327</v>
+        <v>351</v>
       </c>
       <c r="C16" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
       <c r="D16" t="s">
-        <v>329</v>
+        <v>353</v>
       </c>
       <c r="E16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F16" t="s">
-        <v>330</v>
+        <v>354</v>
       </c>
       <c r="G16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H16" t="s">
-        <v>331</v>
+        <v>355</v>
       </c>
       <c r="I16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J16" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>356</v>
+      </c>
+      <c r="K16" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>333</v>
+        <v>358</v>
       </c>
       <c r="B17" t="s">
-        <v>334</v>
+        <v>359</v>
       </c>
       <c r="C17" t="s">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="D17" t="s">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="E17" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F17" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="G17" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H17" t="s">
-        <v>338</v>
+        <v>363</v>
       </c>
       <c r="I17" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J17" t="s">
-        <v>339</v>
+        <v>364</v>
+      </c>
+      <c r="K17" t="s">
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -5233,426 +5733,465 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" t="s">
+      <c r="I1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" t="s">
+      <c r="J1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" t="s">
+      <c r="K1" t="s">
         <v>49</v>
       </c>
-      <c r="E1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>340</v>
+        <v>366</v>
       </c>
       <c r="C2" t="s">
-        <v>341</v>
+        <v>367</v>
       </c>
       <c r="D2" t="s">
-        <v>342</v>
+        <v>368</v>
       </c>
       <c r="E2" t="s">
-        <v>343</v>
+        <v>369</v>
       </c>
       <c r="F2" t="s">
-        <v>344</v>
+        <v>370</v>
       </c>
       <c r="G2" t="s">
-        <v>345</v>
+        <v>371</v>
       </c>
       <c r="H2" t="s">
-        <v>346</v>
+        <v>372</v>
       </c>
       <c r="I2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>373</v>
+      </c>
+      <c r="K2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>113</v>
       </c>
       <c r="B3" t="s">
-        <v>348</v>
+        <v>375</v>
       </c>
       <c r="C3" t="s">
-        <v>349</v>
+        <v>376</v>
       </c>
       <c r="D3" t="s">
-        <v>350</v>
+        <v>377</v>
       </c>
       <c r="E3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F3" t="s">
-        <v>351</v>
+        <v>378</v>
       </c>
       <c r="G3" t="s">
-        <v>352</v>
+        <v>379</v>
       </c>
       <c r="H3" t="s">
-        <v>353</v>
+        <v>380</v>
       </c>
       <c r="I3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J3" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>381</v>
+      </c>
+      <c r="K3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>355</v>
+        <v>383</v>
       </c>
       <c r="B4" t="s">
-        <v>356</v>
+        <v>384</v>
       </c>
       <c r="C4" t="s">
-        <v>357</v>
+        <v>385</v>
       </c>
       <c r="D4" t="s">
-        <v>358</v>
+        <v>386</v>
       </c>
       <c r="E4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F4" t="s">
-        <v>359</v>
+        <v>387</v>
       </c>
       <c r="G4" t="s">
-        <v>360</v>
+        <v>388</v>
       </c>
       <c r="H4" t="s">
-        <v>361</v>
+        <v>389</v>
       </c>
       <c r="I4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J4" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>390</v>
+      </c>
+      <c r="K4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>363</v>
+        <v>392</v>
       </c>
       <c r="B5" t="s">
-        <v>364</v>
+        <v>393</v>
       </c>
       <c r="C5" t="s">
-        <v>365</v>
+        <v>394</v>
       </c>
       <c r="D5" t="s">
-        <v>366</v>
+        <v>395</v>
       </c>
       <c r="E5" t="s">
-        <v>367</v>
+        <v>396</v>
       </c>
       <c r="F5" t="s">
-        <v>368</v>
+        <v>397</v>
       </c>
       <c r="G5" t="s">
-        <v>369</v>
+        <v>398</v>
       </c>
       <c r="H5" t="s">
-        <v>370</v>
+        <v>399</v>
       </c>
       <c r="I5" t="s">
-        <v>371</v>
+        <v>400</v>
       </c>
       <c r="J5" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>401</v>
+      </c>
+      <c r="K5" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>373</v>
+        <v>403</v>
       </c>
       <c r="B6" t="s">
-        <v>374</v>
+        <v>404</v>
       </c>
       <c r="C6" t="s">
-        <v>375</v>
+        <v>405</v>
       </c>
       <c r="D6" t="s">
-        <v>376</v>
+        <v>406</v>
       </c>
       <c r="E6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F6" t="s">
-        <v>377</v>
+        <v>407</v>
       </c>
       <c r="G6" t="s">
-        <v>378</v>
+        <v>408</v>
       </c>
       <c r="H6" t="s">
-        <v>379</v>
+        <v>409</v>
       </c>
       <c r="I6" t="s">
-        <v>380</v>
+        <v>410</v>
       </c>
       <c r="J6" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>411</v>
+      </c>
+      <c r="K6" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>382</v>
+        <v>413</v>
       </c>
       <c r="B7" t="s">
-        <v>383</v>
+        <v>414</v>
       </c>
       <c r="C7" t="s">
-        <v>384</v>
+        <v>415</v>
       </c>
       <c r="D7" t="s">
-        <v>385</v>
+        <v>416</v>
       </c>
       <c r="E7" t="s">
-        <v>386</v>
+        <v>417</v>
       </c>
       <c r="F7" t="s">
-        <v>387</v>
+        <v>418</v>
       </c>
       <c r="G7" t="s">
-        <v>388</v>
+        <v>419</v>
       </c>
       <c r="H7" t="s">
-        <v>389</v>
+        <v>420</v>
       </c>
       <c r="I7" t="s">
-        <v>390</v>
+        <v>421</v>
       </c>
       <c r="J7" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>422</v>
+      </c>
+      <c r="K7" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>392</v>
+        <v>423</v>
       </c>
       <c r="B8" t="s">
-        <v>393</v>
+        <v>424</v>
       </c>
       <c r="C8" t="s">
-        <v>394</v>
+        <v>425</v>
       </c>
       <c r="D8" t="s">
-        <v>395</v>
+        <v>426</v>
       </c>
       <c r="E8" t="s">
-        <v>396</v>
+        <v>427</v>
       </c>
       <c r="F8" t="s">
-        <v>397</v>
+        <v>428</v>
       </c>
       <c r="G8" t="s">
-        <v>398</v>
+        <v>429</v>
       </c>
       <c r="H8" t="s">
-        <v>399</v>
+        <v>430</v>
       </c>
       <c r="I8" t="s">
-        <v>400</v>
+        <v>431</v>
       </c>
       <c r="J8" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>432</v>
+      </c>
+      <c r="K8" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>402</v>
+        <v>434</v>
       </c>
       <c r="B9" t="s">
-        <v>403</v>
+        <v>435</v>
       </c>
       <c r="C9" t="s">
-        <v>404</v>
+        <v>436</v>
       </c>
       <c r="D9" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E9" t="s">
-        <v>406</v>
+        <v>438</v>
       </c>
       <c r="F9" t="s">
-        <v>407</v>
+        <v>439</v>
       </c>
       <c r="G9" t="s">
-        <v>408</v>
+        <v>440</v>
       </c>
       <c r="H9" t="s">
-        <v>409</v>
+        <v>441</v>
       </c>
       <c r="I9" t="s">
-        <v>410</v>
+        <v>442</v>
       </c>
       <c r="J9" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>443</v>
+      </c>
+      <c r="K9" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>412</v>
+        <v>445</v>
       </c>
       <c r="B10" t="s">
-        <v>413</v>
+        <v>446</v>
       </c>
       <c r="C10" t="s">
-        <v>414</v>
+        <v>447</v>
       </c>
       <c r="D10" t="s">
-        <v>415</v>
+        <v>448</v>
       </c>
       <c r="E10" t="s">
-        <v>416</v>
+        <v>449</v>
       </c>
       <c r="F10" t="s">
-        <v>417</v>
+        <v>450</v>
       </c>
       <c r="G10" t="s">
-        <v>418</v>
+        <v>451</v>
       </c>
       <c r="H10" t="s">
-        <v>419</v>
+        <v>452</v>
       </c>
       <c r="I10" t="s">
-        <v>420</v>
+        <v>453</v>
       </c>
       <c r="J10" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>454</v>
+      </c>
+      <c r="K10" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>422</v>
+        <v>456</v>
       </c>
       <c r="B11" t="s">
-        <v>423</v>
+        <v>457</v>
       </c>
       <c r="C11" t="s">
-        <v>424</v>
+        <v>458</v>
       </c>
       <c r="D11" t="s">
-        <v>425</v>
+        <v>459</v>
       </c>
       <c r="E11" t="s">
-        <v>426</v>
+        <v>460</v>
       </c>
       <c r="F11" t="s">
-        <v>427</v>
+        <v>461</v>
       </c>
       <c r="G11" t="s">
-        <v>428</v>
+        <v>462</v>
       </c>
       <c r="H11" t="s">
-        <v>429</v>
+        <v>463</v>
       </c>
       <c r="I11" t="s">
-        <v>430</v>
+        <v>464</v>
       </c>
       <c r="J11" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>465</v>
+      </c>
+      <c r="K11" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>432</v>
+        <v>467</v>
       </c>
       <c r="B12" t="s">
-        <v>433</v>
+        <v>468</v>
       </c>
       <c r="C12" t="s">
-        <v>434</v>
+        <v>469</v>
       </c>
       <c r="D12" t="s">
-        <v>435</v>
+        <v>470</v>
       </c>
       <c r="E12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F12" t="s">
-        <v>436</v>
+        <v>471</v>
       </c>
       <c r="G12" t="s">
-        <v>437</v>
+        <v>472</v>
       </c>
       <c r="H12" t="s">
-        <v>438</v>
+        <v>473</v>
       </c>
       <c r="I12" t="s">
-        <v>433</v>
+        <v>468</v>
       </c>
       <c r="J12" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>474</v>
+      </c>
+      <c r="K12" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>440</v>
+        <v>476</v>
       </c>
       <c r="B13" t="s">
-        <v>441</v>
+        <v>477</v>
       </c>
       <c r="C13" t="s">
-        <v>442</v>
+        <v>478</v>
       </c>
       <c r="D13" t="s">
-        <v>443</v>
+        <v>479</v>
       </c>
       <c r="E13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F13" t="s">
-        <v>444</v>
+        <v>480</v>
       </c>
       <c r="G13" t="s">
-        <v>445</v>
+        <v>481</v>
       </c>
       <c r="H13" t="s">
-        <v>446</v>
+        <v>482</v>
       </c>
       <c r="I13" t="s">
-        <v>441</v>
+        <v>477</v>
       </c>
       <c r="J13" t="s">
-        <v>447</v>
+        <v>483</v>
+      </c>
+      <c r="K13" t="s">
+        <v>484</v>
       </c>
     </row>
   </sheetData>
@@ -5662,810 +6201,885 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" t="s">
+      <c r="I1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" t="s">
+      <c r="J1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" t="s">
+      <c r="K1" t="s">
         <v>49</v>
       </c>
-      <c r="E1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>448</v>
+        <v>485</v>
       </c>
       <c r="C2" t="s">
-        <v>449</v>
+        <v>486</v>
       </c>
       <c r="D2" t="s">
-        <v>450</v>
+        <v>487</v>
       </c>
       <c r="E2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F2" t="s">
-        <v>451</v>
+        <v>488</v>
       </c>
       <c r="G2" t="s">
-        <v>452</v>
+        <v>489</v>
       </c>
       <c r="H2" t="s">
-        <v>453</v>
+        <v>490</v>
       </c>
       <c r="I2" t="s">
-        <v>454</v>
+        <v>491</v>
       </c>
       <c r="J2" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>492</v>
+      </c>
+      <c r="K2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>113</v>
       </c>
       <c r="B3" t="s">
-        <v>456</v>
+        <v>494</v>
       </c>
       <c r="C3" t="s">
-        <v>457</v>
+        <v>495</v>
       </c>
       <c r="D3" t="s">
-        <v>458</v>
+        <v>496</v>
       </c>
       <c r="E3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F3" t="s">
-        <v>459</v>
+        <v>497</v>
       </c>
       <c r="G3" t="s">
-        <v>460</v>
+        <v>498</v>
       </c>
       <c r="H3" t="s">
-        <v>461</v>
+        <v>499</v>
       </c>
       <c r="I3" t="s">
-        <v>462</v>
+        <v>500</v>
       </c>
       <c r="J3" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>501</v>
+      </c>
+      <c r="K3" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>464</v>
+        <v>503</v>
       </c>
       <c r="B4" t="s">
-        <v>465</v>
+        <v>504</v>
       </c>
       <c r="C4" t="s">
-        <v>466</v>
+        <v>505</v>
       </c>
       <c r="D4" t="s">
-        <v>467</v>
+        <v>506</v>
       </c>
       <c r="E4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F4" t="s">
+        <v>507</v>
+      </c>
+      <c r="G4" t="s">
+        <v>508</v>
+      </c>
+      <c r="H4" t="s">
+        <v>509</v>
+      </c>
+      <c r="I4" t="s">
+        <v>510</v>
+      </c>
+      <c r="J4" t="s">
+        <v>511</v>
+      </c>
+      <c r="K4" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>513</v>
+      </c>
+      <c r="B5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" t="s">
+        <v>514</v>
+      </c>
+      <c r="E5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H5" t="s">
+        <v>98</v>
+      </c>
+      <c r="I5" t="s">
+        <v>99</v>
+      </c>
+      <c r="J5" t="s">
+        <v>100</v>
+      </c>
+      <c r="K5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>515</v>
+      </c>
+      <c r="B6" t="s">
+        <v>516</v>
+      </c>
+      <c r="C6" t="s">
+        <v>517</v>
+      </c>
+      <c r="D6" t="s">
+        <v>518</v>
+      </c>
+      <c r="E6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" t="s">
+        <v>519</v>
+      </c>
+      <c r="G6" t="s">
+        <v>520</v>
+      </c>
+      <c r="H6" t="s">
+        <v>521</v>
+      </c>
+      <c r="I6" t="s">
+        <v>522</v>
+      </c>
+      <c r="J6" t="s">
+        <v>523</v>
+      </c>
+      <c r="K6" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>525</v>
+      </c>
+      <c r="B7" t="s">
+        <v>526</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" t="s">
+        <v>527</v>
+      </c>
+      <c r="E7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" t="s">
+        <v>528</v>
+      </c>
+      <c r="G7" t="s">
+        <v>529</v>
+      </c>
+      <c r="H7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I7" t="s">
+        <v>530</v>
+      </c>
+      <c r="J7" t="s">
+        <v>531</v>
+      </c>
+      <c r="K7" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>533</v>
+      </c>
+      <c r="B8" t="s">
+        <v>534</v>
+      </c>
+      <c r="C8" t="s">
+        <v>535</v>
+      </c>
+      <c r="D8" t="s">
+        <v>536</v>
+      </c>
+      <c r="E8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" t="s">
+        <v>537</v>
+      </c>
+      <c r="G8" t="s">
+        <v>538</v>
+      </c>
+      <c r="H8" t="s">
+        <v>539</v>
+      </c>
+      <c r="I8" t="s">
+        <v>540</v>
+      </c>
+      <c r="J8" t="s">
+        <v>541</v>
+      </c>
+      <c r="K8" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>543</v>
+      </c>
+      <c r="B9" t="s">
+        <v>544</v>
+      </c>
+      <c r="C9" t="s">
+        <v>545</v>
+      </c>
+      <c r="D9" t="s">
+        <v>546</v>
+      </c>
+      <c r="E9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" t="s">
+        <v>547</v>
+      </c>
+      <c r="G9" t="s">
+        <v>548</v>
+      </c>
+      <c r="H9" t="s">
+        <v>549</v>
+      </c>
+      <c r="I9" t="s">
+        <v>550</v>
+      </c>
+      <c r="J9" t="s">
+        <v>551</v>
+      </c>
+      <c r="K9" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>553</v>
+      </c>
+      <c r="B10" t="s">
+        <v>554</v>
+      </c>
+      <c r="C10" t="s">
+        <v>394</v>
+      </c>
+      <c r="D10" t="s">
+        <v>555</v>
+      </c>
+      <c r="E10" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" t="s">
+        <v>397</v>
+      </c>
+      <c r="G10" t="s">
+        <v>556</v>
+      </c>
+      <c r="H10" t="s">
+        <v>557</v>
+      </c>
+      <c r="I10" t="s">
+        <v>400</v>
+      </c>
+      <c r="J10" t="s">
+        <v>558</v>
+      </c>
+      <c r="K10" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>559</v>
+      </c>
+      <c r="B11" t="s">
         <v>468</v>
       </c>
-      <c r="G4" t="s">
+      <c r="C11" t="s">
         <v>469</v>
       </c>
-      <c r="H4" t="s">
+      <c r="D11" t="s">
         <v>470</v>
       </c>
-      <c r="I4" t="s">
+      <c r="E11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" t="s">
         <v>471</v>
       </c>
-      <c r="J4" t="s">
+      <c r="G11" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
+      <c r="H11" t="s">
         <v>473</v>
       </c>
-      <c r="B5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" t="s">
-        <v>474</v>
-      </c>
-      <c r="E5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F5" t="s">
-        <v>97</v>
-      </c>
-      <c r="G5" t="s">
-        <v>99</v>
-      </c>
-      <c r="H5" t="s">
-        <v>100</v>
-      </c>
-      <c r="I5" t="s">
-        <v>101</v>
-      </c>
-      <c r="J5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
+      <c r="I11" t="s">
+        <v>468</v>
+      </c>
+      <c r="J11" t="s">
+        <v>560</v>
+      </c>
+      <c r="K11" t="s">
         <v>475</v>
       </c>
-      <c r="B6" t="s">
-        <v>476</v>
-      </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>561</v>
+      </c>
+      <c r="B12" t="s">
         <v>477</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C12" t="s">
         <v>478</v>
       </c>
-      <c r="E6" t="s">
-        <v>90</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="D12" t="s">
         <v>479</v>
       </c>
-      <c r="G6" t="s">
+      <c r="E12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" t="s">
         <v>480</v>
       </c>
-      <c r="H6" t="s">
+      <c r="G12" t="s">
         <v>481</v>
       </c>
-      <c r="I6" t="s">
+      <c r="H12" t="s">
         <v>482</v>
       </c>
-      <c r="J6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>484</v>
-      </c>
-      <c r="B7" t="s">
-        <v>485</v>
-      </c>
-      <c r="C7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" t="s">
-        <v>486</v>
-      </c>
-      <c r="E7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F7" t="s">
-        <v>487</v>
-      </c>
-      <c r="G7" t="s">
-        <v>488</v>
-      </c>
-      <c r="H7" t="s">
-        <v>92</v>
-      </c>
-      <c r="I7" t="s">
-        <v>489</v>
-      </c>
-      <c r="J7" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="s">
-        <v>491</v>
-      </c>
-      <c r="B8" t="s">
-        <v>492</v>
-      </c>
-      <c r="C8" t="s">
-        <v>493</v>
-      </c>
-      <c r="D8" t="s">
-        <v>494</v>
-      </c>
-      <c r="E8" t="s">
-        <v>90</v>
-      </c>
-      <c r="F8" t="s">
-        <v>495</v>
-      </c>
-      <c r="G8" t="s">
-        <v>496</v>
-      </c>
-      <c r="H8" t="s">
-        <v>497</v>
-      </c>
-      <c r="I8" t="s">
-        <v>498</v>
-      </c>
-      <c r="J8" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>500</v>
-      </c>
-      <c r="B9" t="s">
-        <v>501</v>
-      </c>
-      <c r="C9" t="s">
-        <v>502</v>
-      </c>
-      <c r="D9" t="s">
-        <v>503</v>
-      </c>
-      <c r="E9" t="s">
-        <v>90</v>
-      </c>
-      <c r="F9" t="s">
-        <v>504</v>
-      </c>
-      <c r="G9" t="s">
-        <v>505</v>
-      </c>
-      <c r="H9" t="s">
-        <v>506</v>
-      </c>
-      <c r="I9" t="s">
-        <v>507</v>
-      </c>
-      <c r="J9" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
-        <v>509</v>
-      </c>
-      <c r="B10" t="s">
-        <v>510</v>
-      </c>
-      <c r="C10" t="s">
-        <v>365</v>
-      </c>
-      <c r="D10" t="s">
-        <v>511</v>
-      </c>
-      <c r="E10" t="s">
-        <v>90</v>
-      </c>
-      <c r="F10" t="s">
-        <v>368</v>
-      </c>
-      <c r="G10" t="s">
-        <v>512</v>
-      </c>
-      <c r="H10" t="s">
-        <v>513</v>
-      </c>
-      <c r="I10" t="s">
-        <v>371</v>
-      </c>
-      <c r="J10" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" t="s">
-        <v>515</v>
-      </c>
-      <c r="B11" t="s">
-        <v>433</v>
-      </c>
-      <c r="C11" t="s">
-        <v>434</v>
-      </c>
-      <c r="D11" t="s">
-        <v>435</v>
-      </c>
-      <c r="E11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F11" t="s">
-        <v>436</v>
-      </c>
-      <c r="G11" t="s">
-        <v>437</v>
-      </c>
-      <c r="H11" t="s">
-        <v>438</v>
-      </c>
-      <c r="I11" t="s">
-        <v>433</v>
-      </c>
-      <c r="J11" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" t="s">
-        <v>517</v>
-      </c>
-      <c r="B12" t="s">
-        <v>441</v>
-      </c>
-      <c r="C12" t="s">
-        <v>442</v>
-      </c>
-      <c r="D12" t="s">
-        <v>443</v>
-      </c>
-      <c r="E12" t="s">
-        <v>90</v>
-      </c>
-      <c r="F12" t="s">
-        <v>444</v>
-      </c>
-      <c r="G12" t="s">
-        <v>445</v>
-      </c>
-      <c r="H12" t="s">
-        <v>446</v>
-      </c>
       <c r="I12" t="s">
-        <v>441</v>
+        <v>477</v>
       </c>
       <c r="J12" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>562</v>
+      </c>
+      <c r="K12" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>519</v>
+        <v>564</v>
       </c>
       <c r="B13" t="s">
-        <v>520</v>
+        <v>565</v>
       </c>
       <c r="C13" t="s">
-        <v>521</v>
+        <v>566</v>
       </c>
       <c r="D13" t="s">
-        <v>522</v>
+        <v>567</v>
       </c>
       <c r="E13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F13" t="s">
-        <v>523</v>
+        <v>568</v>
       </c>
       <c r="G13" t="s">
-        <v>524</v>
+        <v>569</v>
       </c>
       <c r="H13" t="s">
-        <v>525</v>
+        <v>570</v>
       </c>
       <c r="I13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J13" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>571</v>
+      </c>
+      <c r="K13" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>527</v>
+        <v>573</v>
       </c>
       <c r="B14" t="s">
-        <v>528</v>
+        <v>574</v>
       </c>
       <c r="C14" t="s">
-        <v>529</v>
+        <v>575</v>
       </c>
       <c r="D14" t="s">
-        <v>530</v>
+        <v>576</v>
       </c>
       <c r="E14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F14" t="s">
-        <v>531</v>
+        <v>577</v>
       </c>
       <c r="G14" t="s">
-        <v>532</v>
+        <v>578</v>
       </c>
       <c r="H14" t="s">
-        <v>533</v>
+        <v>579</v>
       </c>
       <c r="I14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J14" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>580</v>
+      </c>
+      <c r="K14" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>535</v>
+        <v>582</v>
       </c>
       <c r="B15" t="s">
-        <v>536</v>
+        <v>583</v>
       </c>
       <c r="C15" t="s">
-        <v>537</v>
+        <v>584</v>
       </c>
       <c r="D15" t="s">
-        <v>538</v>
+        <v>585</v>
       </c>
       <c r="E15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F15" t="s">
-        <v>539</v>
+        <v>586</v>
       </c>
       <c r="G15" t="s">
-        <v>540</v>
+        <v>587</v>
       </c>
       <c r="H15" t="s">
-        <v>541</v>
+        <v>588</v>
       </c>
       <c r="I15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J15" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>589</v>
+      </c>
+      <c r="K15" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>543</v>
+        <v>591</v>
       </c>
       <c r="B16" t="s">
-        <v>544</v>
+        <v>592</v>
       </c>
       <c r="C16" t="s">
-        <v>545</v>
+        <v>593</v>
       </c>
       <c r="D16" t="s">
-        <v>546</v>
+        <v>594</v>
       </c>
       <c r="E16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F16" t="s">
-        <v>547</v>
+        <v>595</v>
       </c>
       <c r="G16" t="s">
-        <v>548</v>
+        <v>596</v>
       </c>
       <c r="H16" t="s">
-        <v>549</v>
+        <v>597</v>
       </c>
       <c r="I16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J16" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>598</v>
+      </c>
+      <c r="K16" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>551</v>
+        <v>600</v>
       </c>
       <c r="B17" t="s">
-        <v>552</v>
+        <v>601</v>
       </c>
       <c r="C17" t="s">
-        <v>553</v>
+        <v>602</v>
       </c>
       <c r="D17" t="s">
-        <v>554</v>
+        <v>603</v>
       </c>
       <c r="E17" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F17" t="s">
-        <v>555</v>
+        <v>604</v>
       </c>
       <c r="G17" t="s">
-        <v>556</v>
+        <v>605</v>
       </c>
       <c r="H17" t="s">
-        <v>557</v>
+        <v>606</v>
       </c>
       <c r="I17" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J17" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>607</v>
+      </c>
+      <c r="K17" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>559</v>
+        <v>609</v>
       </c>
       <c r="B18" t="s">
-        <v>560</v>
+        <v>610</v>
       </c>
       <c r="C18" t="s">
-        <v>561</v>
+        <v>611</v>
       </c>
       <c r="D18" t="s">
-        <v>562</v>
+        <v>612</v>
       </c>
       <c r="E18" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F18" t="s">
-        <v>563</v>
+        <v>613</v>
       </c>
       <c r="G18" t="s">
-        <v>564</v>
+        <v>614</v>
       </c>
       <c r="H18" t="s">
-        <v>565</v>
+        <v>615</v>
       </c>
       <c r="I18" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J18" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>616</v>
+      </c>
+      <c r="K18" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>567</v>
+        <v>618</v>
       </c>
       <c r="B19" t="s">
-        <v>568</v>
+        <v>619</v>
       </c>
       <c r="C19" t="s">
-        <v>569</v>
+        <v>620</v>
       </c>
       <c r="D19" t="s">
-        <v>570</v>
+        <v>621</v>
       </c>
       <c r="E19" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F19" t="s">
-        <v>571</v>
+        <v>622</v>
       </c>
       <c r="G19" t="s">
-        <v>572</v>
+        <v>623</v>
       </c>
       <c r="H19" t="s">
-        <v>573</v>
+        <v>624</v>
       </c>
       <c r="I19" t="s">
-        <v>574</v>
+        <v>625</v>
       </c>
       <c r="J19" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>626</v>
+      </c>
+      <c r="K19" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>576</v>
+        <v>628</v>
       </c>
       <c r="B20" t="s">
-        <v>577</v>
+        <v>629</v>
       </c>
       <c r="C20" t="s">
-        <v>578</v>
+        <v>630</v>
       </c>
       <c r="D20" t="s">
-        <v>579</v>
+        <v>631</v>
       </c>
       <c r="E20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F20" t="s">
-        <v>580</v>
+        <v>632</v>
       </c>
       <c r="G20" t="s">
-        <v>581</v>
+        <v>633</v>
       </c>
       <c r="H20" t="s">
-        <v>582</v>
+        <v>634</v>
       </c>
       <c r="I20" t="s">
-        <v>583</v>
+        <v>635</v>
       </c>
       <c r="J20" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>636</v>
+      </c>
+      <c r="K20" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>585</v>
+        <v>638</v>
       </c>
       <c r="B21" t="s">
-        <v>586</v>
+        <v>639</v>
       </c>
       <c r="C21" t="s">
-        <v>587</v>
+        <v>640</v>
       </c>
       <c r="D21" t="s">
-        <v>588</v>
+        <v>641</v>
       </c>
       <c r="E21" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F21" t="s">
-        <v>589</v>
+        <v>642</v>
       </c>
       <c r="G21" t="s">
-        <v>590</v>
+        <v>643</v>
       </c>
       <c r="H21" t="s">
-        <v>591</v>
+        <v>644</v>
       </c>
       <c r="I21" t="s">
-        <v>592</v>
+        <v>645</v>
       </c>
       <c r="J21" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>646</v>
+      </c>
+      <c r="K21" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>594</v>
+        <v>648</v>
       </c>
       <c r="B22" t="s">
-        <v>595</v>
+        <v>649</v>
       </c>
       <c r="C22" t="s">
-        <v>596</v>
+        <v>650</v>
       </c>
       <c r="D22" t="s">
-        <v>597</v>
+        <v>651</v>
       </c>
       <c r="E22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F22" t="s">
-        <v>598</v>
+        <v>652</v>
       </c>
       <c r="G22" t="s">
-        <v>599</v>
+        <v>653</v>
       </c>
       <c r="H22" t="s">
-        <v>600</v>
+        <v>654</v>
       </c>
       <c r="I22" t="s">
-        <v>601</v>
+        <v>655</v>
       </c>
       <c r="J22" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>656</v>
+      </c>
+      <c r="K22" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>603</v>
+        <v>658</v>
       </c>
       <c r="B23" t="s">
-        <v>604</v>
+        <v>659</v>
       </c>
       <c r="C23" t="s">
-        <v>605</v>
+        <v>660</v>
       </c>
       <c r="D23" t="s">
-        <v>606</v>
+        <v>661</v>
       </c>
       <c r="E23" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F23" t="s">
-        <v>607</v>
+        <v>662</v>
       </c>
       <c r="G23" t="s">
-        <v>608</v>
+        <v>663</v>
       </c>
       <c r="H23" t="s">
-        <v>609</v>
+        <v>664</v>
       </c>
       <c r="I23" t="s">
-        <v>610</v>
+        <v>665</v>
       </c>
       <c r="J23" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>666</v>
+      </c>
+      <c r="K23" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>612</v>
+        <v>668</v>
       </c>
       <c r="B24" t="s">
-        <v>613</v>
+        <v>669</v>
       </c>
       <c r="C24" t="s">
-        <v>614</v>
+        <v>670</v>
       </c>
       <c r="D24" t="s">
-        <v>615</v>
+        <v>671</v>
       </c>
       <c r="E24" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F24" t="s">
-        <v>616</v>
+        <v>672</v>
       </c>
       <c r="G24" t="s">
-        <v>617</v>
+        <v>673</v>
       </c>
       <c r="H24" t="s">
-        <v>618</v>
+        <v>674</v>
       </c>
       <c r="I24" t="s">
-        <v>619</v>
+        <v>675</v>
       </c>
       <c r="J24" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>676</v>
+      </c>
+      <c r="K24" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>621</v>
+        <v>678</v>
       </c>
       <c r="B25" t="s">
-        <v>622</v>
+        <v>679</v>
       </c>
       <c r="C25" t="s">
-        <v>623</v>
+        <v>680</v>
       </c>
       <c r="D25" t="s">
-        <v>624</v>
+        <v>681</v>
       </c>
       <c r="E25" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F25" t="s">
-        <v>625</v>
+        <v>682</v>
       </c>
       <c r="G25" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H25" t="s">
-        <v>626</v>
+        <v>683</v>
       </c>
       <c r="I25" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J25" t="s">
-        <v>627</v>
+        <v>684</v>
+      </c>
+      <c r="K25" t="s">
+        <v>685</v>
       </c>
     </row>
   </sheetData>
@@ -6475,394 +7089,430 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" t="s">
+      <c r="I1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" t="s">
+      <c r="J1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" t="s">
+      <c r="K1" t="s">
         <v>49</v>
       </c>
-      <c r="E1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>628</v>
+        <v>686</v>
       </c>
       <c r="C2" t="s">
-        <v>629</v>
+        <v>687</v>
       </c>
       <c r="D2" t="s">
-        <v>630</v>
+        <v>688</v>
       </c>
       <c r="E2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F2" t="s">
-        <v>630</v>
+        <v>688</v>
       </c>
       <c r="G2" t="s">
-        <v>631</v>
+        <v>689</v>
       </c>
       <c r="H2" t="s">
-        <v>632</v>
+        <v>690</v>
       </c>
       <c r="I2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>691</v>
+      </c>
+      <c r="K2" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>113</v>
       </c>
       <c r="B3" t="s">
-        <v>634</v>
+        <v>693</v>
       </c>
       <c r="C3" t="s">
-        <v>635</v>
+        <v>694</v>
       </c>
       <c r="D3" t="s">
-        <v>636</v>
+        <v>695</v>
       </c>
       <c r="E3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F3" t="s">
-        <v>636</v>
+        <v>695</v>
       </c>
       <c r="G3" t="s">
-        <v>637</v>
+        <v>696</v>
       </c>
       <c r="H3" t="s">
-        <v>638</v>
+        <v>697</v>
       </c>
       <c r="I3" t="s">
-        <v>639</v>
+        <v>698</v>
       </c>
       <c r="J3" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>699</v>
+      </c>
+      <c r="K3" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>464</v>
+        <v>503</v>
       </c>
       <c r="B4" t="s">
-        <v>465</v>
+        <v>504</v>
       </c>
       <c r="C4" t="s">
-        <v>466</v>
+        <v>505</v>
       </c>
       <c r="D4" t="s">
-        <v>641</v>
+        <v>701</v>
       </c>
       <c r="E4" t="s">
-        <v>642</v>
+        <v>702</v>
       </c>
       <c r="F4" t="s">
-        <v>641</v>
+        <v>701</v>
       </c>
       <c r="G4" t="s">
-        <v>469</v>
+        <v>508</v>
       </c>
       <c r="H4" t="s">
-        <v>470</v>
+        <v>509</v>
       </c>
       <c r="I4" t="s">
-        <v>643</v>
+        <v>703</v>
       </c>
       <c r="J4" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>704</v>
+      </c>
+      <c r="K4" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="B5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" t="s">
         <v>95</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>96</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" t="s">
         <v>97</v>
       </c>
-      <c r="E5" t="s">
+      <c r="H5" t="s">
         <v>98</v>
       </c>
-      <c r="F5" t="s">
-        <v>97</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>99</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>100</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>101</v>
       </c>
-      <c r="J5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>475</v>
+        <v>515</v>
       </c>
       <c r="B6" t="s">
-        <v>476</v>
+        <v>516</v>
       </c>
       <c r="C6" t="s">
-        <v>477</v>
+        <v>517</v>
       </c>
       <c r="D6" t="s">
-        <v>645</v>
+        <v>705</v>
       </c>
       <c r="E6" t="s">
-        <v>646</v>
+        <v>706</v>
       </c>
       <c r="F6" t="s">
-        <v>645</v>
+        <v>705</v>
       </c>
       <c r="G6" t="s">
-        <v>647</v>
+        <v>707</v>
       </c>
       <c r="H6" t="s">
-        <v>481</v>
+        <v>521</v>
       </c>
       <c r="I6" t="s">
-        <v>648</v>
+        <v>708</v>
       </c>
       <c r="J6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>523</v>
+      </c>
+      <c r="K6" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>484</v>
+        <v>525</v>
       </c>
       <c r="B7" t="s">
-        <v>485</v>
+        <v>526</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D7" t="s">
-        <v>487</v>
+        <v>528</v>
       </c>
       <c r="E7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F7" t="s">
-        <v>487</v>
+        <v>528</v>
       </c>
       <c r="G7" t="s">
-        <v>649</v>
+        <v>709</v>
       </c>
       <c r="H7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I7" t="s">
-        <v>489</v>
+        <v>530</v>
       </c>
       <c r="J7" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>531</v>
+      </c>
+      <c r="K7" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>650</v>
+        <v>710</v>
       </c>
       <c r="B8" t="s">
-        <v>651</v>
+        <v>711</v>
       </c>
       <c r="C8" t="s">
-        <v>652</v>
+        <v>712</v>
       </c>
       <c r="D8" t="s">
-        <v>653</v>
+        <v>713</v>
       </c>
       <c r="E8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F8" t="s">
-        <v>653</v>
+        <v>713</v>
       </c>
       <c r="G8" t="s">
-        <v>654</v>
+        <v>714</v>
       </c>
       <c r="H8" t="s">
-        <v>655</v>
+        <v>715</v>
       </c>
       <c r="I8" t="s">
-        <v>656</v>
+        <v>716</v>
       </c>
       <c r="J8" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>717</v>
+      </c>
+      <c r="K8" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>658</v>
+        <v>719</v>
       </c>
       <c r="B9" t="s">
-        <v>659</v>
+        <v>720</v>
       </c>
       <c r="C9" t="s">
-        <v>660</v>
+        <v>721</v>
       </c>
       <c r="D9" t="s">
-        <v>661</v>
+        <v>722</v>
       </c>
       <c r="E9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F9" t="s">
-        <v>661</v>
+        <v>722</v>
       </c>
       <c r="G9" t="s">
-        <v>662</v>
+        <v>723</v>
       </c>
       <c r="H9" t="s">
-        <v>663</v>
+        <v>724</v>
       </c>
       <c r="I9" t="s">
-        <v>664</v>
+        <v>725</v>
       </c>
       <c r="J9" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>726</v>
+      </c>
+      <c r="K9" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>666</v>
+        <v>728</v>
       </c>
       <c r="B10" t="s">
-        <v>667</v>
+        <v>729</v>
       </c>
       <c r="C10" t="s">
-        <v>668</v>
+        <v>730</v>
       </c>
       <c r="D10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F10" t="s">
-        <v>90</v>
+        <v>731</v>
       </c>
       <c r="G10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J10" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>732</v>
+      </c>
+      <c r="K10" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>670</v>
+        <v>734</v>
       </c>
       <c r="B11" t="s">
-        <v>671</v>
+        <v>735</v>
       </c>
       <c r="C11" t="s">
-        <v>672</v>
+        <v>736</v>
       </c>
       <c r="D11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F11" t="s">
-        <v>90</v>
+        <v>737</v>
       </c>
       <c r="G11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J11" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>738</v>
+      </c>
+      <c r="K11" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>674</v>
+        <v>740</v>
       </c>
       <c r="B12" t="s">
-        <v>675</v>
+        <v>741</v>
       </c>
       <c r="C12" t="s">
-        <v>676</v>
+        <v>742</v>
       </c>
       <c r="D12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F12" t="s">
-        <v>90</v>
+        <v>743</v>
       </c>
       <c r="G12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J12" t="s">
-        <v>677</v>
+        <v>744</v>
+      </c>
+      <c r="K12" t="s">
+        <v>745</v>
       </c>
     </row>
   </sheetData>
@@ -6872,330 +7522,360 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" t="s">
+      <c r="I1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" t="s">
+      <c r="J1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" t="s">
+      <c r="K1" t="s">
         <v>49</v>
       </c>
-      <c r="E1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>678</v>
+        <v>746</v>
       </c>
       <c r="D2" t="s">
-        <v>679</v>
+        <v>747</v>
       </c>
       <c r="E2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F2" t="s">
-        <v>680</v>
+        <v>748</v>
       </c>
       <c r="G2" t="s">
-        <v>681</v>
+        <v>749</v>
       </c>
       <c r="H2" t="s">
-        <v>682</v>
+        <v>750</v>
       </c>
       <c r="I2" t="s">
-        <v>683</v>
+        <v>751</v>
       </c>
       <c r="J2" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>752</v>
+      </c>
+      <c r="K2" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>113</v>
       </c>
       <c r="B3" t="s">
-        <v>685</v>
+        <v>754</v>
       </c>
       <c r="C3" t="s">
-        <v>686</v>
+        <v>755</v>
       </c>
       <c r="D3" t="s">
-        <v>687</v>
+        <v>756</v>
       </c>
       <c r="E3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F3" t="s">
-        <v>688</v>
+        <v>757</v>
       </c>
       <c r="G3" t="s">
-        <v>689</v>
+        <v>758</v>
       </c>
       <c r="H3" t="s">
-        <v>690</v>
+        <v>759</v>
       </c>
       <c r="I3" t="s">
-        <v>691</v>
+        <v>760</v>
       </c>
       <c r="J3" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>761</v>
+      </c>
+      <c r="K3" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>693</v>
+        <v>763</v>
       </c>
       <c r="B4" t="s">
-        <v>694</v>
+        <v>764</v>
       </c>
       <c r="C4" t="s">
-        <v>695</v>
+        <v>765</v>
       </c>
       <c r="D4" t="s">
-        <v>696</v>
+        <v>766</v>
       </c>
       <c r="E4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F4" t="s">
-        <v>697</v>
+        <v>767</v>
       </c>
       <c r="G4" t="s">
-        <v>698</v>
+        <v>768</v>
       </c>
       <c r="H4" t="s">
-        <v>699</v>
+        <v>769</v>
       </c>
       <c r="I4" t="s">
-        <v>700</v>
+        <v>770</v>
       </c>
       <c r="J4" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>771</v>
+      </c>
+      <c r="K4" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>702</v>
+        <v>773</v>
       </c>
       <c r="B5" t="s">
-        <v>703</v>
+        <v>774</v>
       </c>
       <c r="C5" t="s">
-        <v>704</v>
+        <v>775</v>
       </c>
       <c r="D5" t="s">
-        <v>705</v>
+        <v>776</v>
       </c>
       <c r="E5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F5" t="s">
-        <v>706</v>
+        <v>777</v>
       </c>
       <c r="G5" t="s">
-        <v>707</v>
+        <v>778</v>
       </c>
       <c r="H5" t="s">
-        <v>708</v>
+        <v>779</v>
       </c>
       <c r="I5" t="s">
-        <v>709</v>
+        <v>780</v>
       </c>
       <c r="J5" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>781</v>
+      </c>
+      <c r="K5" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>711</v>
+        <v>783</v>
       </c>
       <c r="B6" t="s">
-        <v>712</v>
+        <v>784</v>
       </c>
       <c r="C6" t="s">
-        <v>713</v>
+        <v>785</v>
       </c>
       <c r="D6" t="s">
-        <v>714</v>
+        <v>786</v>
       </c>
       <c r="E6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F6" t="s">
-        <v>715</v>
+        <v>787</v>
       </c>
       <c r="G6" t="s">
-        <v>716</v>
+        <v>788</v>
       </c>
       <c r="H6" t="s">
-        <v>717</v>
+        <v>789</v>
       </c>
       <c r="I6" t="s">
-        <v>718</v>
+        <v>790</v>
       </c>
       <c r="J6" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>791</v>
+      </c>
+      <c r="K6" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>720</v>
+        <v>793</v>
       </c>
       <c r="B7" t="s">
-        <v>721</v>
+        <v>794</v>
       </c>
       <c r="C7" t="s">
-        <v>722</v>
+        <v>795</v>
       </c>
       <c r="D7" t="s">
-        <v>723</v>
+        <v>796</v>
       </c>
       <c r="E7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F7" t="s">
-        <v>721</v>
+        <v>794</v>
       </c>
       <c r="G7" t="s">
-        <v>724</v>
+        <v>797</v>
       </c>
       <c r="H7" t="s">
-        <v>725</v>
+        <v>798</v>
       </c>
       <c r="I7" t="s">
-        <v>726</v>
+        <v>799</v>
       </c>
       <c r="J7" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>800</v>
+      </c>
+      <c r="K7" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>728</v>
+        <v>802</v>
       </c>
       <c r="B8" t="s">
-        <v>729</v>
+        <v>803</v>
       </c>
       <c r="C8" t="s">
-        <v>730</v>
+        <v>804</v>
       </c>
       <c r="D8" t="s">
-        <v>731</v>
+        <v>805</v>
       </c>
       <c r="E8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F8" t="s">
-        <v>732</v>
+        <v>806</v>
       </c>
       <c r="G8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H8" t="s">
-        <v>733</v>
+        <v>807</v>
       </c>
       <c r="I8" t="s">
-        <v>734</v>
+        <v>808</v>
       </c>
       <c r="J8" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>809</v>
+      </c>
+      <c r="K8" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>736</v>
+        <v>811</v>
       </c>
       <c r="B9" t="s">
-        <v>737</v>
+        <v>812</v>
       </c>
       <c r="C9" t="s">
-        <v>738</v>
+        <v>813</v>
       </c>
       <c r="D9" t="s">
-        <v>739</v>
+        <v>814</v>
       </c>
       <c r="E9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F9" t="s">
-        <v>740</v>
+        <v>815</v>
       </c>
       <c r="G9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H9" t="s">
-        <v>741</v>
+        <v>816</v>
       </c>
       <c r="I9" t="s">
-        <v>742</v>
+        <v>817</v>
       </c>
       <c r="J9" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>818</v>
+      </c>
+      <c r="K9" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>744</v>
+        <v>820</v>
       </c>
       <c r="B10" t="s">
-        <v>745</v>
+        <v>821</v>
       </c>
       <c r="C10" t="s">
-        <v>746</v>
+        <v>822</v>
       </c>
       <c r="D10" t="s">
-        <v>90</v>
+        <v>823</v>
       </c>
       <c r="E10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F10" t="s">
-        <v>90</v>
+        <v>824</v>
       </c>
       <c r="G10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H10" t="s">
-        <v>90</v>
+        <v>825</v>
       </c>
       <c r="I10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J10" t="s">
-        <v>747</v>
+        <v>826</v>
+      </c>
+      <c r="K10" t="s">
+        <v>827</v>
       </c>
     </row>
   </sheetData>
@@ -7205,234 +7885,255 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" t="s">
+      <c r="I1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" t="s">
+      <c r="J1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" t="s">
+      <c r="K1" t="s">
         <v>49</v>
       </c>
-      <c r="E1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>748</v>
+        <v>828</v>
       </c>
       <c r="C2" t="s">
-        <v>749</v>
+        <v>829</v>
       </c>
       <c r="D2" t="s">
-        <v>750</v>
+        <v>830</v>
       </c>
       <c r="E2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F2" t="s">
-        <v>751</v>
+        <v>831</v>
       </c>
       <c r="G2" t="s">
-        <v>752</v>
+        <v>832</v>
       </c>
       <c r="H2" t="s">
-        <v>753</v>
+        <v>833</v>
       </c>
       <c r="I2" t="s">
-        <v>754</v>
+        <v>834</v>
       </c>
       <c r="J2" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>835</v>
+      </c>
+      <c r="K2" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>113</v>
       </c>
       <c r="B3" t="s">
-        <v>756</v>
+        <v>837</v>
       </c>
       <c r="C3" t="s">
-        <v>757</v>
+        <v>838</v>
       </c>
       <c r="D3" t="s">
-        <v>758</v>
+        <v>839</v>
       </c>
       <c r="E3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F3" t="s">
-        <v>759</v>
+        <v>840</v>
       </c>
       <c r="G3" t="s">
-        <v>760</v>
+        <v>841</v>
       </c>
       <c r="H3" t="s">
-        <v>761</v>
+        <v>842</v>
       </c>
       <c r="I3" t="s">
-        <v>762</v>
+        <v>843</v>
       </c>
       <c r="J3" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>844</v>
+      </c>
+      <c r="K3" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>764</v>
+        <v>846</v>
       </c>
       <c r="B4" t="s">
-        <v>765</v>
+        <v>847</v>
       </c>
       <c r="C4" t="s">
-        <v>766</v>
+        <v>848</v>
       </c>
       <c r="D4" t="s">
-        <v>767</v>
+        <v>849</v>
       </c>
       <c r="E4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F4" t="s">
-        <v>768</v>
+        <v>850</v>
       </c>
       <c r="G4" t="s">
-        <v>769</v>
+        <v>851</v>
       </c>
       <c r="H4" t="s">
-        <v>770</v>
+        <v>852</v>
       </c>
       <c r="I4" t="s">
-        <v>765</v>
+        <v>847</v>
       </c>
       <c r="J4" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>853</v>
+      </c>
+      <c r="K4" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>772</v>
+        <v>855</v>
       </c>
       <c r="B5" t="s">
-        <v>773</v>
+        <v>856</v>
       </c>
       <c r="C5" t="s">
-        <v>774</v>
+        <v>857</v>
       </c>
       <c r="D5" t="s">
-        <v>775</v>
+        <v>858</v>
       </c>
       <c r="E5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F5" t="s">
-        <v>776</v>
+        <v>859</v>
       </c>
       <c r="G5" t="s">
-        <v>777</v>
+        <v>860</v>
       </c>
       <c r="H5" t="s">
-        <v>778</v>
+        <v>861</v>
       </c>
       <c r="I5" t="s">
-        <v>773</v>
+        <v>856</v>
       </c>
       <c r="J5" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>862</v>
+      </c>
+      <c r="K5" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>780</v>
+        <v>864</v>
       </c>
       <c r="B6" t="s">
-        <v>781</v>
+        <v>865</v>
       </c>
       <c r="C6" t="s">
-        <v>782</v>
+        <v>866</v>
       </c>
       <c r="D6" t="s">
-        <v>783</v>
+        <v>867</v>
       </c>
       <c r="E6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F6" t="s">
-        <v>784</v>
+        <v>868</v>
       </c>
       <c r="G6" t="s">
-        <v>785</v>
+        <v>869</v>
       </c>
       <c r="H6" t="s">
-        <v>786</v>
+        <v>870</v>
       </c>
       <c r="I6" t="s">
-        <v>787</v>
+        <v>871</v>
       </c>
       <c r="J6" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>872</v>
+      </c>
+      <c r="K6" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>789</v>
+        <v>874</v>
       </c>
       <c r="B7" t="s">
-        <v>790</v>
+        <v>875</v>
       </c>
       <c r="C7" t="s">
-        <v>791</v>
+        <v>876</v>
       </c>
       <c r="D7" t="s">
-        <v>792</v>
+        <v>877</v>
       </c>
       <c r="E7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F7" t="s">
-        <v>793</v>
+        <v>878</v>
       </c>
       <c r="G7" t="s">
-        <v>794</v>
+        <v>879</v>
       </c>
       <c r="H7" t="s">
-        <v>795</v>
+        <v>880</v>
       </c>
       <c r="I7" t="s">
-        <v>796</v>
+        <v>881</v>
       </c>
       <c r="J7" t="s">
-        <v>797</v>
+        <v>882</v>
+      </c>
+      <c r="K7" t="s">
+        <v>883</v>
       </c>
     </row>
   </sheetData>

--- a/AdofaiTweaks.Generator/translations.xlsx
+++ b/AdofaiTweaks.Generator/translations.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1453" uniqueCount="1005">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="1007">
   <si>
     <t>Translation Status</t>
   </si>
@@ -2154,6 +2154,12 @@
   </si>
   <si>
     <t>Thay đổi phím</t>
+  </si>
+  <si>
+    <t>CLEAR_ALL_KEYS</t>
+  </si>
+  <si>
+    <t>Clear All Keys</t>
   </si>
   <si>
     <t>LIMIT_CLS</t>
@@ -3789,34 +3795,34 @@
         <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="C2" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="D2" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="E2" t="s">
         <v>87</v>
       </c>
       <c r="F2" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="G2" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="H2" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="I2" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="J2" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="K2" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -3824,209 +3830,209 @@
         <v>113</v>
       </c>
       <c r="B3" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="C3" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="D3" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="E3" t="s">
         <v>87</v>
       </c>
       <c r="F3" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="G3" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="H3" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="I3" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="J3" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="K3" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="B4" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="C4" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="D4" t="s">
+        <v>851</v>
+      </c>
+      <c r="E4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" t="s">
+        <v>852</v>
+      </c>
+      <c r="G4" t="s">
+        <v>853</v>
+      </c>
+      <c r="H4" t="s">
+        <v>854</v>
+      </c>
+      <c r="I4" t="s">
         <v>849</v>
       </c>
-      <c r="E4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F4" t="s">
-        <v>850</v>
-      </c>
-      <c r="G4" t="s">
-        <v>851</v>
-      </c>
-      <c r="H4" t="s">
-        <v>852</v>
-      </c>
-      <c r="I4" t="s">
-        <v>847</v>
-      </c>
       <c r="J4" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="K4" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="B5" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="C5" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="D5" t="s">
+        <v>860</v>
+      </c>
+      <c r="E5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" t="s">
+        <v>861</v>
+      </c>
+      <c r="G5" t="s">
+        <v>862</v>
+      </c>
+      <c r="H5" t="s">
+        <v>863</v>
+      </c>
+      <c r="I5" t="s">
         <v>858</v>
       </c>
-      <c r="E5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F5" t="s">
-        <v>859</v>
-      </c>
-      <c r="G5" t="s">
-        <v>860</v>
-      </c>
-      <c r="H5" t="s">
-        <v>861</v>
-      </c>
-      <c r="I5" t="s">
-        <v>856</v>
-      </c>
       <c r="J5" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="K5" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="B6" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="C6" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="D6" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="E6" t="s">
         <v>87</v>
       </c>
       <c r="F6" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="G6" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="H6" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="I6" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="J6" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="K6" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="B7" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="C7" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="D7" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="E7" t="s">
         <v>87</v>
       </c>
       <c r="F7" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="G7" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="H7" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="I7" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="J7" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="K7" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="B8" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="C8" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="D8" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="E8" t="s">
         <v>87</v>
       </c>
       <c r="F8" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="G8" t="s">
         <v>87</v>
       </c>
       <c r="H8" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="I8" t="s">
         <v>87</v>
       </c>
       <c r="J8" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="K8" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
     </row>
   </sheetData>
@@ -4082,34 +4088,34 @@
         <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="C2" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="D2" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="E2" t="s">
         <v>87</v>
       </c>
       <c r="F2" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="G2" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="H2" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="I2" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="J2" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="K2" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -4117,314 +4123,314 @@
         <v>113</v>
       </c>
       <c r="B3" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="C3" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="D3" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="E3" t="s">
         <v>87</v>
       </c>
       <c r="F3" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="G3" t="s">
         <v>87</v>
       </c>
       <c r="H3" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="I3" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="J3" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="K3" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="B4" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="C4" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="D4" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="E4" t="s">
         <v>87</v>
       </c>
       <c r="F4" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="G4" t="s">
         <v>87</v>
       </c>
       <c r="H4" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="I4" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="J4" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="K4" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="B5" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="C5" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="D5" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="E5" t="s">
         <v>87</v>
       </c>
       <c r="F5" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="G5" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="H5" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="I5" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="J5" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="K5" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="B6" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="C6" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="D6" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="E6" t="s">
         <v>87</v>
       </c>
       <c r="F6" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="G6" t="s">
         <v>87</v>
       </c>
       <c r="H6" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="I6" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="J6" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="K6" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="B7" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="C7" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="D7" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="E7" t="s">
         <v>87</v>
       </c>
       <c r="F7" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="G7" t="s">
         <v>87</v>
       </c>
       <c r="H7" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="I7" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="J7" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="K7" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="B8" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="C8" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="D8" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="E8" t="s">
         <v>87</v>
       </c>
       <c r="F8" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="G8" t="s">
         <v>87</v>
       </c>
       <c r="H8" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="I8" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="J8" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="K8" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="B9" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="C9" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="D9" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="E9" t="s">
         <v>87</v>
       </c>
       <c r="F9" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="G9" t="s">
         <v>87</v>
       </c>
       <c r="H9" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="I9" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="J9" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="K9" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="B10" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="C10" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="D10" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="E10" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="F10" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="G10" t="s">
         <v>87</v>
       </c>
       <c r="H10" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="I10" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="J10" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="K10" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="B11" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="C11" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="D11" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="E11" t="s">
         <v>87</v>
       </c>
       <c r="F11" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="G11" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="H11" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="I11" t="s">
         <v>87</v>
       </c>
       <c r="J11" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="K11" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
     </row>
   </sheetData>
@@ -7089,7 +7095,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7347,172 +7353,180 @@
       <c r="B8" t="s">
         <v>711</v>
       </c>
-      <c r="C8" t="s">
-        <v>712</v>
-      </c>
-      <c r="D8" t="s">
-        <v>713</v>
-      </c>
-      <c r="E8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F8" t="s">
-        <v>713</v>
-      </c>
-      <c r="G8" t="s">
-        <v>714</v>
-      </c>
-      <c r="H8" t="s">
-        <v>715</v>
-      </c>
-      <c r="I8" t="s">
-        <v>716</v>
-      </c>
-      <c r="J8" t="s">
-        <v>717</v>
-      </c>
-      <c r="K8" t="s">
-        <v>718</v>
-      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
+        <v>712</v>
+      </c>
+      <c r="B9" t="s">
+        <v>713</v>
+      </c>
+      <c r="C9" t="s">
+        <v>714</v>
+      </c>
+      <c r="D9" t="s">
+        <v>715</v>
+      </c>
+      <c r="E9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" t="s">
+        <v>715</v>
+      </c>
+      <c r="G9" t="s">
+        <v>716</v>
+      </c>
+      <c r="H9" t="s">
+        <v>717</v>
+      </c>
+      <c r="I9" t="s">
+        <v>718</v>
+      </c>
+      <c r="J9" t="s">
         <v>719</v>
       </c>
-      <c r="B9" t="s">
+      <c r="K9" t="s">
         <v>720</v>
-      </c>
-      <c r="C9" t="s">
-        <v>721</v>
-      </c>
-      <c r="D9" t="s">
-        <v>722</v>
-      </c>
-      <c r="E9" t="s">
-        <v>87</v>
-      </c>
-      <c r="F9" t="s">
-        <v>722</v>
-      </c>
-      <c r="G9" t="s">
-        <v>723</v>
-      </c>
-      <c r="H9" t="s">
-        <v>724</v>
-      </c>
-      <c r="I9" t="s">
-        <v>725</v>
-      </c>
-      <c r="J9" t="s">
-        <v>726</v>
-      </c>
-      <c r="K9" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
+        <v>721</v>
+      </c>
+      <c r="B10" t="s">
+        <v>722</v>
+      </c>
+      <c r="C10" t="s">
+        <v>723</v>
+      </c>
+      <c r="D10" t="s">
+        <v>724</v>
+      </c>
+      <c r="E10" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" t="s">
+        <v>724</v>
+      </c>
+      <c r="G10" t="s">
+        <v>725</v>
+      </c>
+      <c r="H10" t="s">
+        <v>726</v>
+      </c>
+      <c r="I10" t="s">
+        <v>727</v>
+      </c>
+      <c r="J10" t="s">
         <v>728</v>
       </c>
-      <c r="B10" t="s">
+      <c r="K10" t="s">
         <v>729</v>
-      </c>
-      <c r="C10" t="s">
-        <v>730</v>
-      </c>
-      <c r="D10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E10" t="s">
-        <v>87</v>
-      </c>
-      <c r="F10" t="s">
-        <v>731</v>
-      </c>
-      <c r="G10" t="s">
-        <v>87</v>
-      </c>
-      <c r="H10" t="s">
-        <v>87</v>
-      </c>
-      <c r="I10" t="s">
-        <v>87</v>
-      </c>
-      <c r="J10" t="s">
-        <v>732</v>
-      </c>
-      <c r="K10" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
+        <v>730</v>
+      </c>
+      <c r="B11" t="s">
+        <v>731</v>
+      </c>
+      <c r="C11" t="s">
+        <v>732</v>
+      </c>
+      <c r="D11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" t="s">
+        <v>733</v>
+      </c>
+      <c r="G11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H11" t="s">
+        <v>87</v>
+      </c>
+      <c r="I11" t="s">
+        <v>87</v>
+      </c>
+      <c r="J11" t="s">
         <v>734</v>
       </c>
-      <c r="B11" t="s">
+      <c r="K11" t="s">
         <v>735</v>
-      </c>
-      <c r="C11" t="s">
-        <v>736</v>
-      </c>
-      <c r="D11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E11" t="s">
-        <v>87</v>
-      </c>
-      <c r="F11" t="s">
-        <v>737</v>
-      </c>
-      <c r="G11" t="s">
-        <v>87</v>
-      </c>
-      <c r="H11" t="s">
-        <v>87</v>
-      </c>
-      <c r="I11" t="s">
-        <v>87</v>
-      </c>
-      <c r="J11" t="s">
-        <v>738</v>
-      </c>
-      <c r="K11" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
+        <v>736</v>
+      </c>
+      <c r="B12" t="s">
+        <v>737</v>
+      </c>
+      <c r="C12" t="s">
+        <v>738</v>
+      </c>
+      <c r="D12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" t="s">
+        <v>739</v>
+      </c>
+      <c r="G12" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12" t="s">
+        <v>87</v>
+      </c>
+      <c r="I12" t="s">
+        <v>87</v>
+      </c>
+      <c r="J12" t="s">
         <v>740</v>
       </c>
-      <c r="B12" t="s">
+      <c r="K12" t="s">
         <v>741</v>
       </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
         <v>742</v>
       </c>
-      <c r="D12" t="s">
-        <v>87</v>
-      </c>
-      <c r="E12" t="s">
-        <v>87</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="B13" t="s">
         <v>743</v>
       </c>
-      <c r="G12" t="s">
-        <v>87</v>
-      </c>
-      <c r="H12" t="s">
-        <v>87</v>
-      </c>
-      <c r="I12" t="s">
-        <v>87</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="C13" t="s">
         <v>744</v>
       </c>
-      <c r="K12" t="s">
+      <c r="D13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" t="s">
         <v>745</v>
+      </c>
+      <c r="G13" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" t="s">
+        <v>87</v>
+      </c>
+      <c r="I13" t="s">
+        <v>87</v>
+      </c>
+      <c r="J13" t="s">
+        <v>746</v>
+      </c>
+      <c r="K13" t="s">
+        <v>747</v>
       </c>
     </row>
   </sheetData>
@@ -7571,31 +7585,31 @@
         <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="D2" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="E2" t="s">
         <v>87</v>
       </c>
       <c r="F2" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="G2" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="H2" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="I2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="J2" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="K2" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -7603,279 +7617,279 @@
         <v>113</v>
       </c>
       <c r="B3" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="C3" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="D3" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="E3" t="s">
         <v>87</v>
       </c>
       <c r="F3" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="G3" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="H3" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="I3" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="J3" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="K3" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="B4" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="C4" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="D4" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="E4" t="s">
         <v>87</v>
       </c>
       <c r="F4" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="G4" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="H4" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="I4" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="J4" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="K4" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="B5" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="C5" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="D5" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="E5" t="s">
         <v>87</v>
       </c>
       <c r="F5" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="G5" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="H5" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="I5" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="J5" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="K5" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="B6" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="C6" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D6" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="E6" t="s">
         <v>87</v>
       </c>
       <c r="F6" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="G6" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="H6" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="I6" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="J6" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="K6" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="B7" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="C7" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="D7" t="s">
+        <v>798</v>
+      </c>
+      <c r="E7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" t="s">
         <v>796</v>
       </c>
-      <c r="E7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F7" t="s">
-        <v>794</v>
-      </c>
       <c r="G7" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="H7" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="I7" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="J7" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="K7" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="B8" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="C8" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="D8" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="E8" t="s">
         <v>87</v>
       </c>
       <c r="F8" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="G8" t="s">
         <v>87</v>
       </c>
       <c r="H8" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="I8" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="J8" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="K8" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="B9" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="C9" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="D9" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="E9" t="s">
         <v>87</v>
       </c>
       <c r="F9" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="G9" t="s">
         <v>87</v>
       </c>
       <c r="H9" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="I9" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="J9" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="K9" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="B10" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="C10" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="D10" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="E10" t="s">
         <v>87</v>
       </c>
       <c r="F10" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="G10" t="s">
         <v>87</v>
       </c>
       <c r="H10" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="I10" t="s">
         <v>87</v>
       </c>
       <c r="J10" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="K10" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
     </row>
   </sheetData>
@@ -7931,34 +7945,34 @@
         <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="C2" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="D2" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="E2" t="s">
         <v>87</v>
       </c>
       <c r="F2" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="G2" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="H2" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="I2" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="J2" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="K2" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -7966,174 +7980,174 @@
         <v>113</v>
       </c>
       <c r="B3" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="C3" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="D3" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="E3" t="s">
         <v>87</v>
       </c>
       <c r="F3" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="G3" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="H3" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="I3" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="J3" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="K3" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="B4" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="C4" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="D4" t="s">
+        <v>851</v>
+      </c>
+      <c r="E4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" t="s">
+        <v>852</v>
+      </c>
+      <c r="G4" t="s">
+        <v>853</v>
+      </c>
+      <c r="H4" t="s">
+        <v>854</v>
+      </c>
+      <c r="I4" t="s">
         <v>849</v>
       </c>
-      <c r="E4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F4" t="s">
-        <v>850</v>
-      </c>
-      <c r="G4" t="s">
-        <v>851</v>
-      </c>
-      <c r="H4" t="s">
-        <v>852</v>
-      </c>
-      <c r="I4" t="s">
-        <v>847</v>
-      </c>
       <c r="J4" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="K4" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="B5" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="C5" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="D5" t="s">
+        <v>860</v>
+      </c>
+      <c r="E5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" t="s">
+        <v>861</v>
+      </c>
+      <c r="G5" t="s">
+        <v>862</v>
+      </c>
+      <c r="H5" t="s">
+        <v>863</v>
+      </c>
+      <c r="I5" t="s">
         <v>858</v>
       </c>
-      <c r="E5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F5" t="s">
-        <v>859</v>
-      </c>
-      <c r="G5" t="s">
-        <v>860</v>
-      </c>
-      <c r="H5" t="s">
-        <v>861</v>
-      </c>
-      <c r="I5" t="s">
-        <v>856</v>
-      </c>
       <c r="J5" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="K5" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="B6" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="C6" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="D6" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="E6" t="s">
         <v>87</v>
       </c>
       <c r="F6" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="G6" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="H6" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="I6" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="J6" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="K6" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="B7" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="C7" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="D7" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="E7" t="s">
         <v>87</v>
       </c>
       <c r="F7" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="G7" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="H7" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="I7" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="J7" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="K7" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
     </row>
   </sheetData>

--- a/AdofaiTweaks.Generator/translations.xlsx
+++ b/AdofaiTweaks.Generator/translations.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="1007">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="1008">
   <si>
     <t>Translation Status</t>
   </si>
@@ -2160,6 +2160,9 @@
   </si>
   <si>
     <t>Clear All Keys</t>
+  </si>
+  <si>
+    <t>모든 키 삭제하기</t>
   </si>
   <si>
     <t>LIMIT_CLS</t>
@@ -3795,34 +3798,34 @@
         <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="C2" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="D2" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="E2" t="s">
         <v>87</v>
       </c>
       <c r="F2" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="G2" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="H2" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="I2" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="J2" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="K2" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -3830,209 +3833,209 @@
         <v>113</v>
       </c>
       <c r="B3" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="C3" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="D3" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="E3" t="s">
         <v>87</v>
       </c>
       <c r="F3" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="G3" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="H3" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="I3" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="J3" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="K3" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C4" t="s">
+        <v>851</v>
+      </c>
+      <c r="D4" t="s">
+        <v>852</v>
+      </c>
+      <c r="E4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" t="s">
+        <v>853</v>
+      </c>
+      <c r="G4" t="s">
+        <v>854</v>
+      </c>
+      <c r="H4" t="s">
+        <v>855</v>
+      </c>
+      <c r="I4" t="s">
         <v>850</v>
       </c>
-      <c r="D4" t="s">
-        <v>851</v>
-      </c>
-      <c r="E4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F4" t="s">
-        <v>852</v>
-      </c>
-      <c r="G4" t="s">
-        <v>853</v>
-      </c>
-      <c r="H4" t="s">
-        <v>854</v>
-      </c>
-      <c r="I4" t="s">
-        <v>849</v>
-      </c>
       <c r="J4" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="K4" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B5" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C5" t="s">
+        <v>860</v>
+      </c>
+      <c r="D5" t="s">
+        <v>861</v>
+      </c>
+      <c r="E5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" t="s">
+        <v>862</v>
+      </c>
+      <c r="G5" t="s">
+        <v>863</v>
+      </c>
+      <c r="H5" t="s">
+        <v>864</v>
+      </c>
+      <c r="I5" t="s">
         <v>859</v>
       </c>
-      <c r="D5" t="s">
-        <v>860</v>
-      </c>
-      <c r="E5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F5" t="s">
-        <v>861</v>
-      </c>
-      <c r="G5" t="s">
-        <v>862</v>
-      </c>
-      <c r="H5" t="s">
-        <v>863</v>
-      </c>
-      <c r="I5" t="s">
-        <v>858</v>
-      </c>
       <c r="J5" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="K5" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B6" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="C6" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="D6" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="E6" t="s">
         <v>87</v>
       </c>
       <c r="F6" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="G6" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="H6" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="I6" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="J6" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="K6" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B7" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="C7" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="D7" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="E7" t="s">
         <v>87</v>
       </c>
       <c r="F7" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="G7" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="H7" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="I7" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="J7" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="K7" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B8" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="C8" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="D8" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="E8" t="s">
         <v>87</v>
       </c>
       <c r="F8" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="G8" t="s">
         <v>87</v>
       </c>
       <c r="H8" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="I8" t="s">
         <v>87</v>
       </c>
       <c r="J8" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="K8" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
     </row>
   </sheetData>
@@ -4088,34 +4091,34 @@
         <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="C2" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="D2" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="E2" t="s">
         <v>87</v>
       </c>
       <c r="F2" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="G2" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="H2" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="I2" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="J2" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="K2" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -4123,314 +4126,314 @@
         <v>113</v>
       </c>
       <c r="B3" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="C3" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="D3" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="E3" t="s">
         <v>87</v>
       </c>
       <c r="F3" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="G3" t="s">
         <v>87</v>
       </c>
       <c r="H3" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="I3" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="J3" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="K3" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B4" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="C4" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="D4" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="E4" t="s">
         <v>87</v>
       </c>
       <c r="F4" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="G4" t="s">
         <v>87</v>
       </c>
       <c r="H4" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="I4" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="J4" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="K4" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B5" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="C5" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="D5" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="E5" t="s">
         <v>87</v>
       </c>
       <c r="F5" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="G5" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="H5" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="I5" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="J5" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="K5" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B6" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="C6" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="D6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E6" t="s">
         <v>87</v>
       </c>
       <c r="F6" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="G6" t="s">
         <v>87</v>
       </c>
       <c r="H6" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="I6" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="J6" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="K6" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B7" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="C7" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="D7" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="E7" t="s">
         <v>87</v>
       </c>
       <c r="F7" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="G7" t="s">
         <v>87</v>
       </c>
       <c r="H7" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="I7" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="J7" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="K7" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B8" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="C8" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="D8" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="E8" t="s">
         <v>87</v>
       </c>
       <c r="F8" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="G8" t="s">
         <v>87</v>
       </c>
       <c r="H8" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="I8" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="J8" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="K8" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="B9" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="C9" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="D9" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="E9" t="s">
         <v>87</v>
       </c>
       <c r="F9" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="G9" t="s">
         <v>87</v>
       </c>
       <c r="H9" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="I9" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="J9" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="K9" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B10" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="C10" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="D10" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="E10" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="F10" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="G10" t="s">
         <v>87</v>
       </c>
       <c r="H10" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="I10" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="J10" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="K10" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B11" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="C11" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="D11" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="E11" t="s">
         <v>87</v>
       </c>
       <c r="F11" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="G11" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="H11" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="I11" t="s">
         <v>87</v>
       </c>
       <c r="J11" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="K11" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
     </row>
   </sheetData>
@@ -7353,86 +7356,89 @@
       <c r="B8" t="s">
         <v>711</v>
       </c>
+      <c r="C8" t="s">
+        <v>712</v>
+      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B9" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C9" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="D9" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="E9" t="s">
         <v>87</v>
       </c>
       <c r="F9" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G9" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H9" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="I9" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="J9" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="K9" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B10" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C10" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="D10" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="E10" t="s">
         <v>87</v>
       </c>
       <c r="F10" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G10" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H10" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="I10" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="J10" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K10" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B11" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C11" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="D11" t="s">
         <v>87</v>
@@ -7441,7 +7447,7 @@
         <v>87</v>
       </c>
       <c r="F11" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G11" t="s">
         <v>87</v>
@@ -7453,21 +7459,21 @@
         <v>87</v>
       </c>
       <c r="J11" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="K11" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B12" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C12" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D12" t="s">
         <v>87</v>
@@ -7476,7 +7482,7 @@
         <v>87</v>
       </c>
       <c r="F12" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G12" t="s">
         <v>87</v>
@@ -7488,21 +7494,21 @@
         <v>87</v>
       </c>
       <c r="J12" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="K12" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B13" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C13" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="D13" t="s">
         <v>87</v>
@@ -7511,7 +7517,7 @@
         <v>87</v>
       </c>
       <c r="F13" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="G13" t="s">
         <v>87</v>
@@ -7523,10 +7529,10 @@
         <v>87</v>
       </c>
       <c r="J13" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="K13" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
   </sheetData>
@@ -7585,31 +7591,31 @@
         <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="D2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="E2" t="s">
         <v>87</v>
       </c>
       <c r="F2" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="G2" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="H2" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="I2" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="J2" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="K2" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -7617,279 +7623,279 @@
         <v>113</v>
       </c>
       <c r="B3" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C3" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="D3" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="E3" t="s">
         <v>87</v>
       </c>
       <c r="F3" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="G3" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H3" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="I3" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="J3" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="K3" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B4" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C4" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="D4" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="E4" t="s">
         <v>87</v>
       </c>
       <c r="F4" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="G4" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="H4" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="I4" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="J4" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="K4" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B5" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C5" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="D5" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="E5" t="s">
         <v>87</v>
       </c>
       <c r="F5" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="G5" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="H5" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="I5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="J5" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="K5" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B6" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C6" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="D6" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="E6" t="s">
         <v>87</v>
       </c>
       <c r="F6" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="G6" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="H6" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="I6" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="J6" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="K6" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B7" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="C7" t="s">
+        <v>798</v>
+      </c>
+      <c r="D7" t="s">
+        <v>799</v>
+      </c>
+      <c r="E7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" t="s">
         <v>797</v>
       </c>
-      <c r="D7" t="s">
-        <v>798</v>
-      </c>
-      <c r="E7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F7" t="s">
-        <v>796</v>
-      </c>
       <c r="G7" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="H7" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="I7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="J7" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="K7" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B8" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C8" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D8" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="E8" t="s">
         <v>87</v>
       </c>
       <c r="F8" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="G8" t="s">
         <v>87</v>
       </c>
       <c r="H8" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="I8" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="J8" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="K8" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B9" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C9" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="D9" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="E9" t="s">
         <v>87</v>
       </c>
       <c r="F9" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="G9" t="s">
         <v>87</v>
       </c>
       <c r="H9" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="I9" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="J9" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="K9" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B10" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C10" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="D10" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="E10" t="s">
         <v>87</v>
       </c>
       <c r="F10" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="G10" t="s">
         <v>87</v>
       </c>
       <c r="H10" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="I10" t="s">
         <v>87</v>
       </c>
       <c r="J10" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="K10" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
   </sheetData>
@@ -7945,34 +7951,34 @@
         <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="C2" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="D2" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="E2" t="s">
         <v>87</v>
       </c>
       <c r="F2" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="G2" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="H2" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="I2" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="J2" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="K2" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -7980,174 +7986,174 @@
         <v>113</v>
       </c>
       <c r="B3" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="C3" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="D3" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="E3" t="s">
         <v>87</v>
       </c>
       <c r="F3" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="G3" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="H3" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="I3" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="J3" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="K3" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C4" t="s">
+        <v>851</v>
+      </c>
+      <c r="D4" t="s">
+        <v>852</v>
+      </c>
+      <c r="E4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" t="s">
+        <v>853</v>
+      </c>
+      <c r="G4" t="s">
+        <v>854</v>
+      </c>
+      <c r="H4" t="s">
+        <v>855</v>
+      </c>
+      <c r="I4" t="s">
         <v>850</v>
       </c>
-      <c r="D4" t="s">
-        <v>851</v>
-      </c>
-      <c r="E4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F4" t="s">
-        <v>852</v>
-      </c>
-      <c r="G4" t="s">
-        <v>853</v>
-      </c>
-      <c r="H4" t="s">
-        <v>854</v>
-      </c>
-      <c r="I4" t="s">
-        <v>849</v>
-      </c>
       <c r="J4" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="K4" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B5" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C5" t="s">
+        <v>860</v>
+      </c>
+      <c r="D5" t="s">
+        <v>861</v>
+      </c>
+      <c r="E5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" t="s">
+        <v>862</v>
+      </c>
+      <c r="G5" t="s">
+        <v>863</v>
+      </c>
+      <c r="H5" t="s">
+        <v>864</v>
+      </c>
+      <c r="I5" t="s">
         <v>859</v>
       </c>
-      <c r="D5" t="s">
-        <v>860</v>
-      </c>
-      <c r="E5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F5" t="s">
-        <v>861</v>
-      </c>
-      <c r="G5" t="s">
-        <v>862</v>
-      </c>
-      <c r="H5" t="s">
-        <v>863</v>
-      </c>
-      <c r="I5" t="s">
-        <v>858</v>
-      </c>
       <c r="J5" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="K5" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B6" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="C6" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="D6" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="E6" t="s">
         <v>87</v>
       </c>
       <c r="F6" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="G6" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="H6" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="I6" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="J6" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="K6" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B7" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="C7" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="D7" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="E7" t="s">
         <v>87</v>
       </c>
       <c r="F7" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="G7" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="H7" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="I7" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="J7" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="K7" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
   </sheetData>

--- a/AdofaiTweaks.Generator/translations.xlsx
+++ b/AdofaiTweaks.Generator/translations.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="1008">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="1049">
   <si>
     <t>Translation Status</t>
   </si>
@@ -89,9 +89,6 @@
     <t>58.3% (5 left)</t>
   </si>
   <si>
-    <t>75% (3 left)</t>
-  </si>
-  <si>
     <t>KeyViewer</t>
   </si>
   <si>
@@ -101,7 +98,28 @@
     <t>95.8% (1 left)</t>
   </si>
   <si>
-    <t>70.8% (7 left)</t>
+    <t>KeyLimiter</t>
+  </si>
+  <si>
+    <t>25% (9 left)</t>
+  </si>
+  <si>
+    <t>66.7% (4 left)</t>
+  </si>
+  <si>
+    <t>Miscellaneous</t>
+  </si>
+  <si>
+    <t>0% (9 left)</t>
+  </si>
+  <si>
+    <t>66.7% (3 left)</t>
+  </si>
+  <si>
+    <t>PlanetColor</t>
+  </si>
+  <si>
+    <t>0% (6 left)</t>
   </si>
   <si>
     <t>PlanetOpacity</t>
@@ -113,24 +131,6 @@
     <t>85.7% (1 left)</t>
   </si>
   <si>
-    <t>Miscellaneous</t>
-  </si>
-  <si>
-    <t>0% (9 left)</t>
-  </si>
-  <si>
-    <t>66.7% (3 left)</t>
-  </si>
-  <si>
-    <t>88.9% (1 left)</t>
-  </si>
-  <si>
-    <t>PlanetColor</t>
-  </si>
-  <si>
-    <t>0% (6 left)</t>
-  </si>
-  <si>
     <t>RestrictJudgments</t>
   </si>
   <si>
@@ -140,9 +140,6 @@
     <t>30% (7 left)</t>
   </si>
   <si>
-    <t>90% (1 left)</t>
-  </si>
-  <si>
     <t>KEY</t>
   </si>
   <si>
@@ -212,6 +209,12 @@
     <t>I_TEST_KEY</t>
   </si>
   <si>
+    <t>Đây là dòng chữ thử nghiệm.</t>
+  </si>
+  <si>
+    <t>Dies ist ein Teststring.</t>
+  </si>
+  <si>
     <t>GLOBAL_LANGUAGE</t>
   </si>
   <si>
@@ -296,6 +299,9 @@
     <t>更改按键</t>
   </si>
   <si>
+    <t>Taste ändern</t>
+  </si>
+  <si>
     <t>Сменить клавишу</t>
   </si>
   <si>
@@ -311,12 +317,15 @@
     <t>완료</t>
   </si>
   <si>
+    <t>Confirmar</t>
+  </si>
+  <si>
+    <t>Zakończ</t>
+  </si>
+  <si>
     <t>Valider</t>
   </si>
   <si>
-    <t>Zakończ</t>
-  </si>
-  <si>
     <t>Hoàn tất</t>
   </si>
   <si>
@@ -374,22 +383,22 @@
     <t>특정 이펙트를 비활성화해 게임플레이를 더 부드럽게 합니다.</t>
   </si>
   <si>
-    <t>Desactiva efectos específicos para mejorar el rendimiento</t>
-  </si>
-  <si>
-    <t>Wyłącz niektóre efekty aby poprawić wydajność</t>
+    <t>Desactiva efectos específicos para mejorar el rendimiento.</t>
+  </si>
+  <si>
+    <t>Wyłącz niektóre efekty aby poprawić wydajność.</t>
   </si>
   <si>
     <t>Désactive certains effets pour améliorer la performance.</t>
   </si>
   <si>
-    <t>Tắt đi một số hiệu ứng nhất định nhằm cải thiện chất lượng</t>
+    <t>Tắt đi một số hiệu ứng nhất định nhằm cải thiện chất lượng.</t>
   </si>
   <si>
     <t>禁用某些效果以提高性能。</t>
   </si>
   <si>
-    <t>Deaktiviert bestimmte Effekte, um Leistung zu verbessern</t>
+    <t>Deaktiviert bestimmte Effekte, um Leistung zu verbessern.</t>
   </si>
   <si>
     <t>Отключает определённые эффекты для повышения производельности.</t>
@@ -587,7 +596,7 @@
     <t>一次移动砖块的最大数量：</t>
   </si>
   <si>
-    <t>Maximale Anzahl an Blöcken auf einmal</t>
+    <t>Maximale Anzahl an Blöcken auf einmal:</t>
   </si>
   <si>
     <t>Максимальное число движущихся плиток одновременно:</t>
@@ -650,7 +659,7 @@
     <t>Ausgeschlossene Filter ({0})</t>
   </si>
   <si>
-    <t>Исключённые Фильтры</t>
+    <t>Исключённые Фильтры ({0})</t>
   </si>
   <si>
     <t>無効化除外フィルター（{0}）</t>
@@ -728,13 +737,13 @@
     <t>Masquer certains éléments d'UI du gameplay.</t>
   </si>
   <si>
-    <t>Làm ẩn một số giao diện (UI) khi chơi</t>
+    <t>Làm ẩn một số giao diện (UI) khi chơi.</t>
   </si>
   <si>
     <t>在游戏中隐藏某些UI元素。</t>
   </si>
   <si>
-    <t>Verberge bestimmte UI Elemente während dem gameplay</t>
+    <t>Verberge bestimmte UI Elemente während dem Spielen.</t>
   </si>
   <si>
     <t>Скрывает части интерфейса в игре.</t>
@@ -893,6 +902,9 @@
     <t>隐藏兔子图标和自动播放文字</t>
   </si>
   <si>
+    <t>Verberge Otto und den automatisch Spielen Text</t>
+  </si>
+  <si>
     <t>Скрыть Отто и надпись "Автоигра"</t>
   </si>
   <si>
@@ -950,6 +962,9 @@
     <t>隐藏“恭喜”等最后结尾的文本</t>
   </si>
   <si>
+    <t>Verberge "Glückwunsch!" &amp; detaillierte Ergebnisse</t>
+  </si>
+  <si>
     <t>Скрыть текст "Поздравляю!" и подробные результаты</t>
   </si>
   <si>
@@ -974,6 +989,9 @@
     <t>隐藏命中误差表</t>
   </si>
   <si>
+    <t>Verberge Fehltreffermetrum</t>
+  </si>
+  <si>
     <t>Скрыть шкалу точности</t>
   </si>
   <si>
@@ -998,6 +1016,9 @@
     <t>到达最后一个砖块时隐藏白色闪光</t>
   </si>
   <si>
+    <t>Verberge weißen Flash auf dem letzten Block</t>
+  </si>
+  <si>
     <t>Скрыть белую вспышку на последней плитке</t>
   </si>
   <si>
@@ -1022,6 +1043,9 @@
     <t>录制模式</t>
   </si>
   <si>
+    <t>Aufnahmemodus</t>
+  </si>
+  <si>
     <t>Режим записи</t>
   </si>
   <si>
@@ -1046,6 +1070,9 @@
     <t>使用录制模式切换快捷键</t>
   </si>
   <si>
+    <t>Benutze Tastenbelegung für Aufnahmemodus</t>
+  </si>
+  <si>
     <t>Использовать сочетание клавиш для включения режима записи</t>
   </si>
   <si>
@@ -1070,6 +1097,9 @@
     <t>录制模式切换快捷键：</t>
   </si>
   <si>
+    <t>Aufnahmemodus Tastenbelegung:</t>
+  </si>
+  <si>
     <t>Сочетание клавиш для включения режима записи:</t>
   </si>
   <si>
@@ -1094,6 +1124,9 @@
     <t>隐藏计时目标图标</t>
   </si>
   <si>
+    <t>Verberge Zeitiges Treffen-Icon</t>
+  </si>
+  <si>
     <t>Скрыть иконку сложности</t>
   </si>
   <si>
@@ -1118,6 +1151,9 @@
     <t>隐藏不会失败图标</t>
   </si>
   <si>
+    <t>Verberge No Fail-Icon</t>
+  </si>
+  <si>
     <t>Скрыть иконку режима бессмертия</t>
   </si>
   <si>
@@ -1145,6 +1181,9 @@
     <t>判定图像</t>
   </si>
   <si>
+    <t>Visuelle Bewertung</t>
+  </si>
+  <si>
     <t>Элементы точности</t>
   </si>
   <si>
@@ -1169,6 +1208,9 @@
     <t>改善判定的视觉效果。</t>
   </si>
   <si>
+    <t>Verbessert das Visuelle von Bewertungen.</t>
+  </si>
+  <si>
     <t>Улучшает визуальный вид элементов точности.</t>
   </si>
   <si>
@@ -1196,6 +1238,9 @@
     <t>显示命中误差表（判定器）</t>
   </si>
   <si>
+    <t>Zeige Fehltreffermetrum</t>
+  </si>
+  <si>
     <t>Показать шкалу точности</t>
   </si>
   <si>
@@ -1226,7 +1271,7 @@
     <t>比例：</t>
   </si>
   <si>
-    <t>Größe</t>
+    <t>Größe:</t>
   </si>
   <si>
     <t>Масштаб:</t>
@@ -1319,7 +1364,7 @@
     <t>下箭头灵敏度：</t>
   </si>
   <si>
-    <t xml:space="preserve">Pfeil Sensitivität </t>
+    <t>Pfeil Sensitivität:</t>
   </si>
   <si>
     <t>Чувствительность нижней стрелки:</t>
@@ -1526,7 +1571,7 @@
     <t>显示添加按键的按键查看器。</t>
   </si>
   <si>
-    <t>Zeigt eine Tastenanschlaganzeige für registrierte Tasten</t>
+    <t>Zeigt eine Tastenanschlaganzeige für registrierte Tasten.</t>
   </si>
   <si>
     <t>Показывает нажимаемые клавиши.</t>
@@ -1646,7 +1691,7 @@
     <t>仅在游戏中显示</t>
   </si>
   <si>
-    <t>Nur während dem gameplay zeigen</t>
+    <t>Nur während dem Spielen zeigen</t>
   </si>
   <si>
     <t>Показывать только во время игры</t>
@@ -1739,6 +1784,9 @@
     <t>按下按键时的轮廓颜色：</t>
   </si>
   <si>
+    <t>Gedrückt Umrissfarbe:</t>
+  </si>
+  <si>
     <t>Цвет контура нажатой клавиши:</t>
   </si>
   <si>
@@ -1766,6 +1814,9 @@
     <t>原本显示的轮廓颜色：</t>
   </si>
   <si>
+    <t>Nicht gedrückt Umrissfarbe:</t>
+  </si>
+  <si>
     <t>Цвет контура отпущенной клавиши:</t>
   </si>
   <si>
@@ -1793,6 +1844,9 @@
     <t>按下按键时的背景颜色</t>
   </si>
   <si>
+    <t>Gedrückt Hintergrundfarbe:</t>
+  </si>
+  <si>
     <t>Цвет фона нажатой клавиши:</t>
   </si>
   <si>
@@ -1820,6 +1874,9 @@
     <t>原本显示的的背景颜色</t>
   </si>
   <si>
+    <t>Nicht gedrückt Hintergrundfarbe:</t>
+  </si>
+  <si>
     <t>Цвет фона отпущенной клавиши:</t>
   </si>
   <si>
@@ -1847,6 +1904,9 @@
     <t>按下时的按键颜色</t>
   </si>
   <si>
+    <t>Gedrückt Textfarbe:</t>
+  </si>
+  <si>
     <t>Цвет текста нажатой клавиши:</t>
   </si>
   <si>
@@ -1874,6 +1934,9 @@
     <t>原本按键的颜色</t>
   </si>
   <si>
+    <t>Nicht gedrückt Textfarbe:</t>
+  </si>
+  <si>
     <t>Цвет текста отпущенной клавиши:</t>
   </si>
   <si>
@@ -2069,7 +2132,7 @@
     <t>키 누른 횟수 지우기</t>
   </si>
   <si>
-    <t xml:space="preserve"> Eliminar número total de pulsaciones</t>
+    <t>Eliminar número total de pulsaciones</t>
   </si>
   <si>
     <t>Réinitialiser le compte de touches appuyées</t>
@@ -2078,6 +2141,9 @@
     <t>清除按键计数</t>
   </si>
   <si>
+    <t>Lösche Tastenanschläge</t>
+  </si>
+  <si>
     <t>Очистить общее число нажатий</t>
   </si>
   <si>
@@ -2090,6 +2156,9 @@
     <t>키 제한하기</t>
   </si>
   <si>
+    <t>Limitador de teclas</t>
+  </si>
+  <si>
     <t>Limiteur de Touches</t>
   </si>
   <si>
@@ -2099,6 +2168,9 @@
     <t>按键限制器</t>
   </si>
   <si>
+    <t>Tastenlimit</t>
+  </si>
+  <si>
     <t>Ограничитель клавиш</t>
   </si>
   <si>
@@ -2111,6 +2183,9 @@
     <t>켜져 있을 때, 사용자가 등록한 키들로만 입력처리 되도록 제한합니다.</t>
   </si>
   <si>
+    <t>Cuando está activo, restringe qué teclas cuentan como válidas.</t>
+  </si>
+  <si>
     <t>Quand activé, restreint les touches qui comptent comme une entrée.</t>
   </si>
   <si>
@@ -2120,7 +2195,7 @@
     <t>激活时，限制哪些键算作输入。</t>
   </si>
   <si>
-    <t>Schränkt Tasten ein, die als Tastenanschlag zählen</t>
+    <t>Schränkt Tasten ein, die als Tastenanschlag zählen.</t>
   </si>
   <si>
     <t>Когда включено, ограничивает нажимаемые клавишы.</t>
@@ -2129,24 +2204,27 @@
     <t>入力として扱うキーを制限します。</t>
   </si>
   <si>
+    <t>Teclas registradas:</t>
+  </si>
+  <si>
+    <t>Zarejestrowane przyciski:</t>
+  </si>
+  <si>
     <t>Touches enregistrées:</t>
   </si>
   <si>
-    <t>Zarejestrowane przyciski:</t>
-  </si>
-  <si>
     <t>Registrierte Tasten</t>
   </si>
   <si>
     <t>Назначенные клавиши:</t>
   </si>
   <si>
+    <t>Naciśnij przycisk aby zarejerestrować/wyrejerestrować go...</t>
+  </si>
+  <si>
     <t>Appuie sur une touche pour l'enregistrer/la désenregistrer</t>
   </si>
   <si>
-    <t>Naciśnij przycisk aby zarejerestrować/wyrejerestrować go...</t>
-  </si>
-  <si>
     <t>Nhấn phím để thêm / loại bỏ...</t>
   </si>
   <si>
@@ -2165,6 +2243,21 @@
     <t>모든 키 삭제하기</t>
   </si>
   <si>
+    <t>Borrar todas las teclas</t>
+  </si>
+  <si>
+    <t>Supprimer toutes les touches</t>
+  </si>
+  <si>
+    <t>Lösche alle Tasten</t>
+  </si>
+  <si>
+    <t>Очистить все клавиши</t>
+  </si>
+  <si>
+    <t>全てのキーを削除する</t>
+  </si>
+  <si>
     <t>LIMIT_CLS</t>
   </si>
   <si>
@@ -2174,6 +2267,9 @@
     <t>CLS (커스텀 레벨 선택) 에서 키 제한하기</t>
   </si>
   <si>
+    <t>Limitar teclas en el CLS (Selector de niveles personalizados)</t>
+  </si>
+  <si>
     <t>Limite les touches dans le sélecteur de morceaux personnalisés</t>
   </si>
   <si>
@@ -2199,6 +2295,9 @@
   </si>
   <si>
     <t>메인 메뉴에서 키 제한하기</t>
+  </si>
+  <si>
+    <t>Limitar teclas en el menú principal</t>
   </si>
   <si>
     <t>Limite les touches dans le menu principal</t>
@@ -2230,8 +2329,16 @@
 &lt;b&gt;참고: &lt;/b&gt;비동기 입력 시스템과 동기 입력 시스템의 등록된 키들은 각각 설정이 다릅니다.</t>
   </si>
   <si>
-    <t>system d'input séléctioné acutellement : {0}              
-&lt;b&gt;NOTE: &lt;\b&gt; Les touches enregistrés pour le mode synchronous et le mode asynchronus input sont des paramètre séparer les un des autres</t>
+    <t>Sistema de input seleccionado: {0}
+&lt;b&gt;NOTA: &lt;/b&gt;Las teclas registradas para los sistemas sincrónico y asincrónico son opciones separadas.</t>
+  </si>
+  <si>
+    <t>Système d'entrée actuel : {0}              
+&lt;b&gt;NOTE: &lt;/b&gt; Les touches enregistrées pour les modes synchrone et asynchrone sont séparés l'un de l'autre.</t>
+  </si>
+  <si>
+    <t>Ausgewähltes Eingabesystem: {0}
+&lt;b&gt;Achtung: &lt;/b&gt; Die Tasten für synchrone und asynchrone Eingabe sind unterschiedliche Einstellungen</t>
   </si>
   <si>
     <t>Выбранная система ввода: {0}
@@ -2251,7 +2358,13 @@
     <t>비동기 입력 시스템</t>
   </si>
   <si>
-    <t>système Asynchronous Input</t>
+    <t>Sistema de input asincrónico</t>
+  </si>
+  <si>
+    <t>Système d'entrée asynchrone</t>
+  </si>
+  <si>
+    <t>Asynchrones Eingabesystem</t>
   </si>
   <si>
     <t>Асинхронная система ввода</t>
@@ -2269,7 +2382,13 @@
     <t>동기 입력 시스템</t>
   </si>
   <si>
-    <t>système Synchronous Input</t>
+    <t>Sistema de input sincrónico</t>
+  </si>
+  <si>
+    <t>Système d'entrée synchrone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Synchrones Eingabesystem </t>
   </si>
   <si>
     <t>Синхронная система ввода</t>
@@ -2320,7 +2439,7 @@
     <t>不属于任何特定节的调整。</t>
   </si>
   <si>
-    <t>Einstellungen, die nicht in eine bestimmte Kategorie gehören</t>
+    <t>Einstellungen, die nicht in eine bestimmte Kategorie gehören.</t>
   </si>
   <si>
     <t>Настройки, которые не относятся к конкретному разделу.</t>
@@ -2512,12 +2631,15 @@
     <t>Arreglar bug que hace que el Sistema de Input Asincrónico no se seleccione automáticamente</t>
   </si>
   <si>
-    <t>répare l'Asynchronous Input qui n'est pas activer automatiquement</t>
+    <t>Corriger le système d'entrée asynchrone pas activé automatiquement</t>
   </si>
   <si>
     <t>修复未自动启用的异步输入</t>
   </si>
   <si>
+    <t>Repariert Asynchrone Eingabe nicht automatisch aktiviert</t>
+  </si>
+  <si>
     <t>Исправляет, что асинхронный ввод не включался автоматически</t>
   </si>
   <si>
@@ -2566,10 +2688,10 @@
     <t>Thay đổi màu dành cho từng hành tinh.</t>
   </si>
   <si>
-    <t>设置球球的颜色</t>
-  </si>
-  <si>
-    <t>Stellt die Farbe der Planeten ein</t>
+    <t>设置球球的颜色。</t>
+  </si>
+  <si>
+    <t>Stellt die Farbe der Planeten ein.</t>
   </si>
   <si>
     <t>Устанавливает цвет планет.</t>
@@ -2653,7 +2775,7 @@
     <t>球求本体</t>
   </si>
   <si>
-    <t>Körper</t>
+    <t>Körper:</t>
   </si>
   <si>
     <t>Планета:</t>
@@ -2683,7 +2805,7 @@
     <t>球球尾部</t>
   </si>
   <si>
-    <t>Schweif</t>
+    <t>Schweif:</t>
   </si>
   <si>
     <t>След:</t>
@@ -2734,10 +2856,10 @@
     <t>Chỉnh độ trong suốt của các hành tinh.</t>
   </si>
   <si>
-    <t>设置球球的不透明度</t>
-  </si>
-  <si>
-    <t>Bestimmt die Deckraft der Planeten</t>
+    <t>设置球球的不透明度。</t>
+  </si>
+  <si>
+    <t>Bestimmt die Deckraft der Planeten.</t>
   </si>
   <si>
     <t>Устанавливает прозрачность планет.</t>
@@ -2818,13 +2940,13 @@
     <t>Castiga al jugador en determinados juicios.</t>
   </si>
   <si>
-    <t>Punit le joueur sur les jugements spécifiés</t>
+    <t>Punit le joueur sur les jugements spécifiés.</t>
   </si>
   <si>
     <t>根据特定的判定惩罚玩家。</t>
   </si>
   <si>
-    <t>Bestraft den Spieler bei einer bestimmten Bewertung</t>
+    <t>Bestraft den Spieler bei einer bestimmten Bewertung.</t>
   </si>
   <si>
     <t>Наказывает игрока по указанным оценкам.</t>
@@ -3040,7 +3162,7 @@
     <t xml:space="preserve">Mensaje de muerte personalizado con restricción de juicio (Nota: "{judgment}" será reemplazado por el nombre de la ventana de tiempo) </t>
   </si>
   <si>
-    <t>Message de mort personnalisé sur la restriction de jugements (note: Les occurences de "{judgement}" vont être remplacées par le nom du jugement)</t>
+    <t>Message de mort personnalisé sur la restriction de jugements (note: Les occurences de "{judgment}" vont être remplacées par le nom du jugement)</t>
   </si>
   <si>
     <t>Dòng chữ thông báo thua khác khi phạm lỗi sai nhất định</t>
@@ -3049,7 +3171,10 @@
     <t>判定限制的自定义死亡消息（注意：“{judgment}”事件将替换为判定名称）</t>
   </si>
   <si>
-    <t>Пользовательское сообщение после смерти на ограниченной оценке (примечание: "{оценка}" будет заменено на вид оценки)</t>
+    <t>Eigene Todesnachricht wenn Bewertungen beschränkt sind (Achtung: "{judgment}" wird mit dem Namen der Bewertung ersetzt)</t>
+  </si>
+  <si>
+    <t>Пользовательское сообщение после смерти на ограниченной оценке (примечание: "{judgment}" будет заменено на вид оценки)</t>
   </si>
   <si>
     <t>この機能で死んだ時のメッセージ（備考：メッセージの中の{judgement}は全て判定の名前に置き換えられます。）</t>
@@ -3384,7 +3509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3456,7 +3581,7 @@
         <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J3" t="s">
         <v>13</v>
@@ -3526,7 +3651,7 @@
         <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J5" t="s">
         <v>13</v>
@@ -3561,7 +3686,7 @@
         <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J6" t="s">
         <v>13</v>
@@ -3572,7 +3697,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -3584,19 +3709,19 @@
         <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H7" t="s">
         <v>13</v>
       </c>
       <c r="I7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="J7" t="s">
         <v>13</v>
@@ -3607,7 +3732,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -3619,19 +3744,19 @@
         <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" t="s">
         <v>13</v>
-      </c>
-      <c r="I8" t="s">
-        <v>28</v>
       </c>
       <c r="J8" t="s">
         <v>13</v>
@@ -3642,7 +3767,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -3654,19 +3779,19 @@
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H9" t="s">
         <v>13</v>
       </c>
       <c r="I9" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="J9" t="s">
         <v>13</v>
@@ -3677,7 +3802,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -3689,7 +3814,7 @@
         <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
@@ -3712,7 +3837,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -3724,24 +3849,59 @@
         <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
         <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H11" t="s">
         <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="J11" t="s">
         <v>13</v>
       </c>
       <c r="K11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3760,282 +3920,282 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>41</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>42</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>43</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>44</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>45</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>46</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>47</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>48</v>
-      </c>
-      <c r="K1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>887</v>
+        <v>927</v>
       </c>
       <c r="C2" t="s">
-        <v>888</v>
+        <v>928</v>
       </c>
       <c r="D2" t="s">
-        <v>889</v>
+        <v>929</v>
       </c>
       <c r="E2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>890</v>
+        <v>930</v>
       </c>
       <c r="G2" t="s">
-        <v>891</v>
+        <v>931</v>
       </c>
       <c r="H2" t="s">
-        <v>892</v>
+        <v>932</v>
       </c>
       <c r="I2" t="s">
-        <v>893</v>
+        <v>933</v>
       </c>
       <c r="J2" t="s">
-        <v>894</v>
+        <v>934</v>
       </c>
       <c r="K2" t="s">
-        <v>895</v>
+        <v>935</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>896</v>
+        <v>936</v>
       </c>
       <c r="C3" t="s">
-        <v>897</v>
+        <v>937</v>
       </c>
       <c r="D3" t="s">
-        <v>898</v>
+        <v>938</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>899</v>
+        <v>939</v>
       </c>
       <c r="G3" t="s">
-        <v>900</v>
+        <v>940</v>
       </c>
       <c r="H3" t="s">
-        <v>901</v>
+        <v>941</v>
       </c>
       <c r="I3" t="s">
-        <v>902</v>
+        <v>942</v>
       </c>
       <c r="J3" t="s">
-        <v>903</v>
+        <v>943</v>
       </c>
       <c r="K3" t="s">
-        <v>904</v>
+        <v>944</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>849</v>
+        <v>889</v>
       </c>
       <c r="B4" t="s">
-        <v>850</v>
+        <v>890</v>
       </c>
       <c r="C4" t="s">
-        <v>851</v>
+        <v>891</v>
       </c>
       <c r="D4" t="s">
-        <v>852</v>
+        <v>892</v>
       </c>
       <c r="E4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F4" t="s">
-        <v>853</v>
+        <v>893</v>
       </c>
       <c r="G4" t="s">
-        <v>854</v>
+        <v>894</v>
       </c>
       <c r="H4" t="s">
-        <v>855</v>
+        <v>895</v>
       </c>
       <c r="I4" t="s">
-        <v>850</v>
+        <v>890</v>
       </c>
       <c r="J4" t="s">
-        <v>856</v>
+        <v>896</v>
       </c>
       <c r="K4" t="s">
-        <v>905</v>
+        <v>945</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>858</v>
+        <v>898</v>
       </c>
       <c r="B5" t="s">
-        <v>859</v>
+        <v>899</v>
       </c>
       <c r="C5" t="s">
-        <v>860</v>
+        <v>900</v>
       </c>
       <c r="D5" t="s">
-        <v>861</v>
+        <v>901</v>
       </c>
       <c r="E5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F5" t="s">
-        <v>862</v>
+        <v>902</v>
       </c>
       <c r="G5" t="s">
-        <v>863</v>
+        <v>903</v>
       </c>
       <c r="H5" t="s">
-        <v>864</v>
+        <v>904</v>
       </c>
       <c r="I5" t="s">
-        <v>859</v>
+        <v>899</v>
       </c>
       <c r="J5" t="s">
-        <v>865</v>
+        <v>905</v>
       </c>
       <c r="K5" t="s">
-        <v>906</v>
+        <v>946</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>867</v>
+        <v>907</v>
       </c>
       <c r="B6" t="s">
-        <v>868</v>
+        <v>908</v>
       </c>
       <c r="C6" t="s">
-        <v>869</v>
+        <v>909</v>
       </c>
       <c r="D6" t="s">
-        <v>870</v>
+        <v>910</v>
       </c>
       <c r="E6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F6" t="s">
-        <v>871</v>
+        <v>911</v>
       </c>
       <c r="G6" t="s">
-        <v>872</v>
+        <v>912</v>
       </c>
       <c r="H6" t="s">
-        <v>907</v>
+        <v>947</v>
       </c>
       <c r="I6" t="s">
-        <v>874</v>
+        <v>914</v>
       </c>
       <c r="J6" t="s">
-        <v>875</v>
+        <v>915</v>
       </c>
       <c r="K6" t="s">
-        <v>876</v>
+        <v>916</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>877</v>
+        <v>917</v>
       </c>
       <c r="B7" t="s">
-        <v>878</v>
+        <v>918</v>
       </c>
       <c r="C7" t="s">
-        <v>879</v>
+        <v>919</v>
       </c>
       <c r="D7" t="s">
-        <v>880</v>
+        <v>920</v>
       </c>
       <c r="E7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F7" t="s">
-        <v>881</v>
+        <v>921</v>
       </c>
       <c r="G7" t="s">
-        <v>882</v>
+        <v>922</v>
       </c>
       <c r="H7" t="s">
-        <v>908</v>
+        <v>948</v>
       </c>
       <c r="I7" t="s">
-        <v>884</v>
+        <v>924</v>
       </c>
       <c r="J7" t="s">
-        <v>885</v>
+        <v>925</v>
       </c>
       <c r="K7" t="s">
-        <v>886</v>
+        <v>926</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="B8" t="s">
-        <v>910</v>
+        <v>950</v>
       </c>
       <c r="C8" t="s">
-        <v>911</v>
+        <v>951</v>
       </c>
       <c r="D8" t="s">
-        <v>912</v>
+        <v>952</v>
       </c>
       <c r="E8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F8" t="s">
-        <v>913</v>
+        <v>953</v>
       </c>
       <c r="G8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H8" t="s">
-        <v>914</v>
+        <v>954</v>
       </c>
       <c r="I8" t="s">
-        <v>87</v>
+        <v>950</v>
       </c>
       <c r="J8" t="s">
-        <v>915</v>
+        <v>955</v>
       </c>
       <c r="K8" t="s">
-        <v>916</v>
+        <v>956</v>
       </c>
     </row>
   </sheetData>
@@ -4053,387 +4213,387 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>41</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>42</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>43</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>44</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>45</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>46</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>47</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>48</v>
-      </c>
-      <c r="K1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>917</v>
+        <v>957</v>
       </c>
       <c r="C2" t="s">
-        <v>918</v>
+        <v>958</v>
       </c>
       <c r="D2" t="s">
-        <v>919</v>
+        <v>959</v>
       </c>
       <c r="E2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>920</v>
+        <v>960</v>
       </c>
       <c r="G2" t="s">
-        <v>921</v>
+        <v>961</v>
       </c>
       <c r="H2" t="s">
-        <v>922</v>
+        <v>962</v>
       </c>
       <c r="I2" t="s">
-        <v>923</v>
+        <v>963</v>
       </c>
       <c r="J2" t="s">
-        <v>924</v>
+        <v>964</v>
       </c>
       <c r="K2" t="s">
-        <v>925</v>
+        <v>965</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>926</v>
+        <v>966</v>
       </c>
       <c r="C3" t="s">
-        <v>927</v>
+        <v>967</v>
       </c>
       <c r="D3" t="s">
-        <v>928</v>
+        <v>968</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>929</v>
+        <v>969</v>
       </c>
       <c r="G3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H3" t="s">
-        <v>930</v>
+        <v>970</v>
       </c>
       <c r="I3" t="s">
-        <v>931</v>
+        <v>971</v>
       </c>
       <c r="J3" t="s">
-        <v>932</v>
+        <v>972</v>
       </c>
       <c r="K3" t="s">
-        <v>933</v>
+        <v>973</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>934</v>
+        <v>974</v>
       </c>
       <c r="B4" t="s">
-        <v>935</v>
+        <v>975</v>
       </c>
       <c r="C4" t="s">
-        <v>936</v>
+        <v>976</v>
       </c>
       <c r="D4" t="s">
-        <v>937</v>
+        <v>977</v>
       </c>
       <c r="E4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F4" t="s">
-        <v>938</v>
+        <v>978</v>
       </c>
       <c r="G4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H4" t="s">
-        <v>939</v>
+        <v>979</v>
       </c>
       <c r="I4" t="s">
-        <v>940</v>
+        <v>980</v>
       </c>
       <c r="J4" t="s">
-        <v>941</v>
+        <v>981</v>
       </c>
       <c r="K4" t="s">
-        <v>942</v>
+        <v>982</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>943</v>
+        <v>983</v>
       </c>
       <c r="B5" t="s">
-        <v>944</v>
+        <v>984</v>
       </c>
       <c r="C5" t="s">
-        <v>945</v>
+        <v>985</v>
       </c>
       <c r="D5" t="s">
-        <v>946</v>
+        <v>986</v>
       </c>
       <c r="E5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F5" t="s">
-        <v>947</v>
+        <v>987</v>
       </c>
       <c r="G5" t="s">
-        <v>948</v>
+        <v>988</v>
       </c>
       <c r="H5" t="s">
-        <v>949</v>
+        <v>989</v>
       </c>
       <c r="I5" t="s">
-        <v>950</v>
+        <v>990</v>
       </c>
       <c r="J5" t="s">
-        <v>951</v>
+        <v>991</v>
       </c>
       <c r="K5" t="s">
-        <v>952</v>
+        <v>992</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>953</v>
+        <v>993</v>
       </c>
       <c r="B6" t="s">
-        <v>954</v>
+        <v>994</v>
       </c>
       <c r="C6" t="s">
-        <v>955</v>
+        <v>995</v>
       </c>
       <c r="D6" t="s">
-        <v>956</v>
+        <v>996</v>
       </c>
       <c r="E6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F6" t="s">
-        <v>957</v>
+        <v>997</v>
       </c>
       <c r="G6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H6" t="s">
-        <v>958</v>
+        <v>998</v>
       </c>
       <c r="I6" t="s">
-        <v>959</v>
+        <v>999</v>
       </c>
       <c r="J6" t="s">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="K6" t="s">
-        <v>961</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>962</v>
+        <v>1002</v>
       </c>
       <c r="B7" t="s">
-        <v>963</v>
+        <v>1003</v>
       </c>
       <c r="C7" t="s">
-        <v>964</v>
+        <v>1004</v>
       </c>
       <c r="D7" t="s">
-        <v>965</v>
+        <v>1005</v>
       </c>
       <c r="E7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F7" t="s">
-        <v>966</v>
+        <v>1006</v>
       </c>
       <c r="G7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H7" t="s">
-        <v>967</v>
+        <v>1007</v>
       </c>
       <c r="I7" t="s">
-        <v>968</v>
+        <v>1008</v>
       </c>
       <c r="J7" t="s">
-        <v>969</v>
+        <v>1009</v>
       </c>
       <c r="K7" t="s">
-        <v>970</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>971</v>
+        <v>1011</v>
       </c>
       <c r="B8" t="s">
-        <v>972</v>
+        <v>1012</v>
       </c>
       <c r="C8" t="s">
-        <v>973</v>
+        <v>1013</v>
       </c>
       <c r="D8" t="s">
-        <v>974</v>
+        <v>1014</v>
       </c>
       <c r="E8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F8" t="s">
-        <v>975</v>
+        <v>1015</v>
       </c>
       <c r="G8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H8" t="s">
-        <v>976</v>
+        <v>1016</v>
       </c>
       <c r="I8" t="s">
-        <v>977</v>
+        <v>1017</v>
       </c>
       <c r="J8" t="s">
-        <v>978</v>
+        <v>1018</v>
       </c>
       <c r="K8" t="s">
-        <v>979</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>980</v>
+        <v>1020</v>
       </c>
       <c r="B9" t="s">
-        <v>981</v>
+        <v>1021</v>
       </c>
       <c r="C9" t="s">
-        <v>982</v>
+        <v>1022</v>
       </c>
       <c r="D9" t="s">
-        <v>983</v>
+        <v>1023</v>
       </c>
       <c r="E9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F9" t="s">
-        <v>984</v>
+        <v>1024</v>
       </c>
       <c r="G9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H9" t="s">
-        <v>985</v>
+        <v>1025</v>
       </c>
       <c r="I9" t="s">
-        <v>986</v>
+        <v>1026</v>
       </c>
       <c r="J9" t="s">
-        <v>987</v>
+        <v>1027</v>
       </c>
       <c r="K9" t="s">
-        <v>988</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>989</v>
+        <v>1029</v>
       </c>
       <c r="B10" t="s">
-        <v>990</v>
+        <v>1030</v>
       </c>
       <c r="C10" t="s">
-        <v>991</v>
+        <v>1031</v>
       </c>
       <c r="D10" t="s">
-        <v>992</v>
+        <v>1032</v>
       </c>
       <c r="E10" t="s">
-        <v>993</v>
+        <v>1033</v>
       </c>
       <c r="F10" t="s">
-        <v>994</v>
+        <v>1034</v>
       </c>
       <c r="G10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H10" t="s">
-        <v>995</v>
+        <v>1035</v>
       </c>
       <c r="I10" t="s">
-        <v>996</v>
+        <v>1036</v>
       </c>
       <c r="J10" t="s">
-        <v>997</v>
+        <v>1037</v>
       </c>
       <c r="K10" t="s">
-        <v>998</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="B11" t="s">
-        <v>1000</v>
+        <v>1040</v>
       </c>
       <c r="C11" t="s">
-        <v>1001</v>
+        <v>1041</v>
       </c>
       <c r="D11" t="s">
-        <v>1002</v>
+        <v>1042</v>
       </c>
       <c r="E11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F11" t="s">
-        <v>1003</v>
+        <v>1043</v>
       </c>
       <c r="G11" t="s">
-        <v>1004</v>
+        <v>1044</v>
       </c>
       <c r="H11" t="s">
-        <v>1005</v>
+        <v>1045</v>
       </c>
       <c r="I11" t="s">
-        <v>87</v>
+        <v>1046</v>
       </c>
       <c r="J11" t="s">
-        <v>1006</v>
+        <v>1047</v>
       </c>
       <c r="K11" t="s">
-        <v>1007</v>
+        <v>1048</v>
       </c>
     </row>
   </sheetData>
@@ -4451,247 +4611,247 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>41</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>42</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>43</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>44</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>45</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>46</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>47</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>48</v>
-      </c>
-      <c r="K1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
         <v>50</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>51</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>52</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>53</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>54</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>55</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>56</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>57</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>58</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>59</v>
-      </c>
-      <c r="K2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
         <v>61</v>
       </c>
-      <c r="B3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>56</v>
       </c>
-      <c r="H3" t="s">
-        <v>57</v>
-      </c>
       <c r="I3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3" t="s">
         <v>58</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>59</v>
-      </c>
-      <c r="K3" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I6" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="J6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -4709,422 +4869,422 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>41</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>42</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>43</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>44</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>45</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>46</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>47</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>48</v>
-      </c>
-      <c r="K1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="K2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G3" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="J3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="K3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G4" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="I4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="J4" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="K4" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B5" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C5" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D5" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E5" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G5" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H5" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I5" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="J5" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="K5" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B6" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C6" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D6" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E6" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F6" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G6" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H6" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I6" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="J6" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K6" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B8" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C8" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D8" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E8" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F8" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G8" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="H8" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="I8" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="J8" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="K8" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B9" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C9" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D9" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E9" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F9" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G9" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="H9" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I9" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="J9" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="K9" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B10" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C10" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D10" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E10" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F10" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="G10" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="H10" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="I10" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="J10" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K10" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B11" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C11" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D11" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F11" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H11" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="I11" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="J11" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="K11" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B12" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C12" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D12" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F12" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="G12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H12" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="I12" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="J12" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="K12" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -5142,597 +5302,597 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>41</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>42</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>43</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>44</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>45</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>46</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>47</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>48</v>
-      </c>
-      <c r="K1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="G2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="H2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="I2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="J2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="K2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C3" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F3" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="G3" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="H3" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="I3" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="J3" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="K3" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B4" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C4" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D4" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="E4" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F4" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="G4" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="H4" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="I4" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="J4" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K4" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B5" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C5" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D5" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="E5" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="F5" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G5" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="H5" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="I5" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="J5" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="K5" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B6" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C6" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D6" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E6" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F6" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="G6" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="H6" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="I6" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="J6" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="K6" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="F7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="G7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="H7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="I7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="J7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="K7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B8" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C8" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D8" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="E8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F8" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="G8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H8" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="I8" t="s">
-        <v>87</v>
+        <v>292</v>
       </c>
       <c r="J8" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="K8" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B9" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C9" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D9" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="E9" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="F9" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="G9" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="H9" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="I9" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="J9" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="K9" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B10" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C10" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="D10" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="E10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F10" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="G10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H10" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="I10" t="s">
-        <v>87</v>
+        <v>312</v>
       </c>
       <c r="J10" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="K10" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="B11" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="C11" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="D11" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="E11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F11" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="G11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H11" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="I11" t="s">
-        <v>87</v>
+        <v>321</v>
       </c>
       <c r="J11" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="K11" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="B12" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="C12" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="D12" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="E12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F12" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="G12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H12" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="I12" t="s">
-        <v>87</v>
+        <v>330</v>
       </c>
       <c r="J12" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="K12" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="B13" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="C13" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="D13" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="E13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F13" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="G13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H13" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="I13" t="s">
-        <v>87</v>
+        <v>339</v>
       </c>
       <c r="J13" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="K13" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="B14" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="C14" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="D14" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="E14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="G14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H14" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="I14" t="s">
-        <v>87</v>
+        <v>348</v>
       </c>
       <c r="J14" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="K14" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="B15" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="C15" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="D15" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="E15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F15" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="G15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H15" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="I15" t="s">
-        <v>87</v>
+        <v>357</v>
       </c>
       <c r="J15" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="K15" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="B16" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="C16" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="D16" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="E16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F16" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="G16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H16" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="I16" t="s">
-        <v>87</v>
+        <v>366</v>
       </c>
       <c r="J16" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="K16" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="B17" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="C17" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="D17" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="E17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F17" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="G17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H17" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="I17" t="s">
-        <v>87</v>
+        <v>375</v>
       </c>
       <c r="J17" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="K17" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>
@@ -5750,457 +5910,457 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>41</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>42</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>43</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>44</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>45</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>46</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>47</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>48</v>
-      </c>
-      <c r="K1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="C2" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="D2" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="E2" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="F2" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="G2" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="H2" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="I2" t="s">
-        <v>87</v>
+        <v>385</v>
       </c>
       <c r="J2" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="K2" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="C3" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="D3" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="G3" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="H3" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="I3" t="s">
-        <v>87</v>
+        <v>394</v>
       </c>
       <c r="J3" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="K3" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="B4" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="C4" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="D4" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="E4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F4" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="G4" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="H4" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="I4" t="s">
-        <v>87</v>
+        <v>404</v>
       </c>
       <c r="J4" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="K4" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="B5" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="C5" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="D5" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="E5" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="F5" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="G5" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="H5" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="I5" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="J5" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="K5" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="B6" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="C6" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="D6" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="E6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F6" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="G6" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="H6" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="I6" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="J6" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="K6" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="B7" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="C7" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="D7" t="s">
-        <v>416</v>
+        <v>431</v>
       </c>
       <c r="E7" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="F7" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
       <c r="G7" t="s">
-        <v>419</v>
+        <v>434</v>
       </c>
       <c r="H7" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="I7" t="s">
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="J7" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="K7" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
       <c r="B8" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
       <c r="C8" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="D8" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="E8" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="F8" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="G8" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
       <c r="H8" t="s">
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="I8" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="J8" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
       <c r="K8" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="B9" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="C9" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="D9" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="E9" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="F9" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="G9" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="H9" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
       <c r="I9" t="s">
-        <v>442</v>
+        <v>457</v>
       </c>
       <c r="J9" t="s">
-        <v>443</v>
+        <v>458</v>
       </c>
       <c r="K9" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="B10" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="C10" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="D10" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="E10" t="s">
-        <v>449</v>
+        <v>464</v>
       </c>
       <c r="F10" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="G10" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="H10" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="I10" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="J10" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="K10" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="B11" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="C11" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
       <c r="D11" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
       <c r="E11" t="s">
-        <v>460</v>
+        <v>475</v>
       </c>
       <c r="F11" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
       <c r="G11" t="s">
-        <v>462</v>
+        <v>477</v>
       </c>
       <c r="H11" t="s">
-        <v>463</v>
+        <v>478</v>
       </c>
       <c r="I11" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="J11" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
       <c r="K11" t="s">
-        <v>466</v>
+        <v>481</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>467</v>
+        <v>482</v>
       </c>
       <c r="B12" t="s">
-        <v>468</v>
+        <v>483</v>
       </c>
       <c r="C12" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="D12" t="s">
-        <v>470</v>
+        <v>485</v>
       </c>
       <c r="E12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F12" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="G12" t="s">
-        <v>472</v>
+        <v>487</v>
       </c>
       <c r="H12" t="s">
-        <v>473</v>
+        <v>488</v>
       </c>
       <c r="I12" t="s">
-        <v>468</v>
+        <v>483</v>
       </c>
       <c r="J12" t="s">
-        <v>474</v>
+        <v>489</v>
       </c>
       <c r="K12" t="s">
-        <v>475</v>
+        <v>490</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
       <c r="B13" t="s">
-        <v>477</v>
+        <v>492</v>
       </c>
       <c r="C13" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
       <c r="D13" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
       <c r="E13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F13" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
       <c r="G13" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
       <c r="H13" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="I13" t="s">
-        <v>477</v>
+        <v>492</v>
       </c>
       <c r="J13" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="K13" t="s">
-        <v>484</v>
+        <v>499</v>
       </c>
     </row>
   </sheetData>
@@ -6218,877 +6378,877 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>41</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>42</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>43</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>44</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>45</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>46</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>47</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>48</v>
-      </c>
-      <c r="K1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>485</v>
+        <v>500</v>
       </c>
       <c r="C2" t="s">
-        <v>486</v>
+        <v>501</v>
       </c>
       <c r="D2" t="s">
-        <v>487</v>
+        <v>502</v>
       </c>
       <c r="E2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>488</v>
+        <v>503</v>
       </c>
       <c r="G2" t="s">
-        <v>489</v>
+        <v>504</v>
       </c>
       <c r="H2" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="I2" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
       <c r="J2" t="s">
-        <v>492</v>
+        <v>507</v>
       </c>
       <c r="K2" t="s">
-        <v>493</v>
+        <v>508</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>494</v>
+        <v>509</v>
       </c>
       <c r="C3" t="s">
-        <v>495</v>
+        <v>510</v>
       </c>
       <c r="D3" t="s">
-        <v>496</v>
+        <v>511</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>497</v>
+        <v>512</v>
       </c>
       <c r="G3" t="s">
-        <v>498</v>
+        <v>513</v>
       </c>
       <c r="H3" t="s">
-        <v>499</v>
+        <v>514</v>
       </c>
       <c r="I3" t="s">
-        <v>500</v>
+        <v>515</v>
       </c>
       <c r="J3" t="s">
-        <v>501</v>
+        <v>516</v>
       </c>
       <c r="K3" t="s">
-        <v>502</v>
+        <v>517</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>503</v>
+        <v>518</v>
       </c>
       <c r="B4" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="C4" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
       <c r="D4" t="s">
-        <v>506</v>
+        <v>521</v>
       </c>
       <c r="E4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F4" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
       <c r="G4" t="s">
-        <v>508</v>
+        <v>523</v>
       </c>
       <c r="H4" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
       <c r="I4" t="s">
-        <v>510</v>
+        <v>525</v>
       </c>
       <c r="J4" t="s">
-        <v>511</v>
+        <v>526</v>
       </c>
       <c r="K4" t="s">
-        <v>512</v>
+        <v>527</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>513</v>
+        <v>528</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D5" t="s">
-        <v>514</v>
+        <v>529</v>
       </c>
       <c r="E5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F5" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>515</v>
+        <v>530</v>
       </c>
       <c r="B6" t="s">
-        <v>516</v>
+        <v>531</v>
       </c>
       <c r="C6" t="s">
-        <v>517</v>
+        <v>532</v>
       </c>
       <c r="D6" t="s">
-        <v>518</v>
+        <v>533</v>
       </c>
       <c r="E6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F6" t="s">
-        <v>519</v>
+        <v>534</v>
       </c>
       <c r="G6" t="s">
-        <v>520</v>
+        <v>535</v>
       </c>
       <c r="H6" t="s">
-        <v>521</v>
+        <v>536</v>
       </c>
       <c r="I6" t="s">
-        <v>522</v>
+        <v>537</v>
       </c>
       <c r="J6" t="s">
-        <v>523</v>
+        <v>538</v>
       </c>
       <c r="K6" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
       <c r="B7" t="s">
-        <v>526</v>
+        <v>541</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D7" t="s">
-        <v>527</v>
+        <v>542</v>
       </c>
       <c r="E7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F7" t="s">
-        <v>528</v>
+        <v>543</v>
       </c>
       <c r="G7" t="s">
-        <v>529</v>
+        <v>544</v>
       </c>
       <c r="H7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I7" t="s">
-        <v>530</v>
+        <v>545</v>
       </c>
       <c r="J7" t="s">
-        <v>531</v>
+        <v>546</v>
       </c>
       <c r="K7" t="s">
-        <v>532</v>
+        <v>547</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>533</v>
+        <v>548</v>
       </c>
       <c r="B8" t="s">
-        <v>534</v>
+        <v>549</v>
       </c>
       <c r="C8" t="s">
-        <v>535</v>
+        <v>550</v>
       </c>
       <c r="D8" t="s">
-        <v>536</v>
+        <v>551</v>
       </c>
       <c r="E8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F8" t="s">
-        <v>537</v>
+        <v>552</v>
       </c>
       <c r="G8" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="H8" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
       <c r="I8" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="J8" t="s">
-        <v>541</v>
+        <v>556</v>
       </c>
       <c r="K8" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>543</v>
+        <v>558</v>
       </c>
       <c r="B9" t="s">
-        <v>544</v>
+        <v>559</v>
       </c>
       <c r="C9" t="s">
-        <v>545</v>
+        <v>560</v>
       </c>
       <c r="D9" t="s">
-        <v>546</v>
+        <v>561</v>
       </c>
       <c r="E9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F9" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
       <c r="G9" t="s">
-        <v>548</v>
+        <v>563</v>
       </c>
       <c r="H9" t="s">
-        <v>549</v>
+        <v>564</v>
       </c>
       <c r="I9" t="s">
-        <v>550</v>
+        <v>565</v>
       </c>
       <c r="J9" t="s">
-        <v>551</v>
+        <v>566</v>
       </c>
       <c r="K9" t="s">
-        <v>552</v>
+        <v>567</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>553</v>
+        <v>568</v>
       </c>
       <c r="B10" t="s">
-        <v>554</v>
+        <v>569</v>
       </c>
       <c r="C10" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="D10" t="s">
-        <v>555</v>
+        <v>570</v>
       </c>
       <c r="E10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F10" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="G10" t="s">
-        <v>556</v>
+        <v>571</v>
       </c>
       <c r="H10" t="s">
-        <v>557</v>
+        <v>572</v>
       </c>
       <c r="I10" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="J10" t="s">
-        <v>558</v>
+        <v>573</v>
       </c>
       <c r="K10" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="B11" t="s">
-        <v>468</v>
+        <v>483</v>
       </c>
       <c r="C11" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="D11" t="s">
-        <v>470</v>
+        <v>485</v>
       </c>
       <c r="E11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F11" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="G11" t="s">
-        <v>472</v>
+        <v>487</v>
       </c>
       <c r="H11" t="s">
-        <v>473</v>
+        <v>488</v>
       </c>
       <c r="I11" t="s">
-        <v>468</v>
+        <v>483</v>
       </c>
       <c r="J11" t="s">
-        <v>560</v>
+        <v>575</v>
       </c>
       <c r="K11" t="s">
-        <v>475</v>
+        <v>490</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>561</v>
+        <v>576</v>
       </c>
       <c r="B12" t="s">
-        <v>477</v>
+        <v>492</v>
       </c>
       <c r="C12" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
       <c r="D12" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
       <c r="E12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F12" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
       <c r="G12" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
       <c r="H12" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="I12" t="s">
-        <v>477</v>
+        <v>492</v>
       </c>
       <c r="J12" t="s">
-        <v>562</v>
+        <v>577</v>
       </c>
       <c r="K12" t="s">
-        <v>563</v>
+        <v>578</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>564</v>
+        <v>579</v>
       </c>
       <c r="B13" t="s">
-        <v>565</v>
+        <v>580</v>
       </c>
       <c r="C13" t="s">
-        <v>566</v>
+        <v>581</v>
       </c>
       <c r="D13" t="s">
-        <v>567</v>
+        <v>582</v>
       </c>
       <c r="E13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F13" t="s">
-        <v>568</v>
+        <v>583</v>
       </c>
       <c r="G13" t="s">
-        <v>569</v>
+        <v>584</v>
       </c>
       <c r="H13" t="s">
-        <v>570</v>
+        <v>585</v>
       </c>
       <c r="I13" t="s">
-        <v>87</v>
+        <v>586</v>
       </c>
       <c r="J13" t="s">
-        <v>571</v>
+        <v>587</v>
       </c>
       <c r="K13" t="s">
-        <v>572</v>
+        <v>588</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>573</v>
+        <v>589</v>
       </c>
       <c r="B14" t="s">
-        <v>574</v>
+        <v>590</v>
       </c>
       <c r="C14" t="s">
-        <v>575</v>
+        <v>591</v>
       </c>
       <c r="D14" t="s">
-        <v>576</v>
+        <v>592</v>
       </c>
       <c r="E14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" t="s">
-        <v>577</v>
+        <v>593</v>
       </c>
       <c r="G14" t="s">
-        <v>578</v>
+        <v>594</v>
       </c>
       <c r="H14" t="s">
-        <v>579</v>
+        <v>595</v>
       </c>
       <c r="I14" t="s">
-        <v>87</v>
+        <v>596</v>
       </c>
       <c r="J14" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
       <c r="K14" t="s">
-        <v>581</v>
+        <v>598</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>582</v>
+        <v>599</v>
       </c>
       <c r="B15" t="s">
-        <v>583</v>
+        <v>600</v>
       </c>
       <c r="C15" t="s">
-        <v>584</v>
+        <v>601</v>
       </c>
       <c r="D15" t="s">
-        <v>585</v>
+        <v>602</v>
       </c>
       <c r="E15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F15" t="s">
-        <v>586</v>
+        <v>603</v>
       </c>
       <c r="G15" t="s">
-        <v>587</v>
+        <v>604</v>
       </c>
       <c r="H15" t="s">
-        <v>588</v>
+        <v>605</v>
       </c>
       <c r="I15" t="s">
-        <v>87</v>
+        <v>606</v>
       </c>
       <c r="J15" t="s">
-        <v>589</v>
+        <v>607</v>
       </c>
       <c r="K15" t="s">
-        <v>590</v>
+        <v>608</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>591</v>
+        <v>609</v>
       </c>
       <c r="B16" t="s">
-        <v>592</v>
+        <v>610</v>
       </c>
       <c r="C16" t="s">
-        <v>593</v>
+        <v>611</v>
       </c>
       <c r="D16" t="s">
-        <v>594</v>
+        <v>612</v>
       </c>
       <c r="E16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F16" t="s">
-        <v>595</v>
+        <v>613</v>
       </c>
       <c r="G16" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="H16" t="s">
-        <v>597</v>
+        <v>615</v>
       </c>
       <c r="I16" t="s">
-        <v>87</v>
+        <v>616</v>
       </c>
       <c r="J16" t="s">
-        <v>598</v>
+        <v>617</v>
       </c>
       <c r="K16" t="s">
-        <v>599</v>
+        <v>618</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>600</v>
+        <v>619</v>
       </c>
       <c r="B17" t="s">
-        <v>601</v>
+        <v>620</v>
       </c>
       <c r="C17" t="s">
-        <v>602</v>
+        <v>621</v>
       </c>
       <c r="D17" t="s">
-        <v>603</v>
+        <v>622</v>
       </c>
       <c r="E17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F17" t="s">
-        <v>604</v>
+        <v>623</v>
       </c>
       <c r="G17" t="s">
-        <v>605</v>
+        <v>624</v>
       </c>
       <c r="H17" t="s">
-        <v>606</v>
+        <v>625</v>
       </c>
       <c r="I17" t="s">
-        <v>87</v>
+        <v>626</v>
       </c>
       <c r="J17" t="s">
-        <v>607</v>
+        <v>627</v>
       </c>
       <c r="K17" t="s">
-        <v>608</v>
+        <v>628</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>609</v>
+        <v>629</v>
       </c>
       <c r="B18" t="s">
-        <v>610</v>
+        <v>630</v>
       </c>
       <c r="C18" t="s">
-        <v>611</v>
+        <v>631</v>
       </c>
       <c r="D18" t="s">
-        <v>612</v>
+        <v>632</v>
       </c>
       <c r="E18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F18" t="s">
-        <v>613</v>
+        <v>633</v>
       </c>
       <c r="G18" t="s">
-        <v>614</v>
+        <v>634</v>
       </c>
       <c r="H18" t="s">
-        <v>615</v>
+        <v>635</v>
       </c>
       <c r="I18" t="s">
-        <v>87</v>
+        <v>636</v>
       </c>
       <c r="J18" t="s">
-        <v>616</v>
+        <v>637</v>
       </c>
       <c r="K18" t="s">
-        <v>617</v>
+        <v>638</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>618</v>
+        <v>639</v>
       </c>
       <c r="B19" t="s">
-        <v>619</v>
+        <v>640</v>
       </c>
       <c r="C19" t="s">
-        <v>620</v>
+        <v>641</v>
       </c>
       <c r="D19" t="s">
-        <v>621</v>
+        <v>642</v>
       </c>
       <c r="E19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F19" t="s">
-        <v>622</v>
+        <v>643</v>
       </c>
       <c r="G19" t="s">
-        <v>623</v>
+        <v>644</v>
       </c>
       <c r="H19" t="s">
-        <v>624</v>
+        <v>645</v>
       </c>
       <c r="I19" t="s">
-        <v>625</v>
+        <v>646</v>
       </c>
       <c r="J19" t="s">
-        <v>626</v>
+        <v>647</v>
       </c>
       <c r="K19" t="s">
-        <v>627</v>
+        <v>648</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>628</v>
+        <v>649</v>
       </c>
       <c r="B20" t="s">
-        <v>629</v>
+        <v>650</v>
       </c>
       <c r="C20" t="s">
-        <v>630</v>
+        <v>651</v>
       </c>
       <c r="D20" t="s">
-        <v>631</v>
+        <v>652</v>
       </c>
       <c r="E20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F20" t="s">
-        <v>632</v>
+        <v>653</v>
       </c>
       <c r="G20" t="s">
-        <v>633</v>
+        <v>654</v>
       </c>
       <c r="H20" t="s">
-        <v>634</v>
+        <v>655</v>
       </c>
       <c r="I20" t="s">
-        <v>635</v>
+        <v>656</v>
       </c>
       <c r="J20" t="s">
-        <v>636</v>
+        <v>657</v>
       </c>
       <c r="K20" t="s">
-        <v>637</v>
+        <v>658</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>638</v>
+        <v>659</v>
       </c>
       <c r="B21" t="s">
-        <v>639</v>
+        <v>660</v>
       </c>
       <c r="C21" t="s">
-        <v>640</v>
+        <v>661</v>
       </c>
       <c r="D21" t="s">
-        <v>641</v>
+        <v>662</v>
       </c>
       <c r="E21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F21" t="s">
-        <v>642</v>
+        <v>663</v>
       </c>
       <c r="G21" t="s">
-        <v>643</v>
+        <v>664</v>
       </c>
       <c r="H21" t="s">
-        <v>644</v>
+        <v>665</v>
       </c>
       <c r="I21" t="s">
-        <v>645</v>
+        <v>666</v>
       </c>
       <c r="J21" t="s">
-        <v>646</v>
+        <v>667</v>
       </c>
       <c r="K21" t="s">
-        <v>647</v>
+        <v>668</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>648</v>
+        <v>669</v>
       </c>
       <c r="B22" t="s">
-        <v>649</v>
+        <v>670</v>
       </c>
       <c r="C22" t="s">
-        <v>650</v>
+        <v>671</v>
       </c>
       <c r="D22" t="s">
-        <v>651</v>
+        <v>672</v>
       </c>
       <c r="E22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F22" t="s">
-        <v>652</v>
+        <v>673</v>
       </c>
       <c r="G22" t="s">
-        <v>653</v>
+        <v>674</v>
       </c>
       <c r="H22" t="s">
-        <v>654</v>
+        <v>675</v>
       </c>
       <c r="I22" t="s">
-        <v>655</v>
+        <v>676</v>
       </c>
       <c r="J22" t="s">
-        <v>656</v>
+        <v>677</v>
       </c>
       <c r="K22" t="s">
-        <v>657</v>
+        <v>678</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>658</v>
+        <v>679</v>
       </c>
       <c r="B23" t="s">
-        <v>659</v>
+        <v>680</v>
       </c>
       <c r="C23" t="s">
-        <v>660</v>
+        <v>681</v>
       </c>
       <c r="D23" t="s">
-        <v>661</v>
+        <v>682</v>
       </c>
       <c r="E23" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F23" t="s">
-        <v>662</v>
+        <v>683</v>
       </c>
       <c r="G23" t="s">
-        <v>663</v>
+        <v>684</v>
       </c>
       <c r="H23" t="s">
-        <v>664</v>
+        <v>685</v>
       </c>
       <c r="I23" t="s">
-        <v>665</v>
+        <v>686</v>
       </c>
       <c r="J23" t="s">
-        <v>666</v>
+        <v>687</v>
       </c>
       <c r="K23" t="s">
-        <v>667</v>
+        <v>688</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>668</v>
+        <v>689</v>
       </c>
       <c r="B24" t="s">
-        <v>669</v>
+        <v>690</v>
       </c>
       <c r="C24" t="s">
-        <v>670</v>
+        <v>691</v>
       </c>
       <c r="D24" t="s">
-        <v>671</v>
+        <v>692</v>
       </c>
       <c r="E24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F24" t="s">
-        <v>672</v>
+        <v>693</v>
       </c>
       <c r="G24" t="s">
-        <v>673</v>
+        <v>694</v>
       </c>
       <c r="H24" t="s">
-        <v>674</v>
+        <v>695</v>
       </c>
       <c r="I24" t="s">
-        <v>675</v>
+        <v>696</v>
       </c>
       <c r="J24" t="s">
-        <v>676</v>
+        <v>697</v>
       </c>
       <c r="K24" t="s">
-        <v>677</v>
+        <v>698</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>678</v>
+        <v>699</v>
       </c>
       <c r="B25" t="s">
-        <v>679</v>
+        <v>700</v>
       </c>
       <c r="C25" t="s">
-        <v>680</v>
+        <v>701</v>
       </c>
       <c r="D25" t="s">
-        <v>681</v>
+        <v>702</v>
       </c>
       <c r="E25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F25" t="s">
-        <v>682</v>
+        <v>703</v>
       </c>
       <c r="G25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s">
-        <v>683</v>
+        <v>704</v>
       </c>
       <c r="I25" t="s">
-        <v>87</v>
+        <v>705</v>
       </c>
       <c r="J25" t="s">
-        <v>684</v>
+        <v>706</v>
       </c>
       <c r="K25" t="s">
-        <v>685</v>
+        <v>707</v>
       </c>
     </row>
   </sheetData>
@@ -7106,433 +7266,457 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>41</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>42</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>43</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>44</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>45</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>46</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>47</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>48</v>
-      </c>
-      <c r="K1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>686</v>
+        <v>708</v>
       </c>
       <c r="C2" t="s">
-        <v>687</v>
+        <v>709</v>
       </c>
       <c r="D2" t="s">
-        <v>688</v>
+        <v>710</v>
       </c>
       <c r="E2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>688</v>
+        <v>711</v>
       </c>
       <c r="G2" t="s">
-        <v>689</v>
+        <v>712</v>
       </c>
       <c r="H2" t="s">
-        <v>690</v>
+        <v>713</v>
       </c>
       <c r="I2" t="s">
-        <v>87</v>
+        <v>714</v>
       </c>
       <c r="J2" t="s">
-        <v>691</v>
+        <v>715</v>
       </c>
       <c r="K2" t="s">
-        <v>692</v>
+        <v>716</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>693</v>
+        <v>717</v>
       </c>
       <c r="C3" t="s">
-        <v>694</v>
+        <v>718</v>
       </c>
       <c r="D3" t="s">
-        <v>695</v>
+        <v>719</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>695</v>
+        <v>720</v>
       </c>
       <c r="G3" t="s">
-        <v>696</v>
+        <v>721</v>
       </c>
       <c r="H3" t="s">
-        <v>697</v>
+        <v>722</v>
       </c>
       <c r="I3" t="s">
-        <v>698</v>
+        <v>723</v>
       </c>
       <c r="J3" t="s">
-        <v>699</v>
+        <v>724</v>
       </c>
       <c r="K3" t="s">
-        <v>700</v>
+        <v>725</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>503</v>
+        <v>518</v>
       </c>
       <c r="B4" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="C4" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
       <c r="D4" t="s">
-        <v>701</v>
+        <v>726</v>
       </c>
       <c r="E4" t="s">
-        <v>702</v>
+        <v>727</v>
       </c>
       <c r="F4" t="s">
-        <v>701</v>
+        <v>728</v>
       </c>
       <c r="G4" t="s">
-        <v>508</v>
+        <v>523</v>
       </c>
       <c r="H4" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
       <c r="I4" t="s">
-        <v>703</v>
+        <v>729</v>
       </c>
       <c r="J4" t="s">
-        <v>704</v>
+        <v>730</v>
       </c>
       <c r="K4" t="s">
-        <v>512</v>
+        <v>527</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>513</v>
+        <v>528</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
+        <v>529</v>
       </c>
       <c r="E5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F5" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>515</v>
+        <v>530</v>
       </c>
       <c r="B6" t="s">
-        <v>516</v>
+        <v>531</v>
       </c>
       <c r="C6" t="s">
-        <v>517</v>
+        <v>532</v>
       </c>
       <c r="D6" t="s">
-        <v>705</v>
+        <v>533</v>
       </c>
       <c r="E6" t="s">
-        <v>706</v>
+        <v>731</v>
       </c>
       <c r="F6" t="s">
-        <v>705</v>
+        <v>732</v>
       </c>
       <c r="G6" t="s">
-        <v>707</v>
+        <v>733</v>
       </c>
       <c r="H6" t="s">
-        <v>521</v>
+        <v>536</v>
       </c>
       <c r="I6" t="s">
-        <v>708</v>
+        <v>734</v>
       </c>
       <c r="J6" t="s">
-        <v>523</v>
+        <v>538</v>
       </c>
       <c r="K6" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
       <c r="B7" t="s">
-        <v>526</v>
+        <v>541</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D7" t="s">
-        <v>528</v>
+        <v>542</v>
       </c>
       <c r="E7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F7" t="s">
-        <v>528</v>
+        <v>543</v>
       </c>
       <c r="G7" t="s">
-        <v>709</v>
+        <v>735</v>
       </c>
       <c r="H7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I7" t="s">
-        <v>530</v>
+        <v>545</v>
       </c>
       <c r="J7" t="s">
-        <v>531</v>
+        <v>546</v>
       </c>
       <c r="K7" t="s">
-        <v>532</v>
+        <v>547</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>710</v>
+        <v>736</v>
       </c>
       <c r="B8" t="s">
-        <v>711</v>
+        <v>737</v>
       </c>
       <c r="C8" t="s">
-        <v>712</v>
+        <v>738</v>
+      </c>
+      <c r="D8" t="s">
+        <v>739</v>
+      </c>
+      <c r="E8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" t="s">
+        <v>740</v>
+      </c>
+      <c r="G8" t="s">
+        <v>88</v>
+      </c>
+      <c r="H8" t="s">
+        <v>88</v>
+      </c>
+      <c r="I8" t="s">
+        <v>741</v>
+      </c>
+      <c r="J8" t="s">
+        <v>742</v>
+      </c>
+      <c r="K8" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>713</v>
+        <v>744</v>
       </c>
       <c r="B9" t="s">
-        <v>714</v>
+        <v>745</v>
       </c>
       <c r="C9" t="s">
-        <v>715</v>
+        <v>746</v>
       </c>
       <c r="D9" t="s">
-        <v>716</v>
+        <v>747</v>
       </c>
       <c r="E9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F9" t="s">
-        <v>716</v>
+        <v>748</v>
       </c>
       <c r="G9" t="s">
-        <v>717</v>
+        <v>749</v>
       </c>
       <c r="H9" t="s">
-        <v>718</v>
+        <v>750</v>
       </c>
       <c r="I9" t="s">
-        <v>719</v>
+        <v>751</v>
       </c>
       <c r="J9" t="s">
-        <v>720</v>
+        <v>752</v>
       </c>
       <c r="K9" t="s">
-        <v>721</v>
+        <v>753</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>722</v>
+        <v>754</v>
       </c>
       <c r="B10" t="s">
-        <v>723</v>
+        <v>755</v>
       </c>
       <c r="C10" t="s">
-        <v>724</v>
+        <v>756</v>
       </c>
       <c r="D10" t="s">
-        <v>725</v>
+        <v>757</v>
       </c>
       <c r="E10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F10" t="s">
-        <v>725</v>
+        <v>758</v>
       </c>
       <c r="G10" t="s">
-        <v>726</v>
+        <v>759</v>
       </c>
       <c r="H10" t="s">
-        <v>727</v>
+        <v>760</v>
       </c>
       <c r="I10" t="s">
-        <v>728</v>
+        <v>761</v>
       </c>
       <c r="J10" t="s">
-        <v>729</v>
+        <v>762</v>
       </c>
       <c r="K10" t="s">
-        <v>730</v>
+        <v>763</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>731</v>
+        <v>764</v>
       </c>
       <c r="B11" t="s">
-        <v>732</v>
+        <v>765</v>
       </c>
       <c r="C11" t="s">
-        <v>733</v>
+        <v>766</v>
       </c>
       <c r="D11" t="s">
-        <v>87</v>
+        <v>767</v>
       </c>
       <c r="E11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F11" t="s">
-        <v>734</v>
+        <v>768</v>
       </c>
       <c r="G11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I11" t="s">
-        <v>87</v>
+        <v>769</v>
       </c>
       <c r="J11" t="s">
-        <v>735</v>
+        <v>770</v>
       </c>
       <c r="K11" t="s">
-        <v>736</v>
+        <v>771</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>737</v>
+        <v>772</v>
       </c>
       <c r="B12" t="s">
-        <v>738</v>
+        <v>773</v>
       </c>
       <c r="C12" t="s">
-        <v>739</v>
+        <v>774</v>
       </c>
       <c r="D12" t="s">
-        <v>87</v>
+        <v>775</v>
       </c>
       <c r="E12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F12" t="s">
-        <v>740</v>
+        <v>776</v>
       </c>
       <c r="G12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I12" t="s">
-        <v>87</v>
+        <v>777</v>
       </c>
       <c r="J12" t="s">
-        <v>741</v>
+        <v>778</v>
       </c>
       <c r="K12" t="s">
-        <v>742</v>
+        <v>779</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>743</v>
+        <v>780</v>
       </c>
       <c r="B13" t="s">
-        <v>744</v>
+        <v>781</v>
       </c>
       <c r="C13" t="s">
-        <v>745</v>
+        <v>782</v>
       </c>
       <c r="D13" t="s">
-        <v>87</v>
+        <v>783</v>
       </c>
       <c r="E13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F13" t="s">
-        <v>746</v>
+        <v>784</v>
       </c>
       <c r="G13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I13" t="s">
-        <v>87</v>
+        <v>785</v>
       </c>
       <c r="J13" t="s">
-        <v>747</v>
+        <v>786</v>
       </c>
       <c r="K13" t="s">
-        <v>748</v>
+        <v>787</v>
       </c>
     </row>
   </sheetData>
@@ -7550,352 +7734,352 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>41</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>42</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>43</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>44</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>45</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>46</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>47</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>48</v>
-      </c>
-      <c r="K1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>749</v>
+        <v>788</v>
       </c>
       <c r="D2" t="s">
-        <v>750</v>
+        <v>789</v>
       </c>
       <c r="E2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>751</v>
+        <v>790</v>
       </c>
       <c r="G2" t="s">
-        <v>752</v>
+        <v>791</v>
       </c>
       <c r="H2" t="s">
-        <v>753</v>
+        <v>792</v>
       </c>
       <c r="I2" t="s">
-        <v>754</v>
+        <v>793</v>
       </c>
       <c r="J2" t="s">
-        <v>755</v>
+        <v>794</v>
       </c>
       <c r="K2" t="s">
-        <v>756</v>
+        <v>795</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>757</v>
+        <v>796</v>
       </c>
       <c r="C3" t="s">
-        <v>758</v>
+        <v>797</v>
       </c>
       <c r="D3" t="s">
-        <v>759</v>
+        <v>798</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>760</v>
+        <v>799</v>
       </c>
       <c r="G3" t="s">
-        <v>761</v>
+        <v>800</v>
       </c>
       <c r="H3" t="s">
-        <v>762</v>
+        <v>801</v>
       </c>
       <c r="I3" t="s">
-        <v>763</v>
+        <v>802</v>
       </c>
       <c r="J3" t="s">
-        <v>764</v>
+        <v>803</v>
       </c>
       <c r="K3" t="s">
-        <v>765</v>
+        <v>804</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>766</v>
+        <v>805</v>
       </c>
       <c r="B4" t="s">
-        <v>767</v>
+        <v>806</v>
       </c>
       <c r="C4" t="s">
-        <v>768</v>
+        <v>807</v>
       </c>
       <c r="D4" t="s">
-        <v>769</v>
+        <v>808</v>
       </c>
       <c r="E4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F4" t="s">
-        <v>770</v>
+        <v>809</v>
       </c>
       <c r="G4" t="s">
-        <v>771</v>
+        <v>810</v>
       </c>
       <c r="H4" t="s">
-        <v>772</v>
+        <v>811</v>
       </c>
       <c r="I4" t="s">
-        <v>773</v>
+        <v>812</v>
       </c>
       <c r="J4" t="s">
-        <v>774</v>
+        <v>813</v>
       </c>
       <c r="K4" t="s">
-        <v>775</v>
+        <v>814</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>776</v>
+        <v>815</v>
       </c>
       <c r="B5" t="s">
-        <v>777</v>
+        <v>816</v>
       </c>
       <c r="C5" t="s">
-        <v>778</v>
+        <v>817</v>
       </c>
       <c r="D5" t="s">
-        <v>779</v>
+        <v>818</v>
       </c>
       <c r="E5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F5" t="s">
-        <v>780</v>
+        <v>819</v>
       </c>
       <c r="G5" t="s">
-        <v>781</v>
+        <v>820</v>
       </c>
       <c r="H5" t="s">
-        <v>782</v>
+        <v>821</v>
       </c>
       <c r="I5" t="s">
-        <v>783</v>
+        <v>822</v>
       </c>
       <c r="J5" t="s">
-        <v>784</v>
+        <v>823</v>
       </c>
       <c r="K5" t="s">
-        <v>785</v>
+        <v>824</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>786</v>
+        <v>825</v>
       </c>
       <c r="B6" t="s">
-        <v>787</v>
+        <v>826</v>
       </c>
       <c r="C6" t="s">
-        <v>788</v>
+        <v>827</v>
       </c>
       <c r="D6" t="s">
-        <v>789</v>
+        <v>828</v>
       </c>
       <c r="E6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F6" t="s">
-        <v>790</v>
+        <v>829</v>
       </c>
       <c r="G6" t="s">
-        <v>791</v>
+        <v>830</v>
       </c>
       <c r="H6" t="s">
-        <v>792</v>
+        <v>831</v>
       </c>
       <c r="I6" t="s">
-        <v>793</v>
+        <v>832</v>
       </c>
       <c r="J6" t="s">
-        <v>794</v>
+        <v>833</v>
       </c>
       <c r="K6" t="s">
-        <v>795</v>
+        <v>834</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>796</v>
+        <v>835</v>
       </c>
       <c r="B7" t="s">
-        <v>797</v>
+        <v>836</v>
       </c>
       <c r="C7" t="s">
-        <v>798</v>
+        <v>837</v>
       </c>
       <c r="D7" t="s">
-        <v>799</v>
+        <v>838</v>
       </c>
       <c r="E7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F7" t="s">
-        <v>797</v>
+        <v>836</v>
       </c>
       <c r="G7" t="s">
-        <v>800</v>
+        <v>839</v>
       </c>
       <c r="H7" t="s">
-        <v>801</v>
+        <v>840</v>
       </c>
       <c r="I7" t="s">
-        <v>802</v>
+        <v>841</v>
       </c>
       <c r="J7" t="s">
-        <v>803</v>
+        <v>842</v>
       </c>
       <c r="K7" t="s">
-        <v>804</v>
+        <v>843</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>805</v>
+        <v>844</v>
       </c>
       <c r="B8" t="s">
-        <v>806</v>
+        <v>845</v>
       </c>
       <c r="C8" t="s">
-        <v>807</v>
+        <v>846</v>
       </c>
       <c r="D8" t="s">
-        <v>808</v>
+        <v>847</v>
       </c>
       <c r="E8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F8" t="s">
-        <v>809</v>
+        <v>848</v>
       </c>
       <c r="G8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H8" t="s">
-        <v>810</v>
+        <v>849</v>
       </c>
       <c r="I8" t="s">
-        <v>811</v>
+        <v>850</v>
       </c>
       <c r="J8" t="s">
-        <v>812</v>
+        <v>851</v>
       </c>
       <c r="K8" t="s">
-        <v>813</v>
+        <v>852</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>814</v>
+        <v>853</v>
       </c>
       <c r="B9" t="s">
-        <v>815</v>
+        <v>854</v>
       </c>
       <c r="C9" t="s">
-        <v>816</v>
+        <v>855</v>
       </c>
       <c r="D9" t="s">
-        <v>817</v>
+        <v>856</v>
       </c>
       <c r="E9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F9" t="s">
-        <v>818</v>
+        <v>857</v>
       </c>
       <c r="G9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H9" t="s">
-        <v>819</v>
+        <v>858</v>
       </c>
       <c r="I9" t="s">
-        <v>820</v>
+        <v>859</v>
       </c>
       <c r="J9" t="s">
-        <v>821</v>
+        <v>860</v>
       </c>
       <c r="K9" t="s">
-        <v>822</v>
+        <v>861</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>823</v>
+        <v>862</v>
       </c>
       <c r="B10" t="s">
-        <v>824</v>
+        <v>863</v>
       </c>
       <c r="C10" t="s">
-        <v>825</v>
+        <v>864</v>
       </c>
       <c r="D10" t="s">
-        <v>826</v>
+        <v>865</v>
       </c>
       <c r="E10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F10" t="s">
-        <v>827</v>
+        <v>866</v>
       </c>
       <c r="G10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H10" t="s">
-        <v>828</v>
+        <v>867</v>
       </c>
       <c r="I10" t="s">
-        <v>87</v>
+        <v>868</v>
       </c>
       <c r="J10" t="s">
-        <v>829</v>
+        <v>869</v>
       </c>
       <c r="K10" t="s">
-        <v>830</v>
+        <v>870</v>
       </c>
     </row>
   </sheetData>
@@ -7913,247 +8097,247 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>41</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>42</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>43</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>44</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>45</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>46</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>47</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>48</v>
-      </c>
-      <c r="K1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>831</v>
+        <v>871</v>
       </c>
       <c r="C2" t="s">
-        <v>832</v>
+        <v>872</v>
       </c>
       <c r="D2" t="s">
-        <v>833</v>
+        <v>873</v>
       </c>
       <c r="E2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>834</v>
+        <v>874</v>
       </c>
       <c r="G2" t="s">
-        <v>835</v>
+        <v>875</v>
       </c>
       <c r="H2" t="s">
-        <v>836</v>
+        <v>876</v>
       </c>
       <c r="I2" t="s">
-        <v>837</v>
+        <v>877</v>
       </c>
       <c r="J2" t="s">
-        <v>838</v>
+        <v>878</v>
       </c>
       <c r="K2" t="s">
-        <v>839</v>
+        <v>879</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>840</v>
+        <v>880</v>
       </c>
       <c r="C3" t="s">
-        <v>841</v>
+        <v>881</v>
       </c>
       <c r="D3" t="s">
-        <v>842</v>
+        <v>882</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>843</v>
+        <v>883</v>
       </c>
       <c r="G3" t="s">
-        <v>844</v>
+        <v>884</v>
       </c>
       <c r="H3" t="s">
-        <v>845</v>
+        <v>885</v>
       </c>
       <c r="I3" t="s">
-        <v>846</v>
+        <v>886</v>
       </c>
       <c r="J3" t="s">
-        <v>847</v>
+        <v>887</v>
       </c>
       <c r="K3" t="s">
-        <v>848</v>
+        <v>888</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>849</v>
+        <v>889</v>
       </c>
       <c r="B4" t="s">
-        <v>850</v>
+        <v>890</v>
       </c>
       <c r="C4" t="s">
-        <v>851</v>
+        <v>891</v>
       </c>
       <c r="D4" t="s">
-        <v>852</v>
+        <v>892</v>
       </c>
       <c r="E4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F4" t="s">
-        <v>853</v>
+        <v>893</v>
       </c>
       <c r="G4" t="s">
-        <v>854</v>
+        <v>894</v>
       </c>
       <c r="H4" t="s">
-        <v>855</v>
+        <v>895</v>
       </c>
       <c r="I4" t="s">
-        <v>850</v>
+        <v>890</v>
       </c>
       <c r="J4" t="s">
-        <v>856</v>
+        <v>896</v>
       </c>
       <c r="K4" t="s">
-        <v>857</v>
+        <v>897</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>858</v>
+        <v>898</v>
       </c>
       <c r="B5" t="s">
-        <v>859</v>
+        <v>899</v>
       </c>
       <c r="C5" t="s">
-        <v>860</v>
+        <v>900</v>
       </c>
       <c r="D5" t="s">
-        <v>861</v>
+        <v>901</v>
       </c>
       <c r="E5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F5" t="s">
-        <v>862</v>
+        <v>902</v>
       </c>
       <c r="G5" t="s">
-        <v>863</v>
+        <v>903</v>
       </c>
       <c r="H5" t="s">
-        <v>864</v>
+        <v>904</v>
       </c>
       <c r="I5" t="s">
-        <v>859</v>
+        <v>899</v>
       </c>
       <c r="J5" t="s">
-        <v>865</v>
+        <v>905</v>
       </c>
       <c r="K5" t="s">
-        <v>866</v>
+        <v>906</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>867</v>
+        <v>907</v>
       </c>
       <c r="B6" t="s">
-        <v>868</v>
+        <v>908</v>
       </c>
       <c r="C6" t="s">
-        <v>869</v>
+        <v>909</v>
       </c>
       <c r="D6" t="s">
-        <v>870</v>
+        <v>910</v>
       </c>
       <c r="E6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F6" t="s">
-        <v>871</v>
+        <v>911</v>
       </c>
       <c r="G6" t="s">
-        <v>872</v>
+        <v>912</v>
       </c>
       <c r="H6" t="s">
-        <v>873</v>
+        <v>913</v>
       </c>
       <c r="I6" t="s">
-        <v>874</v>
+        <v>914</v>
       </c>
       <c r="J6" t="s">
-        <v>875</v>
+        <v>915</v>
       </c>
       <c r="K6" t="s">
-        <v>876</v>
+        <v>916</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>877</v>
+        <v>917</v>
       </c>
       <c r="B7" t="s">
-        <v>878</v>
+        <v>918</v>
       </c>
       <c r="C7" t="s">
-        <v>879</v>
+        <v>919</v>
       </c>
       <c r="D7" t="s">
-        <v>880</v>
+        <v>920</v>
       </c>
       <c r="E7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F7" t="s">
-        <v>881</v>
+        <v>921</v>
       </c>
       <c r="G7" t="s">
-        <v>882</v>
+        <v>922</v>
       </c>
       <c r="H7" t="s">
-        <v>883</v>
+        <v>923</v>
       </c>
       <c r="I7" t="s">
-        <v>884</v>
+        <v>924</v>
       </c>
       <c r="J7" t="s">
-        <v>885</v>
+        <v>925</v>
       </c>
       <c r="K7" t="s">
-        <v>886</v>
+        <v>926</v>
       </c>
     </row>
   </sheetData>

--- a/AdofaiTweaks.Generator/translations.xlsx
+++ b/AdofaiTweaks.Generator/translations.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="1049">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="1051">
   <si>
     <t>Translation Status</t>
   </si>
@@ -365,7 +365,7 @@
     <t>禁用效果</t>
   </si>
   <si>
-    <t>Deaktiviere Effekte</t>
+    <t>Effekte deaktivieren</t>
   </si>
   <si>
     <t>Отключить Эффекты</t>
@@ -398,7 +398,7 @@
     <t>禁用某些效果以提高性能。</t>
   </si>
   <si>
-    <t>Deaktiviert bestimmte Effekte, um Leistung zu verbessern.</t>
+    <t>Deaktiviert bestimmte Effekte, um die Leistung zu verbessern.</t>
   </si>
   <si>
     <t>Отключает определённые эффекты для повышения производельности.</t>
@@ -431,7 +431,7 @@
     <t>禁用VFX筛选器（{0}、{1}等）</t>
   </si>
   <si>
-    <t>Deaktiviere Spezialeffekte ({0}, {1}, usw.)</t>
+    <t>Spezialeffekte deaktivieren ({0}, {1}, usw.)</t>
   </si>
   <si>
     <t>Отключает визуальные фильтры ({0}, {1}, и т. д.)</t>
@@ -464,7 +464,7 @@
     <t>禁用bloom</t>
   </si>
   <si>
-    <t>Deaktiviere Bloom</t>
+    <t>Blühung deaktivieren</t>
   </si>
   <si>
     <t>Отключить свечение</t>
@@ -497,7 +497,7 @@
     <t>禁用屏幕闪烁</t>
   </si>
   <si>
-    <t>Deaktiviert das flackern des Bildschrims</t>
+    <t>Bildschirmblitze deaktivieren</t>
   </si>
   <si>
     <t>Отключить вспышки экрана</t>
@@ -530,7 +530,7 @@
     <t>禁用{0}效果</t>
   </si>
   <si>
-    <t>Deaktiviere "{0}" Effekt</t>
+    <t>"{0}" Effekt deaktivieren</t>
   </si>
   <si>
     <t>Отключить "{0}"</t>
@@ -563,7 +563,7 @@
     <t>禁用屏幕抖动</t>
   </si>
   <si>
-    <t>Deaktiviert das wackeln des Bildschirms</t>
+    <t>Schütteln des Bildschirms deaktivieren</t>
   </si>
   <si>
     <t>Отключить тряску экрана</t>
@@ -596,7 +596,7 @@
     <t>一次移动砖块的最大数量：</t>
   </si>
   <si>
-    <t>Maximale Anzahl an Blöcken auf einmal:</t>
+    <t>Maximale Anzahl an sich bewegenden Kacheln:</t>
   </si>
   <si>
     <t>Максимальное число движущихся плиток одновременно:</t>
@@ -629,7 +629,7 @@
     <t>无限制</t>
   </si>
   <si>
-    <t>Uneingeschränkt</t>
+    <t>Unendlich</t>
   </si>
   <si>
     <t>Неограниченно</t>
@@ -713,7 +713,7 @@
     <t>隐藏UI元素</t>
   </si>
   <si>
-    <t>Verberge UI Elemente</t>
+    <t>UI Elemente verstecken</t>
   </si>
   <si>
     <t>Скрыть части интерфейса</t>
@@ -743,7 +743,7 @@
     <t>在游戏中隐藏某些UI元素。</t>
   </si>
   <si>
-    <t>Verberge bestimmte UI Elemente während dem Spielen.</t>
+    <t>Bestimmte UI Elemente während dem Spielen verstecken.</t>
   </si>
   <si>
     <t>Скрывает части интерфейса в игре.</t>
@@ -776,7 +776,7 @@
     <t>隐藏所有UI元素（注意：这可能还包括菜单中的特定文本）</t>
   </si>
   <si>
-    <t>Verberge ALLE UI Elemente (Achtung: das kann auch für bestimmte Texte in Menü gelten)</t>
+    <t>ALLE UI Elemente verstecken (Achtung: Das kann auch für bestimmte Texte im Menü gelten)</t>
   </si>
   <si>
     <t>Скрыть ВСЕ части интерфейса (Примечание: это также может быть определенный текст в меню)</t>
@@ -809,7 +809,7 @@
     <t>隐藏判定文本（{0}、{1}等）</t>
   </si>
   <si>
-    <t>Verberge den Bewertungstext ({0}, {1}, usw.)</t>
+    <t>Bewertungen ({0}, {1}, usw.) verstecken</t>
   </si>
   <si>
     <t>Скрыть текст оценки ({0}, {1}, и т.д.)</t>
@@ -842,7 +842,7 @@
     <t>隐藏未命中指示器（带圆圈的X图标）</t>
   </si>
   <si>
-    <t>Verberge die Fehltreffer (eingekreiste X icons)</t>
+    <t>Fehltreffer-Indikatoren verstecken (eingekreiste X-se)</t>
   </si>
   <si>
     <t>Скрыть индикатор промаха (круглая иконка X)</t>
@@ -875,7 +875,7 @@
     <t>隐藏歌曲作者和歌名</t>
   </si>
   <si>
-    <t>Verberge Künstlername und Titel</t>
+    <t>Songautor und -titel verstecken</t>
   </si>
   <si>
     <t>Скрыть имя исполнителя и название трека</t>
@@ -902,7 +902,7 @@
     <t>隐藏兔子图标和自动播放文字</t>
   </si>
   <si>
-    <t>Verberge Otto und den automatisch Spielen Text</t>
+    <t>Otto und "automatisches Spielen"-Text verstecken</t>
   </si>
   <si>
     <t>Скрыть Отто и надпись "Автоигра"</t>
@@ -935,7 +935,7 @@
     <t>隐藏“测试版”图标</t>
   </si>
   <si>
-    <t>Verberge den "Beta Build" Text</t>
+    <t>"Beta Build"-Text verstecken</t>
   </si>
   <si>
     <t>Скрыть надпись "Beta Build"/"Alpha Build"</t>
@@ -962,7 +962,7 @@
     <t>隐藏“恭喜”等最后结尾的文本</t>
   </si>
   <si>
-    <t>Verberge "Glückwunsch!" &amp; detaillierte Ergebnisse</t>
+    <t>"Gratulation!" &amp; detaillierte Ergebnisse verstecken</t>
   </si>
   <si>
     <t>Скрыть текст "Поздравляю!" и подробные результаты</t>
@@ -989,7 +989,7 @@
     <t>隐藏命中误差表</t>
   </si>
   <si>
-    <t>Verberge Fehltreffermetrum</t>
+    <t>Fehltreffermetrum verstecken</t>
   </si>
   <si>
     <t>Скрыть шкалу точности</t>
@@ -1016,7 +1016,7 @@
     <t>到达最后一个砖块时隐藏白色闪光</t>
   </si>
   <si>
-    <t>Verberge weißen Flash auf dem letzten Block</t>
+    <t>Weißen Blitz auf der Zielkachel entfernen</t>
   </si>
   <si>
     <t>Скрыть белую вспышку на последней плитке</t>
@@ -1070,7 +1070,7 @@
     <t>使用录制模式切换快捷键</t>
   </si>
   <si>
-    <t>Benutze Tastenbelegung für Aufnahmemodus</t>
+    <t>Tastenbelegung um den Aufnahmemodus ein-/auszuschalten benutzen</t>
   </si>
   <si>
     <t>Использовать сочетание клавиш для включения режима записи</t>
@@ -1124,7 +1124,7 @@
     <t>隐藏计时目标图标</t>
   </si>
   <si>
-    <t>Verberge Zeitiges Treffen-Icon</t>
+    <t>Trefferfenster-Icon verstecken</t>
   </si>
   <si>
     <t>Скрыть иконку сложности</t>
@@ -1151,7 +1151,7 @@
     <t>隐藏不会失败图标</t>
   </si>
   <si>
-    <t>Verberge No Fail-Icon</t>
+    <t>No-Fail-Icon verstecken</t>
   </si>
   <si>
     <t>Скрыть иконку режима бессмертия</t>
@@ -1181,7 +1181,7 @@
     <t>判定图像</t>
   </si>
   <si>
-    <t>Visuelle Bewertung</t>
+    <t>Bewertungsvisualisierung</t>
   </si>
   <si>
     <t>Элементы точности</t>
@@ -1208,7 +1208,7 @@
     <t>改善判定的视觉效果。</t>
   </si>
   <si>
-    <t>Verbessert das Visuelle von Bewertungen.</t>
+    <t>Verbessert die Visualisierung von Bewertungen.</t>
   </si>
   <si>
     <t>Улучшает визуальный вид элементов точности.</t>
@@ -1238,7 +1238,7 @@
     <t>显示命中误差表（判定器）</t>
   </si>
   <si>
-    <t>Zeige Fehltreffermetrum</t>
+    <t>Fehltreffermetrum anzeigen</t>
   </si>
   <si>
     <t>Показать шкалу точности</t>
@@ -1301,7 +1301,7 @@
     <t>点击后显示的时间：</t>
   </si>
   <si>
-    <t>Treffer Anzeigedauer:</t>
+    <t>Anzeigedauer:</t>
   </si>
   <si>
     <t>Время пропадания меток:</t>
@@ -1364,7 +1364,7 @@
     <t>下箭头灵敏度：</t>
   </si>
   <si>
-    <t>Pfeil Sensitivität:</t>
+    <t>Pfeilsensitivität:</t>
   </si>
   <si>
     <t>Чувствительность нижней стрелки:</t>
@@ -1430,7 +1430,7 @@
     <t>不太稳定</t>
   </si>
   <si>
-    <t>Instabiler</t>
+    <t>Weniger stabil</t>
   </si>
   <si>
     <t>Менее стабильная</t>
@@ -1463,7 +1463,7 @@
     <t>隐藏{0}判断</t>
   </si>
   <si>
-    <t>Verberge "{0}" Bewertungen</t>
+    <t>"{0}" Bewertung verstecken</t>
   </si>
   <si>
     <t>Скрыть оценку "{0}"</t>
@@ -1493,6 +1493,9 @@
     <t>X位置：</t>
   </si>
   <si>
+    <t>X-Position:</t>
+  </si>
+  <si>
     <t>Позицие по X:</t>
   </si>
   <si>
@@ -1520,6 +1523,9 @@
     <t>Y位置：</t>
   </si>
   <si>
+    <t>Y-Position:</t>
+  </si>
+  <si>
     <t>Позицие по Y:</t>
   </si>
   <si>
@@ -1544,7 +1550,7 @@
     <t>按键查看器</t>
   </si>
   <si>
-    <t>Tastenanschlaganzeige</t>
+    <t>Tastenanzeiger</t>
   </si>
   <si>
     <t>Показ клавиш</t>
@@ -1571,7 +1577,7 @@
     <t>显示添加按键的按键查看器。</t>
   </si>
   <si>
-    <t>Zeigt eine Tastenanschlaganzeige für registrierte Tasten.</t>
+    <t>Zeigt einen Tastenanzeiger für registrierte Tasten an.</t>
   </si>
   <si>
     <t>Показывает нажимаемые клавиши.</t>
@@ -1637,7 +1643,7 @@
     <t>添加按键/取消按键</t>
   </si>
   <si>
-    <t>Drücke eine beliebige Taste um sie hinzuzufügen/entfernen</t>
+    <t>Drücke eine beliebige Taste um sie hinzuzufügen/entfernen...</t>
   </si>
   <si>
     <t>Нажмите на клавишу что бы назначить/отвязать...</t>
@@ -1661,7 +1667,7 @@
     <t>Đổi phím</t>
   </si>
   <si>
-    <t>Wechsle Tasten</t>
+    <t>Tasten wechseln</t>
   </si>
   <si>
     <t>Сменить клавиши</t>
@@ -1721,7 +1727,7 @@
     <t>设置按键动画</t>
   </si>
   <si>
-    <t>Animierte Tastenanschläge</t>
+    <t>Animierte Tastendrücke</t>
   </si>
   <si>
     <t>Анимированные нажания</t>
@@ -1784,7 +1790,7 @@
     <t>按下按键时的轮廓颜色：</t>
   </si>
   <si>
-    <t>Gedrückt Umrissfarbe:</t>
+    <t>Umrissfarbe beim Drücken:</t>
   </si>
   <si>
     <t>Цвет контура нажатой клавиши:</t>
@@ -1814,7 +1820,7 @@
     <t>原本显示的轮廓颜色：</t>
   </si>
   <si>
-    <t>Nicht gedrückt Umrissfarbe:</t>
+    <t>Umrissfarbe:</t>
   </si>
   <si>
     <t>Цвет контура отпущенной клавиши:</t>
@@ -1844,7 +1850,7 @@
     <t>按下按键时的背景颜色</t>
   </si>
   <si>
-    <t>Gedrückt Hintergrundfarbe:</t>
+    <t>Hintergrundfarbe beim Drücken:</t>
   </si>
   <si>
     <t>Цвет фона нажатой клавиши:</t>
@@ -1874,7 +1880,7 @@
     <t>原本显示的的背景颜色</t>
   </si>
   <si>
-    <t>Nicht gedrückt Hintergrundfarbe:</t>
+    <t>Hintergrundfarbe:</t>
   </si>
   <si>
     <t>Цвет фона отпущенной клавиши:</t>
@@ -1904,7 +1910,7 @@
     <t>按下时的按键颜色</t>
   </si>
   <si>
-    <t>Gedrückt Textfarbe:</t>
+    <t>Textfarbe beim Drücken:</t>
   </si>
   <si>
     <t>Цвет текста нажатой клавиши:</t>
@@ -1934,7 +1940,7 @@
     <t>原本按键的颜色</t>
   </si>
   <si>
-    <t>Nicht gedrückt Textfarbe:</t>
+    <t>Textfarbe:</t>
   </si>
   <si>
     <t>Цвет текста отпущенной клавиши:</t>
@@ -2114,7 +2120,7 @@
     <t>显示按键总数</t>
   </si>
   <si>
-    <t>Zeige alle Tastenanschläge</t>
+    <t>Gesamtzahl an Tastendrücke</t>
   </si>
   <si>
     <t>Показать общее число нажатий</t>
@@ -2141,7 +2147,7 @@
     <t>清除按键计数</t>
   </si>
   <si>
-    <t>Lösche Tastenanschläge</t>
+    <t>Tastendrücke zurücksetzen</t>
   </si>
   <si>
     <t>Очистить общее число нажатий</t>
@@ -2168,7 +2174,7 @@
     <t>按键限制器</t>
   </si>
   <si>
-    <t>Tastenlimit</t>
+    <t>Tastenbegrenzer</t>
   </si>
   <si>
     <t>Ограничитель клавиш</t>
@@ -2195,7 +2201,7 @@
     <t>激活时，限制哪些键算作输入。</t>
   </si>
   <si>
-    <t>Schränkt Tasten ein, die als Tastenanschlag zählen.</t>
+    <t>Schränkt Tasten ein, die als Tastendruck zählen.</t>
   </si>
   <si>
     <t>Когда включено, ограничивает нажимаемые клавишы.</t>
@@ -2213,7 +2219,7 @@
     <t>Touches enregistrées:</t>
   </si>
   <si>
-    <t>Registrierte Tasten</t>
+    <t>Registrierte Tasten:</t>
   </si>
   <si>
     <t>Назначенные клавиши:</t>
@@ -2228,7 +2234,7 @@
     <t>Nhấn phím để thêm / loại bỏ...</t>
   </si>
   <si>
-    <t>Drücke eine beliebiege Taste, um sie hinzuzufügen/entfernen</t>
+    <t>Drücke eine beliebiege Taste, um sie hinzuzufügen/entfernen...</t>
   </si>
   <si>
     <t>Thay đổi phím</t>
@@ -2249,7 +2255,7 @@
     <t>Supprimer toutes les touches</t>
   </si>
   <si>
-    <t>Lösche alle Tasten</t>
+    <t>Alle Tasten zurücksetzen</t>
   </si>
   <si>
     <t>Очистить все клавиши</t>
@@ -2279,7 +2285,7 @@
     <t>自定义关卡中的限制键（自定义关卡里适用）</t>
   </si>
   <si>
-    <t xml:space="preserve">Schränkt Tasten im CLS (Custom Level Select) ein </t>
+    <t xml:space="preserve">Schränkt Tasten im CLS (Custom Levelauswahl) ein </t>
   </si>
   <si>
     <t>Ограничить клавиши в редакторе</t>
@@ -2338,7 +2344,7 @@
   </si>
   <si>
     <t>Ausgewähltes Eingabesystem: {0}
-&lt;b&gt;Achtung: &lt;/b&gt; Die Tasten für synchrone und asynchrone Eingabe sind unterschiedliche Einstellungen</t>
+&lt;b&gt;Achtung: &lt;/b&gt;Die Tasten für synchrone und asynchrone Eingabe sind unterschiedlich eingestellt.</t>
   </si>
   <si>
     <t>Выбранная система ввода: {0}
@@ -2499,7 +2505,7 @@
     <t>在游戏中禁用编辑器放大/缩小</t>
   </si>
   <si>
-    <t>Deaktiviere rein/raus zoomen wärend dem gameplay</t>
+    <t>Deaktiviere rein-/rauszoomen während dem Spielen</t>
   </si>
   <si>
     <t>Отключает приближение в редакторе во время игры</t>
@@ -2529,7 +2535,7 @@
     <t>设置总音量</t>
   </si>
   <si>
-    <t>Stelle die Gesamtlaustärke ein</t>
+    <t>Allgemeine Geräuschlautstärke einstellen</t>
   </si>
   <si>
     <t>Установить определённую громкость для всех хитсаунд</t>
@@ -2583,7 +2589,7 @@
     <t>使用静态音量而不是倍增器</t>
   </si>
   <si>
-    <t>Nutze stetische Hitsoundlautstärke statt einen Multiplikator</t>
+    <t>Nutze statische Geräuschlautstärke anstatt eines Multiplikators</t>
   </si>
   <si>
     <t>Использовать статическую громкость хитсаундов вместо множителя</t>
@@ -2610,7 +2616,7 @@
     <t>忽略起始音量</t>
   </si>
   <si>
-    <t>Ignoriert den ersten Hitsound</t>
+    <t>Ignoriert das erste Schlaggeräusch</t>
   </si>
   <si>
     <t>Игнорировать установленную на карте громкость хитсаундов</t>
@@ -2637,7 +2643,7 @@
     <t>修复未自动启用的异步输入</t>
   </si>
   <si>
-    <t>Repariert Asynchrone Eingabe nicht automatisch aktiviert</t>
+    <t>Asynchrone Eingabe wird repariert, wenn es nicht automatisch aktiviert wird</t>
   </si>
   <si>
     <t>Исправляет, что асинхронный ввод не включался автоматически</t>
@@ -2664,7 +2670,7 @@
     <t>球球的颜色</t>
   </si>
   <si>
-    <t>Planetfarbe</t>
+    <t>Planetenfarbe</t>
   </si>
   <si>
     <t>Цвет планет</t>
@@ -2832,7 +2838,7 @@
     <t>球球的不透明度</t>
   </si>
   <si>
-    <t>Planet Deckkraft</t>
+    <t>Planetendeckkraft</t>
   </si>
   <si>
     <t>Прозрачность планет</t>
@@ -2859,7 +2865,7 @@
     <t>设置球球的不透明度。</t>
   </si>
   <si>
-    <t>Bestimmt die Deckraft der Planeten.</t>
+    <t>Setzt die Deckraft der Planeten.</t>
   </si>
   <si>
     <t>Устанавливает прозрачность планет.</t>
@@ -2922,7 +2928,7 @@
     <t>限制判定</t>
   </si>
   <si>
-    <t>Schränke Bewertungen ein</t>
+    <t>Bewertungen einschränken</t>
   </si>
   <si>
     <t>Ограничивает оценки</t>
@@ -2973,7 +2979,7 @@
     <t>限制以下判定：</t>
   </si>
   <si>
-    <t>Schränke folgende Bewertungen ein:</t>
+    <t>Folgende Bewertungen einschränken:</t>
   </si>
   <si>
     <t>Ограничивает следующие оценки:</t>
@@ -3003,7 +3009,7 @@
     <t>限制判定：{0}</t>
   </si>
   <si>
-    <t>Schränke die Bewertung: "{0}" ein</t>
+    <t>"{0}" einschränken</t>
   </si>
   <si>
     <t>Ограничить оценку "{0}"</t>
@@ -3030,7 +3036,7 @@
     <t>限制操作：</t>
   </si>
   <si>
-    <t>Schränke Aktion ein:</t>
+    <t>Aktion einschränken:</t>
   </si>
   <si>
     <t>Наказание</t>
@@ -3171,7 +3177,7 @@
     <t>判定限制的自定义死亡消息（注意：“{judgment}”事件将替换为判定名称）</t>
   </si>
   <si>
-    <t>Eigene Todesnachricht wenn Bewertungen beschränkt sind (Achtung: "{judgment}" wird mit dem Namen der Bewertung ersetzt)</t>
+    <t>Eigene Todesnachricht bei eingeschalter Einschränkung der Bewertungen (Achtung: "{judgment}" wird mit der Bewertung ersetzt)</t>
   </si>
   <si>
     <t>Пользовательское сообщение после смерти на ограниченной оценке (примечание: "{judgment}" будет заменено на вид оценки)</t>
@@ -3958,34 +3964,34 @@
         <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="C2" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="D2" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="E2" t="s">
         <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="G2" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="H2" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="I2" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="J2" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="K2" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -3993,209 +3999,209 @@
         <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="C3" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="D3" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="E3" t="s">
         <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="G3" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="H3" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="I3" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="J3" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="K3" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="B4" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="C4" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="D4" t="s">
+        <v>894</v>
+      </c>
+      <c r="E4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" t="s">
+        <v>895</v>
+      </c>
+      <c r="G4" t="s">
+        <v>896</v>
+      </c>
+      <c r="H4" t="s">
+        <v>897</v>
+      </c>
+      <c r="I4" t="s">
         <v>892</v>
       </c>
-      <c r="E4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F4" t="s">
-        <v>893</v>
-      </c>
-      <c r="G4" t="s">
-        <v>894</v>
-      </c>
-      <c r="H4" t="s">
-        <v>895</v>
-      </c>
-      <c r="I4" t="s">
-        <v>890</v>
-      </c>
       <c r="J4" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="K4" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="B5" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="C5" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="D5" t="s">
+        <v>903</v>
+      </c>
+      <c r="E5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" t="s">
+        <v>904</v>
+      </c>
+      <c r="G5" t="s">
+        <v>905</v>
+      </c>
+      <c r="H5" t="s">
+        <v>906</v>
+      </c>
+      <c r="I5" t="s">
         <v>901</v>
       </c>
-      <c r="E5" t="s">
-        <v>88</v>
-      </c>
-      <c r="F5" t="s">
-        <v>902</v>
-      </c>
-      <c r="G5" t="s">
-        <v>903</v>
-      </c>
-      <c r="H5" t="s">
-        <v>904</v>
-      </c>
-      <c r="I5" t="s">
-        <v>899</v>
-      </c>
       <c r="J5" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="K5" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="B6" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="C6" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="D6" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="E6" t="s">
         <v>88</v>
       </c>
       <c r="F6" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="G6" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="H6" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="I6" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="J6" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="K6" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="B7" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="C7" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="D7" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="E7" t="s">
         <v>88</v>
       </c>
       <c r="F7" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="G7" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="H7" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="I7" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="J7" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="K7" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="B8" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="C8" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="D8" t="s">
+        <v>954</v>
+      </c>
+      <c r="E8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" t="s">
+        <v>955</v>
+      </c>
+      <c r="G8" t="s">
+        <v>88</v>
+      </c>
+      <c r="H8" t="s">
+        <v>956</v>
+      </c>
+      <c r="I8" t="s">
         <v>952</v>
       </c>
-      <c r="E8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F8" t="s">
-        <v>953</v>
-      </c>
-      <c r="G8" t="s">
-        <v>88</v>
-      </c>
-      <c r="H8" t="s">
-        <v>954</v>
-      </c>
-      <c r="I8" t="s">
-        <v>950</v>
-      </c>
       <c r="J8" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="K8" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
     </row>
   </sheetData>
@@ -4251,34 +4257,34 @@
         <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="C2" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="D2" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="E2" t="s">
         <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="G2" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="H2" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="I2" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="J2" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="K2" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -4286,314 +4292,314 @@
         <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="C3" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="D3" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="E3" t="s">
         <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="G3" t="s">
         <v>88</v>
       </c>
       <c r="H3" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="I3" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="J3" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="K3" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="B4" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="C4" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="D4" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="E4" t="s">
         <v>88</v>
       </c>
       <c r="F4" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="G4" t="s">
         <v>88</v>
       </c>
       <c r="H4" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="I4" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="J4" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="K4" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="B5" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="C5" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="D5" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="E5" t="s">
         <v>88</v>
       </c>
       <c r="F5" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="G5" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="H5" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="I5" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="J5" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="K5" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="B6" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="C6" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="D6" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="E6" t="s">
         <v>88</v>
       </c>
       <c r="F6" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="G6" t="s">
         <v>88</v>
       </c>
       <c r="H6" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="I6" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="J6" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="K6" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="B7" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="C7" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="D7" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="E7" t="s">
         <v>88</v>
       </c>
       <c r="F7" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="G7" t="s">
         <v>88</v>
       </c>
       <c r="H7" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="I7" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="J7" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="K7" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="B8" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="C8" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="D8" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="E8" t="s">
         <v>88</v>
       </c>
       <c r="F8" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="G8" t="s">
         <v>88</v>
       </c>
       <c r="H8" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="I8" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="J8" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="K8" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="B9" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="C9" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="D9" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="E9" t="s">
         <v>88</v>
       </c>
       <c r="F9" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="G9" t="s">
         <v>88</v>
       </c>
       <c r="H9" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="I9" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="J9" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="K9" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="B10" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="C10" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="D10" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="E10" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="F10" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="G10" t="s">
         <v>88</v>
       </c>
       <c r="H10" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="I10" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="J10" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="K10" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="B11" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="C11" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="D11" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="E11" t="s">
         <v>88</v>
       </c>
       <c r="F11" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="G11" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="H11" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="I11" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="J11" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="K11" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
     </row>
   </sheetData>
@@ -6319,48 +6325,48 @@
         <v>488</v>
       </c>
       <c r="I12" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="J12" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="K12" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B13" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C13" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D13" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E13" t="s">
         <v>88</v>
       </c>
       <c r="F13" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G13" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H13" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I13" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="J13" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="K13" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
   </sheetData>
@@ -6416,34 +6422,34 @@
         <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C2" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="D2" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="E2" t="s">
         <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="G2" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="H2" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="I2" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="J2" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="K2" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -6451,74 +6457,74 @@
         <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C3" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D3" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="E3" t="s">
         <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="G3" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="H3" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="I3" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="J3" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="K3" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B4" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C4" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="D4" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="E4" t="s">
         <v>88</v>
       </c>
       <c r="F4" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="G4" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="H4" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="I4" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="J4" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="K4" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B5" t="s">
         <v>95</v>
@@ -6527,7 +6533,7 @@
         <v>96</v>
       </c>
       <c r="D5" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="E5" t="s">
         <v>88</v>
@@ -6553,156 +6559,156 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B6" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C6" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="D6" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="E6" t="s">
         <v>88</v>
       </c>
       <c r="F6" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="G6" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="H6" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="I6" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="J6" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="K6" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B7" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C7" t="s">
         <v>86</v>
       </c>
       <c r="D7" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="E7" t="s">
         <v>88</v>
       </c>
       <c r="F7" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="G7" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="H7" t="s">
         <v>90</v>
       </c>
       <c r="I7" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="J7" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="K7" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B8" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C8" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="D8" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="E8" t="s">
         <v>88</v>
       </c>
       <c r="F8" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="G8" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="H8" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="I8" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="J8" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="K8" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B9" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="C9" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="D9" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="E9" t="s">
         <v>88</v>
       </c>
       <c r="F9" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="G9" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="H9" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="I9" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="J9" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="K9" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B10" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="C10" t="s">
         <v>409</v>
       </c>
       <c r="D10" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="E10" t="s">
         <v>88</v>
@@ -6711,16 +6717,16 @@
         <v>412</v>
       </c>
       <c r="G10" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="H10" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="I10" t="s">
         <v>415</v>
       </c>
       <c r="J10" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="K10" t="s">
         <v>417</v>
@@ -6728,7 +6734,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B11" t="s">
         <v>483</v>
@@ -6752,503 +6758,503 @@
         <v>488</v>
       </c>
       <c r="I11" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="J11" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="K11" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B12" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C12" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D12" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E12" t="s">
         <v>88</v>
       </c>
       <c r="F12" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G12" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H12" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I12" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="J12" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="K12" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B13" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="C13" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="D13" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="E13" t="s">
         <v>88</v>
       </c>
       <c r="F13" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="G13" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="H13" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="I13" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="J13" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="K13" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="B14" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="C14" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="D14" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="E14" t="s">
         <v>88</v>
       </c>
       <c r="F14" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="G14" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="H14" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="I14" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="J14" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="K14" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B15" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="C15" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="D15" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="E15" t="s">
         <v>88</v>
       </c>
       <c r="F15" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="G15" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="H15" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="I15" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="J15" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="K15" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B16" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="C16" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="D16" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="E16" t="s">
         <v>88</v>
       </c>
       <c r="F16" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="G16" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="H16" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="I16" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="J16" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="K16" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B17" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="C17" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="D17" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="E17" t="s">
         <v>88</v>
       </c>
       <c r="F17" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="G17" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="H17" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="I17" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="J17" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="K17" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="B18" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="C18" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="D18" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="E18" t="s">
         <v>88</v>
       </c>
       <c r="F18" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="G18" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="H18" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="I18" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="J18" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="K18" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B19" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="C19" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="D19" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="E19" t="s">
         <v>88</v>
       </c>
       <c r="F19" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="G19" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="H19" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="I19" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="J19" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="K19" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B20" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="C20" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="D20" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="E20" t="s">
         <v>88</v>
       </c>
       <c r="F20" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="G20" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="H20" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="I20" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="J20" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="K20" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B21" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="C21" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="D21" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="E21" t="s">
         <v>88</v>
       </c>
       <c r="F21" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="G21" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="H21" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="I21" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="J21" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="K21" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="B22" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="C22" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="D22" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="E22" t="s">
         <v>88</v>
       </c>
       <c r="F22" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="G22" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="H22" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="I22" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="J22" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="K22" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="B23" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C23" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D23" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="E23" t="s">
         <v>88</v>
       </c>
       <c r="F23" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="G23" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="H23" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="I23" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="J23" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="K23" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="B24" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="C24" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="D24" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="E24" t="s">
         <v>88</v>
       </c>
       <c r="F24" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="G24" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="H24" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="I24" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="J24" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="K24" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="B25" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="C25" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="D25" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="E25" t="s">
         <v>88</v>
       </c>
       <c r="F25" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="G25" t="s">
         <v>88</v>
       </c>
       <c r="H25" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="I25" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="J25" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="K25" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
     </row>
   </sheetData>
@@ -7304,34 +7310,34 @@
         <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="C2" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="D2" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="E2" t="s">
         <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="G2" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="H2" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="I2" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="J2" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="K2" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -7339,74 +7345,74 @@
         <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="C3" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="D3" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="E3" t="s">
         <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="G3" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="H3" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="I3" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="J3" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="K3" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B4" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C4" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="D4" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="E4" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="F4" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="G4" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="H4" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="I4" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="J4" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="K4" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B5" t="s">
         <v>95</v>
@@ -7415,7 +7421,7 @@
         <v>96</v>
       </c>
       <c r="D5" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="E5" t="s">
         <v>98</v>
@@ -7441,92 +7447,92 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B6" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C6" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="D6" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="E6" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="F6" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="G6" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="H6" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="I6" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="J6" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="K6" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B7" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C7" t="s">
         <v>86</v>
       </c>
       <c r="D7" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="E7" t="s">
         <v>88</v>
       </c>
       <c r="F7" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="G7" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="H7" t="s">
         <v>90</v>
       </c>
       <c r="I7" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="J7" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="K7" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="B8" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="C8" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="D8" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="E8" t="s">
         <v>88</v>
       </c>
       <c r="F8" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="G8" t="s">
         <v>88</v>
@@ -7535,103 +7541,103 @@
         <v>88</v>
       </c>
       <c r="I8" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="J8" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="K8" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="B9" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="C9" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="D9" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="E9" t="s">
         <v>88</v>
       </c>
       <c r="F9" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="G9" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="H9" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="I9" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="J9" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="K9" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="B10" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="C10" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="D10" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="E10" t="s">
         <v>88</v>
       </c>
       <c r="F10" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="G10" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="H10" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="I10" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="J10" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="K10" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="B11" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="C11" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="D11" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="E11" t="s">
         <v>88</v>
       </c>
       <c r="F11" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="G11" t="s">
         <v>88</v>
@@ -7640,33 +7646,33 @@
         <v>88</v>
       </c>
       <c r="I11" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="J11" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="K11" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="B12" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="C12" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="D12" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="E12" t="s">
         <v>88</v>
       </c>
       <c r="F12" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="G12" t="s">
         <v>88</v>
@@ -7675,33 +7681,33 @@
         <v>88</v>
       </c>
       <c r="I12" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="J12" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="K12" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="B13" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="C13" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="D13" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="E13" t="s">
         <v>88</v>
       </c>
       <c r="F13" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="G13" t="s">
         <v>88</v>
@@ -7710,13 +7716,13 @@
         <v>88</v>
       </c>
       <c r="I13" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="J13" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="K13" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
   </sheetData>
@@ -7775,31 +7781,31 @@
         <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="D2" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="E2" t="s">
         <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="G2" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="H2" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="I2" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="J2" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="K2" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -7807,279 +7813,279 @@
         <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="C3" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="D3" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="E3" t="s">
         <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="G3" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="H3" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="I3" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="J3" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="K3" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="B4" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="C4" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="D4" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="E4" t="s">
         <v>88</v>
       </c>
       <c r="F4" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="G4" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="H4" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="I4" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="J4" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="K4" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="B5" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="C5" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="D5" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="E5" t="s">
         <v>88</v>
       </c>
       <c r="F5" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="G5" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="H5" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="I5" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="J5" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="K5" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="B6" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="C6" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="D6" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="E6" t="s">
         <v>88</v>
       </c>
       <c r="F6" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="G6" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="H6" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="I6" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="J6" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="K6" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="B7" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="C7" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="D7" t="s">
+        <v>840</v>
+      </c>
+      <c r="E7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" t="s">
         <v>838</v>
       </c>
-      <c r="E7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F7" t="s">
-        <v>836</v>
-      </c>
       <c r="G7" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="H7" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="I7" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="J7" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="K7" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="B8" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="C8" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="D8" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="E8" t="s">
         <v>88</v>
       </c>
       <c r="F8" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="G8" t="s">
         <v>88</v>
       </c>
       <c r="H8" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="I8" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="J8" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="K8" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="B9" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="C9" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="D9" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="E9" t="s">
         <v>88</v>
       </c>
       <c r="F9" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="G9" t="s">
         <v>88</v>
       </c>
       <c r="H9" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="I9" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="J9" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="K9" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="B10" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="C10" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="D10" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="E10" t="s">
         <v>88</v>
       </c>
       <c r="F10" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="G10" t="s">
         <v>88</v>
       </c>
       <c r="H10" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="I10" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="J10" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="K10" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
     </row>
   </sheetData>
@@ -8135,34 +8141,34 @@
         <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="C2" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="D2" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="E2" t="s">
         <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="G2" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="H2" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="I2" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="J2" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="K2" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -8170,174 +8176,174 @@
         <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="C3" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="D3" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="E3" t="s">
         <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="G3" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="H3" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="I3" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="J3" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="K3" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="B4" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="C4" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="D4" t="s">
+        <v>894</v>
+      </c>
+      <c r="E4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" t="s">
+        <v>895</v>
+      </c>
+      <c r="G4" t="s">
+        <v>896</v>
+      </c>
+      <c r="H4" t="s">
+        <v>897</v>
+      </c>
+      <c r="I4" t="s">
         <v>892</v>
       </c>
-      <c r="E4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F4" t="s">
-        <v>893</v>
-      </c>
-      <c r="G4" t="s">
-        <v>894</v>
-      </c>
-      <c r="H4" t="s">
-        <v>895</v>
-      </c>
-      <c r="I4" t="s">
-        <v>890</v>
-      </c>
       <c r="J4" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="K4" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="B5" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="C5" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="D5" t="s">
+        <v>903</v>
+      </c>
+      <c r="E5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" t="s">
+        <v>904</v>
+      </c>
+      <c r="G5" t="s">
+        <v>905</v>
+      </c>
+      <c r="H5" t="s">
+        <v>906</v>
+      </c>
+      <c r="I5" t="s">
         <v>901</v>
       </c>
-      <c r="E5" t="s">
-        <v>88</v>
-      </c>
-      <c r="F5" t="s">
-        <v>902</v>
-      </c>
-      <c r="G5" t="s">
-        <v>903</v>
-      </c>
-      <c r="H5" t="s">
-        <v>904</v>
-      </c>
-      <c r="I5" t="s">
-        <v>899</v>
-      </c>
       <c r="J5" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="K5" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="B6" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="C6" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="D6" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="E6" t="s">
         <v>88</v>
       </c>
       <c r="F6" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="G6" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="H6" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="I6" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="J6" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="K6" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="B7" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="C7" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="D7" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="E7" t="s">
         <v>88</v>
       </c>
       <c r="F7" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="G7" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="H7" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="I7" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="J7" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="K7" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
     </row>
   </sheetData>

--- a/AdofaiTweaks.Generator/translations.xlsx
+++ b/AdofaiTweaks.Generator/translations.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="1051">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="1055">
   <si>
     <t>Translation Status</t>
   </si>
@@ -2253,6 +2253,9 @@
   </si>
   <si>
     <t>Supprimer toutes les touches</t>
+  </si>
+  <si>
+    <t>清除所有按键</t>
   </si>
   <si>
     <t>Alle Tasten zurücksetzen</t>
@@ -2343,6 +2346,11 @@
 &lt;b&gt;NOTE: &lt;/b&gt; Les touches enregistrées pour les modes synchrone et asynchrone sont séparés l'un de l'autre.</t>
   </si>
   <si>
+    <t>当前选择的输入系统：｛0｝_x000D_
+_x000D_
+&lt;b&gt;注意：&lt;/b&gt;同步输入和异步输入的按键设置是彼此独立的设置</t>
+  </si>
+  <si>
     <t>Ausgewähltes Eingabesystem: {0}
 &lt;b&gt;Achtung: &lt;/b&gt;Die Tasten für synchrone und asynchrone Eingabe sind unterschiedlich eingestellt.</t>
   </si>
@@ -2370,6 +2378,9 @@
     <t>Système d'entrée asynchrone</t>
   </si>
   <si>
+    <t>异步输入系统</t>
+  </si>
+  <si>
     <t>Asynchrones Eingabesystem</t>
   </si>
   <si>
@@ -2392,6 +2403,9 @@
   </si>
   <si>
     <t>Système d'entrée synchrone</t>
+  </si>
+  <si>
+    <t>同步输入系统</t>
   </si>
   <si>
     <t xml:space="preserve">Synchrones Eingabesystem </t>
@@ -3759,7 +3773,7 @@
         <v>26</v>
       </c>
       <c r="H8" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="I8" t="s">
         <v>13</v>
@@ -3964,34 +3978,34 @@
         <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>929</v>
+        <v>933</v>
       </c>
       <c r="C2" t="s">
-        <v>930</v>
+        <v>934</v>
       </c>
       <c r="D2" t="s">
-        <v>931</v>
+        <v>935</v>
       </c>
       <c r="E2" t="s">
         <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>932</v>
+        <v>936</v>
       </c>
       <c r="G2" t="s">
-        <v>933</v>
+        <v>937</v>
       </c>
       <c r="H2" t="s">
-        <v>934</v>
+        <v>938</v>
       </c>
       <c r="I2" t="s">
-        <v>935</v>
+        <v>939</v>
       </c>
       <c r="J2" t="s">
-        <v>936</v>
+        <v>940</v>
       </c>
       <c r="K2" t="s">
-        <v>937</v>
+        <v>941</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -3999,209 +4013,209 @@
         <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>938</v>
+        <v>942</v>
       </c>
       <c r="C3" t="s">
-        <v>939</v>
+        <v>943</v>
       </c>
       <c r="D3" t="s">
-        <v>940</v>
+        <v>944</v>
       </c>
       <c r="E3" t="s">
         <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>941</v>
+        <v>945</v>
       </c>
       <c r="G3" t="s">
-        <v>942</v>
+        <v>946</v>
       </c>
       <c r="H3" t="s">
-        <v>943</v>
+        <v>947</v>
       </c>
       <c r="I3" t="s">
-        <v>944</v>
+        <v>948</v>
       </c>
       <c r="J3" t="s">
-        <v>945</v>
+        <v>949</v>
       </c>
       <c r="K3" t="s">
-        <v>946</v>
+        <v>950</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>891</v>
+        <v>895</v>
       </c>
       <c r="B4" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="C4" t="s">
-        <v>893</v>
+        <v>897</v>
       </c>
       <c r="D4" t="s">
-        <v>894</v>
+        <v>898</v>
       </c>
       <c r="E4" t="s">
         <v>88</v>
       </c>
       <c r="F4" t="s">
-        <v>895</v>
+        <v>899</v>
       </c>
       <c r="G4" t="s">
+        <v>900</v>
+      </c>
+      <c r="H4" t="s">
+        <v>901</v>
+      </c>
+      <c r="I4" t="s">
         <v>896</v>
       </c>
-      <c r="H4" t="s">
-        <v>897</v>
-      </c>
-      <c r="I4" t="s">
-        <v>892</v>
-      </c>
       <c r="J4" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="K4" t="s">
-        <v>947</v>
+        <v>951</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="B5" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="C5" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="D5" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="E5" t="s">
         <v>88</v>
       </c>
       <c r="F5" t="s">
-        <v>904</v>
+        <v>908</v>
       </c>
       <c r="G5" t="s">
+        <v>909</v>
+      </c>
+      <c r="H5" t="s">
+        <v>910</v>
+      </c>
+      <c r="I5" t="s">
         <v>905</v>
       </c>
-      <c r="H5" t="s">
-        <v>906</v>
-      </c>
-      <c r="I5" t="s">
-        <v>901</v>
-      </c>
       <c r="J5" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="K5" t="s">
-        <v>948</v>
+        <v>952</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="B6" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
       <c r="C6" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="D6" t="s">
-        <v>912</v>
+        <v>916</v>
       </c>
       <c r="E6" t="s">
         <v>88</v>
       </c>
       <c r="F6" t="s">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="G6" t="s">
-        <v>914</v>
+        <v>918</v>
       </c>
       <c r="H6" t="s">
-        <v>949</v>
+        <v>953</v>
       </c>
       <c r="I6" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="J6" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="K6" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="B7" t="s">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="C7" t="s">
-        <v>921</v>
+        <v>925</v>
       </c>
       <c r="D7" t="s">
-        <v>922</v>
+        <v>926</v>
       </c>
       <c r="E7" t="s">
         <v>88</v>
       </c>
       <c r="F7" t="s">
-        <v>923</v>
+        <v>927</v>
       </c>
       <c r="G7" t="s">
-        <v>924</v>
+        <v>928</v>
       </c>
       <c r="H7" t="s">
-        <v>950</v>
+        <v>954</v>
       </c>
       <c r="I7" t="s">
-        <v>926</v>
+        <v>930</v>
       </c>
       <c r="J7" t="s">
-        <v>927</v>
+        <v>931</v>
       </c>
       <c r="K7" t="s">
-        <v>928</v>
+        <v>932</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>951</v>
+        <v>955</v>
       </c>
       <c r="B8" t="s">
-        <v>952</v>
+        <v>956</v>
       </c>
       <c r="C8" t="s">
-        <v>953</v>
+        <v>957</v>
       </c>
       <c r="D8" t="s">
-        <v>954</v>
+        <v>958</v>
       </c>
       <c r="E8" t="s">
         <v>88</v>
       </c>
       <c r="F8" t="s">
-        <v>955</v>
+        <v>959</v>
       </c>
       <c r="G8" t="s">
         <v>88</v>
       </c>
       <c r="H8" t="s">
+        <v>960</v>
+      </c>
+      <c r="I8" t="s">
         <v>956</v>
       </c>
-      <c r="I8" t="s">
-        <v>952</v>
-      </c>
       <c r="J8" t="s">
-        <v>957</v>
+        <v>961</v>
       </c>
       <c r="K8" t="s">
-        <v>958</v>
+        <v>962</v>
       </c>
     </row>
   </sheetData>
@@ -4257,34 +4271,34 @@
         <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>959</v>
+        <v>963</v>
       </c>
       <c r="C2" t="s">
-        <v>960</v>
+        <v>964</v>
       </c>
       <c r="D2" t="s">
-        <v>961</v>
+        <v>965</v>
       </c>
       <c r="E2" t="s">
         <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>962</v>
+        <v>966</v>
       </c>
       <c r="G2" t="s">
-        <v>963</v>
+        <v>967</v>
       </c>
       <c r="H2" t="s">
-        <v>964</v>
+        <v>968</v>
       </c>
       <c r="I2" t="s">
-        <v>965</v>
+        <v>969</v>
       </c>
       <c r="J2" t="s">
-        <v>966</v>
+        <v>970</v>
       </c>
       <c r="K2" t="s">
-        <v>967</v>
+        <v>971</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -4292,314 +4306,314 @@
         <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>968</v>
+        <v>972</v>
       </c>
       <c r="C3" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="D3" t="s">
-        <v>970</v>
+        <v>974</v>
       </c>
       <c r="E3" t="s">
         <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>971</v>
+        <v>975</v>
       </c>
       <c r="G3" t="s">
         <v>88</v>
       </c>
       <c r="H3" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="I3" t="s">
-        <v>973</v>
+        <v>977</v>
       </c>
       <c r="J3" t="s">
-        <v>974</v>
+        <v>978</v>
       </c>
       <c r="K3" t="s">
-        <v>975</v>
+        <v>979</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>976</v>
+        <v>980</v>
       </c>
       <c r="B4" t="s">
-        <v>977</v>
+        <v>981</v>
       </c>
       <c r="C4" t="s">
-        <v>978</v>
+        <v>982</v>
       </c>
       <c r="D4" t="s">
-        <v>979</v>
+        <v>983</v>
       </c>
       <c r="E4" t="s">
         <v>88</v>
       </c>
       <c r="F4" t="s">
-        <v>980</v>
+        <v>984</v>
       </c>
       <c r="G4" t="s">
         <v>88</v>
       </c>
       <c r="H4" t="s">
-        <v>981</v>
+        <v>985</v>
       </c>
       <c r="I4" t="s">
-        <v>982</v>
+        <v>986</v>
       </c>
       <c r="J4" t="s">
-        <v>983</v>
+        <v>987</v>
       </c>
       <c r="K4" t="s">
-        <v>984</v>
+        <v>988</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>985</v>
+        <v>989</v>
       </c>
       <c r="B5" t="s">
-        <v>986</v>
+        <v>990</v>
       </c>
       <c r="C5" t="s">
-        <v>987</v>
+        <v>991</v>
       </c>
       <c r="D5" t="s">
-        <v>988</v>
+        <v>992</v>
       </c>
       <c r="E5" t="s">
         <v>88</v>
       </c>
       <c r="F5" t="s">
-        <v>989</v>
+        <v>993</v>
       </c>
       <c r="G5" t="s">
-        <v>990</v>
+        <v>994</v>
       </c>
       <c r="H5" t="s">
-        <v>991</v>
+        <v>995</v>
       </c>
       <c r="I5" t="s">
-        <v>992</v>
+        <v>996</v>
       </c>
       <c r="J5" t="s">
-        <v>993</v>
+        <v>997</v>
       </c>
       <c r="K5" t="s">
-        <v>994</v>
+        <v>998</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>995</v>
+        <v>999</v>
       </c>
       <c r="B6" t="s">
-        <v>996</v>
+        <v>1000</v>
       </c>
       <c r="C6" t="s">
-        <v>997</v>
+        <v>1001</v>
       </c>
       <c r="D6" t="s">
-        <v>998</v>
+        <v>1002</v>
       </c>
       <c r="E6" t="s">
         <v>88</v>
       </c>
       <c r="F6" t="s">
-        <v>999</v>
+        <v>1003</v>
       </c>
       <c r="G6" t="s">
         <v>88</v>
       </c>
       <c r="H6" t="s">
-        <v>1000</v>
+        <v>1004</v>
       </c>
       <c r="I6" t="s">
-        <v>1001</v>
+        <v>1005</v>
       </c>
       <c r="J6" t="s">
-        <v>1002</v>
+        <v>1006</v>
       </c>
       <c r="K6" t="s">
-        <v>1003</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>1004</v>
+        <v>1008</v>
       </c>
       <c r="B7" t="s">
-        <v>1005</v>
+        <v>1009</v>
       </c>
       <c r="C7" t="s">
-        <v>1006</v>
+        <v>1010</v>
       </c>
       <c r="D7" t="s">
-        <v>1007</v>
+        <v>1011</v>
       </c>
       <c r="E7" t="s">
         <v>88</v>
       </c>
       <c r="F7" t="s">
-        <v>1008</v>
+        <v>1012</v>
       </c>
       <c r="G7" t="s">
         <v>88</v>
       </c>
       <c r="H7" t="s">
-        <v>1009</v>
+        <v>1013</v>
       </c>
       <c r="I7" t="s">
-        <v>1010</v>
+        <v>1014</v>
       </c>
       <c r="J7" t="s">
-        <v>1011</v>
+        <v>1015</v>
       </c>
       <c r="K7" t="s">
-        <v>1012</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>1013</v>
+        <v>1017</v>
       </c>
       <c r="B8" t="s">
-        <v>1014</v>
+        <v>1018</v>
       </c>
       <c r="C8" t="s">
-        <v>1015</v>
+        <v>1019</v>
       </c>
       <c r="D8" t="s">
-        <v>1016</v>
+        <v>1020</v>
       </c>
       <c r="E8" t="s">
         <v>88</v>
       </c>
       <c r="F8" t="s">
-        <v>1017</v>
+        <v>1021</v>
       </c>
       <c r="G8" t="s">
         <v>88</v>
       </c>
       <c r="H8" t="s">
-        <v>1018</v>
+        <v>1022</v>
       </c>
       <c r="I8" t="s">
-        <v>1019</v>
+        <v>1023</v>
       </c>
       <c r="J8" t="s">
-        <v>1020</v>
+        <v>1024</v>
       </c>
       <c r="K8" t="s">
-        <v>1021</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>1022</v>
+        <v>1026</v>
       </c>
       <c r="B9" t="s">
-        <v>1023</v>
+        <v>1027</v>
       </c>
       <c r="C9" t="s">
-        <v>1024</v>
+        <v>1028</v>
       </c>
       <c r="D9" t="s">
-        <v>1025</v>
+        <v>1029</v>
       </c>
       <c r="E9" t="s">
         <v>88</v>
       </c>
       <c r="F9" t="s">
-        <v>1026</v>
+        <v>1030</v>
       </c>
       <c r="G9" t="s">
         <v>88</v>
       </c>
       <c r="H9" t="s">
-        <v>1027</v>
+        <v>1031</v>
       </c>
       <c r="I9" t="s">
-        <v>1028</v>
+        <v>1032</v>
       </c>
       <c r="J9" t="s">
-        <v>1029</v>
+        <v>1033</v>
       </c>
       <c r="K9" t="s">
-        <v>1030</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>1031</v>
+        <v>1035</v>
       </c>
       <c r="B10" t="s">
-        <v>1032</v>
+        <v>1036</v>
       </c>
       <c r="C10" t="s">
-        <v>1033</v>
+        <v>1037</v>
       </c>
       <c r="D10" t="s">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="E10" t="s">
-        <v>1035</v>
+        <v>1039</v>
       </c>
       <c r="F10" t="s">
-        <v>1036</v>
+        <v>1040</v>
       </c>
       <c r="G10" t="s">
         <v>88</v>
       </c>
       <c r="H10" t="s">
-        <v>1037</v>
+        <v>1041</v>
       </c>
       <c r="I10" t="s">
-        <v>1038</v>
+        <v>1042</v>
       </c>
       <c r="J10" t="s">
-        <v>1039</v>
+        <v>1043</v>
       </c>
       <c r="K10" t="s">
-        <v>1040</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>1041</v>
+        <v>1045</v>
       </c>
       <c r="B11" t="s">
-        <v>1042</v>
+        <v>1046</v>
       </c>
       <c r="C11" t="s">
-        <v>1043</v>
+        <v>1047</v>
       </c>
       <c r="D11" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="E11" t="s">
         <v>88</v>
       </c>
       <c r="F11" t="s">
-        <v>1045</v>
+        <v>1049</v>
       </c>
       <c r="G11" t="s">
-        <v>1046</v>
+        <v>1050</v>
       </c>
       <c r="H11" t="s">
-        <v>1047</v>
+        <v>1051</v>
       </c>
       <c r="I11" t="s">
-        <v>1048</v>
+        <v>1052</v>
       </c>
       <c r="J11" t="s">
-        <v>1049</v>
+        <v>1053</v>
       </c>
       <c r="K11" t="s">
-        <v>1050</v>
+        <v>1054</v>
       </c>
     </row>
   </sheetData>
@@ -7538,191 +7552,191 @@
         <v>88</v>
       </c>
       <c r="H8" t="s">
-        <v>88</v>
+        <v>743</v>
       </c>
       <c r="I8" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="J8" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="K8" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B9" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C9" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="D9" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="E9" t="s">
         <v>88</v>
       </c>
       <c r="F9" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="G9" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="H9" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="I9" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="J9" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="K9" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B10" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C10" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="D10" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E10" t="s">
         <v>88</v>
       </c>
       <c r="F10" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="G10" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H10" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="I10" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="J10" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="K10" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B11" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C11" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="D11" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="E11" t="s">
         <v>88</v>
       </c>
       <c r="F11" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="G11" t="s">
         <v>88</v>
       </c>
       <c r="H11" t="s">
-        <v>88</v>
+        <v>772</v>
       </c>
       <c r="I11" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="J11" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="K11" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="B12" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="C12" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="D12" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="E12" t="s">
         <v>88</v>
       </c>
       <c r="F12" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="G12" t="s">
         <v>88</v>
       </c>
       <c r="H12" t="s">
-        <v>88</v>
+        <v>781</v>
       </c>
       <c r="I12" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="J12" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="K12" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="B13" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="C13" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="D13" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="E13" t="s">
         <v>88</v>
       </c>
       <c r="F13" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="G13" t="s">
         <v>88</v>
       </c>
       <c r="H13" t="s">
-        <v>88</v>
+        <v>790</v>
       </c>
       <c r="I13" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="J13" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="K13" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
     </row>
   </sheetData>
@@ -7781,31 +7795,31 @@
         <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="D2" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="E2" t="s">
         <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="G2" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="H2" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="I2" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="J2" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="K2" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -7813,279 +7827,279 @@
         <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="C3" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="D3" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="E3" t="s">
         <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="G3" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="H3" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="I3" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="J3" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="K3" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="B4" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="C4" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="D4" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="E4" t="s">
         <v>88</v>
       </c>
       <c r="F4" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="G4" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="H4" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="I4" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="J4" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="K4" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="B5" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="C5" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="D5" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="E5" t="s">
         <v>88</v>
       </c>
       <c r="F5" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="G5" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="H5" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="I5" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="J5" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="K5" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="B6" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="C6" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="D6" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="E6" t="s">
         <v>88</v>
       </c>
       <c r="F6" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="G6" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="H6" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="I6" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="J6" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="K6" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="B7" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="C7" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="D7" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="E7" t="s">
         <v>88</v>
       </c>
       <c r="F7" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="G7" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="H7" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="I7" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="J7" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="K7" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="B8" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="C8" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="D8" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="E8" t="s">
         <v>88</v>
       </c>
       <c r="F8" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="G8" t="s">
         <v>88</v>
       </c>
       <c r="H8" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="I8" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="J8" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="K8" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="B9" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="C9" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="D9" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="E9" t="s">
         <v>88</v>
       </c>
       <c r="F9" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="G9" t="s">
         <v>88</v>
       </c>
       <c r="H9" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="I9" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="J9" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="K9" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="B10" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="C10" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
       <c r="D10" t="s">
-        <v>867</v>
+        <v>871</v>
       </c>
       <c r="E10" t="s">
         <v>88</v>
       </c>
       <c r="F10" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="G10" t="s">
         <v>88</v>
       </c>
       <c r="H10" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="I10" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="J10" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="K10" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
     </row>
   </sheetData>
@@ -8141,34 +8155,34 @@
         <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="C2" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="D2" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="E2" t="s">
         <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>876</v>
+        <v>880</v>
       </c>
       <c r="G2" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="H2" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="I2" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="J2" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="K2" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -8176,174 +8190,174 @@
         <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="C3" t="s">
-        <v>883</v>
+        <v>887</v>
       </c>
       <c r="D3" t="s">
-        <v>884</v>
+        <v>888</v>
       </c>
       <c r="E3" t="s">
         <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="G3" t="s">
-        <v>886</v>
+        <v>890</v>
       </c>
       <c r="H3" t="s">
-        <v>887</v>
+        <v>891</v>
       </c>
       <c r="I3" t="s">
-        <v>888</v>
+        <v>892</v>
       </c>
       <c r="J3" t="s">
-        <v>889</v>
+        <v>893</v>
       </c>
       <c r="K3" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>891</v>
+        <v>895</v>
       </c>
       <c r="B4" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="C4" t="s">
-        <v>893</v>
+        <v>897</v>
       </c>
       <c r="D4" t="s">
-        <v>894</v>
+        <v>898</v>
       </c>
       <c r="E4" t="s">
         <v>88</v>
       </c>
       <c r="F4" t="s">
-        <v>895</v>
+        <v>899</v>
       </c>
       <c r="G4" t="s">
+        <v>900</v>
+      </c>
+      <c r="H4" t="s">
+        <v>901</v>
+      </c>
+      <c r="I4" t="s">
         <v>896</v>
       </c>
-      <c r="H4" t="s">
-        <v>897</v>
-      </c>
-      <c r="I4" t="s">
-        <v>892</v>
-      </c>
       <c r="J4" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="K4" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="B5" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="C5" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="D5" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="E5" t="s">
         <v>88</v>
       </c>
       <c r="F5" t="s">
-        <v>904</v>
+        <v>908</v>
       </c>
       <c r="G5" t="s">
+        <v>909</v>
+      </c>
+      <c r="H5" t="s">
+        <v>910</v>
+      </c>
+      <c r="I5" t="s">
         <v>905</v>
       </c>
-      <c r="H5" t="s">
-        <v>906</v>
-      </c>
-      <c r="I5" t="s">
-        <v>901</v>
-      </c>
       <c r="J5" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="K5" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="B6" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
       <c r="C6" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="D6" t="s">
-        <v>912</v>
+        <v>916</v>
       </c>
       <c r="E6" t="s">
         <v>88</v>
       </c>
       <c r="F6" t="s">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="G6" t="s">
-        <v>914</v>
+        <v>918</v>
       </c>
       <c r="H6" t="s">
-        <v>915</v>
+        <v>919</v>
       </c>
       <c r="I6" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="J6" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="K6" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="B7" t="s">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="C7" t="s">
-        <v>921</v>
+        <v>925</v>
       </c>
       <c r="D7" t="s">
-        <v>922</v>
+        <v>926</v>
       </c>
       <c r="E7" t="s">
         <v>88</v>
       </c>
       <c r="F7" t="s">
-        <v>923</v>
+        <v>927</v>
       </c>
       <c r="G7" t="s">
-        <v>924</v>
+        <v>928</v>
       </c>
       <c r="H7" t="s">
-        <v>925</v>
+        <v>929</v>
       </c>
       <c r="I7" t="s">
-        <v>926</v>
+        <v>930</v>
       </c>
       <c r="J7" t="s">
-        <v>927</v>
+        <v>931</v>
       </c>
       <c r="K7" t="s">
-        <v>928</v>
+        <v>932</v>
       </c>
     </row>
   </sheetData>

--- a/AdofaiTweaks.Generator/translations.xlsx
+++ b/AdofaiTweaks.Generator/translations.xlsx
@@ -10,21 +10,22 @@
     <sheet name="DASHBOARD" sheetId="1" r:id="rId1"/>
     <sheet name="Global" sheetId="2" r:id="rId2"/>
     <sheet name="DisableEffects" sheetId="3" r:id="rId3"/>
-    <sheet name="HideUiElements" sheetId="4" r:id="rId4"/>
-    <sheet name="JudgmentVisuals" sheetId="5" r:id="rId5"/>
-    <sheet name="KeyViewer" sheetId="6" r:id="rId6"/>
-    <sheet name="KeyLimiter" sheetId="7" r:id="rId7"/>
-    <sheet name="Miscellaneous" sheetId="8" r:id="rId8"/>
-    <sheet name="PlanetColor" sheetId="9" r:id="rId9"/>
-    <sheet name="PlanetOpacity" sheetId="10" r:id="rId10"/>
-    <sheet name="RestrictJudgments" sheetId="11" r:id="rId11"/>
+    <sheet name="EditorInfo" sheetId="4" r:id="rId4"/>
+    <sheet name="HideUiElements" sheetId="5" r:id="rId5"/>
+    <sheet name="JudgmentVisuals" sheetId="6" r:id="rId6"/>
+    <sheet name="KeyViewer" sheetId="7" r:id="rId7"/>
+    <sheet name="KeyLimiter" sheetId="8" r:id="rId8"/>
+    <sheet name="Miscellaneous" sheetId="9" r:id="rId9"/>
+    <sheet name="PlanetColor" sheetId="10" r:id="rId10"/>
+    <sheet name="PlanetOpacity" sheetId="11" r:id="rId11"/>
+    <sheet name="RestrictJudgments" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="1055">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="1064">
   <si>
     <t>Translation Status</t>
   </si>
@@ -692,34 +693,61 @@
     <t>除外するフィルター：</t>
   </si>
   <si>
+    <t>Editor Info</t>
+  </si>
+  <si>
+    <t>UI 숨기기</t>
+  </si>
+  <si>
+    <t>Ocultar elementos de la IU</t>
+  </si>
+  <si>
+    <t>Schowaj elementy UI</t>
+  </si>
+  <si>
+    <t>Masquer des éléments d'UI</t>
+  </si>
+  <si>
+    <t>Ẩn giao diện (UI)</t>
+  </si>
+  <si>
+    <t>隐藏UI元素</t>
+  </si>
+  <si>
+    <t>UI Elemente verstecken</t>
+  </si>
+  <si>
+    <t>Скрыть части интерфейса</t>
+  </si>
+  <si>
+    <t>UI項目を隠す</t>
+  </si>
+  <si>
+    <t>Displays information about the Level Editor.</t>
+  </si>
+  <si>
+    <t>레벨 에디터와 관한 정보를 보여줍니다.</t>
+  </si>
+  <si>
+    <t>SHOW_FLOOR_ANGLE</t>
+  </si>
+  <si>
+    <t>Show tile angle</t>
+  </si>
+  <si>
+    <t>타일 각도 보이기</t>
+  </si>
+  <si>
+    <t>SHOW_FLOOR_BEATS</t>
+  </si>
+  <si>
+    <t>Show tile beats</t>
+  </si>
+  <si>
+    <t>타일 박자 길이 보이기</t>
+  </si>
+  <si>
     <t>Hide UI Elements</t>
-  </si>
-  <si>
-    <t>UI 숨기기</t>
-  </si>
-  <si>
-    <t>Ocultar elementos de la IU</t>
-  </si>
-  <si>
-    <t>Schowaj elementy UI</t>
-  </si>
-  <si>
-    <t>Masquer des éléments d'UI</t>
-  </si>
-  <si>
-    <t>Ẩn giao diện (UI)</t>
-  </si>
-  <si>
-    <t>隐藏UI元素</t>
-  </si>
-  <si>
-    <t>UI Elemente verstecken</t>
-  </si>
-  <si>
-    <t>Скрыть части интерфейса</t>
-  </si>
-  <si>
-    <t>UI項目を隠す</t>
   </si>
   <si>
     <t>Hides certain UI elements from gameplay.</t>
@@ -3932,6 +3960,264 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" t="s">
+        <v>886</v>
+      </c>
+      <c r="C2" t="s">
+        <v>887</v>
+      </c>
+      <c r="D2" t="s">
+        <v>888</v>
+      </c>
+      <c r="E2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" t="s">
+        <v>889</v>
+      </c>
+      <c r="G2" t="s">
+        <v>890</v>
+      </c>
+      <c r="H2" t="s">
+        <v>891</v>
+      </c>
+      <c r="I2" t="s">
+        <v>892</v>
+      </c>
+      <c r="J2" t="s">
+        <v>893</v>
+      </c>
+      <c r="K2" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" t="s">
+        <v>895</v>
+      </c>
+      <c r="C3" t="s">
+        <v>896</v>
+      </c>
+      <c r="D3" t="s">
+        <v>897</v>
+      </c>
+      <c r="E3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" t="s">
+        <v>898</v>
+      </c>
+      <c r="G3" t="s">
+        <v>899</v>
+      </c>
+      <c r="H3" t="s">
+        <v>900</v>
+      </c>
+      <c r="I3" t="s">
+        <v>901</v>
+      </c>
+      <c r="J3" t="s">
+        <v>902</v>
+      </c>
+      <c r="K3" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>904</v>
+      </c>
+      <c r="B4" t="s">
+        <v>905</v>
+      </c>
+      <c r="C4" t="s">
+        <v>906</v>
+      </c>
+      <c r="D4" t="s">
+        <v>907</v>
+      </c>
+      <c r="E4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" t="s">
+        <v>908</v>
+      </c>
+      <c r="G4" t="s">
+        <v>909</v>
+      </c>
+      <c r="H4" t="s">
+        <v>910</v>
+      </c>
+      <c r="I4" t="s">
+        <v>905</v>
+      </c>
+      <c r="J4" t="s">
+        <v>911</v>
+      </c>
+      <c r="K4" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>913</v>
+      </c>
+      <c r="B5" t="s">
+        <v>914</v>
+      </c>
+      <c r="C5" t="s">
+        <v>915</v>
+      </c>
+      <c r="D5" t="s">
+        <v>916</v>
+      </c>
+      <c r="E5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" t="s">
+        <v>917</v>
+      </c>
+      <c r="G5" t="s">
+        <v>918</v>
+      </c>
+      <c r="H5" t="s">
+        <v>919</v>
+      </c>
+      <c r="I5" t="s">
+        <v>914</v>
+      </c>
+      <c r="J5" t="s">
+        <v>920</v>
+      </c>
+      <c r="K5" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>922</v>
+      </c>
+      <c r="B6" t="s">
+        <v>923</v>
+      </c>
+      <c r="C6" t="s">
+        <v>924</v>
+      </c>
+      <c r="D6" t="s">
+        <v>925</v>
+      </c>
+      <c r="E6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" t="s">
+        <v>926</v>
+      </c>
+      <c r="G6" t="s">
+        <v>927</v>
+      </c>
+      <c r="H6" t="s">
+        <v>928</v>
+      </c>
+      <c r="I6" t="s">
+        <v>929</v>
+      </c>
+      <c r="J6" t="s">
+        <v>930</v>
+      </c>
+      <c r="K6" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>932</v>
+      </c>
+      <c r="B7" t="s">
+        <v>933</v>
+      </c>
+      <c r="C7" t="s">
+        <v>934</v>
+      </c>
+      <c r="D7" t="s">
+        <v>935</v>
+      </c>
+      <c r="E7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" t="s">
+        <v>936</v>
+      </c>
+      <c r="G7" t="s">
+        <v>937</v>
+      </c>
+      <c r="H7" t="s">
+        <v>938</v>
+      </c>
+      <c r="I7" t="s">
+        <v>939</v>
+      </c>
+      <c r="J7" t="s">
+        <v>940</v>
+      </c>
+      <c r="K7" t="s">
+        <v>941</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3978,34 +4264,34 @@
         <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>933</v>
+        <v>942</v>
       </c>
       <c r="C2" t="s">
-        <v>934</v>
+        <v>943</v>
       </c>
       <c r="D2" t="s">
-        <v>935</v>
+        <v>944</v>
       </c>
       <c r="E2" t="s">
         <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>936</v>
+        <v>945</v>
       </c>
       <c r="G2" t="s">
-        <v>937</v>
+        <v>946</v>
       </c>
       <c r="H2" t="s">
-        <v>938</v>
+        <v>947</v>
       </c>
       <c r="I2" t="s">
-        <v>939</v>
+        <v>948</v>
       </c>
       <c r="J2" t="s">
-        <v>940</v>
+        <v>949</v>
       </c>
       <c r="K2" t="s">
-        <v>941</v>
+        <v>950</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -4013,209 +4299,209 @@
         <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>942</v>
+        <v>951</v>
       </c>
       <c r="C3" t="s">
-        <v>943</v>
+        <v>952</v>
       </c>
       <c r="D3" t="s">
-        <v>944</v>
+        <v>953</v>
       </c>
       <c r="E3" t="s">
         <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>945</v>
+        <v>954</v>
       </c>
       <c r="G3" t="s">
-        <v>946</v>
+        <v>955</v>
       </c>
       <c r="H3" t="s">
-        <v>947</v>
+        <v>956</v>
       </c>
       <c r="I3" t="s">
-        <v>948</v>
+        <v>957</v>
       </c>
       <c r="J3" t="s">
-        <v>949</v>
+        <v>958</v>
       </c>
       <c r="K3" t="s">
-        <v>950</v>
+        <v>959</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>895</v>
+        <v>904</v>
       </c>
       <c r="B4" t="s">
-        <v>896</v>
+        <v>905</v>
       </c>
       <c r="C4" t="s">
-        <v>897</v>
+        <v>906</v>
       </c>
       <c r="D4" t="s">
-        <v>898</v>
+        <v>907</v>
       </c>
       <c r="E4" t="s">
         <v>88</v>
       </c>
       <c r="F4" t="s">
-        <v>899</v>
+        <v>908</v>
       </c>
       <c r="G4" t="s">
-        <v>900</v>
+        <v>909</v>
       </c>
       <c r="H4" t="s">
-        <v>901</v>
+        <v>910</v>
       </c>
       <c r="I4" t="s">
-        <v>896</v>
+        <v>905</v>
       </c>
       <c r="J4" t="s">
-        <v>902</v>
+        <v>911</v>
       </c>
       <c r="K4" t="s">
-        <v>951</v>
+        <v>960</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>904</v>
+        <v>913</v>
       </c>
       <c r="B5" t="s">
-        <v>905</v>
+        <v>914</v>
       </c>
       <c r="C5" t="s">
-        <v>906</v>
+        <v>915</v>
       </c>
       <c r="D5" t="s">
-        <v>907</v>
+        <v>916</v>
       </c>
       <c r="E5" t="s">
         <v>88</v>
       </c>
       <c r="F5" t="s">
-        <v>908</v>
+        <v>917</v>
       </c>
       <c r="G5" t="s">
-        <v>909</v>
+        <v>918</v>
       </c>
       <c r="H5" t="s">
-        <v>910</v>
+        <v>919</v>
       </c>
       <c r="I5" t="s">
-        <v>905</v>
+        <v>914</v>
       </c>
       <c r="J5" t="s">
-        <v>911</v>
+        <v>920</v>
       </c>
       <c r="K5" t="s">
-        <v>952</v>
+        <v>961</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>913</v>
+        <v>922</v>
       </c>
       <c r="B6" t="s">
-        <v>914</v>
+        <v>923</v>
       </c>
       <c r="C6" t="s">
-        <v>915</v>
+        <v>924</v>
       </c>
       <c r="D6" t="s">
-        <v>916</v>
+        <v>925</v>
       </c>
       <c r="E6" t="s">
         <v>88</v>
       </c>
       <c r="F6" t="s">
-        <v>917</v>
+        <v>926</v>
       </c>
       <c r="G6" t="s">
-        <v>918</v>
+        <v>927</v>
       </c>
       <c r="H6" t="s">
-        <v>953</v>
+        <v>962</v>
       </c>
       <c r="I6" t="s">
-        <v>920</v>
+        <v>929</v>
       </c>
       <c r="J6" t="s">
-        <v>921</v>
+        <v>930</v>
       </c>
       <c r="K6" t="s">
-        <v>922</v>
+        <v>931</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>923</v>
+        <v>932</v>
       </c>
       <c r="B7" t="s">
-        <v>924</v>
+        <v>933</v>
       </c>
       <c r="C7" t="s">
-        <v>925</v>
+        <v>934</v>
       </c>
       <c r="D7" t="s">
-        <v>926</v>
+        <v>935</v>
       </c>
       <c r="E7" t="s">
         <v>88</v>
       </c>
       <c r="F7" t="s">
-        <v>927</v>
+        <v>936</v>
       </c>
       <c r="G7" t="s">
-        <v>928</v>
+        <v>937</v>
       </c>
       <c r="H7" t="s">
-        <v>954</v>
+        <v>963</v>
       </c>
       <c r="I7" t="s">
-        <v>930</v>
+        <v>939</v>
       </c>
       <c r="J7" t="s">
-        <v>931</v>
+        <v>940</v>
       </c>
       <c r="K7" t="s">
-        <v>932</v>
+        <v>941</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>955</v>
+        <v>964</v>
       </c>
       <c r="B8" t="s">
-        <v>956</v>
+        <v>965</v>
       </c>
       <c r="C8" t="s">
-        <v>957</v>
+        <v>966</v>
       </c>
       <c r="D8" t="s">
-        <v>958</v>
+        <v>967</v>
       </c>
       <c r="E8" t="s">
         <v>88</v>
       </c>
       <c r="F8" t="s">
-        <v>959</v>
+        <v>968</v>
       </c>
       <c r="G8" t="s">
         <v>88</v>
       </c>
       <c r="H8" t="s">
-        <v>960</v>
+        <v>969</v>
       </c>
       <c r="I8" t="s">
-        <v>956</v>
+        <v>965</v>
       </c>
       <c r="J8" t="s">
-        <v>961</v>
+        <v>970</v>
       </c>
       <c r="K8" t="s">
-        <v>962</v>
+        <v>971</v>
       </c>
     </row>
   </sheetData>
@@ -4223,7 +4509,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K11"/>
   <sheetViews>
@@ -4271,34 +4557,34 @@
         <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>963</v>
+        <v>972</v>
       </c>
       <c r="C2" t="s">
-        <v>964</v>
+        <v>973</v>
       </c>
       <c r="D2" t="s">
-        <v>965</v>
+        <v>974</v>
       </c>
       <c r="E2" t="s">
         <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>966</v>
+        <v>975</v>
       </c>
       <c r="G2" t="s">
-        <v>967</v>
+        <v>976</v>
       </c>
       <c r="H2" t="s">
-        <v>968</v>
+        <v>977</v>
       </c>
       <c r="I2" t="s">
-        <v>969</v>
+        <v>978</v>
       </c>
       <c r="J2" t="s">
-        <v>970</v>
+        <v>979</v>
       </c>
       <c r="K2" t="s">
-        <v>971</v>
+        <v>980</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -4306,314 +4592,314 @@
         <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>972</v>
+        <v>981</v>
       </c>
       <c r="C3" t="s">
-        <v>973</v>
+        <v>982</v>
       </c>
       <c r="D3" t="s">
-        <v>974</v>
+        <v>983</v>
       </c>
       <c r="E3" t="s">
         <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>975</v>
+        <v>984</v>
       </c>
       <c r="G3" t="s">
         <v>88</v>
       </c>
       <c r="H3" t="s">
-        <v>976</v>
+        <v>985</v>
       </c>
       <c r="I3" t="s">
-        <v>977</v>
+        <v>986</v>
       </c>
       <c r="J3" t="s">
-        <v>978</v>
+        <v>987</v>
       </c>
       <c r="K3" t="s">
-        <v>979</v>
+        <v>988</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>980</v>
+        <v>989</v>
       </c>
       <c r="B4" t="s">
-        <v>981</v>
+        <v>990</v>
       </c>
       <c r="C4" t="s">
-        <v>982</v>
+        <v>991</v>
       </c>
       <c r="D4" t="s">
-        <v>983</v>
+        <v>992</v>
       </c>
       <c r="E4" t="s">
         <v>88</v>
       </c>
       <c r="F4" t="s">
-        <v>984</v>
+        <v>993</v>
       </c>
       <c r="G4" t="s">
         <v>88</v>
       </c>
       <c r="H4" t="s">
-        <v>985</v>
+        <v>994</v>
       </c>
       <c r="I4" t="s">
-        <v>986</v>
+        <v>995</v>
       </c>
       <c r="J4" t="s">
-        <v>987</v>
+        <v>996</v>
       </c>
       <c r="K4" t="s">
-        <v>988</v>
+        <v>997</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>989</v>
+        <v>998</v>
       </c>
       <c r="B5" t="s">
-        <v>990</v>
+        <v>999</v>
       </c>
       <c r="C5" t="s">
-        <v>991</v>
+        <v>1000</v>
       </c>
       <c r="D5" t="s">
-        <v>992</v>
+        <v>1001</v>
       </c>
       <c r="E5" t="s">
         <v>88</v>
       </c>
       <c r="F5" t="s">
-        <v>993</v>
+        <v>1002</v>
       </c>
       <c r="G5" t="s">
-        <v>994</v>
+        <v>1003</v>
       </c>
       <c r="H5" t="s">
-        <v>995</v>
+        <v>1004</v>
       </c>
       <c r="I5" t="s">
-        <v>996</v>
+        <v>1005</v>
       </c>
       <c r="J5" t="s">
-        <v>997</v>
+        <v>1006</v>
       </c>
       <c r="K5" t="s">
-        <v>998</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>999</v>
+        <v>1008</v>
       </c>
       <c r="B6" t="s">
-        <v>1000</v>
+        <v>1009</v>
       </c>
       <c r="C6" t="s">
-        <v>1001</v>
+        <v>1010</v>
       </c>
       <c r="D6" t="s">
-        <v>1002</v>
+        <v>1011</v>
       </c>
       <c r="E6" t="s">
         <v>88</v>
       </c>
       <c r="F6" t="s">
-        <v>1003</v>
+        <v>1012</v>
       </c>
       <c r="G6" t="s">
         <v>88</v>
       </c>
       <c r="H6" t="s">
-        <v>1004</v>
+        <v>1013</v>
       </c>
       <c r="I6" t="s">
-        <v>1005</v>
+        <v>1014</v>
       </c>
       <c r="J6" t="s">
-        <v>1006</v>
+        <v>1015</v>
       </c>
       <c r="K6" t="s">
-        <v>1007</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>1008</v>
+        <v>1017</v>
       </c>
       <c r="B7" t="s">
-        <v>1009</v>
+        <v>1018</v>
       </c>
       <c r="C7" t="s">
-        <v>1010</v>
+        <v>1019</v>
       </c>
       <c r="D7" t="s">
-        <v>1011</v>
+        <v>1020</v>
       </c>
       <c r="E7" t="s">
         <v>88</v>
       </c>
       <c r="F7" t="s">
-        <v>1012</v>
+        <v>1021</v>
       </c>
       <c r="G7" t="s">
         <v>88</v>
       </c>
       <c r="H7" t="s">
-        <v>1013</v>
+        <v>1022</v>
       </c>
       <c r="I7" t="s">
-        <v>1014</v>
+        <v>1023</v>
       </c>
       <c r="J7" t="s">
-        <v>1015</v>
+        <v>1024</v>
       </c>
       <c r="K7" t="s">
-        <v>1016</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>1017</v>
+        <v>1026</v>
       </c>
       <c r="B8" t="s">
-        <v>1018</v>
+        <v>1027</v>
       </c>
       <c r="C8" t="s">
-        <v>1019</v>
+        <v>1028</v>
       </c>
       <c r="D8" t="s">
-        <v>1020</v>
+        <v>1029</v>
       </c>
       <c r="E8" t="s">
         <v>88</v>
       </c>
       <c r="F8" t="s">
-        <v>1021</v>
+        <v>1030</v>
       </c>
       <c r="G8" t="s">
         <v>88</v>
       </c>
       <c r="H8" t="s">
-        <v>1022</v>
+        <v>1031</v>
       </c>
       <c r="I8" t="s">
-        <v>1023</v>
+        <v>1032</v>
       </c>
       <c r="J8" t="s">
-        <v>1024</v>
+        <v>1033</v>
       </c>
       <c r="K8" t="s">
-        <v>1025</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>1026</v>
+        <v>1035</v>
       </c>
       <c r="B9" t="s">
-        <v>1027</v>
+        <v>1036</v>
       </c>
       <c r="C9" t="s">
-        <v>1028</v>
+        <v>1037</v>
       </c>
       <c r="D9" t="s">
-        <v>1029</v>
+        <v>1038</v>
       </c>
       <c r="E9" t="s">
         <v>88</v>
       </c>
       <c r="F9" t="s">
-        <v>1030</v>
+        <v>1039</v>
       </c>
       <c r="G9" t="s">
         <v>88</v>
       </c>
       <c r="H9" t="s">
-        <v>1031</v>
+        <v>1040</v>
       </c>
       <c r="I9" t="s">
-        <v>1032</v>
+        <v>1041</v>
       </c>
       <c r="J9" t="s">
-        <v>1033</v>
+        <v>1042</v>
       </c>
       <c r="K9" t="s">
-        <v>1034</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>1035</v>
+        <v>1044</v>
       </c>
       <c r="B10" t="s">
-        <v>1036</v>
+        <v>1045</v>
       </c>
       <c r="C10" t="s">
-        <v>1037</v>
+        <v>1046</v>
       </c>
       <c r="D10" t="s">
-        <v>1038</v>
+        <v>1047</v>
       </c>
       <c r="E10" t="s">
-        <v>1039</v>
+        <v>1048</v>
       </c>
       <c r="F10" t="s">
-        <v>1040</v>
+        <v>1049</v>
       </c>
       <c r="G10" t="s">
         <v>88</v>
       </c>
       <c r="H10" t="s">
-        <v>1041</v>
+        <v>1050</v>
       </c>
       <c r="I10" t="s">
-        <v>1042</v>
+        <v>1051</v>
       </c>
       <c r="J10" t="s">
-        <v>1043</v>
+        <v>1052</v>
       </c>
       <c r="K10" t="s">
-        <v>1044</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>1045</v>
+        <v>1054</v>
       </c>
       <c r="B11" t="s">
-        <v>1046</v>
+        <v>1055</v>
       </c>
       <c r="C11" t="s">
-        <v>1047</v>
+        <v>1056</v>
       </c>
       <c r="D11" t="s">
-        <v>1048</v>
+        <v>1057</v>
       </c>
       <c r="E11" t="s">
         <v>88</v>
       </c>
       <c r="F11" t="s">
-        <v>1049</v>
+        <v>1058</v>
       </c>
       <c r="G11" t="s">
-        <v>1050</v>
+        <v>1059</v>
       </c>
       <c r="H11" t="s">
-        <v>1051</v>
+        <v>1060</v>
       </c>
       <c r="I11" t="s">
-        <v>1052</v>
+        <v>1061</v>
       </c>
       <c r="J11" t="s">
-        <v>1053</v>
+        <v>1062</v>
       </c>
       <c r="K11" t="s">
-        <v>1054</v>
+        <v>1063</v>
       </c>
     </row>
   </sheetData>
@@ -5314,6 +5600,122 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H2" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2" t="s">
+        <v>229</v>
+      </c>
+      <c r="J2" t="s">
+        <v>230</v>
+      </c>
+      <c r="K2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5360,7 +5762,7 @@
         <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="C2" t="s">
         <v>223</v>
@@ -5395,524 +5797,524 @@
         <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="C3" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="D3" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="E3" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="F3" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="G3" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="H3" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="I3" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="J3" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="K3" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="B4" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="C4" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="D4" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="E4" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="F4" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="G4" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="H4" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="I4" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="J4" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="K4" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B5" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="C5" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="D5" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="E5" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="F5" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G5" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="H5" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="I5" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="J5" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="K5" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="B6" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="C6" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="D6" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="E6" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="F6" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="G6" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="H6" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="I6" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="J6" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="K6" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="B7" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="C7" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="D7" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="E7" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="F7" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="G7" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="H7" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="I7" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="J7" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="K7" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="B8" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="C8" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="D8" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="E8" t="s">
         <v>88</v>
       </c>
       <c r="F8" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="G8" t="s">
         <v>88</v>
       </c>
       <c r="H8" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="I8" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="J8" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="K8" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="B9" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="C9" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="D9" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="E9" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="F9" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="G9" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="H9" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="I9" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="J9" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="K9" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="B10" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="C10" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="D10" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="E10" t="s">
         <v>88</v>
       </c>
       <c r="F10" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="G10" t="s">
         <v>88</v>
       </c>
       <c r="H10" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="I10" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="J10" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="K10" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="B11" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="C11" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="D11" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="E11" t="s">
         <v>88</v>
       </c>
       <c r="F11" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="G11" t="s">
         <v>88</v>
       </c>
       <c r="H11" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="I11" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="J11" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="K11" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="B12" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="C12" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="D12" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="E12" t="s">
         <v>88</v>
       </c>
       <c r="F12" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="G12" t="s">
         <v>88</v>
       </c>
       <c r="H12" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="I12" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="J12" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="K12" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="B13" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="C13" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="D13" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="E13" t="s">
         <v>88</v>
       </c>
       <c r="F13" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="G13" t="s">
         <v>88</v>
       </c>
       <c r="H13" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="I13" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="J13" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="K13" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="B14" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="C14" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="D14" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="E14" t="s">
         <v>88</v>
       </c>
       <c r="F14" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="G14" t="s">
         <v>88</v>
       </c>
       <c r="H14" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="I14" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="J14" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="K14" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="B15" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="C15" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="D15" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="E15" t="s">
         <v>88</v>
       </c>
       <c r="F15" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="G15" t="s">
         <v>88</v>
       </c>
       <c r="H15" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="I15" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="J15" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="K15" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="B16" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="C16" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="D16" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="E16" t="s">
         <v>88</v>
       </c>
       <c r="F16" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="G16" t="s">
         <v>88</v>
       </c>
       <c r="H16" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="I16" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="J16" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="K16" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="B17" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="C17" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="D17" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="E17" t="s">
         <v>88</v>
       </c>
       <c r="F17" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="G17" t="s">
         <v>88</v>
       </c>
       <c r="H17" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="I17" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="J17" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="K17" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -5920,7 +6322,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K13"/>
   <sheetViews>
@@ -5968,34 +6370,34 @@
         <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="C2" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="D2" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="E2" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="F2" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="G2" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="H2" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="I2" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="J2" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="K2" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -6003,384 +6405,384 @@
         <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="C3" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="D3" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="E3" t="s">
         <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="G3" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="H3" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="I3" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="J3" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="K3" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="B4" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C4" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="D4" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="E4" t="s">
         <v>88</v>
       </c>
       <c r="F4" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="G4" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="H4" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="I4" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="J4" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="K4" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="B5" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="C5" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="D5" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="E5" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="F5" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="G5" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="H5" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="I5" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="J5" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="K5" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="B6" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="C6" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="D6" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="E6" t="s">
         <v>88</v>
       </c>
       <c r="F6" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="G6" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="H6" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="I6" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="J6" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="K6" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="B7" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="C7" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="D7" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="E7" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="F7" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="G7" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="H7" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="I7" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="J7" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="K7" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="B8" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="C8" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="D8" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="E8" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="F8" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="G8" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="H8" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="I8" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="J8" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="K8" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="B9" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="C9" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="D9" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="E9" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="F9" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="G9" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="H9" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="I9" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="J9" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="K9" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="B10" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="C10" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="D10" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="E10" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="F10" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="G10" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="H10" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="I10" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="J10" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="K10" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="B11" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="C11" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="D11" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="E11" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="F11" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="G11" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="H11" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="I11" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="J11" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="K11" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="B12" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="C12" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="D12" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="E12" t="s">
         <v>88</v>
       </c>
       <c r="F12" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="G12" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="H12" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="I12" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="J12" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="K12" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="B13" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="C13" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="D13" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="E13" t="s">
         <v>88</v>
       </c>
       <c r="F13" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="G13" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="H13" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="I13" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="J13" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="K13" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
     </row>
   </sheetData>
@@ -6388,7 +6790,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K25"/>
   <sheetViews>
@@ -6436,34 +6838,34 @@
         <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="C2" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="D2" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="E2" t="s">
         <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="G2" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="H2" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="I2" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="J2" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="K2" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -6471,74 +6873,74 @@
         <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="C3" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="D3" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="E3" t="s">
         <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="G3" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="H3" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="I3" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="J3" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="K3" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="B4" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="C4" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="D4" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="E4" t="s">
         <v>88</v>
       </c>
       <c r="F4" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="G4" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="H4" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="I4" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="J4" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="K4" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="B5" t="s">
         <v>95</v>
@@ -6547,7 +6949,7 @@
         <v>96</v>
       </c>
       <c r="D5" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="E5" t="s">
         <v>88</v>
@@ -6573,702 +6975,702 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="B6" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="C6" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="D6" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="E6" t="s">
         <v>88</v>
       </c>
       <c r="F6" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="G6" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="H6" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="I6" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="J6" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="K6" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="B7" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="C7" t="s">
         <v>86</v>
       </c>
       <c r="D7" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="E7" t="s">
         <v>88</v>
       </c>
       <c r="F7" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="G7" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="H7" t="s">
         <v>90</v>
       </c>
       <c r="I7" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="J7" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="K7" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="B8" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="C8" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="D8" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="E8" t="s">
         <v>88</v>
       </c>
       <c r="F8" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="G8" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="H8" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="I8" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="J8" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="K8" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="B9" t="s">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="C9" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="D9" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="E9" t="s">
         <v>88</v>
       </c>
       <c r="F9" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
       <c r="G9" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="H9" t="s">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="I9" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
       <c r="J9" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="K9" t="s">
-        <v>569</v>
+        <v>578</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>570</v>
+        <v>579</v>
       </c>
       <c r="B10" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="C10" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="D10" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="E10" t="s">
         <v>88</v>
       </c>
       <c r="F10" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="G10" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="H10" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="I10" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="J10" t="s">
-        <v>575</v>
+        <v>584</v>
       </c>
       <c r="K10" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>576</v>
+        <v>585</v>
       </c>
       <c r="B11" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="C11" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="D11" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="E11" t="s">
         <v>88</v>
       </c>
       <c r="F11" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="G11" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="H11" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="I11" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="J11" t="s">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="K11" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
       <c r="B12" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="C12" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="D12" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="E12" t="s">
         <v>88</v>
       </c>
       <c r="F12" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="G12" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="H12" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="I12" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="J12" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="K12" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>581</v>
+        <v>590</v>
       </c>
       <c r="B13" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="C13" t="s">
-        <v>583</v>
+        <v>592</v>
       </c>
       <c r="D13" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="E13" t="s">
         <v>88</v>
       </c>
       <c r="F13" t="s">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="G13" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="H13" t="s">
-        <v>587</v>
+        <v>596</v>
       </c>
       <c r="I13" t="s">
-        <v>588</v>
+        <v>597</v>
       </c>
       <c r="J13" t="s">
-        <v>589</v>
+        <v>598</v>
       </c>
       <c r="K13" t="s">
-        <v>590</v>
+        <v>599</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
       <c r="B14" t="s">
-        <v>592</v>
+        <v>601</v>
       </c>
       <c r="C14" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
       <c r="D14" t="s">
-        <v>594</v>
+        <v>603</v>
       </c>
       <c r="E14" t="s">
         <v>88</v>
       </c>
       <c r="F14" t="s">
-        <v>595</v>
+        <v>604</v>
       </c>
       <c r="G14" t="s">
-        <v>596</v>
+        <v>605</v>
       </c>
       <c r="H14" t="s">
-        <v>597</v>
+        <v>606</v>
       </c>
       <c r="I14" t="s">
-        <v>598</v>
+        <v>607</v>
       </c>
       <c r="J14" t="s">
-        <v>599</v>
+        <v>608</v>
       </c>
       <c r="K14" t="s">
-        <v>600</v>
+        <v>609</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="B15" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
       <c r="C15" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
       <c r="D15" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
       <c r="E15" t="s">
         <v>88</v>
       </c>
       <c r="F15" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
       <c r="G15" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="H15" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="I15" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
       <c r="J15" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
       <c r="K15" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
       <c r="B16" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
       <c r="C16" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
       <c r="D16" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
       <c r="E16" t="s">
         <v>88</v>
       </c>
       <c r="F16" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
       <c r="G16" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
       <c r="H16" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
       <c r="I16" t="s">
-        <v>618</v>
+        <v>627</v>
       </c>
       <c r="J16" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
       <c r="K16" t="s">
-        <v>620</v>
+        <v>629</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="B17" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
       <c r="C17" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
       <c r="D17" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
       <c r="E17" t="s">
         <v>88</v>
       </c>
       <c r="F17" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
       <c r="G17" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
       <c r="H17" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="I17" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
       <c r="J17" t="s">
-        <v>629</v>
+        <v>638</v>
       </c>
       <c r="K17" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
       <c r="B18" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
       <c r="C18" t="s">
-        <v>633</v>
+        <v>642</v>
       </c>
       <c r="D18" t="s">
-        <v>634</v>
+        <v>643</v>
       </c>
       <c r="E18" t="s">
         <v>88</v>
       </c>
       <c r="F18" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="G18" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
       <c r="H18" t="s">
-        <v>637</v>
+        <v>646</v>
       </c>
       <c r="I18" t="s">
-        <v>638</v>
+        <v>647</v>
       </c>
       <c r="J18" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
       <c r="K18" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>641</v>
+        <v>650</v>
       </c>
       <c r="B19" t="s">
-        <v>642</v>
+        <v>651</v>
       </c>
       <c r="C19" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
       <c r="D19" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
       <c r="E19" t="s">
         <v>88</v>
       </c>
       <c r="F19" t="s">
-        <v>645</v>
+        <v>654</v>
       </c>
       <c r="G19" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
       <c r="H19" t="s">
-        <v>647</v>
+        <v>656</v>
       </c>
       <c r="I19" t="s">
-        <v>648</v>
+        <v>657</v>
       </c>
       <c r="J19" t="s">
-        <v>649</v>
+        <v>658</v>
       </c>
       <c r="K19" t="s">
-        <v>650</v>
+        <v>659</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>651</v>
+        <v>660</v>
       </c>
       <c r="B20" t="s">
-        <v>652</v>
+        <v>661</v>
       </c>
       <c r="C20" t="s">
-        <v>653</v>
+        <v>662</v>
       </c>
       <c r="D20" t="s">
-        <v>654</v>
+        <v>663</v>
       </c>
       <c r="E20" t="s">
         <v>88</v>
       </c>
       <c r="F20" t="s">
-        <v>655</v>
+        <v>664</v>
       </c>
       <c r="G20" t="s">
-        <v>656</v>
+        <v>665</v>
       </c>
       <c r="H20" t="s">
-        <v>657</v>
+        <v>666</v>
       </c>
       <c r="I20" t="s">
-        <v>658</v>
+        <v>667</v>
       </c>
       <c r="J20" t="s">
-        <v>659</v>
+        <v>668</v>
       </c>
       <c r="K20" t="s">
-        <v>660</v>
+        <v>669</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>661</v>
+        <v>670</v>
       </c>
       <c r="B21" t="s">
-        <v>662</v>
+        <v>671</v>
       </c>
       <c r="C21" t="s">
-        <v>663</v>
+        <v>672</v>
       </c>
       <c r="D21" t="s">
-        <v>664</v>
+        <v>673</v>
       </c>
       <c r="E21" t="s">
         <v>88</v>
       </c>
       <c r="F21" t="s">
-        <v>665</v>
+        <v>674</v>
       </c>
       <c r="G21" t="s">
-        <v>666</v>
+        <v>675</v>
       </c>
       <c r="H21" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
       <c r="I21" t="s">
-        <v>668</v>
+        <v>677</v>
       </c>
       <c r="J21" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="K21" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>671</v>
+        <v>680</v>
       </c>
       <c r="B22" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="C22" t="s">
-        <v>673</v>
+        <v>682</v>
       </c>
       <c r="D22" t="s">
-        <v>674</v>
+        <v>683</v>
       </c>
       <c r="E22" t="s">
         <v>88</v>
       </c>
       <c r="F22" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
       <c r="G22" t="s">
-        <v>676</v>
+        <v>685</v>
       </c>
       <c r="H22" t="s">
-        <v>677</v>
+        <v>686</v>
       </c>
       <c r="I22" t="s">
-        <v>678</v>
+        <v>687</v>
       </c>
       <c r="J22" t="s">
-        <v>679</v>
+        <v>688</v>
       </c>
       <c r="K22" t="s">
-        <v>680</v>
+        <v>689</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>681</v>
+        <v>690</v>
       </c>
       <c r="B23" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
       <c r="C23" t="s">
-        <v>683</v>
+        <v>692</v>
       </c>
       <c r="D23" t="s">
-        <v>684</v>
+        <v>693</v>
       </c>
       <c r="E23" t="s">
         <v>88</v>
       </c>
       <c r="F23" t="s">
-        <v>685</v>
+        <v>694</v>
       </c>
       <c r="G23" t="s">
-        <v>686</v>
+        <v>695</v>
       </c>
       <c r="H23" t="s">
-        <v>687</v>
+        <v>696</v>
       </c>
       <c r="I23" t="s">
-        <v>688</v>
+        <v>697</v>
       </c>
       <c r="J23" t="s">
-        <v>689</v>
+        <v>698</v>
       </c>
       <c r="K23" t="s">
-        <v>690</v>
+        <v>699</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>691</v>
+        <v>700</v>
       </c>
       <c r="B24" t="s">
-        <v>692</v>
+        <v>701</v>
       </c>
       <c r="C24" t="s">
-        <v>693</v>
+        <v>702</v>
       </c>
       <c r="D24" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="E24" t="s">
         <v>88</v>
       </c>
       <c r="F24" t="s">
-        <v>695</v>
+        <v>704</v>
       </c>
       <c r="G24" t="s">
-        <v>696</v>
+        <v>705</v>
       </c>
       <c r="H24" t="s">
-        <v>697</v>
+        <v>706</v>
       </c>
       <c r="I24" t="s">
-        <v>698</v>
+        <v>707</v>
       </c>
       <c r="J24" t="s">
-        <v>699</v>
+        <v>708</v>
       </c>
       <c r="K24" t="s">
-        <v>700</v>
+        <v>709</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>701</v>
+        <v>710</v>
       </c>
       <c r="B25" t="s">
-        <v>702</v>
+        <v>711</v>
       </c>
       <c r="C25" t="s">
-        <v>703</v>
+        <v>712</v>
       </c>
       <c r="D25" t="s">
-        <v>704</v>
+        <v>713</v>
       </c>
       <c r="E25" t="s">
         <v>88</v>
       </c>
       <c r="F25" t="s">
-        <v>705</v>
+        <v>714</v>
       </c>
       <c r="G25" t="s">
         <v>88</v>
       </c>
       <c r="H25" t="s">
-        <v>706</v>
+        <v>715</v>
       </c>
       <c r="I25" t="s">
-        <v>707</v>
+        <v>716</v>
       </c>
       <c r="J25" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="K25" t="s">
-        <v>709</v>
+        <v>718</v>
       </c>
     </row>
   </sheetData>
@@ -7276,7 +7678,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K13"/>
   <sheetViews>
@@ -7324,34 +7726,34 @@
         <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>710</v>
+        <v>719</v>
       </c>
       <c r="C2" t="s">
-        <v>711</v>
+        <v>720</v>
       </c>
       <c r="D2" t="s">
-        <v>712</v>
+        <v>721</v>
       </c>
       <c r="E2" t="s">
         <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>713</v>
+        <v>722</v>
       </c>
       <c r="G2" t="s">
-        <v>714</v>
+        <v>723</v>
       </c>
       <c r="H2" t="s">
-        <v>715</v>
+        <v>724</v>
       </c>
       <c r="I2" t="s">
-        <v>716</v>
+        <v>725</v>
       </c>
       <c r="J2" t="s">
-        <v>717</v>
+        <v>726</v>
       </c>
       <c r="K2" t="s">
-        <v>718</v>
+        <v>727</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -7359,74 +7761,74 @@
         <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>719</v>
+        <v>728</v>
       </c>
       <c r="C3" t="s">
-        <v>720</v>
+        <v>729</v>
       </c>
       <c r="D3" t="s">
-        <v>721</v>
+        <v>730</v>
       </c>
       <c r="E3" t="s">
         <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>722</v>
+        <v>731</v>
       </c>
       <c r="G3" t="s">
-        <v>723</v>
+        <v>732</v>
       </c>
       <c r="H3" t="s">
-        <v>724</v>
+        <v>733</v>
       </c>
       <c r="I3" t="s">
-        <v>725</v>
+        <v>734</v>
       </c>
       <c r="J3" t="s">
-        <v>726</v>
+        <v>735</v>
       </c>
       <c r="K3" t="s">
-        <v>727</v>
+        <v>736</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="B4" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="C4" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="D4" t="s">
-        <v>728</v>
+        <v>737</v>
       </c>
       <c r="E4" t="s">
-        <v>729</v>
+        <v>738</v>
       </c>
       <c r="F4" t="s">
-        <v>730</v>
+        <v>739</v>
       </c>
       <c r="G4" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="H4" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="I4" t="s">
-        <v>731</v>
+        <v>740</v>
       </c>
       <c r="J4" t="s">
-        <v>732</v>
+        <v>741</v>
       </c>
       <c r="K4" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="B5" t="s">
         <v>95</v>
@@ -7435,7 +7837,7 @@
         <v>96</v>
       </c>
       <c r="D5" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="E5" t="s">
         <v>98</v>
@@ -7461,282 +7863,282 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="B6" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="C6" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="D6" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="E6" t="s">
-        <v>733</v>
+        <v>742</v>
       </c>
       <c r="F6" t="s">
-        <v>734</v>
+        <v>743</v>
       </c>
       <c r="G6" t="s">
-        <v>735</v>
+        <v>744</v>
       </c>
       <c r="H6" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="I6" t="s">
-        <v>736</v>
+        <v>745</v>
       </c>
       <c r="J6" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="K6" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="B7" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="C7" t="s">
         <v>86</v>
       </c>
       <c r="D7" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="E7" t="s">
         <v>88</v>
       </c>
       <c r="F7" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="G7" t="s">
-        <v>737</v>
+        <v>746</v>
       </c>
       <c r="H7" t="s">
         <v>90</v>
       </c>
       <c r="I7" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="J7" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="K7" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>738</v>
+        <v>747</v>
       </c>
       <c r="B8" t="s">
-        <v>739</v>
+        <v>748</v>
       </c>
       <c r="C8" t="s">
-        <v>740</v>
+        <v>749</v>
       </c>
       <c r="D8" t="s">
-        <v>741</v>
+        <v>750</v>
       </c>
       <c r="E8" t="s">
         <v>88</v>
       </c>
       <c r="F8" t="s">
-        <v>742</v>
+        <v>751</v>
       </c>
       <c r="G8" t="s">
         <v>88</v>
       </c>
       <c r="H8" t="s">
-        <v>743</v>
+        <v>752</v>
       </c>
       <c r="I8" t="s">
-        <v>744</v>
+        <v>753</v>
       </c>
       <c r="J8" t="s">
-        <v>745</v>
+        <v>754</v>
       </c>
       <c r="K8" t="s">
-        <v>746</v>
+        <v>755</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>747</v>
+        <v>756</v>
       </c>
       <c r="B9" t="s">
-        <v>748</v>
+        <v>757</v>
       </c>
       <c r="C9" t="s">
-        <v>749</v>
+        <v>758</v>
       </c>
       <c r="D9" t="s">
-        <v>750</v>
+        <v>759</v>
       </c>
       <c r="E9" t="s">
         <v>88</v>
       </c>
       <c r="F9" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="G9" t="s">
-        <v>752</v>
+        <v>761</v>
       </c>
       <c r="H9" t="s">
-        <v>753</v>
+        <v>762</v>
       </c>
       <c r="I9" t="s">
-        <v>754</v>
+        <v>763</v>
       </c>
       <c r="J9" t="s">
-        <v>755</v>
+        <v>764</v>
       </c>
       <c r="K9" t="s">
-        <v>756</v>
+        <v>765</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>757</v>
+        <v>766</v>
       </c>
       <c r="B10" t="s">
-        <v>758</v>
+        <v>767</v>
       </c>
       <c r="C10" t="s">
-        <v>759</v>
+        <v>768</v>
       </c>
       <c r="D10" t="s">
-        <v>760</v>
+        <v>769</v>
       </c>
       <c r="E10" t="s">
         <v>88</v>
       </c>
       <c r="F10" t="s">
-        <v>761</v>
+        <v>770</v>
       </c>
       <c r="G10" t="s">
-        <v>762</v>
+        <v>771</v>
       </c>
       <c r="H10" t="s">
-        <v>763</v>
+        <v>772</v>
       </c>
       <c r="I10" t="s">
-        <v>764</v>
+        <v>773</v>
       </c>
       <c r="J10" t="s">
-        <v>765</v>
+        <v>774</v>
       </c>
       <c r="K10" t="s">
-        <v>766</v>
+        <v>775</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>767</v>
+        <v>776</v>
       </c>
       <c r="B11" t="s">
-        <v>768</v>
+        <v>777</v>
       </c>
       <c r="C11" t="s">
-        <v>769</v>
+        <v>778</v>
       </c>
       <c r="D11" t="s">
-        <v>770</v>
+        <v>779</v>
       </c>
       <c r="E11" t="s">
         <v>88</v>
       </c>
       <c r="F11" t="s">
-        <v>771</v>
+        <v>780</v>
       </c>
       <c r="G11" t="s">
         <v>88</v>
       </c>
       <c r="H11" t="s">
-        <v>772</v>
+        <v>781</v>
       </c>
       <c r="I11" t="s">
-        <v>773</v>
+        <v>782</v>
       </c>
       <c r="J11" t="s">
-        <v>774</v>
+        <v>783</v>
       </c>
       <c r="K11" t="s">
-        <v>775</v>
+        <v>784</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>776</v>
+        <v>785</v>
       </c>
       <c r="B12" t="s">
-        <v>777</v>
+        <v>786</v>
       </c>
       <c r="C12" t="s">
-        <v>778</v>
+        <v>787</v>
       </c>
       <c r="D12" t="s">
-        <v>779</v>
+        <v>788</v>
       </c>
       <c r="E12" t="s">
         <v>88</v>
       </c>
       <c r="F12" t="s">
-        <v>780</v>
+        <v>789</v>
       </c>
       <c r="G12" t="s">
         <v>88</v>
       </c>
       <c r="H12" t="s">
-        <v>781</v>
+        <v>790</v>
       </c>
       <c r="I12" t="s">
-        <v>782</v>
+        <v>791</v>
       </c>
       <c r="J12" t="s">
-        <v>783</v>
+        <v>792</v>
       </c>
       <c r="K12" t="s">
-        <v>784</v>
+        <v>793</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>785</v>
+        <v>794</v>
       </c>
       <c r="B13" t="s">
-        <v>786</v>
+        <v>795</v>
       </c>
       <c r="C13" t="s">
-        <v>787</v>
+        <v>796</v>
       </c>
       <c r="D13" t="s">
-        <v>788</v>
+        <v>797</v>
       </c>
       <c r="E13" t="s">
         <v>88</v>
       </c>
       <c r="F13" t="s">
-        <v>789</v>
+        <v>798</v>
       </c>
       <c r="G13" t="s">
         <v>88</v>
       </c>
       <c r="H13" t="s">
-        <v>790</v>
+        <v>799</v>
       </c>
       <c r="I13" t="s">
-        <v>791</v>
+        <v>800</v>
       </c>
       <c r="J13" t="s">
-        <v>792</v>
+        <v>801</v>
       </c>
       <c r="K13" t="s">
-        <v>793</v>
+        <v>802</v>
       </c>
     </row>
   </sheetData>
@@ -7744,7 +8146,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K10"/>
   <sheetViews>
@@ -7795,31 +8197,31 @@
         <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>794</v>
+        <v>803</v>
       </c>
       <c r="D2" t="s">
-        <v>795</v>
+        <v>804</v>
       </c>
       <c r="E2" t="s">
         <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>796</v>
+        <v>805</v>
       </c>
       <c r="G2" t="s">
-        <v>797</v>
+        <v>806</v>
       </c>
       <c r="H2" t="s">
-        <v>798</v>
+        <v>807</v>
       </c>
       <c r="I2" t="s">
-        <v>799</v>
+        <v>808</v>
       </c>
       <c r="J2" t="s">
-        <v>800</v>
+        <v>809</v>
       </c>
       <c r="K2" t="s">
-        <v>801</v>
+        <v>810</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -7827,537 +8229,279 @@
         <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>802</v>
+        <v>811</v>
       </c>
       <c r="C3" t="s">
-        <v>803</v>
+        <v>812</v>
       </c>
       <c r="D3" t="s">
-        <v>804</v>
+        <v>813</v>
       </c>
       <c r="E3" t="s">
         <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>805</v>
+        <v>814</v>
       </c>
       <c r="G3" t="s">
-        <v>806</v>
+        <v>815</v>
       </c>
       <c r="H3" t="s">
-        <v>807</v>
+        <v>816</v>
       </c>
       <c r="I3" t="s">
-        <v>808</v>
+        <v>817</v>
       </c>
       <c r="J3" t="s">
-        <v>809</v>
+        <v>818</v>
       </c>
       <c r="K3" t="s">
-        <v>810</v>
+        <v>819</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>811</v>
+        <v>820</v>
       </c>
       <c r="B4" t="s">
-        <v>812</v>
+        <v>821</v>
       </c>
       <c r="C4" t="s">
-        <v>813</v>
+        <v>822</v>
       </c>
       <c r="D4" t="s">
-        <v>814</v>
+        <v>823</v>
       </c>
       <c r="E4" t="s">
         <v>88</v>
       </c>
       <c r="F4" t="s">
-        <v>815</v>
+        <v>824</v>
       </c>
       <c r="G4" t="s">
-        <v>816</v>
+        <v>825</v>
       </c>
       <c r="H4" t="s">
-        <v>817</v>
+        <v>826</v>
       </c>
       <c r="I4" t="s">
-        <v>818</v>
+        <v>827</v>
       </c>
       <c r="J4" t="s">
-        <v>819</v>
+        <v>828</v>
       </c>
       <c r="K4" t="s">
-        <v>820</v>
+        <v>829</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>821</v>
+        <v>830</v>
       </c>
       <c r="B5" t="s">
-        <v>822</v>
+        <v>831</v>
       </c>
       <c r="C5" t="s">
-        <v>823</v>
+        <v>832</v>
       </c>
       <c r="D5" t="s">
-        <v>824</v>
+        <v>833</v>
       </c>
       <c r="E5" t="s">
         <v>88</v>
       </c>
       <c r="F5" t="s">
-        <v>825</v>
+        <v>834</v>
       </c>
       <c r="G5" t="s">
-        <v>826</v>
+        <v>835</v>
       </c>
       <c r="H5" t="s">
-        <v>827</v>
+        <v>836</v>
       </c>
       <c r="I5" t="s">
-        <v>828</v>
+        <v>837</v>
       </c>
       <c r="J5" t="s">
-        <v>829</v>
+        <v>838</v>
       </c>
       <c r="K5" t="s">
-        <v>830</v>
+        <v>839</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>831</v>
+        <v>840</v>
       </c>
       <c r="B6" t="s">
-        <v>832</v>
+        <v>841</v>
       </c>
       <c r="C6" t="s">
-        <v>833</v>
+        <v>842</v>
       </c>
       <c r="D6" t="s">
-        <v>834</v>
+        <v>843</v>
       </c>
       <c r="E6" t="s">
         <v>88</v>
       </c>
       <c r="F6" t="s">
-        <v>835</v>
+        <v>844</v>
       </c>
       <c r="G6" t="s">
-        <v>836</v>
+        <v>845</v>
       </c>
       <c r="H6" t="s">
-        <v>837</v>
+        <v>846</v>
       </c>
       <c r="I6" t="s">
-        <v>838</v>
+        <v>847</v>
       </c>
       <c r="J6" t="s">
-        <v>839</v>
+        <v>848</v>
       </c>
       <c r="K6" t="s">
-        <v>840</v>
+        <v>849</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>841</v>
+        <v>850</v>
       </c>
       <c r="B7" t="s">
-        <v>842</v>
+        <v>851</v>
       </c>
       <c r="C7" t="s">
-        <v>843</v>
+        <v>852</v>
       </c>
       <c r="D7" t="s">
-        <v>844</v>
+        <v>853</v>
       </c>
       <c r="E7" t="s">
         <v>88</v>
       </c>
       <c r="F7" t="s">
-        <v>842</v>
+        <v>851</v>
       </c>
       <c r="G7" t="s">
-        <v>845</v>
+        <v>854</v>
       </c>
       <c r="H7" t="s">
-        <v>846</v>
+        <v>855</v>
       </c>
       <c r="I7" t="s">
-        <v>847</v>
+        <v>856</v>
       </c>
       <c r="J7" t="s">
-        <v>848</v>
+        <v>857</v>
       </c>
       <c r="K7" t="s">
-        <v>849</v>
+        <v>858</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>850</v>
+        <v>859</v>
       </c>
       <c r="B8" t="s">
-        <v>851</v>
+        <v>860</v>
       </c>
       <c r="C8" t="s">
-        <v>852</v>
+        <v>861</v>
       </c>
       <c r="D8" t="s">
-        <v>853</v>
+        <v>862</v>
       </c>
       <c r="E8" t="s">
         <v>88</v>
       </c>
       <c r="F8" t="s">
-        <v>854</v>
+        <v>863</v>
       </c>
       <c r="G8" t="s">
         <v>88</v>
       </c>
       <c r="H8" t="s">
-        <v>855</v>
+        <v>864</v>
       </c>
       <c r="I8" t="s">
-        <v>856</v>
+        <v>865</v>
       </c>
       <c r="J8" t="s">
-        <v>857</v>
+        <v>866</v>
       </c>
       <c r="K8" t="s">
-        <v>858</v>
+        <v>867</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>859</v>
+        <v>868</v>
       </c>
       <c r="B9" t="s">
-        <v>860</v>
+        <v>869</v>
       </c>
       <c r="C9" t="s">
-        <v>861</v>
+        <v>870</v>
       </c>
       <c r="D9" t="s">
-        <v>862</v>
+        <v>871</v>
       </c>
       <c r="E9" t="s">
         <v>88</v>
       </c>
       <c r="F9" t="s">
-        <v>863</v>
+        <v>872</v>
       </c>
       <c r="G9" t="s">
         <v>88</v>
       </c>
       <c r="H9" t="s">
-        <v>864</v>
+        <v>873</v>
       </c>
       <c r="I9" t="s">
-        <v>865</v>
+        <v>874</v>
       </c>
       <c r="J9" t="s">
-        <v>866</v>
+        <v>875</v>
       </c>
       <c r="K9" t="s">
-        <v>867</v>
+        <v>876</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>868</v>
+        <v>877</v>
       </c>
       <c r="B10" t="s">
-        <v>869</v>
+        <v>878</v>
       </c>
       <c r="C10" t="s">
-        <v>870</v>
+        <v>879</v>
       </c>
       <c r="D10" t="s">
-        <v>871</v>
+        <v>880</v>
       </c>
       <c r="E10" t="s">
         <v>88</v>
       </c>
       <c r="F10" t="s">
-        <v>872</v>
+        <v>881</v>
       </c>
       <c r="G10" t="s">
         <v>88</v>
       </c>
       <c r="H10" t="s">
-        <v>873</v>
+        <v>882</v>
       </c>
       <c r="I10" t="s">
-        <v>874</v>
+        <v>883</v>
       </c>
       <c r="J10" t="s">
-        <v>875</v>
+        <v>884</v>
       </c>
       <c r="K10" t="s">
-        <v>876</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B2" t="s">
-        <v>877</v>
-      </c>
-      <c r="C2" t="s">
-        <v>878</v>
-      </c>
-      <c r="D2" t="s">
-        <v>879</v>
-      </c>
-      <c r="E2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F2" t="s">
-        <v>880</v>
-      </c>
-      <c r="G2" t="s">
-        <v>881</v>
-      </c>
-      <c r="H2" t="s">
-        <v>882</v>
-      </c>
-      <c r="I2" t="s">
-        <v>883</v>
-      </c>
-      <c r="J2" t="s">
-        <v>884</v>
-      </c>
-      <c r="K2" t="s">
         <v>885</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B3" t="s">
-        <v>886</v>
-      </c>
-      <c r="C3" t="s">
-        <v>887</v>
-      </c>
-      <c r="D3" t="s">
-        <v>888</v>
-      </c>
-      <c r="E3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F3" t="s">
-        <v>889</v>
-      </c>
-      <c r="G3" t="s">
-        <v>890</v>
-      </c>
-      <c r="H3" t="s">
-        <v>891</v>
-      </c>
-      <c r="I3" t="s">
-        <v>892</v>
-      </c>
-      <c r="J3" t="s">
-        <v>893</v>
-      </c>
-      <c r="K3" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>895</v>
-      </c>
-      <c r="B4" t="s">
-        <v>896</v>
-      </c>
-      <c r="C4" t="s">
-        <v>897</v>
-      </c>
-      <c r="D4" t="s">
-        <v>898</v>
-      </c>
-      <c r="E4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F4" t="s">
-        <v>899</v>
-      </c>
-      <c r="G4" t="s">
-        <v>900</v>
-      </c>
-      <c r="H4" t="s">
-        <v>901</v>
-      </c>
-      <c r="I4" t="s">
-        <v>896</v>
-      </c>
-      <c r="J4" t="s">
-        <v>902</v>
-      </c>
-      <c r="K4" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>904</v>
-      </c>
-      <c r="B5" t="s">
-        <v>905</v>
-      </c>
-      <c r="C5" t="s">
-        <v>906</v>
-      </c>
-      <c r="D5" t="s">
-        <v>907</v>
-      </c>
-      <c r="E5" t="s">
-        <v>88</v>
-      </c>
-      <c r="F5" t="s">
-        <v>908</v>
-      </c>
-      <c r="G5" t="s">
-        <v>909</v>
-      </c>
-      <c r="H5" t="s">
-        <v>910</v>
-      </c>
-      <c r="I5" t="s">
-        <v>905</v>
-      </c>
-      <c r="J5" t="s">
-        <v>911</v>
-      </c>
-      <c r="K5" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>913</v>
-      </c>
-      <c r="B6" t="s">
-        <v>914</v>
-      </c>
-      <c r="C6" t="s">
-        <v>915</v>
-      </c>
-      <c r="D6" t="s">
-        <v>916</v>
-      </c>
-      <c r="E6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F6" t="s">
-        <v>917</v>
-      </c>
-      <c r="G6" t="s">
-        <v>918</v>
-      </c>
-      <c r="H6" t="s">
-        <v>919</v>
-      </c>
-      <c r="I6" t="s">
-        <v>920</v>
-      </c>
-      <c r="J6" t="s">
-        <v>921</v>
-      </c>
-      <c r="K6" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
-        <v>923</v>
-      </c>
-      <c r="B7" t="s">
-        <v>924</v>
-      </c>
-      <c r="C7" t="s">
-        <v>925</v>
-      </c>
-      <c r="D7" t="s">
-        <v>926</v>
-      </c>
-      <c r="E7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F7" t="s">
-        <v>927</v>
-      </c>
-      <c r="G7" t="s">
-        <v>928</v>
-      </c>
-      <c r="H7" t="s">
-        <v>929</v>
-      </c>
-      <c r="I7" t="s">
-        <v>930</v>
-      </c>
-      <c r="J7" t="s">
-        <v>931</v>
-      </c>
-      <c r="K7" t="s">
-        <v>932</v>
       </c>
     </row>
   </sheetData>

--- a/AdofaiTweaks.Generator/translations.xlsx
+++ b/AdofaiTweaks.Generator/translations.xlsx
@@ -10,7 +10,7 @@
     <sheet name="DASHBOARD" sheetId="1" r:id="rId1"/>
     <sheet name="Global" sheetId="2" r:id="rId2"/>
     <sheet name="DisableEffects" sheetId="3" r:id="rId3"/>
-    <sheet name="EditorInfo" sheetId="4" r:id="rId4"/>
+    <sheet name="EditorTweaks" sheetId="4" r:id="rId4"/>
     <sheet name="HideUiElements" sheetId="5" r:id="rId5"/>
     <sheet name="JudgmentVisuals" sheetId="6" r:id="rId6"/>
     <sheet name="KeyViewer" sheetId="7" r:id="rId7"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="1064">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="1074">
   <si>
     <t>Translation Status</t>
   </si>
@@ -693,7 +693,64 @@
     <t>除外するフィルター：</t>
   </si>
   <si>
-    <t>Editor Info</t>
+    <t>Editor Tweaks</t>
+  </si>
+  <si>
+    <t>레벨 에디터</t>
+  </si>
+  <si>
+    <t>Features related to the Level Editor.</t>
+  </si>
+  <si>
+    <t>레벨 에디터와 관한 기능들입니다.</t>
+  </si>
+  <si>
+    <t>SHOW_FLOOR_ANGLE</t>
+  </si>
+  <si>
+    <t>Show tile angle</t>
+  </si>
+  <si>
+    <t>타일 각도 보이기</t>
+  </si>
+  <si>
+    <t>SHOW_FLOOR_BEATS</t>
+  </si>
+  <si>
+    <t>Show tile beats</t>
+  </si>
+  <si>
+    <t>타일 박자 길이 보이기</t>
+  </si>
+  <si>
+    <t>FINE_TUNED_ROTATIONS</t>
+  </si>
+  <si>
+    <t>Enable fine-tuned rotations with Alt Key</t>
+  </si>
+  <si>
+    <t>Alt 키로 타일 세부 회전하기</t>
+  </si>
+  <si>
+    <t>SYNC_FLIPS_AND_ROTATIONS_WITH_LEVEL_EVENTS</t>
+  </si>
+  <si>
+    <t>Sync level event values with tile rotations &amp; flips</t>
+  </si>
+  <si>
+    <t>레벨 이벤트 값에 타일 회전 &amp; 반전 반영하기</t>
+  </si>
+  <si>
+    <t>SYNC_WARNING</t>
+  </si>
+  <si>
+    <t>This feature is meant for charting-only and only supports the following level events</t>
+  </si>
+  <si>
+    <t>채보 제작 용도만을 위해 제작된 기능이며, 다음 레벨 이벤트만을 지원합니다</t>
+  </si>
+  <si>
+    <t>Hide UI Elements</t>
   </si>
   <si>
     <t>UI 숨기기</t>
@@ -721,33 +778,6 @@
   </si>
   <si>
     <t>UI項目を隠す</t>
-  </si>
-  <si>
-    <t>Displays information about the Level Editor.</t>
-  </si>
-  <si>
-    <t>레벨 에디터와 관한 정보를 보여줍니다.</t>
-  </si>
-  <si>
-    <t>SHOW_FLOOR_ANGLE</t>
-  </si>
-  <si>
-    <t>Show tile angle</t>
-  </si>
-  <si>
-    <t>타일 각도 보이기</t>
-  </si>
-  <si>
-    <t>SHOW_FLOOR_BEATS</t>
-  </si>
-  <si>
-    <t>Show tile beats</t>
-  </si>
-  <si>
-    <t>타일 박자 길이 보이기</t>
-  </si>
-  <si>
-    <t>Hide UI Elements</t>
   </si>
   <si>
     <t>Hides certain UI elements from gameplay.</t>
@@ -4006,34 +4036,34 @@
         <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>886</v>
+        <v>896</v>
       </c>
       <c r="C2" t="s">
-        <v>887</v>
+        <v>897</v>
       </c>
       <c r="D2" t="s">
-        <v>888</v>
+        <v>898</v>
       </c>
       <c r="E2" t="s">
         <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>889</v>
+        <v>899</v>
       </c>
       <c r="G2" t="s">
-        <v>890</v>
+        <v>900</v>
       </c>
       <c r="H2" t="s">
-        <v>891</v>
+        <v>901</v>
       </c>
       <c r="I2" t="s">
-        <v>892</v>
+        <v>902</v>
       </c>
       <c r="J2" t="s">
-        <v>893</v>
+        <v>903</v>
       </c>
       <c r="K2" t="s">
-        <v>894</v>
+        <v>904</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -4041,174 +4071,174 @@
         <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>895</v>
+        <v>905</v>
       </c>
       <c r="C3" t="s">
-        <v>896</v>
+        <v>906</v>
       </c>
       <c r="D3" t="s">
-        <v>897</v>
+        <v>907</v>
       </c>
       <c r="E3" t="s">
         <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>898</v>
+        <v>908</v>
       </c>
       <c r="G3" t="s">
-        <v>899</v>
+        <v>909</v>
       </c>
       <c r="H3" t="s">
-        <v>900</v>
+        <v>910</v>
       </c>
       <c r="I3" t="s">
-        <v>901</v>
+        <v>911</v>
       </c>
       <c r="J3" t="s">
-        <v>902</v>
+        <v>912</v>
       </c>
       <c r="K3" t="s">
-        <v>903</v>
+        <v>913</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>904</v>
+        <v>914</v>
       </c>
       <c r="B4" t="s">
-        <v>905</v>
+        <v>915</v>
       </c>
       <c r="C4" t="s">
-        <v>906</v>
+        <v>916</v>
       </c>
       <c r="D4" t="s">
-        <v>907</v>
+        <v>917</v>
       </c>
       <c r="E4" t="s">
         <v>88</v>
       </c>
       <c r="F4" t="s">
-        <v>908</v>
+        <v>918</v>
       </c>
       <c r="G4" t="s">
-        <v>909</v>
+        <v>919</v>
       </c>
       <c r="H4" t="s">
-        <v>910</v>
+        <v>920</v>
       </c>
       <c r="I4" t="s">
-        <v>905</v>
+        <v>915</v>
       </c>
       <c r="J4" t="s">
-        <v>911</v>
+        <v>921</v>
       </c>
       <c r="K4" t="s">
-        <v>912</v>
+        <v>922</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>913</v>
+        <v>923</v>
       </c>
       <c r="B5" t="s">
-        <v>914</v>
+        <v>924</v>
       </c>
       <c r="C5" t="s">
-        <v>915</v>
+        <v>925</v>
       </c>
       <c r="D5" t="s">
-        <v>916</v>
+        <v>926</v>
       </c>
       <c r="E5" t="s">
         <v>88</v>
       </c>
       <c r="F5" t="s">
-        <v>917</v>
+        <v>927</v>
       </c>
       <c r="G5" t="s">
-        <v>918</v>
+        <v>928</v>
       </c>
       <c r="H5" t="s">
-        <v>919</v>
+        <v>929</v>
       </c>
       <c r="I5" t="s">
-        <v>914</v>
+        <v>924</v>
       </c>
       <c r="J5" t="s">
-        <v>920</v>
+        <v>930</v>
       </c>
       <c r="K5" t="s">
-        <v>921</v>
+        <v>931</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>922</v>
+        <v>932</v>
       </c>
       <c r="B6" t="s">
-        <v>923</v>
+        <v>933</v>
       </c>
       <c r="C6" t="s">
-        <v>924</v>
+        <v>934</v>
       </c>
       <c r="D6" t="s">
-        <v>925</v>
+        <v>935</v>
       </c>
       <c r="E6" t="s">
         <v>88</v>
       </c>
       <c r="F6" t="s">
-        <v>926</v>
+        <v>936</v>
       </c>
       <c r="G6" t="s">
-        <v>927</v>
+        <v>937</v>
       </c>
       <c r="H6" t="s">
-        <v>928</v>
+        <v>938</v>
       </c>
       <c r="I6" t="s">
-        <v>929</v>
+        <v>939</v>
       </c>
       <c r="J6" t="s">
-        <v>930</v>
+        <v>940</v>
       </c>
       <c r="K6" t="s">
-        <v>931</v>
+        <v>941</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>932</v>
+        <v>942</v>
       </c>
       <c r="B7" t="s">
-        <v>933</v>
+        <v>943</v>
       </c>
       <c r="C7" t="s">
-        <v>934</v>
+        <v>944</v>
       </c>
       <c r="D7" t="s">
-        <v>935</v>
+        <v>945</v>
       </c>
       <c r="E7" t="s">
         <v>88</v>
       </c>
       <c r="F7" t="s">
-        <v>936</v>
+        <v>946</v>
       </c>
       <c r="G7" t="s">
-        <v>937</v>
+        <v>947</v>
       </c>
       <c r="H7" t="s">
-        <v>938</v>
+        <v>948</v>
       </c>
       <c r="I7" t="s">
-        <v>939</v>
+        <v>949</v>
       </c>
       <c r="J7" t="s">
-        <v>940</v>
+        <v>950</v>
       </c>
       <c r="K7" t="s">
-        <v>941</v>
+        <v>951</v>
       </c>
     </row>
   </sheetData>
@@ -4264,34 +4294,34 @@
         <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>942</v>
+        <v>952</v>
       </c>
       <c r="C2" t="s">
-        <v>943</v>
+        <v>953</v>
       </c>
       <c r="D2" t="s">
-        <v>944</v>
+        <v>954</v>
       </c>
       <c r="E2" t="s">
         <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>945</v>
+        <v>955</v>
       </c>
       <c r="G2" t="s">
-        <v>946</v>
+        <v>956</v>
       </c>
       <c r="H2" t="s">
-        <v>947</v>
+        <v>957</v>
       </c>
       <c r="I2" t="s">
-        <v>948</v>
+        <v>958</v>
       </c>
       <c r="J2" t="s">
-        <v>949</v>
+        <v>959</v>
       </c>
       <c r="K2" t="s">
-        <v>950</v>
+        <v>960</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -4299,209 +4329,209 @@
         <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>951</v>
+        <v>961</v>
       </c>
       <c r="C3" t="s">
-        <v>952</v>
+        <v>962</v>
       </c>
       <c r="D3" t="s">
-        <v>953</v>
+        <v>963</v>
       </c>
       <c r="E3" t="s">
         <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>954</v>
+        <v>964</v>
       </c>
       <c r="G3" t="s">
-        <v>955</v>
+        <v>965</v>
       </c>
       <c r="H3" t="s">
-        <v>956</v>
+        <v>966</v>
       </c>
       <c r="I3" t="s">
-        <v>957</v>
+        <v>967</v>
       </c>
       <c r="J3" t="s">
-        <v>958</v>
+        <v>968</v>
       </c>
       <c r="K3" t="s">
-        <v>959</v>
+        <v>969</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>904</v>
+        <v>914</v>
       </c>
       <c r="B4" t="s">
-        <v>905</v>
+        <v>915</v>
       </c>
       <c r="C4" t="s">
-        <v>906</v>
+        <v>916</v>
       </c>
       <c r="D4" t="s">
-        <v>907</v>
+        <v>917</v>
       </c>
       <c r="E4" t="s">
         <v>88</v>
       </c>
       <c r="F4" t="s">
-        <v>908</v>
+        <v>918</v>
       </c>
       <c r="G4" t="s">
-        <v>909</v>
+        <v>919</v>
       </c>
       <c r="H4" t="s">
-        <v>910</v>
+        <v>920</v>
       </c>
       <c r="I4" t="s">
-        <v>905</v>
+        <v>915</v>
       </c>
       <c r="J4" t="s">
-        <v>911</v>
+        <v>921</v>
       </c>
       <c r="K4" t="s">
-        <v>960</v>
+        <v>970</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>913</v>
+        <v>923</v>
       </c>
       <c r="B5" t="s">
-        <v>914</v>
+        <v>924</v>
       </c>
       <c r="C5" t="s">
-        <v>915</v>
+        <v>925</v>
       </c>
       <c r="D5" t="s">
-        <v>916</v>
+        <v>926</v>
       </c>
       <c r="E5" t="s">
         <v>88</v>
       </c>
       <c r="F5" t="s">
-        <v>917</v>
+        <v>927</v>
       </c>
       <c r="G5" t="s">
-        <v>918</v>
+        <v>928</v>
       </c>
       <c r="H5" t="s">
-        <v>919</v>
+        <v>929</v>
       </c>
       <c r="I5" t="s">
-        <v>914</v>
+        <v>924</v>
       </c>
       <c r="J5" t="s">
-        <v>920</v>
+        <v>930</v>
       </c>
       <c r="K5" t="s">
-        <v>961</v>
+        <v>971</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>922</v>
+        <v>932</v>
       </c>
       <c r="B6" t="s">
-        <v>923</v>
+        <v>933</v>
       </c>
       <c r="C6" t="s">
-        <v>924</v>
+        <v>934</v>
       </c>
       <c r="D6" t="s">
-        <v>925</v>
+        <v>935</v>
       </c>
       <c r="E6" t="s">
         <v>88</v>
       </c>
       <c r="F6" t="s">
-        <v>926</v>
+        <v>936</v>
       </c>
       <c r="G6" t="s">
-        <v>927</v>
+        <v>937</v>
       </c>
       <c r="H6" t="s">
-        <v>962</v>
+        <v>972</v>
       </c>
       <c r="I6" t="s">
-        <v>929</v>
+        <v>939</v>
       </c>
       <c r="J6" t="s">
-        <v>930</v>
+        <v>940</v>
       </c>
       <c r="K6" t="s">
-        <v>931</v>
+        <v>941</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>932</v>
+        <v>942</v>
       </c>
       <c r="B7" t="s">
-        <v>933</v>
+        <v>943</v>
       </c>
       <c r="C7" t="s">
-        <v>934</v>
+        <v>944</v>
       </c>
       <c r="D7" t="s">
-        <v>935</v>
+        <v>945</v>
       </c>
       <c r="E7" t="s">
         <v>88</v>
       </c>
       <c r="F7" t="s">
-        <v>936</v>
+        <v>946</v>
       </c>
       <c r="G7" t="s">
-        <v>937</v>
+        <v>947</v>
       </c>
       <c r="H7" t="s">
-        <v>963</v>
+        <v>973</v>
       </c>
       <c r="I7" t="s">
-        <v>939</v>
+        <v>949</v>
       </c>
       <c r="J7" t="s">
-        <v>940</v>
+        <v>950</v>
       </c>
       <c r="K7" t="s">
-        <v>941</v>
+        <v>951</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>964</v>
+        <v>974</v>
       </c>
       <c r="B8" t="s">
-        <v>965</v>
+        <v>975</v>
       </c>
       <c r="C8" t="s">
-        <v>966</v>
+        <v>976</v>
       </c>
       <c r="D8" t="s">
-        <v>967</v>
+        <v>977</v>
       </c>
       <c r="E8" t="s">
         <v>88</v>
       </c>
       <c r="F8" t="s">
-        <v>968</v>
+        <v>978</v>
       </c>
       <c r="G8" t="s">
         <v>88</v>
       </c>
       <c r="H8" t="s">
-        <v>969</v>
+        <v>979</v>
       </c>
       <c r="I8" t="s">
-        <v>965</v>
+        <v>975</v>
       </c>
       <c r="J8" t="s">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="K8" t="s">
-        <v>971</v>
+        <v>981</v>
       </c>
     </row>
   </sheetData>
@@ -4557,34 +4587,34 @@
         <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>972</v>
+        <v>982</v>
       </c>
       <c r="C2" t="s">
-        <v>973</v>
+        <v>983</v>
       </c>
       <c r="D2" t="s">
-        <v>974</v>
+        <v>984</v>
       </c>
       <c r="E2" t="s">
         <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>975</v>
+        <v>985</v>
       </c>
       <c r="G2" t="s">
-        <v>976</v>
+        <v>986</v>
       </c>
       <c r="H2" t="s">
-        <v>977</v>
+        <v>987</v>
       </c>
       <c r="I2" t="s">
-        <v>978</v>
+        <v>988</v>
       </c>
       <c r="J2" t="s">
-        <v>979</v>
+        <v>989</v>
       </c>
       <c r="K2" t="s">
-        <v>980</v>
+        <v>990</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -4592,314 +4622,314 @@
         <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>981</v>
+        <v>991</v>
       </c>
       <c r="C3" t="s">
-        <v>982</v>
+        <v>992</v>
       </c>
       <c r="D3" t="s">
-        <v>983</v>
+        <v>993</v>
       </c>
       <c r="E3" t="s">
         <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>984</v>
+        <v>994</v>
       </c>
       <c r="G3" t="s">
         <v>88</v>
       </c>
       <c r="H3" t="s">
-        <v>985</v>
+        <v>995</v>
       </c>
       <c r="I3" t="s">
-        <v>986</v>
+        <v>996</v>
       </c>
       <c r="J3" t="s">
-        <v>987</v>
+        <v>997</v>
       </c>
       <c r="K3" t="s">
-        <v>988</v>
+        <v>998</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>989</v>
+        <v>999</v>
       </c>
       <c r="B4" t="s">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="C4" t="s">
-        <v>991</v>
+        <v>1001</v>
       </c>
       <c r="D4" t="s">
-        <v>992</v>
+        <v>1002</v>
       </c>
       <c r="E4" t="s">
         <v>88</v>
       </c>
       <c r="F4" t="s">
-        <v>993</v>
+        <v>1003</v>
       </c>
       <c r="G4" t="s">
         <v>88</v>
       </c>
       <c r="H4" t="s">
-        <v>994</v>
+        <v>1004</v>
       </c>
       <c r="I4" t="s">
-        <v>995</v>
+        <v>1005</v>
       </c>
       <c r="J4" t="s">
-        <v>996</v>
+        <v>1006</v>
       </c>
       <c r="K4" t="s">
-        <v>997</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>998</v>
+        <v>1008</v>
       </c>
       <c r="B5" t="s">
-        <v>999</v>
+        <v>1009</v>
       </c>
       <c r="C5" t="s">
-        <v>1000</v>
+        <v>1010</v>
       </c>
       <c r="D5" t="s">
-        <v>1001</v>
+        <v>1011</v>
       </c>
       <c r="E5" t="s">
         <v>88</v>
       </c>
       <c r="F5" t="s">
-        <v>1002</v>
+        <v>1012</v>
       </c>
       <c r="G5" t="s">
-        <v>1003</v>
+        <v>1013</v>
       </c>
       <c r="H5" t="s">
-        <v>1004</v>
+        <v>1014</v>
       </c>
       <c r="I5" t="s">
-        <v>1005</v>
+        <v>1015</v>
       </c>
       <c r="J5" t="s">
-        <v>1006</v>
+        <v>1016</v>
       </c>
       <c r="K5" t="s">
-        <v>1007</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>1008</v>
+        <v>1018</v>
       </c>
       <c r="B6" t="s">
-        <v>1009</v>
+        <v>1019</v>
       </c>
       <c r="C6" t="s">
-        <v>1010</v>
+        <v>1020</v>
       </c>
       <c r="D6" t="s">
-        <v>1011</v>
+        <v>1021</v>
       </c>
       <c r="E6" t="s">
         <v>88</v>
       </c>
       <c r="F6" t="s">
-        <v>1012</v>
+        <v>1022</v>
       </c>
       <c r="G6" t="s">
         <v>88</v>
       </c>
       <c r="H6" t="s">
-        <v>1013</v>
+        <v>1023</v>
       </c>
       <c r="I6" t="s">
-        <v>1014</v>
+        <v>1024</v>
       </c>
       <c r="J6" t="s">
-        <v>1015</v>
+        <v>1025</v>
       </c>
       <c r="K6" t="s">
-        <v>1016</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>1017</v>
+        <v>1027</v>
       </c>
       <c r="B7" t="s">
-        <v>1018</v>
+        <v>1028</v>
       </c>
       <c r="C7" t="s">
-        <v>1019</v>
+        <v>1029</v>
       </c>
       <c r="D7" t="s">
-        <v>1020</v>
+        <v>1030</v>
       </c>
       <c r="E7" t="s">
         <v>88</v>
       </c>
       <c r="F7" t="s">
-        <v>1021</v>
+        <v>1031</v>
       </c>
       <c r="G7" t="s">
         <v>88</v>
       </c>
       <c r="H7" t="s">
-        <v>1022</v>
+        <v>1032</v>
       </c>
       <c r="I7" t="s">
-        <v>1023</v>
+        <v>1033</v>
       </c>
       <c r="J7" t="s">
-        <v>1024</v>
+        <v>1034</v>
       </c>
       <c r="K7" t="s">
-        <v>1025</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>1026</v>
+        <v>1036</v>
       </c>
       <c r="B8" t="s">
-        <v>1027</v>
+        <v>1037</v>
       </c>
       <c r="C8" t="s">
-        <v>1028</v>
+        <v>1038</v>
       </c>
       <c r="D8" t="s">
-        <v>1029</v>
+        <v>1039</v>
       </c>
       <c r="E8" t="s">
         <v>88</v>
       </c>
       <c r="F8" t="s">
-        <v>1030</v>
+        <v>1040</v>
       </c>
       <c r="G8" t="s">
         <v>88</v>
       </c>
       <c r="H8" t="s">
-        <v>1031</v>
+        <v>1041</v>
       </c>
       <c r="I8" t="s">
-        <v>1032</v>
+        <v>1042</v>
       </c>
       <c r="J8" t="s">
-        <v>1033</v>
+        <v>1043</v>
       </c>
       <c r="K8" t="s">
-        <v>1034</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>1035</v>
+        <v>1045</v>
       </c>
       <c r="B9" t="s">
-        <v>1036</v>
+        <v>1046</v>
       </c>
       <c r="C9" t="s">
-        <v>1037</v>
+        <v>1047</v>
       </c>
       <c r="D9" t="s">
-        <v>1038</v>
+        <v>1048</v>
       </c>
       <c r="E9" t="s">
         <v>88</v>
       </c>
       <c r="F9" t="s">
-        <v>1039</v>
+        <v>1049</v>
       </c>
       <c r="G9" t="s">
         <v>88</v>
       </c>
       <c r="H9" t="s">
-        <v>1040</v>
+        <v>1050</v>
       </c>
       <c r="I9" t="s">
-        <v>1041</v>
+        <v>1051</v>
       </c>
       <c r="J9" t="s">
-        <v>1042</v>
+        <v>1052</v>
       </c>
       <c r="K9" t="s">
-        <v>1043</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>1044</v>
+        <v>1054</v>
       </c>
       <c r="B10" t="s">
-        <v>1045</v>
+        <v>1055</v>
       </c>
       <c r="C10" t="s">
-        <v>1046</v>
+        <v>1056</v>
       </c>
       <c r="D10" t="s">
-        <v>1047</v>
+        <v>1057</v>
       </c>
       <c r="E10" t="s">
-        <v>1048</v>
+        <v>1058</v>
       </c>
       <c r="F10" t="s">
-        <v>1049</v>
+        <v>1059</v>
       </c>
       <c r="G10" t="s">
         <v>88</v>
       </c>
       <c r="H10" t="s">
-        <v>1050</v>
+        <v>1060</v>
       </c>
       <c r="I10" t="s">
-        <v>1051</v>
+        <v>1061</v>
       </c>
       <c r="J10" t="s">
-        <v>1052</v>
+        <v>1062</v>
       </c>
       <c r="K10" t="s">
-        <v>1053</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>1054</v>
+        <v>1064</v>
       </c>
       <c r="B11" t="s">
-        <v>1055</v>
+        <v>1065</v>
       </c>
       <c r="C11" t="s">
-        <v>1056</v>
+        <v>1066</v>
       </c>
       <c r="D11" t="s">
-        <v>1057</v>
+        <v>1067</v>
       </c>
       <c r="E11" t="s">
         <v>88</v>
       </c>
       <c r="F11" t="s">
-        <v>1058</v>
+        <v>1068</v>
       </c>
       <c r="G11" t="s">
-        <v>1059</v>
+        <v>1069</v>
       </c>
       <c r="H11" t="s">
-        <v>1060</v>
+        <v>1070</v>
       </c>
       <c r="I11" t="s">
-        <v>1061</v>
+        <v>1071</v>
       </c>
       <c r="J11" t="s">
-        <v>1062</v>
+        <v>1072</v>
       </c>
       <c r="K11" t="s">
-        <v>1063</v>
+        <v>1073</v>
       </c>
     </row>
   </sheetData>
@@ -5600,7 +5630,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5651,62 +5681,71 @@
       <c r="C2" t="s">
         <v>223</v>
       </c>
-      <c r="D2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E2" t="s">
-        <v>225</v>
-      </c>
-      <c r="F2" t="s">
-        <v>226</v>
-      </c>
-      <c r="G2" t="s">
-        <v>227</v>
-      </c>
-      <c r="H2" t="s">
-        <v>228</v>
-      </c>
-      <c r="I2" t="s">
-        <v>229</v>
-      </c>
-      <c r="J2" t="s">
-        <v>230</v>
-      </c>
-      <c r="K2" t="s">
-        <v>231</v>
-      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C3" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B4" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C4" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>235</v>
+      </c>
+      <c r="B7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C7" t="s">
         <v>237</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
         <v>238</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B8" t="s">
         <v>239</v>
+      </c>
+      <c r="C8" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -5762,34 +5801,34 @@
         <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C2" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="D2" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="E2" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="F2" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="G2" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="H2" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="I2" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="J2" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="K2" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -5797,524 +5836,524 @@
         <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="C3" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="D3" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="E3" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="F3" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="G3" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="H3" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="I3" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="J3" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="K3" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="B4" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="C4" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="D4" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="E4" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="F4" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="G4" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="H4" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="I4" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="J4" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="K4" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="B5" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="C5" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="D5" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="E5" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="F5" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="G5" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="H5" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="I5" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="J5" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="K5" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="B6" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="C6" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="D6" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="E6" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="F6" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="G6" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="H6" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="I6" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="J6" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="K6" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="B7" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="C7" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="D7" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="E7" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="F7" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="G7" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="H7" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="I7" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="J7" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="K7" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="B8" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="C8" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="D8" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="E8" t="s">
         <v>88</v>
       </c>
       <c r="F8" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="G8" t="s">
         <v>88</v>
       </c>
       <c r="H8" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="I8" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="J8" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="K8" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="B9" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="C9" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="D9" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="E9" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="F9" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="G9" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="H9" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="I9" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="J9" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="K9" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="B10" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="C10" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="D10" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="E10" t="s">
         <v>88</v>
       </c>
       <c r="F10" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="G10" t="s">
         <v>88</v>
       </c>
       <c r="H10" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="I10" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="J10" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="K10" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="B11" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="C11" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="D11" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="E11" t="s">
         <v>88</v>
       </c>
       <c r="F11" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="G11" t="s">
         <v>88</v>
       </c>
       <c r="H11" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="I11" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="J11" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="K11" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="B12" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="C12" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="D12" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="E12" t="s">
         <v>88</v>
       </c>
       <c r="F12" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="G12" t="s">
         <v>88</v>
       </c>
       <c r="H12" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="I12" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="J12" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="K12" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="B13" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="C13" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="D13" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="E13" t="s">
         <v>88</v>
       </c>
       <c r="F13" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="G13" t="s">
         <v>88</v>
       </c>
       <c r="H13" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="I13" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="J13" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="K13" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="B14" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="C14" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="D14" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="E14" t="s">
         <v>88</v>
       </c>
       <c r="F14" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="G14" t="s">
         <v>88</v>
       </c>
       <c r="H14" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="I14" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="J14" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="K14" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="B15" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="C15" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="D15" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="E15" t="s">
         <v>88</v>
       </c>
       <c r="F15" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="G15" t="s">
         <v>88</v>
       </c>
       <c r="H15" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="I15" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="J15" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="K15" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="B16" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="C16" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="D16" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="E16" t="s">
         <v>88</v>
       </c>
       <c r="F16" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="G16" t="s">
         <v>88</v>
       </c>
       <c r="H16" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="I16" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="J16" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="K16" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="B17" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="C17" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="D17" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="E17" t="s">
         <v>88</v>
       </c>
       <c r="F17" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="G17" t="s">
         <v>88</v>
       </c>
       <c r="H17" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="I17" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="J17" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="K17" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -6370,34 +6409,34 @@
         <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="C2" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="D2" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="E2" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="F2" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="G2" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="H2" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="I2" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="J2" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="K2" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -6405,384 +6444,384 @@
         <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="C3" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="D3" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="E3" t="s">
         <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="G3" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="H3" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="I3" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="J3" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="K3" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="B4" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="C4" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="D4" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="E4" t="s">
         <v>88</v>
       </c>
       <c r="F4" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="G4" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="H4" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="I4" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="J4" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="K4" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="B5" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="C5" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="D5" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="E5" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="F5" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="G5" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="H5" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="I5" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="J5" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="K5" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="B6" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="C6" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="D6" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="E6" t="s">
         <v>88</v>
       </c>
       <c r="F6" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="G6" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="H6" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="I6" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="J6" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="K6" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="B7" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="C7" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="D7" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="E7" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="F7" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="G7" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="H7" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="I7" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="J7" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="K7" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="B8" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="C8" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="D8" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="E8" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="F8" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="G8" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="H8" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="I8" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="J8" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="K8" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="B9" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="C9" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="D9" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="E9" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="F9" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="G9" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="H9" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="I9" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="J9" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="K9" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="B10" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="C10" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="D10" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="E10" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="F10" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="G10" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="H10" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="I10" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="J10" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="K10" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="B11" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="C11" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="D11" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="E11" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="F11" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="G11" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="H11" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="I11" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="J11" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="K11" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="B12" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="C12" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="D12" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="E12" t="s">
         <v>88</v>
       </c>
       <c r="F12" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="G12" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="H12" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="I12" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="J12" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="K12" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="B13" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="C13" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="D13" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="E13" t="s">
         <v>88</v>
       </c>
       <c r="F13" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="G13" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="H13" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="I13" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="J13" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="K13" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
     </row>
   </sheetData>
@@ -6838,34 +6877,34 @@
         <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="C2" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="D2" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="E2" t="s">
         <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="G2" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="H2" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="I2" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="J2" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="K2" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -6873,74 +6912,74 @@
         <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="C3" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="D3" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="E3" t="s">
         <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="G3" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="H3" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="I3" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="J3" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="K3" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
       <c r="B4" t="s">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="C4" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="D4" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="E4" t="s">
         <v>88</v>
       </c>
       <c r="F4" t="s">
-        <v>533</v>
+        <v>543</v>
       </c>
       <c r="G4" t="s">
-        <v>534</v>
+        <v>544</v>
       </c>
       <c r="H4" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="I4" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="J4" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="K4" t="s">
-        <v>538</v>
+        <v>548</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="B5" t="s">
         <v>95</v>
@@ -6949,7 +6988,7 @@
         <v>96</v>
       </c>
       <c r="D5" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="E5" t="s">
         <v>88</v>
@@ -6975,702 +7014,702 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="B6" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="C6" t="s">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="D6" t="s">
-        <v>544</v>
+        <v>554</v>
       </c>
       <c r="E6" t="s">
         <v>88</v>
       </c>
       <c r="F6" t="s">
-        <v>545</v>
+        <v>555</v>
       </c>
       <c r="G6" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="H6" t="s">
-        <v>547</v>
+        <v>557</v>
       </c>
       <c r="I6" t="s">
-        <v>548</v>
+        <v>558</v>
       </c>
       <c r="J6" t="s">
-        <v>549</v>
+        <v>559</v>
       </c>
       <c r="K6" t="s">
-        <v>550</v>
+        <v>560</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="B7" t="s">
-        <v>552</v>
+        <v>562</v>
       </c>
       <c r="C7" t="s">
         <v>86</v>
       </c>
       <c r="D7" t="s">
-        <v>553</v>
+        <v>563</v>
       </c>
       <c r="E7" t="s">
         <v>88</v>
       </c>
       <c r="F7" t="s">
-        <v>554</v>
+        <v>564</v>
       </c>
       <c r="G7" t="s">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="H7" t="s">
         <v>90</v>
       </c>
       <c r="I7" t="s">
-        <v>556</v>
+        <v>566</v>
       </c>
       <c r="J7" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="K7" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>559</v>
+        <v>569</v>
       </c>
       <c r="B8" t="s">
-        <v>560</v>
+        <v>570</v>
       </c>
       <c r="C8" t="s">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="D8" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
       <c r="E8" t="s">
         <v>88</v>
       </c>
       <c r="F8" t="s">
-        <v>563</v>
+        <v>573</v>
       </c>
       <c r="G8" t="s">
-        <v>564</v>
+        <v>574</v>
       </c>
       <c r="H8" t="s">
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="I8" t="s">
-        <v>566</v>
+        <v>576</v>
       </c>
       <c r="J8" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="K8" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>569</v>
+        <v>579</v>
       </c>
       <c r="B9" t="s">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="C9" t="s">
-        <v>571</v>
+        <v>581</v>
       </c>
       <c r="D9" t="s">
-        <v>572</v>
+        <v>582</v>
       </c>
       <c r="E9" t="s">
         <v>88</v>
       </c>
       <c r="F9" t="s">
-        <v>573</v>
+        <v>583</v>
       </c>
       <c r="G9" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
       <c r="H9" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
       <c r="I9" t="s">
-        <v>576</v>
+        <v>586</v>
       </c>
       <c r="J9" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="K9" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>579</v>
+        <v>589</v>
       </c>
       <c r="B10" t="s">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="C10" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="D10" t="s">
-        <v>581</v>
+        <v>591</v>
       </c>
       <c r="E10" t="s">
         <v>88</v>
       </c>
       <c r="F10" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="G10" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="H10" t="s">
-        <v>583</v>
+        <v>593</v>
       </c>
       <c r="I10" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="J10" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="K10" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="B11" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="C11" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="D11" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="E11" t="s">
         <v>88</v>
       </c>
       <c r="F11" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="G11" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="H11" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="I11" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="J11" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="K11" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="B12" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="C12" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="D12" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="E12" t="s">
         <v>88</v>
       </c>
       <c r="F12" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="G12" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="H12" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="I12" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="J12" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="K12" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="B13" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="C13" t="s">
-        <v>592</v>
+        <v>602</v>
       </c>
       <c r="D13" t="s">
-        <v>593</v>
+        <v>603</v>
       </c>
       <c r="E13" t="s">
         <v>88</v>
       </c>
       <c r="F13" t="s">
-        <v>594</v>
+        <v>604</v>
       </c>
       <c r="G13" t="s">
-        <v>595</v>
+        <v>605</v>
       </c>
       <c r="H13" t="s">
-        <v>596</v>
+        <v>606</v>
       </c>
       <c r="I13" t="s">
-        <v>597</v>
+        <v>607</v>
       </c>
       <c r="J13" t="s">
-        <v>598</v>
+        <v>608</v>
       </c>
       <c r="K13" t="s">
-        <v>599</v>
+        <v>609</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="B14" t="s">
-        <v>601</v>
+        <v>611</v>
       </c>
       <c r="C14" t="s">
-        <v>602</v>
+        <v>612</v>
       </c>
       <c r="D14" t="s">
-        <v>603</v>
+        <v>613</v>
       </c>
       <c r="E14" t="s">
         <v>88</v>
       </c>
       <c r="F14" t="s">
-        <v>604</v>
+        <v>614</v>
       </c>
       <c r="G14" t="s">
-        <v>605</v>
+        <v>615</v>
       </c>
       <c r="H14" t="s">
-        <v>606</v>
+        <v>616</v>
       </c>
       <c r="I14" t="s">
-        <v>607</v>
+        <v>617</v>
       </c>
       <c r="J14" t="s">
-        <v>608</v>
+        <v>618</v>
       </c>
       <c r="K14" t="s">
-        <v>609</v>
+        <v>619</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>610</v>
+        <v>620</v>
       </c>
       <c r="B15" t="s">
-        <v>611</v>
+        <v>621</v>
       </c>
       <c r="C15" t="s">
-        <v>612</v>
+        <v>622</v>
       </c>
       <c r="D15" t="s">
-        <v>613</v>
+        <v>623</v>
       </c>
       <c r="E15" t="s">
         <v>88</v>
       </c>
       <c r="F15" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="G15" t="s">
-        <v>615</v>
+        <v>625</v>
       </c>
       <c r="H15" t="s">
-        <v>616</v>
+        <v>626</v>
       </c>
       <c r="I15" t="s">
-        <v>617</v>
+        <v>627</v>
       </c>
       <c r="J15" t="s">
-        <v>618</v>
+        <v>628</v>
       </c>
       <c r="K15" t="s">
-        <v>619</v>
+        <v>629</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="B16" t="s">
-        <v>621</v>
+        <v>631</v>
       </c>
       <c r="C16" t="s">
-        <v>622</v>
+        <v>632</v>
       </c>
       <c r="D16" t="s">
-        <v>623</v>
+        <v>633</v>
       </c>
       <c r="E16" t="s">
         <v>88</v>
       </c>
       <c r="F16" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="G16" t="s">
-        <v>625</v>
+        <v>635</v>
       </c>
       <c r="H16" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
       <c r="I16" t="s">
-        <v>627</v>
+        <v>637</v>
       </c>
       <c r="J16" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="K16" t="s">
-        <v>629</v>
+        <v>639</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>630</v>
+        <v>640</v>
       </c>
       <c r="B17" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
       <c r="C17" t="s">
-        <v>632</v>
+        <v>642</v>
       </c>
       <c r="D17" t="s">
-        <v>633</v>
+        <v>643</v>
       </c>
       <c r="E17" t="s">
         <v>88</v>
       </c>
       <c r="F17" t="s">
-        <v>634</v>
+        <v>644</v>
       </c>
       <c r="G17" t="s">
-        <v>635</v>
+        <v>645</v>
       </c>
       <c r="H17" t="s">
-        <v>636</v>
+        <v>646</v>
       </c>
       <c r="I17" t="s">
-        <v>637</v>
+        <v>647</v>
       </c>
       <c r="J17" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="K17" t="s">
-        <v>639</v>
+        <v>649</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>640</v>
+        <v>650</v>
       </c>
       <c r="B18" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
       <c r="C18" t="s">
-        <v>642</v>
+        <v>652</v>
       </c>
       <c r="D18" t="s">
-        <v>643</v>
+        <v>653</v>
       </c>
       <c r="E18" t="s">
         <v>88</v>
       </c>
       <c r="F18" t="s">
-        <v>644</v>
+        <v>654</v>
       </c>
       <c r="G18" t="s">
-        <v>645</v>
+        <v>655</v>
       </c>
       <c r="H18" t="s">
-        <v>646</v>
+        <v>656</v>
       </c>
       <c r="I18" t="s">
-        <v>647</v>
+        <v>657</v>
       </c>
       <c r="J18" t="s">
-        <v>648</v>
+        <v>658</v>
       </c>
       <c r="K18" t="s">
-        <v>649</v>
+        <v>659</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>650</v>
+        <v>660</v>
       </c>
       <c r="B19" t="s">
-        <v>651</v>
+        <v>661</v>
       </c>
       <c r="C19" t="s">
-        <v>652</v>
+        <v>662</v>
       </c>
       <c r="D19" t="s">
-        <v>653</v>
+        <v>663</v>
       </c>
       <c r="E19" t="s">
         <v>88</v>
       </c>
       <c r="F19" t="s">
-        <v>654</v>
+        <v>664</v>
       </c>
       <c r="G19" t="s">
-        <v>655</v>
+        <v>665</v>
       </c>
       <c r="H19" t="s">
-        <v>656</v>
+        <v>666</v>
       </c>
       <c r="I19" t="s">
-        <v>657</v>
+        <v>667</v>
       </c>
       <c r="J19" t="s">
-        <v>658</v>
+        <v>668</v>
       </c>
       <c r="K19" t="s">
-        <v>659</v>
+        <v>669</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>660</v>
+        <v>670</v>
       </c>
       <c r="B20" t="s">
-        <v>661</v>
+        <v>671</v>
       </c>
       <c r="C20" t="s">
-        <v>662</v>
+        <v>672</v>
       </c>
       <c r="D20" t="s">
-        <v>663</v>
+        <v>673</v>
       </c>
       <c r="E20" t="s">
         <v>88</v>
       </c>
       <c r="F20" t="s">
-        <v>664</v>
+        <v>674</v>
       </c>
       <c r="G20" t="s">
-        <v>665</v>
+        <v>675</v>
       </c>
       <c r="H20" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="I20" t="s">
-        <v>667</v>
+        <v>677</v>
       </c>
       <c r="J20" t="s">
-        <v>668</v>
+        <v>678</v>
       </c>
       <c r="K20" t="s">
-        <v>669</v>
+        <v>679</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>670</v>
+        <v>680</v>
       </c>
       <c r="B21" t="s">
-        <v>671</v>
+        <v>681</v>
       </c>
       <c r="C21" t="s">
-        <v>672</v>
+        <v>682</v>
       </c>
       <c r="D21" t="s">
-        <v>673</v>
+        <v>683</v>
       </c>
       <c r="E21" t="s">
         <v>88</v>
       </c>
       <c r="F21" t="s">
-        <v>674</v>
+        <v>684</v>
       </c>
       <c r="G21" t="s">
-        <v>675</v>
+        <v>685</v>
       </c>
       <c r="H21" t="s">
-        <v>676</v>
+        <v>686</v>
       </c>
       <c r="I21" t="s">
-        <v>677</v>
+        <v>687</v>
       </c>
       <c r="J21" t="s">
-        <v>678</v>
+        <v>688</v>
       </c>
       <c r="K21" t="s">
-        <v>679</v>
+        <v>689</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="B22" t="s">
-        <v>681</v>
+        <v>691</v>
       </c>
       <c r="C22" t="s">
-        <v>682</v>
+        <v>692</v>
       </c>
       <c r="D22" t="s">
-        <v>683</v>
+        <v>693</v>
       </c>
       <c r="E22" t="s">
         <v>88</v>
       </c>
       <c r="F22" t="s">
-        <v>684</v>
+        <v>694</v>
       </c>
       <c r="G22" t="s">
-        <v>685</v>
+        <v>695</v>
       </c>
       <c r="H22" t="s">
-        <v>686</v>
+        <v>696</v>
       </c>
       <c r="I22" t="s">
-        <v>687</v>
+        <v>697</v>
       </c>
       <c r="J22" t="s">
-        <v>688</v>
+        <v>698</v>
       </c>
       <c r="K22" t="s">
-        <v>689</v>
+        <v>699</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>690</v>
+        <v>700</v>
       </c>
       <c r="B23" t="s">
-        <v>691</v>
+        <v>701</v>
       </c>
       <c r="C23" t="s">
-        <v>692</v>
+        <v>702</v>
       </c>
       <c r="D23" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="E23" t="s">
         <v>88</v>
       </c>
       <c r="F23" t="s">
-        <v>694</v>
+        <v>704</v>
       </c>
       <c r="G23" t="s">
-        <v>695</v>
+        <v>705</v>
       </c>
       <c r="H23" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="I23" t="s">
-        <v>697</v>
+        <v>707</v>
       </c>
       <c r="J23" t="s">
-        <v>698</v>
+        <v>708</v>
       </c>
       <c r="K23" t="s">
-        <v>699</v>
+        <v>709</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>700</v>
+        <v>710</v>
       </c>
       <c r="B24" t="s">
-        <v>701</v>
+        <v>711</v>
       </c>
       <c r="C24" t="s">
-        <v>702</v>
+        <v>712</v>
       </c>
       <c r="D24" t="s">
-        <v>703</v>
+        <v>713</v>
       </c>
       <c r="E24" t="s">
         <v>88</v>
       </c>
       <c r="F24" t="s">
-        <v>704</v>
+        <v>714</v>
       </c>
       <c r="G24" t="s">
-        <v>705</v>
+        <v>715</v>
       </c>
       <c r="H24" t="s">
-        <v>706</v>
+        <v>716</v>
       </c>
       <c r="I24" t="s">
-        <v>707</v>
+        <v>717</v>
       </c>
       <c r="J24" t="s">
-        <v>708</v>
+        <v>718</v>
       </c>
       <c r="K24" t="s">
-        <v>709</v>
+        <v>719</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>710</v>
+        <v>720</v>
       </c>
       <c r="B25" t="s">
-        <v>711</v>
+        <v>721</v>
       </c>
       <c r="C25" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
       <c r="D25" t="s">
-        <v>713</v>
+        <v>723</v>
       </c>
       <c r="E25" t="s">
         <v>88</v>
       </c>
       <c r="F25" t="s">
-        <v>714</v>
+        <v>724</v>
       </c>
       <c r="G25" t="s">
         <v>88</v>
       </c>
       <c r="H25" t="s">
-        <v>715</v>
+        <v>725</v>
       </c>
       <c r="I25" t="s">
-        <v>716</v>
+        <v>726</v>
       </c>
       <c r="J25" t="s">
-        <v>717</v>
+        <v>727</v>
       </c>
       <c r="K25" t="s">
-        <v>718</v>
+        <v>728</v>
       </c>
     </row>
   </sheetData>
@@ -7726,34 +7765,34 @@
         <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>719</v>
+        <v>729</v>
       </c>
       <c r="C2" t="s">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="D2" t="s">
-        <v>721</v>
+        <v>731</v>
       </c>
       <c r="E2" t="s">
         <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>722</v>
+        <v>732</v>
       </c>
       <c r="G2" t="s">
-        <v>723</v>
+        <v>733</v>
       </c>
       <c r="H2" t="s">
-        <v>724</v>
+        <v>734</v>
       </c>
       <c r="I2" t="s">
-        <v>725</v>
+        <v>735</v>
       </c>
       <c r="J2" t="s">
-        <v>726</v>
+        <v>736</v>
       </c>
       <c r="K2" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -7761,74 +7800,74 @@
         <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>728</v>
+        <v>738</v>
       </c>
       <c r="C3" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
       <c r="D3" t="s">
-        <v>730</v>
+        <v>740</v>
       </c>
       <c r="E3" t="s">
         <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>731</v>
+        <v>741</v>
       </c>
       <c r="G3" t="s">
-        <v>732</v>
+        <v>742</v>
       </c>
       <c r="H3" t="s">
-        <v>733</v>
+        <v>743</v>
       </c>
       <c r="I3" t="s">
-        <v>734</v>
+        <v>744</v>
       </c>
       <c r="J3" t="s">
-        <v>735</v>
+        <v>745</v>
       </c>
       <c r="K3" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
       <c r="B4" t="s">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="C4" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="D4" t="s">
-        <v>737</v>
+        <v>747</v>
       </c>
       <c r="E4" t="s">
-        <v>738</v>
+        <v>748</v>
       </c>
       <c r="F4" t="s">
-        <v>739</v>
+        <v>749</v>
       </c>
       <c r="G4" t="s">
-        <v>534</v>
+        <v>544</v>
       </c>
       <c r="H4" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="I4" t="s">
-        <v>740</v>
+        <v>750</v>
       </c>
       <c r="J4" t="s">
-        <v>741</v>
+        <v>751</v>
       </c>
       <c r="K4" t="s">
-        <v>538</v>
+        <v>548</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="B5" t="s">
         <v>95</v>
@@ -7837,7 +7876,7 @@
         <v>96</v>
       </c>
       <c r="D5" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="E5" t="s">
         <v>98</v>
@@ -7863,282 +7902,282 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="B6" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="C6" t="s">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="D6" t="s">
-        <v>544</v>
+        <v>554</v>
       </c>
       <c r="E6" t="s">
-        <v>742</v>
+        <v>752</v>
       </c>
       <c r="F6" t="s">
-        <v>743</v>
+        <v>753</v>
       </c>
       <c r="G6" t="s">
-        <v>744</v>
+        <v>754</v>
       </c>
       <c r="H6" t="s">
-        <v>547</v>
+        <v>557</v>
       </c>
       <c r="I6" t="s">
-        <v>745</v>
+        <v>755</v>
       </c>
       <c r="J6" t="s">
-        <v>549</v>
+        <v>559</v>
       </c>
       <c r="K6" t="s">
-        <v>550</v>
+        <v>560</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="B7" t="s">
-        <v>552</v>
+        <v>562</v>
       </c>
       <c r="C7" t="s">
         <v>86</v>
       </c>
       <c r="D7" t="s">
-        <v>553</v>
+        <v>563</v>
       </c>
       <c r="E7" t="s">
         <v>88</v>
       </c>
       <c r="F7" t="s">
-        <v>554</v>
+        <v>564</v>
       </c>
       <c r="G7" t="s">
-        <v>746</v>
+        <v>756</v>
       </c>
       <c r="H7" t="s">
         <v>90</v>
       </c>
       <c r="I7" t="s">
-        <v>556</v>
+        <v>566</v>
       </c>
       <c r="J7" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="K7" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>747</v>
+        <v>757</v>
       </c>
       <c r="B8" t="s">
-        <v>748</v>
+        <v>758</v>
       </c>
       <c r="C8" t="s">
-        <v>749</v>
+        <v>759</v>
       </c>
       <c r="D8" t="s">
-        <v>750</v>
+        <v>760</v>
       </c>
       <c r="E8" t="s">
         <v>88</v>
       </c>
       <c r="F8" t="s">
-        <v>751</v>
+        <v>761</v>
       </c>
       <c r="G8" t="s">
         <v>88</v>
       </c>
       <c r="H8" t="s">
-        <v>752</v>
+        <v>762</v>
       </c>
       <c r="I8" t="s">
-        <v>753</v>
+        <v>763</v>
       </c>
       <c r="J8" t="s">
-        <v>754</v>
+        <v>764</v>
       </c>
       <c r="K8" t="s">
-        <v>755</v>
+        <v>765</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>756</v>
+        <v>766</v>
       </c>
       <c r="B9" t="s">
-        <v>757</v>
+        <v>767</v>
       </c>
       <c r="C9" t="s">
-        <v>758</v>
+        <v>768</v>
       </c>
       <c r="D9" t="s">
-        <v>759</v>
+        <v>769</v>
       </c>
       <c r="E9" t="s">
         <v>88</v>
       </c>
       <c r="F9" t="s">
-        <v>760</v>
+        <v>770</v>
       </c>
       <c r="G9" t="s">
-        <v>761</v>
+        <v>771</v>
       </c>
       <c r="H9" t="s">
-        <v>762</v>
+        <v>772</v>
       </c>
       <c r="I9" t="s">
-        <v>763</v>
+        <v>773</v>
       </c>
       <c r="J9" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="K9" t="s">
-        <v>765</v>
+        <v>775</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>766</v>
+        <v>776</v>
       </c>
       <c r="B10" t="s">
-        <v>767</v>
+        <v>777</v>
       </c>
       <c r="C10" t="s">
-        <v>768</v>
+        <v>778</v>
       </c>
       <c r="D10" t="s">
-        <v>769</v>
+        <v>779</v>
       </c>
       <c r="E10" t="s">
         <v>88</v>
       </c>
       <c r="F10" t="s">
-        <v>770</v>
+        <v>780</v>
       </c>
       <c r="G10" t="s">
-        <v>771</v>
+        <v>781</v>
       </c>
       <c r="H10" t="s">
-        <v>772</v>
+        <v>782</v>
       </c>
       <c r="I10" t="s">
-        <v>773</v>
+        <v>783</v>
       </c>
       <c r="J10" t="s">
-        <v>774</v>
+        <v>784</v>
       </c>
       <c r="K10" t="s">
-        <v>775</v>
+        <v>785</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>776</v>
+        <v>786</v>
       </c>
       <c r="B11" t="s">
-        <v>777</v>
+        <v>787</v>
       </c>
       <c r="C11" t="s">
-        <v>778</v>
+        <v>788</v>
       </c>
       <c r="D11" t="s">
-        <v>779</v>
+        <v>789</v>
       </c>
       <c r="E11" t="s">
         <v>88</v>
       </c>
       <c r="F11" t="s">
-        <v>780</v>
+        <v>790</v>
       </c>
       <c r="G11" t="s">
         <v>88</v>
       </c>
       <c r="H11" t="s">
-        <v>781</v>
+        <v>791</v>
       </c>
       <c r="I11" t="s">
-        <v>782</v>
+        <v>792</v>
       </c>
       <c r="J11" t="s">
-        <v>783</v>
+        <v>793</v>
       </c>
       <c r="K11" t="s">
-        <v>784</v>
+        <v>794</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>785</v>
+        <v>795</v>
       </c>
       <c r="B12" t="s">
-        <v>786</v>
+        <v>796</v>
       </c>
       <c r="C12" t="s">
-        <v>787</v>
+        <v>797</v>
       </c>
       <c r="D12" t="s">
-        <v>788</v>
+        <v>798</v>
       </c>
       <c r="E12" t="s">
         <v>88</v>
       </c>
       <c r="F12" t="s">
-        <v>789</v>
+        <v>799</v>
       </c>
       <c r="G12" t="s">
         <v>88</v>
       </c>
       <c r="H12" t="s">
-        <v>790</v>
+        <v>800</v>
       </c>
       <c r="I12" t="s">
-        <v>791</v>
+        <v>801</v>
       </c>
       <c r="J12" t="s">
-        <v>792</v>
+        <v>802</v>
       </c>
       <c r="K12" t="s">
-        <v>793</v>
+        <v>803</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>794</v>
+        <v>804</v>
       </c>
       <c r="B13" t="s">
-        <v>795</v>
+        <v>805</v>
       </c>
       <c r="C13" t="s">
-        <v>796</v>
+        <v>806</v>
       </c>
       <c r="D13" t="s">
-        <v>797</v>
+        <v>807</v>
       </c>
       <c r="E13" t="s">
         <v>88</v>
       </c>
       <c r="F13" t="s">
-        <v>798</v>
+        <v>808</v>
       </c>
       <c r="G13" t="s">
         <v>88</v>
       </c>
       <c r="H13" t="s">
-        <v>799</v>
+        <v>809</v>
       </c>
       <c r="I13" t="s">
-        <v>800</v>
+        <v>810</v>
       </c>
       <c r="J13" t="s">
-        <v>801</v>
+        <v>811</v>
       </c>
       <c r="K13" t="s">
-        <v>802</v>
+        <v>812</v>
       </c>
     </row>
   </sheetData>
@@ -8197,31 +8236,31 @@
         <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>803</v>
+        <v>813</v>
       </c>
       <c r="D2" t="s">
-        <v>804</v>
+        <v>814</v>
       </c>
       <c r="E2" t="s">
         <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>805</v>
+        <v>815</v>
       </c>
       <c r="G2" t="s">
-        <v>806</v>
+        <v>816</v>
       </c>
       <c r="H2" t="s">
-        <v>807</v>
+        <v>817</v>
       </c>
       <c r="I2" t="s">
-        <v>808</v>
+        <v>818</v>
       </c>
       <c r="J2" t="s">
-        <v>809</v>
+        <v>819</v>
       </c>
       <c r="K2" t="s">
-        <v>810</v>
+        <v>820</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -8229,279 +8268,279 @@
         <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>811</v>
+        <v>821</v>
       </c>
       <c r="C3" t="s">
-        <v>812</v>
+        <v>822</v>
       </c>
       <c r="D3" t="s">
-        <v>813</v>
+        <v>823</v>
       </c>
       <c r="E3" t="s">
         <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>814</v>
+        <v>824</v>
       </c>
       <c r="G3" t="s">
-        <v>815</v>
+        <v>825</v>
       </c>
       <c r="H3" t="s">
-        <v>816</v>
+        <v>826</v>
       </c>
       <c r="I3" t="s">
-        <v>817</v>
+        <v>827</v>
       </c>
       <c r="J3" t="s">
-        <v>818</v>
+        <v>828</v>
       </c>
       <c r="K3" t="s">
-        <v>819</v>
+        <v>829</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>820</v>
+        <v>830</v>
       </c>
       <c r="B4" t="s">
-        <v>821</v>
+        <v>831</v>
       </c>
       <c r="C4" t="s">
-        <v>822</v>
+        <v>832</v>
       </c>
       <c r="D4" t="s">
-        <v>823</v>
+        <v>833</v>
       </c>
       <c r="E4" t="s">
         <v>88</v>
       </c>
       <c r="F4" t="s">
-        <v>824</v>
+        <v>834</v>
       </c>
       <c r="G4" t="s">
-        <v>825</v>
+        <v>835</v>
       </c>
       <c r="H4" t="s">
-        <v>826</v>
+        <v>836</v>
       </c>
       <c r="I4" t="s">
-        <v>827</v>
+        <v>837</v>
       </c>
       <c r="J4" t="s">
-        <v>828</v>
+        <v>838</v>
       </c>
       <c r="K4" t="s">
-        <v>829</v>
+        <v>839</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>830</v>
+        <v>840</v>
       </c>
       <c r="B5" t="s">
-        <v>831</v>
+        <v>841</v>
       </c>
       <c r="C5" t="s">
-        <v>832</v>
+        <v>842</v>
       </c>
       <c r="D5" t="s">
-        <v>833</v>
+        <v>843</v>
       </c>
       <c r="E5" t="s">
         <v>88</v>
       </c>
       <c r="F5" t="s">
-        <v>834</v>
+        <v>844</v>
       </c>
       <c r="G5" t="s">
-        <v>835</v>
+        <v>845</v>
       </c>
       <c r="H5" t="s">
-        <v>836</v>
+        <v>846</v>
       </c>
       <c r="I5" t="s">
-        <v>837</v>
+        <v>847</v>
       </c>
       <c r="J5" t="s">
-        <v>838</v>
+        <v>848</v>
       </c>
       <c r="K5" t="s">
-        <v>839</v>
+        <v>849</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>840</v>
+        <v>850</v>
       </c>
       <c r="B6" t="s">
-        <v>841</v>
+        <v>851</v>
       </c>
       <c r="C6" t="s">
-        <v>842</v>
+        <v>852</v>
       </c>
       <c r="D6" t="s">
-        <v>843</v>
+        <v>853</v>
       </c>
       <c r="E6" t="s">
         <v>88</v>
       </c>
       <c r="F6" t="s">
-        <v>844</v>
+        <v>854</v>
       </c>
       <c r="G6" t="s">
-        <v>845</v>
+        <v>855</v>
       </c>
       <c r="H6" t="s">
-        <v>846</v>
+        <v>856</v>
       </c>
       <c r="I6" t="s">
-        <v>847</v>
+        <v>857</v>
       </c>
       <c r="J6" t="s">
-        <v>848</v>
+        <v>858</v>
       </c>
       <c r="K6" t="s">
-        <v>849</v>
+        <v>859</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>850</v>
+        <v>860</v>
       </c>
       <c r="B7" t="s">
-        <v>851</v>
+        <v>861</v>
       </c>
       <c r="C7" t="s">
-        <v>852</v>
+        <v>862</v>
       </c>
       <c r="D7" t="s">
-        <v>853</v>
+        <v>863</v>
       </c>
       <c r="E7" t="s">
         <v>88</v>
       </c>
       <c r="F7" t="s">
-        <v>851</v>
+        <v>861</v>
       </c>
       <c r="G7" t="s">
-        <v>854</v>
+        <v>864</v>
       </c>
       <c r="H7" t="s">
-        <v>855</v>
+        <v>865</v>
       </c>
       <c r="I7" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="J7" t="s">
-        <v>857</v>
+        <v>867</v>
       </c>
       <c r="K7" t="s">
-        <v>858</v>
+        <v>868</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>859</v>
+        <v>869</v>
       </c>
       <c r="B8" t="s">
-        <v>860</v>
+        <v>870</v>
       </c>
       <c r="C8" t="s">
-        <v>861</v>
+        <v>871</v>
       </c>
       <c r="D8" t="s">
-        <v>862</v>
+        <v>872</v>
       </c>
       <c r="E8" t="s">
         <v>88</v>
       </c>
       <c r="F8" t="s">
-        <v>863</v>
+        <v>873</v>
       </c>
       <c r="G8" t="s">
         <v>88</v>
       </c>
       <c r="H8" t="s">
-        <v>864</v>
+        <v>874</v>
       </c>
       <c r="I8" t="s">
-        <v>865</v>
+        <v>875</v>
       </c>
       <c r="J8" t="s">
-        <v>866</v>
+        <v>876</v>
       </c>
       <c r="K8" t="s">
-        <v>867</v>
+        <v>877</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>868</v>
+        <v>878</v>
       </c>
       <c r="B9" t="s">
-        <v>869</v>
+        <v>879</v>
       </c>
       <c r="C9" t="s">
-        <v>870</v>
+        <v>880</v>
       </c>
       <c r="D9" t="s">
-        <v>871</v>
+        <v>881</v>
       </c>
       <c r="E9" t="s">
         <v>88</v>
       </c>
       <c r="F9" t="s">
-        <v>872</v>
+        <v>882</v>
       </c>
       <c r="G9" t="s">
         <v>88</v>
       </c>
       <c r="H9" t="s">
-        <v>873</v>
+        <v>883</v>
       </c>
       <c r="I9" t="s">
-        <v>874</v>
+        <v>884</v>
       </c>
       <c r="J9" t="s">
-        <v>875</v>
+        <v>885</v>
       </c>
       <c r="K9" t="s">
-        <v>876</v>
+        <v>886</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>877</v>
+        <v>887</v>
       </c>
       <c r="B10" t="s">
-        <v>878</v>
+        <v>888</v>
       </c>
       <c r="C10" t="s">
-        <v>879</v>
+        <v>889</v>
       </c>
       <c r="D10" t="s">
-        <v>880</v>
+        <v>890</v>
       </c>
       <c r="E10" t="s">
         <v>88</v>
       </c>
       <c r="F10" t="s">
-        <v>881</v>
+        <v>891</v>
       </c>
       <c r="G10" t="s">
         <v>88</v>
       </c>
       <c r="H10" t="s">
-        <v>882</v>
+        <v>892</v>
       </c>
       <c r="I10" t="s">
-        <v>883</v>
+        <v>893</v>
       </c>
       <c r="J10" t="s">
-        <v>884</v>
+        <v>894</v>
       </c>
       <c r="K10" t="s">
-        <v>885</v>
+        <v>895</v>
       </c>
     </row>
   </sheetData>

--- a/AdofaiTweaks.Generator/translations.xlsx
+++ b/AdofaiTweaks.Generator/translations.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="1074">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1513" uniqueCount="1080">
   <si>
     <t>Translation Status</t>
   </si>
@@ -708,19 +708,37 @@
     <t>SHOW_FLOOR_ANGLE</t>
   </si>
   <si>
-    <t>Show tile angle</t>
-  </si>
-  <si>
-    <t>타일 각도 보이기</t>
+    <t>Show selected tiles' angle</t>
+  </si>
+  <si>
+    <t>선택한 타일 각도 보이기</t>
   </si>
   <si>
     <t>SHOW_FLOOR_BEATS</t>
   </si>
   <si>
-    <t>Show tile beats</t>
-  </si>
-  <si>
-    <t>타일 박자 길이 보이기</t>
+    <t>Show selected tiles' beats</t>
+  </si>
+  <si>
+    <t>선택한 타일 박자 길이 보이기</t>
+  </si>
+  <si>
+    <t>SHOW_FLOOR_COUNT</t>
+  </si>
+  <si>
+    <t>Show selected tiles' count</t>
+  </si>
+  <si>
+    <t>선택한 타일 개수 보이기</t>
+  </si>
+  <si>
+    <t>SHOW_FLOOR_DURATION</t>
+  </si>
+  <si>
+    <t>Show selected tiles' duration (in seconds)</t>
+  </si>
+  <si>
+    <t>선택한 타일 길이 (초 단위) 보이기</t>
   </si>
   <si>
     <t>FINE_TUNED_ROTATIONS</t>
@@ -4036,34 +4054,34 @@
         <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="C2" t="s">
-        <v>897</v>
+        <v>903</v>
       </c>
       <c r="D2" t="s">
-        <v>898</v>
+        <v>904</v>
       </c>
       <c r="E2" t="s">
         <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="G2" t="s">
-        <v>900</v>
+        <v>906</v>
       </c>
       <c r="H2" t="s">
-        <v>901</v>
+        <v>907</v>
       </c>
       <c r="I2" t="s">
-        <v>902</v>
+        <v>908</v>
       </c>
       <c r="J2" t="s">
-        <v>903</v>
+        <v>909</v>
       </c>
       <c r="K2" t="s">
-        <v>904</v>
+        <v>910</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -4071,174 +4089,174 @@
         <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>905</v>
+        <v>911</v>
       </c>
       <c r="C3" t="s">
-        <v>906</v>
+        <v>912</v>
       </c>
       <c r="D3" t="s">
-        <v>907</v>
+        <v>913</v>
       </c>
       <c r="E3" t="s">
         <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>908</v>
+        <v>914</v>
       </c>
       <c r="G3" t="s">
-        <v>909</v>
+        <v>915</v>
       </c>
       <c r="H3" t="s">
-        <v>910</v>
+        <v>916</v>
       </c>
       <c r="I3" t="s">
-        <v>911</v>
+        <v>917</v>
       </c>
       <c r="J3" t="s">
-        <v>912</v>
+        <v>918</v>
       </c>
       <c r="K3" t="s">
-        <v>913</v>
+        <v>919</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>914</v>
+        <v>920</v>
       </c>
       <c r="B4" t="s">
-        <v>915</v>
+        <v>921</v>
       </c>
       <c r="C4" t="s">
-        <v>916</v>
+        <v>922</v>
       </c>
       <c r="D4" t="s">
-        <v>917</v>
+        <v>923</v>
       </c>
       <c r="E4" t="s">
         <v>88</v>
       </c>
       <c r="F4" t="s">
-        <v>918</v>
+        <v>924</v>
       </c>
       <c r="G4" t="s">
-        <v>919</v>
+        <v>925</v>
       </c>
       <c r="H4" t="s">
-        <v>920</v>
+        <v>926</v>
       </c>
       <c r="I4" t="s">
-        <v>915</v>
+        <v>921</v>
       </c>
       <c r="J4" t="s">
-        <v>921</v>
+        <v>927</v>
       </c>
       <c r="K4" t="s">
-        <v>922</v>
+        <v>928</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>923</v>
+        <v>929</v>
       </c>
       <c r="B5" t="s">
-        <v>924</v>
+        <v>930</v>
       </c>
       <c r="C5" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
       <c r="D5" t="s">
-        <v>926</v>
+        <v>932</v>
       </c>
       <c r="E5" t="s">
         <v>88</v>
       </c>
       <c r="F5" t="s">
-        <v>927</v>
+        <v>933</v>
       </c>
       <c r="G5" t="s">
-        <v>928</v>
+        <v>934</v>
       </c>
       <c r="H5" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="I5" t="s">
-        <v>924</v>
+        <v>930</v>
       </c>
       <c r="J5" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
       <c r="K5" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
       <c r="B6" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
       <c r="C6" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
       <c r="D6" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
       <c r="E6" t="s">
         <v>88</v>
       </c>
       <c r="F6" t="s">
-        <v>936</v>
+        <v>942</v>
       </c>
       <c r="G6" t="s">
-        <v>937</v>
+        <v>943</v>
       </c>
       <c r="H6" t="s">
-        <v>938</v>
+        <v>944</v>
       </c>
       <c r="I6" t="s">
-        <v>939</v>
+        <v>945</v>
       </c>
       <c r="J6" t="s">
-        <v>940</v>
+        <v>946</v>
       </c>
       <c r="K6" t="s">
-        <v>941</v>
+        <v>947</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>942</v>
+        <v>948</v>
       </c>
       <c r="B7" t="s">
-        <v>943</v>
+        <v>949</v>
       </c>
       <c r="C7" t="s">
-        <v>944</v>
+        <v>950</v>
       </c>
       <c r="D7" t="s">
-        <v>945</v>
+        <v>951</v>
       </c>
       <c r="E7" t="s">
         <v>88</v>
       </c>
       <c r="F7" t="s">
-        <v>946</v>
+        <v>952</v>
       </c>
       <c r="G7" t="s">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="H7" t="s">
-        <v>948</v>
+        <v>954</v>
       </c>
       <c r="I7" t="s">
-        <v>949</v>
+        <v>955</v>
       </c>
       <c r="J7" t="s">
-        <v>950</v>
+        <v>956</v>
       </c>
       <c r="K7" t="s">
-        <v>951</v>
+        <v>957</v>
       </c>
     </row>
   </sheetData>
@@ -4294,34 +4312,34 @@
         <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>952</v>
+        <v>958</v>
       </c>
       <c r="C2" t="s">
-        <v>953</v>
+        <v>959</v>
       </c>
       <c r="D2" t="s">
-        <v>954</v>
+        <v>960</v>
       </c>
       <c r="E2" t="s">
         <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>955</v>
+        <v>961</v>
       </c>
       <c r="G2" t="s">
-        <v>956</v>
+        <v>962</v>
       </c>
       <c r="H2" t="s">
-        <v>957</v>
+        <v>963</v>
       </c>
       <c r="I2" t="s">
-        <v>958</v>
+        <v>964</v>
       </c>
       <c r="J2" t="s">
-        <v>959</v>
+        <v>965</v>
       </c>
       <c r="K2" t="s">
-        <v>960</v>
+        <v>966</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -4329,209 +4347,209 @@
         <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>961</v>
+        <v>967</v>
       </c>
       <c r="C3" t="s">
-        <v>962</v>
+        <v>968</v>
       </c>
       <c r="D3" t="s">
-        <v>963</v>
+        <v>969</v>
       </c>
       <c r="E3" t="s">
         <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>964</v>
+        <v>970</v>
       </c>
       <c r="G3" t="s">
-        <v>965</v>
+        <v>971</v>
       </c>
       <c r="H3" t="s">
-        <v>966</v>
+        <v>972</v>
       </c>
       <c r="I3" t="s">
-        <v>967</v>
+        <v>973</v>
       </c>
       <c r="J3" t="s">
-        <v>968</v>
+        <v>974</v>
       </c>
       <c r="K3" t="s">
-        <v>969</v>
+        <v>975</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>914</v>
+        <v>920</v>
       </c>
       <c r="B4" t="s">
-        <v>915</v>
+        <v>921</v>
       </c>
       <c r="C4" t="s">
-        <v>916</v>
+        <v>922</v>
       </c>
       <c r="D4" t="s">
-        <v>917</v>
+        <v>923</v>
       </c>
       <c r="E4" t="s">
         <v>88</v>
       </c>
       <c r="F4" t="s">
-        <v>918</v>
+        <v>924</v>
       </c>
       <c r="G4" t="s">
-        <v>919</v>
+        <v>925</v>
       </c>
       <c r="H4" t="s">
-        <v>920</v>
+        <v>926</v>
       </c>
       <c r="I4" t="s">
-        <v>915</v>
+        <v>921</v>
       </c>
       <c r="J4" t="s">
-        <v>921</v>
+        <v>927</v>
       </c>
       <c r="K4" t="s">
-        <v>970</v>
+        <v>976</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>923</v>
+        <v>929</v>
       </c>
       <c r="B5" t="s">
-        <v>924</v>
+        <v>930</v>
       </c>
       <c r="C5" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
       <c r="D5" t="s">
-        <v>926</v>
+        <v>932</v>
       </c>
       <c r="E5" t="s">
         <v>88</v>
       </c>
       <c r="F5" t="s">
-        <v>927</v>
+        <v>933</v>
       </c>
       <c r="G5" t="s">
-        <v>928</v>
+        <v>934</v>
       </c>
       <c r="H5" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="I5" t="s">
-        <v>924</v>
+        <v>930</v>
       </c>
       <c r="J5" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
       <c r="K5" t="s">
-        <v>971</v>
+        <v>977</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
       <c r="B6" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
       <c r="C6" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
       <c r="D6" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
       <c r="E6" t="s">
         <v>88</v>
       </c>
       <c r="F6" t="s">
-        <v>936</v>
+        <v>942</v>
       </c>
       <c r="G6" t="s">
-        <v>937</v>
+        <v>943</v>
       </c>
       <c r="H6" t="s">
-        <v>972</v>
+        <v>978</v>
       </c>
       <c r="I6" t="s">
-        <v>939</v>
+        <v>945</v>
       </c>
       <c r="J6" t="s">
-        <v>940</v>
+        <v>946</v>
       </c>
       <c r="K6" t="s">
-        <v>941</v>
+        <v>947</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>942</v>
+        <v>948</v>
       </c>
       <c r="B7" t="s">
-        <v>943</v>
+        <v>949</v>
       </c>
       <c r="C7" t="s">
-        <v>944</v>
+        <v>950</v>
       </c>
       <c r="D7" t="s">
-        <v>945</v>
+        <v>951</v>
       </c>
       <c r="E7" t="s">
         <v>88</v>
       </c>
       <c r="F7" t="s">
-        <v>946</v>
+        <v>952</v>
       </c>
       <c r="G7" t="s">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="H7" t="s">
-        <v>973</v>
+        <v>979</v>
       </c>
       <c r="I7" t="s">
-        <v>949</v>
+        <v>955</v>
       </c>
       <c r="J7" t="s">
-        <v>950</v>
+        <v>956</v>
       </c>
       <c r="K7" t="s">
-        <v>951</v>
+        <v>957</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
       <c r="B8" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
       <c r="C8" t="s">
-        <v>976</v>
+        <v>982</v>
       </c>
       <c r="D8" t="s">
-        <v>977</v>
+        <v>983</v>
       </c>
       <c r="E8" t="s">
         <v>88</v>
       </c>
       <c r="F8" t="s">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="G8" t="s">
         <v>88</v>
       </c>
       <c r="H8" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="I8" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
       <c r="J8" t="s">
-        <v>980</v>
+        <v>986</v>
       </c>
       <c r="K8" t="s">
-        <v>981</v>
+        <v>987</v>
       </c>
     </row>
   </sheetData>
@@ -4587,34 +4605,34 @@
         <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>982</v>
+        <v>988</v>
       </c>
       <c r="C2" t="s">
-        <v>983</v>
+        <v>989</v>
       </c>
       <c r="D2" t="s">
-        <v>984</v>
+        <v>990</v>
       </c>
       <c r="E2" t="s">
         <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>985</v>
+        <v>991</v>
       </c>
       <c r="G2" t="s">
-        <v>986</v>
+        <v>992</v>
       </c>
       <c r="H2" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="I2" t="s">
-        <v>988</v>
+        <v>994</v>
       </c>
       <c r="J2" t="s">
-        <v>989</v>
+        <v>995</v>
       </c>
       <c r="K2" t="s">
-        <v>990</v>
+        <v>996</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -4622,314 +4640,314 @@
         <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>991</v>
+        <v>997</v>
       </c>
       <c r="C3" t="s">
-        <v>992</v>
+        <v>998</v>
       </c>
       <c r="D3" t="s">
-        <v>993</v>
+        <v>999</v>
       </c>
       <c r="E3" t="s">
         <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>994</v>
+        <v>1000</v>
       </c>
       <c r="G3" t="s">
         <v>88</v>
       </c>
       <c r="H3" t="s">
-        <v>995</v>
+        <v>1001</v>
       </c>
       <c r="I3" t="s">
-        <v>996</v>
+        <v>1002</v>
       </c>
       <c r="J3" t="s">
-        <v>997</v>
+        <v>1003</v>
       </c>
       <c r="K3" t="s">
-        <v>998</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>999</v>
+        <v>1005</v>
       </c>
       <c r="B4" t="s">
-        <v>1000</v>
+        <v>1006</v>
       </c>
       <c r="C4" t="s">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="D4" t="s">
-        <v>1002</v>
+        <v>1008</v>
       </c>
       <c r="E4" t="s">
         <v>88</v>
       </c>
       <c r="F4" t="s">
-        <v>1003</v>
+        <v>1009</v>
       </c>
       <c r="G4" t="s">
         <v>88</v>
       </c>
       <c r="H4" t="s">
-        <v>1004</v>
+        <v>1010</v>
       </c>
       <c r="I4" t="s">
-        <v>1005</v>
+        <v>1011</v>
       </c>
       <c r="J4" t="s">
-        <v>1006</v>
+        <v>1012</v>
       </c>
       <c r="K4" t="s">
-        <v>1007</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>1008</v>
+        <v>1014</v>
       </c>
       <c r="B5" t="s">
-        <v>1009</v>
+        <v>1015</v>
       </c>
       <c r="C5" t="s">
-        <v>1010</v>
+        <v>1016</v>
       </c>
       <c r="D5" t="s">
-        <v>1011</v>
+        <v>1017</v>
       </c>
       <c r="E5" t="s">
         <v>88</v>
       </c>
       <c r="F5" t="s">
-        <v>1012</v>
+        <v>1018</v>
       </c>
       <c r="G5" t="s">
-        <v>1013</v>
+        <v>1019</v>
       </c>
       <c r="H5" t="s">
-        <v>1014</v>
+        <v>1020</v>
       </c>
       <c r="I5" t="s">
-        <v>1015</v>
+        <v>1021</v>
       </c>
       <c r="J5" t="s">
-        <v>1016</v>
+        <v>1022</v>
       </c>
       <c r="K5" t="s">
-        <v>1017</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>1018</v>
+        <v>1024</v>
       </c>
       <c r="B6" t="s">
-        <v>1019</v>
+        <v>1025</v>
       </c>
       <c r="C6" t="s">
-        <v>1020</v>
+        <v>1026</v>
       </c>
       <c r="D6" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="E6" t="s">
         <v>88</v>
       </c>
       <c r="F6" t="s">
-        <v>1022</v>
+        <v>1028</v>
       </c>
       <c r="G6" t="s">
         <v>88</v>
       </c>
       <c r="H6" t="s">
-        <v>1023</v>
+        <v>1029</v>
       </c>
       <c r="I6" t="s">
-        <v>1024</v>
+        <v>1030</v>
       </c>
       <c r="J6" t="s">
-        <v>1025</v>
+        <v>1031</v>
       </c>
       <c r="K6" t="s">
-        <v>1026</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>1027</v>
+        <v>1033</v>
       </c>
       <c r="B7" t="s">
-        <v>1028</v>
+        <v>1034</v>
       </c>
       <c r="C7" t="s">
-        <v>1029</v>
+        <v>1035</v>
       </c>
       <c r="D7" t="s">
-        <v>1030</v>
+        <v>1036</v>
       </c>
       <c r="E7" t="s">
         <v>88</v>
       </c>
       <c r="F7" t="s">
-        <v>1031</v>
+        <v>1037</v>
       </c>
       <c r="G7" t="s">
         <v>88</v>
       </c>
       <c r="H7" t="s">
-        <v>1032</v>
+        <v>1038</v>
       </c>
       <c r="I7" t="s">
-        <v>1033</v>
+        <v>1039</v>
       </c>
       <c r="J7" t="s">
-        <v>1034</v>
+        <v>1040</v>
       </c>
       <c r="K7" t="s">
-        <v>1035</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>1036</v>
+        <v>1042</v>
       </c>
       <c r="B8" t="s">
-        <v>1037</v>
+        <v>1043</v>
       </c>
       <c r="C8" t="s">
-        <v>1038</v>
+        <v>1044</v>
       </c>
       <c r="D8" t="s">
-        <v>1039</v>
+        <v>1045</v>
       </c>
       <c r="E8" t="s">
         <v>88</v>
       </c>
       <c r="F8" t="s">
-        <v>1040</v>
+        <v>1046</v>
       </c>
       <c r="G8" t="s">
         <v>88</v>
       </c>
       <c r="H8" t="s">
-        <v>1041</v>
+        <v>1047</v>
       </c>
       <c r="I8" t="s">
-        <v>1042</v>
+        <v>1048</v>
       </c>
       <c r="J8" t="s">
-        <v>1043</v>
+        <v>1049</v>
       </c>
       <c r="K8" t="s">
-        <v>1044</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>1045</v>
+        <v>1051</v>
       </c>
       <c r="B9" t="s">
-        <v>1046</v>
+        <v>1052</v>
       </c>
       <c r="C9" t="s">
-        <v>1047</v>
+        <v>1053</v>
       </c>
       <c r="D9" t="s">
-        <v>1048</v>
+        <v>1054</v>
       </c>
       <c r="E9" t="s">
         <v>88</v>
       </c>
       <c r="F9" t="s">
-        <v>1049</v>
+        <v>1055</v>
       </c>
       <c r="G9" t="s">
         <v>88</v>
       </c>
       <c r="H9" t="s">
-        <v>1050</v>
+        <v>1056</v>
       </c>
       <c r="I9" t="s">
-        <v>1051</v>
+        <v>1057</v>
       </c>
       <c r="J9" t="s">
-        <v>1052</v>
+        <v>1058</v>
       </c>
       <c r="K9" t="s">
-        <v>1053</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>1054</v>
+        <v>1060</v>
       </c>
       <c r="B10" t="s">
-        <v>1055</v>
+        <v>1061</v>
       </c>
       <c r="C10" t="s">
-        <v>1056</v>
+        <v>1062</v>
       </c>
       <c r="D10" t="s">
-        <v>1057</v>
+        <v>1063</v>
       </c>
       <c r="E10" t="s">
-        <v>1058</v>
+        <v>1064</v>
       </c>
       <c r="F10" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="G10" t="s">
         <v>88</v>
       </c>
       <c r="H10" t="s">
-        <v>1060</v>
+        <v>1066</v>
       </c>
       <c r="I10" t="s">
-        <v>1061</v>
+        <v>1067</v>
       </c>
       <c r="J10" t="s">
-        <v>1062</v>
+        <v>1068</v>
       </c>
       <c r="K10" t="s">
-        <v>1063</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>1064</v>
+        <v>1070</v>
       </c>
       <c r="B11" t="s">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="C11" t="s">
-        <v>1066</v>
+        <v>1072</v>
       </c>
       <c r="D11" t="s">
-        <v>1067</v>
+        <v>1073</v>
       </c>
       <c r="E11" t="s">
         <v>88</v>
       </c>
       <c r="F11" t="s">
-        <v>1068</v>
+        <v>1074</v>
       </c>
       <c r="G11" t="s">
-        <v>1069</v>
+        <v>1075</v>
       </c>
       <c r="H11" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="I11" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="J11" t="s">
-        <v>1072</v>
+        <v>1078</v>
       </c>
       <c r="K11" t="s">
-        <v>1073</v>
+        <v>1079</v>
       </c>
     </row>
   </sheetData>
@@ -5630,7 +5648,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5746,6 +5764,28 @@
       </c>
       <c r="C8" t="s">
         <v>240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>241</v>
+      </c>
+      <c r="B9" t="s">
+        <v>242</v>
+      </c>
+      <c r="C9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>244</v>
+      </c>
+      <c r="B10" t="s">
+        <v>245</v>
+      </c>
+      <c r="C10" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -5801,34 +5841,34 @@
         <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="C2" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="D2" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="E2" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="F2" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="G2" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="H2" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I2" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="J2" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="K2" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -5836,524 +5876,524 @@
         <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="C3" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="D3" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="E3" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="F3" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="G3" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="H3" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="I3" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="J3" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="K3" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="B4" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C4" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="D4" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E4" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="F4" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="G4" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="H4" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="I4" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="J4" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="K4" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B5" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C5" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="D5" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="E5" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="F5" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="G5" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="H5" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="I5" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="J5" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="K5" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="B6" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="C6" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D6" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="E6" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="F6" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="G6" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="H6" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="I6" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="J6" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="K6" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="B7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="D7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="E7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="F7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="G7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="H7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="I7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="J7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="K7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="B8" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="C8" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="D8" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="E8" t="s">
         <v>88</v>
       </c>
       <c r="F8" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="G8" t="s">
         <v>88</v>
       </c>
       <c r="H8" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="I8" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="J8" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="K8" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="B9" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="C9" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="D9" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="E9" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="F9" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="G9" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="H9" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="I9" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="J9" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="K9" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="B10" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="C10" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="D10" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="E10" t="s">
         <v>88</v>
       </c>
       <c r="F10" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="G10" t="s">
         <v>88</v>
       </c>
       <c r="H10" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="I10" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="J10" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="K10" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="B11" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="C11" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="D11" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="E11" t="s">
         <v>88</v>
       </c>
       <c r="F11" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="G11" t="s">
         <v>88</v>
       </c>
       <c r="H11" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="I11" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="J11" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="K11" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B12" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="C12" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="D12" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="E12" t="s">
         <v>88</v>
       </c>
       <c r="F12" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="G12" t="s">
         <v>88</v>
       </c>
       <c r="H12" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="I12" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="J12" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="K12" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="B13" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="C13" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="D13" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="E13" t="s">
         <v>88</v>
       </c>
       <c r="F13" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="G13" t="s">
         <v>88</v>
       </c>
       <c r="H13" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="I13" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="J13" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="K13" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="B14" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="C14" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="D14" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="E14" t="s">
         <v>88</v>
       </c>
       <c r="F14" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="G14" t="s">
         <v>88</v>
       </c>
       <c r="H14" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="I14" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="J14" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="K14" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="B15" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="C15" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="D15" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="E15" t="s">
         <v>88</v>
       </c>
       <c r="F15" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="G15" t="s">
         <v>88</v>
       </c>
       <c r="H15" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="I15" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="J15" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="K15" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="B16" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C16" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="D16" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="E16" t="s">
         <v>88</v>
       </c>
       <c r="F16" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="G16" t="s">
         <v>88</v>
       </c>
       <c r="H16" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="I16" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="J16" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="K16" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="B17" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="C17" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="D17" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="E17" t="s">
         <v>88</v>
       </c>
       <c r="F17" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="G17" t="s">
         <v>88</v>
       </c>
       <c r="H17" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="I17" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="J17" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K17" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
     </row>
   </sheetData>
@@ -6409,34 +6449,34 @@
         <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="C2" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="D2" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="E2" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="F2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="G2" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="H2" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="I2" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="J2" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="K2" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -6444,384 +6484,384 @@
         <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="C3" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="D3" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="E3" t="s">
         <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="G3" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="H3" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="I3" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="J3" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="K3" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="B4" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="C4" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="D4" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="E4" t="s">
         <v>88</v>
       </c>
       <c r="F4" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="G4" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="H4" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="I4" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="J4" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="K4" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="B5" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="C5" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="D5" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="E5" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="F5" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="G5" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="H5" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="I5" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="J5" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="K5" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="B6" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="C6" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="D6" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="E6" t="s">
         <v>88</v>
       </c>
       <c r="F6" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="G6" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="H6" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="I6" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="J6" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="K6" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="B7" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="C7" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="D7" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="E7" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="F7" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="G7" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="H7" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="I7" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="J7" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="K7" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="B8" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="C8" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="D8" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="E8" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="F8" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="G8" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="H8" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="I8" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="J8" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="K8" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="B9" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="C9" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="D9" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="E9" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="F9" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="G9" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="H9" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="I9" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="J9" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="K9" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="B10" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="C10" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="D10" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="E10" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="F10" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="G10" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="H10" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="I10" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="J10" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="K10" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="B11" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="C11" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="D11" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="E11" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="F11" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="G11" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="H11" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="I11" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="J11" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="K11" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="B12" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="C12" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="D12" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="E12" t="s">
         <v>88</v>
       </c>
       <c r="F12" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="G12" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="H12" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="I12" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="J12" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="K12" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="B13" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="C13" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="D13" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="E13" t="s">
         <v>88</v>
       </c>
       <c r="F13" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="G13" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="H13" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I13" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="J13" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="K13" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
     </row>
   </sheetData>
@@ -6877,34 +6917,34 @@
         <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="C2" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="D2" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="E2" t="s">
         <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="G2" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="H2" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="I2" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="J2" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="K2" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -6912,74 +6952,74 @@
         <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="C3" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="D3" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="E3" t="s">
         <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="G3" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="H3" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="I3" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="J3" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="K3" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="B4" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="C4" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="D4" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="E4" t="s">
         <v>88</v>
       </c>
       <c r="F4" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="G4" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="H4" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="I4" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="J4" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="K4" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="B5" t="s">
         <v>95</v>
@@ -6988,7 +7028,7 @@
         <v>96</v>
       </c>
       <c r="D5" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="E5" t="s">
         <v>88</v>
@@ -7014,702 +7054,702 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="B6" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="C6" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="D6" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="E6" t="s">
         <v>88</v>
       </c>
       <c r="F6" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="G6" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="H6" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="I6" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="J6" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="K6" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="B7" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="C7" t="s">
         <v>86</v>
       </c>
       <c r="D7" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="E7" t="s">
         <v>88</v>
       </c>
       <c r="F7" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="G7" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="H7" t="s">
         <v>90</v>
       </c>
       <c r="I7" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="J7" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="K7" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="B8" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="C8" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="D8" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="E8" t="s">
         <v>88</v>
       </c>
       <c r="F8" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="G8" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="H8" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="I8" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="J8" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="K8" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="B9" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="C9" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="D9" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="E9" t="s">
         <v>88</v>
       </c>
       <c r="F9" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="G9" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="H9" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="I9" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="J9" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="K9" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="B10" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="C10" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="D10" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="E10" t="s">
         <v>88</v>
       </c>
       <c r="F10" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="G10" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="H10" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="I10" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="J10" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="K10" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="B11" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="C11" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="D11" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="E11" t="s">
         <v>88</v>
       </c>
       <c r="F11" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="G11" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="H11" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="I11" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="J11" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="K11" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="B12" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="C12" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="D12" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="E12" t="s">
         <v>88</v>
       </c>
       <c r="F12" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="G12" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="H12" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I12" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="J12" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="K12" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="B13" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="C13" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="D13" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="E13" t="s">
         <v>88</v>
       </c>
       <c r="F13" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="G13" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="H13" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="I13" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="J13" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="K13" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="B14" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="C14" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="D14" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="E14" t="s">
         <v>88</v>
       </c>
       <c r="F14" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="G14" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="H14" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="I14" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="J14" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="K14" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="B15" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="C15" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="D15" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="E15" t="s">
         <v>88</v>
       </c>
       <c r="F15" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="G15" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="H15" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="I15" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="J15" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="K15" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="B16" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="C16" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="D16" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="E16" t="s">
         <v>88</v>
       </c>
       <c r="F16" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="G16" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="H16" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="I16" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="J16" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="K16" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="B17" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="C17" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="D17" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="E17" t="s">
         <v>88</v>
       </c>
       <c r="F17" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="G17" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="H17" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="I17" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="J17" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="K17" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="B18" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="C18" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="D18" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="E18" t="s">
         <v>88</v>
       </c>
       <c r="F18" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="G18" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="H18" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="I18" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="J18" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="K18" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="B19" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="C19" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="D19" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="E19" t="s">
         <v>88</v>
       </c>
       <c r="F19" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="G19" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="H19" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="I19" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="J19" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
       <c r="K19" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="B20" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
       <c r="C20" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="D20" t="s">
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="E20" t="s">
         <v>88</v>
       </c>
       <c r="F20" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="G20" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="H20" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="I20" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="J20" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="K20" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
       <c r="B21" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="C21" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="D21" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
       <c r="E21" t="s">
         <v>88</v>
       </c>
       <c r="F21" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="G21" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
       <c r="H21" t="s">
-        <v>686</v>
+        <v>692</v>
       </c>
       <c r="I21" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
       <c r="J21" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
       <c r="K21" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="B22" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
       <c r="C22" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="D22" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="E22" t="s">
         <v>88</v>
       </c>
       <c r="F22" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="G22" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="H22" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="I22" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="J22" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="K22" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="B23" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="C23" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
       <c r="D23" t="s">
-        <v>703</v>
+        <v>709</v>
       </c>
       <c r="E23" t="s">
         <v>88</v>
       </c>
       <c r="F23" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
       <c r="G23" t="s">
-        <v>705</v>
+        <v>711</v>
       </c>
       <c r="H23" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="I23" t="s">
-        <v>707</v>
+        <v>713</v>
       </c>
       <c r="J23" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="K23" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
       <c r="B24" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
       <c r="C24" t="s">
-        <v>712</v>
+        <v>718</v>
       </c>
       <c r="D24" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="E24" t="s">
         <v>88</v>
       </c>
       <c r="F24" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="G24" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
       <c r="H24" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
       <c r="I24" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
       <c r="J24" t="s">
-        <v>718</v>
+        <v>724</v>
       </c>
       <c r="K24" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
       <c r="B25" t="s">
-        <v>721</v>
+        <v>727</v>
       </c>
       <c r="C25" t="s">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="D25" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
       <c r="E25" t="s">
         <v>88</v>
       </c>
       <c r="F25" t="s">
-        <v>724</v>
+        <v>730</v>
       </c>
       <c r="G25" t="s">
         <v>88</v>
       </c>
       <c r="H25" t="s">
-        <v>725</v>
+        <v>731</v>
       </c>
       <c r="I25" t="s">
-        <v>726</v>
+        <v>732</v>
       </c>
       <c r="J25" t="s">
-        <v>727</v>
+        <v>733</v>
       </c>
       <c r="K25" t="s">
-        <v>728</v>
+        <v>734</v>
       </c>
     </row>
   </sheetData>
@@ -7765,34 +7805,34 @@
         <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>729</v>
+        <v>735</v>
       </c>
       <c r="C2" t="s">
-        <v>730</v>
+        <v>736</v>
       </c>
       <c r="D2" t="s">
-        <v>731</v>
+        <v>737</v>
       </c>
       <c r="E2" t="s">
         <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>732</v>
+        <v>738</v>
       </c>
       <c r="G2" t="s">
-        <v>733</v>
+        <v>739</v>
       </c>
       <c r="H2" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
       <c r="I2" t="s">
-        <v>735</v>
+        <v>741</v>
       </c>
       <c r="J2" t="s">
-        <v>736</v>
+        <v>742</v>
       </c>
       <c r="K2" t="s">
-        <v>737</v>
+        <v>743</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -7800,74 +7840,74 @@
         <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>738</v>
+        <v>744</v>
       </c>
       <c r="C3" t="s">
-        <v>739</v>
+        <v>745</v>
       </c>
       <c r="D3" t="s">
-        <v>740</v>
+        <v>746</v>
       </c>
       <c r="E3" t="s">
         <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
       <c r="G3" t="s">
-        <v>742</v>
+        <v>748</v>
       </c>
       <c r="H3" t="s">
-        <v>743</v>
+        <v>749</v>
       </c>
       <c r="I3" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
       <c r="J3" t="s">
-        <v>745</v>
+        <v>751</v>
       </c>
       <c r="K3" t="s">
-        <v>746</v>
+        <v>752</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="B4" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="C4" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="D4" t="s">
-        <v>747</v>
+        <v>753</v>
       </c>
       <c r="E4" t="s">
-        <v>748</v>
+        <v>754</v>
       </c>
       <c r="F4" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
       <c r="G4" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="H4" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="I4" t="s">
-        <v>750</v>
+        <v>756</v>
       </c>
       <c r="J4" t="s">
-        <v>751</v>
+        <v>757</v>
       </c>
       <c r="K4" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="B5" t="s">
         <v>95</v>
@@ -7876,7 +7916,7 @@
         <v>96</v>
       </c>
       <c r="D5" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="E5" t="s">
         <v>98</v>
@@ -7902,282 +7942,282 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="B6" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="C6" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="D6" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="E6" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
       <c r="F6" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
       <c r="G6" t="s">
-        <v>754</v>
+        <v>760</v>
       </c>
       <c r="H6" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="I6" t="s">
-        <v>755</v>
+        <v>761</v>
       </c>
       <c r="J6" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="K6" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="B7" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="C7" t="s">
         <v>86</v>
       </c>
       <c r="D7" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="E7" t="s">
         <v>88</v>
       </c>
       <c r="F7" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="G7" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
       <c r="H7" t="s">
         <v>90</v>
       </c>
       <c r="I7" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="J7" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="K7" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="B8" t="s">
-        <v>758</v>
+        <v>764</v>
       </c>
       <c r="C8" t="s">
-        <v>759</v>
+        <v>765</v>
       </c>
       <c r="D8" t="s">
-        <v>760</v>
+        <v>766</v>
       </c>
       <c r="E8" t="s">
         <v>88</v>
       </c>
       <c r="F8" t="s">
-        <v>761</v>
+        <v>767</v>
       </c>
       <c r="G8" t="s">
         <v>88</v>
       </c>
       <c r="H8" t="s">
-        <v>762</v>
+        <v>768</v>
       </c>
       <c r="I8" t="s">
-        <v>763</v>
+        <v>769</v>
       </c>
       <c r="J8" t="s">
-        <v>764</v>
+        <v>770</v>
       </c>
       <c r="K8" t="s">
-        <v>765</v>
+        <v>771</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
       <c r="B9" t="s">
-        <v>767</v>
+        <v>773</v>
       </c>
       <c r="C9" t="s">
-        <v>768</v>
+        <v>774</v>
       </c>
       <c r="D9" t="s">
-        <v>769</v>
+        <v>775</v>
       </c>
       <c r="E9" t="s">
         <v>88</v>
       </c>
       <c r="F9" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="G9" t="s">
-        <v>771</v>
+        <v>777</v>
       </c>
       <c r="H9" t="s">
-        <v>772</v>
+        <v>778</v>
       </c>
       <c r="I9" t="s">
-        <v>773</v>
+        <v>779</v>
       </c>
       <c r="J9" t="s">
-        <v>774</v>
+        <v>780</v>
       </c>
       <c r="K9" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>776</v>
+        <v>782</v>
       </c>
       <c r="B10" t="s">
-        <v>777</v>
+        <v>783</v>
       </c>
       <c r="C10" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="D10" t="s">
-        <v>779</v>
+        <v>785</v>
       </c>
       <c r="E10" t="s">
         <v>88</v>
       </c>
       <c r="F10" t="s">
-        <v>780</v>
+        <v>786</v>
       </c>
       <c r="G10" t="s">
-        <v>781</v>
+        <v>787</v>
       </c>
       <c r="H10" t="s">
-        <v>782</v>
+        <v>788</v>
       </c>
       <c r="I10" t="s">
-        <v>783</v>
+        <v>789</v>
       </c>
       <c r="J10" t="s">
-        <v>784</v>
+        <v>790</v>
       </c>
       <c r="K10" t="s">
-        <v>785</v>
+        <v>791</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>786</v>
+        <v>792</v>
       </c>
       <c r="B11" t="s">
-        <v>787</v>
+        <v>793</v>
       </c>
       <c r="C11" t="s">
-        <v>788</v>
+        <v>794</v>
       </c>
       <c r="D11" t="s">
-        <v>789</v>
+        <v>795</v>
       </c>
       <c r="E11" t="s">
         <v>88</v>
       </c>
       <c r="F11" t="s">
-        <v>790</v>
+        <v>796</v>
       </c>
       <c r="G11" t="s">
         <v>88</v>
       </c>
       <c r="H11" t="s">
-        <v>791</v>
+        <v>797</v>
       </c>
       <c r="I11" t="s">
-        <v>792</v>
+        <v>798</v>
       </c>
       <c r="J11" t="s">
-        <v>793</v>
+        <v>799</v>
       </c>
       <c r="K11" t="s">
-        <v>794</v>
+        <v>800</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>795</v>
+        <v>801</v>
       </c>
       <c r="B12" t="s">
-        <v>796</v>
+        <v>802</v>
       </c>
       <c r="C12" t="s">
-        <v>797</v>
+        <v>803</v>
       </c>
       <c r="D12" t="s">
-        <v>798</v>
+        <v>804</v>
       </c>
       <c r="E12" t="s">
         <v>88</v>
       </c>
       <c r="F12" t="s">
-        <v>799</v>
+        <v>805</v>
       </c>
       <c r="G12" t="s">
         <v>88</v>
       </c>
       <c r="H12" t="s">
-        <v>800</v>
+        <v>806</v>
       </c>
       <c r="I12" t="s">
-        <v>801</v>
+        <v>807</v>
       </c>
       <c r="J12" t="s">
-        <v>802</v>
+        <v>808</v>
       </c>
       <c r="K12" t="s">
-        <v>803</v>
+        <v>809</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>804</v>
+        <v>810</v>
       </c>
       <c r="B13" t="s">
-        <v>805</v>
+        <v>811</v>
       </c>
       <c r="C13" t="s">
-        <v>806</v>
+        <v>812</v>
       </c>
       <c r="D13" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="E13" t="s">
         <v>88</v>
       </c>
       <c r="F13" t="s">
-        <v>808</v>
+        <v>814</v>
       </c>
       <c r="G13" t="s">
         <v>88</v>
       </c>
       <c r="H13" t="s">
-        <v>809</v>
+        <v>815</v>
       </c>
       <c r="I13" t="s">
-        <v>810</v>
+        <v>816</v>
       </c>
       <c r="J13" t="s">
-        <v>811</v>
+        <v>817</v>
       </c>
       <c r="K13" t="s">
-        <v>812</v>
+        <v>818</v>
       </c>
     </row>
   </sheetData>
@@ -8236,31 +8276,31 @@
         <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
       <c r="D2" t="s">
-        <v>814</v>
+        <v>820</v>
       </c>
       <c r="E2" t="s">
         <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>815</v>
+        <v>821</v>
       </c>
       <c r="G2" t="s">
-        <v>816</v>
+        <v>822</v>
       </c>
       <c r="H2" t="s">
-        <v>817</v>
+        <v>823</v>
       </c>
       <c r="I2" t="s">
-        <v>818</v>
+        <v>824</v>
       </c>
       <c r="J2" t="s">
-        <v>819</v>
+        <v>825</v>
       </c>
       <c r="K2" t="s">
-        <v>820</v>
+        <v>826</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -8268,279 +8308,279 @@
         <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>821</v>
+        <v>827</v>
       </c>
       <c r="C3" t="s">
-        <v>822</v>
+        <v>828</v>
       </c>
       <c r="D3" t="s">
-        <v>823</v>
+        <v>829</v>
       </c>
       <c r="E3" t="s">
         <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>824</v>
+        <v>830</v>
       </c>
       <c r="G3" t="s">
-        <v>825</v>
+        <v>831</v>
       </c>
       <c r="H3" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="I3" t="s">
-        <v>827</v>
+        <v>833</v>
       </c>
       <c r="J3" t="s">
-        <v>828</v>
+        <v>834</v>
       </c>
       <c r="K3" t="s">
-        <v>829</v>
+        <v>835</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>830</v>
+        <v>836</v>
       </c>
       <c r="B4" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="C4" t="s">
-        <v>832</v>
+        <v>838</v>
       </c>
       <c r="D4" t="s">
-        <v>833</v>
+        <v>839</v>
       </c>
       <c r="E4" t="s">
         <v>88</v>
       </c>
       <c r="F4" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="G4" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="H4" t="s">
-        <v>836</v>
+        <v>842</v>
       </c>
       <c r="I4" t="s">
-        <v>837</v>
+        <v>843</v>
       </c>
       <c r="J4" t="s">
-        <v>838</v>
+        <v>844</v>
       </c>
       <c r="K4" t="s">
-        <v>839</v>
+        <v>845</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="B5" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="C5" t="s">
-        <v>842</v>
+        <v>848</v>
       </c>
       <c r="D5" t="s">
-        <v>843</v>
+        <v>849</v>
       </c>
       <c r="E5" t="s">
         <v>88</v>
       </c>
       <c r="F5" t="s">
-        <v>844</v>
+        <v>850</v>
       </c>
       <c r="G5" t="s">
-        <v>845</v>
+        <v>851</v>
       </c>
       <c r="H5" t="s">
-        <v>846</v>
+        <v>852</v>
       </c>
       <c r="I5" t="s">
-        <v>847</v>
+        <v>853</v>
       </c>
       <c r="J5" t="s">
-        <v>848</v>
+        <v>854</v>
       </c>
       <c r="K5" t="s">
-        <v>849</v>
+        <v>855</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>850</v>
+        <v>856</v>
       </c>
       <c r="B6" t="s">
-        <v>851</v>
+        <v>857</v>
       </c>
       <c r="C6" t="s">
-        <v>852</v>
+        <v>858</v>
       </c>
       <c r="D6" t="s">
-        <v>853</v>
+        <v>859</v>
       </c>
       <c r="E6" t="s">
         <v>88</v>
       </c>
       <c r="F6" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
       <c r="G6" t="s">
-        <v>855</v>
+        <v>861</v>
       </c>
       <c r="H6" t="s">
-        <v>856</v>
+        <v>862</v>
       </c>
       <c r="I6" t="s">
-        <v>857</v>
+        <v>863</v>
       </c>
       <c r="J6" t="s">
-        <v>858</v>
+        <v>864</v>
       </c>
       <c r="K6" t="s">
-        <v>859</v>
+        <v>865</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>860</v>
+        <v>866</v>
       </c>
       <c r="B7" t="s">
-        <v>861</v>
+        <v>867</v>
       </c>
       <c r="C7" t="s">
-        <v>862</v>
+        <v>868</v>
       </c>
       <c r="D7" t="s">
-        <v>863</v>
+        <v>869</v>
       </c>
       <c r="E7" t="s">
         <v>88</v>
       </c>
       <c r="F7" t="s">
-        <v>861</v>
+        <v>867</v>
       </c>
       <c r="G7" t="s">
-        <v>864</v>
+        <v>870</v>
       </c>
       <c r="H7" t="s">
-        <v>865</v>
+        <v>871</v>
       </c>
       <c r="I7" t="s">
-        <v>866</v>
+        <v>872</v>
       </c>
       <c r="J7" t="s">
-        <v>867</v>
+        <v>873</v>
       </c>
       <c r="K7" t="s">
-        <v>868</v>
+        <v>874</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>869</v>
+        <v>875</v>
       </c>
       <c r="B8" t="s">
-        <v>870</v>
+        <v>876</v>
       </c>
       <c r="C8" t="s">
-        <v>871</v>
+        <v>877</v>
       </c>
       <c r="D8" t="s">
-        <v>872</v>
+        <v>878</v>
       </c>
       <c r="E8" t="s">
         <v>88</v>
       </c>
       <c r="F8" t="s">
-        <v>873</v>
+        <v>879</v>
       </c>
       <c r="G8" t="s">
         <v>88</v>
       </c>
       <c r="H8" t="s">
-        <v>874</v>
+        <v>880</v>
       </c>
       <c r="I8" t="s">
-        <v>875</v>
+        <v>881</v>
       </c>
       <c r="J8" t="s">
-        <v>876</v>
+        <v>882</v>
       </c>
       <c r="K8" t="s">
-        <v>877</v>
+        <v>883</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>878</v>
+        <v>884</v>
       </c>
       <c r="B9" t="s">
-        <v>879</v>
+        <v>885</v>
       </c>
       <c r="C9" t="s">
-        <v>880</v>
+        <v>886</v>
       </c>
       <c r="D9" t="s">
-        <v>881</v>
+        <v>887</v>
       </c>
       <c r="E9" t="s">
         <v>88</v>
       </c>
       <c r="F9" t="s">
-        <v>882</v>
+        <v>888</v>
       </c>
       <c r="G9" t="s">
         <v>88</v>
       </c>
       <c r="H9" t="s">
-        <v>883</v>
+        <v>889</v>
       </c>
       <c r="I9" t="s">
-        <v>884</v>
+        <v>890</v>
       </c>
       <c r="J9" t="s">
-        <v>885</v>
+        <v>891</v>
       </c>
       <c r="K9" t="s">
-        <v>886</v>
+        <v>892</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>887</v>
+        <v>893</v>
       </c>
       <c r="B10" t="s">
-        <v>888</v>
+        <v>894</v>
       </c>
       <c r="C10" t="s">
-        <v>889</v>
+        <v>895</v>
       </c>
       <c r="D10" t="s">
-        <v>890</v>
+        <v>896</v>
       </c>
       <c r="E10" t="s">
         <v>88</v>
       </c>
       <c r="F10" t="s">
-        <v>891</v>
+        <v>897</v>
       </c>
       <c r="G10" t="s">
         <v>88</v>
       </c>
       <c r="H10" t="s">
-        <v>892</v>
+        <v>898</v>
       </c>
       <c r="I10" t="s">
-        <v>893</v>
+        <v>899</v>
       </c>
       <c r="J10" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="K10" t="s">
-        <v>895</v>
+        <v>901</v>
       </c>
     </row>
   </sheetData>

--- a/AdofaiTweaks.Generator/translations.xlsx
+++ b/AdofaiTweaks.Generator/translations.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1513" uniqueCount="1080">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1579" uniqueCount="1092">
   <si>
     <t>Translation Status</t>
   </si>
@@ -699,12 +699,18 @@
     <t>레벨 에디터</t>
   </si>
   <si>
+    <t>Настройки редактора</t>
+  </si>
+  <si>
     <t>Features related to the Level Editor.</t>
   </si>
   <si>
     <t>레벨 에디터와 관한 기능들입니다.</t>
   </si>
   <si>
+    <t>Возможности связанные c редактором уровней</t>
+  </si>
+  <si>
     <t>SHOW_FLOOR_ANGLE</t>
   </si>
   <si>
@@ -714,6 +720,9 @@
     <t>선택한 타일 각도 보이기</t>
   </si>
   <si>
+    <t>Отображать угол выбранных плиток</t>
+  </si>
+  <si>
     <t>SHOW_FLOOR_BEATS</t>
   </si>
   <si>
@@ -723,6 +732,9 @@
     <t>선택한 타일 박자 길이 보이기</t>
   </si>
   <si>
+    <t>Отображать биты выбранных плиток</t>
+  </si>
+  <si>
     <t>SHOW_FLOOR_COUNT</t>
   </si>
   <si>
@@ -732,6 +744,9 @@
     <t>선택한 타일 개수 보이기</t>
   </si>
   <si>
+    <t>Отображать количество выбранных плиток</t>
+  </si>
+  <si>
     <t>SHOW_FLOOR_DURATION</t>
   </si>
   <si>
@@ -741,6 +756,18 @@
     <t>선택한 타일 길이 (초 단위) 보이기</t>
   </si>
   <si>
+    <t>Отображать длительность выбранных плиток (в секундах)</t>
+  </si>
+  <si>
+    <t>USE_TULTTAK_MOD_BEHAVIOR</t>
+  </si>
+  <si>
+    <t>Use legacy "tulttak mod" behavior to calculate timing</t>
+  </si>
+  <si>
+    <t>틀딱모드'의 레거시 타이밍 계산 방식 사용하기</t>
+  </si>
+  <si>
     <t>FINE_TUNED_ROTATIONS</t>
   </si>
   <si>
@@ -750,6 +777,9 @@
     <t>Alt 키로 타일 세부 회전하기</t>
   </si>
   <si>
+    <t>Включить точно регулируемое вращение через кнопку Alt</t>
+  </si>
+  <si>
     <t>SYNC_FLIPS_AND_ROTATIONS_WITH_LEVEL_EVENTS</t>
   </si>
   <si>
@@ -759,6 +789,9 @@
     <t>레벨 이벤트 값에 타일 회전 &amp; 반전 반영하기</t>
   </si>
   <si>
+    <t>Синхронизировать ивенты с вращением &amp; переворачиванием плиток</t>
+  </si>
+  <si>
     <t>SYNC_WARNING</t>
   </si>
   <si>
@@ -766,6 +799,9 @@
   </si>
   <si>
     <t>채보 제작 용도만을 위해 제작된 기능이며, 다음 레벨 이벤트만을 지원합니다</t>
+  </si>
+  <si>
+    <t>Эта возможность предназначена только что чартинга и поддерживает следующие ивенты</t>
   </si>
   <si>
     <t>Hide UI Elements</t>
@@ -4054,34 +4090,34 @@
         <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>902</v>
+        <v>914</v>
       </c>
       <c r="C2" t="s">
-        <v>903</v>
+        <v>915</v>
       </c>
       <c r="D2" t="s">
-        <v>904</v>
+        <v>916</v>
       </c>
       <c r="E2" t="s">
         <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>905</v>
+        <v>917</v>
       </c>
       <c r="G2" t="s">
-        <v>906</v>
+        <v>918</v>
       </c>
       <c r="H2" t="s">
-        <v>907</v>
+        <v>919</v>
       </c>
       <c r="I2" t="s">
-        <v>908</v>
+        <v>920</v>
       </c>
       <c r="J2" t="s">
-        <v>909</v>
+        <v>921</v>
       </c>
       <c r="K2" t="s">
-        <v>910</v>
+        <v>922</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -4089,174 +4125,174 @@
         <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>911</v>
+        <v>923</v>
       </c>
       <c r="C3" t="s">
-        <v>912</v>
+        <v>924</v>
       </c>
       <c r="D3" t="s">
-        <v>913</v>
+        <v>925</v>
       </c>
       <c r="E3" t="s">
         <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>914</v>
+        <v>926</v>
       </c>
       <c r="G3" t="s">
-        <v>915</v>
+        <v>927</v>
       </c>
       <c r="H3" t="s">
-        <v>916</v>
+        <v>928</v>
       </c>
       <c r="I3" t="s">
-        <v>917</v>
+        <v>929</v>
       </c>
       <c r="J3" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
       <c r="K3" t="s">
-        <v>919</v>
+        <v>931</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
       <c r="B4" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
       <c r="C4" t="s">
-        <v>922</v>
+        <v>934</v>
       </c>
       <c r="D4" t="s">
-        <v>923</v>
+        <v>935</v>
       </c>
       <c r="E4" t="s">
         <v>88</v>
       </c>
       <c r="F4" t="s">
-        <v>924</v>
+        <v>936</v>
       </c>
       <c r="G4" t="s">
-        <v>925</v>
+        <v>937</v>
       </c>
       <c r="H4" t="s">
-        <v>926</v>
+        <v>938</v>
       </c>
       <c r="I4" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
       <c r="J4" t="s">
-        <v>927</v>
+        <v>939</v>
       </c>
       <c r="K4" t="s">
-        <v>928</v>
+        <v>940</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>929</v>
+        <v>941</v>
       </c>
       <c r="B5" t="s">
-        <v>930</v>
+        <v>942</v>
       </c>
       <c r="C5" t="s">
-        <v>931</v>
+        <v>943</v>
       </c>
       <c r="D5" t="s">
-        <v>932</v>
+        <v>944</v>
       </c>
       <c r="E5" t="s">
         <v>88</v>
       </c>
       <c r="F5" t="s">
-        <v>933</v>
+        <v>945</v>
       </c>
       <c r="G5" t="s">
-        <v>934</v>
+        <v>946</v>
       </c>
       <c r="H5" t="s">
-        <v>935</v>
+        <v>947</v>
       </c>
       <c r="I5" t="s">
-        <v>930</v>
+        <v>942</v>
       </c>
       <c r="J5" t="s">
-        <v>936</v>
+        <v>948</v>
       </c>
       <c r="K5" t="s">
-        <v>937</v>
+        <v>949</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>938</v>
+        <v>950</v>
       </c>
       <c r="B6" t="s">
-        <v>939</v>
+        <v>951</v>
       </c>
       <c r="C6" t="s">
-        <v>940</v>
+        <v>952</v>
       </c>
       <c r="D6" t="s">
-        <v>941</v>
+        <v>953</v>
       </c>
       <c r="E6" t="s">
         <v>88</v>
       </c>
       <c r="F6" t="s">
-        <v>942</v>
+        <v>954</v>
       </c>
       <c r="G6" t="s">
-        <v>943</v>
+        <v>955</v>
       </c>
       <c r="H6" t="s">
-        <v>944</v>
+        <v>956</v>
       </c>
       <c r="I6" t="s">
-        <v>945</v>
+        <v>957</v>
       </c>
       <c r="J6" t="s">
-        <v>946</v>
+        <v>958</v>
       </c>
       <c r="K6" t="s">
-        <v>947</v>
+        <v>959</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>948</v>
+        <v>960</v>
       </c>
       <c r="B7" t="s">
-        <v>949</v>
+        <v>961</v>
       </c>
       <c r="C7" t="s">
-        <v>950</v>
+        <v>962</v>
       </c>
       <c r="D7" t="s">
-        <v>951</v>
+        <v>963</v>
       </c>
       <c r="E7" t="s">
         <v>88</v>
       </c>
       <c r="F7" t="s">
-        <v>952</v>
+        <v>964</v>
       </c>
       <c r="G7" t="s">
-        <v>953</v>
+        <v>965</v>
       </c>
       <c r="H7" t="s">
-        <v>954</v>
+        <v>966</v>
       </c>
       <c r="I7" t="s">
-        <v>955</v>
+        <v>967</v>
       </c>
       <c r="J7" t="s">
-        <v>956</v>
+        <v>968</v>
       </c>
       <c r="K7" t="s">
-        <v>957</v>
+        <v>969</v>
       </c>
     </row>
   </sheetData>
@@ -4312,34 +4348,34 @@
         <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>958</v>
+        <v>970</v>
       </c>
       <c r="C2" t="s">
-        <v>959</v>
+        <v>971</v>
       </c>
       <c r="D2" t="s">
-        <v>960</v>
+        <v>972</v>
       </c>
       <c r="E2" t="s">
         <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>961</v>
+        <v>973</v>
       </c>
       <c r="G2" t="s">
-        <v>962</v>
+        <v>974</v>
       </c>
       <c r="H2" t="s">
-        <v>963</v>
+        <v>975</v>
       </c>
       <c r="I2" t="s">
-        <v>964</v>
+        <v>976</v>
       </c>
       <c r="J2" t="s">
-        <v>965</v>
+        <v>977</v>
       </c>
       <c r="K2" t="s">
-        <v>966</v>
+        <v>978</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -4347,209 +4383,209 @@
         <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>967</v>
+        <v>979</v>
       </c>
       <c r="C3" t="s">
-        <v>968</v>
+        <v>980</v>
       </c>
       <c r="D3" t="s">
-        <v>969</v>
+        <v>981</v>
       </c>
       <c r="E3" t="s">
         <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>970</v>
+        <v>982</v>
       </c>
       <c r="G3" t="s">
-        <v>971</v>
+        <v>983</v>
       </c>
       <c r="H3" t="s">
-        <v>972</v>
+        <v>984</v>
       </c>
       <c r="I3" t="s">
-        <v>973</v>
+        <v>985</v>
       </c>
       <c r="J3" t="s">
-        <v>974</v>
+        <v>986</v>
       </c>
       <c r="K3" t="s">
-        <v>975</v>
+        <v>987</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
       <c r="B4" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
       <c r="C4" t="s">
-        <v>922</v>
+        <v>934</v>
       </c>
       <c r="D4" t="s">
-        <v>923</v>
+        <v>935</v>
       </c>
       <c r="E4" t="s">
         <v>88</v>
       </c>
       <c r="F4" t="s">
-        <v>924</v>
+        <v>936</v>
       </c>
       <c r="G4" t="s">
-        <v>925</v>
+        <v>937</v>
       </c>
       <c r="H4" t="s">
-        <v>926</v>
+        <v>938</v>
       </c>
       <c r="I4" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
       <c r="J4" t="s">
-        <v>927</v>
+        <v>939</v>
       </c>
       <c r="K4" t="s">
-        <v>976</v>
+        <v>988</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>929</v>
+        <v>941</v>
       </c>
       <c r="B5" t="s">
-        <v>930</v>
+        <v>942</v>
       </c>
       <c r="C5" t="s">
-        <v>931</v>
+        <v>943</v>
       </c>
       <c r="D5" t="s">
-        <v>932</v>
+        <v>944</v>
       </c>
       <c r="E5" t="s">
         <v>88</v>
       </c>
       <c r="F5" t="s">
-        <v>933</v>
+        <v>945</v>
       </c>
       <c r="G5" t="s">
-        <v>934</v>
+        <v>946</v>
       </c>
       <c r="H5" t="s">
-        <v>935</v>
+        <v>947</v>
       </c>
       <c r="I5" t="s">
-        <v>930</v>
+        <v>942</v>
       </c>
       <c r="J5" t="s">
-        <v>936</v>
+        <v>948</v>
       </c>
       <c r="K5" t="s">
-        <v>977</v>
+        <v>989</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>938</v>
+        <v>950</v>
       </c>
       <c r="B6" t="s">
-        <v>939</v>
+        <v>951</v>
       </c>
       <c r="C6" t="s">
-        <v>940</v>
+        <v>952</v>
       </c>
       <c r="D6" t="s">
-        <v>941</v>
+        <v>953</v>
       </c>
       <c r="E6" t="s">
         <v>88</v>
       </c>
       <c r="F6" t="s">
-        <v>942</v>
+        <v>954</v>
       </c>
       <c r="G6" t="s">
-        <v>943</v>
+        <v>955</v>
       </c>
       <c r="H6" t="s">
-        <v>978</v>
+        <v>990</v>
       </c>
       <c r="I6" t="s">
-        <v>945</v>
+        <v>957</v>
       </c>
       <c r="J6" t="s">
-        <v>946</v>
+        <v>958</v>
       </c>
       <c r="K6" t="s">
-        <v>947</v>
+        <v>959</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>948</v>
+        <v>960</v>
       </c>
       <c r="B7" t="s">
-        <v>949</v>
+        <v>961</v>
       </c>
       <c r="C7" t="s">
-        <v>950</v>
+        <v>962</v>
       </c>
       <c r="D7" t="s">
-        <v>951</v>
+        <v>963</v>
       </c>
       <c r="E7" t="s">
         <v>88</v>
       </c>
       <c r="F7" t="s">
-        <v>952</v>
+        <v>964</v>
       </c>
       <c r="G7" t="s">
-        <v>953</v>
+        <v>965</v>
       </c>
       <c r="H7" t="s">
-        <v>979</v>
+        <v>991</v>
       </c>
       <c r="I7" t="s">
-        <v>955</v>
+        <v>967</v>
       </c>
       <c r="J7" t="s">
-        <v>956</v>
+        <v>968</v>
       </c>
       <c r="K7" t="s">
-        <v>957</v>
+        <v>969</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>980</v>
+        <v>992</v>
       </c>
       <c r="B8" t="s">
-        <v>981</v>
+        <v>993</v>
       </c>
       <c r="C8" t="s">
-        <v>982</v>
+        <v>994</v>
       </c>
       <c r="D8" t="s">
-        <v>983</v>
+        <v>995</v>
       </c>
       <c r="E8" t="s">
         <v>88</v>
       </c>
       <c r="F8" t="s">
-        <v>984</v>
+        <v>996</v>
       </c>
       <c r="G8" t="s">
         <v>88</v>
       </c>
       <c r="H8" t="s">
-        <v>985</v>
+        <v>997</v>
       </c>
       <c r="I8" t="s">
-        <v>981</v>
+        <v>993</v>
       </c>
       <c r="J8" t="s">
-        <v>986</v>
+        <v>998</v>
       </c>
       <c r="K8" t="s">
-        <v>987</v>
+        <v>999</v>
       </c>
     </row>
   </sheetData>
@@ -4605,34 +4641,34 @@
         <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>988</v>
+        <v>1000</v>
       </c>
       <c r="C2" t="s">
-        <v>989</v>
+        <v>1001</v>
       </c>
       <c r="D2" t="s">
-        <v>990</v>
+        <v>1002</v>
       </c>
       <c r="E2" t="s">
         <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>991</v>
+        <v>1003</v>
       </c>
       <c r="G2" t="s">
-        <v>992</v>
+        <v>1004</v>
       </c>
       <c r="H2" t="s">
-        <v>993</v>
+        <v>1005</v>
       </c>
       <c r="I2" t="s">
-        <v>994</v>
+        <v>1006</v>
       </c>
       <c r="J2" t="s">
-        <v>995</v>
+        <v>1007</v>
       </c>
       <c r="K2" t="s">
-        <v>996</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -4640,314 +4676,314 @@
         <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>997</v>
+        <v>1009</v>
       </c>
       <c r="C3" t="s">
-        <v>998</v>
+        <v>1010</v>
       </c>
       <c r="D3" t="s">
-        <v>999</v>
+        <v>1011</v>
       </c>
       <c r="E3" t="s">
         <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>1000</v>
+        <v>1012</v>
       </c>
       <c r="G3" t="s">
         <v>88</v>
       </c>
       <c r="H3" t="s">
-        <v>1001</v>
+        <v>1013</v>
       </c>
       <c r="I3" t="s">
-        <v>1002</v>
+        <v>1014</v>
       </c>
       <c r="J3" t="s">
-        <v>1003</v>
+        <v>1015</v>
       </c>
       <c r="K3" t="s">
-        <v>1004</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>1005</v>
+        <v>1017</v>
       </c>
       <c r="B4" t="s">
-        <v>1006</v>
+        <v>1018</v>
       </c>
       <c r="C4" t="s">
-        <v>1007</v>
+        <v>1019</v>
       </c>
       <c r="D4" t="s">
-        <v>1008</v>
+        <v>1020</v>
       </c>
       <c r="E4" t="s">
         <v>88</v>
       </c>
       <c r="F4" t="s">
-        <v>1009</v>
+        <v>1021</v>
       </c>
       <c r="G4" t="s">
         <v>88</v>
       </c>
       <c r="H4" t="s">
-        <v>1010</v>
+        <v>1022</v>
       </c>
       <c r="I4" t="s">
-        <v>1011</v>
+        <v>1023</v>
       </c>
       <c r="J4" t="s">
-        <v>1012</v>
+        <v>1024</v>
       </c>
       <c r="K4" t="s">
-        <v>1013</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>1014</v>
+        <v>1026</v>
       </c>
       <c r="B5" t="s">
-        <v>1015</v>
+        <v>1027</v>
       </c>
       <c r="C5" t="s">
-        <v>1016</v>
+        <v>1028</v>
       </c>
       <c r="D5" t="s">
-        <v>1017</v>
+        <v>1029</v>
       </c>
       <c r="E5" t="s">
         <v>88</v>
       </c>
       <c r="F5" t="s">
-        <v>1018</v>
+        <v>1030</v>
       </c>
       <c r="G5" t="s">
-        <v>1019</v>
+        <v>1031</v>
       </c>
       <c r="H5" t="s">
-        <v>1020</v>
+        <v>1032</v>
       </c>
       <c r="I5" t="s">
-        <v>1021</v>
+        <v>1033</v>
       </c>
       <c r="J5" t="s">
-        <v>1022</v>
+        <v>1034</v>
       </c>
       <c r="K5" t="s">
-        <v>1023</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>1024</v>
+        <v>1036</v>
       </c>
       <c r="B6" t="s">
-        <v>1025</v>
+        <v>1037</v>
       </c>
       <c r="C6" t="s">
-        <v>1026</v>
+        <v>1038</v>
       </c>
       <c r="D6" t="s">
-        <v>1027</v>
+        <v>1039</v>
       </c>
       <c r="E6" t="s">
         <v>88</v>
       </c>
       <c r="F6" t="s">
-        <v>1028</v>
+        <v>1040</v>
       </c>
       <c r="G6" t="s">
         <v>88</v>
       </c>
       <c r="H6" t="s">
-        <v>1029</v>
+        <v>1041</v>
       </c>
       <c r="I6" t="s">
-        <v>1030</v>
+        <v>1042</v>
       </c>
       <c r="J6" t="s">
-        <v>1031</v>
+        <v>1043</v>
       </c>
       <c r="K6" t="s">
-        <v>1032</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>1033</v>
+        <v>1045</v>
       </c>
       <c r="B7" t="s">
-        <v>1034</v>
+        <v>1046</v>
       </c>
       <c r="C7" t="s">
-        <v>1035</v>
+        <v>1047</v>
       </c>
       <c r="D7" t="s">
-        <v>1036</v>
+        <v>1048</v>
       </c>
       <c r="E7" t="s">
         <v>88</v>
       </c>
       <c r="F7" t="s">
-        <v>1037</v>
+        <v>1049</v>
       </c>
       <c r="G7" t="s">
         <v>88</v>
       </c>
       <c r="H7" t="s">
-        <v>1038</v>
+        <v>1050</v>
       </c>
       <c r="I7" t="s">
-        <v>1039</v>
+        <v>1051</v>
       </c>
       <c r="J7" t="s">
-        <v>1040</v>
+        <v>1052</v>
       </c>
       <c r="K7" t="s">
-        <v>1041</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>1042</v>
+        <v>1054</v>
       </c>
       <c r="B8" t="s">
-        <v>1043</v>
+        <v>1055</v>
       </c>
       <c r="C8" t="s">
-        <v>1044</v>
+        <v>1056</v>
       </c>
       <c r="D8" t="s">
-        <v>1045</v>
+        <v>1057</v>
       </c>
       <c r="E8" t="s">
         <v>88</v>
       </c>
       <c r="F8" t="s">
-        <v>1046</v>
+        <v>1058</v>
       </c>
       <c r="G8" t="s">
         <v>88</v>
       </c>
       <c r="H8" t="s">
-        <v>1047</v>
+        <v>1059</v>
       </c>
       <c r="I8" t="s">
-        <v>1048</v>
+        <v>1060</v>
       </c>
       <c r="J8" t="s">
-        <v>1049</v>
+        <v>1061</v>
       </c>
       <c r="K8" t="s">
-        <v>1050</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>1051</v>
+        <v>1063</v>
       </c>
       <c r="B9" t="s">
-        <v>1052</v>
+        <v>1064</v>
       </c>
       <c r="C9" t="s">
-        <v>1053</v>
+        <v>1065</v>
       </c>
       <c r="D9" t="s">
-        <v>1054</v>
+        <v>1066</v>
       </c>
       <c r="E9" t="s">
         <v>88</v>
       </c>
       <c r="F9" t="s">
-        <v>1055</v>
+        <v>1067</v>
       </c>
       <c r="G9" t="s">
         <v>88</v>
       </c>
       <c r="H9" t="s">
-        <v>1056</v>
+        <v>1068</v>
       </c>
       <c r="I9" t="s">
-        <v>1057</v>
+        <v>1069</v>
       </c>
       <c r="J9" t="s">
-        <v>1058</v>
+        <v>1070</v>
       </c>
       <c r="K9" t="s">
-        <v>1059</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>1060</v>
+        <v>1072</v>
       </c>
       <c r="B10" t="s">
-        <v>1061</v>
+        <v>1073</v>
       </c>
       <c r="C10" t="s">
-        <v>1062</v>
+        <v>1074</v>
       </c>
       <c r="D10" t="s">
-        <v>1063</v>
+        <v>1075</v>
       </c>
       <c r="E10" t="s">
-        <v>1064</v>
+        <v>1076</v>
       </c>
       <c r="F10" t="s">
-        <v>1065</v>
+        <v>1077</v>
       </c>
       <c r="G10" t="s">
         <v>88</v>
       </c>
       <c r="H10" t="s">
-        <v>1066</v>
+        <v>1078</v>
       </c>
       <c r="I10" t="s">
-        <v>1067</v>
+        <v>1079</v>
       </c>
       <c r="J10" t="s">
-        <v>1068</v>
+        <v>1080</v>
       </c>
       <c r="K10" t="s">
-        <v>1069</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>1070</v>
+        <v>1082</v>
       </c>
       <c r="B11" t="s">
-        <v>1071</v>
+        <v>1083</v>
       </c>
       <c r="C11" t="s">
-        <v>1072</v>
+        <v>1084</v>
       </c>
       <c r="D11" t="s">
-        <v>1073</v>
+        <v>1085</v>
       </c>
       <c r="E11" t="s">
         <v>88</v>
       </c>
       <c r="F11" t="s">
-        <v>1074</v>
+        <v>1086</v>
       </c>
       <c r="G11" t="s">
-        <v>1075</v>
+        <v>1087</v>
       </c>
       <c r="H11" t="s">
-        <v>1076</v>
+        <v>1088</v>
       </c>
       <c r="I11" t="s">
-        <v>1077</v>
+        <v>1089</v>
       </c>
       <c r="J11" t="s">
-        <v>1078</v>
+        <v>1090</v>
       </c>
       <c r="K11" t="s">
-        <v>1079</v>
+        <v>1091</v>
       </c>
     </row>
   </sheetData>
@@ -5648,7 +5684,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5699,93 +5735,293 @@
       <c r="C2" t="s">
         <v>223</v>
       </c>
+      <c r="D2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J2" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C3" t="s">
-        <v>225</v>
+        <v>226</v>
+      </c>
+      <c r="D3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J3" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B4" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C4" t="s">
-        <v>228</v>
+        <v>230</v>
+      </c>
+      <c r="D4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J4" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B5" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C5" t="s">
-        <v>231</v>
+        <v>234</v>
+      </c>
+      <c r="D5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H5" t="s">
+        <v>88</v>
+      </c>
+      <c r="I5" t="s">
+        <v>88</v>
+      </c>
+      <c r="J5" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B6" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C6" t="s">
-        <v>234</v>
+        <v>238</v>
+      </c>
+      <c r="D6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I6" t="s">
+        <v>88</v>
+      </c>
+      <c r="J6" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="C7" t="s">
-        <v>237</v>
+        <v>242</v>
+      </c>
+      <c r="D7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H7" t="s">
+        <v>88</v>
+      </c>
+      <c r="I7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="B8" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C8" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B9" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="C9" t="s">
-        <v>243</v>
+        <v>249</v>
+      </c>
+      <c r="D9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" t="s">
+        <v>88</v>
+      </c>
+      <c r="H9" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9" t="s">
+        <v>88</v>
+      </c>
+      <c r="J9" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="B10" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="C10" t="s">
-        <v>246</v>
+        <v>253</v>
+      </c>
+      <c r="D10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H10" t="s">
+        <v>88</v>
+      </c>
+      <c r="I10" t="s">
+        <v>88</v>
+      </c>
+      <c r="J10" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>255</v>
+      </c>
+      <c r="B11" t="s">
+        <v>256</v>
+      </c>
+      <c r="C11" t="s">
+        <v>257</v>
+      </c>
+      <c r="D11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" t="s">
+        <v>88</v>
+      </c>
+      <c r="H11" t="s">
+        <v>88</v>
+      </c>
+      <c r="I11" t="s">
+        <v>88</v>
+      </c>
+      <c r="J11" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -5841,34 +6077,34 @@
         <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="C2" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="D2" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="E2" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="F2" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="G2" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="H2" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="I2" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="J2" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="K2" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -5876,524 +6112,524 @@
         <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="C3" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="D3" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="E3" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="F3" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="G3" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="H3" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="I3" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="J3" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="K3" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="B4" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="C4" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="D4" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="E4" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="F4" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="G4" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="H4" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="I4" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="J4" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="K4" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="B5" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="C5" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="D5" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="E5" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="F5" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="G5" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="H5" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="I5" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="J5" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="K5" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="B6" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="C6" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="D6" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="E6" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="F6" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="G6" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="H6" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="I6" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="J6" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="K6" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="B7" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="C7" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="D7" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="E7" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="F7" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="G7" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="H7" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="I7" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="J7" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="K7" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="B8" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="C8" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="D8" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="E8" t="s">
         <v>88</v>
       </c>
       <c r="F8" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="G8" t="s">
         <v>88</v>
       </c>
       <c r="H8" t="s">
-        <v>316</v>
+   